--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>built-in functions</t>
   </si>
@@ -51,6 +51,75 @@
   </si>
   <si>
     <t>isinstance(x,str/int/float/bool)</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>运算符</t>
+  </si>
+  <si>
+    <t>floor除法</t>
+  </si>
+  <si>
+    <t>向下舍入</t>
+  </si>
+  <si>
+    <t>3//2</t>
+  </si>
+  <si>
+    <t>=1</t>
+  </si>
+  <si>
+    <t>幂运算</t>
+  </si>
+  <si>
+    <t>优先级比左侧的高，比右侧的低</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; 2 ** 3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; -3 ** 2</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; 3 ** -2</t>
+  </si>
+  <si>
+    <t>0.1111111111111111</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; (-3) ** 2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; -(3 ** 2)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>assert的作用是现计算表达式 expression ，如果其值为假（即为0），那么它先向stderr打印一条出错信息，然后通过调用 abort 来终止程序运行。请看下面的程序清单badptr.c：</t>
+  </si>
+  <si>
+    <t>循环</t>
+  </si>
+  <si>
+    <t>for xx in xx</t>
   </si>
 </sst>
 </file>
@@ -401,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B22"/>
+  <dimension ref="B2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,34 +513,143 @@
       </c>
     </row>
     <row r="15" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>built-in functions</t>
   </si>
@@ -120,16 +120,59 @@
   </si>
   <si>
     <t>for xx in xx</t>
+  </si>
+  <si>
+    <t>range(start,stop,step=1)</t>
+  </si>
+  <si>
+    <t>list(range())</t>
+  </si>
+  <si>
+    <t>range(5)</t>
+  </si>
+  <si>
+    <t>从0开始！</t>
+  </si>
+  <si>
+    <t>元素：0-4</t>
+  </si>
+  <si>
+    <t>range(2,9)</t>
+  </si>
+  <si>
+    <t>元素：2-8</t>
+  </si>
+  <si>
+    <t>for i in range(10):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(i)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    i *= 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print (i)</t>
+  </si>
+  <si>
+    <t>不会影响到循环体i的值！！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,11 +204,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H49"/>
+  <dimension ref="B2:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,9 +692,61 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="187">
   <si>
     <t>built-in functions</t>
   </si>
@@ -156,25 +156,540 @@
   </si>
   <si>
     <t>不会影响到循环体i的值！！</t>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number = [1, 2, 3, 4, 5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mix = ["测试", 1, 3.14, [1, 2, 3]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty = []</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>append()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>member = ["房屋面积", "地段", "总价格", "每平米单价", "周围设施及交通"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number = [1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.append('2')</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, '2']</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.append("33")</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, '2', '33']</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; member = ["房屋面积", "地段", "总价格", "每平米单价", "周围设施及交通"]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; member</t>
+  </si>
+  <si>
+    <t>['房屋面积', '地段', '总价格', '每平米单价', '周围设施及交通']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; </t>
+  </si>
+  <si>
+    <t>注意单引号和双引号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加多个元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend([])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number.extend([111,222])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.extend([111,222])</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, '2', '33', 111, 222]</t>
+  </si>
+  <si>
+    <t>插入一个元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert(插入位置,插入元素)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.insert(0,100)</t>
+  </si>
+  <si>
+    <t>[100, 1, 123, 2, 3, 4, 5, '2', '33', 111, 222]</t>
+  </si>
+  <si>
+    <t>获取元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引(index,角标)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number[1]</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number[0]</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>删除一个元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number.remove(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100, 123, 2, 3, 4, 5, '2', '33', 111, 222]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.append(1)</t>
+  </si>
+  <si>
+    <t>[100, 123, 2, 3, 4, 5, '2', '33', 111, 222, 1, 1]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.remove(1)</t>
+  </si>
+  <si>
+    <t>[100, 123, 2, 3, 4, 5, '2', '33', 111, 222, 1]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.insert(3,1)</t>
+  </si>
+  <si>
+    <t>[100, 123, 2, 1, 3, 4, 5, '2', '33', 111, 222, 1]</t>
+  </si>
+  <si>
+    <r>
+      <t>删除是重复数据是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后进先出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原则！！</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; del number[1]</t>
+  </si>
+  <si>
+    <t>[100, 2, 3, 4, 5, '2', '33', 111, 222, 1]</t>
+  </si>
+  <si>
+    <t>Traceback (most recent call last):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "&lt;pyshell#32&gt;", line 1, in &lt;module&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    del number[10]</t>
+  </si>
+  <si>
+    <t>IndexError: list assignment index out of range</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; del number[10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.remove(1000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "&lt;pyshell#33&gt;", line 1, in &lt;module&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    number.remove(1000)</t>
+  </si>
+  <si>
+    <t>ValueError: list.remove(x): x not in list</t>
+  </si>
+  <si>
+    <t>del number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彻底删除！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除最后一个元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100, 2, 123, 3, 4, 5, '2', '33', 111, 222, 1]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.pop()</t>
+  </si>
+  <si>
+    <t>[100, 2, 123, 3, 4, 5, '2', '33', 111, 222]</t>
+  </si>
+  <si>
+    <t>列表分片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得大于等于x(可以省略)，小于y位置的number的子列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[x:y]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number[:3]</t>
+  </si>
+  <si>
+    <t>[100, 2, 123]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number[1:3]</t>
+  </si>
+  <si>
+    <t>[2, 123]</t>
+  </si>
+  <si>
+    <t>列表操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list1 = [123,456]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list2 = [789,100]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list3 = list1 + list2</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list3</t>
+  </si>
+  <si>
+    <t>[123, 456, 789, 100]</t>
+  </si>
+  <si>
+    <t>[123, 456, 123, 456, 123, 456]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list1 *= 3</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list1</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list1 * 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; 123 in list1</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; 123,456 in list1</t>
+  </si>
+  <si>
+    <t>(123, True)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; 123,234 in list1</t>
+  </si>
+  <si>
+    <t>(123, False)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; [123,456] in list1</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list1.append([123,456])</t>
+  </si>
+  <si>
+    <t>[123, 456, 123, 456, 123, 456, [123, 456]]</t>
+  </si>
+  <si>
+    <t>比较</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN/NOT IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list1[6][1]</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100, 1, 2, 123, 3, 4, 5, '2', '33', 111, 222, 1]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.count(1)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>COUNT/INDEX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.index(1,2,8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "&lt;pyshell#67&gt;", line 1, in &lt;module&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    number.index(1,2,8)</t>
+  </si>
+  <si>
+    <t>ValueError: 1 is not in list</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.index(1,2,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "&lt;pyshell#68&gt;", line 1, in &lt;module&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    number.index(1,2,6)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.index(1,1,6)</t>
+  </si>
+  <si>
+    <t>REVERSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.reverse()</t>
+  </si>
+  <si>
+    <t>[1, 222, 111, '33', '2', 5, 4, 3, 123, 2, 1, 100]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.reverse</t>
+  </si>
+  <si>
+    <t>&lt;built-in method reverse of list object at 0x000001BA5D000D08&gt;</t>
+  </si>
+  <si>
+    <t>需要括号！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SORT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number.sort()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从小到大排序！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; number.sort()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "&lt;pyshell#81&gt;", line 1, in &lt;module&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    number.sort()</t>
+  </si>
+  <si>
+    <t>TypeError: unorderable types: str() &lt; int()</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 100, 123, '2', '33', 222, 111, 1]</t>
+  </si>
+  <si>
+    <t>同类型的数据才能sort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.sort(reverse=True)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从大到小排序！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list = number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list = number[:]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list和number都会随着对方的变化而变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list =[1,2,3]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; n = list</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; n</t>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list.append(4)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; n.append(5)</t>
+  </si>
+  <si>
+    <t>完全copy，不会影响对方！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 2, 3, 5]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -204,16 +719,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -229,7 +746,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -515,86 +1032,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H61"/>
+  <dimension ref="A2:J302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
@@ -611,7 +1128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
@@ -622,63 +1139,63 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E39" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
@@ -686,23 +1203,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>36</v>
       </c>
@@ -716,7 +1233,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E55" s="1" t="s">
         <v>40</v>
       </c>
@@ -724,17 +1241,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>44</v>
       </c>
@@ -744,12 +1261,1077 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="63" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B71" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B81" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B92" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B93" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B94" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B97" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B99" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B100" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B101" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B102" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B104" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B106" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B107" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B108" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B109" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B110" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B111" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B112" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B114" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B116" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B118" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B119" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B120" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B121" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B122" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B123" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B124" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B125" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B126" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B127" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B128" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B129" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B130" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B131" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B132" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B133" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B135" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B136" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B137" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B138" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B139" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B140" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B142" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B144" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B145" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B146" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B147" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B148" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B149" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B150" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B151" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B152" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B153" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B154" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B155" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B157" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B160" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B162" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B163" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B164" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B165" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B166" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B167" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B168" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B172" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B174" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B176" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B177" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B178" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B179" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B180" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B181" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B182" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B184" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C185" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C186" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C187" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C188" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C189" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C190" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C191" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C192" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C193" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C194" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C195" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C196" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C197" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C198" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C199" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B201" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C202" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C203" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C204" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C205" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C206" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C207" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C208" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C209" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C210" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C211" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C212" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C213" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C214" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C215" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C216" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B219" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A220" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B221" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B222" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B223" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B224" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B225" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B226" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B227" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B228" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B229" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B230" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B231" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B232" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A234" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B235" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B236" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B237" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B238" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B239" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B240" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B241" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B242" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B243" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B244" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B245" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B246" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B247" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B248" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B250" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B251" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B252" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B253" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B254" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B255" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B256" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A259" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B260" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B261" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B262" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B263" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B264" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B265" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B266" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B267" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B268" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B269" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B270" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B271" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B272" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B273" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B274" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B275" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B276" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B277" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A279" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J279" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B280" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B281" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B282" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B283" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B284" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B285" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B286" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B287" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B288" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B289" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A291" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I291" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B292" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B294" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B295" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B296" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B297" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B298" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B299" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B300" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="355">
   <si>
     <t>built-in functions</t>
   </si>
@@ -316,7 +316,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -647,30 +647,1315 @@
   </si>
   <si>
     <t>[1, 2, 3, 5]</t>
+  </si>
+  <si>
+    <t>元组</t>
+  </si>
+  <si>
+    <t>tuple</t>
+  </si>
+  <si>
+    <t>不可更改的list</t>
+  </si>
+  <si>
+    <t>逗号是决定性因素</t>
+  </si>
+  <si>
+    <r>
+      <t>定义一个元素的话，要在元素后面加个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逗号</t>
+    </r>
+  </si>
+  <si>
+    <t>元组的更新和删除，只能通过对元组进行重新定义。</t>
+  </si>
+  <si>
+    <t>BIF</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
+    <t>列表分片</t>
+  </si>
+  <si>
+    <t>列表操作</t>
+  </si>
+  <si>
+    <t>字符串操作</t>
+  </si>
+  <si>
+    <t>capitalize()</t>
+  </si>
+  <si>
+    <t>把字符串的第一个字符改为大写</t>
+  </si>
+  <si>
+    <t>casefold()</t>
+  </si>
+  <si>
+    <t>把整个字符串的所有字符改为小写</t>
+  </si>
+  <si>
+    <t>center(width)</t>
+  </si>
+  <si>
+    <t>将字符串居中，并使用空格填充至长度 width 的新字符串</t>
+  </si>
+  <si>
+    <t>count(sub[, start[, end]])</t>
+  </si>
+  <si>
+    <t>返回 sub 在字符串里边出现的次数，start 和 end 参数表示范围，可选。</t>
+  </si>
+  <si>
+    <t>encode(encoding='utf-8', errors='strict')</t>
+  </si>
+  <si>
+    <t>以 encoding 指定的编码格式对字符串进行编码。</t>
+  </si>
+  <si>
+    <t>endswith(sub[, start[, end]])</t>
+  </si>
+  <si>
+    <t>检查字符串是否以 sub 子字符串结束，如果是返回 True，否则返回 False。start 和 end 参数表示范围，可选。</t>
+  </si>
+  <si>
+    <t>expandtabs([tabsize=8])</t>
+  </si>
+  <si>
+    <t>把字符串中的 tab 符号（\t）转换为空格，如不指定参数，默认的空格数是 tabsize=8。</t>
+  </si>
+  <si>
+    <t>find(sub[, start[, end]])</t>
+  </si>
+  <si>
+    <t>检测 sub 是否包含在字符串中，如果有则返回索引值，否则返回 -1，start 和 end 参数表示范围，可选。</t>
+  </si>
+  <si>
+    <t>index(sub[, start[, end]])</t>
+  </si>
+  <si>
+    <t>跟 find 方法一样，不过如果 sub 不在 string 中会产生一个异常。</t>
+  </si>
+  <si>
+    <t>isalnum()</t>
+  </si>
+  <si>
+    <t>如果字符串至少有一个字符并且所有字符都是字母或数字则返回 True，否则返回 False。</t>
+  </si>
+  <si>
+    <t>isalpha()</t>
+  </si>
+  <si>
+    <t>如果字符串至少有一个字符并且所有字符都是字母则返回 True，否则返回 False。</t>
+  </si>
+  <si>
+    <t>isdecimal()</t>
+  </si>
+  <si>
+    <t>如果字符串只包含十进制数字则返回 True，否则返回 False。</t>
+  </si>
+  <si>
+    <t>isdigit()</t>
+  </si>
+  <si>
+    <t>如果字符串只包含数字则返回 True，否则返回 False。</t>
+  </si>
+  <si>
+    <t>islower()</t>
+  </si>
+  <si>
+    <t>如果字符串中至少包含一个区分大小写的字符，并且这些字符都是小写，则返回 True，否则返回 False。</t>
+  </si>
+  <si>
+    <t>isnumeric()</t>
+  </si>
+  <si>
+    <t>如果字符串中只包含数字字符，则返回 True，否则返回 False。</t>
+  </si>
+  <si>
+    <t>isspace()</t>
+  </si>
+  <si>
+    <t>如果字符串中只包含空格，则返回 True，否则返回 False。</t>
+  </si>
+  <si>
+    <t>istitle()</t>
+  </si>
+  <si>
+    <t>如果字符串是标题化（所有的单词都是以大写开始，其余字母均小写），则返回 True，否则返回 False。</t>
+  </si>
+  <si>
+    <t>isupper()</t>
+  </si>
+  <si>
+    <t>如果字符串中至少包含一个区分大小写的字符，并且这些字符都是大写，则返回 True，否则返回 False。</t>
+  </si>
+  <si>
+    <t>join(sub)</t>
+  </si>
+  <si>
+    <t>以字符串作为分隔符，插入到 sub 中所有的字符之间。</t>
+  </si>
+  <si>
+    <t>ljust(width)</t>
+  </si>
+  <si>
+    <t>返回一个左对齐的字符串，并使用空格填充至长度为 width 的新字符串。</t>
+  </si>
+  <si>
+    <t>lower()</t>
+  </si>
+  <si>
+    <t>转换字符串中所有大写字符为小写。</t>
+  </si>
+  <si>
+    <t>lstrip()</t>
+  </si>
+  <si>
+    <t>去掉字符串左边的所有空格</t>
+  </si>
+  <si>
+    <t>partition(sub)</t>
+  </si>
+  <si>
+    <t>找到子字符串 sub，把字符串分成一个 3 元组 (pre_sub, sub, fol_sub)，如果字符串中不包含 sub 则返回 ('原字符串', '', '')</t>
+  </si>
+  <si>
+    <t>replace(old, new[, count])</t>
+  </si>
+  <si>
+    <t>把字符串中的 old 子字符串替换成 new 子字符串，如果 count 指定，则替换不超过 count 次。</t>
+  </si>
+  <si>
+    <t>rfind(sub[, start[, end]])</t>
+  </si>
+  <si>
+    <t>类似于 find() 方法，不过是从右边开始查找。</t>
+  </si>
+  <si>
+    <t>rindex(sub[, start[, end]])</t>
+  </si>
+  <si>
+    <t>类似于 index() 方法，不过是从右边开始。</t>
+  </si>
+  <si>
+    <t>rjust(width)</t>
+  </si>
+  <si>
+    <t>返回一个右对齐的字符串，并使用空格填充至长度为 width 的新字符串。</t>
+  </si>
+  <si>
+    <t>rpartition(sub)</t>
+  </si>
+  <si>
+    <t>类似于 partition() 方法，不过是从右边开始查找。</t>
+  </si>
+  <si>
+    <t>rstrip()</t>
+  </si>
+  <si>
+    <t>删除字符串末尾的空格。</t>
+  </si>
+  <si>
+    <t>split(sep=None, maxsplit=-1)</t>
+  </si>
+  <si>
+    <t>不带参数默认是以空格为分隔符切片字符串，如果 maxsplit 参数有设置，则仅分隔 maxsplit 个子字符串，返回切片后的子字符串拼接的列表。</t>
+  </si>
+  <si>
+    <t>splitlines(([keepends]))</t>
+  </si>
+  <si>
+    <t>按照 '\n' 分隔，返回一个包含各行作为元素的列表，如果 keepends 参数指定，则返回前 keepends 行。</t>
+  </si>
+  <si>
+    <t>startswith(prefix[, start[, end]])</t>
+  </si>
+  <si>
+    <t>检查字符串是否以 prefix 开头，是则返回 True，否则返回 False。start 和 end 参数可以指定范围检查，可选。</t>
+  </si>
+  <si>
+    <t>strip([chars])</t>
+  </si>
+  <si>
+    <t>删除字符串前边和后边所有的空格，chars 参数可以定制删除的字符，可选。</t>
+  </si>
+  <si>
+    <t>swapcase()</t>
+  </si>
+  <si>
+    <t>翻转字符串中的大小写。</t>
+  </si>
+  <si>
+    <t>title()</t>
+  </si>
+  <si>
+    <t>返回标题化（所有的单词都是以大写开始，其余字母均小写）的字符串。</t>
+  </si>
+  <si>
+    <t>translate(table)</t>
+  </si>
+  <si>
+    <t>根据 table 的规则（可以由 str.maketrans('a', 'b') 定制）转换字符串中的字符。</t>
+  </si>
+  <si>
+    <t>upper()</t>
+  </si>
+  <si>
+    <t>转换字符串中的所有小写字符为大写。</t>
+  </si>
+  <si>
+    <t>zfill(width)</t>
+  </si>
+  <si>
+    <t>返回长度为 width 的字符串，原字符串右对齐，前边用 0 填充。</t>
+  </si>
+  <si>
+    <t>字符串格式化</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; "{0} love {1}.{2}".format("I", "xfl", "com")</t>
+  </si>
+  <si>
+    <t>'I love xfl.com'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; "{a} love {0}.{b}".format("I", a="xfl", b="com")</t>
+  </si>
+  <si>
+    <t>'xfl love I.com'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; "{a} love {b}.{c}".format(a="I", b="xfl", c="com")</t>
+  </si>
+  <si>
+    <t>位置参数</t>
+  </si>
+  <si>
+    <t>关键字参数</t>
+  </si>
+  <si>
+    <r>
+      <t>位置和关键字参数混合使用。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意：format中位置参数的值，一定要放在format的对应位置</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; "{a} love {1}.{c}".format("","xfl",a="I", c="com")</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; "{a} love {2}.{c}".format("","","xfl",a="I", c="com")</t>
+  </si>
+  <si>
+    <r>
+      <t>位置参数从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开始，若不使用之前的位置参数的话，要用[“”]占位！</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; "{0:.1f}{1}".format(27.678,"GB")</t>
+  </si>
+  <si>
+    <t>'27.7GB'</t>
+  </si>
+  <si>
+    <t>冒号[:]开始，后面就是具体的输出格式！</t>
+  </si>
+  <si>
+    <t>字符串格式化符号含义</t>
+  </si>
+  <si>
+    <t>符   号</t>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 说     明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 格式化字符及其ASCII码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 格式化字符串</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 格式化整数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %o</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 格式化无符号八进制数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 格式化无符号十六进制数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %X</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 格式化无符号十六进制数（大写）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 格式化定点数，可指定小数点后的精度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 用科学计数法格式化定点数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作用同%e，用科学计数法格式化定点数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 根据值的大小决定使用%f活%e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作用同%g，根据值的大小决定使用%f或者%E</t>
+    </r>
+  </si>
+  <si>
+    <t>格式化操作符辅助指令</t>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  说     明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   m.n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  m是显示的最小总宽度，n是小数点后的位数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     -</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  用于左对齐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>    +</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  在正数前面显示加号（+）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     #</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  在八进制数前面显示 '0o'，在十六进制数前面显示 '0x' 或 '0X'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  显示的数字前面填充 '0' 取代空格</t>
+    </r>
+  </si>
+  <si>
+    <t>   </t>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 符   号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  单引号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  双引号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  发出系统响铃声</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  退格符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  换行符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  横向制表符（TAB）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \v</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  纵向制表符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  回车符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  换页符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \o</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  八进制数代表的字符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  十六进制数代表的字符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  表示一个空字符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \\</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  反斜杠</t>
+    </r>
+  </si>
+  <si>
+    <t>字符串转义字符含义</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -678,7 +1963,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -687,13 +1972,35 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,8 +2013,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -715,11 +2034,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
@@ -728,9 +2062,20 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -745,8 +2090,247 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>218590</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>56500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="58293000"/>
+          <a:ext cx="3876190" cy="5200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="61255275"/>
+          <a:ext cx="1266825" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="62874525"/>
+          <a:ext cx="1266825" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390171</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>104619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="63817500"/>
+          <a:ext cx="2828571" cy="1247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>417625</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>142286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7261412" y="67437000"/>
+          <a:ext cx="2838095" cy="4714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1032,86 +2616,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J302"/>
+  <dimension ref="A2:K448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="B304" sqref="B304"/>
+    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E433" sqref="E433"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" s="3" customFormat="1">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" s="3" customFormat="1">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +2724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1139,63 +2735,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="E32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="E35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="E36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="E38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="E39" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="E40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" s="3" customFormat="1">
+      <c r="A42" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
@@ -1203,23 +2803,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" s="3" customFormat="1">
+      <c r="A46" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8">
       <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8">
       <c r="B54" s="1" t="s">
         <v>36</v>
       </c>
@@ -1233,7 +2837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8">
       <c r="E55" s="1" t="s">
         <v>40</v>
       </c>
@@ -1241,17 +2845,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8">
       <c r="B58" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8">
       <c r="B59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8">
       <c r="B60" s="4" t="s">
         <v>44</v>
       </c>
@@ -1261,38 +2865,42 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8">
       <c r="B61" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" s="3" customFormat="1">
+      <c r="A63" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
       <c r="B65" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:7">
       <c r="B66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:7">
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:7">
       <c r="B68" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:7">
       <c r="B69" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:7">
       <c r="B71" s="4" t="s">
         <v>65</v>
       </c>
@@ -1302,22 +2910,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:7">
       <c r="B73" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:7">
       <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:7">
       <c r="B75" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:7">
       <c r="B76" s="1" t="s">
         <v>56</v>
       </c>
@@ -1325,47 +2933,47 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:7">
       <c r="B77" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:7">
       <c r="B78" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:7">
       <c r="B79" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:7">
       <c r="B80" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:5">
       <c r="B81" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:5">
       <c r="B82" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:5">
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:5">
       <c r="B84" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:5">
       <c r="B87" s="4" t="s">
         <v>66</v>
       </c>
@@ -1375,32 +2983,32 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:5">
       <c r="B89" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:5">
       <c r="B91" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:5">
       <c r="B92" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:5">
       <c r="B93" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:5">
       <c r="B94" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:5">
       <c r="B97" s="4" t="s">
         <v>71</v>
       </c>
@@ -1410,27 +3018,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:5">
       <c r="B99" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:5">
       <c r="B100" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:5">
       <c r="B101" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:5">
       <c r="B102" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:5">
       <c r="B104" s="4" t="s">
         <v>75</v>
       </c>
@@ -1438,42 +3046,42 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:5">
       <c r="B106" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:5">
       <c r="B107" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:5">
       <c r="B108" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:5">
       <c r="B109" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:5">
       <c r="B110" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:5">
       <c r="B111" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:5">
       <c r="B112" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:8">
       <c r="B114" s="4" t="s">
         <v>81</v>
       </c>
@@ -1481,27 +3089,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:8">
       <c r="B116" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:8">
       <c r="B118" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:8">
       <c r="B119" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:8">
       <c r="B120" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:8">
       <c r="B121" s="1" t="s">
         <v>85</v>
       </c>
@@ -1509,97 +3117,97 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:8">
       <c r="B122" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:8">
       <c r="B123" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:8">
       <c r="B124" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:8">
       <c r="B125" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:8">
       <c r="B126" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:8">
       <c r="B127" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:8">
       <c r="B128" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:5">
       <c r="B129" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:5">
       <c r="B130" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:5">
       <c r="B131" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:5">
       <c r="B132" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:5">
       <c r="B133" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:5">
       <c r="B135" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:5">
       <c r="B136" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:5">
       <c r="B137" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:5">
       <c r="B138" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:5">
       <c r="B139" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:5">
       <c r="B140" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:5">
       <c r="B142" s="4" t="s">
         <v>81</v>
       </c>
@@ -1607,67 +3215,67 @@
         <v>92</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:5">
       <c r="B144" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:5">
       <c r="B145" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:5">
       <c r="B146" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:5">
       <c r="B147" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:5">
       <c r="B148" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:5">
       <c r="B149" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:5">
       <c r="B150" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:5">
       <c r="B151" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:5">
       <c r="B152" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:5">
       <c r="B153" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:5">
       <c r="B154" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:5">
       <c r="B155" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:5">
       <c r="B157" s="4" t="s">
         <v>104</v>
       </c>
@@ -1675,7 +3283,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:5">
       <c r="B160" s="4" t="s">
         <v>107</v>
       </c>
@@ -1683,48 +3291,52 @@
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4">
       <c r="B162" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4">
       <c r="B163" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4">
       <c r="B164" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4">
       <c r="B165" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4">
       <c r="B166" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4">
       <c r="B167" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4">
       <c r="B168" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" s="3" customFormat="1">
+      <c r="A170" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="B172" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4">
       <c r="B174" s="1" t="s">
         <v>113</v>
       </c>
@@ -1732,42 +3344,42 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4">
       <c r="B176" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:5">
       <c r="B177" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:5">
       <c r="B178" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:5">
       <c r="B179" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:5">
       <c r="B180" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:5">
       <c r="B181" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:5">
       <c r="B182" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:5">
       <c r="B184" s="7" t="s">
         <v>174</v>
       </c>
@@ -1777,82 +3389,82 @@
         <v>176</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:5">
       <c r="C185" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:5">
       <c r="C186" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:5">
       <c r="C187" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:5">
       <c r="C188" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:5">
       <c r="C189" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:5">
       <c r="C190" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:5">
       <c r="C191" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:5">
       <c r="C192" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:5">
       <c r="C193" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:5">
       <c r="C194" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:5">
       <c r="C195" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:5">
       <c r="C196" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:5">
       <c r="C197" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:5">
       <c r="C198" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:5">
       <c r="C199" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:5">
       <c r="B201" s="7" t="s">
         <v>175</v>
       </c>
@@ -1860,479 +3472,1895 @@
         <v>185</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:5">
       <c r="C202" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:5">
       <c r="C203" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:5">
       <c r="C204" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:5">
       <c r="C205" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:5">
       <c r="C206" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:5">
       <c r="C207" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:5">
       <c r="C208" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:3">
       <c r="C209" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:3">
       <c r="C210" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:3">
       <c r="C211" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:3">
       <c r="C212" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:3">
       <c r="C213" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:3">
       <c r="C214" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:3">
       <c r="C215" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:3">
       <c r="C216" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:3" s="3" customFormat="1">
+      <c r="A217" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="B219" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A220" s="4" t="s">
+    <row r="220" spans="1:3">
+      <c r="B220" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:3">
       <c r="B221" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:3">
       <c r="B222" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:3">
       <c r="B223" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:3">
       <c r="B224" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:2">
       <c r="B225" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:2">
       <c r="B226" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:2">
       <c r="B227" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:2">
       <c r="B228" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:2">
       <c r="B229" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:2">
       <c r="B230" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:2">
       <c r="B231" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:2">
       <c r="B232" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A234" s="4" t="s">
+    <row r="234" spans="2:2">
+      <c r="B234" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:2">
       <c r="B235" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:2">
       <c r="B236" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:2">
       <c r="B237" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:2">
       <c r="B238" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:2">
       <c r="B239" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:2">
       <c r="B240" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:2">
       <c r="B241" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:2">
       <c r="B242" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:2">
       <c r="B243" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:2">
       <c r="B244" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:2">
       <c r="B245" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:2">
       <c r="B246" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:2">
       <c r="B247" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:2">
       <c r="B248" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:2">
       <c r="B250" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:2">
       <c r="B251" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:2">
       <c r="B252" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:2">
       <c r="B253" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:2">
       <c r="B254" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:2">
       <c r="B255" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:2">
       <c r="B256" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A259" s="4" t="s">
+    <row r="259" spans="2:2">
+      <c r="B259" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:2">
       <c r="B260" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:2">
       <c r="B261" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:2">
       <c r="B262" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:2">
       <c r="B263" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:2">
       <c r="B264" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:2">
       <c r="B265" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:2">
       <c r="B266" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:2">
       <c r="B267" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:2">
       <c r="B268" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:2">
       <c r="B269" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:2">
       <c r="B270" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:2">
       <c r="B271" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:2">
       <c r="B272" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10">
       <c r="B273" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10">
       <c r="B274" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10">
       <c r="B275" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10">
       <c r="B276" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10">
       <c r="B277" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A279" s="4" t="s">
+    <row r="279" spans="1:10">
+      <c r="B279" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B279" s="4" t="s">
+    </row>
+    <row r="280" spans="1:10">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J279" s="4" t="s">
+      <c r="J280" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B280" s="6" t="s">
+    <row r="281" spans="1:10">
+      <c r="B281" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B281" s="1" t="s">
+    <row r="282" spans="1:10">
+      <c r="B282" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B282" s="1" t="s">
+    <row r="283" spans="1:10">
+      <c r="B283" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B283" s="1" t="s">
+    <row r="284" spans="1:10">
+      <c r="B284" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B284" s="1" t="s">
+    <row r="285" spans="1:10">
+      <c r="B285" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B285" s="1" t="s">
+    <row r="286" spans="1:10">
+      <c r="B286" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B286" s="1" t="s">
+    <row r="287" spans="1:10">
+      <c r="B287" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B287" s="1" t="s">
+    <row r="288" spans="1:10">
+      <c r="B288" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B288" s="1" t="s">
+    <row r="289" spans="1:10">
+      <c r="B289" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B289" s="1" t="s">
+    <row r="290" spans="1:10">
+      <c r="B290" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A291" s="4" t="s">
+    <row r="292" spans="1:10">
+      <c r="B292" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="C292" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E291" s="4" t="s">
+      <c r="F292" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I291" s="4" t="s">
+      <c r="J292" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B292" s="1" t="s">
+    <row r="293" spans="1:10">
+      <c r="B293" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E292" s="1" t="s">
+      <c r="E293" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B294" s="1" t="s">
+    <row r="295" spans="1:10">
+      <c r="B295" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B295" s="1" t="s">
+    <row r="296" spans="1:10">
+      <c r="B296" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B296" s="1" t="s">
+    <row r="297" spans="1:10">
+      <c r="B297" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B297" s="1" t="s">
+    <row r="298" spans="1:10">
+      <c r="B298" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B298" s="1" t="s">
+    <row r="299" spans="1:10">
+      <c r="B299" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B299" s="1" t="s">
+    <row r="300" spans="1:10">
+      <c r="B300" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B300" s="1" t="s">
+    <row r="301" spans="1:10">
+      <c r="B301" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="303" spans="1:10" s="3" customFormat="1">
+      <c r="A303" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="305" spans="2:10">
+      <c r="B305" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="312" spans="2:10">
+      <c r="J312" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="313" spans="2:10">
+      <c r="J313" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11">
+      <c r="B337" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" s="3" customFormat="1">
+      <c r="A348" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" ht="30" customHeight="1">
+      <c r="B350" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C350" s="10"/>
+      <c r="D350" s="10"/>
+      <c r="E350" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F350" s="9"/>
+      <c r="G350" s="9"/>
+      <c r="H350" s="9"/>
+      <c r="I350" s="9"/>
+      <c r="J350" s="9"/>
+      <c r="K350" s="9"/>
+    </row>
+    <row r="351" spans="1:11" ht="30" customHeight="1">
+      <c r="B351" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C351" s="10"/>
+      <c r="D351" s="10"/>
+      <c r="E351" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F351" s="9"/>
+      <c r="G351" s="9"/>
+      <c r="H351" s="9"/>
+      <c r="I351" s="9"/>
+      <c r="J351" s="9"/>
+      <c r="K351" s="9"/>
+    </row>
+    <row r="352" spans="1:11" ht="30" customHeight="1">
+      <c r="B352" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C352" s="10"/>
+      <c r="D352" s="10"/>
+      <c r="E352" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F352" s="9"/>
+      <c r="G352" s="9"/>
+      <c r="H352" s="9"/>
+      <c r="I352" s="9"/>
+      <c r="J352" s="9"/>
+      <c r="K352" s="9"/>
+    </row>
+    <row r="353" spans="2:11" ht="30" customHeight="1">
+      <c r="B353" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C353" s="10"/>
+      <c r="D353" s="10"/>
+      <c r="E353" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F353" s="9"/>
+      <c r="G353" s="9"/>
+      <c r="H353" s="9"/>
+      <c r="I353" s="9"/>
+      <c r="J353" s="9"/>
+      <c r="K353" s="9"/>
+    </row>
+    <row r="354" spans="2:11" ht="30" customHeight="1">
+      <c r="B354" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C354" s="10"/>
+      <c r="D354" s="10"/>
+      <c r="E354" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F354" s="9"/>
+      <c r="G354" s="9"/>
+      <c r="H354" s="9"/>
+      <c r="I354" s="9"/>
+      <c r="J354" s="9"/>
+      <c r="K354" s="9"/>
+    </row>
+    <row r="355" spans="2:11" ht="30" customHeight="1">
+      <c r="B355" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C355" s="10"/>
+      <c r="D355" s="10"/>
+      <c r="E355" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F355" s="9"/>
+      <c r="G355" s="9"/>
+      <c r="H355" s="9"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="9"/>
+      <c r="K355" s="9"/>
+    </row>
+    <row r="356" spans="2:11" ht="30" customHeight="1">
+      <c r="B356" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C356" s="10"/>
+      <c r="D356" s="10"/>
+      <c r="E356" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F356" s="9"/>
+      <c r="G356" s="9"/>
+      <c r="H356" s="9"/>
+      <c r="I356" s="9"/>
+      <c r="J356" s="9"/>
+      <c r="K356" s="9"/>
+    </row>
+    <row r="357" spans="2:11" ht="30" customHeight="1">
+      <c r="B357" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C357" s="10"/>
+      <c r="D357" s="10"/>
+      <c r="E357" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F357" s="9"/>
+      <c r="G357" s="9"/>
+      <c r="H357" s="9"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="9"/>
+      <c r="K357" s="9"/>
+    </row>
+    <row r="358" spans="2:11" ht="30" customHeight="1">
+      <c r="B358" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C358" s="10"/>
+      <c r="D358" s="10"/>
+      <c r="E358" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F358" s="9"/>
+      <c r="G358" s="9"/>
+      <c r="H358" s="9"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="9"/>
+      <c r="K358" s="9"/>
+    </row>
+    <row r="359" spans="2:11" ht="30" customHeight="1">
+      <c r="B359" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C359" s="10"/>
+      <c r="D359" s="10"/>
+      <c r="E359" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F359" s="9"/>
+      <c r="G359" s="9"/>
+      <c r="H359" s="9"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="9"/>
+      <c r="K359" s="9"/>
+    </row>
+    <row r="360" spans="2:11" ht="30" customHeight="1">
+      <c r="B360" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C360" s="10"/>
+      <c r="D360" s="10"/>
+      <c r="E360" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F360" s="9"/>
+      <c r="G360" s="9"/>
+      <c r="H360" s="9"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="9"/>
+      <c r="K360" s="9"/>
+    </row>
+    <row r="361" spans="2:11" ht="30" customHeight="1">
+      <c r="B361" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C361" s="10"/>
+      <c r="D361" s="10"/>
+      <c r="E361" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F361" s="9"/>
+      <c r="G361" s="9"/>
+      <c r="H361" s="9"/>
+      <c r="I361" s="9"/>
+      <c r="J361" s="9"/>
+      <c r="K361" s="9"/>
+    </row>
+    <row r="362" spans="2:11" ht="30" customHeight="1">
+      <c r="B362" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C362" s="10"/>
+      <c r="D362" s="10"/>
+      <c r="E362" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F362" s="9"/>
+      <c r="G362" s="9"/>
+      <c r="H362" s="9"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="9"/>
+      <c r="K362" s="9"/>
+    </row>
+    <row r="363" spans="2:11" ht="30" customHeight="1">
+      <c r="B363" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C363" s="10"/>
+      <c r="D363" s="10"/>
+      <c r="E363" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F363" s="9"/>
+      <c r="G363" s="9"/>
+      <c r="H363" s="9"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="9"/>
+      <c r="K363" s="9"/>
+    </row>
+    <row r="364" spans="2:11" ht="30" customHeight="1">
+      <c r="B364" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C364" s="10"/>
+      <c r="D364" s="10"/>
+      <c r="E364" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F364" s="9"/>
+      <c r="G364" s="9"/>
+      <c r="H364" s="9"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="9"/>
+      <c r="K364" s="9"/>
+    </row>
+    <row r="365" spans="2:11" ht="30" customHeight="1">
+      <c r="B365" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C365" s="10"/>
+      <c r="D365" s="10"/>
+      <c r="E365" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F365" s="9"/>
+      <c r="G365" s="9"/>
+      <c r="H365" s="9"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="9"/>
+      <c r="K365" s="9"/>
+    </row>
+    <row r="366" spans="2:11" ht="30" customHeight="1">
+      <c r="B366" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C366" s="10"/>
+      <c r="D366" s="10"/>
+      <c r="E366" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F366" s="9"/>
+      <c r="G366" s="9"/>
+      <c r="H366" s="9"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="9"/>
+      <c r="K366" s="9"/>
+    </row>
+    <row r="367" spans="2:11" ht="30" customHeight="1">
+      <c r="B367" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C367" s="10"/>
+      <c r="D367" s="10"/>
+      <c r="E367" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F367" s="9"/>
+      <c r="G367" s="9"/>
+      <c r="H367" s="9"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="9"/>
+      <c r="K367" s="9"/>
+    </row>
+    <row r="368" spans="2:11" ht="30" customHeight="1">
+      <c r="B368" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C368" s="10"/>
+      <c r="D368" s="10"/>
+      <c r="E368" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F368" s="9"/>
+      <c r="G368" s="9"/>
+      <c r="H368" s="9"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="9"/>
+      <c r="K368" s="9"/>
+    </row>
+    <row r="369" spans="2:11" ht="30" customHeight="1">
+      <c r="B369" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C369" s="10"/>
+      <c r="D369" s="10"/>
+      <c r="E369" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F369" s="9"/>
+      <c r="G369" s="9"/>
+      <c r="H369" s="9"/>
+      <c r="I369" s="9"/>
+      <c r="J369" s="9"/>
+      <c r="K369" s="9"/>
+    </row>
+    <row r="370" spans="2:11" ht="30" customHeight="1">
+      <c r="B370" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C370" s="10"/>
+      <c r="D370" s="10"/>
+      <c r="E370" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F370" s="9"/>
+      <c r="G370" s="9"/>
+      <c r="H370" s="9"/>
+      <c r="I370" s="9"/>
+      <c r="J370" s="9"/>
+      <c r="K370" s="9"/>
+    </row>
+    <row r="371" spans="2:11" ht="30" customHeight="1">
+      <c r="B371" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C371" s="10"/>
+      <c r="D371" s="10"/>
+      <c r="E371" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F371" s="9"/>
+      <c r="G371" s="9"/>
+      <c r="H371" s="9"/>
+      <c r="I371" s="9"/>
+      <c r="J371" s="9"/>
+      <c r="K371" s="9"/>
+    </row>
+    <row r="372" spans="2:11" ht="30" customHeight="1">
+      <c r="B372" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C372" s="10"/>
+      <c r="D372" s="10"/>
+      <c r="E372" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F372" s="9"/>
+      <c r="G372" s="9"/>
+      <c r="H372" s="9"/>
+      <c r="I372" s="9"/>
+      <c r="J372" s="9"/>
+      <c r="K372" s="9"/>
+    </row>
+    <row r="373" spans="2:11" ht="30" customHeight="1">
+      <c r="B373" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C373" s="10"/>
+      <c r="D373" s="10"/>
+      <c r="E373" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F373" s="9"/>
+      <c r="G373" s="9"/>
+      <c r="H373" s="9"/>
+      <c r="I373" s="9"/>
+      <c r="J373" s="9"/>
+      <c r="K373" s="9"/>
+    </row>
+    <row r="374" spans="2:11" ht="30" customHeight="1">
+      <c r="B374" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C374" s="10"/>
+      <c r="D374" s="10"/>
+      <c r="E374" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F374" s="9"/>
+      <c r="G374" s="9"/>
+      <c r="H374" s="9"/>
+      <c r="I374" s="9"/>
+      <c r="J374" s="9"/>
+      <c r="K374" s="9"/>
+    </row>
+    <row r="375" spans="2:11" ht="30" customHeight="1">
+      <c r="B375" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C375" s="10"/>
+      <c r="D375" s="10"/>
+      <c r="E375" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F375" s="9"/>
+      <c r="G375" s="9"/>
+      <c r="H375" s="9"/>
+      <c r="I375" s="9"/>
+      <c r="J375" s="9"/>
+      <c r="K375" s="9"/>
+    </row>
+    <row r="376" spans="2:11" ht="30" customHeight="1">
+      <c r="B376" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C376" s="10"/>
+      <c r="D376" s="10"/>
+      <c r="E376" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F376" s="9"/>
+      <c r="G376" s="9"/>
+      <c r="H376" s="9"/>
+      <c r="I376" s="9"/>
+      <c r="J376" s="9"/>
+      <c r="K376" s="9"/>
+    </row>
+    <row r="377" spans="2:11" ht="30" customHeight="1">
+      <c r="B377" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C377" s="10"/>
+      <c r="D377" s="10"/>
+      <c r="E377" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F377" s="9"/>
+      <c r="G377" s="9"/>
+      <c r="H377" s="9"/>
+      <c r="I377" s="9"/>
+      <c r="J377" s="9"/>
+      <c r="K377" s="9"/>
+    </row>
+    <row r="378" spans="2:11" ht="30" customHeight="1">
+      <c r="B378" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C378" s="10"/>
+      <c r="D378" s="10"/>
+      <c r="E378" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F378" s="9"/>
+      <c r="G378" s="9"/>
+      <c r="H378" s="9"/>
+      <c r="I378" s="9"/>
+      <c r="J378" s="9"/>
+      <c r="K378" s="9"/>
+    </row>
+    <row r="379" spans="2:11" ht="30" customHeight="1">
+      <c r="B379" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C379" s="10"/>
+      <c r="D379" s="10"/>
+      <c r="E379" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F379" s="9"/>
+      <c r="G379" s="9"/>
+      <c r="H379" s="9"/>
+      <c r="I379" s="9"/>
+      <c r="J379" s="9"/>
+      <c r="K379" s="9"/>
+    </row>
+    <row r="380" spans="2:11" ht="30" customHeight="1">
+      <c r="B380" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C380" s="10"/>
+      <c r="D380" s="10"/>
+      <c r="E380" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F380" s="9"/>
+      <c r="G380" s="9"/>
+      <c r="H380" s="9"/>
+      <c r="I380" s="9"/>
+      <c r="J380" s="9"/>
+      <c r="K380" s="9"/>
+    </row>
+    <row r="381" spans="2:11" ht="30" customHeight="1">
+      <c r="B381" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C381" s="10"/>
+      <c r="D381" s="10"/>
+      <c r="E381" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F381" s="9"/>
+      <c r="G381" s="9"/>
+      <c r="H381" s="9"/>
+      <c r="I381" s="9"/>
+      <c r="J381" s="9"/>
+      <c r="K381" s="9"/>
+    </row>
+    <row r="382" spans="2:11" ht="30" customHeight="1">
+      <c r="B382" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C382" s="10"/>
+      <c r="D382" s="10"/>
+      <c r="E382" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F382" s="9"/>
+      <c r="G382" s="9"/>
+      <c r="H382" s="9"/>
+      <c r="I382" s="9"/>
+      <c r="J382" s="9"/>
+      <c r="K382" s="9"/>
+    </row>
+    <row r="383" spans="2:11" ht="30" customHeight="1">
+      <c r="B383" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C383" s="10"/>
+      <c r="D383" s="10"/>
+      <c r="E383" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F383" s="9"/>
+      <c r="G383" s="9"/>
+      <c r="H383" s="9"/>
+      <c r="I383" s="9"/>
+      <c r="J383" s="9"/>
+      <c r="K383" s="9"/>
+    </row>
+    <row r="384" spans="2:11" ht="30" customHeight="1">
+      <c r="B384" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C384" s="10"/>
+      <c r="D384" s="10"/>
+      <c r="E384" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F384" s="9"/>
+      <c r="G384" s="9"/>
+      <c r="H384" s="9"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="9"/>
+      <c r="K384" s="9"/>
+    </row>
+    <row r="385" spans="1:11" ht="30" customHeight="1">
+      <c r="B385" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C385" s="10"/>
+      <c r="D385" s="10"/>
+      <c r="E385" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F385" s="9"/>
+      <c r="G385" s="9"/>
+      <c r="H385" s="9"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="9"/>
+      <c r="K385" s="9"/>
+    </row>
+    <row r="386" spans="1:11" ht="30" customHeight="1">
+      <c r="B386" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C386" s="10"/>
+      <c r="D386" s="10"/>
+      <c r="E386" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F386" s="9"/>
+      <c r="G386" s="9"/>
+      <c r="H386" s="9"/>
+      <c r="I386" s="9"/>
+      <c r="J386" s="9"/>
+      <c r="K386" s="9"/>
+    </row>
+    <row r="387" spans="1:11" ht="30" customHeight="1">
+      <c r="B387" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C387" s="10"/>
+      <c r="D387" s="10"/>
+      <c r="E387" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F387" s="9"/>
+      <c r="G387" s="9"/>
+      <c r="H387" s="9"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="9"/>
+      <c r="K387" s="9"/>
+    </row>
+    <row r="389" spans="1:11" s="3" customFormat="1">
+      <c r="A389" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11">
+      <c r="B391" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11">
+      <c r="B392" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11">
+      <c r="B393" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11">
+      <c r="B394" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11">
+      <c r="B395" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11">
+      <c r="B396" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11">
+      <c r="B398" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11">
+      <c r="B399" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11">
+      <c r="B400" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="401" spans="2:11">
+      <c r="B401" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="404" spans="2:11">
+      <c r="B404" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="405" spans="2:11">
+      <c r="B405" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="406" spans="2:11">
+      <c r="B406" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="410" spans="2:11" ht="19.5">
+      <c r="B410" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="411" spans="2:11" ht="15" customHeight="1">
+      <c r="B411" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C411" s="12"/>
+      <c r="D411" s="12"/>
+      <c r="E411" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F411" s="12"/>
+      <c r="G411" s="12"/>
+      <c r="H411" s="12"/>
+      <c r="I411" s="12"/>
+      <c r="J411" s="12"/>
+      <c r="K411" s="12"/>
+    </row>
+    <row r="412" spans="2:11" ht="15" customHeight="1">
+      <c r="B412" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C412" s="10"/>
+      <c r="D412" s="10"/>
+      <c r="E412" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F412" s="9"/>
+      <c r="G412" s="9"/>
+      <c r="H412" s="9"/>
+      <c r="I412" s="9"/>
+      <c r="J412" s="9"/>
+      <c r="K412" s="9"/>
+    </row>
+    <row r="413" spans="2:11" ht="15" customHeight="1">
+      <c r="B413" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C413" s="10"/>
+      <c r="D413" s="10"/>
+      <c r="E413" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F413" s="9"/>
+      <c r="G413" s="9"/>
+      <c r="H413" s="9"/>
+      <c r="I413" s="9"/>
+      <c r="J413" s="9"/>
+      <c r="K413" s="9"/>
+    </row>
+    <row r="414" spans="2:11" ht="15" customHeight="1">
+      <c r="B414" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C414" s="10"/>
+      <c r="D414" s="10"/>
+      <c r="E414" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F414" s="9"/>
+      <c r="G414" s="9"/>
+      <c r="H414" s="9"/>
+      <c r="I414" s="9"/>
+      <c r="J414" s="9"/>
+      <c r="K414" s="9"/>
+    </row>
+    <row r="415" spans="2:11" ht="15" customHeight="1">
+      <c r="B415" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C415" s="10"/>
+      <c r="D415" s="10"/>
+      <c r="E415" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F415" s="9"/>
+      <c r="G415" s="9"/>
+      <c r="H415" s="9"/>
+      <c r="I415" s="9"/>
+      <c r="J415" s="9"/>
+      <c r="K415" s="9"/>
+    </row>
+    <row r="416" spans="2:11" ht="15" customHeight="1">
+      <c r="B416" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C416" s="10"/>
+      <c r="D416" s="10"/>
+      <c r="E416" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F416" s="9"/>
+      <c r="G416" s="9"/>
+      <c r="H416" s="9"/>
+      <c r="I416" s="9"/>
+      <c r="J416" s="9"/>
+      <c r="K416" s="9"/>
+    </row>
+    <row r="417" spans="2:11" ht="15" customHeight="1">
+      <c r="B417" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C417" s="10"/>
+      <c r="D417" s="10"/>
+      <c r="E417" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F417" s="9"/>
+      <c r="G417" s="9"/>
+      <c r="H417" s="9"/>
+      <c r="I417" s="9"/>
+      <c r="J417" s="9"/>
+      <c r="K417" s="9"/>
+    </row>
+    <row r="418" spans="2:11" ht="15" customHeight="1">
+      <c r="B418" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C418" s="10"/>
+      <c r="D418" s="10"/>
+      <c r="E418" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F418" s="9"/>
+      <c r="G418" s="9"/>
+      <c r="H418" s="9"/>
+      <c r="I418" s="9"/>
+      <c r="J418" s="9"/>
+      <c r="K418" s="9"/>
+    </row>
+    <row r="419" spans="2:11" ht="15" customHeight="1">
+      <c r="B419" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C419" s="10"/>
+      <c r="D419" s="10"/>
+      <c r="E419" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F419" s="9"/>
+      <c r="G419" s="9"/>
+      <c r="H419" s="9"/>
+      <c r="I419" s="9"/>
+      <c r="J419" s="9"/>
+      <c r="K419" s="9"/>
+    </row>
+    <row r="420" spans="2:11" ht="15" customHeight="1">
+      <c r="B420" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C420" s="10"/>
+      <c r="D420" s="10"/>
+      <c r="E420" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F420" s="9"/>
+      <c r="G420" s="9"/>
+      <c r="H420" s="9"/>
+      <c r="I420" s="9"/>
+      <c r="J420" s="9"/>
+      <c r="K420" s="9"/>
+    </row>
+    <row r="421" spans="2:11" ht="15" customHeight="1">
+      <c r="B421" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C421" s="10"/>
+      <c r="D421" s="10"/>
+      <c r="E421" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F421" s="9"/>
+      <c r="G421" s="9"/>
+      <c r="H421" s="9"/>
+      <c r="I421" s="9"/>
+      <c r="J421" s="9"/>
+      <c r="K421" s="9"/>
+    </row>
+    <row r="422" spans="2:11" ht="15" customHeight="1">
+      <c r="B422" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C422" s="10"/>
+      <c r="D422" s="10"/>
+      <c r="E422" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F422" s="9"/>
+      <c r="G422" s="9"/>
+      <c r="H422" s="9"/>
+      <c r="I422" s="9"/>
+      <c r="J422" s="9"/>
+      <c r="K422" s="9"/>
+    </row>
+    <row r="425" spans="2:11" ht="19.5">
+      <c r="B425" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="426" spans="2:11">
+      <c r="B426" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C426" s="12"/>
+      <c r="D426" s="12"/>
+      <c r="E426" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F426" s="12"/>
+      <c r="G426" s="12"/>
+      <c r="H426" s="12"/>
+      <c r="I426" s="12"/>
+      <c r="J426" s="12"/>
+      <c r="K426" s="12"/>
+    </row>
+    <row r="427" spans="2:11">
+      <c r="B427" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C427" s="10"/>
+      <c r="D427" s="10"/>
+      <c r="E427" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F427" s="9"/>
+      <c r="G427" s="9"/>
+      <c r="H427" s="9"/>
+      <c r="I427" s="9"/>
+      <c r="J427" s="9"/>
+      <c r="K427" s="9"/>
+    </row>
+    <row r="428" spans="2:11">
+      <c r="B428" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C428" s="10"/>
+      <c r="D428" s="10"/>
+      <c r="E428" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F428" s="9"/>
+      <c r="G428" s="9"/>
+      <c r="H428" s="9"/>
+      <c r="I428" s="9"/>
+      <c r="J428" s="9"/>
+      <c r="K428" s="9"/>
+    </row>
+    <row r="429" spans="2:11">
+      <c r="B429" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C429" s="10"/>
+      <c r="D429" s="10"/>
+      <c r="E429" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F429" s="9"/>
+      <c r="G429" s="9"/>
+      <c r="H429" s="9"/>
+      <c r="I429" s="9"/>
+      <c r="J429" s="9"/>
+      <c r="K429" s="9"/>
+    </row>
+    <row r="430" spans="2:11">
+      <c r="B430" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C430" s="10"/>
+      <c r="D430" s="10"/>
+      <c r="E430" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F430" s="9"/>
+      <c r="G430" s="9"/>
+      <c r="H430" s="9"/>
+      <c r="I430" s="9"/>
+      <c r="J430" s="9"/>
+      <c r="K430" s="9"/>
+    </row>
+    <row r="431" spans="2:11">
+      <c r="B431" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C431" s="10"/>
+      <c r="D431" s="10"/>
+      <c r="E431" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F431" s="9"/>
+      <c r="G431" s="9"/>
+      <c r="H431" s="9"/>
+      <c r="I431" s="9"/>
+      <c r="J431" s="9"/>
+      <c r="K431" s="9"/>
+    </row>
+    <row r="432" spans="2:11">
+      <c r="B432"/>
+      <c r="E432"/>
+    </row>
+    <row r="433" spans="2:11">
+      <c r="B433" t="s">
+        <v>326</v>
+      </c>
+      <c r="E433"/>
+    </row>
+    <row r="434" spans="2:11" ht="19.5">
+      <c r="B434" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E434"/>
+    </row>
+    <row r="435" spans="2:11">
+      <c r="B435" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C435" s="12"/>
+      <c r="D435" s="12"/>
+      <c r="E435" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F435" s="12"/>
+      <c r="G435" s="12"/>
+      <c r="H435" s="12"/>
+      <c r="I435" s="12"/>
+      <c r="J435" s="12"/>
+      <c r="K435" s="12"/>
+    </row>
+    <row r="436" spans="2:11">
+      <c r="B436" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C436" s="10"/>
+      <c r="D436" s="10"/>
+      <c r="E436" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="F436" s="9"/>
+      <c r="G436" s="9"/>
+      <c r="H436" s="9"/>
+      <c r="I436" s="9"/>
+      <c r="J436" s="9"/>
+      <c r="K436" s="9"/>
+    </row>
+    <row r="437" spans="2:11">
+      <c r="B437" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C437" s="10"/>
+      <c r="D437" s="10"/>
+      <c r="E437" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F437" s="9"/>
+      <c r="G437" s="9"/>
+      <c r="H437" s="9"/>
+      <c r="I437" s="9"/>
+      <c r="J437" s="9"/>
+      <c r="K437" s="9"/>
+    </row>
+    <row r="438" spans="2:11">
+      <c r="B438" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C438" s="10"/>
+      <c r="D438" s="10"/>
+      <c r="E438" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F438" s="9"/>
+      <c r="G438" s="9"/>
+      <c r="H438" s="9"/>
+      <c r="I438" s="9"/>
+      <c r="J438" s="9"/>
+      <c r="K438" s="9"/>
+    </row>
+    <row r="439" spans="2:11">
+      <c r="B439" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C439" s="10"/>
+      <c r="D439" s="10"/>
+      <c r="E439" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F439" s="9"/>
+      <c r="G439" s="9"/>
+      <c r="H439" s="9"/>
+      <c r="I439" s="9"/>
+      <c r="J439" s="9"/>
+      <c r="K439" s="9"/>
+    </row>
+    <row r="440" spans="2:11">
+      <c r="B440" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C440" s="10"/>
+      <c r="D440" s="10"/>
+      <c r="E440" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F440" s="9"/>
+      <c r="G440" s="9"/>
+      <c r="H440" s="9"/>
+      <c r="I440" s="9"/>
+      <c r="J440" s="9"/>
+      <c r="K440" s="9"/>
+    </row>
+    <row r="441" spans="2:11">
+      <c r="B441" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C441" s="10"/>
+      <c r="D441" s="10"/>
+      <c r="E441" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F441" s="9"/>
+      <c r="G441" s="9"/>
+      <c r="H441" s="9"/>
+      <c r="I441" s="9"/>
+      <c r="J441" s="9"/>
+      <c r="K441" s="9"/>
+    </row>
+    <row r="442" spans="2:11">
+      <c r="B442" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C442" s="10"/>
+      <c r="D442" s="10"/>
+      <c r="E442" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F442" s="9"/>
+      <c r="G442" s="9"/>
+      <c r="H442" s="9"/>
+      <c r="I442" s="9"/>
+      <c r="J442" s="9"/>
+      <c r="K442" s="9"/>
+    </row>
+    <row r="443" spans="2:11">
+      <c r="B443" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C443" s="10"/>
+      <c r="D443" s="10"/>
+      <c r="E443" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F443" s="9"/>
+      <c r="G443" s="9"/>
+      <c r="H443" s="9"/>
+      <c r="I443" s="9"/>
+      <c r="J443" s="9"/>
+      <c r="K443" s="9"/>
+    </row>
+    <row r="444" spans="2:11">
+      <c r="B444" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C444" s="10"/>
+      <c r="D444" s="10"/>
+      <c r="E444" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F444" s="9"/>
+      <c r="G444" s="9"/>
+      <c r="H444" s="9"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="9"/>
+      <c r="K444" s="9"/>
+    </row>
+    <row r="445" spans="2:11">
+      <c r="B445" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C445" s="10"/>
+      <c r="D445" s="10"/>
+      <c r="E445" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F445" s="9"/>
+      <c r="G445" s="9"/>
+      <c r="H445" s="9"/>
+      <c r="I445" s="9"/>
+      <c r="J445" s="9"/>
+      <c r="K445" s="9"/>
+    </row>
+    <row r="446" spans="2:11">
+      <c r="B446" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C446" s="10"/>
+      <c r="D446" s="10"/>
+      <c r="E446" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="F446" s="9"/>
+      <c r="G446" s="9"/>
+      <c r="H446" s="9"/>
+      <c r="I446" s="9"/>
+      <c r="J446" s="9"/>
+      <c r="K446" s="9"/>
+    </row>
+    <row r="447" spans="2:11">
+      <c r="B447" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C447" s="10"/>
+      <c r="D447" s="10"/>
+      <c r="E447" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F447" s="9"/>
+      <c r="G447" s="9"/>
+      <c r="H447" s="9"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="9"/>
+      <c r="K447" s="9"/>
+    </row>
+    <row r="448" spans="2:11">
+      <c r="B448" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C448" s="10"/>
+      <c r="D448" s="10"/>
+      <c r="E448" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F448" s="9"/>
+      <c r="G448" s="9"/>
+      <c r="H448" s="9"/>
+      <c r="I448" s="9"/>
+      <c r="J448" s="9"/>
+      <c r="K448" s="9"/>
+    </row>
   </sheetData>
+  <mergeCells count="140">
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="E447:K447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="E448:K448"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="E416:K416"/>
+    <mergeCell ref="E417:K417"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E376:K376"/>
+    <mergeCell ref="E377:K377"/>
+    <mergeCell ref="E378:K378"/>
+    <mergeCell ref="E379:K379"/>
+    <mergeCell ref="E380:K380"/>
+    <mergeCell ref="E381:K381"/>
+    <mergeCell ref="E364:K364"/>
+    <mergeCell ref="E365:K365"/>
+    <mergeCell ref="E366:K366"/>
+    <mergeCell ref="E367:K367"/>
+    <mergeCell ref="E368:K368"/>
+    <mergeCell ref="E369:K369"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
+    <mergeCell ref="E382:K382"/>
+    <mergeCell ref="E383:K383"/>
+    <mergeCell ref="E384:K384"/>
+    <mergeCell ref="E385:K385"/>
+    <mergeCell ref="E370:K370"/>
+    <mergeCell ref="E371:K371"/>
+    <mergeCell ref="E372:K372"/>
+    <mergeCell ref="E373:K373"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E386:K386"/>
+    <mergeCell ref="E387:K387"/>
+    <mergeCell ref="E374:K374"/>
+    <mergeCell ref="E375:K375"/>
+    <mergeCell ref="E362:K362"/>
+    <mergeCell ref="E363:K363"/>
+    <mergeCell ref="B386:D386"/>
+    <mergeCell ref="B387:D387"/>
+    <mergeCell ref="B380:D380"/>
+    <mergeCell ref="B381:D381"/>
+    <mergeCell ref="B382:D382"/>
+    <mergeCell ref="B383:D383"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="B385:D385"/>
+    <mergeCell ref="B374:D374"/>
+    <mergeCell ref="B375:D375"/>
+    <mergeCell ref="B376:D376"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B378:D378"/>
+    <mergeCell ref="B379:D379"/>
+    <mergeCell ref="B368:D368"/>
+    <mergeCell ref="B369:D369"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -316,7 +316,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -669,7 +669,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -955,7 +955,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -977,7 +977,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -987,7 +987,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1017,7 +1017,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1032,7 +1032,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1047,7 +1047,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1062,7 +1062,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1077,7 +1077,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1092,7 +1092,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1107,7 +1107,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1122,7 +1122,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1137,7 +1137,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,7 +1152,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,7 +1167,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1182,7 +1182,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1197,765 +1197,767 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 格式化定点数，可指定小数点后的精度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 用科学计数法格式化定点数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 根据值的大小决定使用%f活%e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   %G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作用同%g，根据值的大小决定使用%f或者%E</t>
+    </r>
+  </si>
+  <si>
+    <t>格式化操作符辅助指令</t>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  说     明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   m.n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  m是显示的最小总宽度，n是小数点后的位数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     -</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  用于左对齐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>    +</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  在正数前面显示加号（+）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     #</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  在八进制数前面显示 '0o'，在十六进制数前面显示 '0x' 或 '0X'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  显示的数字前面填充 '0' 取代空格</t>
+    </r>
+  </si>
+  <si>
+    <t>   </t>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 符   号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  单引号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  双引号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  发出系统响铃声</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  退格符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  换行符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  横向制表符（TAB）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \v</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  纵向制表符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  回车符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  换页符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \o</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  八进制数代表的字符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  十六进制数代表的字符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  表示一个空字符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     \\</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  反斜杠</t>
+    </r>
+  </si>
+  <si>
+    <t>字符串转义字符含义</t>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 格式化无符号十六进制数（大写）</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   %f</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 格式化定点数，可指定小数点后的精度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   %e</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 用科学计数法格式化定点数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   %E</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 作用同%e，用科学计数法格式化定点数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   %g</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 根据值的大小决定使用%f活%e</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   %G</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 作用同%g，根据值的大小决定使用%f或者%E</t>
-    </r>
-  </si>
-  <si>
-    <t>格式化操作符辅助指令</t>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  说     明</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   m.n</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  m是显示的最小总宽度，n是小数点后的位数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     -</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  用于左对齐</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>    +</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  在正数前面显示加号（+）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     #</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  在八进制数前面显示 '0o'，在十六进制数前面显示 '0x' 或 '0X'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  显示的数字前面填充 '0' 取代空格</t>
-    </r>
-  </si>
-  <si>
-    <t>   </t>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 符   号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     \'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  单引号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     \"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  双引号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     \a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  发出系统响铃声</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     \b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  退格符</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     \n</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  换行符</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     \t</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  横向制表符（TAB）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     \v</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  纵向制表符</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     \r</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  回车符</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     \f</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  换页符</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     \o</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  八进制数代表的字符</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     \x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  十六进制数代表的字符</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     \0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  表示一个空字符</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     \\</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  反斜杠</t>
-    </r>
-  </si>
-  <si>
-    <t>字符串转义字符含义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作用同%e，用科学计数法格式化定点数（大写）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1963,7 +1965,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1972,7 +1974,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1981,7 +1983,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1995,7 +1997,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2063,19 +2065,19 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2330,7 +2332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2618,96 +2620,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E433" sqref="E433"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I423" sqref="I423"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="3" customFormat="1">
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="3" customFormat="1">
+    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1">
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
@@ -2735,67 +2737,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E39" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1">
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
@@ -2803,27 +2805,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="3" customFormat="1">
+    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>36</v>
       </c>
@@ -2837,7 +2839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E55" s="1" t="s">
         <v>40</v>
       </c>
@@ -2845,17 +2847,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>44</v>
       </c>
@@ -2865,42 +2867,42 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1">
+    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
         <v>65</v>
       </c>
@@ -2910,22 +2912,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>56</v>
       </c>
@@ -2933,47 +2935,47 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
         <v>66</v>
       </c>
@@ -2983,32 +2985,32 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" s="4" t="s">
         <v>71</v>
       </c>
@@ -3018,27 +3020,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" s="4" t="s">
         <v>75</v>
       </c>
@@ -3046,42 +3048,42 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B107" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B108" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B109" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="2:5">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B110" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B111" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B112" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B114" s="4" t="s">
         <v>81</v>
       </c>
@@ -3089,27 +3091,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B116" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B118" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B119" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B120" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B121" s="1" t="s">
         <v>85</v>
       </c>
@@ -3117,97 +3119,97 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B122" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B123" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="124" spans="2:8">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B124" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="2:8">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B125" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B126" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="2:8">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B127" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="2:8">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B128" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="2:5">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="2:5">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="2:5">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="2:5">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="133" spans="2:5">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="2:5">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="2:5">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="2:5">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="2:5">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="2:5">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="2:5">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="2:5">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" s="4" t="s">
         <v>81</v>
       </c>
@@ -3215,67 +3217,67 @@
         <v>92</v>
       </c>
     </row>
-    <row r="144" spans="2:5">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="2:5">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B146" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="2:5">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="2:5">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="155" spans="2:5">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="2:5">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="4" t="s">
         <v>104</v>
       </c>
@@ -3283,7 +3285,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="160" spans="2:5">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" s="4" t="s">
         <v>107</v>
       </c>
@@ -3291,52 +3293,52 @@
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B162" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B163" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B164" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B165" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B166" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B167" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B168" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="3" customFormat="1">
+    <row r="170" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B172" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B174" s="1" t="s">
         <v>113</v>
       </c>
@@ -3344,42 +3346,42 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B176" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="2:5">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B177" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="2:5">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B178" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="2:5">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B179" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="180" spans="2:5">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B180" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="2:5">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B181" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="182" spans="2:5">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B182" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="2:5">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B184" s="7" t="s">
         <v>174</v>
       </c>
@@ -3389,82 +3391,82 @@
         <v>176</v>
       </c>
     </row>
-    <row r="185" spans="2:5">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C185" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="2:5">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C186" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="2:5">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C187" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="188" spans="2:5">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C188" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="2:5">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C189" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="190" spans="2:5">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C190" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="191" spans="2:5">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C191" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="192" spans="2:5">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C192" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="193" spans="2:5">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C193" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="194" spans="2:5">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C194" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="195" spans="2:5">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C195" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="196" spans="2:5">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C196" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="2:5">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C197" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="2:5">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C198" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="2:5">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C199" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="2:5">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B201" s="7" t="s">
         <v>175</v>
       </c>
@@ -3472,367 +3474,367 @@
         <v>185</v>
       </c>
     </row>
-    <row r="202" spans="2:5">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C202" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="203" spans="2:5">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C203" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="204" spans="2:5">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C204" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="205" spans="2:5">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C205" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="2:5">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C206" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="207" spans="2:5">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C207" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="208" spans="2:5">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C208" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C209" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C210" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C211" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C212" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C213" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C214" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C215" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C216" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:3" s="3" customFormat="1">
+    <row r="217" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B219" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B220" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B221" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B222" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B223" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B224" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B225" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B226" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B227" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B228" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B229" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B230" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B231" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B232" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B234" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B235" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B236" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B237" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B238" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B239" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="240" spans="2:2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B240" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B241" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="242" spans="2:2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B242" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B243" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B244" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B245" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B246" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="247" spans="2:2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B247" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B248" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="2:2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B250" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="251" spans="2:2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B251" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="252" spans="2:2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B252" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="253" spans="2:2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B253" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="254" spans="2:2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B254" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="255" spans="2:2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B255" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="256" spans="2:2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B256" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="2:2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B259" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B260" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="261" spans="2:2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B261" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="262" spans="2:2">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B262" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B263" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="264" spans="2:2">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B264" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B265" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="266" spans="2:2">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B266" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="267" spans="2:2">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B267" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="268" spans="2:2">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B268" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="269" spans="2:2">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B269" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="270" spans="2:2">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B270" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B271" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="272" spans="2:2">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B272" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B273" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B274" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B275" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B276" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B277" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B279" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A280" s="4"/>
       <c r="B280" s="4" t="s">
         <v>160</v>
@@ -3841,57 +3843,57 @@
         <v>162</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B281" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B282" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B283" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B284" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B285" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B286" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B287" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B288" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B289" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B290" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B292" s="4" t="s">
         <v>163</v>
       </c>
@@ -3905,7 +3907,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B293" s="1" t="s">
         <v>164</v>
       </c>
@@ -3913,47 +3915,47 @@
         <v>171</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B295" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B296" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B297" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B298" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B299" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B300" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B301" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="303" spans="1:10" s="3" customFormat="1">
+    <row r="303" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A303" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="305" spans="2:10">
+    <row r="305" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B305" s="1" t="s">
         <v>187</v>
       </c>
@@ -3964,640 +3966,640 @@
         <v>189</v>
       </c>
     </row>
-    <row r="312" spans="2:10">
+    <row r="312" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J312" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="313" spans="2:10">
+    <row r="313" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J313" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B337" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="348" spans="1:11" s="3" customFormat="1">
+    <row r="348" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A348" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="30" customHeight="1">
+    <row r="350" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B350" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C350" s="10"/>
       <c r="D350" s="10"/>
-      <c r="E350" s="9" t="s">
+      <c r="E350" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F350" s="9"/>
-      <c r="G350" s="9"/>
-      <c r="H350" s="9"/>
-      <c r="I350" s="9"/>
-      <c r="J350" s="9"/>
-      <c r="K350" s="9"/>
-    </row>
-    <row r="351" spans="1:11" ht="30" customHeight="1">
+      <c r="F350" s="11"/>
+      <c r="G350" s="11"/>
+      <c r="H350" s="11"/>
+      <c r="I350" s="11"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="11"/>
+    </row>
+    <row r="351" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B351" s="10" t="s">
         <v>200</v>
       </c>
       <c r="C351" s="10"/>
       <c r="D351" s="10"/>
-      <c r="E351" s="9" t="s">
+      <c r="E351" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F351" s="9"/>
-      <c r="G351" s="9"/>
-      <c r="H351" s="9"/>
-      <c r="I351" s="9"/>
-      <c r="J351" s="9"/>
-      <c r="K351" s="9"/>
-    </row>
-    <row r="352" spans="1:11" ht="30" customHeight="1">
+      <c r="F351" s="11"/>
+      <c r="G351" s="11"/>
+      <c r="H351" s="11"/>
+      <c r="I351" s="11"/>
+      <c r="J351" s="11"/>
+      <c r="K351" s="11"/>
+    </row>
+    <row r="352" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B352" s="10" t="s">
         <v>202</v>
       </c>
       <c r="C352" s="10"/>
       <c r="D352" s="10"/>
-      <c r="E352" s="9" t="s">
+      <c r="E352" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F352" s="9"/>
-      <c r="G352" s="9"/>
-      <c r="H352" s="9"/>
-      <c r="I352" s="9"/>
-      <c r="J352" s="9"/>
-      <c r="K352" s="9"/>
-    </row>
-    <row r="353" spans="2:11" ht="30" customHeight="1">
+      <c r="F352" s="11"/>
+      <c r="G352" s="11"/>
+      <c r="H352" s="11"/>
+      <c r="I352" s="11"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="11"/>
+    </row>
+    <row r="353" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B353" s="10" t="s">
         <v>204</v>
       </c>
       <c r="C353" s="10"/>
       <c r="D353" s="10"/>
-      <c r="E353" s="9" t="s">
+      <c r="E353" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F353" s="9"/>
-      <c r="G353" s="9"/>
-      <c r="H353" s="9"/>
-      <c r="I353" s="9"/>
-      <c r="J353" s="9"/>
-      <c r="K353" s="9"/>
-    </row>
-    <row r="354" spans="2:11" ht="30" customHeight="1">
+      <c r="F353" s="11"/>
+      <c r="G353" s="11"/>
+      <c r="H353" s="11"/>
+      <c r="I353" s="11"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="11"/>
+    </row>
+    <row r="354" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B354" s="10" t="s">
         <v>206</v>
       </c>
       <c r="C354" s="10"/>
       <c r="D354" s="10"/>
-      <c r="E354" s="9" t="s">
+      <c r="E354" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F354" s="9"/>
-      <c r="G354" s="9"/>
-      <c r="H354" s="9"/>
-      <c r="I354" s="9"/>
-      <c r="J354" s="9"/>
-      <c r="K354" s="9"/>
-    </row>
-    <row r="355" spans="2:11" ht="30" customHeight="1">
+      <c r="F354" s="11"/>
+      <c r="G354" s="11"/>
+      <c r="H354" s="11"/>
+      <c r="I354" s="11"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="11"/>
+    </row>
+    <row r="355" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B355" s="10" t="s">
         <v>208</v>
       </c>
       <c r="C355" s="10"/>
       <c r="D355" s="10"/>
-      <c r="E355" s="9" t="s">
+      <c r="E355" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F355" s="9"/>
-      <c r="G355" s="9"/>
-      <c r="H355" s="9"/>
-      <c r="I355" s="9"/>
-      <c r="J355" s="9"/>
-      <c r="K355" s="9"/>
-    </row>
-    <row r="356" spans="2:11" ht="30" customHeight="1">
+      <c r="F355" s="11"/>
+      <c r="G355" s="11"/>
+      <c r="H355" s="11"/>
+      <c r="I355" s="11"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="11"/>
+    </row>
+    <row r="356" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B356" s="10" t="s">
         <v>210</v>
       </c>
       <c r="C356" s="10"/>
       <c r="D356" s="10"/>
-      <c r="E356" s="9" t="s">
+      <c r="E356" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="F356" s="9"/>
-      <c r="G356" s="9"/>
-      <c r="H356" s="9"/>
-      <c r="I356" s="9"/>
-      <c r="J356" s="9"/>
-      <c r="K356" s="9"/>
-    </row>
-    <row r="357" spans="2:11" ht="30" customHeight="1">
+      <c r="F356" s="11"/>
+      <c r="G356" s="11"/>
+      <c r="H356" s="11"/>
+      <c r="I356" s="11"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="11"/>
+    </row>
+    <row r="357" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B357" s="10" t="s">
         <v>212</v>
       </c>
       <c r="C357" s="10"/>
       <c r="D357" s="10"/>
-      <c r="E357" s="9" t="s">
+      <c r="E357" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F357" s="9"/>
-      <c r="G357" s="9"/>
-      <c r="H357" s="9"/>
-      <c r="I357" s="9"/>
-      <c r="J357" s="9"/>
-      <c r="K357" s="9"/>
-    </row>
-    <row r="358" spans="2:11" ht="30" customHeight="1">
+      <c r="F357" s="11"/>
+      <c r="G357" s="11"/>
+      <c r="H357" s="11"/>
+      <c r="I357" s="11"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="11"/>
+    </row>
+    <row r="358" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B358" s="10" t="s">
         <v>214</v>
       </c>
       <c r="C358" s="10"/>
       <c r="D358" s="10"/>
-      <c r="E358" s="9" t="s">
+      <c r="E358" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F358" s="9"/>
-      <c r="G358" s="9"/>
-      <c r="H358" s="9"/>
-      <c r="I358" s="9"/>
-      <c r="J358" s="9"/>
-      <c r="K358" s="9"/>
-    </row>
-    <row r="359" spans="2:11" ht="30" customHeight="1">
+      <c r="F358" s="11"/>
+      <c r="G358" s="11"/>
+      <c r="H358" s="11"/>
+      <c r="I358" s="11"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="11"/>
+    </row>
+    <row r="359" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B359" s="10" t="s">
         <v>216</v>
       </c>
       <c r="C359" s="10"/>
       <c r="D359" s="10"/>
-      <c r="E359" s="9" t="s">
+      <c r="E359" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F359" s="9"/>
-      <c r="G359" s="9"/>
-      <c r="H359" s="9"/>
-      <c r="I359" s="9"/>
-      <c r="J359" s="9"/>
-      <c r="K359" s="9"/>
-    </row>
-    <row r="360" spans="2:11" ht="30" customHeight="1">
+      <c r="F359" s="11"/>
+      <c r="G359" s="11"/>
+      <c r="H359" s="11"/>
+      <c r="I359" s="11"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="11"/>
+    </row>
+    <row r="360" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B360" s="10" t="s">
         <v>218</v>
       </c>
       <c r="C360" s="10"/>
       <c r="D360" s="10"/>
-      <c r="E360" s="9" t="s">
+      <c r="E360" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="F360" s="9"/>
-      <c r="G360" s="9"/>
-      <c r="H360" s="9"/>
-      <c r="I360" s="9"/>
-      <c r="J360" s="9"/>
-      <c r="K360" s="9"/>
-    </row>
-    <row r="361" spans="2:11" ht="30" customHeight="1">
+      <c r="F360" s="11"/>
+      <c r="G360" s="11"/>
+      <c r="H360" s="11"/>
+      <c r="I360" s="11"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="11"/>
+    </row>
+    <row r="361" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B361" s="10" t="s">
         <v>220</v>
       </c>
       <c r="C361" s="10"/>
       <c r="D361" s="10"/>
-      <c r="E361" s="9" t="s">
+      <c r="E361" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F361" s="9"/>
-      <c r="G361" s="9"/>
-      <c r="H361" s="9"/>
-      <c r="I361" s="9"/>
-      <c r="J361" s="9"/>
-      <c r="K361" s="9"/>
-    </row>
-    <row r="362" spans="2:11" ht="30" customHeight="1">
+      <c r="F361" s="11"/>
+      <c r="G361" s="11"/>
+      <c r="H361" s="11"/>
+      <c r="I361" s="11"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="11"/>
+    </row>
+    <row r="362" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B362" s="10" t="s">
         <v>222</v>
       </c>
       <c r="C362" s="10"/>
       <c r="D362" s="10"/>
-      <c r="E362" s="9" t="s">
+      <c r="E362" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="F362" s="9"/>
-      <c r="G362" s="9"/>
-      <c r="H362" s="9"/>
-      <c r="I362" s="9"/>
-      <c r="J362" s="9"/>
-      <c r="K362" s="9"/>
-    </row>
-    <row r="363" spans="2:11" ht="30" customHeight="1">
+      <c r="F362" s="11"/>
+      <c r="G362" s="11"/>
+      <c r="H362" s="11"/>
+      <c r="I362" s="11"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="11"/>
+    </row>
+    <row r="363" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B363" s="10" t="s">
         <v>224</v>
       </c>
       <c r="C363" s="10"/>
       <c r="D363" s="10"/>
-      <c r="E363" s="9" t="s">
+      <c r="E363" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F363" s="9"/>
-      <c r="G363" s="9"/>
-      <c r="H363" s="9"/>
-      <c r="I363" s="9"/>
-      <c r="J363" s="9"/>
-      <c r="K363" s="9"/>
-    </row>
-    <row r="364" spans="2:11" ht="30" customHeight="1">
+      <c r="F363" s="11"/>
+      <c r="G363" s="11"/>
+      <c r="H363" s="11"/>
+      <c r="I363" s="11"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="11"/>
+    </row>
+    <row r="364" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B364" s="10" t="s">
         <v>226</v>
       </c>
       <c r="C364" s="10"/>
       <c r="D364" s="10"/>
-      <c r="E364" s="9" t="s">
+      <c r="E364" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F364" s="9"/>
-      <c r="G364" s="9"/>
-      <c r="H364" s="9"/>
-      <c r="I364" s="9"/>
-      <c r="J364" s="9"/>
-      <c r="K364" s="9"/>
-    </row>
-    <row r="365" spans="2:11" ht="30" customHeight="1">
+      <c r="F364" s="11"/>
+      <c r="G364" s="11"/>
+      <c r="H364" s="11"/>
+      <c r="I364" s="11"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="11"/>
+    </row>
+    <row r="365" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B365" s="10" t="s">
         <v>228</v>
       </c>
       <c r="C365" s="10"/>
       <c r="D365" s="10"/>
-      <c r="E365" s="9" t="s">
+      <c r="E365" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="F365" s="9"/>
-      <c r="G365" s="9"/>
-      <c r="H365" s="9"/>
-      <c r="I365" s="9"/>
-      <c r="J365" s="9"/>
-      <c r="K365" s="9"/>
-    </row>
-    <row r="366" spans="2:11" ht="30" customHeight="1">
+      <c r="F365" s="11"/>
+      <c r="G365" s="11"/>
+      <c r="H365" s="11"/>
+      <c r="I365" s="11"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="11"/>
+    </row>
+    <row r="366" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B366" s="10" t="s">
         <v>230</v>
       </c>
       <c r="C366" s="10"/>
       <c r="D366" s="10"/>
-      <c r="E366" s="9" t="s">
+      <c r="E366" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F366" s="9"/>
-      <c r="G366" s="9"/>
-      <c r="H366" s="9"/>
-      <c r="I366" s="9"/>
-      <c r="J366" s="9"/>
-      <c r="K366" s="9"/>
-    </row>
-    <row r="367" spans="2:11" ht="30" customHeight="1">
+      <c r="F366" s="11"/>
+      <c r="G366" s="11"/>
+      <c r="H366" s="11"/>
+      <c r="I366" s="11"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="11"/>
+    </row>
+    <row r="367" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B367" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C367" s="10"/>
       <c r="D367" s="10"/>
-      <c r="E367" s="9" t="s">
+      <c r="E367" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F367" s="9"/>
-      <c r="G367" s="9"/>
-      <c r="H367" s="9"/>
-      <c r="I367" s="9"/>
-      <c r="J367" s="9"/>
-      <c r="K367" s="9"/>
-    </row>
-    <row r="368" spans="2:11" ht="30" customHeight="1">
+      <c r="F367" s="11"/>
+      <c r="G367" s="11"/>
+      <c r="H367" s="11"/>
+      <c r="I367" s="11"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="11"/>
+    </row>
+    <row r="368" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B368" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C368" s="10"/>
       <c r="D368" s="10"/>
-      <c r="E368" s="9" t="s">
+      <c r="E368" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="F368" s="9"/>
-      <c r="G368" s="9"/>
-      <c r="H368" s="9"/>
-      <c r="I368" s="9"/>
-      <c r="J368" s="9"/>
-      <c r="K368" s="9"/>
-    </row>
-    <row r="369" spans="2:11" ht="30" customHeight="1">
+      <c r="F368" s="11"/>
+      <c r="G368" s="11"/>
+      <c r="H368" s="11"/>
+      <c r="I368" s="11"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="11"/>
+    </row>
+    <row r="369" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B369" s="10" t="s">
         <v>236</v>
       </c>
       <c r="C369" s="10"/>
       <c r="D369" s="10"/>
-      <c r="E369" s="9" t="s">
+      <c r="E369" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F369" s="9"/>
-      <c r="G369" s="9"/>
-      <c r="H369" s="9"/>
-      <c r="I369" s="9"/>
-      <c r="J369" s="9"/>
-      <c r="K369" s="9"/>
-    </row>
-    <row r="370" spans="2:11" ht="30" customHeight="1">
+      <c r="F369" s="11"/>
+      <c r="G369" s="11"/>
+      <c r="H369" s="11"/>
+      <c r="I369" s="11"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="11"/>
+    </row>
+    <row r="370" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B370" s="10" t="s">
         <v>238</v>
       </c>
       <c r="C370" s="10"/>
       <c r="D370" s="10"/>
-      <c r="E370" s="9" t="s">
+      <c r="E370" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F370" s="9"/>
-      <c r="G370" s="9"/>
-      <c r="H370" s="9"/>
-      <c r="I370" s="9"/>
-      <c r="J370" s="9"/>
-      <c r="K370" s="9"/>
-    </row>
-    <row r="371" spans="2:11" ht="30" customHeight="1">
+      <c r="F370" s="11"/>
+      <c r="G370" s="11"/>
+      <c r="H370" s="11"/>
+      <c r="I370" s="11"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="11"/>
+    </row>
+    <row r="371" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B371" s="10" t="s">
         <v>240</v>
       </c>
       <c r="C371" s="10"/>
       <c r="D371" s="10"/>
-      <c r="E371" s="9" t="s">
+      <c r="E371" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F371" s="9"/>
-      <c r="G371" s="9"/>
-      <c r="H371" s="9"/>
-      <c r="I371" s="9"/>
-      <c r="J371" s="9"/>
-      <c r="K371" s="9"/>
-    </row>
-    <row r="372" spans="2:11" ht="30" customHeight="1">
+      <c r="F371" s="11"/>
+      <c r="G371" s="11"/>
+      <c r="H371" s="11"/>
+      <c r="I371" s="11"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="11"/>
+    </row>
+    <row r="372" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B372" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C372" s="10"/>
       <c r="D372" s="10"/>
-      <c r="E372" s="9" t="s">
+      <c r="E372" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F372" s="9"/>
-      <c r="G372" s="9"/>
-      <c r="H372" s="9"/>
-      <c r="I372" s="9"/>
-      <c r="J372" s="9"/>
-      <c r="K372" s="9"/>
-    </row>
-    <row r="373" spans="2:11" ht="30" customHeight="1">
+      <c r="F372" s="11"/>
+      <c r="G372" s="11"/>
+      <c r="H372" s="11"/>
+      <c r="I372" s="11"/>
+      <c r="J372" s="11"/>
+      <c r="K372" s="11"/>
+    </row>
+    <row r="373" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B373" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
-      <c r="E373" s="9" t="s">
+      <c r="E373" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F373" s="9"/>
-      <c r="G373" s="9"/>
-      <c r="H373" s="9"/>
-      <c r="I373" s="9"/>
-      <c r="J373" s="9"/>
-      <c r="K373" s="9"/>
-    </row>
-    <row r="374" spans="2:11" ht="30" customHeight="1">
+      <c r="F373" s="11"/>
+      <c r="G373" s="11"/>
+      <c r="H373" s="11"/>
+      <c r="I373" s="11"/>
+      <c r="J373" s="11"/>
+      <c r="K373" s="11"/>
+    </row>
+    <row r="374" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B374" s="10" t="s">
         <v>246</v>
       </c>
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
-      <c r="E374" s="9" t="s">
+      <c r="E374" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="F374" s="9"/>
-      <c r="G374" s="9"/>
-      <c r="H374" s="9"/>
-      <c r="I374" s="9"/>
-      <c r="J374" s="9"/>
-      <c r="K374" s="9"/>
-    </row>
-    <row r="375" spans="2:11" ht="30" customHeight="1">
+      <c r="F374" s="11"/>
+      <c r="G374" s="11"/>
+      <c r="H374" s="11"/>
+      <c r="I374" s="11"/>
+      <c r="J374" s="11"/>
+      <c r="K374" s="11"/>
+    </row>
+    <row r="375" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B375" s="10" t="s">
         <v>248</v>
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="10"/>
-      <c r="E375" s="9" t="s">
+      <c r="E375" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F375" s="9"/>
-      <c r="G375" s="9"/>
-      <c r="H375" s="9"/>
-      <c r="I375" s="9"/>
-      <c r="J375" s="9"/>
-      <c r="K375" s="9"/>
-    </row>
-    <row r="376" spans="2:11" ht="30" customHeight="1">
+      <c r="F375" s="11"/>
+      <c r="G375" s="11"/>
+      <c r="H375" s="11"/>
+      <c r="I375" s="11"/>
+      <c r="J375" s="11"/>
+      <c r="K375" s="11"/>
+    </row>
+    <row r="376" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B376" s="10" t="s">
         <v>250</v>
       </c>
       <c r="C376" s="10"/>
       <c r="D376" s="10"/>
-      <c r="E376" s="9" t="s">
+      <c r="E376" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F376" s="9"/>
-      <c r="G376" s="9"/>
-      <c r="H376" s="9"/>
-      <c r="I376" s="9"/>
-      <c r="J376" s="9"/>
-      <c r="K376" s="9"/>
-    </row>
-    <row r="377" spans="2:11" ht="30" customHeight="1">
+      <c r="F376" s="11"/>
+      <c r="G376" s="11"/>
+      <c r="H376" s="11"/>
+      <c r="I376" s="11"/>
+      <c r="J376" s="11"/>
+      <c r="K376" s="11"/>
+    </row>
+    <row r="377" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B377" s="10" t="s">
         <v>252</v>
       </c>
       <c r="C377" s="10"/>
       <c r="D377" s="10"/>
-      <c r="E377" s="9" t="s">
+      <c r="E377" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F377" s="9"/>
-      <c r="G377" s="9"/>
-      <c r="H377" s="9"/>
-      <c r="I377" s="9"/>
-      <c r="J377" s="9"/>
-      <c r="K377" s="9"/>
-    </row>
-    <row r="378" spans="2:11" ht="30" customHeight="1">
+      <c r="F377" s="11"/>
+      <c r="G377" s="11"/>
+      <c r="H377" s="11"/>
+      <c r="I377" s="11"/>
+      <c r="J377" s="11"/>
+      <c r="K377" s="11"/>
+    </row>
+    <row r="378" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B378" s="10" t="s">
         <v>254</v>
       </c>
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
-      <c r="E378" s="9" t="s">
+      <c r="E378" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F378" s="9"/>
-      <c r="G378" s="9"/>
-      <c r="H378" s="9"/>
-      <c r="I378" s="9"/>
-      <c r="J378" s="9"/>
-      <c r="K378" s="9"/>
-    </row>
-    <row r="379" spans="2:11" ht="30" customHeight="1">
+      <c r="F378" s="11"/>
+      <c r="G378" s="11"/>
+      <c r="H378" s="11"/>
+      <c r="I378" s="11"/>
+      <c r="J378" s="11"/>
+      <c r="K378" s="11"/>
+    </row>
+    <row r="379" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B379" s="10" t="s">
         <v>256</v>
       </c>
       <c r="C379" s="10"/>
       <c r="D379" s="10"/>
-      <c r="E379" s="9" t="s">
+      <c r="E379" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="F379" s="9"/>
-      <c r="G379" s="9"/>
-      <c r="H379" s="9"/>
-      <c r="I379" s="9"/>
-      <c r="J379" s="9"/>
-      <c r="K379" s="9"/>
-    </row>
-    <row r="380" spans="2:11" ht="30" customHeight="1">
+      <c r="F379" s="11"/>
+      <c r="G379" s="11"/>
+      <c r="H379" s="11"/>
+      <c r="I379" s="11"/>
+      <c r="J379" s="11"/>
+      <c r="K379" s="11"/>
+    </row>
+    <row r="380" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B380" s="10" t="s">
         <v>258</v>
       </c>
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
-      <c r="E380" s="9" t="s">
+      <c r="E380" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F380" s="9"/>
-      <c r="G380" s="9"/>
-      <c r="H380" s="9"/>
-      <c r="I380" s="9"/>
-      <c r="J380" s="9"/>
-      <c r="K380" s="9"/>
-    </row>
-    <row r="381" spans="2:11" ht="30" customHeight="1">
+      <c r="F380" s="11"/>
+      <c r="G380" s="11"/>
+      <c r="H380" s="11"/>
+      <c r="I380" s="11"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="11"/>
+    </row>
+    <row r="381" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B381" s="10" t="s">
         <v>260</v>
       </c>
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
-      <c r="E381" s="9" t="s">
+      <c r="E381" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F381" s="9"/>
-      <c r="G381" s="9"/>
-      <c r="H381" s="9"/>
-      <c r="I381" s="9"/>
-      <c r="J381" s="9"/>
-      <c r="K381" s="9"/>
-    </row>
-    <row r="382" spans="2:11" ht="30" customHeight="1">
+      <c r="F381" s="11"/>
+      <c r="G381" s="11"/>
+      <c r="H381" s="11"/>
+      <c r="I381" s="11"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="11"/>
+    </row>
+    <row r="382" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B382" s="10" t="s">
         <v>262</v>
       </c>
       <c r="C382" s="10"/>
       <c r="D382" s="10"/>
-      <c r="E382" s="9" t="s">
+      <c r="E382" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F382" s="9"/>
-      <c r="G382" s="9"/>
-      <c r="H382" s="9"/>
-      <c r="I382" s="9"/>
-      <c r="J382" s="9"/>
-      <c r="K382" s="9"/>
-    </row>
-    <row r="383" spans="2:11" ht="30" customHeight="1">
+      <c r="F382" s="11"/>
+      <c r="G382" s="11"/>
+      <c r="H382" s="11"/>
+      <c r="I382" s="11"/>
+      <c r="J382" s="11"/>
+      <c r="K382" s="11"/>
+    </row>
+    <row r="383" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B383" s="10" t="s">
         <v>264</v>
       </c>
       <c r="C383" s="10"/>
       <c r="D383" s="10"/>
-      <c r="E383" s="9" t="s">
+      <c r="E383" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="F383" s="9"/>
-      <c r="G383" s="9"/>
-      <c r="H383" s="9"/>
-      <c r="I383" s="9"/>
-      <c r="J383" s="9"/>
-      <c r="K383" s="9"/>
-    </row>
-    <row r="384" spans="2:11" ht="30" customHeight="1">
+      <c r="F383" s="11"/>
+      <c r="G383" s="11"/>
+      <c r="H383" s="11"/>
+      <c r="I383" s="11"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="11"/>
+    </row>
+    <row r="384" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B384" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C384" s="10"/>
       <c r="D384" s="10"/>
-      <c r="E384" s="9" t="s">
+      <c r="E384" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="F384" s="9"/>
-      <c r="G384" s="9"/>
-      <c r="H384" s="9"/>
-      <c r="I384" s="9"/>
-      <c r="J384" s="9"/>
-      <c r="K384" s="9"/>
-    </row>
-    <row r="385" spans="1:11" ht="30" customHeight="1">
+      <c r="F384" s="11"/>
+      <c r="G384" s="11"/>
+      <c r="H384" s="11"/>
+      <c r="I384" s="11"/>
+      <c r="J384" s="11"/>
+      <c r="K384" s="11"/>
+    </row>
+    <row r="385" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B385" s="10" t="s">
         <v>268</v>
       </c>
       <c r="C385" s="10"/>
       <c r="D385" s="10"/>
-      <c r="E385" s="9" t="s">
+      <c r="E385" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="F385" s="9"/>
-      <c r="G385" s="9"/>
-      <c r="H385" s="9"/>
-      <c r="I385" s="9"/>
-      <c r="J385" s="9"/>
-      <c r="K385" s="9"/>
-    </row>
-    <row r="386" spans="1:11" ht="30" customHeight="1">
+      <c r="F385" s="11"/>
+      <c r="G385" s="11"/>
+      <c r="H385" s="11"/>
+      <c r="I385" s="11"/>
+      <c r="J385" s="11"/>
+      <c r="K385" s="11"/>
+    </row>
+    <row r="386" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B386" s="10" t="s">
         <v>270</v>
       </c>
       <c r="C386" s="10"/>
       <c r="D386" s="10"/>
-      <c r="E386" s="9" t="s">
+      <c r="E386" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="F386" s="9"/>
-      <c r="G386" s="9"/>
-      <c r="H386" s="9"/>
-      <c r="I386" s="9"/>
-      <c r="J386" s="9"/>
-      <c r="K386" s="9"/>
-    </row>
-    <row r="387" spans="1:11" ht="30" customHeight="1">
+      <c r="F386" s="11"/>
+      <c r="G386" s="11"/>
+      <c r="H386" s="11"/>
+      <c r="I386" s="11"/>
+      <c r="J386" s="11"/>
+      <c r="K386" s="11"/>
+    </row>
+    <row r="387" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B387" s="10" t="s">
         <v>272</v>
       </c>
       <c r="C387" s="10"/>
       <c r="D387" s="10"/>
-      <c r="E387" s="9" t="s">
+      <c r="E387" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="F387" s="9"/>
-      <c r="G387" s="9"/>
-      <c r="H387" s="9"/>
-      <c r="I387" s="9"/>
-      <c r="J387" s="9"/>
-      <c r="K387" s="9"/>
-    </row>
-    <row r="389" spans="1:11" s="3" customFormat="1">
+      <c r="F387" s="11"/>
+      <c r="G387" s="11"/>
+      <c r="H387" s="11"/>
+      <c r="I387" s="11"/>
+      <c r="J387" s="11"/>
+      <c r="K387" s="11"/>
+    </row>
+    <row r="389" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A389" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B391" s="1" t="s">
         <v>275</v>
       </c>
@@ -4605,12 +4607,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B392" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B393" s="1" t="s">
         <v>279</v>
       </c>
@@ -4618,12 +4620,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B394" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B395" s="1" t="s">
         <v>277</v>
       </c>
@@ -4631,12 +4633,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B396" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B398" s="4" t="s">
         <v>283</v>
       </c>
@@ -4644,22 +4646,22 @@
         <v>285</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B399" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B400" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="401" spans="2:11">
+    <row r="401" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B401" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="404" spans="2:11">
+    <row r="404" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B404" s="1" t="s">
         <v>286</v>
       </c>
@@ -4667,22 +4669,22 @@
         <v>288</v>
       </c>
     </row>
-    <row r="405" spans="2:11">
+    <row r="405" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B405" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="406" spans="2:11">
+    <row r="406" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B406" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="2:11" ht="19.5">
-      <c r="B410" s="11" t="s">
+    <row r="410" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="B410" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="411" spans="2:11" ht="15" customHeight="1">
+    <row r="411" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B411" s="12" t="s">
         <v>290</v>
       </c>
@@ -4698,195 +4700,195 @@
       <c r="J411" s="12"/>
       <c r="K411" s="12"/>
     </row>
-    <row r="412" spans="2:11" ht="15" customHeight="1">
+    <row r="412" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B412" s="10" t="s">
         <v>292</v>
       </c>
       <c r="C412" s="10"/>
       <c r="D412" s="10"/>
-      <c r="E412" s="9" t="s">
+      <c r="E412" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="F412" s="9"/>
-      <c r="G412" s="9"/>
-      <c r="H412" s="9"/>
-      <c r="I412" s="9"/>
-      <c r="J412" s="9"/>
-      <c r="K412" s="9"/>
-    </row>
-    <row r="413" spans="2:11" ht="15" customHeight="1">
+      <c r="F412" s="11"/>
+      <c r="G412" s="11"/>
+      <c r="H412" s="11"/>
+      <c r="I412" s="11"/>
+      <c r="J412" s="11"/>
+      <c r="K412" s="11"/>
+    </row>
+    <row r="413" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B413" s="10" t="s">
         <v>294</v>
       </c>
       <c r="C413" s="10"/>
       <c r="D413" s="10"/>
-      <c r="E413" s="9" t="s">
+      <c r="E413" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F413" s="9"/>
-      <c r="G413" s="9"/>
-      <c r="H413" s="9"/>
-      <c r="I413" s="9"/>
-      <c r="J413" s="9"/>
-      <c r="K413" s="9"/>
-    </row>
-    <row r="414" spans="2:11" ht="15" customHeight="1">
+      <c r="F413" s="11"/>
+      <c r="G413" s="11"/>
+      <c r="H413" s="11"/>
+      <c r="I413" s="11"/>
+      <c r="J413" s="11"/>
+      <c r="K413" s="11"/>
+    </row>
+    <row r="414" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B414" s="10" t="s">
         <v>296</v>
       </c>
       <c r="C414" s="10"/>
       <c r="D414" s="10"/>
-      <c r="E414" s="9" t="s">
+      <c r="E414" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="F414" s="9"/>
-      <c r="G414" s="9"/>
-      <c r="H414" s="9"/>
-      <c r="I414" s="9"/>
-      <c r="J414" s="9"/>
-      <c r="K414" s="9"/>
-    </row>
-    <row r="415" spans="2:11" ht="15" customHeight="1">
+      <c r="F414" s="11"/>
+      <c r="G414" s="11"/>
+      <c r="H414" s="11"/>
+      <c r="I414" s="11"/>
+      <c r="J414" s="11"/>
+      <c r="K414" s="11"/>
+    </row>
+    <row r="415" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B415" s="10" t="s">
         <v>298</v>
       </c>
       <c r="C415" s="10"/>
       <c r="D415" s="10"/>
-      <c r="E415" s="9" t="s">
+      <c r="E415" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="F415" s="9"/>
-      <c r="G415" s="9"/>
-      <c r="H415" s="9"/>
-      <c r="I415" s="9"/>
-      <c r="J415" s="9"/>
-      <c r="K415" s="9"/>
-    </row>
-    <row r="416" spans="2:11" ht="15" customHeight="1">
+      <c r="F415" s="11"/>
+      <c r="G415" s="11"/>
+      <c r="H415" s="11"/>
+      <c r="I415" s="11"/>
+      <c r="J415" s="11"/>
+      <c r="K415" s="11"/>
+    </row>
+    <row r="416" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B416" s="10" t="s">
         <v>300</v>
       </c>
       <c r="C416" s="10"/>
       <c r="D416" s="10"/>
-      <c r="E416" s="9" t="s">
+      <c r="E416" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="F416" s="9"/>
-      <c r="G416" s="9"/>
-      <c r="H416" s="9"/>
-      <c r="I416" s="9"/>
-      <c r="J416" s="9"/>
-      <c r="K416" s="9"/>
-    </row>
-    <row r="417" spans="2:11" ht="15" customHeight="1">
+      <c r="F416" s="11"/>
+      <c r="G416" s="11"/>
+      <c r="H416" s="11"/>
+      <c r="I416" s="11"/>
+      <c r="J416" s="11"/>
+      <c r="K416" s="11"/>
+    </row>
+    <row r="417" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B417" s="10" t="s">
         <v>302</v>
       </c>
       <c r="C417" s="10"/>
       <c r="D417" s="10"/>
-      <c r="E417" s="9" t="s">
+      <c r="E417" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F417" s="11"/>
+      <c r="G417" s="11"/>
+      <c r="H417" s="11"/>
+      <c r="I417" s="11"/>
+      <c r="J417" s="11"/>
+      <c r="K417" s="11"/>
+    </row>
+    <row r="418" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B418" s="10" t="s">
         <v>303</v>
-      </c>
-      <c r="F417" s="9"/>
-      <c r="G417" s="9"/>
-      <c r="H417" s="9"/>
-      <c r="I417" s="9"/>
-      <c r="J417" s="9"/>
-      <c r="K417" s="9"/>
-    </row>
-    <row r="418" spans="2:11" ht="15" customHeight="1">
-      <c r="B418" s="10" t="s">
-        <v>304</v>
       </c>
       <c r="C418" s="10"/>
       <c r="D418" s="10"/>
-      <c r="E418" s="9" t="s">
+      <c r="E418" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F418" s="11"/>
+      <c r="G418" s="11"/>
+      <c r="H418" s="11"/>
+      <c r="I418" s="11"/>
+      <c r="J418" s="11"/>
+      <c r="K418" s="11"/>
+    </row>
+    <row r="419" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B419" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="F418" s="9"/>
-      <c r="G418" s="9"/>
-      <c r="H418" s="9"/>
-      <c r="I418" s="9"/>
-      <c r="J418" s="9"/>
-      <c r="K418" s="9"/>
-    </row>
-    <row r="419" spans="2:11" ht="15" customHeight="1">
-      <c r="B419" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="C419" s="10"/>
       <c r="D419" s="10"/>
-      <c r="E419" s="9" t="s">
+      <c r="E419" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F419" s="11"/>
+      <c r="G419" s="11"/>
+      <c r="H419" s="11"/>
+      <c r="I419" s="11"/>
+      <c r="J419" s="11"/>
+      <c r="K419" s="11"/>
+    </row>
+    <row r="420" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B420" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="F419" s="9"/>
-      <c r="G419" s="9"/>
-      <c r="H419" s="9"/>
-      <c r="I419" s="9"/>
-      <c r="J419" s="9"/>
-      <c r="K419" s="9"/>
-    </row>
-    <row r="420" spans="2:11" ht="15" customHeight="1">
-      <c r="B420" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="C420" s="10"/>
       <c r="D420" s="10"/>
-      <c r="E420" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="F420" s="9"/>
-      <c r="G420" s="9"/>
-      <c r="H420" s="9"/>
-      <c r="I420" s="9"/>
-      <c r="J420" s="9"/>
-      <c r="K420" s="9"/>
-    </row>
-    <row r="421" spans="2:11" ht="15" customHeight="1">
+      <c r="E420" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="F420" s="11"/>
+      <c r="G420" s="11"/>
+      <c r="H420" s="11"/>
+      <c r="I420" s="11"/>
+      <c r="J420" s="11"/>
+      <c r="K420" s="11"/>
+    </row>
+    <row r="421" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B421" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C421" s="10"/>
       <c r="D421" s="10"/>
-      <c r="E421" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="F421" s="9"/>
-      <c r="G421" s="9"/>
-      <c r="H421" s="9"/>
-      <c r="I421" s="9"/>
-      <c r="J421" s="9"/>
-      <c r="K421" s="9"/>
-    </row>
-    <row r="422" spans="2:11" ht="15" customHeight="1">
+      <c r="E421" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F421" s="11"/>
+      <c r="G421" s="11"/>
+      <c r="H421" s="11"/>
+      <c r="I421" s="11"/>
+      <c r="J421" s="11"/>
+      <c r="K421" s="11"/>
+    </row>
+    <row r="422" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B422" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C422" s="10"/>
       <c r="D422" s="10"/>
-      <c r="E422" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="F422" s="9"/>
-      <c r="G422" s="9"/>
-      <c r="H422" s="9"/>
-      <c r="I422" s="9"/>
-      <c r="J422" s="9"/>
-      <c r="K422" s="9"/>
-    </row>
-    <row r="425" spans="2:11" ht="19.5">
-      <c r="B425" s="11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="426" spans="2:11">
+      <c r="E422" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F422" s="11"/>
+      <c r="G422" s="11"/>
+      <c r="H422" s="11"/>
+      <c r="I422" s="11"/>
+      <c r="J422" s="11"/>
+      <c r="K422" s="11"/>
+    </row>
+    <row r="425" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="B425" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="426" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B426" s="12" t="s">
         <v>290</v>
       </c>
       <c r="C426" s="12"/>
       <c r="D426" s="12"/>
       <c r="E426" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F426" s="12"/>
       <c r="G426" s="12"/>
@@ -4895,110 +4897,110 @@
       <c r="J426" s="12"/>
       <c r="K426" s="12"/>
     </row>
-    <row r="427" spans="2:11">
+    <row r="427" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B427" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C427" s="10"/>
       <c r="D427" s="10"/>
-      <c r="E427" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="F427" s="9"/>
-      <c r="G427" s="9"/>
-      <c r="H427" s="9"/>
-      <c r="I427" s="9"/>
-      <c r="J427" s="9"/>
-      <c r="K427" s="9"/>
-    </row>
-    <row r="428" spans="2:11">
+      <c r="E427" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F427" s="11"/>
+      <c r="G427" s="11"/>
+      <c r="H427" s="11"/>
+      <c r="I427" s="11"/>
+      <c r="J427" s="11"/>
+      <c r="K427" s="11"/>
+    </row>
+    <row r="428" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B428" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C428" s="10"/>
       <c r="D428" s="10"/>
-      <c r="E428" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="F428" s="9"/>
-      <c r="G428" s="9"/>
-      <c r="H428" s="9"/>
-      <c r="I428" s="9"/>
-      <c r="J428" s="9"/>
-      <c r="K428" s="9"/>
-    </row>
-    <row r="429" spans="2:11">
+      <c r="E428" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F428" s="11"/>
+      <c r="G428" s="11"/>
+      <c r="H428" s="11"/>
+      <c r="I428" s="11"/>
+      <c r="J428" s="11"/>
+      <c r="K428" s="11"/>
+    </row>
+    <row r="429" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B429" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C429" s="10"/>
       <c r="D429" s="10"/>
-      <c r="E429" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="F429" s="9"/>
-      <c r="G429" s="9"/>
-      <c r="H429" s="9"/>
-      <c r="I429" s="9"/>
-      <c r="J429" s="9"/>
-      <c r="K429" s="9"/>
-    </row>
-    <row r="430" spans="2:11">
+      <c r="E429" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F429" s="11"/>
+      <c r="G429" s="11"/>
+      <c r="H429" s="11"/>
+      <c r="I429" s="11"/>
+      <c r="J429" s="11"/>
+      <c r="K429" s="11"/>
+    </row>
+    <row r="430" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B430" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C430" s="10"/>
       <c r="D430" s="10"/>
-      <c r="E430" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="F430" s="9"/>
-      <c r="G430" s="9"/>
-      <c r="H430" s="9"/>
-      <c r="I430" s="9"/>
-      <c r="J430" s="9"/>
-      <c r="K430" s="9"/>
-    </row>
-    <row r="431" spans="2:11">
+      <c r="E430" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F430" s="11"/>
+      <c r="G430" s="11"/>
+      <c r="H430" s="11"/>
+      <c r="I430" s="11"/>
+      <c r="J430" s="11"/>
+      <c r="K430" s="11"/>
+    </row>
+    <row r="431" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B431" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C431" s="10"/>
       <c r="D431" s="10"/>
-      <c r="E431" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="F431" s="9"/>
-      <c r="G431" s="9"/>
-      <c r="H431" s="9"/>
-      <c r="I431" s="9"/>
-      <c r="J431" s="9"/>
-      <c r="K431" s="9"/>
-    </row>
-    <row r="432" spans="2:11">
+      <c r="E431" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F431" s="11"/>
+      <c r="G431" s="11"/>
+      <c r="H431" s="11"/>
+      <c r="I431" s="11"/>
+      <c r="J431" s="11"/>
+      <c r="K431" s="11"/>
+    </row>
+    <row r="432" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="2:11">
+    <row r="433" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B433" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E433"/>
     </row>
-    <row r="434" spans="2:11" ht="19.5">
-      <c r="B434" s="11" t="s">
-        <v>354</v>
+    <row r="434" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="B434" s="9" t="s">
+        <v>352</v>
       </c>
       <c r="E434"/>
     </row>
-    <row r="435" spans="2:11">
+    <row r="435" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B435" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C435" s="12"/>
       <c r="D435" s="12"/>
       <c r="E435" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F435" s="12"/>
       <c r="G435" s="12"/>
@@ -5007,312 +5009,236 @@
       <c r="J435" s="12"/>
       <c r="K435" s="12"/>
     </row>
-    <row r="436" spans="2:11">
+    <row r="436" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B436" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C436" s="10"/>
       <c r="D436" s="10"/>
-      <c r="E436" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="F436" s="9"/>
-      <c r="G436" s="9"/>
-      <c r="H436" s="9"/>
-      <c r="I436" s="9"/>
-      <c r="J436" s="9"/>
-      <c r="K436" s="9"/>
-    </row>
-    <row r="437" spans="2:11">
+      <c r="E436" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F436" s="11"/>
+      <c r="G436" s="11"/>
+      <c r="H436" s="11"/>
+      <c r="I436" s="11"/>
+      <c r="J436" s="11"/>
+      <c r="K436" s="11"/>
+    </row>
+    <row r="437" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B437" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C437" s="10"/>
       <c r="D437" s="10"/>
-      <c r="E437" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F437" s="9"/>
-      <c r="G437" s="9"/>
-      <c r="H437" s="9"/>
-      <c r="I437" s="9"/>
-      <c r="J437" s="9"/>
-      <c r="K437" s="9"/>
-    </row>
-    <row r="438" spans="2:11">
+      <c r="E437" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F437" s="11"/>
+      <c r="G437" s="11"/>
+      <c r="H437" s="11"/>
+      <c r="I437" s="11"/>
+      <c r="J437" s="11"/>
+      <c r="K437" s="11"/>
+    </row>
+    <row r="438" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B438" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C438" s="10"/>
       <c r="D438" s="10"/>
-      <c r="E438" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F438" s="9"/>
-      <c r="G438" s="9"/>
-      <c r="H438" s="9"/>
-      <c r="I438" s="9"/>
-      <c r="J438" s="9"/>
-      <c r="K438" s="9"/>
-    </row>
-    <row r="439" spans="2:11">
+      <c r="E438" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F438" s="11"/>
+      <c r="G438" s="11"/>
+      <c r="H438" s="11"/>
+      <c r="I438" s="11"/>
+      <c r="J438" s="11"/>
+      <c r="K438" s="11"/>
+    </row>
+    <row r="439" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B439" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C439" s="10"/>
       <c r="D439" s="10"/>
-      <c r="E439" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F439" s="9"/>
-      <c r="G439" s="9"/>
-      <c r="H439" s="9"/>
-      <c r="I439" s="9"/>
-      <c r="J439" s="9"/>
-      <c r="K439" s="9"/>
-    </row>
-    <row r="440" spans="2:11">
+      <c r="E439" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F439" s="11"/>
+      <c r="G439" s="11"/>
+      <c r="H439" s="11"/>
+      <c r="I439" s="11"/>
+      <c r="J439" s="11"/>
+      <c r="K439" s="11"/>
+    </row>
+    <row r="440" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B440" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C440" s="10"/>
       <c r="D440" s="10"/>
-      <c r="E440" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F440" s="9"/>
-      <c r="G440" s="9"/>
-      <c r="H440" s="9"/>
-      <c r="I440" s="9"/>
-      <c r="J440" s="9"/>
-      <c r="K440" s="9"/>
-    </row>
-    <row r="441" spans="2:11">
+      <c r="E440" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F440" s="11"/>
+      <c r="G440" s="11"/>
+      <c r="H440" s="11"/>
+      <c r="I440" s="11"/>
+      <c r="J440" s="11"/>
+      <c r="K440" s="11"/>
+    </row>
+    <row r="441" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B441" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C441" s="10"/>
       <c r="D441" s="10"/>
-      <c r="E441" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="F441" s="9"/>
-      <c r="G441" s="9"/>
-      <c r="H441" s="9"/>
-      <c r="I441" s="9"/>
-      <c r="J441" s="9"/>
-      <c r="K441" s="9"/>
-    </row>
-    <row r="442" spans="2:11">
+      <c r="E441" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F441" s="11"/>
+      <c r="G441" s="11"/>
+      <c r="H441" s="11"/>
+      <c r="I441" s="11"/>
+      <c r="J441" s="11"/>
+      <c r="K441" s="11"/>
+    </row>
+    <row r="442" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B442" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C442" s="10"/>
       <c r="D442" s="10"/>
-      <c r="E442" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="F442" s="9"/>
-      <c r="G442" s="9"/>
-      <c r="H442" s="9"/>
-      <c r="I442" s="9"/>
-      <c r="J442" s="9"/>
-      <c r="K442" s="9"/>
-    </row>
-    <row r="443" spans="2:11">
+      <c r="E442" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F442" s="11"/>
+      <c r="G442" s="11"/>
+      <c r="H442" s="11"/>
+      <c r="I442" s="11"/>
+      <c r="J442" s="11"/>
+      <c r="K442" s="11"/>
+    </row>
+    <row r="443" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B443" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C443" s="10"/>
       <c r="D443" s="10"/>
-      <c r="E443" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="F443" s="9"/>
-      <c r="G443" s="9"/>
-      <c r="H443" s="9"/>
-      <c r="I443" s="9"/>
-      <c r="J443" s="9"/>
-      <c r="K443" s="9"/>
-    </row>
-    <row r="444" spans="2:11">
+      <c r="E443" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F443" s="11"/>
+      <c r="G443" s="11"/>
+      <c r="H443" s="11"/>
+      <c r="I443" s="11"/>
+      <c r="J443" s="11"/>
+      <c r="K443" s="11"/>
+    </row>
+    <row r="444" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B444" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C444" s="10"/>
       <c r="D444" s="10"/>
-      <c r="E444" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="F444" s="9"/>
-      <c r="G444" s="9"/>
-      <c r="H444" s="9"/>
-      <c r="I444" s="9"/>
-      <c r="J444" s="9"/>
-      <c r="K444" s="9"/>
-    </row>
-    <row r="445" spans="2:11">
+      <c r="E444" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F444" s="11"/>
+      <c r="G444" s="11"/>
+      <c r="H444" s="11"/>
+      <c r="I444" s="11"/>
+      <c r="J444" s="11"/>
+      <c r="K444" s="11"/>
+    </row>
+    <row r="445" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B445" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C445" s="10"/>
       <c r="D445" s="10"/>
-      <c r="E445" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="F445" s="9"/>
-      <c r="G445" s="9"/>
-      <c r="H445" s="9"/>
-      <c r="I445" s="9"/>
-      <c r="J445" s="9"/>
-      <c r="K445" s="9"/>
-    </row>
-    <row r="446" spans="2:11">
+      <c r="E445" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F445" s="11"/>
+      <c r="G445" s="11"/>
+      <c r="H445" s="11"/>
+      <c r="I445" s="11"/>
+      <c r="J445" s="11"/>
+      <c r="K445" s="11"/>
+    </row>
+    <row r="446" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B446" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C446" s="10"/>
       <c r="D446" s="10"/>
-      <c r="E446" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="F446" s="9"/>
-      <c r="G446" s="9"/>
-      <c r="H446" s="9"/>
-      <c r="I446" s="9"/>
-      <c r="J446" s="9"/>
-      <c r="K446" s="9"/>
-    </row>
-    <row r="447" spans="2:11">
+      <c r="E446" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F446" s="11"/>
+      <c r="G446" s="11"/>
+      <c r="H446" s="11"/>
+      <c r="I446" s="11"/>
+      <c r="J446" s="11"/>
+      <c r="K446" s="11"/>
+    </row>
+    <row r="447" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B447" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C447" s="10"/>
       <c r="D447" s="10"/>
-      <c r="E447" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F447" s="9"/>
-      <c r="G447" s="9"/>
-      <c r="H447" s="9"/>
-      <c r="I447" s="9"/>
-      <c r="J447" s="9"/>
-      <c r="K447" s="9"/>
-    </row>
-    <row r="448" spans="2:11">
+      <c r="E447" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F447" s="11"/>
+      <c r="G447" s="11"/>
+      <c r="H447" s="11"/>
+      <c r="I447" s="11"/>
+      <c r="J447" s="11"/>
+      <c r="K447" s="11"/>
+    </row>
+    <row r="448" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B448" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C448" s="10"/>
       <c r="D448" s="10"/>
-      <c r="E448" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="F448" s="9"/>
-      <c r="G448" s="9"/>
-      <c r="H448" s="9"/>
-      <c r="I448" s="9"/>
-      <c r="J448" s="9"/>
-      <c r="K448" s="9"/>
+      <c r="E448" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F448" s="11"/>
+      <c r="G448" s="11"/>
+      <c r="H448" s="11"/>
+      <c r="I448" s="11"/>
+      <c r="J448" s="11"/>
+      <c r="K448" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B446:D446"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="B447:D447"/>
-    <mergeCell ref="E447:K447"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="E448:K448"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:K443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:K444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:K445"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:K440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:K441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:K442"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:K438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:K439"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:K430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:K431"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:K436"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:K426"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:K435"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:K427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="E428:K428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:K429"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="E416:K416"/>
-    <mergeCell ref="E417:K417"/>
-    <mergeCell ref="E418:K418"/>
-    <mergeCell ref="E419:K419"/>
-    <mergeCell ref="E420:K420"/>
-    <mergeCell ref="E421:K421"/>
-    <mergeCell ref="E422:K422"/>
-    <mergeCell ref="E411:K411"/>
-    <mergeCell ref="E412:K412"/>
-    <mergeCell ref="E413:K413"/>
-    <mergeCell ref="E414:K414"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="E376:K376"/>
-    <mergeCell ref="E377:K377"/>
-    <mergeCell ref="E378:K378"/>
-    <mergeCell ref="E379:K379"/>
-    <mergeCell ref="E380:K380"/>
-    <mergeCell ref="E381:K381"/>
-    <mergeCell ref="E364:K364"/>
-    <mergeCell ref="E365:K365"/>
-    <mergeCell ref="E366:K366"/>
-    <mergeCell ref="E367:K367"/>
-    <mergeCell ref="E368:K368"/>
-    <mergeCell ref="E369:K369"/>
-    <mergeCell ref="E354:K354"/>
-    <mergeCell ref="E355:K355"/>
-    <mergeCell ref="E356:K356"/>
-    <mergeCell ref="E357:K357"/>
-    <mergeCell ref="E358:K358"/>
-    <mergeCell ref="E359:K359"/>
-    <mergeCell ref="E382:K382"/>
-    <mergeCell ref="E383:K383"/>
-    <mergeCell ref="E384:K384"/>
-    <mergeCell ref="E385:K385"/>
-    <mergeCell ref="E370:K370"/>
-    <mergeCell ref="E371:K371"/>
-    <mergeCell ref="E372:K372"/>
-    <mergeCell ref="E373:K373"/>
-    <mergeCell ref="E360:K360"/>
-    <mergeCell ref="E361:K361"/>
-    <mergeCell ref="E350:K350"/>
-    <mergeCell ref="E351:K351"/>
-    <mergeCell ref="E352:K352"/>
-    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
     <mergeCell ref="E386:K386"/>
     <mergeCell ref="E387:K387"/>
     <mergeCell ref="E374:K374"/>
@@ -5337,26 +5263,102 @@
     <mergeCell ref="B369:D369"/>
     <mergeCell ref="B370:D370"/>
     <mergeCell ref="B371:D371"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="E385:K385"/>
+    <mergeCell ref="E370:K370"/>
+    <mergeCell ref="E371:K371"/>
+    <mergeCell ref="E372:K372"/>
+    <mergeCell ref="E373:K373"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
+    <mergeCell ref="E382:K382"/>
+    <mergeCell ref="E383:K383"/>
+    <mergeCell ref="E384:K384"/>
+    <mergeCell ref="E376:K376"/>
+    <mergeCell ref="E377:K377"/>
+    <mergeCell ref="E378:K378"/>
+    <mergeCell ref="E379:K379"/>
+    <mergeCell ref="E380:K380"/>
+    <mergeCell ref="E381:K381"/>
+    <mergeCell ref="E364:K364"/>
+    <mergeCell ref="E365:K365"/>
+    <mergeCell ref="E366:K366"/>
+    <mergeCell ref="E367:K367"/>
+    <mergeCell ref="E368:K368"/>
+    <mergeCell ref="E369:K369"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="E416:K416"/>
+    <mergeCell ref="E417:K417"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="E447:K447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="E448:K448"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="学习笔记" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="423">
   <si>
     <t>built-in functions</t>
   </si>
@@ -1932,6 +1932,244 @@
   </si>
   <si>
     <t>字符串转义字符含义</t>
+  </si>
+  <si>
+    <t>内置函数</t>
+  </si>
+  <si>
+    <t>max()</t>
+  </si>
+  <si>
+    <t>min()</t>
+  </si>
+  <si>
+    <t>list()</t>
+  </si>
+  <si>
+    <t>sorted()</t>
+  </si>
+  <si>
+    <t>sum()</t>
+  </si>
+  <si>
+    <t>reversed()</t>
+  </si>
+  <si>
+    <t>enumerate()</t>
+  </si>
+  <si>
+    <t>zip()</t>
+  </si>
+  <si>
+    <t>len()</t>
+  </si>
+  <si>
+    <t>自定义函数</t>
+  </si>
+  <si>
+    <t>print ('test:' + str(i))</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; func()</t>
+  </si>
+  <si>
+    <t>test:0</t>
+  </si>
+  <si>
+    <t>test:1</t>
+  </si>
+  <si>
+    <t>test:2</t>
+  </si>
+  <si>
+    <t>test:3</t>
+  </si>
+  <si>
+    <t>test:4</t>
+  </si>
+  <si>
+    <t>test:5</t>
+  </si>
+  <si>
+    <t>test:6</t>
+  </si>
+  <si>
+    <t>test:7</t>
+  </si>
+  <si>
+    <t>test:8</t>
+  </si>
+  <si>
+    <t>test:9</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; def func(cnt):</t>
+  </si>
+  <si>
+    <t>for i in range(cnt):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "&lt;pyshell#15&gt;", line 1, in &lt;module&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    func()</t>
+  </si>
+  <si>
+    <t>TypeError: func() missing 1 required positional argument: 'cnt'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; func(5)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; func(9)</t>
+  </si>
+  <si>
+    <t>不带参数的函数</t>
+  </si>
+  <si>
+    <t>带参数的函数</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&gt;&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> func()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>def 函数名() 冒号</t>
+  </si>
+  <si>
+    <t>result = 0</t>
+  </si>
+  <si>
+    <t>result += i</t>
+  </si>
+  <si>
+    <t>return result</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; a = func(5)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; a</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>带返回值的函数</t>
+  </si>
+  <si>
+    <t>result1 = 0</t>
+  </si>
+  <si>
+    <t>result2 = 0</t>
+  </si>
+  <si>
+    <t>result1 += i</t>
+  </si>
+  <si>
+    <t>result2 -= i</t>
+  </si>
+  <si>
+    <t>return (result1,result2)</t>
+  </si>
+  <si>
+    <t>(10, -10)</t>
+  </si>
+  <si>
+    <t>return [result1,result2]</t>
+  </si>
+  <si>
+    <t>[10, -10]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; type(func(5))</t>
+  </si>
+  <si>
+    <t>&lt;class 'list'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;class 'tuple'&gt;</t>
+  </si>
+  <si>
+    <t>return result1,result2</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list(func(5))</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; list(func(5))[1]</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>带多个返回值的函数</t>
+  </si>
+  <si>
+    <t>函数文档</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; func.__doc__</t>
+  </si>
+  <si>
+    <t>'这里就是函数文档'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; help(func)</t>
+  </si>
+  <si>
+    <t>Help on function func in module __main__:</t>
+  </si>
+  <si>
+    <t>func(cnt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    \u8fd9\u91cc\u5c31\u662f\u51fd\u6570\u6587\u6863</t>
+  </si>
+  <si>
+    <t>默认参数</t>
+  </si>
+  <si>
+    <t>收集(可变)参数</t>
+  </si>
+  <si>
+    <t>参数前面加*(星号)</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
@@ -2063,16 +2301,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2324,6 +2563,792 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>561</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>572</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="997324" y="114400853"/>
+          <a:ext cx="4392705" cy="1972235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>def func(cnt):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>这里就是函数文档</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	result1 = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	result2 = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	for i in range(cnt):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		print ('test:' + str(i))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		result1 += i</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		result2 -= i</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	return result1,result2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>587</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>610</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="119286618"/>
+          <a:ext cx="4392705" cy="4392706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def func(cnt, out_str):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	result1 = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	result2 = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	for i in range(cnt):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		print ('test:' + str(i) + ':' + out_str)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		result1 += i</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		result2 -= i</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	return result1,result2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; func(5,'wo')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:0:wo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:1:wo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:2:wo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:3:wo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:4:wo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(10, -10)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; func(out_str='wo',cnt=5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:0:wo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:1:wo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:2:wo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:3:wo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:4:wo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(10, -10)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>613</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>636</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885266" y="124183588"/>
+          <a:ext cx="4392705" cy="4392706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def func(cnt=5, out_str='GoGoGo'):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	result1 = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	result2 = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	for i in range(cnt):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		print ('test:' + str(i) + ':' + out_str)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		result1 += i</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		result2 -= i</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	return result1,result2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; func()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:0:GoGoGo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:1:GoGoGo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:2:GoGoGo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:3:GoGoGo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>test:4:GoGoGo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(10, -10)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; func.__doc__</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; help(func)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Help on function func in module __main__:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>func(cnt=5, out_str='GoGoGo')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>641</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>649</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="129517588"/>
+          <a:ext cx="4392705" cy="1692088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def test(*par):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	print('the count of parameter:',len(par))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	print('the second',par[1])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; test(1,2,3)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>the count of parameter: 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>the second 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>640</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123263</xdr:colOff>
+      <xdr:row>653</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6017558" y="129517587"/>
+          <a:ext cx="4392705" cy="2420471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def test(*par, exp):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	print('the count of parameter:',len(par),exp)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	print('the second',par[1])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; test(1,2,3)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Traceback (most recent call last):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  File "&lt;pyshell#79&gt;", line 1, in &lt;module&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    test(1,2,3)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>TypeError: test() missing 1 required keyword-only argument: 'exp'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; test(1,2,exp=3)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>the count of parameter: 2 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>the second 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2616,10 +3641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K448"/>
+  <dimension ref="A2:P640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E433" sqref="E433"/>
+    <sheetView tabSelected="1" topLeftCell="A624" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R648" sqref="R648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3990,15 +5015,15 @@
       </c>
       <c r="C350" s="10"/>
       <c r="D350" s="10"/>
-      <c r="E350" s="9" t="s">
+      <c r="E350" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F350" s="9"/>
-      <c r="G350" s="9"/>
-      <c r="H350" s="9"/>
-      <c r="I350" s="9"/>
-      <c r="J350" s="9"/>
-      <c r="K350" s="9"/>
+      <c r="F350" s="11"/>
+      <c r="G350" s="11"/>
+      <c r="H350" s="11"/>
+      <c r="I350" s="11"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="11"/>
     </row>
     <row r="351" spans="1:11" ht="30" customHeight="1">
       <c r="B351" s="10" t="s">
@@ -4006,15 +5031,15 @@
       </c>
       <c r="C351" s="10"/>
       <c r="D351" s="10"/>
-      <c r="E351" s="9" t="s">
+      <c r="E351" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F351" s="9"/>
-      <c r="G351" s="9"/>
-      <c r="H351" s="9"/>
-      <c r="I351" s="9"/>
-      <c r="J351" s="9"/>
-      <c r="K351" s="9"/>
+      <c r="F351" s="11"/>
+      <c r="G351" s="11"/>
+      <c r="H351" s="11"/>
+      <c r="I351" s="11"/>
+      <c r="J351" s="11"/>
+      <c r="K351" s="11"/>
     </row>
     <row r="352" spans="1:11" ht="30" customHeight="1">
       <c r="B352" s="10" t="s">
@@ -4022,15 +5047,15 @@
       </c>
       <c r="C352" s="10"/>
       <c r="D352" s="10"/>
-      <c r="E352" s="9" t="s">
+      <c r="E352" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F352" s="9"/>
-      <c r="G352" s="9"/>
-      <c r="H352" s="9"/>
-      <c r="I352" s="9"/>
-      <c r="J352" s="9"/>
-      <c r="K352" s="9"/>
+      <c r="F352" s="11"/>
+      <c r="G352" s="11"/>
+      <c r="H352" s="11"/>
+      <c r="I352" s="11"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="11"/>
     </row>
     <row r="353" spans="2:11" ht="30" customHeight="1">
       <c r="B353" s="10" t="s">
@@ -4038,15 +5063,15 @@
       </c>
       <c r="C353" s="10"/>
       <c r="D353" s="10"/>
-      <c r="E353" s="9" t="s">
+      <c r="E353" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F353" s="9"/>
-      <c r="G353" s="9"/>
-      <c r="H353" s="9"/>
-      <c r="I353" s="9"/>
-      <c r="J353" s="9"/>
-      <c r="K353" s="9"/>
+      <c r="F353" s="11"/>
+      <c r="G353" s="11"/>
+      <c r="H353" s="11"/>
+      <c r="I353" s="11"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="11"/>
     </row>
     <row r="354" spans="2:11" ht="30" customHeight="1">
       <c r="B354" s="10" t="s">
@@ -4054,15 +5079,15 @@
       </c>
       <c r="C354" s="10"/>
       <c r="D354" s="10"/>
-      <c r="E354" s="9" t="s">
+      <c r="E354" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F354" s="9"/>
-      <c r="G354" s="9"/>
-      <c r="H354" s="9"/>
-      <c r="I354" s="9"/>
-      <c r="J354" s="9"/>
-      <c r="K354" s="9"/>
+      <c r="F354" s="11"/>
+      <c r="G354" s="11"/>
+      <c r="H354" s="11"/>
+      <c r="I354" s="11"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="11"/>
     </row>
     <row r="355" spans="2:11" ht="30" customHeight="1">
       <c r="B355" s="10" t="s">
@@ -4070,15 +5095,15 @@
       </c>
       <c r="C355" s="10"/>
       <c r="D355" s="10"/>
-      <c r="E355" s="9" t="s">
+      <c r="E355" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F355" s="9"/>
-      <c r="G355" s="9"/>
-      <c r="H355" s="9"/>
-      <c r="I355" s="9"/>
-      <c r="J355" s="9"/>
-      <c r="K355" s="9"/>
+      <c r="F355" s="11"/>
+      <c r="G355" s="11"/>
+      <c r="H355" s="11"/>
+      <c r="I355" s="11"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="11"/>
     </row>
     <row r="356" spans="2:11" ht="30" customHeight="1">
       <c r="B356" s="10" t="s">
@@ -4086,15 +5111,15 @@
       </c>
       <c r="C356" s="10"/>
       <c r="D356" s="10"/>
-      <c r="E356" s="9" t="s">
+      <c r="E356" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="F356" s="9"/>
-      <c r="G356" s="9"/>
-      <c r="H356" s="9"/>
-      <c r="I356" s="9"/>
-      <c r="J356" s="9"/>
-      <c r="K356" s="9"/>
+      <c r="F356" s="11"/>
+      <c r="G356" s="11"/>
+      <c r="H356" s="11"/>
+      <c r="I356" s="11"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="11"/>
     </row>
     <row r="357" spans="2:11" ht="30" customHeight="1">
       <c r="B357" s="10" t="s">
@@ -4102,15 +5127,15 @@
       </c>
       <c r="C357" s="10"/>
       <c r="D357" s="10"/>
-      <c r="E357" s="9" t="s">
+      <c r="E357" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F357" s="9"/>
-      <c r="G357" s="9"/>
-      <c r="H357" s="9"/>
-      <c r="I357" s="9"/>
-      <c r="J357" s="9"/>
-      <c r="K357" s="9"/>
+      <c r="F357" s="11"/>
+      <c r="G357" s="11"/>
+      <c r="H357" s="11"/>
+      <c r="I357" s="11"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="11"/>
     </row>
     <row r="358" spans="2:11" ht="30" customHeight="1">
       <c r="B358" s="10" t="s">
@@ -4118,15 +5143,15 @@
       </c>
       <c r="C358" s="10"/>
       <c r="D358" s="10"/>
-      <c r="E358" s="9" t="s">
+      <c r="E358" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F358" s="9"/>
-      <c r="G358" s="9"/>
-      <c r="H358" s="9"/>
-      <c r="I358" s="9"/>
-      <c r="J358" s="9"/>
-      <c r="K358" s="9"/>
+      <c r="F358" s="11"/>
+      <c r="G358" s="11"/>
+      <c r="H358" s="11"/>
+      <c r="I358" s="11"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="11"/>
     </row>
     <row r="359" spans="2:11" ht="30" customHeight="1">
       <c r="B359" s="10" t="s">
@@ -4134,15 +5159,15 @@
       </c>
       <c r="C359" s="10"/>
       <c r="D359" s="10"/>
-      <c r="E359" s="9" t="s">
+      <c r="E359" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F359" s="9"/>
-      <c r="G359" s="9"/>
-      <c r="H359" s="9"/>
-      <c r="I359" s="9"/>
-      <c r="J359" s="9"/>
-      <c r="K359" s="9"/>
+      <c r="F359" s="11"/>
+      <c r="G359" s="11"/>
+      <c r="H359" s="11"/>
+      <c r="I359" s="11"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="11"/>
     </row>
     <row r="360" spans="2:11" ht="30" customHeight="1">
       <c r="B360" s="10" t="s">
@@ -4150,15 +5175,15 @@
       </c>
       <c r="C360" s="10"/>
       <c r="D360" s="10"/>
-      <c r="E360" s="9" t="s">
+      <c r="E360" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="F360" s="9"/>
-      <c r="G360" s="9"/>
-      <c r="H360" s="9"/>
-      <c r="I360" s="9"/>
-      <c r="J360" s="9"/>
-      <c r="K360" s="9"/>
+      <c r="F360" s="11"/>
+      <c r="G360" s="11"/>
+      <c r="H360" s="11"/>
+      <c r="I360" s="11"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="11"/>
     </row>
     <row r="361" spans="2:11" ht="30" customHeight="1">
       <c r="B361" s="10" t="s">
@@ -4166,15 +5191,15 @@
       </c>
       <c r="C361" s="10"/>
       <c r="D361" s="10"/>
-      <c r="E361" s="9" t="s">
+      <c r="E361" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F361" s="9"/>
-      <c r="G361" s="9"/>
-      <c r="H361" s="9"/>
-      <c r="I361" s="9"/>
-      <c r="J361" s="9"/>
-      <c r="K361" s="9"/>
+      <c r="F361" s="11"/>
+      <c r="G361" s="11"/>
+      <c r="H361" s="11"/>
+      <c r="I361" s="11"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="11"/>
     </row>
     <row r="362" spans="2:11" ht="30" customHeight="1">
       <c r="B362" s="10" t="s">
@@ -4182,15 +5207,15 @@
       </c>
       <c r="C362" s="10"/>
       <c r="D362" s="10"/>
-      <c r="E362" s="9" t="s">
+      <c r="E362" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="F362" s="9"/>
-      <c r="G362" s="9"/>
-      <c r="H362" s="9"/>
-      <c r="I362" s="9"/>
-      <c r="J362" s="9"/>
-      <c r="K362" s="9"/>
+      <c r="F362" s="11"/>
+      <c r="G362" s="11"/>
+      <c r="H362" s="11"/>
+      <c r="I362" s="11"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="11"/>
     </row>
     <row r="363" spans="2:11" ht="30" customHeight="1">
       <c r="B363" s="10" t="s">
@@ -4198,15 +5223,15 @@
       </c>
       <c r="C363" s="10"/>
       <c r="D363" s="10"/>
-      <c r="E363" s="9" t="s">
+      <c r="E363" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F363" s="9"/>
-      <c r="G363" s="9"/>
-      <c r="H363" s="9"/>
-      <c r="I363" s="9"/>
-      <c r="J363" s="9"/>
-      <c r="K363" s="9"/>
+      <c r="F363" s="11"/>
+      <c r="G363" s="11"/>
+      <c r="H363" s="11"/>
+      <c r="I363" s="11"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="11"/>
     </row>
     <row r="364" spans="2:11" ht="30" customHeight="1">
       <c r="B364" s="10" t="s">
@@ -4214,15 +5239,15 @@
       </c>
       <c r="C364" s="10"/>
       <c r="D364" s="10"/>
-      <c r="E364" s="9" t="s">
+      <c r="E364" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F364" s="9"/>
-      <c r="G364" s="9"/>
-      <c r="H364" s="9"/>
-      <c r="I364" s="9"/>
-      <c r="J364" s="9"/>
-      <c r="K364" s="9"/>
+      <c r="F364" s="11"/>
+      <c r="G364" s="11"/>
+      <c r="H364" s="11"/>
+      <c r="I364" s="11"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="11"/>
     </row>
     <row r="365" spans="2:11" ht="30" customHeight="1">
       <c r="B365" s="10" t="s">
@@ -4230,15 +5255,15 @@
       </c>
       <c r="C365" s="10"/>
       <c r="D365" s="10"/>
-      <c r="E365" s="9" t="s">
+      <c r="E365" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="F365" s="9"/>
-      <c r="G365" s="9"/>
-      <c r="H365" s="9"/>
-      <c r="I365" s="9"/>
-      <c r="J365" s="9"/>
-      <c r="K365" s="9"/>
+      <c r="F365" s="11"/>
+      <c r="G365" s="11"/>
+      <c r="H365" s="11"/>
+      <c r="I365" s="11"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="11"/>
     </row>
     <row r="366" spans="2:11" ht="30" customHeight="1">
       <c r="B366" s="10" t="s">
@@ -4246,15 +5271,15 @@
       </c>
       <c r="C366" s="10"/>
       <c r="D366" s="10"/>
-      <c r="E366" s="9" t="s">
+      <c r="E366" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F366" s="9"/>
-      <c r="G366" s="9"/>
-      <c r="H366" s="9"/>
-      <c r="I366" s="9"/>
-      <c r="J366" s="9"/>
-      <c r="K366" s="9"/>
+      <c r="F366" s="11"/>
+      <c r="G366" s="11"/>
+      <c r="H366" s="11"/>
+      <c r="I366" s="11"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="11"/>
     </row>
     <row r="367" spans="2:11" ht="30" customHeight="1">
       <c r="B367" s="10" t="s">
@@ -4262,15 +5287,15 @@
       </c>
       <c r="C367" s="10"/>
       <c r="D367" s="10"/>
-      <c r="E367" s="9" t="s">
+      <c r="E367" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F367" s="9"/>
-      <c r="G367" s="9"/>
-      <c r="H367" s="9"/>
-      <c r="I367" s="9"/>
-      <c r="J367" s="9"/>
-      <c r="K367" s="9"/>
+      <c r="F367" s="11"/>
+      <c r="G367" s="11"/>
+      <c r="H367" s="11"/>
+      <c r="I367" s="11"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="11"/>
     </row>
     <row r="368" spans="2:11" ht="30" customHeight="1">
       <c r="B368" s="10" t="s">
@@ -4278,15 +5303,15 @@
       </c>
       <c r="C368" s="10"/>
       <c r="D368" s="10"/>
-      <c r="E368" s="9" t="s">
+      <c r="E368" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="F368" s="9"/>
-      <c r="G368" s="9"/>
-      <c r="H368" s="9"/>
-      <c r="I368" s="9"/>
-      <c r="J368" s="9"/>
-      <c r="K368" s="9"/>
+      <c r="F368" s="11"/>
+      <c r="G368" s="11"/>
+      <c r="H368" s="11"/>
+      <c r="I368" s="11"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="11"/>
     </row>
     <row r="369" spans="2:11" ht="30" customHeight="1">
       <c r="B369" s="10" t="s">
@@ -4294,15 +5319,15 @@
       </c>
       <c r="C369" s="10"/>
       <c r="D369" s="10"/>
-      <c r="E369" s="9" t="s">
+      <c r="E369" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F369" s="9"/>
-      <c r="G369" s="9"/>
-      <c r="H369" s="9"/>
-      <c r="I369" s="9"/>
-      <c r="J369" s="9"/>
-      <c r="K369" s="9"/>
+      <c r="F369" s="11"/>
+      <c r="G369" s="11"/>
+      <c r="H369" s="11"/>
+      <c r="I369" s="11"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="11"/>
     </row>
     <row r="370" spans="2:11" ht="30" customHeight="1">
       <c r="B370" s="10" t="s">
@@ -4310,15 +5335,15 @@
       </c>
       <c r="C370" s="10"/>
       <c r="D370" s="10"/>
-      <c r="E370" s="9" t="s">
+      <c r="E370" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F370" s="9"/>
-      <c r="G370" s="9"/>
-      <c r="H370" s="9"/>
-      <c r="I370" s="9"/>
-      <c r="J370" s="9"/>
-      <c r="K370" s="9"/>
+      <c r="F370" s="11"/>
+      <c r="G370" s="11"/>
+      <c r="H370" s="11"/>
+      <c r="I370" s="11"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="11"/>
     </row>
     <row r="371" spans="2:11" ht="30" customHeight="1">
       <c r="B371" s="10" t="s">
@@ -4326,15 +5351,15 @@
       </c>
       <c r="C371" s="10"/>
       <c r="D371" s="10"/>
-      <c r="E371" s="9" t="s">
+      <c r="E371" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F371" s="9"/>
-      <c r="G371" s="9"/>
-      <c r="H371" s="9"/>
-      <c r="I371" s="9"/>
-      <c r="J371" s="9"/>
-      <c r="K371" s="9"/>
+      <c r="F371" s="11"/>
+      <c r="G371" s="11"/>
+      <c r="H371" s="11"/>
+      <c r="I371" s="11"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="11"/>
     </row>
     <row r="372" spans="2:11" ht="30" customHeight="1">
       <c r="B372" s="10" t="s">
@@ -4342,15 +5367,15 @@
       </c>
       <c r="C372" s="10"/>
       <c r="D372" s="10"/>
-      <c r="E372" s="9" t="s">
+      <c r="E372" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F372" s="9"/>
-      <c r="G372" s="9"/>
-      <c r="H372" s="9"/>
-      <c r="I372" s="9"/>
-      <c r="J372" s="9"/>
-      <c r="K372" s="9"/>
+      <c r="F372" s="11"/>
+      <c r="G372" s="11"/>
+      <c r="H372" s="11"/>
+      <c r="I372" s="11"/>
+      <c r="J372" s="11"/>
+      <c r="K372" s="11"/>
     </row>
     <row r="373" spans="2:11" ht="30" customHeight="1">
       <c r="B373" s="10" t="s">
@@ -4358,15 +5383,15 @@
       </c>
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
-      <c r="E373" s="9" t="s">
+      <c r="E373" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F373" s="9"/>
-      <c r="G373" s="9"/>
-      <c r="H373" s="9"/>
-      <c r="I373" s="9"/>
-      <c r="J373" s="9"/>
-      <c r="K373" s="9"/>
+      <c r="F373" s="11"/>
+      <c r="G373" s="11"/>
+      <c r="H373" s="11"/>
+      <c r="I373" s="11"/>
+      <c r="J373" s="11"/>
+      <c r="K373" s="11"/>
     </row>
     <row r="374" spans="2:11" ht="30" customHeight="1">
       <c r="B374" s="10" t="s">
@@ -4374,15 +5399,15 @@
       </c>
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
-      <c r="E374" s="9" t="s">
+      <c r="E374" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="F374" s="9"/>
-      <c r="G374" s="9"/>
-      <c r="H374" s="9"/>
-      <c r="I374" s="9"/>
-      <c r="J374" s="9"/>
-      <c r="K374" s="9"/>
+      <c r="F374" s="11"/>
+      <c r="G374" s="11"/>
+      <c r="H374" s="11"/>
+      <c r="I374" s="11"/>
+      <c r="J374" s="11"/>
+      <c r="K374" s="11"/>
     </row>
     <row r="375" spans="2:11" ht="30" customHeight="1">
       <c r="B375" s="10" t="s">
@@ -4390,15 +5415,15 @@
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="10"/>
-      <c r="E375" s="9" t="s">
+      <c r="E375" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F375" s="9"/>
-      <c r="G375" s="9"/>
-      <c r="H375" s="9"/>
-      <c r="I375" s="9"/>
-      <c r="J375" s="9"/>
-      <c r="K375" s="9"/>
+      <c r="F375" s="11"/>
+      <c r="G375" s="11"/>
+      <c r="H375" s="11"/>
+      <c r="I375" s="11"/>
+      <c r="J375" s="11"/>
+      <c r="K375" s="11"/>
     </row>
     <row r="376" spans="2:11" ht="30" customHeight="1">
       <c r="B376" s="10" t="s">
@@ -4406,15 +5431,15 @@
       </c>
       <c r="C376" s="10"/>
       <c r="D376" s="10"/>
-      <c r="E376" s="9" t="s">
+      <c r="E376" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F376" s="9"/>
-      <c r="G376" s="9"/>
-      <c r="H376" s="9"/>
-      <c r="I376" s="9"/>
-      <c r="J376" s="9"/>
-      <c r="K376" s="9"/>
+      <c r="F376" s="11"/>
+      <c r="G376" s="11"/>
+      <c r="H376" s="11"/>
+      <c r="I376" s="11"/>
+      <c r="J376" s="11"/>
+      <c r="K376" s="11"/>
     </row>
     <row r="377" spans="2:11" ht="30" customHeight="1">
       <c r="B377" s="10" t="s">
@@ -4422,15 +5447,15 @@
       </c>
       <c r="C377" s="10"/>
       <c r="D377" s="10"/>
-      <c r="E377" s="9" t="s">
+      <c r="E377" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F377" s="9"/>
-      <c r="G377" s="9"/>
-      <c r="H377" s="9"/>
-      <c r="I377" s="9"/>
-      <c r="J377" s="9"/>
-      <c r="K377" s="9"/>
+      <c r="F377" s="11"/>
+      <c r="G377" s="11"/>
+      <c r="H377" s="11"/>
+      <c r="I377" s="11"/>
+      <c r="J377" s="11"/>
+      <c r="K377" s="11"/>
     </row>
     <row r="378" spans="2:11" ht="30" customHeight="1">
       <c r="B378" s="10" t="s">
@@ -4438,15 +5463,15 @@
       </c>
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
-      <c r="E378" s="9" t="s">
+      <c r="E378" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F378" s="9"/>
-      <c r="G378" s="9"/>
-      <c r="H378" s="9"/>
-      <c r="I378" s="9"/>
-      <c r="J378" s="9"/>
-      <c r="K378" s="9"/>
+      <c r="F378" s="11"/>
+      <c r="G378" s="11"/>
+      <c r="H378" s="11"/>
+      <c r="I378" s="11"/>
+      <c r="J378" s="11"/>
+      <c r="K378" s="11"/>
     </row>
     <row r="379" spans="2:11" ht="30" customHeight="1">
       <c r="B379" s="10" t="s">
@@ -4454,15 +5479,15 @@
       </c>
       <c r="C379" s="10"/>
       <c r="D379" s="10"/>
-      <c r="E379" s="9" t="s">
+      <c r="E379" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="F379" s="9"/>
-      <c r="G379" s="9"/>
-      <c r="H379" s="9"/>
-      <c r="I379" s="9"/>
-      <c r="J379" s="9"/>
-      <c r="K379" s="9"/>
+      <c r="F379" s="11"/>
+      <c r="G379" s="11"/>
+      <c r="H379" s="11"/>
+      <c r="I379" s="11"/>
+      <c r="J379" s="11"/>
+      <c r="K379" s="11"/>
     </row>
     <row r="380" spans="2:11" ht="30" customHeight="1">
       <c r="B380" s="10" t="s">
@@ -4470,15 +5495,15 @@
       </c>
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
-      <c r="E380" s="9" t="s">
+      <c r="E380" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F380" s="9"/>
-      <c r="G380" s="9"/>
-      <c r="H380" s="9"/>
-      <c r="I380" s="9"/>
-      <c r="J380" s="9"/>
-      <c r="K380" s="9"/>
+      <c r="F380" s="11"/>
+      <c r="G380" s="11"/>
+      <c r="H380" s="11"/>
+      <c r="I380" s="11"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="11"/>
     </row>
     <row r="381" spans="2:11" ht="30" customHeight="1">
       <c r="B381" s="10" t="s">
@@ -4486,15 +5511,15 @@
       </c>
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
-      <c r="E381" s="9" t="s">
+      <c r="E381" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F381" s="9"/>
-      <c r="G381" s="9"/>
-      <c r="H381" s="9"/>
-      <c r="I381" s="9"/>
-      <c r="J381" s="9"/>
-      <c r="K381" s="9"/>
+      <c r="F381" s="11"/>
+      <c r="G381" s="11"/>
+      <c r="H381" s="11"/>
+      <c r="I381" s="11"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="11"/>
     </row>
     <row r="382" spans="2:11" ht="30" customHeight="1">
       <c r="B382" s="10" t="s">
@@ -4502,15 +5527,15 @@
       </c>
       <c r="C382" s="10"/>
       <c r="D382" s="10"/>
-      <c r="E382" s="9" t="s">
+      <c r="E382" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F382" s="9"/>
-      <c r="G382" s="9"/>
-      <c r="H382" s="9"/>
-      <c r="I382" s="9"/>
-      <c r="J382" s="9"/>
-      <c r="K382" s="9"/>
+      <c r="F382" s="11"/>
+      <c r="G382" s="11"/>
+      <c r="H382" s="11"/>
+      <c r="I382" s="11"/>
+      <c r="J382" s="11"/>
+      <c r="K382" s="11"/>
     </row>
     <row r="383" spans="2:11" ht="30" customHeight="1">
       <c r="B383" s="10" t="s">
@@ -4518,15 +5543,15 @@
       </c>
       <c r="C383" s="10"/>
       <c r="D383" s="10"/>
-      <c r="E383" s="9" t="s">
+      <c r="E383" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="F383" s="9"/>
-      <c r="G383" s="9"/>
-      <c r="H383" s="9"/>
-      <c r="I383" s="9"/>
-      <c r="J383" s="9"/>
-      <c r="K383" s="9"/>
+      <c r="F383" s="11"/>
+      <c r="G383" s="11"/>
+      <c r="H383" s="11"/>
+      <c r="I383" s="11"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="11"/>
     </row>
     <row r="384" spans="2:11" ht="30" customHeight="1">
       <c r="B384" s="10" t="s">
@@ -4534,15 +5559,15 @@
       </c>
       <c r="C384" s="10"/>
       <c r="D384" s="10"/>
-      <c r="E384" s="9" t="s">
+      <c r="E384" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="F384" s="9"/>
-      <c r="G384" s="9"/>
-      <c r="H384" s="9"/>
-      <c r="I384" s="9"/>
-      <c r="J384" s="9"/>
-      <c r="K384" s="9"/>
+      <c r="F384" s="11"/>
+      <c r="G384" s="11"/>
+      <c r="H384" s="11"/>
+      <c r="I384" s="11"/>
+      <c r="J384" s="11"/>
+      <c r="K384" s="11"/>
     </row>
     <row r="385" spans="1:11" ht="30" customHeight="1">
       <c r="B385" s="10" t="s">
@@ -4550,15 +5575,15 @@
       </c>
       <c r="C385" s="10"/>
       <c r="D385" s="10"/>
-      <c r="E385" s="9" t="s">
+      <c r="E385" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="F385" s="9"/>
-      <c r="G385" s="9"/>
-      <c r="H385" s="9"/>
-      <c r="I385" s="9"/>
-      <c r="J385" s="9"/>
-      <c r="K385" s="9"/>
+      <c r="F385" s="11"/>
+      <c r="G385" s="11"/>
+      <c r="H385" s="11"/>
+      <c r="I385" s="11"/>
+      <c r="J385" s="11"/>
+      <c r="K385" s="11"/>
     </row>
     <row r="386" spans="1:11" ht="30" customHeight="1">
       <c r="B386" s="10" t="s">
@@ -4566,15 +5591,15 @@
       </c>
       <c r="C386" s="10"/>
       <c r="D386" s="10"/>
-      <c r="E386" s="9" t="s">
+      <c r="E386" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="F386" s="9"/>
-      <c r="G386" s="9"/>
-      <c r="H386" s="9"/>
-      <c r="I386" s="9"/>
-      <c r="J386" s="9"/>
-      <c r="K386" s="9"/>
+      <c r="F386" s="11"/>
+      <c r="G386" s="11"/>
+      <c r="H386" s="11"/>
+      <c r="I386" s="11"/>
+      <c r="J386" s="11"/>
+      <c r="K386" s="11"/>
     </row>
     <row r="387" spans="1:11" ht="30" customHeight="1">
       <c r="B387" s="10" t="s">
@@ -4582,15 +5607,15 @@
       </c>
       <c r="C387" s="10"/>
       <c r="D387" s="10"/>
-      <c r="E387" s="9" t="s">
+      <c r="E387" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="F387" s="9"/>
-      <c r="G387" s="9"/>
-      <c r="H387" s="9"/>
-      <c r="I387" s="9"/>
-      <c r="J387" s="9"/>
-      <c r="K387" s="9"/>
+      <c r="F387" s="11"/>
+      <c r="G387" s="11"/>
+      <c r="H387" s="11"/>
+      <c r="I387" s="11"/>
+      <c r="J387" s="11"/>
+      <c r="K387" s="11"/>
     </row>
     <row r="389" spans="1:11" s="3" customFormat="1">
       <c r="A389" s="3" t="s">
@@ -4678,7 +5703,7 @@
       </c>
     </row>
     <row r="410" spans="2:11" ht="19.5">
-      <c r="B410" s="11" t="s">
+      <c r="B410" s="9" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4704,15 +5729,15 @@
       </c>
       <c r="C412" s="10"/>
       <c r="D412" s="10"/>
-      <c r="E412" s="9" t="s">
+      <c r="E412" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="F412" s="9"/>
-      <c r="G412" s="9"/>
-      <c r="H412" s="9"/>
-      <c r="I412" s="9"/>
-      <c r="J412" s="9"/>
-      <c r="K412" s="9"/>
+      <c r="F412" s="11"/>
+      <c r="G412" s="11"/>
+      <c r="H412" s="11"/>
+      <c r="I412" s="11"/>
+      <c r="J412" s="11"/>
+      <c r="K412" s="11"/>
     </row>
     <row r="413" spans="2:11" ht="15" customHeight="1">
       <c r="B413" s="10" t="s">
@@ -4720,15 +5745,15 @@
       </c>
       <c r="C413" s="10"/>
       <c r="D413" s="10"/>
-      <c r="E413" s="9" t="s">
+      <c r="E413" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F413" s="9"/>
-      <c r="G413" s="9"/>
-      <c r="H413" s="9"/>
-      <c r="I413" s="9"/>
-      <c r="J413" s="9"/>
-      <c r="K413" s="9"/>
+      <c r="F413" s="11"/>
+      <c r="G413" s="11"/>
+      <c r="H413" s="11"/>
+      <c r="I413" s="11"/>
+      <c r="J413" s="11"/>
+      <c r="K413" s="11"/>
     </row>
     <row r="414" spans="2:11" ht="15" customHeight="1">
       <c r="B414" s="10" t="s">
@@ -4736,15 +5761,15 @@
       </c>
       <c r="C414" s="10"/>
       <c r="D414" s="10"/>
-      <c r="E414" s="9" t="s">
+      <c r="E414" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="F414" s="9"/>
-      <c r="G414" s="9"/>
-      <c r="H414" s="9"/>
-      <c r="I414" s="9"/>
-      <c r="J414" s="9"/>
-      <c r="K414" s="9"/>
+      <c r="F414" s="11"/>
+      <c r="G414" s="11"/>
+      <c r="H414" s="11"/>
+      <c r="I414" s="11"/>
+      <c r="J414" s="11"/>
+      <c r="K414" s="11"/>
     </row>
     <row r="415" spans="2:11" ht="15" customHeight="1">
       <c r="B415" s="10" t="s">
@@ -4752,15 +5777,15 @@
       </c>
       <c r="C415" s="10"/>
       <c r="D415" s="10"/>
-      <c r="E415" s="9" t="s">
+      <c r="E415" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="F415" s="9"/>
-      <c r="G415" s="9"/>
-      <c r="H415" s="9"/>
-      <c r="I415" s="9"/>
-      <c r="J415" s="9"/>
-      <c r="K415" s="9"/>
+      <c r="F415" s="11"/>
+      <c r="G415" s="11"/>
+      <c r="H415" s="11"/>
+      <c r="I415" s="11"/>
+      <c r="J415" s="11"/>
+      <c r="K415" s="11"/>
     </row>
     <row r="416" spans="2:11" ht="15" customHeight="1">
       <c r="B416" s="10" t="s">
@@ -4768,15 +5793,15 @@
       </c>
       <c r="C416" s="10"/>
       <c r="D416" s="10"/>
-      <c r="E416" s="9" t="s">
+      <c r="E416" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="F416" s="9"/>
-      <c r="G416" s="9"/>
-      <c r="H416" s="9"/>
-      <c r="I416" s="9"/>
-      <c r="J416" s="9"/>
-      <c r="K416" s="9"/>
+      <c r="F416" s="11"/>
+      <c r="G416" s="11"/>
+      <c r="H416" s="11"/>
+      <c r="I416" s="11"/>
+      <c r="J416" s="11"/>
+      <c r="K416" s="11"/>
     </row>
     <row r="417" spans="2:11" ht="15" customHeight="1">
       <c r="B417" s="10" t="s">
@@ -4784,15 +5809,15 @@
       </c>
       <c r="C417" s="10"/>
       <c r="D417" s="10"/>
-      <c r="E417" s="9" t="s">
+      <c r="E417" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="F417" s="9"/>
-      <c r="G417" s="9"/>
-      <c r="H417" s="9"/>
-      <c r="I417" s="9"/>
-      <c r="J417" s="9"/>
-      <c r="K417" s="9"/>
+      <c r="F417" s="11"/>
+      <c r="G417" s="11"/>
+      <c r="H417" s="11"/>
+      <c r="I417" s="11"/>
+      <c r="J417" s="11"/>
+      <c r="K417" s="11"/>
     </row>
     <row r="418" spans="2:11" ht="15" customHeight="1">
       <c r="B418" s="10" t="s">
@@ -4800,15 +5825,15 @@
       </c>
       <c r="C418" s="10"/>
       <c r="D418" s="10"/>
-      <c r="E418" s="9" t="s">
+      <c r="E418" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="F418" s="9"/>
-      <c r="G418" s="9"/>
-      <c r="H418" s="9"/>
-      <c r="I418" s="9"/>
-      <c r="J418" s="9"/>
-      <c r="K418" s="9"/>
+      <c r="F418" s="11"/>
+      <c r="G418" s="11"/>
+      <c r="H418" s="11"/>
+      <c r="I418" s="11"/>
+      <c r="J418" s="11"/>
+      <c r="K418" s="11"/>
     </row>
     <row r="419" spans="2:11" ht="15" customHeight="1">
       <c r="B419" s="10" t="s">
@@ -4816,15 +5841,15 @@
       </c>
       <c r="C419" s="10"/>
       <c r="D419" s="10"/>
-      <c r="E419" s="9" t="s">
+      <c r="E419" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="F419" s="9"/>
-      <c r="G419" s="9"/>
-      <c r="H419" s="9"/>
-      <c r="I419" s="9"/>
-      <c r="J419" s="9"/>
-      <c r="K419" s="9"/>
+      <c r="F419" s="11"/>
+      <c r="G419" s="11"/>
+      <c r="H419" s="11"/>
+      <c r="I419" s="11"/>
+      <c r="J419" s="11"/>
+      <c r="K419" s="11"/>
     </row>
     <row r="420" spans="2:11" ht="15" customHeight="1">
       <c r="B420" s="10" t="s">
@@ -4832,15 +5857,15 @@
       </c>
       <c r="C420" s="10"/>
       <c r="D420" s="10"/>
-      <c r="E420" s="9" t="s">
+      <c r="E420" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="F420" s="9"/>
-      <c r="G420" s="9"/>
-      <c r="H420" s="9"/>
-      <c r="I420" s="9"/>
-      <c r="J420" s="9"/>
-      <c r="K420" s="9"/>
+      <c r="F420" s="11"/>
+      <c r="G420" s="11"/>
+      <c r="H420" s="11"/>
+      <c r="I420" s="11"/>
+      <c r="J420" s="11"/>
+      <c r="K420" s="11"/>
     </row>
     <row r="421" spans="2:11" ht="15" customHeight="1">
       <c r="B421" s="10" t="s">
@@ -4848,15 +5873,15 @@
       </c>
       <c r="C421" s="10"/>
       <c r="D421" s="10"/>
-      <c r="E421" s="9" t="s">
+      <c r="E421" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="F421" s="9"/>
-      <c r="G421" s="9"/>
-      <c r="H421" s="9"/>
-      <c r="I421" s="9"/>
-      <c r="J421" s="9"/>
-      <c r="K421" s="9"/>
+      <c r="F421" s="11"/>
+      <c r="G421" s="11"/>
+      <c r="H421" s="11"/>
+      <c r="I421" s="11"/>
+      <c r="J421" s="11"/>
+      <c r="K421" s="11"/>
     </row>
     <row r="422" spans="2:11" ht="15" customHeight="1">
       <c r="B422" s="10" t="s">
@@ -4864,18 +5889,18 @@
       </c>
       <c r="C422" s="10"/>
       <c r="D422" s="10"/>
-      <c r="E422" s="9" t="s">
+      <c r="E422" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="F422" s="9"/>
-      <c r="G422" s="9"/>
-      <c r="H422" s="9"/>
-      <c r="I422" s="9"/>
-      <c r="J422" s="9"/>
-      <c r="K422" s="9"/>
+      <c r="F422" s="11"/>
+      <c r="G422" s="11"/>
+      <c r="H422" s="11"/>
+      <c r="I422" s="11"/>
+      <c r="J422" s="11"/>
+      <c r="K422" s="11"/>
     </row>
     <row r="425" spans="2:11" ht="19.5">
-      <c r="B425" s="11" t="s">
+      <c r="B425" s="9" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4901,15 +5926,15 @@
       </c>
       <c r="C427" s="10"/>
       <c r="D427" s="10"/>
-      <c r="E427" s="9" t="s">
+      <c r="E427" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="F427" s="9"/>
-      <c r="G427" s="9"/>
-      <c r="H427" s="9"/>
-      <c r="I427" s="9"/>
-      <c r="J427" s="9"/>
-      <c r="K427" s="9"/>
+      <c r="F427" s="11"/>
+      <c r="G427" s="11"/>
+      <c r="H427" s="11"/>
+      <c r="I427" s="11"/>
+      <c r="J427" s="11"/>
+      <c r="K427" s="11"/>
     </row>
     <row r="428" spans="2:11">
       <c r="B428" s="10" t="s">
@@ -4917,15 +5942,15 @@
       </c>
       <c r="C428" s="10"/>
       <c r="D428" s="10"/>
-      <c r="E428" s="9" t="s">
+      <c r="E428" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="F428" s="9"/>
-      <c r="G428" s="9"/>
-      <c r="H428" s="9"/>
-      <c r="I428" s="9"/>
-      <c r="J428" s="9"/>
-      <c r="K428" s="9"/>
+      <c r="F428" s="11"/>
+      <c r="G428" s="11"/>
+      <c r="H428" s="11"/>
+      <c r="I428" s="11"/>
+      <c r="J428" s="11"/>
+      <c r="K428" s="11"/>
     </row>
     <row r="429" spans="2:11">
       <c r="B429" s="10" t="s">
@@ -4933,15 +5958,15 @@
       </c>
       <c r="C429" s="10"/>
       <c r="D429" s="10"/>
-      <c r="E429" s="9" t="s">
+      <c r="E429" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="F429" s="9"/>
-      <c r="G429" s="9"/>
-      <c r="H429" s="9"/>
-      <c r="I429" s="9"/>
-      <c r="J429" s="9"/>
-      <c r="K429" s="9"/>
+      <c r="F429" s="11"/>
+      <c r="G429" s="11"/>
+      <c r="H429" s="11"/>
+      <c r="I429" s="11"/>
+      <c r="J429" s="11"/>
+      <c r="K429" s="11"/>
     </row>
     <row r="430" spans="2:11">
       <c r="B430" s="10" t="s">
@@ -4949,15 +5974,15 @@
       </c>
       <c r="C430" s="10"/>
       <c r="D430" s="10"/>
-      <c r="E430" s="9" t="s">
+      <c r="E430" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="F430" s="9"/>
-      <c r="G430" s="9"/>
-      <c r="H430" s="9"/>
-      <c r="I430" s="9"/>
-      <c r="J430" s="9"/>
-      <c r="K430" s="9"/>
+      <c r="F430" s="11"/>
+      <c r="G430" s="11"/>
+      <c r="H430" s="11"/>
+      <c r="I430" s="11"/>
+      <c r="J430" s="11"/>
+      <c r="K430" s="11"/>
     </row>
     <row r="431" spans="2:11">
       <c r="B431" s="10" t="s">
@@ -4965,15 +5990,15 @@
       </c>
       <c r="C431" s="10"/>
       <c r="D431" s="10"/>
-      <c r="E431" s="9" t="s">
+      <c r="E431" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="F431" s="9"/>
-      <c r="G431" s="9"/>
-      <c r="H431" s="9"/>
-      <c r="I431" s="9"/>
-      <c r="J431" s="9"/>
-      <c r="K431" s="9"/>
+      <c r="F431" s="11"/>
+      <c r="G431" s="11"/>
+      <c r="H431" s="11"/>
+      <c r="I431" s="11"/>
+      <c r="J431" s="11"/>
+      <c r="K431" s="11"/>
     </row>
     <row r="432" spans="2:11">
       <c r="B432"/>
@@ -4986,7 +6011,7 @@
       <c r="E433"/>
     </row>
     <row r="434" spans="2:11" ht="19.5">
-      <c r="B434" s="11" t="s">
+      <c r="B434" s="9" t="s">
         <v>354</v>
       </c>
       <c r="E434"/>
@@ -5013,15 +6038,15 @@
       </c>
       <c r="C436" s="10"/>
       <c r="D436" s="10"/>
-      <c r="E436" s="9" t="s">
+      <c r="E436" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="F436" s="9"/>
-      <c r="G436" s="9"/>
-      <c r="H436" s="9"/>
-      <c r="I436" s="9"/>
-      <c r="J436" s="9"/>
-      <c r="K436" s="9"/>
+      <c r="F436" s="11"/>
+      <c r="G436" s="11"/>
+      <c r="H436" s="11"/>
+      <c r="I436" s="11"/>
+      <c r="J436" s="11"/>
+      <c r="K436" s="11"/>
     </row>
     <row r="437" spans="2:11">
       <c r="B437" s="10" t="s">
@@ -5029,15 +6054,15 @@
       </c>
       <c r="C437" s="10"/>
       <c r="D437" s="10"/>
-      <c r="E437" s="9" t="s">
+      <c r="E437" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="F437" s="9"/>
-      <c r="G437" s="9"/>
-      <c r="H437" s="9"/>
-      <c r="I437" s="9"/>
-      <c r="J437" s="9"/>
-      <c r="K437" s="9"/>
+      <c r="F437" s="11"/>
+      <c r="G437" s="11"/>
+      <c r="H437" s="11"/>
+      <c r="I437" s="11"/>
+      <c r="J437" s="11"/>
+      <c r="K437" s="11"/>
     </row>
     <row r="438" spans="2:11">
       <c r="B438" s="10" t="s">
@@ -5045,15 +6070,15 @@
       </c>
       <c r="C438" s="10"/>
       <c r="D438" s="10"/>
-      <c r="E438" s="9" t="s">
+      <c r="E438" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="F438" s="9"/>
-      <c r="G438" s="9"/>
-      <c r="H438" s="9"/>
-      <c r="I438" s="9"/>
-      <c r="J438" s="9"/>
-      <c r="K438" s="9"/>
+      <c r="F438" s="11"/>
+      <c r="G438" s="11"/>
+      <c r="H438" s="11"/>
+      <c r="I438" s="11"/>
+      <c r="J438" s="11"/>
+      <c r="K438" s="11"/>
     </row>
     <row r="439" spans="2:11">
       <c r="B439" s="10" t="s">
@@ -5061,15 +6086,15 @@
       </c>
       <c r="C439" s="10"/>
       <c r="D439" s="10"/>
-      <c r="E439" s="9" t="s">
+      <c r="E439" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="F439" s="9"/>
-      <c r="G439" s="9"/>
-      <c r="H439" s="9"/>
-      <c r="I439" s="9"/>
-      <c r="J439" s="9"/>
-      <c r="K439" s="9"/>
+      <c r="F439" s="11"/>
+      <c r="G439" s="11"/>
+      <c r="H439" s="11"/>
+      <c r="I439" s="11"/>
+      <c r="J439" s="11"/>
+      <c r="K439" s="11"/>
     </row>
     <row r="440" spans="2:11">
       <c r="B440" s="10" t="s">
@@ -5077,15 +6102,15 @@
       </c>
       <c r="C440" s="10"/>
       <c r="D440" s="10"/>
-      <c r="E440" s="9" t="s">
+      <c r="E440" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F440" s="9"/>
-      <c r="G440" s="9"/>
-      <c r="H440" s="9"/>
-      <c r="I440" s="9"/>
-      <c r="J440" s="9"/>
-      <c r="K440" s="9"/>
+      <c r="F440" s="11"/>
+      <c r="G440" s="11"/>
+      <c r="H440" s="11"/>
+      <c r="I440" s="11"/>
+      <c r="J440" s="11"/>
+      <c r="K440" s="11"/>
     </row>
     <row r="441" spans="2:11">
       <c r="B441" s="10" t="s">
@@ -5093,15 +6118,15 @@
       </c>
       <c r="C441" s="10"/>
       <c r="D441" s="10"/>
-      <c r="E441" s="9" t="s">
+      <c r="E441" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="F441" s="9"/>
-      <c r="G441" s="9"/>
-      <c r="H441" s="9"/>
-      <c r="I441" s="9"/>
-      <c r="J441" s="9"/>
-      <c r="K441" s="9"/>
+      <c r="F441" s="11"/>
+      <c r="G441" s="11"/>
+      <c r="H441" s="11"/>
+      <c r="I441" s="11"/>
+      <c r="J441" s="11"/>
+      <c r="K441" s="11"/>
     </row>
     <row r="442" spans="2:11">
       <c r="B442" s="10" t="s">
@@ -5109,15 +6134,15 @@
       </c>
       <c r="C442" s="10"/>
       <c r="D442" s="10"/>
-      <c r="E442" s="9" t="s">
+      <c r="E442" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="F442" s="9"/>
-      <c r="G442" s="9"/>
-      <c r="H442" s="9"/>
-      <c r="I442" s="9"/>
-      <c r="J442" s="9"/>
-      <c r="K442" s="9"/>
+      <c r="F442" s="11"/>
+      <c r="G442" s="11"/>
+      <c r="H442" s="11"/>
+      <c r="I442" s="11"/>
+      <c r="J442" s="11"/>
+      <c r="K442" s="11"/>
     </row>
     <row r="443" spans="2:11">
       <c r="B443" s="10" t="s">
@@ -5125,15 +6150,15 @@
       </c>
       <c r="C443" s="10"/>
       <c r="D443" s="10"/>
-      <c r="E443" s="9" t="s">
+      <c r="E443" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="F443" s="9"/>
-      <c r="G443" s="9"/>
-      <c r="H443" s="9"/>
-      <c r="I443" s="9"/>
-      <c r="J443" s="9"/>
-      <c r="K443" s="9"/>
+      <c r="F443" s="11"/>
+      <c r="G443" s="11"/>
+      <c r="H443" s="11"/>
+      <c r="I443" s="11"/>
+      <c r="J443" s="11"/>
+      <c r="K443" s="11"/>
     </row>
     <row r="444" spans="2:11">
       <c r="B444" s="10" t="s">
@@ -5141,15 +6166,15 @@
       </c>
       <c r="C444" s="10"/>
       <c r="D444" s="10"/>
-      <c r="E444" s="9" t="s">
+      <c r="E444" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="F444" s="9"/>
-      <c r="G444" s="9"/>
-      <c r="H444" s="9"/>
-      <c r="I444" s="9"/>
-      <c r="J444" s="9"/>
-      <c r="K444" s="9"/>
+      <c r="F444" s="11"/>
+      <c r="G444" s="11"/>
+      <c r="H444" s="11"/>
+      <c r="I444" s="11"/>
+      <c r="J444" s="11"/>
+      <c r="K444" s="11"/>
     </row>
     <row r="445" spans="2:11">
       <c r="B445" s="10" t="s">
@@ -5157,15 +6182,15 @@
       </c>
       <c r="C445" s="10"/>
       <c r="D445" s="10"/>
-      <c r="E445" s="9" t="s">
+      <c r="E445" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="F445" s="9"/>
-      <c r="G445" s="9"/>
-      <c r="H445" s="9"/>
-      <c r="I445" s="9"/>
-      <c r="J445" s="9"/>
-      <c r="K445" s="9"/>
+      <c r="F445" s="11"/>
+      <c r="G445" s="11"/>
+      <c r="H445" s="11"/>
+      <c r="I445" s="11"/>
+      <c r="J445" s="11"/>
+      <c r="K445" s="11"/>
     </row>
     <row r="446" spans="2:11">
       <c r="B446" s="10" t="s">
@@ -5173,15 +6198,15 @@
       </c>
       <c r="C446" s="10"/>
       <c r="D446" s="10"/>
-      <c r="E446" s="9" t="s">
+      <c r="E446" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="F446" s="9"/>
-      <c r="G446" s="9"/>
-      <c r="H446" s="9"/>
-      <c r="I446" s="9"/>
-      <c r="J446" s="9"/>
-      <c r="K446" s="9"/>
+      <c r="F446" s="11"/>
+      <c r="G446" s="11"/>
+      <c r="H446" s="11"/>
+      <c r="I446" s="11"/>
+      <c r="J446" s="11"/>
+      <c r="K446" s="11"/>
     </row>
     <row r="447" spans="2:11">
       <c r="B447" s="10" t="s">
@@ -5189,15 +6214,15 @@
       </c>
       <c r="C447" s="10"/>
       <c r="D447" s="10"/>
-      <c r="E447" s="9" t="s">
+      <c r="E447" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="F447" s="9"/>
-      <c r="G447" s="9"/>
-      <c r="H447" s="9"/>
-      <c r="I447" s="9"/>
-      <c r="J447" s="9"/>
-      <c r="K447" s="9"/>
+      <c r="F447" s="11"/>
+      <c r="G447" s="11"/>
+      <c r="H447" s="11"/>
+      <c r="I447" s="11"/>
+      <c r="J447" s="11"/>
+      <c r="K447" s="11"/>
     </row>
     <row r="448" spans="2:11">
       <c r="B448" s="10" t="s">
@@ -5205,114 +6230,824 @@
       </c>
       <c r="C448" s="10"/>
       <c r="D448" s="10"/>
-      <c r="E448" s="9" t="s">
+      <c r="E448" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="F448" s="9"/>
-      <c r="G448" s="9"/>
-      <c r="H448" s="9"/>
-      <c r="I448" s="9"/>
-      <c r="J448" s="9"/>
-      <c r="K448" s="9"/>
+      <c r="F448" s="11"/>
+      <c r="G448" s="11"/>
+      <c r="H448" s="11"/>
+      <c r="I448" s="11"/>
+      <c r="J448" s="11"/>
+      <c r="K448" s="11"/>
+    </row>
+    <row r="450" spans="1:14" s="3" customFormat="1">
+      <c r="A450" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14">
+      <c r="B452" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14">
+      <c r="B453" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14">
+      <c r="B454" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14">
+      <c r="B455" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14">
+      <c r="B456" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14">
+      <c r="B457" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14">
+      <c r="B458" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14">
+      <c r="B459" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14">
+      <c r="B460" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" s="3" customFormat="1">
+      <c r="A462" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14">
+      <c r="B464" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="N464" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="465" spans="2:16">
+      <c r="B465" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J465" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="N465" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="466" spans="2:16">
+      <c r="C466" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O466" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="467" spans="2:16">
+      <c r="D467" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O467" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="468" spans="2:16">
+      <c r="O468" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="469" spans="2:16">
+      <c r="B469" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P469" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="470" spans="2:16">
+      <c r="B470" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="P470" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="471" spans="2:16">
+      <c r="B471" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="P471" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="472" spans="2:16">
+      <c r="B472" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O472" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="473" spans="2:16">
+      <c r="B473" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="474" spans="2:16">
+      <c r="B474" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N474" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="475" spans="2:16">
+      <c r="B475" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N475" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="476" spans="2:16">
+      <c r="B476" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N476" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="477" spans="2:16">
+      <c r="B477" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N477" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="478" spans="2:16">
+      <c r="B478" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="N478" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="479" spans="2:16">
+      <c r="B479" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="N479" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="480" spans="2:16">
+      <c r="B480" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N480" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="481" spans="2:16">
+      <c r="N481" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="482" spans="2:16">
+      <c r="B482" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="O482" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="483" spans="2:16">
+      <c r="B483" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="O483" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="484" spans="2:16">
+      <c r="C484" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="O484" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="485" spans="2:16">
+      <c r="D485" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P485" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="486" spans="2:16">
+      <c r="P486" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="487" spans="2:16">
+      <c r="B487" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P487" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="488" spans="2:16">
+      <c r="B488" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O488" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="489" spans="2:16">
+      <c r="B489" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="490" spans="2:16">
+      <c r="B490" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="N490" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="491" spans="2:16">
+      <c r="B491" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="N491" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="492" spans="2:16">
+      <c r="B492" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="N492" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="493" spans="2:16">
+      <c r="B493" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="N493" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="494" spans="2:16">
+      <c r="B494" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N494" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="495" spans="2:16">
+      <c r="B495" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="N495" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="496" spans="2:16">
+      <c r="B496" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N496" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="497" spans="2:16">
+      <c r="B497" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N497" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="498" spans="2:16">
+      <c r="B498" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N498" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="499" spans="2:16">
+      <c r="B499" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="N499" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="500" spans="2:16">
+      <c r="B500" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N500" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="501" spans="2:16">
+      <c r="B501" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="N501" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="502" spans="2:16">
+      <c r="B502" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N502" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="503" spans="2:16">
+      <c r="B503" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N503" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="504" spans="2:16">
+      <c r="B504" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N504" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="505" spans="2:16">
+      <c r="B505" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="O505" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="506" spans="2:16">
+      <c r="B506" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O506" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="507" spans="2:16">
+      <c r="B507" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="O507" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="508" spans="2:16">
+      <c r="B508" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P508" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="509" spans="2:16">
+      <c r="P509" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="510" spans="2:16">
+      <c r="B510" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="P510" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="511" spans="2:16">
+      <c r="B511" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="O511" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="512" spans="2:16">
+      <c r="C512" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="513" spans="2:16">
+      <c r="C513" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N513" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="514" spans="2:16">
+      <c r="D514" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N514" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="515" spans="2:16">
+      <c r="D515" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="N515" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="516" spans="2:16">
+      <c r="C516" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="N516" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="517" spans="2:16">
+      <c r="N517" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="518" spans="2:16">
+      <c r="B518" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N518" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="519" spans="2:16">
+      <c r="B519" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="N519" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="520" spans="2:16">
+      <c r="B520" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N520" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="521" spans="2:16">
+      <c r="B521" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O521" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="522" spans="2:16">
+      <c r="B522" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O522" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="523" spans="2:16">
+      <c r="B523" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O523" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="524" spans="2:16">
+      <c r="B524" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P524" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="525" spans="2:16">
+      <c r="B525" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="P525" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="526" spans="2:16">
+      <c r="B526" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="P526" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="527" spans="2:16">
+      <c r="B527" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="O527" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="528" spans="2:16">
+      <c r="B528" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="529" spans="2:14">
+      <c r="B529" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N529" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="530" spans="2:14">
+      <c r="B530" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="N530" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="531" spans="2:14">
+      <c r="B531" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N531" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="532" spans="2:14">
+      <c r="B532" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="N532" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="533" spans="2:14">
+      <c r="B533" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N533" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="534" spans="2:14">
+      <c r="B534" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N534" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="535" spans="2:14">
+      <c r="B535" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N535" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="536" spans="2:14">
+      <c r="B536" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="N536" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="537" spans="2:14">
+      <c r="B537" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N537" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="538" spans="2:14">
+      <c r="N538" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="539" spans="2:14">
+      <c r="N539" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="540" spans="2:14">
+      <c r="N540" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="541" spans="2:14">
+      <c r="N541" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="542" spans="2:14">
+      <c r="N542" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="543" spans="2:14">
+      <c r="N543" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="544" spans="2:14">
+      <c r="N544" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14">
+      <c r="N545" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="546" spans="1:14">
+      <c r="N546" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="547" spans="1:14">
+      <c r="N547" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="548" spans="1:14">
+      <c r="N548" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14">
+      <c r="N549" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14">
+      <c r="N550" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14">
+      <c r="N551" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="552" spans="1:14">
+      <c r="N552" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14">
+      <c r="N553" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="554" spans="1:14">
+      <c r="N554" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="555" spans="1:14">
+      <c r="N555" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="556" spans="1:14">
+      <c r="N556" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14">
+      <c r="N557" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14" s="3" customFormat="1">
+      <c r="A559" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3">
+      <c r="B562" s="13"/>
+    </row>
+    <row r="575" spans="2:3">
+      <c r="C575" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="576" spans="2:3">
+      <c r="C576" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="C577" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="C578" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="C580" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="C581" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="C583" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" s="3" customFormat="1">
+      <c r="A586" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" s="3" customFormat="1">
+      <c r="A612" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" s="3" customFormat="1">
+      <c r="A638" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="B640" s="1" t="s">
+        <v>422</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B446:D446"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="B447:D447"/>
-    <mergeCell ref="E447:K447"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="E448:K448"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:K443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:K444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:K445"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:K440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:K441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:K442"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:K438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:K439"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:K430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:K431"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:K436"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:K426"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:K435"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:K427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="E428:K428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:K429"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="E416:K416"/>
-    <mergeCell ref="E417:K417"/>
-    <mergeCell ref="E418:K418"/>
-    <mergeCell ref="E419:K419"/>
-    <mergeCell ref="E420:K420"/>
-    <mergeCell ref="E421:K421"/>
-    <mergeCell ref="E422:K422"/>
-    <mergeCell ref="E411:K411"/>
-    <mergeCell ref="E412:K412"/>
-    <mergeCell ref="E413:K413"/>
-    <mergeCell ref="E414:K414"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="E376:K376"/>
-    <mergeCell ref="E377:K377"/>
-    <mergeCell ref="E378:K378"/>
-    <mergeCell ref="E379:K379"/>
-    <mergeCell ref="E380:K380"/>
-    <mergeCell ref="E381:K381"/>
-    <mergeCell ref="E364:K364"/>
-    <mergeCell ref="E365:K365"/>
-    <mergeCell ref="E366:K366"/>
-    <mergeCell ref="E367:K367"/>
-    <mergeCell ref="E368:K368"/>
-    <mergeCell ref="E369:K369"/>
-    <mergeCell ref="E354:K354"/>
-    <mergeCell ref="E355:K355"/>
-    <mergeCell ref="E356:K356"/>
-    <mergeCell ref="E357:K357"/>
-    <mergeCell ref="E358:K358"/>
-    <mergeCell ref="E359:K359"/>
-    <mergeCell ref="E382:K382"/>
-    <mergeCell ref="E383:K383"/>
-    <mergeCell ref="E384:K384"/>
-    <mergeCell ref="E385:K385"/>
-    <mergeCell ref="E370:K370"/>
-    <mergeCell ref="E371:K371"/>
-    <mergeCell ref="E372:K372"/>
-    <mergeCell ref="E373:K373"/>
-    <mergeCell ref="E360:K360"/>
-    <mergeCell ref="E361:K361"/>
-    <mergeCell ref="E350:K350"/>
-    <mergeCell ref="E351:K351"/>
-    <mergeCell ref="E352:K352"/>
-    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
     <mergeCell ref="E386:K386"/>
     <mergeCell ref="E387:K387"/>
     <mergeCell ref="E374:K374"/>
@@ -5337,26 +7072,102 @@
     <mergeCell ref="B369:D369"/>
     <mergeCell ref="B370:D370"/>
     <mergeCell ref="B371:D371"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="E385:K385"/>
+    <mergeCell ref="E370:K370"/>
+    <mergeCell ref="E371:K371"/>
+    <mergeCell ref="E372:K372"/>
+    <mergeCell ref="E373:K373"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
+    <mergeCell ref="E382:K382"/>
+    <mergeCell ref="E383:K383"/>
+    <mergeCell ref="E384:K384"/>
+    <mergeCell ref="E376:K376"/>
+    <mergeCell ref="E377:K377"/>
+    <mergeCell ref="E378:K378"/>
+    <mergeCell ref="E379:K379"/>
+    <mergeCell ref="E380:K380"/>
+    <mergeCell ref="E381:K381"/>
+    <mergeCell ref="E364:K364"/>
+    <mergeCell ref="E365:K365"/>
+    <mergeCell ref="E366:K366"/>
+    <mergeCell ref="E367:K367"/>
+    <mergeCell ref="E368:K368"/>
+    <mergeCell ref="E369:K369"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="E416:K416"/>
+    <mergeCell ref="E417:K417"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="E447:K447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="E448:K448"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="431">
   <si>
     <t>built-in functions</t>
   </si>
@@ -316,7 +316,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -669,7 +669,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -955,7 +955,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -977,7 +977,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -987,7 +987,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1017,7 +1017,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1032,7 +1032,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1047,7 +1047,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1062,7 +1062,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1077,7 +1077,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1092,7 +1092,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1107,7 +1107,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1122,7 +1122,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1137,7 +1137,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,7 +1152,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,7 +1167,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1182,7 +1182,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1197,7 +1197,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1212,7 +1212,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1227,7 +1227,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1242,7 +1242,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1257,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1272,7 +1272,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1287,7 +1287,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1302,7 +1302,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1317,7 +1317,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,7 +1332,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1347,7 +1347,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1365,7 +1365,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1380,7 +1380,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1395,7 +1395,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1425,7 +1425,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1440,7 +1440,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1455,7 +1455,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1470,7 +1470,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1485,7 +1485,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1500,7 +1500,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1515,7 +1515,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1533,7 +1533,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1548,7 +1548,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1563,7 +1563,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1578,7 +1578,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1593,7 +1593,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1608,7 +1608,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1623,7 +1623,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1638,7 +1638,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1653,7 +1653,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1668,7 +1668,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1683,7 +1683,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1698,7 +1698,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1713,7 +1713,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1728,7 +1728,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1743,7 +1743,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1758,7 +1758,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1773,7 +1773,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1788,7 +1788,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1803,7 +1803,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1818,7 +1818,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1833,7 +1833,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1848,7 +1848,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1863,7 +1863,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1878,7 +1878,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1893,7 +1893,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1908,7 +1908,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1923,7 +1923,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2038,7 +2038,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2048,7 +2048,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2059,7 +2059,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2170,30 +2170,62 @@
   </si>
   <si>
     <t>参数前面加*(星号)</t>
+  </si>
+  <si>
+    <t>全局变量和局部变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何修改全局变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭包函数(藏起来的内部函数)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种调用方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>global和nonlocal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2201,7 +2233,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2210,7 +2242,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2219,7 +2251,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2233,7 +2265,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2291,7 +2323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
@@ -2302,6 +2334,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2311,10 +2344,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3113,8 +3146,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>156881</xdr:colOff>
-      <xdr:row>649</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:row>651</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3123,8 +3156,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1210235" y="129517588"/>
-          <a:ext cx="4392705" cy="1692088"/>
+          <a:off x="1389529" y="116339471"/>
+          <a:ext cx="5020234" cy="1680882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3351,11 +3384,1384 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>659</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>649940</xdr:colOff>
+      <xdr:row>686</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1187824" y="119432294"/>
+          <a:ext cx="5020234" cy="4594412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; count = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def test():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	count = 10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	print (count)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; test()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; print (count)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def test():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>global count = 10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	print (count)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SyntaxError: invalid syntax</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def test():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>global count</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	count = 10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	print (count)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; test()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt; print (count)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>690</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>697</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="124575794"/>
+          <a:ext cx="5020234" cy="1210235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>def test():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	count</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>def test1():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>		print('test1:',count)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	test1()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	print('test:',count)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>701</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>716</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="126525617"/>
+          <a:ext cx="5020234" cy="2554941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def funx(x):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>def funy(y):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>		return x * y</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	return funy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; i = funx(5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; type(i)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;class 'function'&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; j = i(6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; j</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; funx(3)(6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>18</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>721</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>756</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400735" y="129820147"/>
+          <a:ext cx="5020234" cy="5927912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def funx():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	x = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	def funy():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		return x * x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	return funy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; i=funx()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; i()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>25</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def funx():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	x = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	def funy():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		x *= x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		return x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	return funy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; funx()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;function funx.&lt;locals&gt;.funy at 0x000001A97E77AE18&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; i = funx()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; i()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Traceback (most recent call last):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  File "&lt;pyshell#47&gt;", line 1, in &lt;module&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    i()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  File "&lt;pyshell#44&gt;", line 4, in funy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    x *= x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UnboundLocalError: local variable 'x' referenced before assignment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; funx()()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Traceback (most recent call last):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  File "&lt;pyshell#48&gt;", line 1, in &lt;module&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    funx()()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  File "&lt;pyshell#44&gt;", line 4, in funy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    x *= x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UnboundLocalError: local variable 'x' referenced before assignment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>721</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>782</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7160559" y="129797735"/>
+          <a:ext cx="5020234" cy="10287000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def funx():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	x = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	def funy():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		global x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		x *= x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		return x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	return funy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; funx()()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Traceback (most recent call last):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  File "&lt;pyshell#51&gt;", line 1, in &lt;module&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    funx()()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  File "&lt;pyshell#50&gt;", line 5, in funy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    x *= x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>NameError: name 'x' is not defined</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def funx():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	x = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	def funy():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nonlocal x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		x *= x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		return x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	return funy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; funx()()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>25</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; i = funx()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; i()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>25</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; x = 10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def funx():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	x = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	def funy():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nonlocal x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		x *= x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		return x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	return funy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; funx()()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>25</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def funx():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	x = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	def funy():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>global x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		x *= x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		return x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	return funy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; funx()()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def funx():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	x = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	def funy():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>global x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>		nonlocal x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		x *= x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		return x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	return funy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SyntaxError: name 'x' is nonlocal and global</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3641,98 +5047,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P640"/>
+  <dimension ref="A2:P720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A624" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R648" sqref="R648"/>
+    <sheetView tabSelected="1" topLeftCell="A735" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R776" sqref="R776"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="3" customFormat="1">
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="3" customFormat="1">
+    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1">
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
@@ -3749,7 +5155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
@@ -3760,67 +5166,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E39" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1">
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
@@ -3828,27 +5234,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="3" customFormat="1">
+    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>36</v>
       </c>
@@ -3862,7 +5268,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E55" s="1" t="s">
         <v>40</v>
       </c>
@@ -3870,17 +5276,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>44</v>
       </c>
@@ -3890,42 +5296,42 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1">
+    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
         <v>65</v>
       </c>
@@ -3935,22 +5341,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>56</v>
       </c>
@@ -3958,47 +5364,47 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
         <v>66</v>
       </c>
@@ -4008,32 +5414,32 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" s="4" t="s">
         <v>71</v>
       </c>
@@ -4043,27 +5449,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" s="4" t="s">
         <v>75</v>
       </c>
@@ -4071,42 +5477,42 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B107" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B108" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B109" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="2:5">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B110" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B111" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B112" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B114" s="4" t="s">
         <v>81</v>
       </c>
@@ -4114,27 +5520,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B116" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B118" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B119" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B120" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B121" s="1" t="s">
         <v>85</v>
       </c>
@@ -4142,97 +5548,97 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B122" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B123" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="124" spans="2:8">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B124" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="2:8">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B125" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B126" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="2:8">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B127" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="2:8">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B128" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="2:5">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="2:5">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="2:5">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="2:5">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="133" spans="2:5">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="2:5">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="2:5">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="2:5">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="2:5">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="2:5">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="2:5">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="2:5">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" s="4" t="s">
         <v>81</v>
       </c>
@@ -4240,67 +5646,67 @@
         <v>92</v>
       </c>
     </row>
-    <row r="144" spans="2:5">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="2:5">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B146" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="2:5">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="2:5">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="155" spans="2:5">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="2:5">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="4" t="s">
         <v>104</v>
       </c>
@@ -4308,7 +5714,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="160" spans="2:5">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" s="4" t="s">
         <v>107</v>
       </c>
@@ -4316,52 +5722,52 @@
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B162" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B163" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B164" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B165" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B166" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B167" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B168" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="3" customFormat="1">
+    <row r="170" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B172" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B174" s="1" t="s">
         <v>113</v>
       </c>
@@ -4369,42 +5775,42 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B176" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="2:5">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B177" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="2:5">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B178" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="2:5">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B179" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="180" spans="2:5">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B180" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="2:5">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B181" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="182" spans="2:5">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B182" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="2:5">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B184" s="7" t="s">
         <v>174</v>
       </c>
@@ -4414,82 +5820,82 @@
         <v>176</v>
       </c>
     </row>
-    <row r="185" spans="2:5">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C185" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="2:5">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C186" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="2:5">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C187" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="188" spans="2:5">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C188" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="2:5">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C189" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="190" spans="2:5">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C190" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="191" spans="2:5">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C191" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="192" spans="2:5">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C192" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="193" spans="2:5">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C193" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="194" spans="2:5">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C194" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="195" spans="2:5">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C195" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="196" spans="2:5">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C196" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="2:5">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C197" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="2:5">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C198" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="2:5">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C199" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="2:5">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B201" s="7" t="s">
         <v>175</v>
       </c>
@@ -4497,367 +5903,367 @@
         <v>185</v>
       </c>
     </row>
-    <row r="202" spans="2:5">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C202" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="203" spans="2:5">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C203" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="204" spans="2:5">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C204" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="205" spans="2:5">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C205" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="2:5">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C206" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="207" spans="2:5">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C207" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="208" spans="2:5">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C208" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C209" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C210" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C211" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C212" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C213" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C214" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C215" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C216" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:3" s="3" customFormat="1">
+    <row r="217" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B219" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B220" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B221" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B222" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B223" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B224" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B225" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B226" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B227" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B228" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B229" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B230" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B231" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B232" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B234" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B235" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B236" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B237" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B238" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B239" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="240" spans="2:2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B240" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B241" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="242" spans="2:2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B242" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B243" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B244" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B245" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B246" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="247" spans="2:2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B247" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B248" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="2:2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B250" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="251" spans="2:2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B251" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="252" spans="2:2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B252" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="253" spans="2:2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B253" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="254" spans="2:2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B254" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="255" spans="2:2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B255" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="256" spans="2:2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B256" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="2:2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B259" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B260" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="261" spans="2:2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B261" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="262" spans="2:2">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B262" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B263" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="264" spans="2:2">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B264" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B265" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="266" spans="2:2">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B266" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="267" spans="2:2">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B267" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="268" spans="2:2">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B268" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="269" spans="2:2">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B269" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="270" spans="2:2">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B270" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B271" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="272" spans="2:2">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B272" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B273" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B274" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B275" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B276" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B277" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B279" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A280" s="4"/>
       <c r="B280" s="4" t="s">
         <v>160</v>
@@ -4866,57 +6272,57 @@
         <v>162</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B281" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B282" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B283" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B284" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B285" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B286" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B287" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B288" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B289" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B290" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B292" s="4" t="s">
         <v>163</v>
       </c>
@@ -4930,7 +6336,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B293" s="1" t="s">
         <v>164</v>
       </c>
@@ -4938,47 +6344,47 @@
         <v>171</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B295" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B296" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B297" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B298" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B299" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B300" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B301" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="303" spans="1:10" s="3" customFormat="1">
+    <row r="303" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A303" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="305" spans="2:10">
+    <row r="305" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B305" s="1" t="s">
         <v>187</v>
       </c>
@@ -4989,640 +6395,640 @@
         <v>189</v>
       </c>
     </row>
-    <row r="312" spans="2:10">
+    <row r="312" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J312" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="313" spans="2:10">
+    <row r="313" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J313" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B337" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="348" spans="1:11" s="3" customFormat="1">
+    <row r="348" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A348" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="30" customHeight="1">
-      <c r="B350" s="10" t="s">
+    <row r="350" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B350" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C350" s="10"/>
-      <c r="D350" s="10"/>
-      <c r="E350" s="11" t="s">
+      <c r="C350" s="11"/>
+      <c r="D350" s="11"/>
+      <c r="E350" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F350" s="11"/>
-      <c r="G350" s="11"/>
-      <c r="H350" s="11"/>
-      <c r="I350" s="11"/>
-      <c r="J350" s="11"/>
-      <c r="K350" s="11"/>
-    </row>
-    <row r="351" spans="1:11" ht="30" customHeight="1">
-      <c r="B351" s="10" t="s">
+      <c r="F350" s="12"/>
+      <c r="G350" s="12"/>
+      <c r="H350" s="12"/>
+      <c r="I350" s="12"/>
+      <c r="J350" s="12"/>
+      <c r="K350" s="12"/>
+    </row>
+    <row r="351" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B351" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C351" s="10"/>
-      <c r="D351" s="10"/>
-      <c r="E351" s="11" t="s">
+      <c r="C351" s="11"/>
+      <c r="D351" s="11"/>
+      <c r="E351" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="F351" s="11"/>
-      <c r="G351" s="11"/>
-      <c r="H351" s="11"/>
-      <c r="I351" s="11"/>
-      <c r="J351" s="11"/>
-      <c r="K351" s="11"/>
-    </row>
-    <row r="352" spans="1:11" ht="30" customHeight="1">
-      <c r="B352" s="10" t="s">
+      <c r="F351" s="12"/>
+      <c r="G351" s="12"/>
+      <c r="H351" s="12"/>
+      <c r="I351" s="12"/>
+      <c r="J351" s="12"/>
+      <c r="K351" s="12"/>
+    </row>
+    <row r="352" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B352" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C352" s="10"/>
-      <c r="D352" s="10"/>
-      <c r="E352" s="11" t="s">
+      <c r="C352" s="11"/>
+      <c r="D352" s="11"/>
+      <c r="E352" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F352" s="11"/>
-      <c r="G352" s="11"/>
-      <c r="H352" s="11"/>
-      <c r="I352" s="11"/>
-      <c r="J352" s="11"/>
-      <c r="K352" s="11"/>
-    </row>
-    <row r="353" spans="2:11" ht="30" customHeight="1">
-      <c r="B353" s="10" t="s">
+      <c r="F352" s="12"/>
+      <c r="G352" s="12"/>
+      <c r="H352" s="12"/>
+      <c r="I352" s="12"/>
+      <c r="J352" s="12"/>
+      <c r="K352" s="12"/>
+    </row>
+    <row r="353" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B353" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C353" s="10"/>
-      <c r="D353" s="10"/>
-      <c r="E353" s="11" t="s">
+      <c r="C353" s="11"/>
+      <c r="D353" s="11"/>
+      <c r="E353" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F353" s="11"/>
-      <c r="G353" s="11"/>
-      <c r="H353" s="11"/>
-      <c r="I353" s="11"/>
-      <c r="J353" s="11"/>
-      <c r="K353" s="11"/>
-    </row>
-    <row r="354" spans="2:11" ht="30" customHeight="1">
-      <c r="B354" s="10" t="s">
+      <c r="F353" s="12"/>
+      <c r="G353" s="12"/>
+      <c r="H353" s="12"/>
+      <c r="I353" s="12"/>
+      <c r="J353" s="12"/>
+      <c r="K353" s="12"/>
+    </row>
+    <row r="354" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B354" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C354" s="10"/>
-      <c r="D354" s="10"/>
-      <c r="E354" s="11" t="s">
+      <c r="C354" s="11"/>
+      <c r="D354" s="11"/>
+      <c r="E354" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="F354" s="11"/>
-      <c r="G354" s="11"/>
-      <c r="H354" s="11"/>
-      <c r="I354" s="11"/>
-      <c r="J354" s="11"/>
-      <c r="K354" s="11"/>
-    </row>
-    <row r="355" spans="2:11" ht="30" customHeight="1">
-      <c r="B355" s="10" t="s">
+      <c r="F354" s="12"/>
+      <c r="G354" s="12"/>
+      <c r="H354" s="12"/>
+      <c r="I354" s="12"/>
+      <c r="J354" s="12"/>
+      <c r="K354" s="12"/>
+    </row>
+    <row r="355" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B355" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C355" s="10"/>
-      <c r="D355" s="10"/>
-      <c r="E355" s="11" t="s">
+      <c r="C355" s="11"/>
+      <c r="D355" s="11"/>
+      <c r="E355" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F355" s="11"/>
-      <c r="G355" s="11"/>
-      <c r="H355" s="11"/>
-      <c r="I355" s="11"/>
-      <c r="J355" s="11"/>
-      <c r="K355" s="11"/>
-    </row>
-    <row r="356" spans="2:11" ht="30" customHeight="1">
-      <c r="B356" s="10" t="s">
+      <c r="F355" s="12"/>
+      <c r="G355" s="12"/>
+      <c r="H355" s="12"/>
+      <c r="I355" s="12"/>
+      <c r="J355" s="12"/>
+      <c r="K355" s="12"/>
+    </row>
+    <row r="356" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B356" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C356" s="10"/>
-      <c r="D356" s="10"/>
-      <c r="E356" s="11" t="s">
+      <c r="C356" s="11"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F356" s="11"/>
-      <c r="G356" s="11"/>
-      <c r="H356" s="11"/>
-      <c r="I356" s="11"/>
-      <c r="J356" s="11"/>
-      <c r="K356" s="11"/>
-    </row>
-    <row r="357" spans="2:11" ht="30" customHeight="1">
-      <c r="B357" s="10" t="s">
+      <c r="F356" s="12"/>
+      <c r="G356" s="12"/>
+      <c r="H356" s="12"/>
+      <c r="I356" s="12"/>
+      <c r="J356" s="12"/>
+      <c r="K356" s="12"/>
+    </row>
+    <row r="357" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B357" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C357" s="10"/>
-      <c r="D357" s="10"/>
-      <c r="E357" s="11" t="s">
+      <c r="C357" s="11"/>
+      <c r="D357" s="11"/>
+      <c r="E357" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="F357" s="11"/>
-      <c r="G357" s="11"/>
-      <c r="H357" s="11"/>
-      <c r="I357" s="11"/>
-      <c r="J357" s="11"/>
-      <c r="K357" s="11"/>
-    </row>
-    <row r="358" spans="2:11" ht="30" customHeight="1">
-      <c r="B358" s="10" t="s">
+      <c r="F357" s="12"/>
+      <c r="G357" s="12"/>
+      <c r="H357" s="12"/>
+      <c r="I357" s="12"/>
+      <c r="J357" s="12"/>
+      <c r="K357" s="12"/>
+    </row>
+    <row r="358" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B358" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C358" s="10"/>
-      <c r="D358" s="10"/>
-      <c r="E358" s="11" t="s">
+      <c r="C358" s="11"/>
+      <c r="D358" s="11"/>
+      <c r="E358" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F358" s="11"/>
-      <c r="G358" s="11"/>
-      <c r="H358" s="11"/>
-      <c r="I358" s="11"/>
-      <c r="J358" s="11"/>
-      <c r="K358" s="11"/>
-    </row>
-    <row r="359" spans="2:11" ht="30" customHeight="1">
-      <c r="B359" s="10" t="s">
+      <c r="F358" s="12"/>
+      <c r="G358" s="12"/>
+      <c r="H358" s="12"/>
+      <c r="I358" s="12"/>
+      <c r="J358" s="12"/>
+      <c r="K358" s="12"/>
+    </row>
+    <row r="359" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B359" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C359" s="10"/>
-      <c r="D359" s="10"/>
-      <c r="E359" s="11" t="s">
+      <c r="C359" s="11"/>
+      <c r="D359" s="11"/>
+      <c r="E359" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="F359" s="11"/>
-      <c r="G359" s="11"/>
-      <c r="H359" s="11"/>
-      <c r="I359" s="11"/>
-      <c r="J359" s="11"/>
-      <c r="K359" s="11"/>
-    </row>
-    <row r="360" spans="2:11" ht="30" customHeight="1">
-      <c r="B360" s="10" t="s">
+      <c r="F359" s="12"/>
+      <c r="G359" s="12"/>
+      <c r="H359" s="12"/>
+      <c r="I359" s="12"/>
+      <c r="J359" s="12"/>
+      <c r="K359" s="12"/>
+    </row>
+    <row r="360" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B360" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C360" s="10"/>
-      <c r="D360" s="10"/>
-      <c r="E360" s="11" t="s">
+      <c r="C360" s="11"/>
+      <c r="D360" s="11"/>
+      <c r="E360" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F360" s="11"/>
-      <c r="G360" s="11"/>
-      <c r="H360" s="11"/>
-      <c r="I360" s="11"/>
-      <c r="J360" s="11"/>
-      <c r="K360" s="11"/>
-    </row>
-    <row r="361" spans="2:11" ht="30" customHeight="1">
-      <c r="B361" s="10" t="s">
+      <c r="F360" s="12"/>
+      <c r="G360" s="12"/>
+      <c r="H360" s="12"/>
+      <c r="I360" s="12"/>
+      <c r="J360" s="12"/>
+      <c r="K360" s="12"/>
+    </row>
+    <row r="361" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B361" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C361" s="10"/>
-      <c r="D361" s="10"/>
-      <c r="E361" s="11" t="s">
+      <c r="C361" s="11"/>
+      <c r="D361" s="11"/>
+      <c r="E361" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="F361" s="11"/>
-      <c r="G361" s="11"/>
-      <c r="H361" s="11"/>
-      <c r="I361" s="11"/>
-      <c r="J361" s="11"/>
-      <c r="K361" s="11"/>
-    </row>
-    <row r="362" spans="2:11" ht="30" customHeight="1">
-      <c r="B362" s="10" t="s">
+      <c r="F361" s="12"/>
+      <c r="G361" s="12"/>
+      <c r="H361" s="12"/>
+      <c r="I361" s="12"/>
+      <c r="J361" s="12"/>
+      <c r="K361" s="12"/>
+    </row>
+    <row r="362" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B362" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C362" s="10"/>
-      <c r="D362" s="10"/>
-      <c r="E362" s="11" t="s">
+      <c r="C362" s="11"/>
+      <c r="D362" s="11"/>
+      <c r="E362" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="F362" s="11"/>
-      <c r="G362" s="11"/>
-      <c r="H362" s="11"/>
-      <c r="I362" s="11"/>
-      <c r="J362" s="11"/>
-      <c r="K362" s="11"/>
-    </row>
-    <row r="363" spans="2:11" ht="30" customHeight="1">
-      <c r="B363" s="10" t="s">
+      <c r="F362" s="12"/>
+      <c r="G362" s="12"/>
+      <c r="H362" s="12"/>
+      <c r="I362" s="12"/>
+      <c r="J362" s="12"/>
+      <c r="K362" s="12"/>
+    </row>
+    <row r="363" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B363" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C363" s="10"/>
-      <c r="D363" s="10"/>
-      <c r="E363" s="11" t="s">
+      <c r="C363" s="11"/>
+      <c r="D363" s="11"/>
+      <c r="E363" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F363" s="11"/>
-      <c r="G363" s="11"/>
-      <c r="H363" s="11"/>
-      <c r="I363" s="11"/>
-      <c r="J363" s="11"/>
-      <c r="K363" s="11"/>
-    </row>
-    <row r="364" spans="2:11" ht="30" customHeight="1">
-      <c r="B364" s="10" t="s">
+      <c r="F363" s="12"/>
+      <c r="G363" s="12"/>
+      <c r="H363" s="12"/>
+      <c r="I363" s="12"/>
+      <c r="J363" s="12"/>
+      <c r="K363" s="12"/>
+    </row>
+    <row r="364" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B364" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C364" s="10"/>
-      <c r="D364" s="10"/>
-      <c r="E364" s="11" t="s">
+      <c r="C364" s="11"/>
+      <c r="D364" s="11"/>
+      <c r="E364" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="F364" s="11"/>
-      <c r="G364" s="11"/>
-      <c r="H364" s="11"/>
-      <c r="I364" s="11"/>
-      <c r="J364" s="11"/>
-      <c r="K364" s="11"/>
-    </row>
-    <row r="365" spans="2:11" ht="30" customHeight="1">
-      <c r="B365" s="10" t="s">
+      <c r="F364" s="12"/>
+      <c r="G364" s="12"/>
+      <c r="H364" s="12"/>
+      <c r="I364" s="12"/>
+      <c r="J364" s="12"/>
+      <c r="K364" s="12"/>
+    </row>
+    <row r="365" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B365" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C365" s="10"/>
-      <c r="D365" s="10"/>
-      <c r="E365" s="11" t="s">
+      <c r="C365" s="11"/>
+      <c r="D365" s="11"/>
+      <c r="E365" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="F365" s="11"/>
-      <c r="G365" s="11"/>
-      <c r="H365" s="11"/>
-      <c r="I365" s="11"/>
-      <c r="J365" s="11"/>
-      <c r="K365" s="11"/>
-    </row>
-    <row r="366" spans="2:11" ht="30" customHeight="1">
-      <c r="B366" s="10" t="s">
+      <c r="F365" s="12"/>
+      <c r="G365" s="12"/>
+      <c r="H365" s="12"/>
+      <c r="I365" s="12"/>
+      <c r="J365" s="12"/>
+      <c r="K365" s="12"/>
+    </row>
+    <row r="366" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B366" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C366" s="10"/>
-      <c r="D366" s="10"/>
-      <c r="E366" s="11" t="s">
+      <c r="C366" s="11"/>
+      <c r="D366" s="11"/>
+      <c r="E366" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="F366" s="11"/>
-      <c r="G366" s="11"/>
-      <c r="H366" s="11"/>
-      <c r="I366" s="11"/>
-      <c r="J366" s="11"/>
-      <c r="K366" s="11"/>
-    </row>
-    <row r="367" spans="2:11" ht="30" customHeight="1">
-      <c r="B367" s="10" t="s">
+      <c r="F366" s="12"/>
+      <c r="G366" s="12"/>
+      <c r="H366" s="12"/>
+      <c r="I366" s="12"/>
+      <c r="J366" s="12"/>
+      <c r="K366" s="12"/>
+    </row>
+    <row r="367" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B367" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C367" s="10"/>
-      <c r="D367" s="10"/>
-      <c r="E367" s="11" t="s">
+      <c r="C367" s="11"/>
+      <c r="D367" s="11"/>
+      <c r="E367" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="F367" s="11"/>
-      <c r="G367" s="11"/>
-      <c r="H367" s="11"/>
-      <c r="I367" s="11"/>
-      <c r="J367" s="11"/>
-      <c r="K367" s="11"/>
-    </row>
-    <row r="368" spans="2:11" ht="30" customHeight="1">
-      <c r="B368" s="10" t="s">
+      <c r="F367" s="12"/>
+      <c r="G367" s="12"/>
+      <c r="H367" s="12"/>
+      <c r="I367" s="12"/>
+      <c r="J367" s="12"/>
+      <c r="K367" s="12"/>
+    </row>
+    <row r="368" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B368" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C368" s="10"/>
-      <c r="D368" s="10"/>
-      <c r="E368" s="11" t="s">
+      <c r="C368" s="11"/>
+      <c r="D368" s="11"/>
+      <c r="E368" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="F368" s="11"/>
-      <c r="G368" s="11"/>
-      <c r="H368" s="11"/>
-      <c r="I368" s="11"/>
-      <c r="J368" s="11"/>
-      <c r="K368" s="11"/>
-    </row>
-    <row r="369" spans="2:11" ht="30" customHeight="1">
-      <c r="B369" s="10" t="s">
+      <c r="F368" s="12"/>
+      <c r="G368" s="12"/>
+      <c r="H368" s="12"/>
+      <c r="I368" s="12"/>
+      <c r="J368" s="12"/>
+      <c r="K368" s="12"/>
+    </row>
+    <row r="369" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B369" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C369" s="10"/>
-      <c r="D369" s="10"/>
-      <c r="E369" s="11" t="s">
+      <c r="C369" s="11"/>
+      <c r="D369" s="11"/>
+      <c r="E369" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="F369" s="11"/>
-      <c r="G369" s="11"/>
-      <c r="H369" s="11"/>
-      <c r="I369" s="11"/>
-      <c r="J369" s="11"/>
-      <c r="K369" s="11"/>
-    </row>
-    <row r="370" spans="2:11" ht="30" customHeight="1">
-      <c r="B370" s="10" t="s">
+      <c r="F369" s="12"/>
+      <c r="G369" s="12"/>
+      <c r="H369" s="12"/>
+      <c r="I369" s="12"/>
+      <c r="J369" s="12"/>
+      <c r="K369" s="12"/>
+    </row>
+    <row r="370" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B370" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C370" s="10"/>
-      <c r="D370" s="10"/>
-      <c r="E370" s="11" t="s">
+      <c r="C370" s="11"/>
+      <c r="D370" s="11"/>
+      <c r="E370" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="F370" s="11"/>
-      <c r="G370" s="11"/>
-      <c r="H370" s="11"/>
-      <c r="I370" s="11"/>
-      <c r="J370" s="11"/>
-      <c r="K370" s="11"/>
-    </row>
-    <row r="371" spans="2:11" ht="30" customHeight="1">
-      <c r="B371" s="10" t="s">
+      <c r="F370" s="12"/>
+      <c r="G370" s="12"/>
+      <c r="H370" s="12"/>
+      <c r="I370" s="12"/>
+      <c r="J370" s="12"/>
+      <c r="K370" s="12"/>
+    </row>
+    <row r="371" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B371" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C371" s="10"/>
-      <c r="D371" s="10"/>
-      <c r="E371" s="11" t="s">
+      <c r="C371" s="11"/>
+      <c r="D371" s="11"/>
+      <c r="E371" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F371" s="11"/>
-      <c r="G371" s="11"/>
-      <c r="H371" s="11"/>
-      <c r="I371" s="11"/>
-      <c r="J371" s="11"/>
-      <c r="K371" s="11"/>
-    </row>
-    <row r="372" spans="2:11" ht="30" customHeight="1">
-      <c r="B372" s="10" t="s">
+      <c r="F371" s="12"/>
+      <c r="G371" s="12"/>
+      <c r="H371" s="12"/>
+      <c r="I371" s="12"/>
+      <c r="J371" s="12"/>
+      <c r="K371" s="12"/>
+    </row>
+    <row r="372" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B372" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C372" s="10"/>
-      <c r="D372" s="10"/>
-      <c r="E372" s="11" t="s">
+      <c r="C372" s="11"/>
+      <c r="D372" s="11"/>
+      <c r="E372" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F372" s="11"/>
-      <c r="G372" s="11"/>
-      <c r="H372" s="11"/>
-      <c r="I372" s="11"/>
-      <c r="J372" s="11"/>
-      <c r="K372" s="11"/>
-    </row>
-    <row r="373" spans="2:11" ht="30" customHeight="1">
-      <c r="B373" s="10" t="s">
+      <c r="F372" s="12"/>
+      <c r="G372" s="12"/>
+      <c r="H372" s="12"/>
+      <c r="I372" s="12"/>
+      <c r="J372" s="12"/>
+      <c r="K372" s="12"/>
+    </row>
+    <row r="373" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B373" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C373" s="10"/>
-      <c r="D373" s="10"/>
-      <c r="E373" s="11" t="s">
+      <c r="C373" s="11"/>
+      <c r="D373" s="11"/>
+      <c r="E373" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F373" s="11"/>
-      <c r="G373" s="11"/>
-      <c r="H373" s="11"/>
-      <c r="I373" s="11"/>
-      <c r="J373" s="11"/>
-      <c r="K373" s="11"/>
-    </row>
-    <row r="374" spans="2:11" ht="30" customHeight="1">
-      <c r="B374" s="10" t="s">
+      <c r="F373" s="12"/>
+      <c r="G373" s="12"/>
+      <c r="H373" s="12"/>
+      <c r="I373" s="12"/>
+      <c r="J373" s="12"/>
+      <c r="K373" s="12"/>
+    </row>
+    <row r="374" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B374" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C374" s="10"/>
-      <c r="D374" s="10"/>
-      <c r="E374" s="11" t="s">
+      <c r="C374" s="11"/>
+      <c r="D374" s="11"/>
+      <c r="E374" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="F374" s="11"/>
-      <c r="G374" s="11"/>
-      <c r="H374" s="11"/>
-      <c r="I374" s="11"/>
-      <c r="J374" s="11"/>
-      <c r="K374" s="11"/>
-    </row>
-    <row r="375" spans="2:11" ht="30" customHeight="1">
-      <c r="B375" s="10" t="s">
+      <c r="F374" s="12"/>
+      <c r="G374" s="12"/>
+      <c r="H374" s="12"/>
+      <c r="I374" s="12"/>
+      <c r="J374" s="12"/>
+      <c r="K374" s="12"/>
+    </row>
+    <row r="375" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B375" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C375" s="10"/>
-      <c r="D375" s="10"/>
-      <c r="E375" s="11" t="s">
+      <c r="C375" s="11"/>
+      <c r="D375" s="11"/>
+      <c r="E375" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F375" s="11"/>
-      <c r="G375" s="11"/>
-      <c r="H375" s="11"/>
-      <c r="I375" s="11"/>
-      <c r="J375" s="11"/>
-      <c r="K375" s="11"/>
-    </row>
-    <row r="376" spans="2:11" ht="30" customHeight="1">
-      <c r="B376" s="10" t="s">
+      <c r="F375" s="12"/>
+      <c r="G375" s="12"/>
+      <c r="H375" s="12"/>
+      <c r="I375" s="12"/>
+      <c r="J375" s="12"/>
+      <c r="K375" s="12"/>
+    </row>
+    <row r="376" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B376" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C376" s="10"/>
-      <c r="D376" s="10"/>
-      <c r="E376" s="11" t="s">
+      <c r="C376" s="11"/>
+      <c r="D376" s="11"/>
+      <c r="E376" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="F376" s="11"/>
-      <c r="G376" s="11"/>
-      <c r="H376" s="11"/>
-      <c r="I376" s="11"/>
-      <c r="J376" s="11"/>
-      <c r="K376" s="11"/>
-    </row>
-    <row r="377" spans="2:11" ht="30" customHeight="1">
-      <c r="B377" s="10" t="s">
+      <c r="F376" s="12"/>
+      <c r="G376" s="12"/>
+      <c r="H376" s="12"/>
+      <c r="I376" s="12"/>
+      <c r="J376" s="12"/>
+      <c r="K376" s="12"/>
+    </row>
+    <row r="377" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B377" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C377" s="10"/>
-      <c r="D377" s="10"/>
-      <c r="E377" s="11" t="s">
+      <c r="C377" s="11"/>
+      <c r="D377" s="11"/>
+      <c r="E377" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="F377" s="11"/>
-      <c r="G377" s="11"/>
-      <c r="H377" s="11"/>
-      <c r="I377" s="11"/>
-      <c r="J377" s="11"/>
-      <c r="K377" s="11"/>
-    </row>
-    <row r="378" spans="2:11" ht="30" customHeight="1">
-      <c r="B378" s="10" t="s">
+      <c r="F377" s="12"/>
+      <c r="G377" s="12"/>
+      <c r="H377" s="12"/>
+      <c r="I377" s="12"/>
+      <c r="J377" s="12"/>
+      <c r="K377" s="12"/>
+    </row>
+    <row r="378" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B378" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C378" s="10"/>
-      <c r="D378" s="10"/>
-      <c r="E378" s="11" t="s">
+      <c r="C378" s="11"/>
+      <c r="D378" s="11"/>
+      <c r="E378" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="F378" s="11"/>
-      <c r="G378" s="11"/>
-      <c r="H378" s="11"/>
-      <c r="I378" s="11"/>
-      <c r="J378" s="11"/>
-      <c r="K378" s="11"/>
-    </row>
-    <row r="379" spans="2:11" ht="30" customHeight="1">
-      <c r="B379" s="10" t="s">
+      <c r="F378" s="12"/>
+      <c r="G378" s="12"/>
+      <c r="H378" s="12"/>
+      <c r="I378" s="12"/>
+      <c r="J378" s="12"/>
+      <c r="K378" s="12"/>
+    </row>
+    <row r="379" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B379" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C379" s="10"/>
-      <c r="D379" s="10"/>
-      <c r="E379" s="11" t="s">
+      <c r="C379" s="11"/>
+      <c r="D379" s="11"/>
+      <c r="E379" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F379" s="11"/>
-      <c r="G379" s="11"/>
-      <c r="H379" s="11"/>
-      <c r="I379" s="11"/>
-      <c r="J379" s="11"/>
-      <c r="K379" s="11"/>
-    </row>
-    <row r="380" spans="2:11" ht="30" customHeight="1">
-      <c r="B380" s="10" t="s">
+      <c r="F379" s="12"/>
+      <c r="G379" s="12"/>
+      <c r="H379" s="12"/>
+      <c r="I379" s="12"/>
+      <c r="J379" s="12"/>
+      <c r="K379" s="12"/>
+    </row>
+    <row r="380" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B380" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C380" s="10"/>
-      <c r="D380" s="10"/>
-      <c r="E380" s="11" t="s">
+      <c r="C380" s="11"/>
+      <c r="D380" s="11"/>
+      <c r="E380" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F380" s="11"/>
-      <c r="G380" s="11"/>
-      <c r="H380" s="11"/>
-      <c r="I380" s="11"/>
-      <c r="J380" s="11"/>
-      <c r="K380" s="11"/>
-    </row>
-    <row r="381" spans="2:11" ht="30" customHeight="1">
-      <c r="B381" s="10" t="s">
+      <c r="F380" s="12"/>
+      <c r="G380" s="12"/>
+      <c r="H380" s="12"/>
+      <c r="I380" s="12"/>
+      <c r="J380" s="12"/>
+      <c r="K380" s="12"/>
+    </row>
+    <row r="381" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B381" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C381" s="10"/>
-      <c r="D381" s="10"/>
-      <c r="E381" s="11" t="s">
+      <c r="C381" s="11"/>
+      <c r="D381" s="11"/>
+      <c r="E381" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F381" s="11"/>
-      <c r="G381" s="11"/>
-      <c r="H381" s="11"/>
-      <c r="I381" s="11"/>
-      <c r="J381" s="11"/>
-      <c r="K381" s="11"/>
-    </row>
-    <row r="382" spans="2:11" ht="30" customHeight="1">
-      <c r="B382" s="10" t="s">
+      <c r="F381" s="12"/>
+      <c r="G381" s="12"/>
+      <c r="H381" s="12"/>
+      <c r="I381" s="12"/>
+      <c r="J381" s="12"/>
+      <c r="K381" s="12"/>
+    </row>
+    <row r="382" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B382" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C382" s="10"/>
-      <c r="D382" s="10"/>
-      <c r="E382" s="11" t="s">
+      <c r="C382" s="11"/>
+      <c r="D382" s="11"/>
+      <c r="E382" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="F382" s="11"/>
-      <c r="G382" s="11"/>
-      <c r="H382" s="11"/>
-      <c r="I382" s="11"/>
-      <c r="J382" s="11"/>
-      <c r="K382" s="11"/>
-    </row>
-    <row r="383" spans="2:11" ht="30" customHeight="1">
-      <c r="B383" s="10" t="s">
+      <c r="F382" s="12"/>
+      <c r="G382" s="12"/>
+      <c r="H382" s="12"/>
+      <c r="I382" s="12"/>
+      <c r="J382" s="12"/>
+      <c r="K382" s="12"/>
+    </row>
+    <row r="383" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B383" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C383" s="10"/>
-      <c r="D383" s="10"/>
-      <c r="E383" s="11" t="s">
+      <c r="C383" s="11"/>
+      <c r="D383" s="11"/>
+      <c r="E383" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F383" s="11"/>
-      <c r="G383" s="11"/>
-      <c r="H383" s="11"/>
-      <c r="I383" s="11"/>
-      <c r="J383" s="11"/>
-      <c r="K383" s="11"/>
-    </row>
-    <row r="384" spans="2:11" ht="30" customHeight="1">
-      <c r="B384" s="10" t="s">
+      <c r="F383" s="12"/>
+      <c r="G383" s="12"/>
+      <c r="H383" s="12"/>
+      <c r="I383" s="12"/>
+      <c r="J383" s="12"/>
+      <c r="K383" s="12"/>
+    </row>
+    <row r="384" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B384" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C384" s="10"/>
-      <c r="D384" s="10"/>
-      <c r="E384" s="11" t="s">
+      <c r="C384" s="11"/>
+      <c r="D384" s="11"/>
+      <c r="E384" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="F384" s="11"/>
-      <c r="G384" s="11"/>
-      <c r="H384" s="11"/>
-      <c r="I384" s="11"/>
-      <c r="J384" s="11"/>
-      <c r="K384" s="11"/>
-    </row>
-    <row r="385" spans="1:11" ht="30" customHeight="1">
-      <c r="B385" s="10" t="s">
+      <c r="F384" s="12"/>
+      <c r="G384" s="12"/>
+      <c r="H384" s="12"/>
+      <c r="I384" s="12"/>
+      <c r="J384" s="12"/>
+      <c r="K384" s="12"/>
+    </row>
+    <row r="385" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B385" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C385" s="10"/>
-      <c r="D385" s="10"/>
-      <c r="E385" s="11" t="s">
+      <c r="C385" s="11"/>
+      <c r="D385" s="11"/>
+      <c r="E385" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="F385" s="11"/>
-      <c r="G385" s="11"/>
-      <c r="H385" s="11"/>
-      <c r="I385" s="11"/>
-      <c r="J385" s="11"/>
-      <c r="K385" s="11"/>
-    </row>
-    <row r="386" spans="1:11" ht="30" customHeight="1">
-      <c r="B386" s="10" t="s">
+      <c r="F385" s="12"/>
+      <c r="G385" s="12"/>
+      <c r="H385" s="12"/>
+      <c r="I385" s="12"/>
+      <c r="J385" s="12"/>
+      <c r="K385" s="12"/>
+    </row>
+    <row r="386" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B386" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C386" s="10"/>
-      <c r="D386" s="10"/>
-      <c r="E386" s="11" t="s">
+      <c r="C386" s="11"/>
+      <c r="D386" s="11"/>
+      <c r="E386" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F386" s="11"/>
-      <c r="G386" s="11"/>
-      <c r="H386" s="11"/>
-      <c r="I386" s="11"/>
-      <c r="J386" s="11"/>
-      <c r="K386" s="11"/>
-    </row>
-    <row r="387" spans="1:11" ht="30" customHeight="1">
-      <c r="B387" s="10" t="s">
+      <c r="F386" s="12"/>
+      <c r="G386" s="12"/>
+      <c r="H386" s="12"/>
+      <c r="I386" s="12"/>
+      <c r="J386" s="12"/>
+      <c r="K386" s="12"/>
+    </row>
+    <row r="387" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B387" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C387" s="10"/>
-      <c r="D387" s="10"/>
-      <c r="E387" s="11" t="s">
+      <c r="C387" s="11"/>
+      <c r="D387" s="11"/>
+      <c r="E387" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="F387" s="11"/>
-      <c r="G387" s="11"/>
-      <c r="H387" s="11"/>
-      <c r="I387" s="11"/>
-      <c r="J387" s="11"/>
-      <c r="K387" s="11"/>
-    </row>
-    <row r="389" spans="1:11" s="3" customFormat="1">
+      <c r="F387" s="12"/>
+      <c r="G387" s="12"/>
+      <c r="H387" s="12"/>
+      <c r="I387" s="12"/>
+      <c r="J387" s="12"/>
+      <c r="K387" s="12"/>
+    </row>
+    <row r="389" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A389" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B391" s="1" t="s">
         <v>275</v>
       </c>
@@ -5630,12 +7036,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B392" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B393" s="1" t="s">
         <v>279</v>
       </c>
@@ -5643,12 +7049,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B394" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B395" s="1" t="s">
         <v>277</v>
       </c>
@@ -5656,12 +7062,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B396" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B398" s="4" t="s">
         <v>283</v>
       </c>
@@ -5669,22 +7075,22 @@
         <v>285</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B399" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B400" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="401" spans="2:11">
+    <row r="401" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B401" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="404" spans="2:11">
+    <row r="404" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B404" s="1" t="s">
         <v>286</v>
       </c>
@@ -5692,610 +7098,610 @@
         <v>288</v>
       </c>
     </row>
-    <row r="405" spans="2:11">
+    <row r="405" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B405" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="406" spans="2:11">
+    <row r="406" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B406" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="2:11" ht="19.5">
+    <row r="410" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B410" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="411" spans="2:11" ht="15" customHeight="1">
-      <c r="B411" s="12" t="s">
+    <row r="411" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B411" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C411" s="12"/>
-      <c r="D411" s="12"/>
-      <c r="E411" s="12" t="s">
+      <c r="C411" s="13"/>
+      <c r="D411" s="13"/>
+      <c r="E411" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="F411" s="12"/>
-      <c r="G411" s="12"/>
-      <c r="H411" s="12"/>
-      <c r="I411" s="12"/>
-      <c r="J411" s="12"/>
-      <c r="K411" s="12"/>
-    </row>
-    <row r="412" spans="2:11" ht="15" customHeight="1">
-      <c r="B412" s="10" t="s">
+      <c r="F411" s="13"/>
+      <c r="G411" s="13"/>
+      <c r="H411" s="13"/>
+      <c r="I411" s="13"/>
+      <c r="J411" s="13"/>
+      <c r="K411" s="13"/>
+    </row>
+    <row r="412" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B412" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C412" s="10"/>
-      <c r="D412" s="10"/>
-      <c r="E412" s="11" t="s">
+      <c r="C412" s="11"/>
+      <c r="D412" s="11"/>
+      <c r="E412" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="F412" s="11"/>
-      <c r="G412" s="11"/>
-      <c r="H412" s="11"/>
-      <c r="I412" s="11"/>
-      <c r="J412" s="11"/>
-      <c r="K412" s="11"/>
-    </row>
-    <row r="413" spans="2:11" ht="15" customHeight="1">
-      <c r="B413" s="10" t="s">
+      <c r="F412" s="12"/>
+      <c r="G412" s="12"/>
+      <c r="H412" s="12"/>
+      <c r="I412" s="12"/>
+      <c r="J412" s="12"/>
+      <c r="K412" s="12"/>
+    </row>
+    <row r="413" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B413" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C413" s="10"/>
-      <c r="D413" s="10"/>
-      <c r="E413" s="11" t="s">
+      <c r="C413" s="11"/>
+      <c r="D413" s="11"/>
+      <c r="E413" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="F413" s="11"/>
-      <c r="G413" s="11"/>
-      <c r="H413" s="11"/>
-      <c r="I413" s="11"/>
-      <c r="J413" s="11"/>
-      <c r="K413" s="11"/>
-    </row>
-    <row r="414" spans="2:11" ht="15" customHeight="1">
-      <c r="B414" s="10" t="s">
+      <c r="F413" s="12"/>
+      <c r="G413" s="12"/>
+      <c r="H413" s="12"/>
+      <c r="I413" s="12"/>
+      <c r="J413" s="12"/>
+      <c r="K413" s="12"/>
+    </row>
+    <row r="414" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B414" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C414" s="10"/>
-      <c r="D414" s="10"/>
-      <c r="E414" s="11" t="s">
+      <c r="C414" s="11"/>
+      <c r="D414" s="11"/>
+      <c r="E414" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="F414" s="11"/>
-      <c r="G414" s="11"/>
-      <c r="H414" s="11"/>
-      <c r="I414" s="11"/>
-      <c r="J414" s="11"/>
-      <c r="K414" s="11"/>
-    </row>
-    <row r="415" spans="2:11" ht="15" customHeight="1">
-      <c r="B415" s="10" t="s">
+      <c r="F414" s="12"/>
+      <c r="G414" s="12"/>
+      <c r="H414" s="12"/>
+      <c r="I414" s="12"/>
+      <c r="J414" s="12"/>
+      <c r="K414" s="12"/>
+    </row>
+    <row r="415" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B415" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C415" s="10"/>
-      <c r="D415" s="10"/>
-      <c r="E415" s="11" t="s">
+      <c r="C415" s="11"/>
+      <c r="D415" s="11"/>
+      <c r="E415" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="F415" s="11"/>
-      <c r="G415" s="11"/>
-      <c r="H415" s="11"/>
-      <c r="I415" s="11"/>
-      <c r="J415" s="11"/>
-      <c r="K415" s="11"/>
-    </row>
-    <row r="416" spans="2:11" ht="15" customHeight="1">
-      <c r="B416" s="10" t="s">
+      <c r="F415" s="12"/>
+      <c r="G415" s="12"/>
+      <c r="H415" s="12"/>
+      <c r="I415" s="12"/>
+      <c r="J415" s="12"/>
+      <c r="K415" s="12"/>
+    </row>
+    <row r="416" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B416" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C416" s="10"/>
-      <c r="D416" s="10"/>
-      <c r="E416" s="11" t="s">
+      <c r="C416" s="11"/>
+      <c r="D416" s="11"/>
+      <c r="E416" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="F416" s="11"/>
-      <c r="G416" s="11"/>
-      <c r="H416" s="11"/>
-      <c r="I416" s="11"/>
-      <c r="J416" s="11"/>
-      <c r="K416" s="11"/>
-    </row>
-    <row r="417" spans="2:11" ht="15" customHeight="1">
-      <c r="B417" s="10" t="s">
+      <c r="F416" s="12"/>
+      <c r="G416" s="12"/>
+      <c r="H416" s="12"/>
+      <c r="I416" s="12"/>
+      <c r="J416" s="12"/>
+      <c r="K416" s="12"/>
+    </row>
+    <row r="417" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B417" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C417" s="10"/>
-      <c r="D417" s="10"/>
-      <c r="E417" s="11" t="s">
+      <c r="C417" s="11"/>
+      <c r="D417" s="11"/>
+      <c r="E417" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="F417" s="11"/>
-      <c r="G417" s="11"/>
-      <c r="H417" s="11"/>
-      <c r="I417" s="11"/>
-      <c r="J417" s="11"/>
-      <c r="K417" s="11"/>
-    </row>
-    <row r="418" spans="2:11" ht="15" customHeight="1">
-      <c r="B418" s="10" t="s">
+      <c r="F417" s="12"/>
+      <c r="G417" s="12"/>
+      <c r="H417" s="12"/>
+      <c r="I417" s="12"/>
+      <c r="J417" s="12"/>
+      <c r="K417" s="12"/>
+    </row>
+    <row r="418" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B418" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C418" s="10"/>
-      <c r="D418" s="10"/>
-      <c r="E418" s="11" t="s">
+      <c r="C418" s="11"/>
+      <c r="D418" s="11"/>
+      <c r="E418" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="F418" s="11"/>
-      <c r="G418" s="11"/>
-      <c r="H418" s="11"/>
-      <c r="I418" s="11"/>
-      <c r="J418" s="11"/>
-      <c r="K418" s="11"/>
-    </row>
-    <row r="419" spans="2:11" ht="15" customHeight="1">
-      <c r="B419" s="10" t="s">
+      <c r="F418" s="12"/>
+      <c r="G418" s="12"/>
+      <c r="H418" s="12"/>
+      <c r="I418" s="12"/>
+      <c r="J418" s="12"/>
+      <c r="K418" s="12"/>
+    </row>
+    <row r="419" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B419" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C419" s="10"/>
-      <c r="D419" s="10"/>
-      <c r="E419" s="11" t="s">
+      <c r="C419" s="11"/>
+      <c r="D419" s="11"/>
+      <c r="E419" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="F419" s="11"/>
-      <c r="G419" s="11"/>
-      <c r="H419" s="11"/>
-      <c r="I419" s="11"/>
-      <c r="J419" s="11"/>
-      <c r="K419" s="11"/>
-    </row>
-    <row r="420" spans="2:11" ht="15" customHeight="1">
-      <c r="B420" s="10" t="s">
+      <c r="F419" s="12"/>
+      <c r="G419" s="12"/>
+      <c r="H419" s="12"/>
+      <c r="I419" s="12"/>
+      <c r="J419" s="12"/>
+      <c r="K419" s="12"/>
+    </row>
+    <row r="420" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B420" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C420" s="10"/>
-      <c r="D420" s="10"/>
-      <c r="E420" s="11" t="s">
+      <c r="C420" s="11"/>
+      <c r="D420" s="11"/>
+      <c r="E420" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="F420" s="11"/>
-      <c r="G420" s="11"/>
-      <c r="H420" s="11"/>
-      <c r="I420" s="11"/>
-      <c r="J420" s="11"/>
-      <c r="K420" s="11"/>
-    </row>
-    <row r="421" spans="2:11" ht="15" customHeight="1">
-      <c r="B421" s="10" t="s">
+      <c r="F420" s="12"/>
+      <c r="G420" s="12"/>
+      <c r="H420" s="12"/>
+      <c r="I420" s="12"/>
+      <c r="J420" s="12"/>
+      <c r="K420" s="12"/>
+    </row>
+    <row r="421" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B421" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C421" s="10"/>
-      <c r="D421" s="10"/>
-      <c r="E421" s="11" t="s">
+      <c r="C421" s="11"/>
+      <c r="D421" s="11"/>
+      <c r="E421" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="F421" s="11"/>
-      <c r="G421" s="11"/>
-      <c r="H421" s="11"/>
-      <c r="I421" s="11"/>
-      <c r="J421" s="11"/>
-      <c r="K421" s="11"/>
-    </row>
-    <row r="422" spans="2:11" ht="15" customHeight="1">
-      <c r="B422" s="10" t="s">
+      <c r="F421" s="12"/>
+      <c r="G421" s="12"/>
+      <c r="H421" s="12"/>
+      <c r="I421" s="12"/>
+      <c r="J421" s="12"/>
+      <c r="K421" s="12"/>
+    </row>
+    <row r="422" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B422" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C422" s="10"/>
-      <c r="D422" s="10"/>
-      <c r="E422" s="11" t="s">
+      <c r="C422" s="11"/>
+      <c r="D422" s="11"/>
+      <c r="E422" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F422" s="11"/>
-      <c r="G422" s="11"/>
-      <c r="H422" s="11"/>
-      <c r="I422" s="11"/>
-      <c r="J422" s="11"/>
-      <c r="K422" s="11"/>
-    </row>
-    <row r="425" spans="2:11" ht="19.5">
+      <c r="F422" s="12"/>
+      <c r="G422" s="12"/>
+      <c r="H422" s="12"/>
+      <c r="I422" s="12"/>
+      <c r="J422" s="12"/>
+      <c r="K422" s="12"/>
+    </row>
+    <row r="425" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B425" s="9" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="426" spans="2:11">
-      <c r="B426" s="12" t="s">
+    <row r="426" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B426" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C426" s="12"/>
-      <c r="D426" s="12"/>
-      <c r="E426" s="12" t="s">
+      <c r="C426" s="13"/>
+      <c r="D426" s="13"/>
+      <c r="E426" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="F426" s="12"/>
-      <c r="G426" s="12"/>
-      <c r="H426" s="12"/>
-      <c r="I426" s="12"/>
-      <c r="J426" s="12"/>
-      <c r="K426" s="12"/>
-    </row>
-    <row r="427" spans="2:11">
-      <c r="B427" s="10" t="s">
+      <c r="F426" s="13"/>
+      <c r="G426" s="13"/>
+      <c r="H426" s="13"/>
+      <c r="I426" s="13"/>
+      <c r="J426" s="13"/>
+      <c r="K426" s="13"/>
+    </row>
+    <row r="427" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B427" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C427" s="10"/>
-      <c r="D427" s="10"/>
-      <c r="E427" s="11" t="s">
+      <c r="C427" s="11"/>
+      <c r="D427" s="11"/>
+      <c r="E427" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="F427" s="11"/>
-      <c r="G427" s="11"/>
-      <c r="H427" s="11"/>
-      <c r="I427" s="11"/>
-      <c r="J427" s="11"/>
-      <c r="K427" s="11"/>
-    </row>
-    <row r="428" spans="2:11">
-      <c r="B428" s="10" t="s">
+      <c r="F427" s="12"/>
+      <c r="G427" s="12"/>
+      <c r="H427" s="12"/>
+      <c r="I427" s="12"/>
+      <c r="J427" s="12"/>
+      <c r="K427" s="12"/>
+    </row>
+    <row r="428" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B428" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C428" s="10"/>
-      <c r="D428" s="10"/>
-      <c r="E428" s="11" t="s">
+      <c r="C428" s="11"/>
+      <c r="D428" s="11"/>
+      <c r="E428" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F428" s="11"/>
-      <c r="G428" s="11"/>
-      <c r="H428" s="11"/>
-      <c r="I428" s="11"/>
-      <c r="J428" s="11"/>
-      <c r="K428" s="11"/>
-    </row>
-    <row r="429" spans="2:11">
-      <c r="B429" s="10" t="s">
+      <c r="F428" s="12"/>
+      <c r="G428" s="12"/>
+      <c r="H428" s="12"/>
+      <c r="I428" s="12"/>
+      <c r="J428" s="12"/>
+      <c r="K428" s="12"/>
+    </row>
+    <row r="429" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B429" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C429" s="10"/>
-      <c r="D429" s="10"/>
-      <c r="E429" s="11" t="s">
+      <c r="C429" s="11"/>
+      <c r="D429" s="11"/>
+      <c r="E429" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="F429" s="11"/>
-      <c r="G429" s="11"/>
-      <c r="H429" s="11"/>
-      <c r="I429" s="11"/>
-      <c r="J429" s="11"/>
-      <c r="K429" s="11"/>
-    </row>
-    <row r="430" spans="2:11">
-      <c r="B430" s="10" t="s">
+      <c r="F429" s="12"/>
+      <c r="G429" s="12"/>
+      <c r="H429" s="12"/>
+      <c r="I429" s="12"/>
+      <c r="J429" s="12"/>
+      <c r="K429" s="12"/>
+    </row>
+    <row r="430" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B430" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C430" s="10"/>
-      <c r="D430" s="10"/>
-      <c r="E430" s="11" t="s">
+      <c r="C430" s="11"/>
+      <c r="D430" s="11"/>
+      <c r="E430" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="F430" s="11"/>
-      <c r="G430" s="11"/>
-      <c r="H430" s="11"/>
-      <c r="I430" s="11"/>
-      <c r="J430" s="11"/>
-      <c r="K430" s="11"/>
-    </row>
-    <row r="431" spans="2:11">
-      <c r="B431" s="10" t="s">
+      <c r="F430" s="12"/>
+      <c r="G430" s="12"/>
+      <c r="H430" s="12"/>
+      <c r="I430" s="12"/>
+      <c r="J430" s="12"/>
+      <c r="K430" s="12"/>
+    </row>
+    <row r="431" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B431" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C431" s="10"/>
-      <c r="D431" s="10"/>
-      <c r="E431" s="11" t="s">
+      <c r="C431" s="11"/>
+      <c r="D431" s="11"/>
+      <c r="E431" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="F431" s="11"/>
-      <c r="G431" s="11"/>
-      <c r="H431" s="11"/>
-      <c r="I431" s="11"/>
-      <c r="J431" s="11"/>
-      <c r="K431" s="11"/>
-    </row>
-    <row r="432" spans="2:11">
+      <c r="F431" s="12"/>
+      <c r="G431" s="12"/>
+      <c r="H431" s="12"/>
+      <c r="I431" s="12"/>
+      <c r="J431" s="12"/>
+      <c r="K431" s="12"/>
+    </row>
+    <row r="432" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="2:11">
+    <row r="433" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B433" t="s">
         <v>326</v>
       </c>
       <c r="E433"/>
     </row>
-    <row r="434" spans="2:11" ht="19.5">
+    <row r="434" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B434" s="9" t="s">
         <v>354</v>
       </c>
       <c r="E434"/>
     </row>
-    <row r="435" spans="2:11">
-      <c r="B435" s="12" t="s">
+    <row r="435" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B435" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="C435" s="12"/>
-      <c r="D435" s="12"/>
-      <c r="E435" s="12" t="s">
+      <c r="C435" s="13"/>
+      <c r="D435" s="13"/>
+      <c r="E435" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="F435" s="12"/>
-      <c r="G435" s="12"/>
-      <c r="H435" s="12"/>
-      <c r="I435" s="12"/>
-      <c r="J435" s="12"/>
-      <c r="K435" s="12"/>
-    </row>
-    <row r="436" spans="2:11">
-      <c r="B436" s="10" t="s">
+      <c r="F435" s="13"/>
+      <c r="G435" s="13"/>
+      <c r="H435" s="13"/>
+      <c r="I435" s="13"/>
+      <c r="J435" s="13"/>
+      <c r="K435" s="13"/>
+    </row>
+    <row r="436" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B436" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C436" s="10"/>
-      <c r="D436" s="10"/>
-      <c r="E436" s="11" t="s">
+      <c r="C436" s="11"/>
+      <c r="D436" s="11"/>
+      <c r="E436" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="F436" s="11"/>
-      <c r="G436" s="11"/>
-      <c r="H436" s="11"/>
-      <c r="I436" s="11"/>
-      <c r="J436" s="11"/>
-      <c r="K436" s="11"/>
-    </row>
-    <row r="437" spans="2:11">
-      <c r="B437" s="10" t="s">
+      <c r="F436" s="12"/>
+      <c r="G436" s="12"/>
+      <c r="H436" s="12"/>
+      <c r="I436" s="12"/>
+      <c r="J436" s="12"/>
+      <c r="K436" s="12"/>
+    </row>
+    <row r="437" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B437" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="C437" s="10"/>
-      <c r="D437" s="10"/>
-      <c r="E437" s="11" t="s">
+      <c r="C437" s="11"/>
+      <c r="D437" s="11"/>
+      <c r="E437" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="F437" s="11"/>
-      <c r="G437" s="11"/>
-      <c r="H437" s="11"/>
-      <c r="I437" s="11"/>
-      <c r="J437" s="11"/>
-      <c r="K437" s="11"/>
-    </row>
-    <row r="438" spans="2:11">
-      <c r="B438" s="10" t="s">
+      <c r="F437" s="12"/>
+      <c r="G437" s="12"/>
+      <c r="H437" s="12"/>
+      <c r="I437" s="12"/>
+      <c r="J437" s="12"/>
+      <c r="K437" s="12"/>
+    </row>
+    <row r="438" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B438" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C438" s="10"/>
-      <c r="D438" s="10"/>
-      <c r="E438" s="11" t="s">
+      <c r="C438" s="11"/>
+      <c r="D438" s="11"/>
+      <c r="E438" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="F438" s="11"/>
-      <c r="G438" s="11"/>
-      <c r="H438" s="11"/>
-      <c r="I438" s="11"/>
-      <c r="J438" s="11"/>
-      <c r="K438" s="11"/>
-    </row>
-    <row r="439" spans="2:11">
-      <c r="B439" s="10" t="s">
+      <c r="F438" s="12"/>
+      <c r="G438" s="12"/>
+      <c r="H438" s="12"/>
+      <c r="I438" s="12"/>
+      <c r="J438" s="12"/>
+      <c r="K438" s="12"/>
+    </row>
+    <row r="439" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B439" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="C439" s="10"/>
-      <c r="D439" s="10"/>
-      <c r="E439" s="11" t="s">
+      <c r="C439" s="11"/>
+      <c r="D439" s="11"/>
+      <c r="E439" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="F439" s="11"/>
-      <c r="G439" s="11"/>
-      <c r="H439" s="11"/>
-      <c r="I439" s="11"/>
-      <c r="J439" s="11"/>
-      <c r="K439" s="11"/>
-    </row>
-    <row r="440" spans="2:11">
-      <c r="B440" s="10" t="s">
+      <c r="F439" s="12"/>
+      <c r="G439" s="12"/>
+      <c r="H439" s="12"/>
+      <c r="I439" s="12"/>
+      <c r="J439" s="12"/>
+      <c r="K439" s="12"/>
+    </row>
+    <row r="440" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B440" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="C440" s="10"/>
-      <c r="D440" s="10"/>
-      <c r="E440" s="11" t="s">
+      <c r="C440" s="11"/>
+      <c r="D440" s="11"/>
+      <c r="E440" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="F440" s="11"/>
-      <c r="G440" s="11"/>
-      <c r="H440" s="11"/>
-      <c r="I440" s="11"/>
-      <c r="J440" s="11"/>
-      <c r="K440" s="11"/>
-    </row>
-    <row r="441" spans="2:11">
-      <c r="B441" s="10" t="s">
+      <c r="F440" s="12"/>
+      <c r="G440" s="12"/>
+      <c r="H440" s="12"/>
+      <c r="I440" s="12"/>
+      <c r="J440" s="12"/>
+      <c r="K440" s="12"/>
+    </row>
+    <row r="441" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B441" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="C441" s="10"/>
-      <c r="D441" s="10"/>
-      <c r="E441" s="11" t="s">
+      <c r="C441" s="11"/>
+      <c r="D441" s="11"/>
+      <c r="E441" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="F441" s="11"/>
-      <c r="G441" s="11"/>
-      <c r="H441" s="11"/>
-      <c r="I441" s="11"/>
-      <c r="J441" s="11"/>
-      <c r="K441" s="11"/>
-    </row>
-    <row r="442" spans="2:11">
-      <c r="B442" s="10" t="s">
+      <c r="F441" s="12"/>
+      <c r="G441" s="12"/>
+      <c r="H441" s="12"/>
+      <c r="I441" s="12"/>
+      <c r="J441" s="12"/>
+      <c r="K441" s="12"/>
+    </row>
+    <row r="442" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B442" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C442" s="10"/>
-      <c r="D442" s="10"/>
-      <c r="E442" s="11" t="s">
+      <c r="C442" s="11"/>
+      <c r="D442" s="11"/>
+      <c r="E442" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="F442" s="11"/>
-      <c r="G442" s="11"/>
-      <c r="H442" s="11"/>
-      <c r="I442" s="11"/>
-      <c r="J442" s="11"/>
-      <c r="K442" s="11"/>
-    </row>
-    <row r="443" spans="2:11">
-      <c r="B443" s="10" t="s">
+      <c r="F442" s="12"/>
+      <c r="G442" s="12"/>
+      <c r="H442" s="12"/>
+      <c r="I442" s="12"/>
+      <c r="J442" s="12"/>
+      <c r="K442" s="12"/>
+    </row>
+    <row r="443" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B443" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="C443" s="10"/>
-      <c r="D443" s="10"/>
-      <c r="E443" s="11" t="s">
+      <c r="C443" s="11"/>
+      <c r="D443" s="11"/>
+      <c r="E443" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="F443" s="11"/>
-      <c r="G443" s="11"/>
-      <c r="H443" s="11"/>
-      <c r="I443" s="11"/>
-      <c r="J443" s="11"/>
-      <c r="K443" s="11"/>
-    </row>
-    <row r="444" spans="2:11">
-      <c r="B444" s="10" t="s">
+      <c r="F443" s="12"/>
+      <c r="G443" s="12"/>
+      <c r="H443" s="12"/>
+      <c r="I443" s="12"/>
+      <c r="J443" s="12"/>
+      <c r="K443" s="12"/>
+    </row>
+    <row r="444" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B444" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C444" s="10"/>
-      <c r="D444" s="10"/>
-      <c r="E444" s="11" t="s">
+      <c r="C444" s="11"/>
+      <c r="D444" s="11"/>
+      <c r="E444" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="F444" s="11"/>
-      <c r="G444" s="11"/>
-      <c r="H444" s="11"/>
-      <c r="I444" s="11"/>
-      <c r="J444" s="11"/>
-      <c r="K444" s="11"/>
-    </row>
-    <row r="445" spans="2:11">
-      <c r="B445" s="10" t="s">
+      <c r="F444" s="12"/>
+      <c r="G444" s="12"/>
+      <c r="H444" s="12"/>
+      <c r="I444" s="12"/>
+      <c r="J444" s="12"/>
+      <c r="K444" s="12"/>
+    </row>
+    <row r="445" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B445" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C445" s="10"/>
-      <c r="D445" s="10"/>
-      <c r="E445" s="11" t="s">
+      <c r="C445" s="11"/>
+      <c r="D445" s="11"/>
+      <c r="E445" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="F445" s="11"/>
-      <c r="G445" s="11"/>
-      <c r="H445" s="11"/>
-      <c r="I445" s="11"/>
-      <c r="J445" s="11"/>
-      <c r="K445" s="11"/>
-    </row>
-    <row r="446" spans="2:11">
-      <c r="B446" s="10" t="s">
+      <c r="F445" s="12"/>
+      <c r="G445" s="12"/>
+      <c r="H445" s="12"/>
+      <c r="I445" s="12"/>
+      <c r="J445" s="12"/>
+      <c r="K445" s="12"/>
+    </row>
+    <row r="446" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B446" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C446" s="10"/>
-      <c r="D446" s="10"/>
-      <c r="E446" s="11" t="s">
+      <c r="C446" s="11"/>
+      <c r="D446" s="11"/>
+      <c r="E446" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="F446" s="11"/>
-      <c r="G446" s="11"/>
-      <c r="H446" s="11"/>
-      <c r="I446" s="11"/>
-      <c r="J446" s="11"/>
-      <c r="K446" s="11"/>
-    </row>
-    <row r="447" spans="2:11">
-      <c r="B447" s="10" t="s">
+      <c r="F446" s="12"/>
+      <c r="G446" s="12"/>
+      <c r="H446" s="12"/>
+      <c r="I446" s="12"/>
+      <c r="J446" s="12"/>
+      <c r="K446" s="12"/>
+    </row>
+    <row r="447" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B447" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C447" s="10"/>
-      <c r="D447" s="10"/>
-      <c r="E447" s="11" t="s">
+      <c r="C447" s="11"/>
+      <c r="D447" s="11"/>
+      <c r="E447" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="F447" s="11"/>
-      <c r="G447" s="11"/>
-      <c r="H447" s="11"/>
-      <c r="I447" s="11"/>
-      <c r="J447" s="11"/>
-      <c r="K447" s="11"/>
-    </row>
-    <row r="448" spans="2:11">
-      <c r="B448" s="10" t="s">
+      <c r="F447" s="12"/>
+      <c r="G447" s="12"/>
+      <c r="H447" s="12"/>
+      <c r="I447" s="12"/>
+      <c r="J447" s="12"/>
+      <c r="K447" s="12"/>
+    </row>
+    <row r="448" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B448" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="C448" s="10"/>
-      <c r="D448" s="10"/>
-      <c r="E448" s="11" t="s">
+      <c r="C448" s="11"/>
+      <c r="D448" s="11"/>
+      <c r="E448" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="F448" s="11"/>
-      <c r="G448" s="11"/>
-      <c r="H448" s="11"/>
-      <c r="I448" s="11"/>
-      <c r="J448" s="11"/>
-      <c r="K448" s="11"/>
-    </row>
-    <row r="450" spans="1:14" s="3" customFormat="1">
+      <c r="F448" s="12"/>
+      <c r="G448" s="12"/>
+      <c r="H448" s="12"/>
+      <c r="I448" s="12"/>
+      <c r="J448" s="12"/>
+      <c r="K448" s="12"/>
+    </row>
+    <row r="450" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A450" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="452" spans="1:14">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B452" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="453" spans="1:14">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B453" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="454" spans="1:14">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B454" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="455" spans="1:14">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B455" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="456" spans="1:14">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B456" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="457" spans="1:14">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B457" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="458" spans="1:14">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B458" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="459" spans="1:14">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B459" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="460" spans="1:14">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B460" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="462" spans="1:14" s="3" customFormat="1">
+    <row r="462" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A462" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="464" spans="1:14">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B464" s="8" t="s">
         <v>385</v>
       </c>
@@ -6303,7 +7709,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="465" spans="2:16">
+    <row r="465" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B465" s="1" t="s">
         <v>387</v>
       </c>
@@ -6314,7 +7720,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="466" spans="2:16">
+    <row r="466" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C466" s="1" t="s">
         <v>42</v>
       </c>
@@ -6322,7 +7728,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="467" spans="2:16">
+    <row r="467" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D467" s="1" t="s">
         <v>366</v>
       </c>
@@ -6330,12 +7736,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="468" spans="2:16">
+    <row r="468" spans="2:16" x14ac:dyDescent="0.15">
       <c r="O468" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="469" spans="2:16">
+    <row r="469" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B469" s="1" t="s">
         <v>367</v>
       </c>
@@ -6343,7 +7749,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="470" spans="2:16">
+    <row r="470" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B470" s="1" t="s">
         <v>368</v>
       </c>
@@ -6351,7 +7757,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="471" spans="2:16">
+    <row r="471" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B471" s="1" t="s">
         <v>369</v>
       </c>
@@ -6359,7 +7765,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="472" spans="2:16">
+    <row r="472" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B472" s="1" t="s">
         <v>370</v>
       </c>
@@ -6367,12 +7773,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="473" spans="2:16">
+    <row r="473" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B473" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="474" spans="2:16">
+    <row r="474" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B474" s="1" t="s">
         <v>372</v>
       </c>
@@ -6380,7 +7786,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="475" spans="2:16">
+    <row r="475" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B475" s="1" t="s">
         <v>373</v>
       </c>
@@ -6388,7 +7794,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="476" spans="2:16">
+    <row r="476" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B476" s="1" t="s">
         <v>374</v>
       </c>
@@ -6396,7 +7802,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="477" spans="2:16">
+    <row r="477" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B477" s="1" t="s">
         <v>375</v>
       </c>
@@ -6404,7 +7810,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="478" spans="2:16">
+    <row r="478" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B478" s="1" t="s">
         <v>376</v>
       </c>
@@ -6412,7 +7818,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="479" spans="2:16">
+    <row r="479" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B479" s="1" t="s">
         <v>377</v>
       </c>
@@ -6420,7 +7826,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="480" spans="2:16">
+    <row r="480" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B480" s="1" t="s">
         <v>63</v>
       </c>
@@ -6428,12 +7834,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="481" spans="2:16">
+    <row r="481" spans="2:16" x14ac:dyDescent="0.15">
       <c r="N481" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="482" spans="2:16">
+    <row r="482" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B482" s="8" t="s">
         <v>386</v>
       </c>
@@ -6441,7 +7847,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="483" spans="2:16">
+    <row r="483" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B483" s="1" t="s">
         <v>378</v>
       </c>
@@ -6449,7 +7855,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="484" spans="2:16">
+    <row r="484" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C484" s="1" t="s">
         <v>379</v>
       </c>
@@ -6457,7 +7863,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="485" spans="2:16">
+    <row r="485" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D485" s="1" t="s">
         <v>366</v>
       </c>
@@ -6465,12 +7871,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="486" spans="2:16">
+    <row r="486" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P486" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="487" spans="2:16">
+    <row r="487" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B487" s="1" t="s">
         <v>367</v>
       </c>
@@ -6478,7 +7884,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="488" spans="2:16">
+    <row r="488" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B488" s="1" t="s">
         <v>95</v>
       </c>
@@ -6486,12 +7892,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="489" spans="2:16">
+    <row r="489" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B489" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="490" spans="2:16">
+    <row r="490" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B490" s="1" t="s">
         <v>381</v>
       </c>
@@ -6499,7 +7905,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="491" spans="2:16">
+    <row r="491" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B491" s="1" t="s">
         <v>382</v>
       </c>
@@ -6507,7 +7913,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="492" spans="2:16">
+    <row r="492" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B492" s="1" t="s">
         <v>383</v>
       </c>
@@ -6515,7 +7921,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="493" spans="2:16">
+    <row r="493" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B493" s="1" t="s">
         <v>368</v>
       </c>
@@ -6523,7 +7929,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="494" spans="2:16">
+    <row r="494" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B494" s="1" t="s">
         <v>369</v>
       </c>
@@ -6531,7 +7937,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="495" spans="2:16">
+    <row r="495" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B495" s="1" t="s">
         <v>370</v>
       </c>
@@ -6539,7 +7945,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="496" spans="2:16">
+    <row r="496" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B496" s="1" t="s">
         <v>371</v>
       </c>
@@ -6547,7 +7953,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="497" spans="2:16">
+    <row r="497" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B497" s="1" t="s">
         <v>372</v>
       </c>
@@ -6555,7 +7961,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="498" spans="2:16">
+    <row r="498" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B498" s="1" t="s">
         <v>384</v>
       </c>
@@ -6563,7 +7969,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="499" spans="2:16">
+    <row r="499" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B499" s="1" t="s">
         <v>368</v>
       </c>
@@ -6571,7 +7977,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="500" spans="2:16">
+    <row r="500" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B500" s="1" t="s">
         <v>369</v>
       </c>
@@ -6579,7 +7985,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="501" spans="2:16">
+    <row r="501" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B501" s="1" t="s">
         <v>370</v>
       </c>
@@ -6587,7 +7993,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="502" spans="2:16">
+    <row r="502" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B502" s="1" t="s">
         <v>371</v>
       </c>
@@ -6595,7 +8001,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="503" spans="2:16">
+    <row r="503" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B503" s="1" t="s">
         <v>372</v>
       </c>
@@ -6603,7 +8009,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="504" spans="2:16">
+    <row r="504" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B504" s="1" t="s">
         <v>373</v>
       </c>
@@ -6611,7 +8017,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="505" spans="2:16">
+    <row r="505" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B505" s="1" t="s">
         <v>374</v>
       </c>
@@ -6619,7 +8025,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="506" spans="2:16">
+    <row r="506" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B506" s="1" t="s">
         <v>375</v>
       </c>
@@ -6627,7 +8033,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="507" spans="2:16">
+    <row r="507" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B507" s="1" t="s">
         <v>376</v>
       </c>
@@ -6635,7 +8041,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="508" spans="2:16">
+    <row r="508" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B508" s="1" t="s">
         <v>63</v>
       </c>
@@ -6643,12 +8049,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="509" spans="2:16">
+    <row r="509" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P509" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="510" spans="2:16">
+    <row r="510" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B510" s="8" t="s">
         <v>396</v>
       </c>
@@ -6656,7 +8062,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="511" spans="2:16">
+    <row r="511" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B511" s="1" t="s">
         <v>378</v>
       </c>
@@ -6664,12 +8070,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="512" spans="2:16">
+    <row r="512" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C512" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="513" spans="2:16">
+    <row r="513" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C513" s="1" t="s">
         <v>379</v>
       </c>
@@ -6677,7 +8083,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="514" spans="2:16">
+    <row r="514" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D514" s="1" t="s">
         <v>366</v>
       </c>
@@ -6685,7 +8091,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="515" spans="2:16">
+    <row r="515" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D515" s="1" t="s">
         <v>390</v>
       </c>
@@ -6693,7 +8099,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="516" spans="2:16">
+    <row r="516" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C516" s="4" t="s">
         <v>391</v>
       </c>
@@ -6701,12 +8107,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="517" spans="2:16">
+    <row r="517" spans="2:16" x14ac:dyDescent="0.15">
       <c r="N517" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="518" spans="2:16">
+    <row r="518" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B518" s="1" t="s">
         <v>384</v>
       </c>
@@ -6714,7 +8120,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="519" spans="2:16">
+    <row r="519" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B519" s="1" t="s">
         <v>368</v>
       </c>
@@ -6722,7 +8128,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="520" spans="2:16">
+    <row r="520" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B520" s="1" t="s">
         <v>369</v>
       </c>
@@ -6730,7 +8136,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="521" spans="2:16">
+    <row r="521" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B521" s="1" t="s">
         <v>370</v>
       </c>
@@ -6738,7 +8144,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="522" spans="2:16">
+    <row r="522" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B522" s="1" t="s">
         <v>371</v>
       </c>
@@ -6746,7 +8152,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="523" spans="2:16">
+    <row r="523" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B523" s="1" t="s">
         <v>372</v>
       </c>
@@ -6754,7 +8160,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="524" spans="2:16">
+    <row r="524" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B524" s="1" t="s">
         <v>373</v>
       </c>
@@ -6762,7 +8168,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="525" spans="2:16">
+    <row r="525" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B525" s="1" t="s">
         <v>374</v>
       </c>
@@ -6770,7 +8176,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="526" spans="2:16">
+    <row r="526" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B526" s="1" t="s">
         <v>375</v>
       </c>
@@ -6778,7 +8184,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="527" spans="2:16">
+    <row r="527" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B527" s="1" t="s">
         <v>376</v>
       </c>
@@ -6786,12 +8192,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="528" spans="2:16">
+    <row r="528" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B528" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="529" spans="2:14">
+    <row r="529" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B529" s="1" t="s">
         <v>393</v>
       </c>
@@ -6799,7 +8205,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="530" spans="2:14">
+    <row r="530" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B530" s="1" t="s">
         <v>368</v>
       </c>
@@ -6807,7 +8213,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="531" spans="2:14">
+    <row r="531" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B531" s="1" t="s">
         <v>369</v>
       </c>
@@ -6815,7 +8221,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="532" spans="2:14">
+    <row r="532" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B532" s="1" t="s">
         <v>370</v>
       </c>
@@ -6823,7 +8229,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="533" spans="2:14">
+    <row r="533" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B533" s="1" t="s">
         <v>371</v>
       </c>
@@ -6831,7 +8237,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="534" spans="2:14">
+    <row r="534" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B534" s="1" t="s">
         <v>372</v>
       </c>
@@ -6839,7 +8245,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="535" spans="2:14">
+    <row r="535" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B535" s="1" t="s">
         <v>394</v>
       </c>
@@ -6847,7 +8253,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="536" spans="2:14">
+    <row r="536" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B536" s="1" t="s">
         <v>395</v>
       </c>
@@ -6855,7 +8261,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="537" spans="2:14">
+    <row r="537" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B537" s="1" t="s">
         <v>30</v>
       </c>
@@ -6863,191 +8269,305 @@
         <v>368</v>
       </c>
     </row>
-    <row r="538" spans="2:14">
+    <row r="538" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N538" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="539" spans="2:14">
+    <row r="539" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N539" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="540" spans="2:14">
+    <row r="540" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N540" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="541" spans="2:14">
+    <row r="541" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N541" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="542" spans="2:14">
+    <row r="542" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N542" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="543" spans="2:14">
+    <row r="543" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N543" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="544" spans="2:14">
+    <row r="544" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N544" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="545" spans="1:14">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N545" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="546" spans="1:14">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N546" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="547" spans="1:14">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N547" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="548" spans="1:14">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N548" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="549" spans="1:14">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N549" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="550" spans="1:14">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N550" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="551" spans="1:14">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N551" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="552" spans="1:14">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N552" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="553" spans="1:14">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N553" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="554" spans="1:14">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N554" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="555" spans="1:14">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N555" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="556" spans="1:14">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N556" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="557" spans="1:14">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N557" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="559" spans="1:14" s="3" customFormat="1">
+    <row r="559" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A559" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="562" spans="2:3">
-      <c r="B562" s="13"/>
-    </row>
-    <row r="575" spans="2:3">
+    <row r="562" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B562" s="10"/>
+    </row>
+    <row r="575" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C575" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="576" spans="2:3">
+    <row r="576" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C576" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C577" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C578" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C580" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C581" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C583" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="586" spans="1:3" s="3" customFormat="1">
+    <row r="586" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A586" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="612" spans="1:1" s="3" customFormat="1">
+    <row r="612" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A612" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="638" spans="1:2" s="3" customFormat="1">
+    <row r="638" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A638" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="640" spans="1:2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B640" s="1" t="s">
         <v>422</v>
       </c>
     </row>
+    <row r="657" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A657" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K672" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="677" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K677" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="M677" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A689" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A701" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K709" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="720" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A720" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="E447:K447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="E448:K448"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E380:K380"/>
+    <mergeCell ref="E381:K381"/>
+    <mergeCell ref="E364:K364"/>
+    <mergeCell ref="E365:K365"/>
+    <mergeCell ref="E366:K366"/>
+    <mergeCell ref="E367:K367"/>
+    <mergeCell ref="E368:K368"/>
+    <mergeCell ref="E369:K369"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="E416:K416"/>
+    <mergeCell ref="E417:K417"/>
+    <mergeCell ref="E385:K385"/>
+    <mergeCell ref="E370:K370"/>
+    <mergeCell ref="E371:K371"/>
+    <mergeCell ref="E372:K372"/>
+    <mergeCell ref="E373:K373"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
+    <mergeCell ref="E382:K382"/>
+    <mergeCell ref="E383:K383"/>
+    <mergeCell ref="E384:K384"/>
+    <mergeCell ref="E376:K376"/>
+    <mergeCell ref="E377:K377"/>
+    <mergeCell ref="E378:K378"/>
+    <mergeCell ref="E379:K379"/>
     <mergeCell ref="E386:K386"/>
     <mergeCell ref="E387:K387"/>
     <mergeCell ref="E374:K374"/>
@@ -7072,102 +8592,26 @@
     <mergeCell ref="B369:D369"/>
     <mergeCell ref="B370:D370"/>
     <mergeCell ref="B371:D371"/>
-    <mergeCell ref="E385:K385"/>
-    <mergeCell ref="E370:K370"/>
-    <mergeCell ref="E371:K371"/>
-    <mergeCell ref="E372:K372"/>
-    <mergeCell ref="E373:K373"/>
-    <mergeCell ref="E360:K360"/>
-    <mergeCell ref="E361:K361"/>
-    <mergeCell ref="E350:K350"/>
-    <mergeCell ref="E351:K351"/>
-    <mergeCell ref="E352:K352"/>
-    <mergeCell ref="E353:K353"/>
-    <mergeCell ref="E354:K354"/>
-    <mergeCell ref="E355:K355"/>
-    <mergeCell ref="E356:K356"/>
-    <mergeCell ref="E357:K357"/>
-    <mergeCell ref="E358:K358"/>
-    <mergeCell ref="E359:K359"/>
-    <mergeCell ref="E382:K382"/>
-    <mergeCell ref="E383:K383"/>
-    <mergeCell ref="E384:K384"/>
-    <mergeCell ref="E376:K376"/>
-    <mergeCell ref="E377:K377"/>
-    <mergeCell ref="E378:K378"/>
-    <mergeCell ref="E379:K379"/>
-    <mergeCell ref="E380:K380"/>
-    <mergeCell ref="E381:K381"/>
-    <mergeCell ref="E364:K364"/>
-    <mergeCell ref="E365:K365"/>
-    <mergeCell ref="E366:K366"/>
-    <mergeCell ref="E367:K367"/>
-    <mergeCell ref="E368:K368"/>
-    <mergeCell ref="E369:K369"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="E416:K416"/>
-    <mergeCell ref="E417:K417"/>
-    <mergeCell ref="E418:K418"/>
-    <mergeCell ref="E419:K419"/>
-    <mergeCell ref="E420:K420"/>
-    <mergeCell ref="E421:K421"/>
-    <mergeCell ref="E422:K422"/>
-    <mergeCell ref="E411:K411"/>
-    <mergeCell ref="E412:K412"/>
-    <mergeCell ref="E413:K413"/>
-    <mergeCell ref="E414:K414"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:K430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:K431"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:K436"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:K426"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:K435"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:K427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="E428:K428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:K429"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:K440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:K441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:K442"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:K438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:K439"/>
-    <mergeCell ref="B446:D446"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="B447:D447"/>
-    <mergeCell ref="E447:K447"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="E448:K448"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:K443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:K444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:K445"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="441">
   <si>
     <t>built-in functions</t>
   </si>
@@ -316,7 +316,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -669,7 +669,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -955,7 +955,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -977,7 +977,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -987,7 +987,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1017,7 +1017,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1032,7 +1032,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1047,7 +1047,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1062,7 +1062,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1077,7 +1077,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1092,7 +1092,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1107,7 +1107,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1122,7 +1122,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1137,7 +1137,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,7 +1152,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,7 +1167,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1182,7 +1182,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1197,7 +1197,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1212,7 +1212,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1227,7 +1227,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1242,7 +1242,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1257,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1272,7 +1272,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1287,7 +1287,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1302,7 +1302,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1317,7 +1317,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,7 +1332,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1347,7 +1347,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1365,7 +1365,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1380,7 +1380,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1395,7 +1395,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1425,7 +1425,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1440,7 +1440,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1455,7 +1455,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1470,7 +1470,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1485,7 +1485,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1500,7 +1500,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1515,7 +1515,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1533,7 +1533,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1548,7 +1548,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1563,7 +1563,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1578,7 +1578,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1593,7 +1593,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1608,7 +1608,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1623,7 +1623,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1638,7 +1638,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1653,7 +1653,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1668,7 +1668,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1683,7 +1683,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1698,7 +1698,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1713,7 +1713,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1728,7 +1728,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1743,7 +1743,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1758,7 +1758,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1773,7 +1773,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1788,7 +1788,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1803,7 +1803,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1818,7 +1818,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1833,7 +1833,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1848,7 +1848,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1863,7 +1863,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1878,7 +1878,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1893,7 +1893,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1908,7 +1908,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1923,7 +1923,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2038,7 +2038,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2048,7 +2048,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2059,7 +2059,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2202,30 +2202,60 @@
   <si>
     <t>global和nonlocal</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名函数(lambda)</t>
+  </si>
+  <si>
+    <t>执行简单的脚本；只是简单逻辑的调用，节省命名新函数的工作；简化代码，提高可读性（读代码的时候不用转到def部门）；</t>
+  </si>
+  <si>
+    <t>filter(参数1,参数2)</t>
+  </si>
+  <si>
+    <t>参数1：自定义函数</t>
+  </si>
+  <si>
+    <t>参数2：传进函数的parameter</t>
+  </si>
+  <si>
+    <t>参数2在参数1的函数里，计算之后的结果返回True的话，过滤成功！</t>
+  </si>
+  <si>
+    <t>filter()/map()</t>
+  </si>
+  <si>
+    <t>filter/map(参数1,参数2)</t>
+  </si>
+  <si>
+    <t>map(参数1,参数2)</t>
+  </si>
+  <si>
+    <t>参数2在参数1的函数里，全部计算并返回结果！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2233,7 +2263,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2242,7 +2272,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2251,7 +2281,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2265,7 +2295,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2335,6 +2365,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2344,10 +2375,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4757,11 +4787,608 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>786</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>801</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="157140088"/>
+          <a:ext cx="4392705" cy="2958353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; def ds(x):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	return x + x * 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; ds(5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>lambda x : x + x * 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;function &lt;lambda&gt; at 0x00000000036F1BF8&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; g = lambda x : x + x * 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; g(5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>h = lambda x, y : x + y</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; h(2, 4)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; g(10)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>60</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>806</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>828</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="160950088"/>
+          <a:ext cx="4392705" cy="4213412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; def compare(x):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	if x &gt; 4:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>		return x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; show = filter(compare,range(10))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; list(show)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[5, 6, 7, 8, 9]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; def test(x):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	return x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; filter(test(),range(10))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; filter(test,range(10))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;filter object at 0x00000000036F5978&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; show = filter(test,range(10))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; type(show)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;class 'filter'&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; list(show)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[1, 2, 3, 4, 5, 6, 7, 8, 9]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>829</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>835</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1221441" y="165488471"/>
+          <a:ext cx="4392705" cy="1064559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; list(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>filter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(lambda x : x % 2, range(10)))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[1, 3, 5, 7, 9]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; list(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>map</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(lambda x : x + 1, range(10)))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5047,98 +5674,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P720"/>
+  <dimension ref="A2:P819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A735" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R776" sqref="R776"/>
+    <sheetView tabSelected="1" topLeftCell="A802" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K829" sqref="K829"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
@@ -5155,7 +5782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
@@ -5166,67 +5793,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="E32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="E35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="E36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="E38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="E39" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="E40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" s="3" customFormat="1">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
@@ -5234,27 +5861,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" s="3" customFormat="1">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8">
       <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8">
       <c r="B54" s="1" t="s">
         <v>36</v>
       </c>
@@ -5268,7 +5895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8">
       <c r="E55" s="1" t="s">
         <v>40</v>
       </c>
@@ -5276,17 +5903,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8">
       <c r="B58" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8">
       <c r="B59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8">
       <c r="B60" s="4" t="s">
         <v>44</v>
       </c>
@@ -5296,42 +5923,42 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8">
       <c r="B61" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" s="3" customFormat="1">
       <c r="A63" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:7">
       <c r="B65" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:7">
       <c r="B66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:7">
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:7">
       <c r="B68" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:7">
       <c r="B69" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:7">
       <c r="B71" s="4" t="s">
         <v>65</v>
       </c>
@@ -5341,22 +5968,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:7">
       <c r="B73" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:7">
       <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:7">
       <c r="B75" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:7">
       <c r="B76" s="1" t="s">
         <v>56</v>
       </c>
@@ -5364,47 +5991,47 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:7">
       <c r="B77" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:7">
       <c r="B78" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:7">
       <c r="B79" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:7">
       <c r="B80" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:5">
       <c r="B81" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:5">
       <c r="B82" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:5">
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:5">
       <c r="B84" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:5">
       <c r="B87" s="4" t="s">
         <v>66</v>
       </c>
@@ -5414,32 +6041,32 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:5">
       <c r="B89" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:5">
       <c r="B91" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:5">
       <c r="B92" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:5">
       <c r="B93" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:5">
       <c r="B94" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:5">
       <c r="B97" s="4" t="s">
         <v>71</v>
       </c>
@@ -5449,27 +6076,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:5">
       <c r="B99" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:5">
       <c r="B100" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:5">
       <c r="B101" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:5">
       <c r="B102" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:5">
       <c r="B104" s="4" t="s">
         <v>75</v>
       </c>
@@ -5477,42 +6104,42 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:5">
       <c r="B106" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:5">
       <c r="B107" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:5">
       <c r="B108" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:5">
       <c r="B109" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:5">
       <c r="B110" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:5">
       <c r="B111" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:5">
       <c r="B112" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:8">
       <c r="B114" s="4" t="s">
         <v>81</v>
       </c>
@@ -5520,27 +6147,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:8">
       <c r="B116" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:8">
       <c r="B118" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:8">
       <c r="B119" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:8">
       <c r="B120" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:8">
       <c r="B121" s="1" t="s">
         <v>85</v>
       </c>
@@ -5548,97 +6175,97 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:8">
       <c r="B122" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:8">
       <c r="B123" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:8">
       <c r="B124" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:8">
       <c r="B125" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:8">
       <c r="B126" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:8">
       <c r="B127" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:8">
       <c r="B128" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:5">
       <c r="B129" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:5">
       <c r="B130" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:5">
       <c r="B131" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:5">
       <c r="B132" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:5">
       <c r="B133" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:5">
       <c r="B135" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:5">
       <c r="B136" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:5">
       <c r="B137" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:5">
       <c r="B138" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:5">
       <c r="B139" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:5">
       <c r="B140" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:5">
       <c r="B142" s="4" t="s">
         <v>81</v>
       </c>
@@ -5646,67 +6273,67 @@
         <v>92</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:5">
       <c r="B144" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:5">
       <c r="B145" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:5">
       <c r="B146" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:5">
       <c r="B147" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:5">
       <c r="B148" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:5">
       <c r="B149" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:5">
       <c r="B150" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:5">
       <c r="B151" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:5">
       <c r="B152" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:5">
       <c r="B153" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:5">
       <c r="B154" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:5">
       <c r="B155" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:5">
       <c r="B157" s="4" t="s">
         <v>104</v>
       </c>
@@ -5714,7 +6341,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:5">
       <c r="B160" s="4" t="s">
         <v>107</v>
       </c>
@@ -5722,52 +6349,52 @@
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4">
       <c r="B162" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4">
       <c r="B163" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4">
       <c r="B164" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4">
       <c r="B165" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4">
       <c r="B166" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4">
       <c r="B167" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4">
       <c r="B168" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" s="3" customFormat="1">
       <c r="A170" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4">
       <c r="B172" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4">
       <c r="B174" s="1" t="s">
         <v>113</v>
       </c>
@@ -5775,42 +6402,42 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4">
       <c r="B176" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:5">
       <c r="B177" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:5">
       <c r="B178" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:5">
       <c r="B179" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:5">
       <c r="B180" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:5">
       <c r="B181" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:5">
       <c r="B182" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:5">
       <c r="B184" s="7" t="s">
         <v>174</v>
       </c>
@@ -5820,82 +6447,82 @@
         <v>176</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:5">
       <c r="C185" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:5">
       <c r="C186" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:5">
       <c r="C187" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:5">
       <c r="C188" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:5">
       <c r="C189" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:5">
       <c r="C190" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:5">
       <c r="C191" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:5">
       <c r="C192" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:5">
       <c r="C193" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:5">
       <c r="C194" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:5">
       <c r="C195" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:5">
       <c r="C196" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:5">
       <c r="C197" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:5">
       <c r="C198" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:5">
       <c r="C199" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:5">
       <c r="B201" s="7" t="s">
         <v>175</v>
       </c>
@@ -5903,367 +6530,367 @@
         <v>185</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:5">
       <c r="C202" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:5">
       <c r="C203" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:5">
       <c r="C204" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:5">
       <c r="C205" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:5">
       <c r="C206" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:5">
       <c r="C207" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:5">
       <c r="C208" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:3">
       <c r="C209" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:3">
       <c r="C210" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:3">
       <c r="C211" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:3">
       <c r="C212" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:3">
       <c r="C213" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:3">
       <c r="C214" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:3">
       <c r="C215" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:3">
       <c r="C216" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:3" s="3" customFormat="1">
       <c r="A217" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:3">
       <c r="B219" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:3">
       <c r="B220" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:3">
       <c r="B221" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:3">
       <c r="B222" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:3">
       <c r="B223" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:3">
       <c r="B224" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:2">
       <c r="B225" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:2">
       <c r="B226" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:2">
       <c r="B227" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:2">
       <c r="B228" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:2">
       <c r="B229" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:2">
       <c r="B230" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:2">
       <c r="B231" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:2">
       <c r="B232" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:2">
       <c r="B234" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:2">
       <c r="B235" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:2">
       <c r="B236" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:2">
       <c r="B237" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:2">
       <c r="B238" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:2">
       <c r="B239" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:2">
       <c r="B240" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:2">
       <c r="B241" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:2">
       <c r="B242" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:2">
       <c r="B243" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:2">
       <c r="B244" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:2">
       <c r="B245" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:2">
       <c r="B246" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:2">
       <c r="B247" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:2">
       <c r="B248" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:2">
       <c r="B250" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:2">
       <c r="B251" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:2">
       <c r="B252" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:2">
       <c r="B253" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:2">
       <c r="B254" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:2">
       <c r="B255" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:2">
       <c r="B256" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:2">
       <c r="B259" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:2">
       <c r="B260" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:2">
       <c r="B261" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:2">
       <c r="B262" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:2">
       <c r="B263" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:2">
       <c r="B264" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:2">
       <c r="B265" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:2">
       <c r="B266" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:2">
       <c r="B267" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:2">
       <c r="B268" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:2">
       <c r="B269" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:2">
       <c r="B270" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:2">
       <c r="B271" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:2">
       <c r="B272" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10">
       <c r="B273" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10">
       <c r="B274" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10">
       <c r="B275" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10">
       <c r="B276" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10">
       <c r="B277" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10">
       <c r="B279" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10">
       <c r="A280" s="4"/>
       <c r="B280" s="4" t="s">
         <v>160</v>
@@ -6272,57 +6899,57 @@
         <v>162</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10">
       <c r="B281" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10">
       <c r="B282" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10">
       <c r="B283" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10">
       <c r="B284" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10">
       <c r="B285" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10">
       <c r="B286" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10">
       <c r="B287" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:10">
       <c r="B288" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:10">
       <c r="B289" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:10">
       <c r="B290" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:10">
       <c r="B292" s="4" t="s">
         <v>163</v>
       </c>
@@ -6336,7 +6963,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:10">
       <c r="B293" s="1" t="s">
         <v>164</v>
       </c>
@@ -6344,47 +6971,47 @@
         <v>171</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:10">
       <c r="B295" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:10">
       <c r="B296" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:10">
       <c r="B297" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:10">
       <c r="B298" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:10">
       <c r="B299" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:10">
       <c r="B300" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:10">
       <c r="B301" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="303" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:10" s="3" customFormat="1">
       <c r="A303" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="305" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:10">
       <c r="B305" s="1" t="s">
         <v>187</v>
       </c>
@@ -6395,640 +7022,640 @@
         <v>189</v>
       </c>
     </row>
-    <row r="312" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:10">
       <c r="J312" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="313" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:10">
       <c r="J313" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:11">
       <c r="B337" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="348" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:11" s="3" customFormat="1">
       <c r="A348" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B350" s="11" t="s">
+    <row r="350" spans="1:11" ht="30" customHeight="1">
+      <c r="B350" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C350" s="11"/>
-      <c r="D350" s="11"/>
-      <c r="E350" s="12" t="s">
+      <c r="C350" s="12"/>
+      <c r="D350" s="12"/>
+      <c r="E350" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="F350" s="12"/>
-      <c r="G350" s="12"/>
-      <c r="H350" s="12"/>
-      <c r="I350" s="12"/>
-      <c r="J350" s="12"/>
-      <c r="K350" s="12"/>
-    </row>
-    <row r="351" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B351" s="11" t="s">
+      <c r="F350" s="13"/>
+      <c r="G350" s="13"/>
+      <c r="H350" s="13"/>
+      <c r="I350" s="13"/>
+      <c r="J350" s="13"/>
+      <c r="K350" s="13"/>
+    </row>
+    <row r="351" spans="1:11" ht="30" customHeight="1">
+      <c r="B351" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C351" s="11"/>
-      <c r="D351" s="11"/>
-      <c r="E351" s="12" t="s">
+      <c r="C351" s="12"/>
+      <c r="D351" s="12"/>
+      <c r="E351" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="F351" s="12"/>
-      <c r="G351" s="12"/>
-      <c r="H351" s="12"/>
-      <c r="I351" s="12"/>
-      <c r="J351" s="12"/>
-      <c r="K351" s="12"/>
-    </row>
-    <row r="352" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B352" s="11" t="s">
+      <c r="F351" s="13"/>
+      <c r="G351" s="13"/>
+      <c r="H351" s="13"/>
+      <c r="I351" s="13"/>
+      <c r="J351" s="13"/>
+      <c r="K351" s="13"/>
+    </row>
+    <row r="352" spans="1:11" ht="30" customHeight="1">
+      <c r="B352" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C352" s="11"/>
-      <c r="D352" s="11"/>
-      <c r="E352" s="12" t="s">
+      <c r="C352" s="12"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="F352" s="12"/>
-      <c r="G352" s="12"/>
-      <c r="H352" s="12"/>
-      <c r="I352" s="12"/>
-      <c r="J352" s="12"/>
-      <c r="K352" s="12"/>
-    </row>
-    <row r="353" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B353" s="11" t="s">
+      <c r="F352" s="13"/>
+      <c r="G352" s="13"/>
+      <c r="H352" s="13"/>
+      <c r="I352" s="13"/>
+      <c r="J352" s="13"/>
+      <c r="K352" s="13"/>
+    </row>
+    <row r="353" spans="2:11" ht="30" customHeight="1">
+      <c r="B353" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C353" s="11"/>
-      <c r="D353" s="11"/>
-      <c r="E353" s="12" t="s">
+      <c r="C353" s="12"/>
+      <c r="D353" s="12"/>
+      <c r="E353" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="F353" s="12"/>
-      <c r="G353" s="12"/>
-      <c r="H353" s="12"/>
-      <c r="I353" s="12"/>
-      <c r="J353" s="12"/>
-      <c r="K353" s="12"/>
-    </row>
-    <row r="354" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B354" s="11" t="s">
+      <c r="F353" s="13"/>
+      <c r="G353" s="13"/>
+      <c r="H353" s="13"/>
+      <c r="I353" s="13"/>
+      <c r="J353" s="13"/>
+      <c r="K353" s="13"/>
+    </row>
+    <row r="354" spans="2:11" ht="30" customHeight="1">
+      <c r="B354" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C354" s="11"/>
-      <c r="D354" s="11"/>
-      <c r="E354" s="12" t="s">
+      <c r="C354" s="12"/>
+      <c r="D354" s="12"/>
+      <c r="E354" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F354" s="12"/>
-      <c r="G354" s="12"/>
-      <c r="H354" s="12"/>
-      <c r="I354" s="12"/>
-      <c r="J354" s="12"/>
-      <c r="K354" s="12"/>
-    </row>
-    <row r="355" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B355" s="11" t="s">
+      <c r="F354" s="13"/>
+      <c r="G354" s="13"/>
+      <c r="H354" s="13"/>
+      <c r="I354" s="13"/>
+      <c r="J354" s="13"/>
+      <c r="K354" s="13"/>
+    </row>
+    <row r="355" spans="2:11" ht="30" customHeight="1">
+      <c r="B355" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C355" s="11"/>
-      <c r="D355" s="11"/>
-      <c r="E355" s="12" t="s">
+      <c r="C355" s="12"/>
+      <c r="D355" s="12"/>
+      <c r="E355" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="F355" s="12"/>
-      <c r="G355" s="12"/>
-      <c r="H355" s="12"/>
-      <c r="I355" s="12"/>
-      <c r="J355" s="12"/>
-      <c r="K355" s="12"/>
-    </row>
-    <row r="356" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B356" s="11" t="s">
+      <c r="F355" s="13"/>
+      <c r="G355" s="13"/>
+      <c r="H355" s="13"/>
+      <c r="I355" s="13"/>
+      <c r="J355" s="13"/>
+      <c r="K355" s="13"/>
+    </row>
+    <row r="356" spans="2:11" ht="30" customHeight="1">
+      <c r="B356" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C356" s="11"/>
-      <c r="D356" s="11"/>
-      <c r="E356" s="12" t="s">
+      <c r="C356" s="12"/>
+      <c r="D356" s="12"/>
+      <c r="E356" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F356" s="12"/>
-      <c r="G356" s="12"/>
-      <c r="H356" s="12"/>
-      <c r="I356" s="12"/>
-      <c r="J356" s="12"/>
-      <c r="K356" s="12"/>
-    </row>
-    <row r="357" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B357" s="11" t="s">
+      <c r="F356" s="13"/>
+      <c r="G356" s="13"/>
+      <c r="H356" s="13"/>
+      <c r="I356" s="13"/>
+      <c r="J356" s="13"/>
+      <c r="K356" s="13"/>
+    </row>
+    <row r="357" spans="2:11" ht="30" customHeight="1">
+      <c r="B357" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C357" s="11"/>
-      <c r="D357" s="11"/>
-      <c r="E357" s="12" t="s">
+      <c r="C357" s="12"/>
+      <c r="D357" s="12"/>
+      <c r="E357" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="F357" s="12"/>
-      <c r="G357" s="12"/>
-      <c r="H357" s="12"/>
-      <c r="I357" s="12"/>
-      <c r="J357" s="12"/>
-      <c r="K357" s="12"/>
-    </row>
-    <row r="358" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B358" s="11" t="s">
+      <c r="F357" s="13"/>
+      <c r="G357" s="13"/>
+      <c r="H357" s="13"/>
+      <c r="I357" s="13"/>
+      <c r="J357" s="13"/>
+      <c r="K357" s="13"/>
+    </row>
+    <row r="358" spans="2:11" ht="30" customHeight="1">
+      <c r="B358" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C358" s="11"/>
-      <c r="D358" s="11"/>
-      <c r="E358" s="12" t="s">
+      <c r="C358" s="12"/>
+      <c r="D358" s="12"/>
+      <c r="E358" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="F358" s="12"/>
-      <c r="G358" s="12"/>
-      <c r="H358" s="12"/>
-      <c r="I358" s="12"/>
-      <c r="J358" s="12"/>
-      <c r="K358" s="12"/>
-    </row>
-    <row r="359" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B359" s="11" t="s">
+      <c r="F358" s="13"/>
+      <c r="G358" s="13"/>
+      <c r="H358" s="13"/>
+      <c r="I358" s="13"/>
+      <c r="J358" s="13"/>
+      <c r="K358" s="13"/>
+    </row>
+    <row r="359" spans="2:11" ht="30" customHeight="1">
+      <c r="B359" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C359" s="11"/>
-      <c r="D359" s="11"/>
-      <c r="E359" s="12" t="s">
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="F359" s="12"/>
-      <c r="G359" s="12"/>
-      <c r="H359" s="12"/>
-      <c r="I359" s="12"/>
-      <c r="J359" s="12"/>
-      <c r="K359" s="12"/>
-    </row>
-    <row r="360" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B360" s="11" t="s">
+      <c r="F359" s="13"/>
+      <c r="G359" s="13"/>
+      <c r="H359" s="13"/>
+      <c r="I359" s="13"/>
+      <c r="J359" s="13"/>
+      <c r="K359" s="13"/>
+    </row>
+    <row r="360" spans="2:11" ht="30" customHeight="1">
+      <c r="B360" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C360" s="11"/>
-      <c r="D360" s="11"/>
-      <c r="E360" s="12" t="s">
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F360" s="12"/>
-      <c r="G360" s="12"/>
-      <c r="H360" s="12"/>
-      <c r="I360" s="12"/>
-      <c r="J360" s="12"/>
-      <c r="K360" s="12"/>
-    </row>
-    <row r="361" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B361" s="11" t="s">
+      <c r="F360" s="13"/>
+      <c r="G360" s="13"/>
+      <c r="H360" s="13"/>
+      <c r="I360" s="13"/>
+      <c r="J360" s="13"/>
+      <c r="K360" s="13"/>
+    </row>
+    <row r="361" spans="2:11" ht="30" customHeight="1">
+      <c r="B361" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C361" s="11"/>
-      <c r="D361" s="11"/>
-      <c r="E361" s="12" t="s">
+      <c r="C361" s="12"/>
+      <c r="D361" s="12"/>
+      <c r="E361" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="F361" s="12"/>
-      <c r="G361" s="12"/>
-      <c r="H361" s="12"/>
-      <c r="I361" s="12"/>
-      <c r="J361" s="12"/>
-      <c r="K361" s="12"/>
-    </row>
-    <row r="362" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B362" s="11" t="s">
+      <c r="F361" s="13"/>
+      <c r="G361" s="13"/>
+      <c r="H361" s="13"/>
+      <c r="I361" s="13"/>
+      <c r="J361" s="13"/>
+      <c r="K361" s="13"/>
+    </row>
+    <row r="362" spans="2:11" ht="30" customHeight="1">
+      <c r="B362" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C362" s="11"/>
-      <c r="D362" s="11"/>
-      <c r="E362" s="12" t="s">
+      <c r="C362" s="12"/>
+      <c r="D362" s="12"/>
+      <c r="E362" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="F362" s="12"/>
-      <c r="G362" s="12"/>
-      <c r="H362" s="12"/>
-      <c r="I362" s="12"/>
-      <c r="J362" s="12"/>
-      <c r="K362" s="12"/>
-    </row>
-    <row r="363" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B363" s="11" t="s">
+      <c r="F362" s="13"/>
+      <c r="G362" s="13"/>
+      <c r="H362" s="13"/>
+      <c r="I362" s="13"/>
+      <c r="J362" s="13"/>
+      <c r="K362" s="13"/>
+    </row>
+    <row r="363" spans="2:11" ht="30" customHeight="1">
+      <c r="B363" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C363" s="11"/>
-      <c r="D363" s="11"/>
-      <c r="E363" s="12" t="s">
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="F363" s="12"/>
-      <c r="G363" s="12"/>
-      <c r="H363" s="12"/>
-      <c r="I363" s="12"/>
-      <c r="J363" s="12"/>
-      <c r="K363" s="12"/>
-    </row>
-    <row r="364" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B364" s="11" t="s">
+      <c r="F363" s="13"/>
+      <c r="G363" s="13"/>
+      <c r="H363" s="13"/>
+      <c r="I363" s="13"/>
+      <c r="J363" s="13"/>
+      <c r="K363" s="13"/>
+    </row>
+    <row r="364" spans="2:11" ht="30" customHeight="1">
+      <c r="B364" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C364" s="11"/>
-      <c r="D364" s="11"/>
-      <c r="E364" s="12" t="s">
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="F364" s="12"/>
-      <c r="G364" s="12"/>
-      <c r="H364" s="12"/>
-      <c r="I364" s="12"/>
-      <c r="J364" s="12"/>
-      <c r="K364" s="12"/>
-    </row>
-    <row r="365" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B365" s="11" t="s">
+      <c r="F364" s="13"/>
+      <c r="G364" s="13"/>
+      <c r="H364" s="13"/>
+      <c r="I364" s="13"/>
+      <c r="J364" s="13"/>
+      <c r="K364" s="13"/>
+    </row>
+    <row r="365" spans="2:11" ht="30" customHeight="1">
+      <c r="B365" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C365" s="11"/>
-      <c r="D365" s="11"/>
-      <c r="E365" s="12" t="s">
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="F365" s="12"/>
-      <c r="G365" s="12"/>
-      <c r="H365" s="12"/>
-      <c r="I365" s="12"/>
-      <c r="J365" s="12"/>
-      <c r="K365" s="12"/>
-    </row>
-    <row r="366" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B366" s="11" t="s">
+      <c r="F365" s="13"/>
+      <c r="G365" s="13"/>
+      <c r="H365" s="13"/>
+      <c r="I365" s="13"/>
+      <c r="J365" s="13"/>
+      <c r="K365" s="13"/>
+    </row>
+    <row r="366" spans="2:11" ht="30" customHeight="1">
+      <c r="B366" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C366" s="11"/>
-      <c r="D366" s="11"/>
-      <c r="E366" s="12" t="s">
+      <c r="C366" s="12"/>
+      <c r="D366" s="12"/>
+      <c r="E366" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="F366" s="12"/>
-      <c r="G366" s="12"/>
-      <c r="H366" s="12"/>
-      <c r="I366" s="12"/>
-      <c r="J366" s="12"/>
-      <c r="K366" s="12"/>
-    </row>
-    <row r="367" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B367" s="11" t="s">
+      <c r="F366" s="13"/>
+      <c r="G366" s="13"/>
+      <c r="H366" s="13"/>
+      <c r="I366" s="13"/>
+      <c r="J366" s="13"/>
+      <c r="K366" s="13"/>
+    </row>
+    <row r="367" spans="2:11" ht="30" customHeight="1">
+      <c r="B367" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C367" s="11"/>
-      <c r="D367" s="11"/>
-      <c r="E367" s="12" t="s">
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="F367" s="12"/>
-      <c r="G367" s="12"/>
-      <c r="H367" s="12"/>
-      <c r="I367" s="12"/>
-      <c r="J367" s="12"/>
-      <c r="K367" s="12"/>
-    </row>
-    <row r="368" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B368" s="11" t="s">
+      <c r="F367" s="13"/>
+      <c r="G367" s="13"/>
+      <c r="H367" s="13"/>
+      <c r="I367" s="13"/>
+      <c r="J367" s="13"/>
+      <c r="K367" s="13"/>
+    </row>
+    <row r="368" spans="2:11" ht="30" customHeight="1">
+      <c r="B368" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C368" s="11"/>
-      <c r="D368" s="11"/>
-      <c r="E368" s="12" t="s">
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="F368" s="12"/>
-      <c r="G368" s="12"/>
-      <c r="H368" s="12"/>
-      <c r="I368" s="12"/>
-      <c r="J368" s="12"/>
-      <c r="K368" s="12"/>
-    </row>
-    <row r="369" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B369" s="11" t="s">
+      <c r="F368" s="13"/>
+      <c r="G368" s="13"/>
+      <c r="H368" s="13"/>
+      <c r="I368" s="13"/>
+      <c r="J368" s="13"/>
+      <c r="K368" s="13"/>
+    </row>
+    <row r="369" spans="2:11" ht="30" customHeight="1">
+      <c r="B369" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C369" s="11"/>
-      <c r="D369" s="11"/>
-      <c r="E369" s="12" t="s">
+      <c r="C369" s="12"/>
+      <c r="D369" s="12"/>
+      <c r="E369" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F369" s="12"/>
-      <c r="G369" s="12"/>
-      <c r="H369" s="12"/>
-      <c r="I369" s="12"/>
-      <c r="J369" s="12"/>
-      <c r="K369" s="12"/>
-    </row>
-    <row r="370" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B370" s="11" t="s">
+      <c r="F369" s="13"/>
+      <c r="G369" s="13"/>
+      <c r="H369" s="13"/>
+      <c r="I369" s="13"/>
+      <c r="J369" s="13"/>
+      <c r="K369" s="13"/>
+    </row>
+    <row r="370" spans="2:11" ht="30" customHeight="1">
+      <c r="B370" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C370" s="11"/>
-      <c r="D370" s="11"/>
-      <c r="E370" s="12" t="s">
+      <c r="C370" s="12"/>
+      <c r="D370" s="12"/>
+      <c r="E370" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F370" s="12"/>
-      <c r="G370" s="12"/>
-      <c r="H370" s="12"/>
-      <c r="I370" s="12"/>
-      <c r="J370" s="12"/>
-      <c r="K370" s="12"/>
-    </row>
-    <row r="371" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B371" s="11" t="s">
+      <c r="F370" s="13"/>
+      <c r="G370" s="13"/>
+      <c r="H370" s="13"/>
+      <c r="I370" s="13"/>
+      <c r="J370" s="13"/>
+      <c r="K370" s="13"/>
+    </row>
+    <row r="371" spans="2:11" ht="30" customHeight="1">
+      <c r="B371" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C371" s="11"/>
-      <c r="D371" s="11"/>
-      <c r="E371" s="12" t="s">
+      <c r="C371" s="12"/>
+      <c r="D371" s="12"/>
+      <c r="E371" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F371" s="12"/>
-      <c r="G371" s="12"/>
-      <c r="H371" s="12"/>
-      <c r="I371" s="12"/>
-      <c r="J371" s="12"/>
-      <c r="K371" s="12"/>
-    </row>
-    <row r="372" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B372" s="11" t="s">
+      <c r="F371" s="13"/>
+      <c r="G371" s="13"/>
+      <c r="H371" s="13"/>
+      <c r="I371" s="13"/>
+      <c r="J371" s="13"/>
+      <c r="K371" s="13"/>
+    </row>
+    <row r="372" spans="2:11" ht="30" customHeight="1">
+      <c r="B372" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C372" s="11"/>
-      <c r="D372" s="11"/>
-      <c r="E372" s="12" t="s">
+      <c r="C372" s="12"/>
+      <c r="D372" s="12"/>
+      <c r="E372" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="F372" s="12"/>
-      <c r="G372" s="12"/>
-      <c r="H372" s="12"/>
-      <c r="I372" s="12"/>
-      <c r="J372" s="12"/>
-      <c r="K372" s="12"/>
-    </row>
-    <row r="373" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B373" s="11" t="s">
+      <c r="F372" s="13"/>
+      <c r="G372" s="13"/>
+      <c r="H372" s="13"/>
+      <c r="I372" s="13"/>
+      <c r="J372" s="13"/>
+      <c r="K372" s="13"/>
+    </row>
+    <row r="373" spans="2:11" ht="30" customHeight="1">
+      <c r="B373" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C373" s="11"/>
-      <c r="D373" s="11"/>
-      <c r="E373" s="12" t="s">
+      <c r="C373" s="12"/>
+      <c r="D373" s="12"/>
+      <c r="E373" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="F373" s="12"/>
-      <c r="G373" s="12"/>
-      <c r="H373" s="12"/>
-      <c r="I373" s="12"/>
-      <c r="J373" s="12"/>
-      <c r="K373" s="12"/>
-    </row>
-    <row r="374" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B374" s="11" t="s">
+      <c r="F373" s="13"/>
+      <c r="G373" s="13"/>
+      <c r="H373" s="13"/>
+      <c r="I373" s="13"/>
+      <c r="J373" s="13"/>
+      <c r="K373" s="13"/>
+    </row>
+    <row r="374" spans="2:11" ht="30" customHeight="1">
+      <c r="B374" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C374" s="11"/>
-      <c r="D374" s="11"/>
-      <c r="E374" s="12" t="s">
+      <c r="C374" s="12"/>
+      <c r="D374" s="12"/>
+      <c r="E374" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="F374" s="12"/>
-      <c r="G374" s="12"/>
-      <c r="H374" s="12"/>
-      <c r="I374" s="12"/>
-      <c r="J374" s="12"/>
-      <c r="K374" s="12"/>
-    </row>
-    <row r="375" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B375" s="11" t="s">
+      <c r="F374" s="13"/>
+      <c r="G374" s="13"/>
+      <c r="H374" s="13"/>
+      <c r="I374" s="13"/>
+      <c r="J374" s="13"/>
+      <c r="K374" s="13"/>
+    </row>
+    <row r="375" spans="2:11" ht="30" customHeight="1">
+      <c r="B375" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C375" s="11"/>
-      <c r="D375" s="11"/>
-      <c r="E375" s="12" t="s">
+      <c r="C375" s="12"/>
+      <c r="D375" s="12"/>
+      <c r="E375" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="F375" s="12"/>
-      <c r="G375" s="12"/>
-      <c r="H375" s="12"/>
-      <c r="I375" s="12"/>
-      <c r="J375" s="12"/>
-      <c r="K375" s="12"/>
-    </row>
-    <row r="376" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B376" s="11" t="s">
+      <c r="F375" s="13"/>
+      <c r="G375" s="13"/>
+      <c r="H375" s="13"/>
+      <c r="I375" s="13"/>
+      <c r="J375" s="13"/>
+      <c r="K375" s="13"/>
+    </row>
+    <row r="376" spans="2:11" ht="30" customHeight="1">
+      <c r="B376" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C376" s="11"/>
-      <c r="D376" s="11"/>
-      <c r="E376" s="12" t="s">
+      <c r="C376" s="12"/>
+      <c r="D376" s="12"/>
+      <c r="E376" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F376" s="12"/>
-      <c r="G376" s="12"/>
-      <c r="H376" s="12"/>
-      <c r="I376" s="12"/>
-      <c r="J376" s="12"/>
-      <c r="K376" s="12"/>
-    </row>
-    <row r="377" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B377" s="11" t="s">
+      <c r="F376" s="13"/>
+      <c r="G376" s="13"/>
+      <c r="H376" s="13"/>
+      <c r="I376" s="13"/>
+      <c r="J376" s="13"/>
+      <c r="K376" s="13"/>
+    </row>
+    <row r="377" spans="2:11" ht="30" customHeight="1">
+      <c r="B377" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C377" s="11"/>
-      <c r="D377" s="11"/>
-      <c r="E377" s="12" t="s">
+      <c r="C377" s="12"/>
+      <c r="D377" s="12"/>
+      <c r="E377" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="F377" s="12"/>
-      <c r="G377" s="12"/>
-      <c r="H377" s="12"/>
-      <c r="I377" s="12"/>
-      <c r="J377" s="12"/>
-      <c r="K377" s="12"/>
-    </row>
-    <row r="378" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B378" s="11" t="s">
+      <c r="F377" s="13"/>
+      <c r="G377" s="13"/>
+      <c r="H377" s="13"/>
+      <c r="I377" s="13"/>
+      <c r="J377" s="13"/>
+      <c r="K377" s="13"/>
+    </row>
+    <row r="378" spans="2:11" ht="30" customHeight="1">
+      <c r="B378" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C378" s="11"/>
-      <c r="D378" s="11"/>
-      <c r="E378" s="12" t="s">
+      <c r="C378" s="12"/>
+      <c r="D378" s="12"/>
+      <c r="E378" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="F378" s="12"/>
-      <c r="G378" s="12"/>
-      <c r="H378" s="12"/>
-      <c r="I378" s="12"/>
-      <c r="J378" s="12"/>
-      <c r="K378" s="12"/>
-    </row>
-    <row r="379" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B379" s="11" t="s">
+      <c r="F378" s="13"/>
+      <c r="G378" s="13"/>
+      <c r="H378" s="13"/>
+      <c r="I378" s="13"/>
+      <c r="J378" s="13"/>
+      <c r="K378" s="13"/>
+    </row>
+    <row r="379" spans="2:11" ht="30" customHeight="1">
+      <c r="B379" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C379" s="11"/>
-      <c r="D379" s="11"/>
-      <c r="E379" s="12" t="s">
+      <c r="C379" s="12"/>
+      <c r="D379" s="12"/>
+      <c r="E379" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="F379" s="12"/>
-      <c r="G379" s="12"/>
-      <c r="H379" s="12"/>
-      <c r="I379" s="12"/>
-      <c r="J379" s="12"/>
-      <c r="K379" s="12"/>
-    </row>
-    <row r="380" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B380" s="11" t="s">
+      <c r="F379" s="13"/>
+      <c r="G379" s="13"/>
+      <c r="H379" s="13"/>
+      <c r="I379" s="13"/>
+      <c r="J379" s="13"/>
+      <c r="K379" s="13"/>
+    </row>
+    <row r="380" spans="2:11" ht="30" customHeight="1">
+      <c r="B380" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C380" s="11"/>
-      <c r="D380" s="11"/>
-      <c r="E380" s="12" t="s">
+      <c r="C380" s="12"/>
+      <c r="D380" s="12"/>
+      <c r="E380" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F380" s="12"/>
-      <c r="G380" s="12"/>
-      <c r="H380" s="12"/>
-      <c r="I380" s="12"/>
-      <c r="J380" s="12"/>
-      <c r="K380" s="12"/>
-    </row>
-    <row r="381" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B381" s="11" t="s">
+      <c r="F380" s="13"/>
+      <c r="G380" s="13"/>
+      <c r="H380" s="13"/>
+      <c r="I380" s="13"/>
+      <c r="J380" s="13"/>
+      <c r="K380" s="13"/>
+    </row>
+    <row r="381" spans="2:11" ht="30" customHeight="1">
+      <c r="B381" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C381" s="11"/>
-      <c r="D381" s="11"/>
-      <c r="E381" s="12" t="s">
+      <c r="C381" s="12"/>
+      <c r="D381" s="12"/>
+      <c r="E381" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="F381" s="12"/>
-      <c r="G381" s="12"/>
-      <c r="H381" s="12"/>
-      <c r="I381" s="12"/>
-      <c r="J381" s="12"/>
-      <c r="K381" s="12"/>
-    </row>
-    <row r="382" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B382" s="11" t="s">
+      <c r="F381" s="13"/>
+      <c r="G381" s="13"/>
+      <c r="H381" s="13"/>
+      <c r="I381" s="13"/>
+      <c r="J381" s="13"/>
+      <c r="K381" s="13"/>
+    </row>
+    <row r="382" spans="2:11" ht="30" customHeight="1">
+      <c r="B382" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C382" s="11"/>
-      <c r="D382" s="11"/>
-      <c r="E382" s="12" t="s">
+      <c r="C382" s="12"/>
+      <c r="D382" s="12"/>
+      <c r="E382" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="F382" s="12"/>
-      <c r="G382" s="12"/>
-      <c r="H382" s="12"/>
-      <c r="I382" s="12"/>
-      <c r="J382" s="12"/>
-      <c r="K382" s="12"/>
-    </row>
-    <row r="383" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B383" s="11" t="s">
+      <c r="F382" s="13"/>
+      <c r="G382" s="13"/>
+      <c r="H382" s="13"/>
+      <c r="I382" s="13"/>
+      <c r="J382" s="13"/>
+      <c r="K382" s="13"/>
+    </row>
+    <row r="383" spans="2:11" ht="30" customHeight="1">
+      <c r="B383" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C383" s="11"/>
-      <c r="D383" s="11"/>
-      <c r="E383" s="12" t="s">
+      <c r="C383" s="12"/>
+      <c r="D383" s="12"/>
+      <c r="E383" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F383" s="12"/>
-      <c r="G383" s="12"/>
-      <c r="H383" s="12"/>
-      <c r="I383" s="12"/>
-      <c r="J383" s="12"/>
-      <c r="K383" s="12"/>
-    </row>
-    <row r="384" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B384" s="11" t="s">
+      <c r="F383" s="13"/>
+      <c r="G383" s="13"/>
+      <c r="H383" s="13"/>
+      <c r="I383" s="13"/>
+      <c r="J383" s="13"/>
+      <c r="K383" s="13"/>
+    </row>
+    <row r="384" spans="2:11" ht="30" customHeight="1">
+      <c r="B384" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C384" s="11"/>
-      <c r="D384" s="11"/>
-      <c r="E384" s="12" t="s">
+      <c r="C384" s="12"/>
+      <c r="D384" s="12"/>
+      <c r="E384" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="F384" s="12"/>
-      <c r="G384" s="12"/>
-      <c r="H384" s="12"/>
-      <c r="I384" s="12"/>
-      <c r="J384" s="12"/>
-      <c r="K384" s="12"/>
-    </row>
-    <row r="385" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B385" s="11" t="s">
+      <c r="F384" s="13"/>
+      <c r="G384" s="13"/>
+      <c r="H384" s="13"/>
+      <c r="I384" s="13"/>
+      <c r="J384" s="13"/>
+      <c r="K384" s="13"/>
+    </row>
+    <row r="385" spans="1:11" ht="30" customHeight="1">
+      <c r="B385" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C385" s="11"/>
-      <c r="D385" s="11"/>
-      <c r="E385" s="12" t="s">
+      <c r="C385" s="12"/>
+      <c r="D385" s="12"/>
+      <c r="E385" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="F385" s="12"/>
-      <c r="G385" s="12"/>
-      <c r="H385" s="12"/>
-      <c r="I385" s="12"/>
-      <c r="J385" s="12"/>
-      <c r="K385" s="12"/>
-    </row>
-    <row r="386" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B386" s="11" t="s">
+      <c r="F385" s="13"/>
+      <c r="G385" s="13"/>
+      <c r="H385" s="13"/>
+      <c r="I385" s="13"/>
+      <c r="J385" s="13"/>
+      <c r="K385" s="13"/>
+    </row>
+    <row r="386" spans="1:11" ht="30" customHeight="1">
+      <c r="B386" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C386" s="11"/>
-      <c r="D386" s="11"/>
-      <c r="E386" s="12" t="s">
+      <c r="C386" s="12"/>
+      <c r="D386" s="12"/>
+      <c r="E386" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F386" s="12"/>
-      <c r="G386" s="12"/>
-      <c r="H386" s="12"/>
-      <c r="I386" s="12"/>
-      <c r="J386" s="12"/>
-      <c r="K386" s="12"/>
-    </row>
-    <row r="387" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B387" s="11" t="s">
+      <c r="F386" s="13"/>
+      <c r="G386" s="13"/>
+      <c r="H386" s="13"/>
+      <c r="I386" s="13"/>
+      <c r="J386" s="13"/>
+      <c r="K386" s="13"/>
+    </row>
+    <row r="387" spans="1:11" ht="30" customHeight="1">
+      <c r="B387" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C387" s="11"/>
-      <c r="D387" s="11"/>
-      <c r="E387" s="12" t="s">
+      <c r="C387" s="12"/>
+      <c r="D387" s="12"/>
+      <c r="E387" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="F387" s="12"/>
-      <c r="G387" s="12"/>
-      <c r="H387" s="12"/>
-      <c r="I387" s="12"/>
-      <c r="J387" s="12"/>
-      <c r="K387" s="12"/>
-    </row>
-    <row r="389" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F387" s="13"/>
+      <c r="G387" s="13"/>
+      <c r="H387" s="13"/>
+      <c r="I387" s="13"/>
+      <c r="J387" s="13"/>
+      <c r="K387" s="13"/>
+    </row>
+    <row r="389" spans="1:11" s="3" customFormat="1">
       <c r="A389" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:11">
       <c r="B391" s="1" t="s">
         <v>275</v>
       </c>
@@ -7036,12 +7663,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:11">
       <c r="B392" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:11">
       <c r="B393" s="1" t="s">
         <v>279</v>
       </c>
@@ -7049,12 +7676,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:11">
       <c r="B394" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:11">
       <c r="B395" s="1" t="s">
         <v>277</v>
       </c>
@@ -7062,12 +7689,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:11">
       <c r="B396" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:11">
       <c r="B398" s="4" t="s">
         <v>283</v>
       </c>
@@ -7075,22 +7702,22 @@
         <v>285</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:11">
       <c r="B399" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:11">
       <c r="B400" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="401" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="401" spans="2:11">
       <c r="B401" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="404" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="404" spans="2:11">
       <c r="B404" s="1" t="s">
         <v>286</v>
       </c>
@@ -7098,610 +7725,610 @@
         <v>288</v>
       </c>
     </row>
-    <row r="405" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="405" spans="2:11">
       <c r="B405" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="406" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="406" spans="2:11">
       <c r="B406" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:11" ht="19.5">
       <c r="B410" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="411" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B411" s="13" t="s">
+    <row r="411" spans="2:11" ht="15" customHeight="1">
+      <c r="B411" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C411" s="13"/>
-      <c r="D411" s="13"/>
-      <c r="E411" s="13" t="s">
+      <c r="C411" s="14"/>
+      <c r="D411" s="14"/>
+      <c r="E411" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F411" s="13"/>
-      <c r="G411" s="13"/>
-      <c r="H411" s="13"/>
-      <c r="I411" s="13"/>
-      <c r="J411" s="13"/>
-      <c r="K411" s="13"/>
-    </row>
-    <row r="412" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B412" s="11" t="s">
+      <c r="F411" s="14"/>
+      <c r="G411" s="14"/>
+      <c r="H411" s="14"/>
+      <c r="I411" s="14"/>
+      <c r="J411" s="14"/>
+      <c r="K411" s="14"/>
+    </row>
+    <row r="412" spans="2:11" ht="15" customHeight="1">
+      <c r="B412" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="C412" s="11"/>
-      <c r="D412" s="11"/>
-      <c r="E412" s="12" t="s">
+      <c r="C412" s="12"/>
+      <c r="D412" s="12"/>
+      <c r="E412" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F412" s="12"/>
-      <c r="G412" s="12"/>
-      <c r="H412" s="12"/>
-      <c r="I412" s="12"/>
-      <c r="J412" s="12"/>
-      <c r="K412" s="12"/>
-    </row>
-    <row r="413" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B413" s="11" t="s">
+      <c r="F412" s="13"/>
+      <c r="G412" s="13"/>
+      <c r="H412" s="13"/>
+      <c r="I412" s="13"/>
+      <c r="J412" s="13"/>
+      <c r="K412" s="13"/>
+    </row>
+    <row r="413" spans="2:11" ht="15" customHeight="1">
+      <c r="B413" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C413" s="11"/>
-      <c r="D413" s="11"/>
-      <c r="E413" s="12" t="s">
+      <c r="C413" s="12"/>
+      <c r="D413" s="12"/>
+      <c r="E413" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="F413" s="12"/>
-      <c r="G413" s="12"/>
-      <c r="H413" s="12"/>
-      <c r="I413" s="12"/>
-      <c r="J413" s="12"/>
-      <c r="K413" s="12"/>
-    </row>
-    <row r="414" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B414" s="11" t="s">
+      <c r="F413" s="13"/>
+      <c r="G413" s="13"/>
+      <c r="H413" s="13"/>
+      <c r="I413" s="13"/>
+      <c r="J413" s="13"/>
+      <c r="K413" s="13"/>
+    </row>
+    <row r="414" spans="2:11" ht="15" customHeight="1">
+      <c r="B414" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C414" s="11"/>
-      <c r="D414" s="11"/>
-      <c r="E414" s="12" t="s">
+      <c r="C414" s="12"/>
+      <c r="D414" s="12"/>
+      <c r="E414" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="F414" s="12"/>
-      <c r="G414" s="12"/>
-      <c r="H414" s="12"/>
-      <c r="I414" s="12"/>
-      <c r="J414" s="12"/>
-      <c r="K414" s="12"/>
-    </row>
-    <row r="415" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B415" s="11" t="s">
+      <c r="F414" s="13"/>
+      <c r="G414" s="13"/>
+      <c r="H414" s="13"/>
+      <c r="I414" s="13"/>
+      <c r="J414" s="13"/>
+      <c r="K414" s="13"/>
+    </row>
+    <row r="415" spans="2:11" ht="15" customHeight="1">
+      <c r="B415" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C415" s="11"/>
-      <c r="D415" s="11"/>
-      <c r="E415" s="12" t="s">
+      <c r="C415" s="12"/>
+      <c r="D415" s="12"/>
+      <c r="E415" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F415" s="12"/>
-      <c r="G415" s="12"/>
-      <c r="H415" s="12"/>
-      <c r="I415" s="12"/>
-      <c r="J415" s="12"/>
-      <c r="K415" s="12"/>
-    </row>
-    <row r="416" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B416" s="11" t="s">
+      <c r="F415" s="13"/>
+      <c r="G415" s="13"/>
+      <c r="H415" s="13"/>
+      <c r="I415" s="13"/>
+      <c r="J415" s="13"/>
+      <c r="K415" s="13"/>
+    </row>
+    <row r="416" spans="2:11" ht="15" customHeight="1">
+      <c r="B416" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C416" s="11"/>
-      <c r="D416" s="11"/>
-      <c r="E416" s="12" t="s">
+      <c r="C416" s="12"/>
+      <c r="D416" s="12"/>
+      <c r="E416" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="F416" s="12"/>
-      <c r="G416" s="12"/>
-      <c r="H416" s="12"/>
-      <c r="I416" s="12"/>
-      <c r="J416" s="12"/>
-      <c r="K416" s="12"/>
-    </row>
-    <row r="417" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B417" s="11" t="s">
+      <c r="F416" s="13"/>
+      <c r="G416" s="13"/>
+      <c r="H416" s="13"/>
+      <c r="I416" s="13"/>
+      <c r="J416" s="13"/>
+      <c r="K416" s="13"/>
+    </row>
+    <row r="417" spans="2:11" ht="15" customHeight="1">
+      <c r="B417" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C417" s="11"/>
-      <c r="D417" s="11"/>
-      <c r="E417" s="12" t="s">
+      <c r="C417" s="12"/>
+      <c r="D417" s="12"/>
+      <c r="E417" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="F417" s="12"/>
-      <c r="G417" s="12"/>
-      <c r="H417" s="12"/>
-      <c r="I417" s="12"/>
-      <c r="J417" s="12"/>
-      <c r="K417" s="12"/>
-    </row>
-    <row r="418" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B418" s="11" t="s">
+      <c r="F417" s="13"/>
+      <c r="G417" s="13"/>
+      <c r="H417" s="13"/>
+      <c r="I417" s="13"/>
+      <c r="J417" s="13"/>
+      <c r="K417" s="13"/>
+    </row>
+    <row r="418" spans="2:11" ht="15" customHeight="1">
+      <c r="B418" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="C418" s="11"/>
-      <c r="D418" s="11"/>
-      <c r="E418" s="12" t="s">
+      <c r="C418" s="12"/>
+      <c r="D418" s="12"/>
+      <c r="E418" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="F418" s="12"/>
-      <c r="G418" s="12"/>
-      <c r="H418" s="12"/>
-      <c r="I418" s="12"/>
-      <c r="J418" s="12"/>
-      <c r="K418" s="12"/>
-    </row>
-    <row r="419" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B419" s="11" t="s">
+      <c r="F418" s="13"/>
+      <c r="G418" s="13"/>
+      <c r="H418" s="13"/>
+      <c r="I418" s="13"/>
+      <c r="J418" s="13"/>
+      <c r="K418" s="13"/>
+    </row>
+    <row r="419" spans="2:11" ht="15" customHeight="1">
+      <c r="B419" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C419" s="11"/>
-      <c r="D419" s="11"/>
-      <c r="E419" s="12" t="s">
+      <c r="C419" s="12"/>
+      <c r="D419" s="12"/>
+      <c r="E419" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="F419" s="12"/>
-      <c r="G419" s="12"/>
-      <c r="H419" s="12"/>
-      <c r="I419" s="12"/>
-      <c r="J419" s="12"/>
-      <c r="K419" s="12"/>
-    </row>
-    <row r="420" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B420" s="11" t="s">
+      <c r="F419" s="13"/>
+      <c r="G419" s="13"/>
+      <c r="H419" s="13"/>
+      <c r="I419" s="13"/>
+      <c r="J419" s="13"/>
+      <c r="K419" s="13"/>
+    </row>
+    <row r="420" spans="2:11" ht="15" customHeight="1">
+      <c r="B420" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C420" s="11"/>
-      <c r="D420" s="11"/>
-      <c r="E420" s="12" t="s">
+      <c r="C420" s="12"/>
+      <c r="D420" s="12"/>
+      <c r="E420" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="F420" s="12"/>
-      <c r="G420" s="12"/>
-      <c r="H420" s="12"/>
-      <c r="I420" s="12"/>
-      <c r="J420" s="12"/>
-      <c r="K420" s="12"/>
-    </row>
-    <row r="421" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B421" s="11" t="s">
+      <c r="F420" s="13"/>
+      <c r="G420" s="13"/>
+      <c r="H420" s="13"/>
+      <c r="I420" s="13"/>
+      <c r="J420" s="13"/>
+      <c r="K420" s="13"/>
+    </row>
+    <row r="421" spans="2:11" ht="15" customHeight="1">
+      <c r="B421" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C421" s="11"/>
-      <c r="D421" s="11"/>
-      <c r="E421" s="12" t="s">
+      <c r="C421" s="12"/>
+      <c r="D421" s="12"/>
+      <c r="E421" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F421" s="12"/>
-      <c r="G421" s="12"/>
-      <c r="H421" s="12"/>
-      <c r="I421" s="12"/>
-      <c r="J421" s="12"/>
-      <c r="K421" s="12"/>
-    </row>
-    <row r="422" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B422" s="11" t="s">
+      <c r="F421" s="13"/>
+      <c r="G421" s="13"/>
+      <c r="H421" s="13"/>
+      <c r="I421" s="13"/>
+      <c r="J421" s="13"/>
+      <c r="K421" s="13"/>
+    </row>
+    <row r="422" spans="2:11" ht="15" customHeight="1">
+      <c r="B422" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="C422" s="11"/>
-      <c r="D422" s="11"/>
-      <c r="E422" s="12" t="s">
+      <c r="C422" s="12"/>
+      <c r="D422" s="12"/>
+      <c r="E422" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="F422" s="12"/>
-      <c r="G422" s="12"/>
-      <c r="H422" s="12"/>
-      <c r="I422" s="12"/>
-      <c r="J422" s="12"/>
-      <c r="K422" s="12"/>
-    </row>
-    <row r="425" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="F422" s="13"/>
+      <c r="G422" s="13"/>
+      <c r="H422" s="13"/>
+      <c r="I422" s="13"/>
+      <c r="J422" s="13"/>
+      <c r="K422" s="13"/>
+    </row>
+    <row r="425" spans="2:11" ht="19.5">
       <c r="B425" s="9" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="426" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B426" s="13" t="s">
+    <row r="426" spans="2:11">
+      <c r="B426" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C426" s="13"/>
-      <c r="D426" s="13"/>
-      <c r="E426" s="13" t="s">
+      <c r="C426" s="14"/>
+      <c r="D426" s="14"/>
+      <c r="E426" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="F426" s="13"/>
-      <c r="G426" s="13"/>
-      <c r="H426" s="13"/>
-      <c r="I426" s="13"/>
-      <c r="J426" s="13"/>
-      <c r="K426" s="13"/>
-    </row>
-    <row r="427" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B427" s="11" t="s">
+      <c r="F426" s="14"/>
+      <c r="G426" s="14"/>
+      <c r="H426" s="14"/>
+      <c r="I426" s="14"/>
+      <c r="J426" s="14"/>
+      <c r="K426" s="14"/>
+    </row>
+    <row r="427" spans="2:11">
+      <c r="B427" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="C427" s="11"/>
-      <c r="D427" s="11"/>
-      <c r="E427" s="12" t="s">
+      <c r="C427" s="12"/>
+      <c r="D427" s="12"/>
+      <c r="E427" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="F427" s="12"/>
-      <c r="G427" s="12"/>
-      <c r="H427" s="12"/>
-      <c r="I427" s="12"/>
-      <c r="J427" s="12"/>
-      <c r="K427" s="12"/>
-    </row>
-    <row r="428" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B428" s="11" t="s">
+      <c r="F427" s="13"/>
+      <c r="G427" s="13"/>
+      <c r="H427" s="13"/>
+      <c r="I427" s="13"/>
+      <c r="J427" s="13"/>
+      <c r="K427" s="13"/>
+    </row>
+    <row r="428" spans="2:11">
+      <c r="B428" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="C428" s="11"/>
-      <c r="D428" s="11"/>
-      <c r="E428" s="12" t="s">
+      <c r="C428" s="12"/>
+      <c r="D428" s="12"/>
+      <c r="E428" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="F428" s="12"/>
-      <c r="G428" s="12"/>
-      <c r="H428" s="12"/>
-      <c r="I428" s="12"/>
-      <c r="J428" s="12"/>
-      <c r="K428" s="12"/>
-    </row>
-    <row r="429" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B429" s="11" t="s">
+      <c r="F428" s="13"/>
+      <c r="G428" s="13"/>
+      <c r="H428" s="13"/>
+      <c r="I428" s="13"/>
+      <c r="J428" s="13"/>
+      <c r="K428" s="13"/>
+    </row>
+    <row r="429" spans="2:11">
+      <c r="B429" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C429" s="11"/>
-      <c r="D429" s="11"/>
-      <c r="E429" s="12" t="s">
+      <c r="C429" s="12"/>
+      <c r="D429" s="12"/>
+      <c r="E429" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="F429" s="12"/>
-      <c r="G429" s="12"/>
-      <c r="H429" s="12"/>
-      <c r="I429" s="12"/>
-      <c r="J429" s="12"/>
-      <c r="K429" s="12"/>
-    </row>
-    <row r="430" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B430" s="11" t="s">
+      <c r="F429" s="13"/>
+      <c r="G429" s="13"/>
+      <c r="H429" s="13"/>
+      <c r="I429" s="13"/>
+      <c r="J429" s="13"/>
+      <c r="K429" s="13"/>
+    </row>
+    <row r="430" spans="2:11">
+      <c r="B430" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="C430" s="11"/>
-      <c r="D430" s="11"/>
-      <c r="E430" s="12" t="s">
+      <c r="C430" s="12"/>
+      <c r="D430" s="12"/>
+      <c r="E430" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="F430" s="12"/>
-      <c r="G430" s="12"/>
-      <c r="H430" s="12"/>
-      <c r="I430" s="12"/>
-      <c r="J430" s="12"/>
-      <c r="K430" s="12"/>
-    </row>
-    <row r="431" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B431" s="11" t="s">
+      <c r="F430" s="13"/>
+      <c r="G430" s="13"/>
+      <c r="H430" s="13"/>
+      <c r="I430" s="13"/>
+      <c r="J430" s="13"/>
+      <c r="K430" s="13"/>
+    </row>
+    <row r="431" spans="2:11">
+      <c r="B431" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C431" s="11"/>
-      <c r="D431" s="11"/>
-      <c r="E431" s="12" t="s">
+      <c r="C431" s="12"/>
+      <c r="D431" s="12"/>
+      <c r="E431" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="F431" s="12"/>
-      <c r="G431" s="12"/>
-      <c r="H431" s="12"/>
-      <c r="I431" s="12"/>
-      <c r="J431" s="12"/>
-      <c r="K431" s="12"/>
-    </row>
-    <row r="432" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F431" s="13"/>
+      <c r="G431" s="13"/>
+      <c r="H431" s="13"/>
+      <c r="I431" s="13"/>
+      <c r="J431" s="13"/>
+      <c r="K431" s="13"/>
+    </row>
+    <row r="432" spans="2:11">
       <c r="B432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="433" spans="2:11">
       <c r="B433" t="s">
         <v>326</v>
       </c>
       <c r="E433"/>
     </row>
-    <row r="434" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:11" ht="19.5">
       <c r="B434" s="9" t="s">
         <v>354</v>
       </c>
       <c r="E434"/>
     </row>
-    <row r="435" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B435" s="13" t="s">
+    <row r="435" spans="2:11">
+      <c r="B435" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C435" s="13"/>
-      <c r="D435" s="13"/>
-      <c r="E435" s="13" t="s">
+      <c r="C435" s="14"/>
+      <c r="D435" s="14"/>
+      <c r="E435" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="F435" s="13"/>
-      <c r="G435" s="13"/>
-      <c r="H435" s="13"/>
-      <c r="I435" s="13"/>
-      <c r="J435" s="13"/>
-      <c r="K435" s="13"/>
-    </row>
-    <row r="436" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B436" s="11" t="s">
+      <c r="F435" s="14"/>
+      <c r="G435" s="14"/>
+      <c r="H435" s="14"/>
+      <c r="I435" s="14"/>
+      <c r="J435" s="14"/>
+      <c r="K435" s="14"/>
+    </row>
+    <row r="436" spans="2:11">
+      <c r="B436" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="C436" s="11"/>
-      <c r="D436" s="11"/>
-      <c r="E436" s="12" t="s">
+      <c r="C436" s="12"/>
+      <c r="D436" s="12"/>
+      <c r="E436" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="F436" s="12"/>
-      <c r="G436" s="12"/>
-      <c r="H436" s="12"/>
-      <c r="I436" s="12"/>
-      <c r="J436" s="12"/>
-      <c r="K436" s="12"/>
-    </row>
-    <row r="437" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B437" s="11" t="s">
+      <c r="F436" s="13"/>
+      <c r="G436" s="13"/>
+      <c r="H436" s="13"/>
+      <c r="I436" s="13"/>
+      <c r="J436" s="13"/>
+      <c r="K436" s="13"/>
+    </row>
+    <row r="437" spans="2:11">
+      <c r="B437" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="C437" s="11"/>
-      <c r="D437" s="11"/>
-      <c r="E437" s="12" t="s">
+      <c r="C437" s="12"/>
+      <c r="D437" s="12"/>
+      <c r="E437" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="F437" s="12"/>
-      <c r="G437" s="12"/>
-      <c r="H437" s="12"/>
-      <c r="I437" s="12"/>
-      <c r="J437" s="12"/>
-      <c r="K437" s="12"/>
-    </row>
-    <row r="438" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B438" s="11" t="s">
+      <c r="F437" s="13"/>
+      <c r="G437" s="13"/>
+      <c r="H437" s="13"/>
+      <c r="I437" s="13"/>
+      <c r="J437" s="13"/>
+      <c r="K437" s="13"/>
+    </row>
+    <row r="438" spans="2:11">
+      <c r="B438" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="C438" s="11"/>
-      <c r="D438" s="11"/>
-      <c r="E438" s="12" t="s">
+      <c r="C438" s="12"/>
+      <c r="D438" s="12"/>
+      <c r="E438" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="F438" s="12"/>
-      <c r="G438" s="12"/>
-      <c r="H438" s="12"/>
-      <c r="I438" s="12"/>
-      <c r="J438" s="12"/>
-      <c r="K438" s="12"/>
-    </row>
-    <row r="439" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B439" s="11" t="s">
+      <c r="F438" s="13"/>
+      <c r="G438" s="13"/>
+      <c r="H438" s="13"/>
+      <c r="I438" s="13"/>
+      <c r="J438" s="13"/>
+      <c r="K438" s="13"/>
+    </row>
+    <row r="439" spans="2:11">
+      <c r="B439" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="C439" s="11"/>
-      <c r="D439" s="11"/>
-      <c r="E439" s="12" t="s">
+      <c r="C439" s="12"/>
+      <c r="D439" s="12"/>
+      <c r="E439" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="F439" s="12"/>
-      <c r="G439" s="12"/>
-      <c r="H439" s="12"/>
-      <c r="I439" s="12"/>
-      <c r="J439" s="12"/>
-      <c r="K439" s="12"/>
-    </row>
-    <row r="440" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B440" s="11" t="s">
+      <c r="F439" s="13"/>
+      <c r="G439" s="13"/>
+      <c r="H439" s="13"/>
+      <c r="I439" s="13"/>
+      <c r="J439" s="13"/>
+      <c r="K439" s="13"/>
+    </row>
+    <row r="440" spans="2:11">
+      <c r="B440" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C440" s="11"/>
-      <c r="D440" s="11"/>
-      <c r="E440" s="12" t="s">
+      <c r="C440" s="12"/>
+      <c r="D440" s="12"/>
+      <c r="E440" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="F440" s="12"/>
-      <c r="G440" s="12"/>
-      <c r="H440" s="12"/>
-      <c r="I440" s="12"/>
-      <c r="J440" s="12"/>
-      <c r="K440" s="12"/>
-    </row>
-    <row r="441" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B441" s="11" t="s">
+      <c r="F440" s="13"/>
+      <c r="G440" s="13"/>
+      <c r="H440" s="13"/>
+      <c r="I440" s="13"/>
+      <c r="J440" s="13"/>
+      <c r="K440" s="13"/>
+    </row>
+    <row r="441" spans="2:11">
+      <c r="B441" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C441" s="11"/>
-      <c r="D441" s="11"/>
-      <c r="E441" s="12" t="s">
+      <c r="C441" s="12"/>
+      <c r="D441" s="12"/>
+      <c r="E441" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="F441" s="12"/>
-      <c r="G441" s="12"/>
-      <c r="H441" s="12"/>
-      <c r="I441" s="12"/>
-      <c r="J441" s="12"/>
-      <c r="K441" s="12"/>
-    </row>
-    <row r="442" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B442" s="11" t="s">
+      <c r="F441" s="13"/>
+      <c r="G441" s="13"/>
+      <c r="H441" s="13"/>
+      <c r="I441" s="13"/>
+      <c r="J441" s="13"/>
+      <c r="K441" s="13"/>
+    </row>
+    <row r="442" spans="2:11">
+      <c r="B442" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C442" s="11"/>
-      <c r="D442" s="11"/>
-      <c r="E442" s="12" t="s">
+      <c r="C442" s="12"/>
+      <c r="D442" s="12"/>
+      <c r="E442" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="F442" s="12"/>
-      <c r="G442" s="12"/>
-      <c r="H442" s="12"/>
-      <c r="I442" s="12"/>
-      <c r="J442" s="12"/>
-      <c r="K442" s="12"/>
-    </row>
-    <row r="443" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B443" s="11" t="s">
+      <c r="F442" s="13"/>
+      <c r="G442" s="13"/>
+      <c r="H442" s="13"/>
+      <c r="I442" s="13"/>
+      <c r="J442" s="13"/>
+      <c r="K442" s="13"/>
+    </row>
+    <row r="443" spans="2:11">
+      <c r="B443" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C443" s="11"/>
-      <c r="D443" s="11"/>
-      <c r="E443" s="12" t="s">
+      <c r="C443" s="12"/>
+      <c r="D443" s="12"/>
+      <c r="E443" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="F443" s="12"/>
-      <c r="G443" s="12"/>
-      <c r="H443" s="12"/>
-      <c r="I443" s="12"/>
-      <c r="J443" s="12"/>
-      <c r="K443" s="12"/>
-    </row>
-    <row r="444" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B444" s="11" t="s">
+      <c r="F443" s="13"/>
+      <c r="G443" s="13"/>
+      <c r="H443" s="13"/>
+      <c r="I443" s="13"/>
+      <c r="J443" s="13"/>
+      <c r="K443" s="13"/>
+    </row>
+    <row r="444" spans="2:11">
+      <c r="B444" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C444" s="11"/>
-      <c r="D444" s="11"/>
-      <c r="E444" s="12" t="s">
+      <c r="C444" s="12"/>
+      <c r="D444" s="12"/>
+      <c r="E444" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F444" s="12"/>
-      <c r="G444" s="12"/>
-      <c r="H444" s="12"/>
-      <c r="I444" s="12"/>
-      <c r="J444" s="12"/>
-      <c r="K444" s="12"/>
-    </row>
-    <row r="445" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B445" s="11" t="s">
+      <c r="F444" s="13"/>
+      <c r="G444" s="13"/>
+      <c r="H444" s="13"/>
+      <c r="I444" s="13"/>
+      <c r="J444" s="13"/>
+      <c r="K444" s="13"/>
+    </row>
+    <row r="445" spans="2:11">
+      <c r="B445" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="C445" s="11"/>
-      <c r="D445" s="11"/>
-      <c r="E445" s="12" t="s">
+      <c r="C445" s="12"/>
+      <c r="D445" s="12"/>
+      <c r="E445" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="F445" s="12"/>
-      <c r="G445" s="12"/>
-      <c r="H445" s="12"/>
-      <c r="I445" s="12"/>
-      <c r="J445" s="12"/>
-      <c r="K445" s="12"/>
-    </row>
-    <row r="446" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B446" s="11" t="s">
+      <c r="F445" s="13"/>
+      <c r="G445" s="13"/>
+      <c r="H445" s="13"/>
+      <c r="I445" s="13"/>
+      <c r="J445" s="13"/>
+      <c r="K445" s="13"/>
+    </row>
+    <row r="446" spans="2:11">
+      <c r="B446" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C446" s="11"/>
-      <c r="D446" s="11"/>
-      <c r="E446" s="12" t="s">
+      <c r="C446" s="12"/>
+      <c r="D446" s="12"/>
+      <c r="E446" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="F446" s="12"/>
-      <c r="G446" s="12"/>
-      <c r="H446" s="12"/>
-      <c r="I446" s="12"/>
-      <c r="J446" s="12"/>
-      <c r="K446" s="12"/>
-    </row>
-    <row r="447" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B447" s="11" t="s">
+      <c r="F446" s="13"/>
+      <c r="G446" s="13"/>
+      <c r="H446" s="13"/>
+      <c r="I446" s="13"/>
+      <c r="J446" s="13"/>
+      <c r="K446" s="13"/>
+    </row>
+    <row r="447" spans="2:11">
+      <c r="B447" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="C447" s="11"/>
-      <c r="D447" s="11"/>
-      <c r="E447" s="12" t="s">
+      <c r="C447" s="12"/>
+      <c r="D447" s="12"/>
+      <c r="E447" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="F447" s="12"/>
-      <c r="G447" s="12"/>
-      <c r="H447" s="12"/>
-      <c r="I447" s="12"/>
-      <c r="J447" s="12"/>
-      <c r="K447" s="12"/>
-    </row>
-    <row r="448" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B448" s="11" t="s">
+      <c r="F447" s="13"/>
+      <c r="G447" s="13"/>
+      <c r="H447" s="13"/>
+      <c r="I447" s="13"/>
+      <c r="J447" s="13"/>
+      <c r="K447" s="13"/>
+    </row>
+    <row r="448" spans="2:11">
+      <c r="B448" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C448" s="11"/>
-      <c r="D448" s="11"/>
-      <c r="E448" s="12" t="s">
+      <c r="C448" s="12"/>
+      <c r="D448" s="12"/>
+      <c r="E448" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="F448" s="12"/>
-      <c r="G448" s="12"/>
-      <c r="H448" s="12"/>
-      <c r="I448" s="12"/>
-      <c r="J448" s="12"/>
-      <c r="K448" s="12"/>
-    </row>
-    <row r="450" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F448" s="13"/>
+      <c r="G448" s="13"/>
+      <c r="H448" s="13"/>
+      <c r="I448" s="13"/>
+      <c r="J448" s="13"/>
+      <c r="K448" s="13"/>
+    </row>
+    <row r="450" spans="1:14" s="3" customFormat="1">
       <c r="A450" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:14">
       <c r="B452" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:14">
       <c r="B453" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:14">
       <c r="B454" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:14">
       <c r="B455" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:14">
       <c r="B456" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:14">
       <c r="B457" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:14">
       <c r="B458" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:14">
       <c r="B459" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:14">
       <c r="B460" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="462" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:14" s="3" customFormat="1">
       <c r="A462" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:14">
       <c r="B464" s="8" t="s">
         <v>385</v>
       </c>
@@ -7709,7 +8336,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="465" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="465" spans="2:16">
       <c r="B465" s="1" t="s">
         <v>387</v>
       </c>
@@ -7720,7 +8347,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="466" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="466" spans="2:16">
       <c r="C466" s="1" t="s">
         <v>42</v>
       </c>
@@ -7728,7 +8355,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="467" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="467" spans="2:16">
       <c r="D467" s="1" t="s">
         <v>366</v>
       </c>
@@ -7736,12 +8363,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="468" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="468" spans="2:16">
       <c r="O468" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="469" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="469" spans="2:16">
       <c r="B469" s="1" t="s">
         <v>367</v>
       </c>
@@ -7749,7 +8376,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="470" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="470" spans="2:16">
       <c r="B470" s="1" t="s">
         <v>368</v>
       </c>
@@ -7757,7 +8384,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="471" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="471" spans="2:16">
       <c r="B471" s="1" t="s">
         <v>369</v>
       </c>
@@ -7765,7 +8392,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="472" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="472" spans="2:16">
       <c r="B472" s="1" t="s">
         <v>370</v>
       </c>
@@ -7773,12 +8400,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="473" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="473" spans="2:16">
       <c r="B473" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="474" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="474" spans="2:16">
       <c r="B474" s="1" t="s">
         <v>372</v>
       </c>
@@ -7786,7 +8413,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="475" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="475" spans="2:16">
       <c r="B475" s="1" t="s">
         <v>373</v>
       </c>
@@ -7794,7 +8421,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="476" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="476" spans="2:16">
       <c r="B476" s="1" t="s">
         <v>374</v>
       </c>
@@ -7802,7 +8429,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="477" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="477" spans="2:16">
       <c r="B477" s="1" t="s">
         <v>375</v>
       </c>
@@ -7810,7 +8437,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="478" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="478" spans="2:16">
       <c r="B478" s="1" t="s">
         <v>376</v>
       </c>
@@ -7818,7 +8445,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="479" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="479" spans="2:16">
       <c r="B479" s="1" t="s">
         <v>377</v>
       </c>
@@ -7826,7 +8453,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="480" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="480" spans="2:16">
       <c r="B480" s="1" t="s">
         <v>63</v>
       </c>
@@ -7834,12 +8461,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="481" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="481" spans="2:16">
       <c r="N481" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="482" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="482" spans="2:16">
       <c r="B482" s="8" t="s">
         <v>386</v>
       </c>
@@ -7847,7 +8474,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="483" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="483" spans="2:16">
       <c r="B483" s="1" t="s">
         <v>378</v>
       </c>
@@ -7855,7 +8482,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="484" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="484" spans="2:16">
       <c r="C484" s="1" t="s">
         <v>379</v>
       </c>
@@ -7863,7 +8490,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="485" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="485" spans="2:16">
       <c r="D485" s="1" t="s">
         <v>366</v>
       </c>
@@ -7871,12 +8498,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="486" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="486" spans="2:16">
       <c r="P486" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="487" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="487" spans="2:16">
       <c r="B487" s="1" t="s">
         <v>367</v>
       </c>
@@ -7884,7 +8511,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="488" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="488" spans="2:16">
       <c r="B488" s="1" t="s">
         <v>95</v>
       </c>
@@ -7892,12 +8519,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="489" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="489" spans="2:16">
       <c r="B489" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="490" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="490" spans="2:16">
       <c r="B490" s="1" t="s">
         <v>381</v>
       </c>
@@ -7905,7 +8532,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="491" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="491" spans="2:16">
       <c r="B491" s="1" t="s">
         <v>382</v>
       </c>
@@ -7913,7 +8540,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="492" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="492" spans="2:16">
       <c r="B492" s="1" t="s">
         <v>383</v>
       </c>
@@ -7921,7 +8548,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="493" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="493" spans="2:16">
       <c r="B493" s="1" t="s">
         <v>368</v>
       </c>
@@ -7929,7 +8556,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="494" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="494" spans="2:16">
       <c r="B494" s="1" t="s">
         <v>369</v>
       </c>
@@ -7937,7 +8564,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="495" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="495" spans="2:16">
       <c r="B495" s="1" t="s">
         <v>370</v>
       </c>
@@ -7945,7 +8572,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="496" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="496" spans="2:16">
       <c r="B496" s="1" t="s">
         <v>371</v>
       </c>
@@ -7953,7 +8580,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="497" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="497" spans="2:16">
       <c r="B497" s="1" t="s">
         <v>372</v>
       </c>
@@ -7961,7 +8588,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="498" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="498" spans="2:16">
       <c r="B498" s="1" t="s">
         <v>384</v>
       </c>
@@ -7969,7 +8596,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="499" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="499" spans="2:16">
       <c r="B499" s="1" t="s">
         <v>368</v>
       </c>
@@ -7977,7 +8604,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="500" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="500" spans="2:16">
       <c r="B500" s="1" t="s">
         <v>369</v>
       </c>
@@ -7985,7 +8612,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="501" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="501" spans="2:16">
       <c r="B501" s="1" t="s">
         <v>370</v>
       </c>
@@ -7993,7 +8620,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="502" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="502" spans="2:16">
       <c r="B502" s="1" t="s">
         <v>371</v>
       </c>
@@ -8001,7 +8628,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="503" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="503" spans="2:16">
       <c r="B503" s="1" t="s">
         <v>372</v>
       </c>
@@ -8009,7 +8636,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="504" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="504" spans="2:16">
       <c r="B504" s="1" t="s">
         <v>373</v>
       </c>
@@ -8017,7 +8644,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="505" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="505" spans="2:16">
       <c r="B505" s="1" t="s">
         <v>374</v>
       </c>
@@ -8025,7 +8652,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="506" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="506" spans="2:16">
       <c r="B506" s="1" t="s">
         <v>375</v>
       </c>
@@ -8033,7 +8660,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="507" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="507" spans="2:16">
       <c r="B507" s="1" t="s">
         <v>376</v>
       </c>
@@ -8041,7 +8668,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="508" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="508" spans="2:16">
       <c r="B508" s="1" t="s">
         <v>63</v>
       </c>
@@ -8049,12 +8676,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="509" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="509" spans="2:16">
       <c r="P509" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="510" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="510" spans="2:16">
       <c r="B510" s="8" t="s">
         <v>396</v>
       </c>
@@ -8062,7 +8689,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="511" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="511" spans="2:16">
       <c r="B511" s="1" t="s">
         <v>378</v>
       </c>
@@ -8070,12 +8697,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="512" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="512" spans="2:16">
       <c r="C512" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="513" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="513" spans="2:16">
       <c r="C513" s="1" t="s">
         <v>379</v>
       </c>
@@ -8083,7 +8710,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="514" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="514" spans="2:16">
       <c r="D514" s="1" t="s">
         <v>366</v>
       </c>
@@ -8091,7 +8718,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="515" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="515" spans="2:16">
       <c r="D515" s="1" t="s">
         <v>390</v>
       </c>
@@ -8099,7 +8726,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="516" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="516" spans="2:16">
       <c r="C516" s="4" t="s">
         <v>391</v>
       </c>
@@ -8107,12 +8734,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="517" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="517" spans="2:16">
       <c r="N517" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="518" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="518" spans="2:16">
       <c r="B518" s="1" t="s">
         <v>384</v>
       </c>
@@ -8120,7 +8747,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="519" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="519" spans="2:16">
       <c r="B519" s="1" t="s">
         <v>368</v>
       </c>
@@ -8128,7 +8755,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="520" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="520" spans="2:16">
       <c r="B520" s="1" t="s">
         <v>369</v>
       </c>
@@ -8136,7 +8763,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="521" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="521" spans="2:16">
       <c r="B521" s="1" t="s">
         <v>370</v>
       </c>
@@ -8144,7 +8771,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="522" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="522" spans="2:16">
       <c r="B522" s="1" t="s">
         <v>371</v>
       </c>
@@ -8152,7 +8779,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="523" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="523" spans="2:16">
       <c r="B523" s="1" t="s">
         <v>372</v>
       </c>
@@ -8160,7 +8787,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="524" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="524" spans="2:16">
       <c r="B524" s="1" t="s">
         <v>373</v>
       </c>
@@ -8168,7 +8795,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="525" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="525" spans="2:16">
       <c r="B525" s="1" t="s">
         <v>374</v>
       </c>
@@ -8176,7 +8803,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="526" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="526" spans="2:16">
       <c r="B526" s="1" t="s">
         <v>375</v>
       </c>
@@ -8184,7 +8811,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="527" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="527" spans="2:16">
       <c r="B527" s="1" t="s">
         <v>376</v>
       </c>
@@ -8192,12 +8819,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="528" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="528" spans="2:16">
       <c r="B528" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="529" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="529" spans="2:14">
       <c r="B529" s="1" t="s">
         <v>393</v>
       </c>
@@ -8205,7 +8832,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="530" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="530" spans="2:14">
       <c r="B530" s="1" t="s">
         <v>368</v>
       </c>
@@ -8213,7 +8840,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="531" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="531" spans="2:14">
       <c r="B531" s="1" t="s">
         <v>369</v>
       </c>
@@ -8221,7 +8848,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="532" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="532" spans="2:14">
       <c r="B532" s="1" t="s">
         <v>370</v>
       </c>
@@ -8229,7 +8856,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="533" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="533" spans="2:14">
       <c r="B533" s="1" t="s">
         <v>371</v>
       </c>
@@ -8237,7 +8864,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="534" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="534" spans="2:14">
       <c r="B534" s="1" t="s">
         <v>372</v>
       </c>
@@ -8245,7 +8872,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="535" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="535" spans="2:14">
       <c r="B535" s="1" t="s">
         <v>394</v>
       </c>
@@ -8253,7 +8880,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="536" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="536" spans="2:14">
       <c r="B536" s="1" t="s">
         <v>395</v>
       </c>
@@ -8261,7 +8888,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="537" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:14">
       <c r="B537" s="1" t="s">
         <v>30</v>
       </c>
@@ -8269,305 +8896,285 @@
         <v>368</v>
       </c>
     </row>
-    <row r="538" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="538" spans="2:14">
       <c r="N538" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="539" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="539" spans="2:14">
       <c r="N539" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="540" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:14">
       <c r="N540" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="541" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:14">
       <c r="N541" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="542" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="542" spans="2:14">
       <c r="N542" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="543" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="543" spans="2:14">
       <c r="N543" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="544" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="544" spans="2:14">
       <c r="N544" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:14">
       <c r="N545" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:14">
       <c r="N546" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:14">
       <c r="N547" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:14">
       <c r="N548" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:14">
       <c r="N549" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:14">
       <c r="N550" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:14">
       <c r="N551" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:14">
       <c r="N552" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:14">
       <c r="N553" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:14">
       <c r="N554" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:14">
       <c r="N555" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:14">
       <c r="N556" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:14">
       <c r="N557" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="559" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:14" s="3" customFormat="1">
       <c r="A559" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="562" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="562" spans="2:3">
       <c r="B562" s="10"/>
     </row>
-    <row r="575" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="575" spans="2:3">
       <c r="C575" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="576" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="576" spans="2:3">
       <c r="C576" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:3">
       <c r="C577" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:3">
       <c r="C578" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:3">
       <c r="C580" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:3">
       <c r="C581" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:3">
       <c r="C583" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="586" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:3" s="3" customFormat="1">
       <c r="A586" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="612" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:1" s="3" customFormat="1">
       <c r="A612" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="638" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:2" s="3" customFormat="1">
       <c r="A638" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:2">
       <c r="B640" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="657" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:11" s="3" customFormat="1">
       <c r="A657" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="K672" s="14" t="s">
+    <row r="672" spans="1:11">
+      <c r="K672" s="11" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="677" spans="11:13" x14ac:dyDescent="0.15">
-      <c r="K677" s="14" t="s">
+    <row r="677" spans="11:13">
+      <c r="K677" s="11" t="s">
         <v>425</v>
       </c>
       <c r="M677" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="689" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:1" s="3" customFormat="1">
       <c r="A689" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="701" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:1" s="3" customFormat="1">
       <c r="A701" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:11">
       <c r="K709" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="720" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:11" s="3" customFormat="1">
       <c r="A720" s="3" t="s">
         <v>430</v>
       </c>
     </row>
+    <row r="785" spans="1:4" s="3" customFormat="1">
+      <c r="A785" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D785" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="805" spans="1:12" s="3" customFormat="1">
+      <c r="A805" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C805" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="809" spans="1:12">
+      <c r="K809" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="810" spans="1:12">
+      <c r="L810" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="811" spans="1:12">
+      <c r="L811" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="813" spans="1:12">
+      <c r="L813" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="815" spans="1:12">
+      <c r="K815" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="816" spans="1:12">
+      <c r="L816" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="817" spans="12:12">
+      <c r="L817" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="819" spans="12:12">
+      <c r="L819" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B446:D446"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="B447:D447"/>
-    <mergeCell ref="E447:K447"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="E448:K448"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:K443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:K444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:K445"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:K440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:K441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:K442"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:K438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:K439"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:K430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:K431"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:K436"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:K426"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:K435"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:K427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="E428:K428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:K429"/>
-    <mergeCell ref="E418:K418"/>
-    <mergeCell ref="E419:K419"/>
-    <mergeCell ref="E420:K420"/>
-    <mergeCell ref="E421:K421"/>
-    <mergeCell ref="E422:K422"/>
-    <mergeCell ref="E411:K411"/>
-    <mergeCell ref="E412:K412"/>
-    <mergeCell ref="E413:K413"/>
-    <mergeCell ref="E414:K414"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="E380:K380"/>
-    <mergeCell ref="E381:K381"/>
-    <mergeCell ref="E364:K364"/>
-    <mergeCell ref="E365:K365"/>
-    <mergeCell ref="E366:K366"/>
-    <mergeCell ref="E367:K367"/>
-    <mergeCell ref="E368:K368"/>
-    <mergeCell ref="E369:K369"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="E416:K416"/>
-    <mergeCell ref="E417:K417"/>
-    <mergeCell ref="E385:K385"/>
-    <mergeCell ref="E370:K370"/>
-    <mergeCell ref="E371:K371"/>
-    <mergeCell ref="E372:K372"/>
-    <mergeCell ref="E373:K373"/>
-    <mergeCell ref="E360:K360"/>
-    <mergeCell ref="E361:K361"/>
-    <mergeCell ref="E350:K350"/>
-    <mergeCell ref="E351:K351"/>
-    <mergeCell ref="E352:K352"/>
-    <mergeCell ref="E353:K353"/>
-    <mergeCell ref="E354:K354"/>
-    <mergeCell ref="E355:K355"/>
-    <mergeCell ref="E356:K356"/>
-    <mergeCell ref="E357:K357"/>
-    <mergeCell ref="E358:K358"/>
-    <mergeCell ref="E359:K359"/>
-    <mergeCell ref="E382:K382"/>
-    <mergeCell ref="E383:K383"/>
-    <mergeCell ref="E384:K384"/>
-    <mergeCell ref="E376:K376"/>
-    <mergeCell ref="E377:K377"/>
-    <mergeCell ref="E378:K378"/>
-    <mergeCell ref="E379:K379"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
     <mergeCell ref="E386:K386"/>
     <mergeCell ref="E387:K387"/>
     <mergeCell ref="E374:K374"/>
@@ -8592,26 +9199,102 @@
     <mergeCell ref="B369:D369"/>
     <mergeCell ref="B370:D370"/>
     <mergeCell ref="B371:D371"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
+    <mergeCell ref="E380:K380"/>
+    <mergeCell ref="E381:K381"/>
+    <mergeCell ref="E364:K364"/>
+    <mergeCell ref="E365:K365"/>
+    <mergeCell ref="E366:K366"/>
+    <mergeCell ref="E367:K367"/>
+    <mergeCell ref="E368:K368"/>
+    <mergeCell ref="E369:K369"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="E416:K416"/>
+    <mergeCell ref="E417:K417"/>
+    <mergeCell ref="E385:K385"/>
+    <mergeCell ref="E370:K370"/>
+    <mergeCell ref="E371:K371"/>
+    <mergeCell ref="E372:K372"/>
+    <mergeCell ref="E373:K373"/>
+    <mergeCell ref="E382:K382"/>
+    <mergeCell ref="E383:K383"/>
+    <mergeCell ref="E384:K384"/>
+    <mergeCell ref="E376:K376"/>
+    <mergeCell ref="E377:K377"/>
+    <mergeCell ref="E378:K378"/>
+    <mergeCell ref="E379:K379"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="E447:K447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="E448:K448"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="447">
   <si>
     <t>built-in functions</t>
   </si>
@@ -316,7 +316,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -669,7 +669,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -955,7 +955,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -977,7 +977,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -987,7 +987,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1017,7 +1017,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1032,7 +1032,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1047,7 +1047,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1062,7 +1062,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1077,7 +1077,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1092,7 +1092,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1107,7 +1107,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1122,7 +1122,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1137,7 +1137,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,7 +1152,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,7 +1167,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1182,7 +1182,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1197,7 +1197,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1212,7 +1212,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1227,7 +1227,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1242,7 +1242,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1257,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1272,7 +1272,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1287,7 +1287,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1302,7 +1302,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1317,7 +1317,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,7 +1332,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1347,7 +1347,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1365,7 +1365,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1380,7 +1380,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1395,7 +1395,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1425,7 +1425,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1440,7 +1440,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1455,7 +1455,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1470,7 +1470,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1485,7 +1485,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1500,7 +1500,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1515,7 +1515,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1533,7 +1533,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1548,7 +1548,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1563,7 +1563,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1578,7 +1578,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1593,7 +1593,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1608,7 +1608,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1623,7 +1623,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1638,7 +1638,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1653,7 +1653,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1668,7 +1668,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1683,7 +1683,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1698,7 +1698,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1713,7 +1713,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1728,7 +1728,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1743,7 +1743,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1758,7 +1758,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1773,7 +1773,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1788,7 +1788,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1803,7 +1803,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1818,7 +1818,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1833,7 +1833,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1848,7 +1848,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1863,7 +1863,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1878,7 +1878,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1893,7 +1893,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1908,7 +1908,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1923,7 +1923,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2038,7 +2038,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2048,7 +2048,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2059,7 +2059,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2232,30 +2232,53 @@
   </si>
   <si>
     <t>参数2在参数1的函数里，全部计算并返回结果！</t>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40层的递归很慢~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40层的迭代很快~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斐波那契数列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斐波那契数列/汉诺塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉诺塔</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2263,7 +2286,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2272,7 +2295,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2281,7 +2304,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2295,7 +2318,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2377,7 +2400,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -5384,11 +5407,1050 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>874</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="149620940"/>
+          <a:ext cx="5020234" cy="5905501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>def factorial(n):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    if n == 1 or n == 2:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        return 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    else:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        return factorial(n - 1) + factorial(n - 2)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>number = int(input("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>请输入一个正整数表示经过的月数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>递归</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>result = factorial(number)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>经过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>%d </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>个月之后一共有：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>%d </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>对兔子</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>递归</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)" % (number, result))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>def factorial1(n):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    sum = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    cnt = 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    n1 = 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    n2 = 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    while (cnt &lt;= n):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        if cnt == 1:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            n1 = 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            sum = n1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        elif cnt == 2:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            n2 = 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            sum = n2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        else:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            sum = n1 + n2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            n1 = n2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            n2 = sum</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        cnt += 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    return sum</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>number = int(input("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>请输入一个正整数表示经过的月数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>迭代</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>result = factorial1(number)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>经过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>%d </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>个月之后一共有：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>%d </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>对兔子</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>迭代</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)" % (number, result))</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>839</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>689501</xdr:colOff>
+      <xdr:row>864</xdr:row>
+      <xdr:rowOff>112080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6947647" y="149620941"/>
+          <a:ext cx="6247619" cy="4314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>877</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>889</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="156008294"/>
+          <a:ext cx="5020234" cy="2162735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>def hanoi(n, x, y, z):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    if n == 1:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>直接从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>移动到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>z</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        print(x, '⇒', z)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    else:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        hanoi(n-1, x, z, y) # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>n-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>个盘子从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>移动到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        print(x, '⇒', z)   # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>将第</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>个盘子从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>移动到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>z</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        hanoi(n-1, y, x, z) # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>n-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>个盘子从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>移动到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>z</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>n = int(input("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>请输入要放到汉诺塔的盘子数目：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>hanoi(n, 'A','B','C')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5674,98 +6736,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P819"/>
+  <dimension ref="A2:P878"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A802" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K829" sqref="K829"/>
+    <sheetView tabSelected="1" topLeftCell="A868" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F891" sqref="F891"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="3" customFormat="1">
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="3" customFormat="1">
+    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1">
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
@@ -5782,7 +6844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
@@ -5793,67 +6855,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E39" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1">
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
@@ -5861,27 +6923,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="3" customFormat="1">
+    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>36</v>
       </c>
@@ -5895,7 +6957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E55" s="1" t="s">
         <v>40</v>
       </c>
@@ -5903,17 +6965,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>44</v>
       </c>
@@ -5923,42 +6985,42 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1">
+    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
         <v>65</v>
       </c>
@@ -5968,22 +7030,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>56</v>
       </c>
@@ -5991,47 +7053,47 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
         <v>66</v>
       </c>
@@ -6041,32 +7103,32 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" s="4" t="s">
         <v>71</v>
       </c>
@@ -6076,27 +7138,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" s="4" t="s">
         <v>75</v>
       </c>
@@ -6104,42 +7166,42 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B107" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B108" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B109" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="2:5">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B110" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B111" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B112" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B114" s="4" t="s">
         <v>81</v>
       </c>
@@ -6147,27 +7209,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B116" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B118" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B119" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B120" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B121" s="1" t="s">
         <v>85</v>
       </c>
@@ -6175,97 +7237,97 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B122" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B123" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="124" spans="2:8">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B124" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="2:8">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B125" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B126" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="2:8">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B127" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="2:8">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B128" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="2:5">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="2:5">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="2:5">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="2:5">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="133" spans="2:5">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="2:5">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="2:5">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="2:5">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="2:5">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="2:5">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="2:5">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="2:5">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" s="4" t="s">
         <v>81</v>
       </c>
@@ -6273,67 +7335,67 @@
         <v>92</v>
       </c>
     </row>
-    <row r="144" spans="2:5">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="2:5">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B146" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="2:5">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="2:5">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="155" spans="2:5">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="2:5">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="4" t="s">
         <v>104</v>
       </c>
@@ -6341,7 +7403,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="160" spans="2:5">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" s="4" t="s">
         <v>107</v>
       </c>
@@ -6349,52 +7411,52 @@
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B162" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B163" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B164" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B165" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B166" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B167" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B168" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="3" customFormat="1">
+    <row r="170" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B172" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B174" s="1" t="s">
         <v>113</v>
       </c>
@@ -6402,42 +7464,42 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B176" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="2:5">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B177" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="2:5">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B178" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="2:5">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B179" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="180" spans="2:5">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B180" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="2:5">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B181" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="182" spans="2:5">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B182" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="2:5">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B184" s="7" t="s">
         <v>174</v>
       </c>
@@ -6447,82 +7509,82 @@
         <v>176</v>
       </c>
     </row>
-    <row r="185" spans="2:5">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C185" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="2:5">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C186" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="2:5">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C187" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="188" spans="2:5">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C188" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="2:5">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C189" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="190" spans="2:5">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C190" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="191" spans="2:5">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C191" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="192" spans="2:5">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C192" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="193" spans="2:5">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C193" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="194" spans="2:5">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C194" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="195" spans="2:5">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C195" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="196" spans="2:5">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C196" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="2:5">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C197" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="2:5">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C198" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="2:5">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C199" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="2:5">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B201" s="7" t="s">
         <v>175</v>
       </c>
@@ -6530,367 +7592,367 @@
         <v>185</v>
       </c>
     </row>
-    <row r="202" spans="2:5">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C202" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="203" spans="2:5">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C203" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="204" spans="2:5">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C204" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="205" spans="2:5">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C205" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="2:5">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C206" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="207" spans="2:5">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C207" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="208" spans="2:5">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C208" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C209" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C210" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C211" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C212" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C213" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C214" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C215" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C216" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:3" s="3" customFormat="1">
+    <row r="217" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B219" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B220" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B221" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B222" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B223" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B224" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B225" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B226" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B227" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B228" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B229" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B230" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B231" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B232" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B234" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B235" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B236" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B237" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B238" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B239" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="240" spans="2:2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B240" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B241" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="242" spans="2:2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B242" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B243" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B244" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B245" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B246" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="247" spans="2:2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B247" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B248" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="2:2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B250" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="251" spans="2:2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B251" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="252" spans="2:2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B252" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="253" spans="2:2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B253" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="254" spans="2:2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B254" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="255" spans="2:2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B255" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="256" spans="2:2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B256" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="2:2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B259" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B260" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="261" spans="2:2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B261" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="262" spans="2:2">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B262" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B263" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="264" spans="2:2">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B264" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B265" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="266" spans="2:2">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B266" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="267" spans="2:2">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B267" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="268" spans="2:2">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B268" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="269" spans="2:2">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B269" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="270" spans="2:2">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B270" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B271" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="272" spans="2:2">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B272" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B273" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B274" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B275" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B276" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B277" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B279" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A280" s="4"/>
       <c r="B280" s="4" t="s">
         <v>160</v>
@@ -6899,57 +7961,57 @@
         <v>162</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B281" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B282" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B283" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B284" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B285" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B286" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B287" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B288" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B289" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B290" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B292" s="4" t="s">
         <v>163</v>
       </c>
@@ -6963,7 +8025,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B293" s="1" t="s">
         <v>164</v>
       </c>
@@ -6971,47 +8033,47 @@
         <v>171</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B295" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B296" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B297" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B298" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B299" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B300" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B301" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="303" spans="1:10" s="3" customFormat="1">
+    <row r="303" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A303" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="305" spans="2:10">
+    <row r="305" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B305" s="1" t="s">
         <v>187</v>
       </c>
@@ -7022,27 +8084,27 @@
         <v>189</v>
       </c>
     </row>
-    <row r="312" spans="2:10">
+    <row r="312" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J312" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="313" spans="2:10">
+    <row r="313" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J313" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B337" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="348" spans="1:11" s="3" customFormat="1">
+    <row r="348" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A348" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="30" customHeight="1">
+    <row r="350" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B350" s="12" t="s">
         <v>198</v>
       </c>
@@ -7058,7 +8120,7 @@
       <c r="J350" s="13"/>
       <c r="K350" s="13"/>
     </row>
-    <row r="351" spans="1:11" ht="30" customHeight="1">
+    <row r="351" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B351" s="12" t="s">
         <v>200</v>
       </c>
@@ -7074,7 +8136,7 @@
       <c r="J351" s="13"/>
       <c r="K351" s="13"/>
     </row>
-    <row r="352" spans="1:11" ht="30" customHeight="1">
+    <row r="352" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B352" s="12" t="s">
         <v>202</v>
       </c>
@@ -7090,7 +8152,7 @@
       <c r="J352" s="13"/>
       <c r="K352" s="13"/>
     </row>
-    <row r="353" spans="2:11" ht="30" customHeight="1">
+    <row r="353" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B353" s="12" t="s">
         <v>204</v>
       </c>
@@ -7106,7 +8168,7 @@
       <c r="J353" s="13"/>
       <c r="K353" s="13"/>
     </row>
-    <row r="354" spans="2:11" ht="30" customHeight="1">
+    <row r="354" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B354" s="12" t="s">
         <v>206</v>
       </c>
@@ -7122,7 +8184,7 @@
       <c r="J354" s="13"/>
       <c r="K354" s="13"/>
     </row>
-    <row r="355" spans="2:11" ht="30" customHeight="1">
+    <row r="355" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B355" s="12" t="s">
         <v>208</v>
       </c>
@@ -7138,7 +8200,7 @@
       <c r="J355" s="13"/>
       <c r="K355" s="13"/>
     </row>
-    <row r="356" spans="2:11" ht="30" customHeight="1">
+    <row r="356" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B356" s="12" t="s">
         <v>210</v>
       </c>
@@ -7154,7 +8216,7 @@
       <c r="J356" s="13"/>
       <c r="K356" s="13"/>
     </row>
-    <row r="357" spans="2:11" ht="30" customHeight="1">
+    <row r="357" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B357" s="12" t="s">
         <v>212</v>
       </c>
@@ -7170,7 +8232,7 @@
       <c r="J357" s="13"/>
       <c r="K357" s="13"/>
     </row>
-    <row r="358" spans="2:11" ht="30" customHeight="1">
+    <row r="358" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B358" s="12" t="s">
         <v>214</v>
       </c>
@@ -7186,7 +8248,7 @@
       <c r="J358" s="13"/>
       <c r="K358" s="13"/>
     </row>
-    <row r="359" spans="2:11" ht="30" customHeight="1">
+    <row r="359" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B359" s="12" t="s">
         <v>216</v>
       </c>
@@ -7202,7 +8264,7 @@
       <c r="J359" s="13"/>
       <c r="K359" s="13"/>
     </row>
-    <row r="360" spans="2:11" ht="30" customHeight="1">
+    <row r="360" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B360" s="12" t="s">
         <v>218</v>
       </c>
@@ -7218,7 +8280,7 @@
       <c r="J360" s="13"/>
       <c r="K360" s="13"/>
     </row>
-    <row r="361" spans="2:11" ht="30" customHeight="1">
+    <row r="361" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B361" s="12" t="s">
         <v>220</v>
       </c>
@@ -7234,7 +8296,7 @@
       <c r="J361" s="13"/>
       <c r="K361" s="13"/>
     </row>
-    <row r="362" spans="2:11" ht="30" customHeight="1">
+    <row r="362" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B362" s="12" t="s">
         <v>222</v>
       </c>
@@ -7250,7 +8312,7 @@
       <c r="J362" s="13"/>
       <c r="K362" s="13"/>
     </row>
-    <row r="363" spans="2:11" ht="30" customHeight="1">
+    <row r="363" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B363" s="12" t="s">
         <v>224</v>
       </c>
@@ -7266,7 +8328,7 @@
       <c r="J363" s="13"/>
       <c r="K363" s="13"/>
     </row>
-    <row r="364" spans="2:11" ht="30" customHeight="1">
+    <row r="364" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B364" s="12" t="s">
         <v>226</v>
       </c>
@@ -7282,7 +8344,7 @@
       <c r="J364" s="13"/>
       <c r="K364" s="13"/>
     </row>
-    <row r="365" spans="2:11" ht="30" customHeight="1">
+    <row r="365" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B365" s="12" t="s">
         <v>228</v>
       </c>
@@ -7298,7 +8360,7 @@
       <c r="J365" s="13"/>
       <c r="K365" s="13"/>
     </row>
-    <row r="366" spans="2:11" ht="30" customHeight="1">
+    <row r="366" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B366" s="12" t="s">
         <v>230</v>
       </c>
@@ -7314,7 +8376,7 @@
       <c r="J366" s="13"/>
       <c r="K366" s="13"/>
     </row>
-    <row r="367" spans="2:11" ht="30" customHeight="1">
+    <row r="367" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B367" s="12" t="s">
         <v>232</v>
       </c>
@@ -7330,7 +8392,7 @@
       <c r="J367" s="13"/>
       <c r="K367" s="13"/>
     </row>
-    <row r="368" spans="2:11" ht="30" customHeight="1">
+    <row r="368" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B368" s="12" t="s">
         <v>234</v>
       </c>
@@ -7346,7 +8408,7 @@
       <c r="J368" s="13"/>
       <c r="K368" s="13"/>
     </row>
-    <row r="369" spans="2:11" ht="30" customHeight="1">
+    <row r="369" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B369" s="12" t="s">
         <v>236</v>
       </c>
@@ -7362,7 +8424,7 @@
       <c r="J369" s="13"/>
       <c r="K369" s="13"/>
     </row>
-    <row r="370" spans="2:11" ht="30" customHeight="1">
+    <row r="370" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B370" s="12" t="s">
         <v>238</v>
       </c>
@@ -7378,7 +8440,7 @@
       <c r="J370" s="13"/>
       <c r="K370" s="13"/>
     </row>
-    <row r="371" spans="2:11" ht="30" customHeight="1">
+    <row r="371" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B371" s="12" t="s">
         <v>240</v>
       </c>
@@ -7394,7 +8456,7 @@
       <c r="J371" s="13"/>
       <c r="K371" s="13"/>
     </row>
-    <row r="372" spans="2:11" ht="30" customHeight="1">
+    <row r="372" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B372" s="12" t="s">
         <v>242</v>
       </c>
@@ -7410,7 +8472,7 @@
       <c r="J372" s="13"/>
       <c r="K372" s="13"/>
     </row>
-    <row r="373" spans="2:11" ht="30" customHeight="1">
+    <row r="373" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B373" s="12" t="s">
         <v>244</v>
       </c>
@@ -7426,7 +8488,7 @@
       <c r="J373" s="13"/>
       <c r="K373" s="13"/>
     </row>
-    <row r="374" spans="2:11" ht="30" customHeight="1">
+    <row r="374" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B374" s="12" t="s">
         <v>246</v>
       </c>
@@ -7442,7 +8504,7 @@
       <c r="J374" s="13"/>
       <c r="K374" s="13"/>
     </row>
-    <row r="375" spans="2:11" ht="30" customHeight="1">
+    <row r="375" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B375" s="12" t="s">
         <v>248</v>
       </c>
@@ -7458,7 +8520,7 @@
       <c r="J375" s="13"/>
       <c r="K375" s="13"/>
     </row>
-    <row r="376" spans="2:11" ht="30" customHeight="1">
+    <row r="376" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B376" s="12" t="s">
         <v>250</v>
       </c>
@@ -7474,7 +8536,7 @@
       <c r="J376" s="13"/>
       <c r="K376" s="13"/>
     </row>
-    <row r="377" spans="2:11" ht="30" customHeight="1">
+    <row r="377" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B377" s="12" t="s">
         <v>252</v>
       </c>
@@ -7490,7 +8552,7 @@
       <c r="J377" s="13"/>
       <c r="K377" s="13"/>
     </row>
-    <row r="378" spans="2:11" ht="30" customHeight="1">
+    <row r="378" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B378" s="12" t="s">
         <v>254</v>
       </c>
@@ -7506,7 +8568,7 @@
       <c r="J378" s="13"/>
       <c r="K378" s="13"/>
     </row>
-    <row r="379" spans="2:11" ht="30" customHeight="1">
+    <row r="379" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B379" s="12" t="s">
         <v>256</v>
       </c>
@@ -7522,7 +8584,7 @@
       <c r="J379" s="13"/>
       <c r="K379" s="13"/>
     </row>
-    <row r="380" spans="2:11" ht="30" customHeight="1">
+    <row r="380" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B380" s="12" t="s">
         <v>258</v>
       </c>
@@ -7538,7 +8600,7 @@
       <c r="J380" s="13"/>
       <c r="K380" s="13"/>
     </row>
-    <row r="381" spans="2:11" ht="30" customHeight="1">
+    <row r="381" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B381" s="12" t="s">
         <v>260</v>
       </c>
@@ -7554,7 +8616,7 @@
       <c r="J381" s="13"/>
       <c r="K381" s="13"/>
     </row>
-    <row r="382" spans="2:11" ht="30" customHeight="1">
+    <row r="382" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B382" s="12" t="s">
         <v>262</v>
       </c>
@@ -7570,7 +8632,7 @@
       <c r="J382" s="13"/>
       <c r="K382" s="13"/>
     </row>
-    <row r="383" spans="2:11" ht="30" customHeight="1">
+    <row r="383" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B383" s="12" t="s">
         <v>264</v>
       </c>
@@ -7586,7 +8648,7 @@
       <c r="J383" s="13"/>
       <c r="K383" s="13"/>
     </row>
-    <row r="384" spans="2:11" ht="30" customHeight="1">
+    <row r="384" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B384" s="12" t="s">
         <v>266</v>
       </c>
@@ -7602,7 +8664,7 @@
       <c r="J384" s="13"/>
       <c r="K384" s="13"/>
     </row>
-    <row r="385" spans="1:11" ht="30" customHeight="1">
+    <row r="385" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B385" s="12" t="s">
         <v>268</v>
       </c>
@@ -7618,7 +8680,7 @@
       <c r="J385" s="13"/>
       <c r="K385" s="13"/>
     </row>
-    <row r="386" spans="1:11" ht="30" customHeight="1">
+    <row r="386" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B386" s="12" t="s">
         <v>270</v>
       </c>
@@ -7634,7 +8696,7 @@
       <c r="J386" s="13"/>
       <c r="K386" s="13"/>
     </row>
-    <row r="387" spans="1:11" ht="30" customHeight="1">
+    <row r="387" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B387" s="12" t="s">
         <v>272</v>
       </c>
@@ -7650,12 +8712,12 @@
       <c r="J387" s="13"/>
       <c r="K387" s="13"/>
     </row>
-    <row r="389" spans="1:11" s="3" customFormat="1">
+    <row r="389" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A389" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B391" s="1" t="s">
         <v>275</v>
       </c>
@@ -7663,12 +8725,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B392" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B393" s="1" t="s">
         <v>279</v>
       </c>
@@ -7676,12 +8738,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B394" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B395" s="1" t="s">
         <v>277</v>
       </c>
@@ -7689,12 +8751,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B396" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B398" s="4" t="s">
         <v>283</v>
       </c>
@@ -7702,22 +8764,22 @@
         <v>285</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B399" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B400" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="401" spans="2:11">
+    <row r="401" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B401" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="404" spans="2:11">
+    <row r="404" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B404" s="1" t="s">
         <v>286</v>
       </c>
@@ -7725,22 +8787,22 @@
         <v>288</v>
       </c>
     </row>
-    <row r="405" spans="2:11">
+    <row r="405" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B405" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="406" spans="2:11">
+    <row r="406" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B406" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="2:11" ht="19.5">
+    <row r="410" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B410" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="411" spans="2:11" ht="15" customHeight="1">
+    <row r="411" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B411" s="14" t="s">
         <v>290</v>
       </c>
@@ -7756,7 +8818,7 @@
       <c r="J411" s="14"/>
       <c r="K411" s="14"/>
     </row>
-    <row r="412" spans="2:11" ht="15" customHeight="1">
+    <row r="412" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B412" s="12" t="s">
         <v>292</v>
       </c>
@@ -7772,7 +8834,7 @@
       <c r="J412" s="13"/>
       <c r="K412" s="13"/>
     </row>
-    <row r="413" spans="2:11" ht="15" customHeight="1">
+    <row r="413" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B413" s="12" t="s">
         <v>294</v>
       </c>
@@ -7788,7 +8850,7 @@
       <c r="J413" s="13"/>
       <c r="K413" s="13"/>
     </row>
-    <row r="414" spans="2:11" ht="15" customHeight="1">
+    <row r="414" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B414" s="12" t="s">
         <v>296</v>
       </c>
@@ -7804,7 +8866,7 @@
       <c r="J414" s="13"/>
       <c r="K414" s="13"/>
     </row>
-    <row r="415" spans="2:11" ht="15" customHeight="1">
+    <row r="415" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B415" s="12" t="s">
         <v>298</v>
       </c>
@@ -7820,7 +8882,7 @@
       <c r="J415" s="13"/>
       <c r="K415" s="13"/>
     </row>
-    <row r="416" spans="2:11" ht="15" customHeight="1">
+    <row r="416" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B416" s="12" t="s">
         <v>300</v>
       </c>
@@ -7836,7 +8898,7 @@
       <c r="J416" s="13"/>
       <c r="K416" s="13"/>
     </row>
-    <row r="417" spans="2:11" ht="15" customHeight="1">
+    <row r="417" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B417" s="12" t="s">
         <v>302</v>
       </c>
@@ -7852,7 +8914,7 @@
       <c r="J417" s="13"/>
       <c r="K417" s="13"/>
     </row>
-    <row r="418" spans="2:11" ht="15" customHeight="1">
+    <row r="418" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B418" s="12" t="s">
         <v>304</v>
       </c>
@@ -7868,7 +8930,7 @@
       <c r="J418" s="13"/>
       <c r="K418" s="13"/>
     </row>
-    <row r="419" spans="2:11" ht="15" customHeight="1">
+    <row r="419" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B419" s="12" t="s">
         <v>306</v>
       </c>
@@ -7884,7 +8946,7 @@
       <c r="J419" s="13"/>
       <c r="K419" s="13"/>
     </row>
-    <row r="420" spans="2:11" ht="15" customHeight="1">
+    <row r="420" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B420" s="12" t="s">
         <v>308</v>
       </c>
@@ -7900,7 +8962,7 @@
       <c r="J420" s="13"/>
       <c r="K420" s="13"/>
     </row>
-    <row r="421" spans="2:11" ht="15" customHeight="1">
+    <row r="421" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B421" s="12" t="s">
         <v>310</v>
       </c>
@@ -7916,7 +8978,7 @@
       <c r="J421" s="13"/>
       <c r="K421" s="13"/>
     </row>
-    <row r="422" spans="2:11" ht="15" customHeight="1">
+    <row r="422" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B422" s="12" t="s">
         <v>312</v>
       </c>
@@ -7932,12 +8994,12 @@
       <c r="J422" s="13"/>
       <c r="K422" s="13"/>
     </row>
-    <row r="425" spans="2:11" ht="19.5">
+    <row r="425" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B425" s="9" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="426" spans="2:11">
+    <row r="426" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B426" s="14" t="s">
         <v>290</v>
       </c>
@@ -7953,7 +9015,7 @@
       <c r="J426" s="14"/>
       <c r="K426" s="14"/>
     </row>
-    <row r="427" spans="2:11">
+    <row r="427" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B427" s="12" t="s">
         <v>316</v>
       </c>
@@ -7969,7 +9031,7 @@
       <c r="J427" s="13"/>
       <c r="K427" s="13"/>
     </row>
-    <row r="428" spans="2:11">
+    <row r="428" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B428" s="12" t="s">
         <v>318</v>
       </c>
@@ -7985,7 +9047,7 @@
       <c r="J428" s="13"/>
       <c r="K428" s="13"/>
     </row>
-    <row r="429" spans="2:11">
+    <row r="429" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B429" s="12" t="s">
         <v>320</v>
       </c>
@@ -8001,7 +9063,7 @@
       <c r="J429" s="13"/>
       <c r="K429" s="13"/>
     </row>
-    <row r="430" spans="2:11">
+    <row r="430" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B430" s="12" t="s">
         <v>322</v>
       </c>
@@ -8017,7 +9079,7 @@
       <c r="J430" s="13"/>
       <c r="K430" s="13"/>
     </row>
-    <row r="431" spans="2:11">
+    <row r="431" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B431" s="12" t="s">
         <v>324</v>
       </c>
@@ -8033,23 +9095,23 @@
       <c r="J431" s="13"/>
       <c r="K431" s="13"/>
     </row>
-    <row r="432" spans="2:11">
+    <row r="432" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="2:11">
+    <row r="433" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B433" t="s">
         <v>326</v>
       </c>
       <c r="E433"/>
     </row>
-    <row r="434" spans="2:11" ht="19.5">
+    <row r="434" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B434" s="9" t="s">
         <v>354</v>
       </c>
       <c r="E434"/>
     </row>
-    <row r="435" spans="2:11">
+    <row r="435" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B435" s="14" t="s">
         <v>327</v>
       </c>
@@ -8065,7 +9127,7 @@
       <c r="J435" s="14"/>
       <c r="K435" s="14"/>
     </row>
-    <row r="436" spans="2:11">
+    <row r="436" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B436" s="12" t="s">
         <v>328</v>
       </c>
@@ -8081,7 +9143,7 @@
       <c r="J436" s="13"/>
       <c r="K436" s="13"/>
     </row>
-    <row r="437" spans="2:11">
+    <row r="437" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B437" s="12" t="s">
         <v>330</v>
       </c>
@@ -8097,7 +9159,7 @@
       <c r="J437" s="13"/>
       <c r="K437" s="13"/>
     </row>
-    <row r="438" spans="2:11">
+    <row r="438" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B438" s="12" t="s">
         <v>332</v>
       </c>
@@ -8113,7 +9175,7 @@
       <c r="J438" s="13"/>
       <c r="K438" s="13"/>
     </row>
-    <row r="439" spans="2:11">
+    <row r="439" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B439" s="12" t="s">
         <v>334</v>
       </c>
@@ -8129,7 +9191,7 @@
       <c r="J439" s="13"/>
       <c r="K439" s="13"/>
     </row>
-    <row r="440" spans="2:11">
+    <row r="440" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B440" s="12" t="s">
         <v>336</v>
       </c>
@@ -8145,7 +9207,7 @@
       <c r="J440" s="13"/>
       <c r="K440" s="13"/>
     </row>
-    <row r="441" spans="2:11">
+    <row r="441" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B441" s="12" t="s">
         <v>338</v>
       </c>
@@ -8161,7 +9223,7 @@
       <c r="J441" s="13"/>
       <c r="K441" s="13"/>
     </row>
-    <row r="442" spans="2:11">
+    <row r="442" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B442" s="12" t="s">
         <v>340</v>
       </c>
@@ -8177,7 +9239,7 @@
       <c r="J442" s="13"/>
       <c r="K442" s="13"/>
     </row>
-    <row r="443" spans="2:11">
+    <row r="443" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B443" s="12" t="s">
         <v>342</v>
       </c>
@@ -8193,7 +9255,7 @@
       <c r="J443" s="13"/>
       <c r="K443" s="13"/>
     </row>
-    <row r="444" spans="2:11">
+    <row r="444" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B444" s="12" t="s">
         <v>344</v>
       </c>
@@ -8209,7 +9271,7 @@
       <c r="J444" s="13"/>
       <c r="K444" s="13"/>
     </row>
-    <row r="445" spans="2:11">
+    <row r="445" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B445" s="12" t="s">
         <v>346</v>
       </c>
@@ -8225,7 +9287,7 @@
       <c r="J445" s="13"/>
       <c r="K445" s="13"/>
     </row>
-    <row r="446" spans="2:11">
+    <row r="446" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B446" s="12" t="s">
         <v>348</v>
       </c>
@@ -8241,7 +9303,7 @@
       <c r="J446" s="13"/>
       <c r="K446" s="13"/>
     </row>
-    <row r="447" spans="2:11">
+    <row r="447" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B447" s="12" t="s">
         <v>350</v>
       </c>
@@ -8257,7 +9319,7 @@
       <c r="J447" s="13"/>
       <c r="K447" s="13"/>
     </row>
-    <row r="448" spans="2:11">
+    <row r="448" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B448" s="12" t="s">
         <v>352</v>
       </c>
@@ -8273,62 +9335,62 @@
       <c r="J448" s="13"/>
       <c r="K448" s="13"/>
     </row>
-    <row r="450" spans="1:14" s="3" customFormat="1">
+    <row r="450" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A450" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="452" spans="1:14">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B452" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="453" spans="1:14">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B453" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="454" spans="1:14">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B454" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="455" spans="1:14">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B455" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="456" spans="1:14">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B456" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="457" spans="1:14">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B457" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="458" spans="1:14">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B458" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="459" spans="1:14">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B459" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="460" spans="1:14">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B460" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="462" spans="1:14" s="3" customFormat="1">
+    <row r="462" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A462" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="464" spans="1:14">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B464" s="8" t="s">
         <v>385</v>
       </c>
@@ -8336,7 +9398,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="465" spans="2:16">
+    <row r="465" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B465" s="1" t="s">
         <v>387</v>
       </c>
@@ -8347,7 +9409,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="466" spans="2:16">
+    <row r="466" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C466" s="1" t="s">
         <v>42</v>
       </c>
@@ -8355,7 +9417,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="467" spans="2:16">
+    <row r="467" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D467" s="1" t="s">
         <v>366</v>
       </c>
@@ -8363,12 +9425,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="468" spans="2:16">
+    <row r="468" spans="2:16" x14ac:dyDescent="0.15">
       <c r="O468" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="469" spans="2:16">
+    <row r="469" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B469" s="1" t="s">
         <v>367</v>
       </c>
@@ -8376,7 +9438,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="470" spans="2:16">
+    <row r="470" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B470" s="1" t="s">
         <v>368</v>
       </c>
@@ -8384,7 +9446,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="471" spans="2:16">
+    <row r="471" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B471" s="1" t="s">
         <v>369</v>
       </c>
@@ -8392,7 +9454,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="472" spans="2:16">
+    <row r="472" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B472" s="1" t="s">
         <v>370</v>
       </c>
@@ -8400,12 +9462,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="473" spans="2:16">
+    <row r="473" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B473" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="474" spans="2:16">
+    <row r="474" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B474" s="1" t="s">
         <v>372</v>
       </c>
@@ -8413,7 +9475,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="475" spans="2:16">
+    <row r="475" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B475" s="1" t="s">
         <v>373</v>
       </c>
@@ -8421,7 +9483,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="476" spans="2:16">
+    <row r="476" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B476" s="1" t="s">
         <v>374</v>
       </c>
@@ -8429,7 +9491,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="477" spans="2:16">
+    <row r="477" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B477" s="1" t="s">
         <v>375</v>
       </c>
@@ -8437,7 +9499,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="478" spans="2:16">
+    <row r="478" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B478" s="1" t="s">
         <v>376</v>
       </c>
@@ -8445,7 +9507,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="479" spans="2:16">
+    <row r="479" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B479" s="1" t="s">
         <v>377</v>
       </c>
@@ -8453,7 +9515,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="480" spans="2:16">
+    <row r="480" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B480" s="1" t="s">
         <v>63</v>
       </c>
@@ -8461,12 +9523,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="481" spans="2:16">
+    <row r="481" spans="2:16" x14ac:dyDescent="0.15">
       <c r="N481" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="482" spans="2:16">
+    <row r="482" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B482" s="8" t="s">
         <v>386</v>
       </c>
@@ -8474,7 +9536,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="483" spans="2:16">
+    <row r="483" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B483" s="1" t="s">
         <v>378</v>
       </c>
@@ -8482,7 +9544,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="484" spans="2:16">
+    <row r="484" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C484" s="1" t="s">
         <v>379</v>
       </c>
@@ -8490,7 +9552,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="485" spans="2:16">
+    <row r="485" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D485" s="1" t="s">
         <v>366</v>
       </c>
@@ -8498,12 +9560,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="486" spans="2:16">
+    <row r="486" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P486" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="487" spans="2:16">
+    <row r="487" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B487" s="1" t="s">
         <v>367</v>
       </c>
@@ -8511,7 +9573,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="488" spans="2:16">
+    <row r="488" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B488" s="1" t="s">
         <v>95</v>
       </c>
@@ -8519,12 +9581,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="489" spans="2:16">
+    <row r="489" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B489" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="490" spans="2:16">
+    <row r="490" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B490" s="1" t="s">
         <v>381</v>
       </c>
@@ -8532,7 +9594,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="491" spans="2:16">
+    <row r="491" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B491" s="1" t="s">
         <v>382</v>
       </c>
@@ -8540,7 +9602,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="492" spans="2:16">
+    <row r="492" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B492" s="1" t="s">
         <v>383</v>
       </c>
@@ -8548,7 +9610,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="493" spans="2:16">
+    <row r="493" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B493" s="1" t="s">
         <v>368</v>
       </c>
@@ -8556,7 +9618,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="494" spans="2:16">
+    <row r="494" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B494" s="1" t="s">
         <v>369</v>
       </c>
@@ -8564,7 +9626,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="495" spans="2:16">
+    <row r="495" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B495" s="1" t="s">
         <v>370</v>
       </c>
@@ -8572,7 +9634,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="496" spans="2:16">
+    <row r="496" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B496" s="1" t="s">
         <v>371</v>
       </c>
@@ -8580,7 +9642,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="497" spans="2:16">
+    <row r="497" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B497" s="1" t="s">
         <v>372</v>
       </c>
@@ -8588,7 +9650,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="498" spans="2:16">
+    <row r="498" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B498" s="1" t="s">
         <v>384</v>
       </c>
@@ -8596,7 +9658,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="499" spans="2:16">
+    <row r="499" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B499" s="1" t="s">
         <v>368</v>
       </c>
@@ -8604,7 +9666,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="500" spans="2:16">
+    <row r="500" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B500" s="1" t="s">
         <v>369</v>
       </c>
@@ -8612,7 +9674,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="501" spans="2:16">
+    <row r="501" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B501" s="1" t="s">
         <v>370</v>
       </c>
@@ -8620,7 +9682,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="502" spans="2:16">
+    <row r="502" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B502" s="1" t="s">
         <v>371</v>
       </c>
@@ -8628,7 +9690,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="503" spans="2:16">
+    <row r="503" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B503" s="1" t="s">
         <v>372</v>
       </c>
@@ -8636,7 +9698,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="504" spans="2:16">
+    <row r="504" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B504" s="1" t="s">
         <v>373</v>
       </c>
@@ -8644,7 +9706,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="505" spans="2:16">
+    <row r="505" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B505" s="1" t="s">
         <v>374</v>
       </c>
@@ -8652,7 +9714,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="506" spans="2:16">
+    <row r="506" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B506" s="1" t="s">
         <v>375</v>
       </c>
@@ -8660,7 +9722,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="507" spans="2:16">
+    <row r="507" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B507" s="1" t="s">
         <v>376</v>
       </c>
@@ -8668,7 +9730,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="508" spans="2:16">
+    <row r="508" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B508" s="1" t="s">
         <v>63</v>
       </c>
@@ -8676,12 +9738,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="509" spans="2:16">
+    <row r="509" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P509" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="510" spans="2:16">
+    <row r="510" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B510" s="8" t="s">
         <v>396</v>
       </c>
@@ -8689,7 +9751,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="511" spans="2:16">
+    <row r="511" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B511" s="1" t="s">
         <v>378</v>
       </c>
@@ -8697,12 +9759,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="512" spans="2:16">
+    <row r="512" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C512" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="513" spans="2:16">
+    <row r="513" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C513" s="1" t="s">
         <v>379</v>
       </c>
@@ -8710,7 +9772,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="514" spans="2:16">
+    <row r="514" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D514" s="1" t="s">
         <v>366</v>
       </c>
@@ -8718,7 +9780,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="515" spans="2:16">
+    <row r="515" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D515" s="1" t="s">
         <v>390</v>
       </c>
@@ -8726,7 +9788,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="516" spans="2:16">
+    <row r="516" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C516" s="4" t="s">
         <v>391</v>
       </c>
@@ -8734,12 +9796,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="517" spans="2:16">
+    <row r="517" spans="2:16" x14ac:dyDescent="0.15">
       <c r="N517" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="518" spans="2:16">
+    <row r="518" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B518" s="1" t="s">
         <v>384</v>
       </c>
@@ -8747,7 +9809,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="519" spans="2:16">
+    <row r="519" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B519" s="1" t="s">
         <v>368</v>
       </c>
@@ -8755,7 +9817,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="520" spans="2:16">
+    <row r="520" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B520" s="1" t="s">
         <v>369</v>
       </c>
@@ -8763,7 +9825,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="521" spans="2:16">
+    <row r="521" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B521" s="1" t="s">
         <v>370</v>
       </c>
@@ -8771,7 +9833,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="522" spans="2:16">
+    <row r="522" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B522" s="1" t="s">
         <v>371</v>
       </c>
@@ -8779,7 +9841,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="523" spans="2:16">
+    <row r="523" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B523" s="1" t="s">
         <v>372</v>
       </c>
@@ -8787,7 +9849,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="524" spans="2:16">
+    <row r="524" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B524" s="1" t="s">
         <v>373</v>
       </c>
@@ -8795,7 +9857,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="525" spans="2:16">
+    <row r="525" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B525" s="1" t="s">
         <v>374</v>
       </c>
@@ -8803,7 +9865,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="526" spans="2:16">
+    <row r="526" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B526" s="1" t="s">
         <v>375</v>
       </c>
@@ -8811,7 +9873,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="527" spans="2:16">
+    <row r="527" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B527" s="1" t="s">
         <v>376</v>
       </c>
@@ -8819,12 +9881,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="528" spans="2:16">
+    <row r="528" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B528" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="529" spans="2:14">
+    <row r="529" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B529" s="1" t="s">
         <v>393</v>
       </c>
@@ -8832,7 +9894,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="530" spans="2:14">
+    <row r="530" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B530" s="1" t="s">
         <v>368</v>
       </c>
@@ -8840,7 +9902,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="531" spans="2:14">
+    <row r="531" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B531" s="1" t="s">
         <v>369</v>
       </c>
@@ -8848,7 +9910,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="532" spans="2:14">
+    <row r="532" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B532" s="1" t="s">
         <v>370</v>
       </c>
@@ -8856,7 +9918,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="533" spans="2:14">
+    <row r="533" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B533" s="1" t="s">
         <v>371</v>
       </c>
@@ -8864,7 +9926,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="534" spans="2:14">
+    <row r="534" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B534" s="1" t="s">
         <v>372</v>
       </c>
@@ -8872,7 +9934,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="535" spans="2:14">
+    <row r="535" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B535" s="1" t="s">
         <v>394</v>
       </c>
@@ -8880,7 +9942,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="536" spans="2:14">
+    <row r="536" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B536" s="1" t="s">
         <v>395</v>
       </c>
@@ -8888,7 +9950,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="537" spans="2:14">
+    <row r="537" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B537" s="1" t="s">
         <v>30</v>
       </c>
@@ -8896,180 +9958,180 @@
         <v>368</v>
       </c>
     </row>
-    <row r="538" spans="2:14">
+    <row r="538" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N538" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="539" spans="2:14">
+    <row r="539" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N539" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="540" spans="2:14">
+    <row r="540" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N540" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="541" spans="2:14">
+    <row r="541" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N541" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="542" spans="2:14">
+    <row r="542" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N542" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="543" spans="2:14">
+    <row r="543" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N543" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="544" spans="2:14">
+    <row r="544" spans="2:14" x14ac:dyDescent="0.15">
       <c r="N544" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="545" spans="1:14">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N545" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="546" spans="1:14">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N546" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="547" spans="1:14">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N547" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="548" spans="1:14">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N548" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="549" spans="1:14">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N549" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="550" spans="1:14">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N550" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="551" spans="1:14">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N551" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="552" spans="1:14">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N552" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="553" spans="1:14">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N553" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="554" spans="1:14">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N554" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="555" spans="1:14">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N555" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="556" spans="1:14">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N556" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="557" spans="1:14">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N557" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="559" spans="1:14" s="3" customFormat="1">
+    <row r="559" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A559" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="562" spans="2:3">
+    <row r="562" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B562" s="10"/>
     </row>
-    <row r="575" spans="2:3">
+    <row r="575" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C575" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="576" spans="2:3">
+    <row r="576" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C576" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C577" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C578" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C580" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C581" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C583" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="586" spans="1:3" s="3" customFormat="1">
+    <row r="586" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A586" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="612" spans="1:1" s="3" customFormat="1">
+    <row r="612" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A612" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="638" spans="1:2" s="3" customFormat="1">
+    <row r="638" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A638" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="640" spans="1:2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B640" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="657" spans="1:11" s="3" customFormat="1">
+    <row r="657" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A657" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="672" spans="1:11">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K672" s="11" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="677" spans="11:13">
+    <row r="677" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K677" s="11" t="s">
         <v>425</v>
       </c>
@@ -9077,27 +10139,27 @@
         <v>426</v>
       </c>
     </row>
-    <row r="689" spans="1:1" s="3" customFormat="1">
+    <row r="689" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A689" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="701" spans="1:1" s="3" customFormat="1">
+    <row r="701" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A701" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="709" spans="1:11">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K709" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="720" spans="1:11" s="3" customFormat="1">
+    <row r="720" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A720" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="785" spans="1:4" s="3" customFormat="1">
+    <row r="785" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A785" s="3" t="s">
         <v>431</v>
       </c>
@@ -9105,7 +10167,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="805" spans="1:12" s="3" customFormat="1">
+    <row r="805" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A805" s="3" t="s">
         <v>437</v>
       </c>
@@ -9113,44 +10175,72 @@
         <v>438</v>
       </c>
     </row>
-    <row r="809" spans="1:12">
+    <row r="809" spans="1:12" x14ac:dyDescent="0.15">
       <c r="K809" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="810" spans="1:12">
+    <row r="810" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L810" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="811" spans="1:12">
+    <row r="811" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L811" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="813" spans="1:12">
+    <row r="813" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L813" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="815" spans="1:12">
+    <row r="815" spans="1:12" x14ac:dyDescent="0.15">
       <c r="K815" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="816" spans="1:12">
+    <row r="816" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L816" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="817" spans="12:12">
+    <row r="817" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L817" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="819" spans="12:12">
+    <row r="819" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L819" s="1" t="s">
         <v>440</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A838" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C838" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A840" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="868" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K868" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="869" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K869" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="878" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A878" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="458">
   <si>
     <t>built-in functions</t>
   </si>
@@ -2256,12 +2256,108 @@
   <si>
     <t>汉诺塔</t>
   </si>
+  <si>
+    <t>字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用冒号来分开key和value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用dict()来创建字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用关键字创建字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dict(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>定义的时候关键字不能加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>取value的时候，一定要加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改字典里的值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加值到字典里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2322,6 +2418,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2376,7 +2481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
@@ -2398,6 +2503,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6436,6 +6542,1284 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>895</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>903</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="159033882"/>
+          <a:ext cx="5020234" cy="1479177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict1 = {1:'one',2:'two',3:'three'}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; print(dict1[1])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>one</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; print(dict1[2])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>two</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; print(dict1[3])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>three</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>907</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>927</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="162059471"/>
+          <a:ext cx="5020234" cy="3507442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict2 = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dict(((1,'one'),(2,'two'),(3,'three')))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{1: 'one', 2: 'two', 3: 'three'}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict2[2]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'two'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict2[4]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Traceback (most recent call last):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  File "&lt;pyshell#11&gt;", line 1, in &lt;module&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    dict2[4]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>KeyError: 4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict2[0]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Traceback (most recent call last):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  File "&lt;pyshell#12&gt;", line 1, in &lt;module&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    dict2[0]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>KeyError: 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict2[1]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'one'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict2[3]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'three'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>931</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>960</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1423147" y="165141087"/>
+          <a:ext cx="5020234" cy="4919383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict3 = dict(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>='I',</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>你</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>='YOU',</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>他</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>='HE',</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>她</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>='SHE',</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>它</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>='IT')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>他</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': 'HE', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': 'I', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>它</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': 'IT', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>她</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': 'SHE', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>你</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': 'YOU'}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict3[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>他</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Traceback (most recent call last):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  File "&lt;pyshell#17&gt;", line 1, in &lt;module&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    dict3[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>他</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NameError: name '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>他</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>' is not defined</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict3['</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>他</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>']</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'HE'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict3 = dict('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'='I',</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>你</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>='YOU',</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>他</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>='HE',</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>她</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>='SHE',</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>它</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>='IT')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SyntaxError: keyword can't be an expression</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dict3['</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'] = 'i'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict3['</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>']</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'i'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dict3['</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我们</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'] = 'WE'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': 'i', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>她</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': 'SHE', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我们</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': 'WE', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>它</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': 'IT', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>他</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': 'HE', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>你</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': 'YOU'}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dict3.pop() # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>删除最后一个值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>del dict3['</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我们</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'] # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>删除关键字为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我们</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dict3.clear() # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>清空字典</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
@@ -6736,10 +8120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P878"/>
+  <dimension ref="A2:P950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A868" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F891" sqref="F891"/>
+    <sheetView tabSelected="1" topLeftCell="A913" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L954" sqref="L954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10243,28 +11627,158 @@
         <v>446</v>
       </c>
     </row>
+    <row r="892" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A892" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="894" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B894" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="895" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K895" s="15"/>
+    </row>
+    <row r="906" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B906" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="E906" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G906" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="931" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B931" s="15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="932" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K932" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="936" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K936" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="941" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K941" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="946" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K946" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="950" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K950" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="E447:K447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="E448:K448"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E380:K380"/>
+    <mergeCell ref="E381:K381"/>
+    <mergeCell ref="E364:K364"/>
+    <mergeCell ref="E365:K365"/>
+    <mergeCell ref="E366:K366"/>
+    <mergeCell ref="E367:K367"/>
+    <mergeCell ref="E368:K368"/>
+    <mergeCell ref="E369:K369"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="E416:K416"/>
+    <mergeCell ref="E417:K417"/>
+    <mergeCell ref="E385:K385"/>
+    <mergeCell ref="E370:K370"/>
+    <mergeCell ref="E371:K371"/>
+    <mergeCell ref="E372:K372"/>
+    <mergeCell ref="E373:K373"/>
+    <mergeCell ref="E382:K382"/>
+    <mergeCell ref="E383:K383"/>
+    <mergeCell ref="E384:K384"/>
+    <mergeCell ref="E376:K376"/>
+    <mergeCell ref="E377:K377"/>
+    <mergeCell ref="E378:K378"/>
+    <mergeCell ref="E379:K379"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
     <mergeCell ref="E386:K386"/>
     <mergeCell ref="E387:K387"/>
     <mergeCell ref="E374:K374"/>
@@ -10289,102 +11803,26 @@
     <mergeCell ref="B369:D369"/>
     <mergeCell ref="B370:D370"/>
     <mergeCell ref="B371:D371"/>
-    <mergeCell ref="E360:K360"/>
-    <mergeCell ref="E361:K361"/>
-    <mergeCell ref="E350:K350"/>
-    <mergeCell ref="E351:K351"/>
-    <mergeCell ref="E352:K352"/>
-    <mergeCell ref="E353:K353"/>
-    <mergeCell ref="E354:K354"/>
-    <mergeCell ref="E355:K355"/>
-    <mergeCell ref="E356:K356"/>
-    <mergeCell ref="E357:K357"/>
-    <mergeCell ref="E358:K358"/>
-    <mergeCell ref="E359:K359"/>
-    <mergeCell ref="E380:K380"/>
-    <mergeCell ref="E381:K381"/>
-    <mergeCell ref="E364:K364"/>
-    <mergeCell ref="E365:K365"/>
-    <mergeCell ref="E366:K366"/>
-    <mergeCell ref="E367:K367"/>
-    <mergeCell ref="E368:K368"/>
-    <mergeCell ref="E369:K369"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="E416:K416"/>
-    <mergeCell ref="E417:K417"/>
-    <mergeCell ref="E385:K385"/>
-    <mergeCell ref="E370:K370"/>
-    <mergeCell ref="E371:K371"/>
-    <mergeCell ref="E372:K372"/>
-    <mergeCell ref="E373:K373"/>
-    <mergeCell ref="E382:K382"/>
-    <mergeCell ref="E383:K383"/>
-    <mergeCell ref="E384:K384"/>
-    <mergeCell ref="E376:K376"/>
-    <mergeCell ref="E377:K377"/>
-    <mergeCell ref="E378:K378"/>
-    <mergeCell ref="E379:K379"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="E418:K418"/>
-    <mergeCell ref="E419:K419"/>
-    <mergeCell ref="E420:K420"/>
-    <mergeCell ref="E421:K421"/>
-    <mergeCell ref="E422:K422"/>
-    <mergeCell ref="E411:K411"/>
-    <mergeCell ref="E412:K412"/>
-    <mergeCell ref="E413:K413"/>
-    <mergeCell ref="E414:K414"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:K430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:K431"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:K436"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:K426"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:K435"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:K427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="E428:K428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:K429"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:K440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:K441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:K442"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:K438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:K439"/>
-    <mergeCell ref="B446:D446"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="B447:D447"/>
-    <mergeCell ref="E447:K447"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="E448:K448"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:K443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:K444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:K445"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="学习笔记" sheetId="1" r:id="rId1"/>
+    <sheet name="参考" sheetId="2" r:id="rId1"/>
+    <sheet name="学习笔记" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="483">
   <si>
     <t>built-in functions</t>
   </si>
@@ -316,7 +317,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -327,7 +328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -669,7 +670,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -955,7 +956,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -977,7 +978,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -987,7 +988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1017,7 +1018,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1032,7 +1033,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1047,7 +1048,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1062,7 +1063,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1077,7 +1078,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1092,7 +1093,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1107,7 +1108,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1122,7 +1123,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1137,7 +1138,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,7 +1153,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,7 +1168,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1182,7 +1183,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1197,7 +1198,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1212,7 +1213,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1227,7 +1228,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1242,7 +1243,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1258,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1272,7 +1273,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1287,7 +1288,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1302,7 +1303,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1317,7 +1318,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,7 +1333,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1347,7 +1348,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1365,7 +1366,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1380,7 +1381,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1395,7 +1396,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1411,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1425,7 +1426,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1440,7 +1441,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1455,7 +1456,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1470,7 +1471,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1485,7 +1486,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1500,7 +1501,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1515,7 +1516,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1533,7 +1534,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1548,7 +1549,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1563,7 +1564,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1578,7 +1579,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1593,7 +1594,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1608,7 +1609,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1623,7 +1624,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1638,7 +1639,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1653,7 +1654,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1668,7 +1669,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1683,7 +1684,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1698,7 +1699,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1713,7 +1714,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1728,7 +1729,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1743,7 +1744,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1758,7 +1759,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1773,7 +1774,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1788,7 +1789,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1803,7 +1804,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1818,7 +1819,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1833,7 +1834,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1848,7 +1849,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1863,7 +1864,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1878,7 +1879,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1893,7 +1894,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1908,7 +1909,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1923,7 +1924,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2038,7 +2039,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2048,7 +2049,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2059,7 +2060,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2281,7 +2282,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2292,7 +2293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2313,7 +2314,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2331,7 +2332,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2352,29 +2353,127 @@
     <t>追加值到字典里</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>dict3.pop(key) # 删除指定关键字</t>
+  </si>
+  <si>
+    <t>dict3.popitem() # 随机删除一个元素</t>
+  </si>
+  <si>
+    <t>del dict3['我们'] # 删除关键字为【我们】的值</t>
+  </si>
+  <si>
+    <t>dict3.clear() # 清空字典</t>
+  </si>
+  <si>
+    <t>dict3.get(关键字)来查询相应的value，若是没有的话，返回None，或者返回自定义的内容</t>
+  </si>
+  <si>
+    <t>也可以使用in 或者not in来判断关键字是否存在于字典</t>
+  </si>
+  <si>
+    <t>dict4 = dict3.copy() # 复制一个字典</t>
+  </si>
+  <si>
+    <t>dict5 = dict3</t>
+  </si>
+  <si>
+    <t>dict5和dict5的地址相同</t>
+  </si>
+  <si>
+    <t>dict4和dict3，dict5的地址不同</t>
+  </si>
+  <si>
+    <t>Python 字典(Dictionary) setdefault() 函数和get()方法类似, 如果键不已经存在于字典中，将会添加键并将值设为默认值。</t>
+  </si>
+  <si>
+    <t>setdefault()方法语法：</t>
+  </si>
+  <si>
+    <t>http://www.runoob.com/python</t>
+  </si>
+  <si>
+    <t>http://www.fishc.com/</t>
+  </si>
+  <si>
+    <t>关键字唯一性！</t>
+  </si>
+  <si>
+    <t>顺序是乱的，但关键字是唯一的！</t>
+  </si>
+  <si>
+    <t>集合/set</t>
+  </si>
+  <si>
+    <t>不可索引的序列</t>
+  </si>
+  <si>
+    <t>两种创建方式</t>
+  </si>
+  <si>
+    <r>
+      <t>大括号，逗号隔开，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>木有冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！</t>
+    </r>
+  </si>
+  <si>
+    <t>使用工厂函数set()来创建</t>
+  </si>
+  <si>
+    <t>便利集合中的数据</t>
+  </si>
+  <si>
+    <t>判断是否在集合中存在</t>
+  </si>
+  <si>
+    <t>增加和删除元素</t>
+  </si>
+  <si>
+    <t>不可变集合/frozen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2382,7 +2481,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2391,7 +2490,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2400,7 +2499,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2414,7 +2513,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2422,7 +2521,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2494,6 +2593,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2503,10 +2603,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -6146,8 +6245,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>689501</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8184</xdr:colOff>
       <xdr:row>864</xdr:row>
       <xdr:rowOff>112080</xdr:rowOff>
     </xdr:to>
@@ -6973,13 +7072,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
       <xdr:row>931</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
+      <xdr:rowOff>56027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>960</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:row>1006</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6988,8 +7087,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1423147" y="165141087"/>
-          <a:ext cx="5020234" cy="4919383"/>
+          <a:off x="1243853" y="184818615"/>
+          <a:ext cx="4392705" cy="14253885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7708,22 +7807,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>dict3.pop() # </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>删除最后一个值</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
@@ -7738,7 +7821,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>del dict3['</a:t>
+            <a:t>dirt4 = dirt.fromkeys(</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -7746,15 +7829,15 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>我们</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>'] # </a:t>
+            <a:t>序列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -7762,40 +7845,250 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>删除关键字为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>我们</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>的值</a:t>
-          </a:r>
+            <a:t>值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; seq = ['I','you','he','she']</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict4 = dict.fromkeys(seq)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{'you': None, 'I': None, 'she': None, 'he': None}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict4 = dict.fromkeys(seq,'dummy')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{'you': 'dummy', 'I': 'dummy', 'she': 'dummy', 'he': 'dummy'}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; str(dict4)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"{'you': 'dummy', 'I': 'dummy', 'she': 'dummy', 'he': 'dummy'}"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; print ("%s" % str(dict4))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{'you': 'dummy', 'I': 'dummy', 'she': 'dummy', 'he': 'dummy'}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; print (str(dict4))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{'you': 'dummy', 'I': 'dummy', 'she': 'dummy', 'he': 'dummy'}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict4.keys()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dict_keys(['you', 'I', 'she', 'he'])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; print(dict4.keys())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dict_keys(['you', 'I', 'she', 'he'])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; type(dict4.keys())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;class 'dict_keys'&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; for i in dict4.keys():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	print (i)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
@@ -7810,31 +8103,1656 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>dict3.clear() # </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>清空字典</a:t>
-          </a:r>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>you</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>I</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>she</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>he</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>他</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HE', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>她</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SHE', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>它</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IT', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>你</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YOU', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>': '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>I'}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict3.get('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>I'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict3.get('ta')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; type(dict3.get('ta'))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;class 'NoneType'&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict3.get('ta','Not exists')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'Not exists'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; 'wo' in dict3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>False</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>in dict3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>True</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict4 = dict3.copy()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict5 = dict3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; id(dict3)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>59754696</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; id(dict4)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>56949256</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; id(dict5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>59754696</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict6 = {1:'one',2:'two',1:'One'}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; dict6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{1: 'One', 2: 'two'}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1009</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>1020</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="199812087"/>
+          <a:ext cx="4392705" cy="1994647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set1 = {1,2,3,4,5,6}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{1, 2, 3, 4, 5, 6}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; type(set1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;class 'set'&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set1[1]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Traceback (most recent call last):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  File "&lt;pyshell#165&gt;", line 1, in &lt;module&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    set1[1]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TypeError: 'set' object does not support indexing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1023</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>1034</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="202479087"/>
+          <a:ext cx="4392705" cy="1994647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set2 = set([1,2,3,4,5,6])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{1, 2, 3, 4, 5, 6}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; type(set2)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;class 'set'&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set2[2]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Traceback (most recent call last):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  File "&lt;pyshell#166&gt;", line 1, in &lt;module&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    set2[2]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TypeError: 'set' object does not support indexing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1037</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>1047</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="204989205"/>
+          <a:ext cx="4392705" cy="1994647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; for i in set1:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	print(i)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1050</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>1058</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="207432089"/>
+          <a:ext cx="4392705" cy="1692088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; '1' in set2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>False</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; 1 in set2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>True</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; '1' not in set2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>True</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; 1 not in set2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>False</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1061</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>1072</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="209527588"/>
+          <a:ext cx="4392705" cy="1692088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{1, 2, 3, 4, 5, 6}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set2.add(5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{1, 2, 3, 4, 5, 6}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set2.add(7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{1, 2, 3, 4, 5, 6, 7}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set2.remove(3)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{1, 2, 4, 5, 6, 7}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1076</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>1089</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="211813588"/>
+          <a:ext cx="4392705" cy="2521324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set3 = frozenset([1,2,3,4,5])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>frozenset({1, 2, 3, 4, 5})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set3.add(6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Traceback (most recent call last):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  File "&lt;pyshell#188&gt;", line 1, in &lt;module&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    set3.add(6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AttributeError: 'frozenset' object has no attribute 'add'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; set3.remove(6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Traceback (most recent call last):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  File "&lt;pyshell#189&gt;", line 1, in &lt;module&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    set3.remove(6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AttributeError: 'frozenset' object has no attribute 'remove'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1090</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>472632</xdr:colOff>
+      <xdr:row>1125</xdr:row>
+      <xdr:rowOff>189643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="215052088"/>
+          <a:ext cx="6523809" cy="6857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8120,98 +10038,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P950"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A913" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L954" sqref="L954"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P1075"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A1101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1128" sqref="C1128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
@@ -8228,7 +10171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
@@ -8239,67 +10182,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="E32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="E35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="E36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="E38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="E39" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="E40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" s="3" customFormat="1">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
@@ -8307,27 +10250,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" s="3" customFormat="1">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8">
       <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8">
       <c r="B54" s="1" t="s">
         <v>36</v>
       </c>
@@ -8341,7 +10284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8">
       <c r="E55" s="1" t="s">
         <v>40</v>
       </c>
@@ -8349,17 +10292,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8">
       <c r="B58" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8">
       <c r="B59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8">
       <c r="B60" s="4" t="s">
         <v>44</v>
       </c>
@@ -8369,42 +10312,42 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8">
       <c r="B61" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" s="3" customFormat="1">
       <c r="A63" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:7">
       <c r="B65" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:7">
       <c r="B66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:7">
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:7">
       <c r="B68" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:7">
       <c r="B69" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:7">
       <c r="B71" s="4" t="s">
         <v>65</v>
       </c>
@@ -8414,22 +10357,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:7">
       <c r="B73" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:7">
       <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:7">
       <c r="B75" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:7">
       <c r="B76" s="1" t="s">
         <v>56</v>
       </c>
@@ -8437,47 +10380,47 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:7">
       <c r="B77" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:7">
       <c r="B78" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:7">
       <c r="B79" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:7">
       <c r="B80" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:5">
       <c r="B81" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:5">
       <c r="B82" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:5">
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:5">
       <c r="B84" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:5">
       <c r="B87" s="4" t="s">
         <v>66</v>
       </c>
@@ -8487,32 +10430,32 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:5">
       <c r="B89" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:5">
       <c r="B91" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:5">
       <c r="B92" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:5">
       <c r="B93" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:5">
       <c r="B94" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:5">
       <c r="B97" s="4" t="s">
         <v>71</v>
       </c>
@@ -8522,27 +10465,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:5">
       <c r="B99" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:5">
       <c r="B100" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:5">
       <c r="B101" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:5">
       <c r="B102" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:5">
       <c r="B104" s="4" t="s">
         <v>75</v>
       </c>
@@ -8550,42 +10493,42 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:5">
       <c r="B106" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:5">
       <c r="B107" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:5">
       <c r="B108" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:5">
       <c r="B109" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:5">
       <c r="B110" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:5">
       <c r="B111" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:5">
       <c r="B112" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:8">
       <c r="B114" s="4" t="s">
         <v>81</v>
       </c>
@@ -8593,27 +10536,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:8">
       <c r="B116" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:8">
       <c r="B118" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:8">
       <c r="B119" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:8">
       <c r="B120" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:8">
       <c r="B121" s="1" t="s">
         <v>85</v>
       </c>
@@ -8621,97 +10564,97 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:8">
       <c r="B122" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:8">
       <c r="B123" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:8">
       <c r="B124" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:8">
       <c r="B125" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:8">
       <c r="B126" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:8">
       <c r="B127" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:8">
       <c r="B128" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:5">
       <c r="B129" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:5">
       <c r="B130" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:5">
       <c r="B131" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:5">
       <c r="B132" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:5">
       <c r="B133" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:5">
       <c r="B135" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:5">
       <c r="B136" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:5">
       <c r="B137" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:5">
       <c r="B138" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:5">
       <c r="B139" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:5">
       <c r="B140" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:5">
       <c r="B142" s="4" t="s">
         <v>81</v>
       </c>
@@ -8719,67 +10662,67 @@
         <v>92</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:5">
       <c r="B144" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:5">
       <c r="B145" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:5">
       <c r="B146" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:5">
       <c r="B147" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:5">
       <c r="B148" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:5">
       <c r="B149" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:5">
       <c r="B150" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:5">
       <c r="B151" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:5">
       <c r="B152" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:5">
       <c r="B153" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:5">
       <c r="B154" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:5">
       <c r="B155" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:5">
       <c r="B157" s="4" t="s">
         <v>104</v>
       </c>
@@ -8787,7 +10730,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:5">
       <c r="B160" s="4" t="s">
         <v>107</v>
       </c>
@@ -8795,52 +10738,52 @@
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4">
       <c r="B162" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4">
       <c r="B163" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4">
       <c r="B164" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4">
       <c r="B165" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4">
       <c r="B166" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4">
       <c r="B167" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4">
       <c r="B168" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" s="3" customFormat="1">
       <c r="A170" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4">
       <c r="B172" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4">
       <c r="B174" s="1" t="s">
         <v>113</v>
       </c>
@@ -8848,42 +10791,42 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4">
       <c r="B176" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:5">
       <c r="B177" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:5">
       <c r="B178" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:5">
       <c r="B179" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:5">
       <c r="B180" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:5">
       <c r="B181" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:5">
       <c r="B182" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:5">
       <c r="B184" s="7" t="s">
         <v>174</v>
       </c>
@@ -8893,82 +10836,82 @@
         <v>176</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:5">
       <c r="C185" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:5">
       <c r="C186" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:5">
       <c r="C187" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:5">
       <c r="C188" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:5">
       <c r="C189" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:5">
       <c r="C190" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:5">
       <c r="C191" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:5">
       <c r="C192" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:5">
       <c r="C193" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:5">
       <c r="C194" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:5">
       <c r="C195" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:5">
       <c r="C196" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:5">
       <c r="C197" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:5">
       <c r="C198" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:5">
       <c r="C199" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:5">
       <c r="B201" s="7" t="s">
         <v>175</v>
       </c>
@@ -8976,367 +10919,367 @@
         <v>185</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:5">
       <c r="C202" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:5">
       <c r="C203" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:5">
       <c r="C204" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:5">
       <c r="C205" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:5">
       <c r="C206" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:5">
       <c r="C207" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:5">
       <c r="C208" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:3">
       <c r="C209" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:3">
       <c r="C210" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:3">
       <c r="C211" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:3">
       <c r="C212" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:3">
       <c r="C213" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:3">
       <c r="C214" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:3">
       <c r="C215" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:3">
       <c r="C216" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:3" s="3" customFormat="1">
       <c r="A217" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:3">
       <c r="B219" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:3">
       <c r="B220" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:3">
       <c r="B221" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:3">
       <c r="B222" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:3">
       <c r="B223" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:3">
       <c r="B224" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:2">
       <c r="B225" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:2">
       <c r="B226" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:2">
       <c r="B227" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:2">
       <c r="B228" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:2">
       <c r="B229" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:2">
       <c r="B230" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:2">
       <c r="B231" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:2">
       <c r="B232" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:2">
       <c r="B234" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:2">
       <c r="B235" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:2">
       <c r="B236" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:2">
       <c r="B237" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:2">
       <c r="B238" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:2">
       <c r="B239" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:2">
       <c r="B240" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:2">
       <c r="B241" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:2">
       <c r="B242" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:2">
       <c r="B243" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:2">
       <c r="B244" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:2">
       <c r="B245" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:2">
       <c r="B246" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:2">
       <c r="B247" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:2">
       <c r="B248" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:2">
       <c r="B250" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:2">
       <c r="B251" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:2">
       <c r="B252" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:2">
       <c r="B253" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:2">
       <c r="B254" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:2">
       <c r="B255" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:2">
       <c r="B256" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:2">
       <c r="B259" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:2">
       <c r="B260" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:2">
       <c r="B261" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:2">
       <c r="B262" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:2">
       <c r="B263" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:2">
       <c r="B264" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:2">
       <c r="B265" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:2">
       <c r="B266" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:2">
       <c r="B267" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:2">
       <c r="B268" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:2">
       <c r="B269" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:2">
       <c r="B270" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:2">
       <c r="B271" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:2">
       <c r="B272" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10">
       <c r="B273" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10">
       <c r="B274" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10">
       <c r="B275" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10">
       <c r="B276" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10">
       <c r="B277" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10">
       <c r="B279" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10">
       <c r="A280" s="4"/>
       <c r="B280" s="4" t="s">
         <v>160</v>
@@ -9345,57 +11288,57 @@
         <v>162</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10">
       <c r="B281" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10">
       <c r="B282" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10">
       <c r="B283" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10">
       <c r="B284" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10">
       <c r="B285" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10">
       <c r="B286" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10">
       <c r="B287" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:10">
       <c r="B288" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:10">
       <c r="B289" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:10">
       <c r="B290" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:10">
       <c r="B292" s="4" t="s">
         <v>163</v>
       </c>
@@ -9409,7 +11352,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:10">
       <c r="B293" s="1" t="s">
         <v>164</v>
       </c>
@@ -9417,47 +11360,47 @@
         <v>171</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:10">
       <c r="B295" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:10">
       <c r="B296" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:10">
       <c r="B297" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:10">
       <c r="B298" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:10">
       <c r="B299" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:10">
       <c r="B300" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:10">
       <c r="B301" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="303" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:10" s="3" customFormat="1">
       <c r="A303" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="305" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:10">
       <c r="B305" s="1" t="s">
         <v>187</v>
       </c>
@@ -9468,640 +11411,640 @@
         <v>189</v>
       </c>
     </row>
-    <row r="312" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:10">
       <c r="J312" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="313" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:10">
       <c r="J313" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:11">
       <c r="B337" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="348" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:11" s="3" customFormat="1">
       <c r="A348" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B350" s="12" t="s">
+    <row r="350" spans="1:11" ht="30" customHeight="1">
+      <c r="B350" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C350" s="12"/>
-      <c r="D350" s="12"/>
-      <c r="E350" s="13" t="s">
+      <c r="C350" s="13"/>
+      <c r="D350" s="13"/>
+      <c r="E350" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F350" s="13"/>
-      <c r="G350" s="13"/>
-      <c r="H350" s="13"/>
-      <c r="I350" s="13"/>
-      <c r="J350" s="13"/>
-      <c r="K350" s="13"/>
-    </row>
-    <row r="351" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B351" s="12" t="s">
+      <c r="F350" s="14"/>
+      <c r="G350" s="14"/>
+      <c r="H350" s="14"/>
+      <c r="I350" s="14"/>
+      <c r="J350" s="14"/>
+      <c r="K350" s="14"/>
+    </row>
+    <row r="351" spans="1:11" ht="30" customHeight="1">
+      <c r="B351" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C351" s="12"/>
-      <c r="D351" s="12"/>
-      <c r="E351" s="13" t="s">
+      <c r="C351" s="13"/>
+      <c r="D351" s="13"/>
+      <c r="E351" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F351" s="13"/>
-      <c r="G351" s="13"/>
-      <c r="H351" s="13"/>
-      <c r="I351" s="13"/>
-      <c r="J351" s="13"/>
-      <c r="K351" s="13"/>
-    </row>
-    <row r="352" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B352" s="12" t="s">
+      <c r="F351" s="14"/>
+      <c r="G351" s="14"/>
+      <c r="H351" s="14"/>
+      <c r="I351" s="14"/>
+      <c r="J351" s="14"/>
+      <c r="K351" s="14"/>
+    </row>
+    <row r="352" spans="1:11" ht="30" customHeight="1">
+      <c r="B352" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C352" s="12"/>
-      <c r="D352" s="12"/>
-      <c r="E352" s="13" t="s">
+      <c r="C352" s="13"/>
+      <c r="D352" s="13"/>
+      <c r="E352" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F352" s="13"/>
-      <c r="G352" s="13"/>
-      <c r="H352" s="13"/>
-      <c r="I352" s="13"/>
-      <c r="J352" s="13"/>
-      <c r="K352" s="13"/>
-    </row>
-    <row r="353" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B353" s="12" t="s">
+      <c r="F352" s="14"/>
+      <c r="G352" s="14"/>
+      <c r="H352" s="14"/>
+      <c r="I352" s="14"/>
+      <c r="J352" s="14"/>
+      <c r="K352" s="14"/>
+    </row>
+    <row r="353" spans="2:11" ht="30" customHeight="1">
+      <c r="B353" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C353" s="12"/>
-      <c r="D353" s="12"/>
-      <c r="E353" s="13" t="s">
+      <c r="C353" s="13"/>
+      <c r="D353" s="13"/>
+      <c r="E353" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F353" s="13"/>
-      <c r="G353" s="13"/>
-      <c r="H353" s="13"/>
-      <c r="I353" s="13"/>
-      <c r="J353" s="13"/>
-      <c r="K353" s="13"/>
-    </row>
-    <row r="354" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B354" s="12" t="s">
+      <c r="F353" s="14"/>
+      <c r="G353" s="14"/>
+      <c r="H353" s="14"/>
+      <c r="I353" s="14"/>
+      <c r="J353" s="14"/>
+      <c r="K353" s="14"/>
+    </row>
+    <row r="354" spans="2:11" ht="30" customHeight="1">
+      <c r="B354" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C354" s="12"/>
-      <c r="D354" s="12"/>
-      <c r="E354" s="13" t="s">
+      <c r="C354" s="13"/>
+      <c r="D354" s="13"/>
+      <c r="E354" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F354" s="13"/>
-      <c r="G354" s="13"/>
-      <c r="H354" s="13"/>
-      <c r="I354" s="13"/>
-      <c r="J354" s="13"/>
-      <c r="K354" s="13"/>
-    </row>
-    <row r="355" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B355" s="12" t="s">
+      <c r="F354" s="14"/>
+      <c r="G354" s="14"/>
+      <c r="H354" s="14"/>
+      <c r="I354" s="14"/>
+      <c r="J354" s="14"/>
+      <c r="K354" s="14"/>
+    </row>
+    <row r="355" spans="2:11" ht="30" customHeight="1">
+      <c r="B355" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C355" s="12"/>
-      <c r="D355" s="12"/>
-      <c r="E355" s="13" t="s">
+      <c r="C355" s="13"/>
+      <c r="D355" s="13"/>
+      <c r="E355" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="F355" s="13"/>
-      <c r="G355" s="13"/>
-      <c r="H355" s="13"/>
-      <c r="I355" s="13"/>
-      <c r="J355" s="13"/>
-      <c r="K355" s="13"/>
-    </row>
-    <row r="356" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B356" s="12" t="s">
+      <c r="F355" s="14"/>
+      <c r="G355" s="14"/>
+      <c r="H355" s="14"/>
+      <c r="I355" s="14"/>
+      <c r="J355" s="14"/>
+      <c r="K355" s="14"/>
+    </row>
+    <row r="356" spans="2:11" ht="30" customHeight="1">
+      <c r="B356" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C356" s="12"/>
-      <c r="D356" s="12"/>
-      <c r="E356" s="13" t="s">
+      <c r="C356" s="13"/>
+      <c r="D356" s="13"/>
+      <c r="E356" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F356" s="13"/>
-      <c r="G356" s="13"/>
-      <c r="H356" s="13"/>
-      <c r="I356" s="13"/>
-      <c r="J356" s="13"/>
-      <c r="K356" s="13"/>
-    </row>
-    <row r="357" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B357" s="12" t="s">
+      <c r="F356" s="14"/>
+      <c r="G356" s="14"/>
+      <c r="H356" s="14"/>
+      <c r="I356" s="14"/>
+      <c r="J356" s="14"/>
+      <c r="K356" s="14"/>
+    </row>
+    <row r="357" spans="2:11" ht="30" customHeight="1">
+      <c r="B357" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C357" s="12"/>
-      <c r="D357" s="12"/>
-      <c r="E357" s="13" t="s">
+      <c r="C357" s="13"/>
+      <c r="D357" s="13"/>
+      <c r="E357" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F357" s="13"/>
-      <c r="G357" s="13"/>
-      <c r="H357" s="13"/>
-      <c r="I357" s="13"/>
-      <c r="J357" s="13"/>
-      <c r="K357" s="13"/>
-    </row>
-    <row r="358" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B358" s="12" t="s">
+      <c r="F357" s="14"/>
+      <c r="G357" s="14"/>
+      <c r="H357" s="14"/>
+      <c r="I357" s="14"/>
+      <c r="J357" s="14"/>
+      <c r="K357" s="14"/>
+    </row>
+    <row r="358" spans="2:11" ht="30" customHeight="1">
+      <c r="B358" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C358" s="12"/>
-      <c r="D358" s="12"/>
-      <c r="E358" s="13" t="s">
+      <c r="C358" s="13"/>
+      <c r="D358" s="13"/>
+      <c r="E358" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="F358" s="13"/>
-      <c r="G358" s="13"/>
-      <c r="H358" s="13"/>
-      <c r="I358" s="13"/>
-      <c r="J358" s="13"/>
-      <c r="K358" s="13"/>
-    </row>
-    <row r="359" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B359" s="12" t="s">
+      <c r="F358" s="14"/>
+      <c r="G358" s="14"/>
+      <c r="H358" s="14"/>
+      <c r="I358" s="14"/>
+      <c r="J358" s="14"/>
+      <c r="K358" s="14"/>
+    </row>
+    <row r="359" spans="2:11" ht="30" customHeight="1">
+      <c r="B359" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C359" s="12"/>
-      <c r="D359" s="12"/>
-      <c r="E359" s="13" t="s">
+      <c r="C359" s="13"/>
+      <c r="D359" s="13"/>
+      <c r="E359" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="F359" s="13"/>
-      <c r="G359" s="13"/>
-      <c r="H359" s="13"/>
-      <c r="I359" s="13"/>
-      <c r="J359" s="13"/>
-      <c r="K359" s="13"/>
-    </row>
-    <row r="360" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B360" s="12" t="s">
+      <c r="F359" s="14"/>
+      <c r="G359" s="14"/>
+      <c r="H359" s="14"/>
+      <c r="I359" s="14"/>
+      <c r="J359" s="14"/>
+      <c r="K359" s="14"/>
+    </row>
+    <row r="360" spans="2:11" ht="30" customHeight="1">
+      <c r="B360" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C360" s="12"/>
-      <c r="D360" s="12"/>
-      <c r="E360" s="13" t="s">
+      <c r="C360" s="13"/>
+      <c r="D360" s="13"/>
+      <c r="E360" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F360" s="13"/>
-      <c r="G360" s="13"/>
-      <c r="H360" s="13"/>
-      <c r="I360" s="13"/>
-      <c r="J360" s="13"/>
-      <c r="K360" s="13"/>
-    </row>
-    <row r="361" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B361" s="12" t="s">
+      <c r="F360" s="14"/>
+      <c r="G360" s="14"/>
+      <c r="H360" s="14"/>
+      <c r="I360" s="14"/>
+      <c r="J360" s="14"/>
+      <c r="K360" s="14"/>
+    </row>
+    <row r="361" spans="2:11" ht="30" customHeight="1">
+      <c r="B361" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C361" s="12"/>
-      <c r="D361" s="12"/>
-      <c r="E361" s="13" t="s">
+      <c r="C361" s="13"/>
+      <c r="D361" s="13"/>
+      <c r="E361" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F361" s="13"/>
-      <c r="G361" s="13"/>
-      <c r="H361" s="13"/>
-      <c r="I361" s="13"/>
-      <c r="J361" s="13"/>
-      <c r="K361" s="13"/>
-    </row>
-    <row r="362" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B362" s="12" t="s">
+      <c r="F361" s="14"/>
+      <c r="G361" s="14"/>
+      <c r="H361" s="14"/>
+      <c r="I361" s="14"/>
+      <c r="J361" s="14"/>
+      <c r="K361" s="14"/>
+    </row>
+    <row r="362" spans="2:11" ht="30" customHeight="1">
+      <c r="B362" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C362" s="12"/>
-      <c r="D362" s="12"/>
-      <c r="E362" s="13" t="s">
+      <c r="C362" s="13"/>
+      <c r="D362" s="13"/>
+      <c r="E362" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F362" s="13"/>
-      <c r="G362" s="13"/>
-      <c r="H362" s="13"/>
-      <c r="I362" s="13"/>
-      <c r="J362" s="13"/>
-      <c r="K362" s="13"/>
-    </row>
-    <row r="363" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B363" s="12" t="s">
+      <c r="F362" s="14"/>
+      <c r="G362" s="14"/>
+      <c r="H362" s="14"/>
+      <c r="I362" s="14"/>
+      <c r="J362" s="14"/>
+      <c r="K362" s="14"/>
+    </row>
+    <row r="363" spans="2:11" ht="30" customHeight="1">
+      <c r="B363" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C363" s="12"/>
-      <c r="D363" s="12"/>
-      <c r="E363" s="13" t="s">
+      <c r="C363" s="13"/>
+      <c r="D363" s="13"/>
+      <c r="E363" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="F363" s="13"/>
-      <c r="G363" s="13"/>
-      <c r="H363" s="13"/>
-      <c r="I363" s="13"/>
-      <c r="J363" s="13"/>
-      <c r="K363" s="13"/>
-    </row>
-    <row r="364" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B364" s="12" t="s">
+      <c r="F363" s="14"/>
+      <c r="G363" s="14"/>
+      <c r="H363" s="14"/>
+      <c r="I363" s="14"/>
+      <c r="J363" s="14"/>
+      <c r="K363" s="14"/>
+    </row>
+    <row r="364" spans="2:11" ht="30" customHeight="1">
+      <c r="B364" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C364" s="12"/>
-      <c r="D364" s="12"/>
-      <c r="E364" s="13" t="s">
+      <c r="C364" s="13"/>
+      <c r="D364" s="13"/>
+      <c r="E364" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F364" s="13"/>
-      <c r="G364" s="13"/>
-      <c r="H364" s="13"/>
-      <c r="I364" s="13"/>
-      <c r="J364" s="13"/>
-      <c r="K364" s="13"/>
-    </row>
-    <row r="365" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B365" s="12" t="s">
+      <c r="F364" s="14"/>
+      <c r="G364" s="14"/>
+      <c r="H364" s="14"/>
+      <c r="I364" s="14"/>
+      <c r="J364" s="14"/>
+      <c r="K364" s="14"/>
+    </row>
+    <row r="365" spans="2:11" ht="30" customHeight="1">
+      <c r="B365" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C365" s="12"/>
-      <c r="D365" s="12"/>
-      <c r="E365" s="13" t="s">
+      <c r="C365" s="13"/>
+      <c r="D365" s="13"/>
+      <c r="E365" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="F365" s="13"/>
-      <c r="G365" s="13"/>
-      <c r="H365" s="13"/>
-      <c r="I365" s="13"/>
-      <c r="J365" s="13"/>
-      <c r="K365" s="13"/>
-    </row>
-    <row r="366" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B366" s="12" t="s">
+      <c r="F365" s="14"/>
+      <c r="G365" s="14"/>
+      <c r="H365" s="14"/>
+      <c r="I365" s="14"/>
+      <c r="J365" s="14"/>
+      <c r="K365" s="14"/>
+    </row>
+    <row r="366" spans="2:11" ht="30" customHeight="1">
+      <c r="B366" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C366" s="12"/>
-      <c r="D366" s="12"/>
-      <c r="E366" s="13" t="s">
+      <c r="C366" s="13"/>
+      <c r="D366" s="13"/>
+      <c r="E366" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="F366" s="13"/>
-      <c r="G366" s="13"/>
-      <c r="H366" s="13"/>
-      <c r="I366" s="13"/>
-      <c r="J366" s="13"/>
-      <c r="K366" s="13"/>
-    </row>
-    <row r="367" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B367" s="12" t="s">
+      <c r="F366" s="14"/>
+      <c r="G366" s="14"/>
+      <c r="H366" s="14"/>
+      <c r="I366" s="14"/>
+      <c r="J366" s="14"/>
+      <c r="K366" s="14"/>
+    </row>
+    <row r="367" spans="2:11" ht="30" customHeight="1">
+      <c r="B367" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C367" s="12"/>
-      <c r="D367" s="12"/>
-      <c r="E367" s="13" t="s">
+      <c r="C367" s="13"/>
+      <c r="D367" s="13"/>
+      <c r="E367" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F367" s="13"/>
-      <c r="G367" s="13"/>
-      <c r="H367" s="13"/>
-      <c r="I367" s="13"/>
-      <c r="J367" s="13"/>
-      <c r="K367" s="13"/>
-    </row>
-    <row r="368" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B368" s="12" t="s">
+      <c r="F367" s="14"/>
+      <c r="G367" s="14"/>
+      <c r="H367" s="14"/>
+      <c r="I367" s="14"/>
+      <c r="J367" s="14"/>
+      <c r="K367" s="14"/>
+    </row>
+    <row r="368" spans="2:11" ht="30" customHeight="1">
+      <c r="B368" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C368" s="12"/>
-      <c r="D368" s="12"/>
-      <c r="E368" s="13" t="s">
+      <c r="C368" s="13"/>
+      <c r="D368" s="13"/>
+      <c r="E368" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="F368" s="13"/>
-      <c r="G368" s="13"/>
-      <c r="H368" s="13"/>
-      <c r="I368" s="13"/>
-      <c r="J368" s="13"/>
-      <c r="K368" s="13"/>
-    </row>
-    <row r="369" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B369" s="12" t="s">
+      <c r="F368" s="14"/>
+      <c r="G368" s="14"/>
+      <c r="H368" s="14"/>
+      <c r="I368" s="14"/>
+      <c r="J368" s="14"/>
+      <c r="K368" s="14"/>
+    </row>
+    <row r="369" spans="2:11" ht="30" customHeight="1">
+      <c r="B369" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C369" s="12"/>
-      <c r="D369" s="12"/>
-      <c r="E369" s="13" t="s">
+      <c r="C369" s="13"/>
+      <c r="D369" s="13"/>
+      <c r="E369" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="F369" s="13"/>
-      <c r="G369" s="13"/>
-      <c r="H369" s="13"/>
-      <c r="I369" s="13"/>
-      <c r="J369" s="13"/>
-      <c r="K369" s="13"/>
-    </row>
-    <row r="370" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B370" s="12" t="s">
+      <c r="F369" s="14"/>
+      <c r="G369" s="14"/>
+      <c r="H369" s="14"/>
+      <c r="I369" s="14"/>
+      <c r="J369" s="14"/>
+      <c r="K369" s="14"/>
+    </row>
+    <row r="370" spans="2:11" ht="30" customHeight="1">
+      <c r="B370" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="C370" s="12"/>
-      <c r="D370" s="12"/>
-      <c r="E370" s="13" t="s">
+      <c r="C370" s="13"/>
+      <c r="D370" s="13"/>
+      <c r="E370" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F370" s="13"/>
-      <c r="G370" s="13"/>
-      <c r="H370" s="13"/>
-      <c r="I370" s="13"/>
-      <c r="J370" s="13"/>
-      <c r="K370" s="13"/>
-    </row>
-    <row r="371" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B371" s="12" t="s">
+      <c r="F370" s="14"/>
+      <c r="G370" s="14"/>
+      <c r="H370" s="14"/>
+      <c r="I370" s="14"/>
+      <c r="J370" s="14"/>
+      <c r="K370" s="14"/>
+    </row>
+    <row r="371" spans="2:11" ht="30" customHeight="1">
+      <c r="B371" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C371" s="12"/>
-      <c r="D371" s="12"/>
-      <c r="E371" s="13" t="s">
+      <c r="C371" s="13"/>
+      <c r="D371" s="13"/>
+      <c r="E371" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="F371" s="13"/>
-      <c r="G371" s="13"/>
-      <c r="H371" s="13"/>
-      <c r="I371" s="13"/>
-      <c r="J371" s="13"/>
-      <c r="K371" s="13"/>
-    </row>
-    <row r="372" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B372" s="12" t="s">
+      <c r="F371" s="14"/>
+      <c r="G371" s="14"/>
+      <c r="H371" s="14"/>
+      <c r="I371" s="14"/>
+      <c r="J371" s="14"/>
+      <c r="K371" s="14"/>
+    </row>
+    <row r="372" spans="2:11" ht="30" customHeight="1">
+      <c r="B372" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C372" s="12"/>
-      <c r="D372" s="12"/>
-      <c r="E372" s="13" t="s">
+      <c r="C372" s="13"/>
+      <c r="D372" s="13"/>
+      <c r="E372" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F372" s="13"/>
-      <c r="G372" s="13"/>
-      <c r="H372" s="13"/>
-      <c r="I372" s="13"/>
-      <c r="J372" s="13"/>
-      <c r="K372" s="13"/>
-    </row>
-    <row r="373" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B373" s="12" t="s">
+      <c r="F372" s="14"/>
+      <c r="G372" s="14"/>
+      <c r="H372" s="14"/>
+      <c r="I372" s="14"/>
+      <c r="J372" s="14"/>
+      <c r="K372" s="14"/>
+    </row>
+    <row r="373" spans="2:11" ht="30" customHeight="1">
+      <c r="B373" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C373" s="12"/>
-      <c r="D373" s="12"/>
-      <c r="E373" s="13" t="s">
+      <c r="C373" s="13"/>
+      <c r="D373" s="13"/>
+      <c r="E373" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="F373" s="13"/>
-      <c r="G373" s="13"/>
-      <c r="H373" s="13"/>
-      <c r="I373" s="13"/>
-      <c r="J373" s="13"/>
-      <c r="K373" s="13"/>
-    </row>
-    <row r="374" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B374" s="12" t="s">
+      <c r="F373" s="14"/>
+      <c r="G373" s="14"/>
+      <c r="H373" s="14"/>
+      <c r="I373" s="14"/>
+      <c r="J373" s="14"/>
+      <c r="K373" s="14"/>
+    </row>
+    <row r="374" spans="2:11" ht="30" customHeight="1">
+      <c r="B374" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C374" s="12"/>
-      <c r="D374" s="12"/>
-      <c r="E374" s="13" t="s">
+      <c r="C374" s="13"/>
+      <c r="D374" s="13"/>
+      <c r="E374" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="F374" s="13"/>
-      <c r="G374" s="13"/>
-      <c r="H374" s="13"/>
-      <c r="I374" s="13"/>
-      <c r="J374" s="13"/>
-      <c r="K374" s="13"/>
-    </row>
-    <row r="375" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B375" s="12" t="s">
+      <c r="F374" s="14"/>
+      <c r="G374" s="14"/>
+      <c r="H374" s="14"/>
+      <c r="I374" s="14"/>
+      <c r="J374" s="14"/>
+      <c r="K374" s="14"/>
+    </row>
+    <row r="375" spans="2:11" ht="30" customHeight="1">
+      <c r="B375" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C375" s="12"/>
-      <c r="D375" s="12"/>
-      <c r="E375" s="13" t="s">
+      <c r="C375" s="13"/>
+      <c r="D375" s="13"/>
+      <c r="E375" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="F375" s="13"/>
-      <c r="G375" s="13"/>
-      <c r="H375" s="13"/>
-      <c r="I375" s="13"/>
-      <c r="J375" s="13"/>
-      <c r="K375" s="13"/>
-    </row>
-    <row r="376" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B376" s="12" t="s">
+      <c r="F375" s="14"/>
+      <c r="G375" s="14"/>
+      <c r="H375" s="14"/>
+      <c r="I375" s="14"/>
+      <c r="J375" s="14"/>
+      <c r="K375" s="14"/>
+    </row>
+    <row r="376" spans="2:11" ht="30" customHeight="1">
+      <c r="B376" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C376" s="12"/>
-      <c r="D376" s="12"/>
-      <c r="E376" s="13" t="s">
+      <c r="C376" s="13"/>
+      <c r="D376" s="13"/>
+      <c r="E376" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="F376" s="13"/>
-      <c r="G376" s="13"/>
-      <c r="H376" s="13"/>
-      <c r="I376" s="13"/>
-      <c r="J376" s="13"/>
-      <c r="K376" s="13"/>
-    </row>
-    <row r="377" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B377" s="12" t="s">
+      <c r="F376" s="14"/>
+      <c r="G376" s="14"/>
+      <c r="H376" s="14"/>
+      <c r="I376" s="14"/>
+      <c r="J376" s="14"/>
+      <c r="K376" s="14"/>
+    </row>
+    <row r="377" spans="2:11" ht="30" customHeight="1">
+      <c r="B377" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C377" s="12"/>
-      <c r="D377" s="12"/>
-      <c r="E377" s="13" t="s">
+      <c r="C377" s="13"/>
+      <c r="D377" s="13"/>
+      <c r="E377" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F377" s="13"/>
-      <c r="G377" s="13"/>
-      <c r="H377" s="13"/>
-      <c r="I377" s="13"/>
-      <c r="J377" s="13"/>
-      <c r="K377" s="13"/>
-    </row>
-    <row r="378" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B378" s="12" t="s">
+      <c r="F377" s="14"/>
+      <c r="G377" s="14"/>
+      <c r="H377" s="14"/>
+      <c r="I377" s="14"/>
+      <c r="J377" s="14"/>
+      <c r="K377" s="14"/>
+    </row>
+    <row r="378" spans="2:11" ht="30" customHeight="1">
+      <c r="B378" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C378" s="12"/>
-      <c r="D378" s="12"/>
-      <c r="E378" s="13" t="s">
+      <c r="C378" s="13"/>
+      <c r="D378" s="13"/>
+      <c r="E378" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="F378" s="13"/>
-      <c r="G378" s="13"/>
-      <c r="H378" s="13"/>
-      <c r="I378" s="13"/>
-      <c r="J378" s="13"/>
-      <c r="K378" s="13"/>
-    </row>
-    <row r="379" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B379" s="12" t="s">
+      <c r="F378" s="14"/>
+      <c r="G378" s="14"/>
+      <c r="H378" s="14"/>
+      <c r="I378" s="14"/>
+      <c r="J378" s="14"/>
+      <c r="K378" s="14"/>
+    </row>
+    <row r="379" spans="2:11" ht="30" customHeight="1">
+      <c r="B379" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C379" s="12"/>
-      <c r="D379" s="12"/>
-      <c r="E379" s="13" t="s">
+      <c r="C379" s="13"/>
+      <c r="D379" s="13"/>
+      <c r="E379" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F379" s="13"/>
-      <c r="G379" s="13"/>
-      <c r="H379" s="13"/>
-      <c r="I379" s="13"/>
-      <c r="J379" s="13"/>
-      <c r="K379" s="13"/>
-    </row>
-    <row r="380" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B380" s="12" t="s">
+      <c r="F379" s="14"/>
+      <c r="G379" s="14"/>
+      <c r="H379" s="14"/>
+      <c r="I379" s="14"/>
+      <c r="J379" s="14"/>
+      <c r="K379" s="14"/>
+    </row>
+    <row r="380" spans="2:11" ht="30" customHeight="1">
+      <c r="B380" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C380" s="12"/>
-      <c r="D380" s="12"/>
-      <c r="E380" s="13" t="s">
+      <c r="C380" s="13"/>
+      <c r="D380" s="13"/>
+      <c r="E380" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="F380" s="13"/>
-      <c r="G380" s="13"/>
-      <c r="H380" s="13"/>
-      <c r="I380" s="13"/>
-      <c r="J380" s="13"/>
-      <c r="K380" s="13"/>
-    </row>
-    <row r="381" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B381" s="12" t="s">
+      <c r="F380" s="14"/>
+      <c r="G380" s="14"/>
+      <c r="H380" s="14"/>
+      <c r="I380" s="14"/>
+      <c r="J380" s="14"/>
+      <c r="K380" s="14"/>
+    </row>
+    <row r="381" spans="2:11" ht="30" customHeight="1">
+      <c r="B381" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C381" s="12"/>
-      <c r="D381" s="12"/>
-      <c r="E381" s="13" t="s">
+      <c r="C381" s="13"/>
+      <c r="D381" s="13"/>
+      <c r="E381" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="F381" s="13"/>
-      <c r="G381" s="13"/>
-      <c r="H381" s="13"/>
-      <c r="I381" s="13"/>
-      <c r="J381" s="13"/>
-      <c r="K381" s="13"/>
-    </row>
-    <row r="382" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B382" s="12" t="s">
+      <c r="F381" s="14"/>
+      <c r="G381" s="14"/>
+      <c r="H381" s="14"/>
+      <c r="I381" s="14"/>
+      <c r="J381" s="14"/>
+      <c r="K381" s="14"/>
+    </row>
+    <row r="382" spans="2:11" ht="30" customHeight="1">
+      <c r="B382" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C382" s="12"/>
-      <c r="D382" s="12"/>
-      <c r="E382" s="13" t="s">
+      <c r="C382" s="13"/>
+      <c r="D382" s="13"/>
+      <c r="E382" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="F382" s="13"/>
-      <c r="G382" s="13"/>
-      <c r="H382" s="13"/>
-      <c r="I382" s="13"/>
-      <c r="J382" s="13"/>
-      <c r="K382" s="13"/>
-    </row>
-    <row r="383" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B383" s="12" t="s">
+      <c r="F382" s="14"/>
+      <c r="G382" s="14"/>
+      <c r="H382" s="14"/>
+      <c r="I382" s="14"/>
+      <c r="J382" s="14"/>
+      <c r="K382" s="14"/>
+    </row>
+    <row r="383" spans="2:11" ht="30" customHeight="1">
+      <c r="B383" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C383" s="12"/>
-      <c r="D383" s="12"/>
-      <c r="E383" s="13" t="s">
+      <c r="C383" s="13"/>
+      <c r="D383" s="13"/>
+      <c r="E383" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F383" s="13"/>
-      <c r="G383" s="13"/>
-      <c r="H383" s="13"/>
-      <c r="I383" s="13"/>
-      <c r="J383" s="13"/>
-      <c r="K383" s="13"/>
-    </row>
-    <row r="384" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B384" s="12" t="s">
+      <c r="F383" s="14"/>
+      <c r="G383" s="14"/>
+      <c r="H383" s="14"/>
+      <c r="I383" s="14"/>
+      <c r="J383" s="14"/>
+      <c r="K383" s="14"/>
+    </row>
+    <row r="384" spans="2:11" ht="30" customHeight="1">
+      <c r="B384" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C384" s="12"/>
-      <c r="D384" s="12"/>
-      <c r="E384" s="13" t="s">
+      <c r="C384" s="13"/>
+      <c r="D384" s="13"/>
+      <c r="E384" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F384" s="13"/>
-      <c r="G384" s="13"/>
-      <c r="H384" s="13"/>
-      <c r="I384" s="13"/>
-      <c r="J384" s="13"/>
-      <c r="K384" s="13"/>
-    </row>
-    <row r="385" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B385" s="12" t="s">
+      <c r="F384" s="14"/>
+      <c r="G384" s="14"/>
+      <c r="H384" s="14"/>
+      <c r="I384" s="14"/>
+      <c r="J384" s="14"/>
+      <c r="K384" s="14"/>
+    </row>
+    <row r="385" spans="1:11" ht="30" customHeight="1">
+      <c r="B385" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C385" s="12"/>
-      <c r="D385" s="12"/>
-      <c r="E385" s="13" t="s">
+      <c r="C385" s="13"/>
+      <c r="D385" s="13"/>
+      <c r="E385" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="F385" s="13"/>
-      <c r="G385" s="13"/>
-      <c r="H385" s="13"/>
-      <c r="I385" s="13"/>
-      <c r="J385" s="13"/>
-      <c r="K385" s="13"/>
-    </row>
-    <row r="386" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B386" s="12" t="s">
+      <c r="F385" s="14"/>
+      <c r="G385" s="14"/>
+      <c r="H385" s="14"/>
+      <c r="I385" s="14"/>
+      <c r="J385" s="14"/>
+      <c r="K385" s="14"/>
+    </row>
+    <row r="386" spans="1:11" ht="30" customHeight="1">
+      <c r="B386" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="C386" s="12"/>
-      <c r="D386" s="12"/>
-      <c r="E386" s="13" t="s">
+      <c r="C386" s="13"/>
+      <c r="D386" s="13"/>
+      <c r="E386" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="F386" s="13"/>
-      <c r="G386" s="13"/>
-      <c r="H386" s="13"/>
-      <c r="I386" s="13"/>
-      <c r="J386" s="13"/>
-      <c r="K386" s="13"/>
-    </row>
-    <row r="387" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B387" s="12" t="s">
+      <c r="F386" s="14"/>
+      <c r="G386" s="14"/>
+      <c r="H386" s="14"/>
+      <c r="I386" s="14"/>
+      <c r="J386" s="14"/>
+      <c r="K386" s="14"/>
+    </row>
+    <row r="387" spans="1:11" ht="30" customHeight="1">
+      <c r="B387" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C387" s="12"/>
-      <c r="D387" s="12"/>
-      <c r="E387" s="13" t="s">
+      <c r="C387" s="13"/>
+      <c r="D387" s="13"/>
+      <c r="E387" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="F387" s="13"/>
-      <c r="G387" s="13"/>
-      <c r="H387" s="13"/>
-      <c r="I387" s="13"/>
-      <c r="J387" s="13"/>
-      <c r="K387" s="13"/>
-    </row>
-    <row r="389" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F387" s="14"/>
+      <c r="G387" s="14"/>
+      <c r="H387" s="14"/>
+      <c r="I387" s="14"/>
+      <c r="J387" s="14"/>
+      <c r="K387" s="14"/>
+    </row>
+    <row r="389" spans="1:11" s="3" customFormat="1">
       <c r="A389" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:11">
       <c r="B391" s="1" t="s">
         <v>275</v>
       </c>
@@ -10109,12 +12052,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:11">
       <c r="B392" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:11">
       <c r="B393" s="1" t="s">
         <v>279</v>
       </c>
@@ -10122,12 +12065,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:11">
       <c r="B394" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:11">
       <c r="B395" s="1" t="s">
         <v>277</v>
       </c>
@@ -10135,12 +12078,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:11">
       <c r="B396" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:11">
       <c r="B398" s="4" t="s">
         <v>283</v>
       </c>
@@ -10148,22 +12091,22 @@
         <v>285</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:11">
       <c r="B399" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:11">
       <c r="B400" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="401" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="401" spans="2:11">
       <c r="B401" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="404" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="404" spans="2:11">
       <c r="B404" s="1" t="s">
         <v>286</v>
       </c>
@@ -10171,610 +12114,610 @@
         <v>288</v>
       </c>
     </row>
-    <row r="405" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="405" spans="2:11">
       <c r="B405" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="406" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="406" spans="2:11">
       <c r="B406" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:11" ht="19.5">
       <c r="B410" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="411" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B411" s="14" t="s">
+    <row r="411" spans="2:11" ht="15" customHeight="1">
+      <c r="B411" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C411" s="14"/>
-      <c r="D411" s="14"/>
-      <c r="E411" s="14" t="s">
+      <c r="C411" s="15"/>
+      <c r="D411" s="15"/>
+      <c r="E411" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="F411" s="14"/>
-      <c r="G411" s="14"/>
-      <c r="H411" s="14"/>
-      <c r="I411" s="14"/>
-      <c r="J411" s="14"/>
-      <c r="K411" s="14"/>
-    </row>
-    <row r="412" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B412" s="12" t="s">
+      <c r="F411" s="15"/>
+      <c r="G411" s="15"/>
+      <c r="H411" s="15"/>
+      <c r="I411" s="15"/>
+      <c r="J411" s="15"/>
+      <c r="K411" s="15"/>
+    </row>
+    <row r="412" spans="2:11" ht="15" customHeight="1">
+      <c r="B412" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C412" s="12"/>
-      <c r="D412" s="12"/>
-      <c r="E412" s="13" t="s">
+      <c r="C412" s="13"/>
+      <c r="D412" s="13"/>
+      <c r="E412" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="F412" s="13"/>
-      <c r="G412" s="13"/>
-      <c r="H412" s="13"/>
-      <c r="I412" s="13"/>
-      <c r="J412" s="13"/>
-      <c r="K412" s="13"/>
-    </row>
-    <row r="413" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B413" s="12" t="s">
+      <c r="F412" s="14"/>
+      <c r="G412" s="14"/>
+      <c r="H412" s="14"/>
+      <c r="I412" s="14"/>
+      <c r="J412" s="14"/>
+      <c r="K412" s="14"/>
+    </row>
+    <row r="413" spans="2:11" ht="15" customHeight="1">
+      <c r="B413" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C413" s="12"/>
-      <c r="D413" s="12"/>
-      <c r="E413" s="13" t="s">
+      <c r="C413" s="13"/>
+      <c r="D413" s="13"/>
+      <c r="E413" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F413" s="13"/>
-      <c r="G413" s="13"/>
-      <c r="H413" s="13"/>
-      <c r="I413" s="13"/>
-      <c r="J413" s="13"/>
-      <c r="K413" s="13"/>
-    </row>
-    <row r="414" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B414" s="12" t="s">
+      <c r="F413" s="14"/>
+      <c r="G413" s="14"/>
+      <c r="H413" s="14"/>
+      <c r="I413" s="14"/>
+      <c r="J413" s="14"/>
+      <c r="K413" s="14"/>
+    </row>
+    <row r="414" spans="2:11" ht="15" customHeight="1">
+      <c r="B414" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C414" s="12"/>
-      <c r="D414" s="12"/>
-      <c r="E414" s="13" t="s">
+      <c r="C414" s="13"/>
+      <c r="D414" s="13"/>
+      <c r="E414" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="F414" s="13"/>
-      <c r="G414" s="13"/>
-      <c r="H414" s="13"/>
-      <c r="I414" s="13"/>
-      <c r="J414" s="13"/>
-      <c r="K414" s="13"/>
-    </row>
-    <row r="415" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B415" s="12" t="s">
+      <c r="F414" s="14"/>
+      <c r="G414" s="14"/>
+      <c r="H414" s="14"/>
+      <c r="I414" s="14"/>
+      <c r="J414" s="14"/>
+      <c r="K414" s="14"/>
+    </row>
+    <row r="415" spans="2:11" ht="15" customHeight="1">
+      <c r="B415" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C415" s="12"/>
-      <c r="D415" s="12"/>
-      <c r="E415" s="13" t="s">
+      <c r="C415" s="13"/>
+      <c r="D415" s="13"/>
+      <c r="E415" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F415" s="13"/>
-      <c r="G415" s="13"/>
-      <c r="H415" s="13"/>
-      <c r="I415" s="13"/>
-      <c r="J415" s="13"/>
-      <c r="K415" s="13"/>
-    </row>
-    <row r="416" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B416" s="12" t="s">
+      <c r="F415" s="14"/>
+      <c r="G415" s="14"/>
+      <c r="H415" s="14"/>
+      <c r="I415" s="14"/>
+      <c r="J415" s="14"/>
+      <c r="K415" s="14"/>
+    </row>
+    <row r="416" spans="2:11" ht="15" customHeight="1">
+      <c r="B416" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C416" s="12"/>
-      <c r="D416" s="12"/>
-      <c r="E416" s="13" t="s">
+      <c r="C416" s="13"/>
+      <c r="D416" s="13"/>
+      <c r="E416" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="F416" s="13"/>
-      <c r="G416" s="13"/>
-      <c r="H416" s="13"/>
-      <c r="I416" s="13"/>
-      <c r="J416" s="13"/>
-      <c r="K416" s="13"/>
-    </row>
-    <row r="417" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B417" s="12" t="s">
+      <c r="F416" s="14"/>
+      <c r="G416" s="14"/>
+      <c r="H416" s="14"/>
+      <c r="I416" s="14"/>
+      <c r="J416" s="14"/>
+      <c r="K416" s="14"/>
+    </row>
+    <row r="417" spans="2:11" ht="15" customHeight="1">
+      <c r="B417" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C417" s="12"/>
-      <c r="D417" s="12"/>
-      <c r="E417" s="13" t="s">
+      <c r="C417" s="13"/>
+      <c r="D417" s="13"/>
+      <c r="E417" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="F417" s="13"/>
-      <c r="G417" s="13"/>
-      <c r="H417" s="13"/>
-      <c r="I417" s="13"/>
-      <c r="J417" s="13"/>
-      <c r="K417" s="13"/>
-    </row>
-    <row r="418" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B418" s="12" t="s">
+      <c r="F417" s="14"/>
+      <c r="G417" s="14"/>
+      <c r="H417" s="14"/>
+      <c r="I417" s="14"/>
+      <c r="J417" s="14"/>
+      <c r="K417" s="14"/>
+    </row>
+    <row r="418" spans="2:11" ht="15" customHeight="1">
+      <c r="B418" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C418" s="12"/>
-      <c r="D418" s="12"/>
-      <c r="E418" s="13" t="s">
+      <c r="C418" s="13"/>
+      <c r="D418" s="13"/>
+      <c r="E418" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="F418" s="13"/>
-      <c r="G418" s="13"/>
-      <c r="H418" s="13"/>
-      <c r="I418" s="13"/>
-      <c r="J418" s="13"/>
-      <c r="K418" s="13"/>
-    </row>
-    <row r="419" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B419" s="12" t="s">
+      <c r="F418" s="14"/>
+      <c r="G418" s="14"/>
+      <c r="H418" s="14"/>
+      <c r="I418" s="14"/>
+      <c r="J418" s="14"/>
+      <c r="K418" s="14"/>
+    </row>
+    <row r="419" spans="2:11" ht="15" customHeight="1">
+      <c r="B419" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C419" s="12"/>
-      <c r="D419" s="12"/>
-      <c r="E419" s="13" t="s">
+      <c r="C419" s="13"/>
+      <c r="D419" s="13"/>
+      <c r="E419" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="F419" s="13"/>
-      <c r="G419" s="13"/>
-      <c r="H419" s="13"/>
-      <c r="I419" s="13"/>
-      <c r="J419" s="13"/>
-      <c r="K419" s="13"/>
-    </row>
-    <row r="420" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B420" s="12" t="s">
+      <c r="F419" s="14"/>
+      <c r="G419" s="14"/>
+      <c r="H419" s="14"/>
+      <c r="I419" s="14"/>
+      <c r="J419" s="14"/>
+      <c r="K419" s="14"/>
+    </row>
+    <row r="420" spans="2:11" ht="15" customHeight="1">
+      <c r="B420" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C420" s="12"/>
-      <c r="D420" s="12"/>
-      <c r="E420" s="13" t="s">
+      <c r="C420" s="13"/>
+      <c r="D420" s="13"/>
+      <c r="E420" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="F420" s="13"/>
-      <c r="G420" s="13"/>
-      <c r="H420" s="13"/>
-      <c r="I420" s="13"/>
-      <c r="J420" s="13"/>
-      <c r="K420" s="13"/>
-    </row>
-    <row r="421" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B421" s="12" t="s">
+      <c r="F420" s="14"/>
+      <c r="G420" s="14"/>
+      <c r="H420" s="14"/>
+      <c r="I420" s="14"/>
+      <c r="J420" s="14"/>
+      <c r="K420" s="14"/>
+    </row>
+    <row r="421" spans="2:11" ht="15" customHeight="1">
+      <c r="B421" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C421" s="12"/>
-      <c r="D421" s="12"/>
-      <c r="E421" s="13" t="s">
+      <c r="C421" s="13"/>
+      <c r="D421" s="13"/>
+      <c r="E421" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="F421" s="13"/>
-      <c r="G421" s="13"/>
-      <c r="H421" s="13"/>
-      <c r="I421" s="13"/>
-      <c r="J421" s="13"/>
-      <c r="K421" s="13"/>
-    </row>
-    <row r="422" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B422" s="12" t="s">
+      <c r="F421" s="14"/>
+      <c r="G421" s="14"/>
+      <c r="H421" s="14"/>
+      <c r="I421" s="14"/>
+      <c r="J421" s="14"/>
+      <c r="K421" s="14"/>
+    </row>
+    <row r="422" spans="2:11" ht="15" customHeight="1">
+      <c r="B422" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C422" s="12"/>
-      <c r="D422" s="12"/>
-      <c r="E422" s="13" t="s">
+      <c r="C422" s="13"/>
+      <c r="D422" s="13"/>
+      <c r="E422" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="F422" s="13"/>
-      <c r="G422" s="13"/>
-      <c r="H422" s="13"/>
-      <c r="I422" s="13"/>
-      <c r="J422" s="13"/>
-      <c r="K422" s="13"/>
-    </row>
-    <row r="425" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="F422" s="14"/>
+      <c r="G422" s="14"/>
+      <c r="H422" s="14"/>
+      <c r="I422" s="14"/>
+      <c r="J422" s="14"/>
+      <c r="K422" s="14"/>
+    </row>
+    <row r="425" spans="2:11" ht="19.5">
       <c r="B425" s="9" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="426" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B426" s="14" t="s">
+    <row r="426" spans="2:11">
+      <c r="B426" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C426" s="14"/>
-      <c r="D426" s="14"/>
-      <c r="E426" s="14" t="s">
+      <c r="C426" s="15"/>
+      <c r="D426" s="15"/>
+      <c r="E426" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="F426" s="14"/>
-      <c r="G426" s="14"/>
-      <c r="H426" s="14"/>
-      <c r="I426" s="14"/>
-      <c r="J426" s="14"/>
-      <c r="K426" s="14"/>
-    </row>
-    <row r="427" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B427" s="12" t="s">
+      <c r="F426" s="15"/>
+      <c r="G426" s="15"/>
+      <c r="H426" s="15"/>
+      <c r="I426" s="15"/>
+      <c r="J426" s="15"/>
+      <c r="K426" s="15"/>
+    </row>
+    <row r="427" spans="2:11">
+      <c r="B427" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C427" s="12"/>
-      <c r="D427" s="12"/>
-      <c r="E427" s="13" t="s">
+      <c r="C427" s="13"/>
+      <c r="D427" s="13"/>
+      <c r="E427" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="F427" s="13"/>
-      <c r="G427" s="13"/>
-      <c r="H427" s="13"/>
-      <c r="I427" s="13"/>
-      <c r="J427" s="13"/>
-      <c r="K427" s="13"/>
-    </row>
-    <row r="428" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B428" s="12" t="s">
+      <c r="F427" s="14"/>
+      <c r="G427" s="14"/>
+      <c r="H427" s="14"/>
+      <c r="I427" s="14"/>
+      <c r="J427" s="14"/>
+      <c r="K427" s="14"/>
+    </row>
+    <row r="428" spans="2:11">
+      <c r="B428" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C428" s="12"/>
-      <c r="D428" s="12"/>
-      <c r="E428" s="13" t="s">
+      <c r="C428" s="13"/>
+      <c r="D428" s="13"/>
+      <c r="E428" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="F428" s="13"/>
-      <c r="G428" s="13"/>
-      <c r="H428" s="13"/>
-      <c r="I428" s="13"/>
-      <c r="J428" s="13"/>
-      <c r="K428" s="13"/>
-    </row>
-    <row r="429" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B429" s="12" t="s">
+      <c r="F428" s="14"/>
+      <c r="G428" s="14"/>
+      <c r="H428" s="14"/>
+      <c r="I428" s="14"/>
+      <c r="J428" s="14"/>
+      <c r="K428" s="14"/>
+    </row>
+    <row r="429" spans="2:11">
+      <c r="B429" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C429" s="12"/>
-      <c r="D429" s="12"/>
-      <c r="E429" s="13" t="s">
+      <c r="C429" s="13"/>
+      <c r="D429" s="13"/>
+      <c r="E429" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="F429" s="13"/>
-      <c r="G429" s="13"/>
-      <c r="H429" s="13"/>
-      <c r="I429" s="13"/>
-      <c r="J429" s="13"/>
-      <c r="K429" s="13"/>
-    </row>
-    <row r="430" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B430" s="12" t="s">
+      <c r="F429" s="14"/>
+      <c r="G429" s="14"/>
+      <c r="H429" s="14"/>
+      <c r="I429" s="14"/>
+      <c r="J429" s="14"/>
+      <c r="K429" s="14"/>
+    </row>
+    <row r="430" spans="2:11">
+      <c r="B430" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C430" s="12"/>
-      <c r="D430" s="12"/>
-      <c r="E430" s="13" t="s">
+      <c r="C430" s="13"/>
+      <c r="D430" s="13"/>
+      <c r="E430" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="F430" s="13"/>
-      <c r="G430" s="13"/>
-      <c r="H430" s="13"/>
-      <c r="I430" s="13"/>
-      <c r="J430" s="13"/>
-      <c r="K430" s="13"/>
-    </row>
-    <row r="431" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B431" s="12" t="s">
+      <c r="F430" s="14"/>
+      <c r="G430" s="14"/>
+      <c r="H430" s="14"/>
+      <c r="I430" s="14"/>
+      <c r="J430" s="14"/>
+      <c r="K430" s="14"/>
+    </row>
+    <row r="431" spans="2:11">
+      <c r="B431" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C431" s="12"/>
-      <c r="D431" s="12"/>
-      <c r="E431" s="13" t="s">
+      <c r="C431" s="13"/>
+      <c r="D431" s="13"/>
+      <c r="E431" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="F431" s="13"/>
-      <c r="G431" s="13"/>
-      <c r="H431" s="13"/>
-      <c r="I431" s="13"/>
-      <c r="J431" s="13"/>
-      <c r="K431" s="13"/>
-    </row>
-    <row r="432" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F431" s="14"/>
+      <c r="G431" s="14"/>
+      <c r="H431" s="14"/>
+      <c r="I431" s="14"/>
+      <c r="J431" s="14"/>
+      <c r="K431" s="14"/>
+    </row>
+    <row r="432" spans="2:11">
       <c r="B432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="433" spans="2:11">
       <c r="B433" t="s">
         <v>326</v>
       </c>
       <c r="E433"/>
     </row>
-    <row r="434" spans="2:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:11" ht="19.5">
       <c r="B434" s="9" t="s">
         <v>354</v>
       </c>
       <c r="E434"/>
     </row>
-    <row r="435" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B435" s="14" t="s">
+    <row r="435" spans="2:11">
+      <c r="B435" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="C435" s="14"/>
-      <c r="D435" s="14"/>
-      <c r="E435" s="14" t="s">
+      <c r="C435" s="15"/>
+      <c r="D435" s="15"/>
+      <c r="E435" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="F435" s="14"/>
-      <c r="G435" s="14"/>
-      <c r="H435" s="14"/>
-      <c r="I435" s="14"/>
-      <c r="J435" s="14"/>
-      <c r="K435" s="14"/>
-    </row>
-    <row r="436" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B436" s="12" t="s">
+      <c r="F435" s="15"/>
+      <c r="G435" s="15"/>
+      <c r="H435" s="15"/>
+      <c r="I435" s="15"/>
+      <c r="J435" s="15"/>
+      <c r="K435" s="15"/>
+    </row>
+    <row r="436" spans="2:11">
+      <c r="B436" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C436" s="12"/>
-      <c r="D436" s="12"/>
-      <c r="E436" s="13" t="s">
+      <c r="C436" s="13"/>
+      <c r="D436" s="13"/>
+      <c r="E436" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="F436" s="13"/>
-      <c r="G436" s="13"/>
-      <c r="H436" s="13"/>
-      <c r="I436" s="13"/>
-      <c r="J436" s="13"/>
-      <c r="K436" s="13"/>
-    </row>
-    <row r="437" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B437" s="12" t="s">
+      <c r="F436" s="14"/>
+      <c r="G436" s="14"/>
+      <c r="H436" s="14"/>
+      <c r="I436" s="14"/>
+      <c r="J436" s="14"/>
+      <c r="K436" s="14"/>
+    </row>
+    <row r="437" spans="2:11">
+      <c r="B437" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C437" s="12"/>
-      <c r="D437" s="12"/>
-      <c r="E437" s="13" t="s">
+      <c r="C437" s="13"/>
+      <c r="D437" s="13"/>
+      <c r="E437" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="F437" s="13"/>
-      <c r="G437" s="13"/>
-      <c r="H437" s="13"/>
-      <c r="I437" s="13"/>
-      <c r="J437" s="13"/>
-      <c r="K437" s="13"/>
-    </row>
-    <row r="438" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B438" s="12" t="s">
+      <c r="F437" s="14"/>
+      <c r="G437" s="14"/>
+      <c r="H437" s="14"/>
+      <c r="I437" s="14"/>
+      <c r="J437" s="14"/>
+      <c r="K437" s="14"/>
+    </row>
+    <row r="438" spans="2:11">
+      <c r="B438" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C438" s="12"/>
-      <c r="D438" s="12"/>
-      <c r="E438" s="13" t="s">
+      <c r="C438" s="13"/>
+      <c r="D438" s="13"/>
+      <c r="E438" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="F438" s="13"/>
-      <c r="G438" s="13"/>
-      <c r="H438" s="13"/>
-      <c r="I438" s="13"/>
-      <c r="J438" s="13"/>
-      <c r="K438" s="13"/>
-    </row>
-    <row r="439" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B439" s="12" t="s">
+      <c r="F438" s="14"/>
+      <c r="G438" s="14"/>
+      <c r="H438" s="14"/>
+      <c r="I438" s="14"/>
+      <c r="J438" s="14"/>
+      <c r="K438" s="14"/>
+    </row>
+    <row r="439" spans="2:11">
+      <c r="B439" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C439" s="12"/>
-      <c r="D439" s="12"/>
-      <c r="E439" s="13" t="s">
+      <c r="C439" s="13"/>
+      <c r="D439" s="13"/>
+      <c r="E439" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F439" s="13"/>
-      <c r="G439" s="13"/>
-      <c r="H439" s="13"/>
-      <c r="I439" s="13"/>
-      <c r="J439" s="13"/>
-      <c r="K439" s="13"/>
-    </row>
-    <row r="440" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B440" s="12" t="s">
+      <c r="F439" s="14"/>
+      <c r="G439" s="14"/>
+      <c r="H439" s="14"/>
+      <c r="I439" s="14"/>
+      <c r="J439" s="14"/>
+      <c r="K439" s="14"/>
+    </row>
+    <row r="440" spans="2:11">
+      <c r="B440" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="C440" s="12"/>
-      <c r="D440" s="12"/>
-      <c r="E440" s="13" t="s">
+      <c r="C440" s="13"/>
+      <c r="D440" s="13"/>
+      <c r="E440" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="F440" s="13"/>
-      <c r="G440" s="13"/>
-      <c r="H440" s="13"/>
-      <c r="I440" s="13"/>
-      <c r="J440" s="13"/>
-      <c r="K440" s="13"/>
-    </row>
-    <row r="441" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B441" s="12" t="s">
+      <c r="F440" s="14"/>
+      <c r="G440" s="14"/>
+      <c r="H440" s="14"/>
+      <c r="I440" s="14"/>
+      <c r="J440" s="14"/>
+      <c r="K440" s="14"/>
+    </row>
+    <row r="441" spans="2:11">
+      <c r="B441" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="C441" s="12"/>
-      <c r="D441" s="12"/>
-      <c r="E441" s="13" t="s">
+      <c r="C441" s="13"/>
+      <c r="D441" s="13"/>
+      <c r="E441" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="F441" s="13"/>
-      <c r="G441" s="13"/>
-      <c r="H441" s="13"/>
-      <c r="I441" s="13"/>
-      <c r="J441" s="13"/>
-      <c r="K441" s="13"/>
-    </row>
-    <row r="442" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B442" s="12" t="s">
+      <c r="F441" s="14"/>
+      <c r="G441" s="14"/>
+      <c r="H441" s="14"/>
+      <c r="I441" s="14"/>
+      <c r="J441" s="14"/>
+      <c r="K441" s="14"/>
+    </row>
+    <row r="442" spans="2:11">
+      <c r="B442" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C442" s="12"/>
-      <c r="D442" s="12"/>
-      <c r="E442" s="13" t="s">
+      <c r="C442" s="13"/>
+      <c r="D442" s="13"/>
+      <c r="E442" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="F442" s="13"/>
-      <c r="G442" s="13"/>
-      <c r="H442" s="13"/>
-      <c r="I442" s="13"/>
-      <c r="J442" s="13"/>
-      <c r="K442" s="13"/>
-    </row>
-    <row r="443" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B443" s="12" t="s">
+      <c r="F442" s="14"/>
+      <c r="G442" s="14"/>
+      <c r="H442" s="14"/>
+      <c r="I442" s="14"/>
+      <c r="J442" s="14"/>
+      <c r="K442" s="14"/>
+    </row>
+    <row r="443" spans="2:11">
+      <c r="B443" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C443" s="12"/>
-      <c r="D443" s="12"/>
-      <c r="E443" s="13" t="s">
+      <c r="C443" s="13"/>
+      <c r="D443" s="13"/>
+      <c r="E443" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="F443" s="13"/>
-      <c r="G443" s="13"/>
-      <c r="H443" s="13"/>
-      <c r="I443" s="13"/>
-      <c r="J443" s="13"/>
-      <c r="K443" s="13"/>
-    </row>
-    <row r="444" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B444" s="12" t="s">
+      <c r="F443" s="14"/>
+      <c r="G443" s="14"/>
+      <c r="H443" s="14"/>
+      <c r="I443" s="14"/>
+      <c r="J443" s="14"/>
+      <c r="K443" s="14"/>
+    </row>
+    <row r="444" spans="2:11">
+      <c r="B444" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C444" s="12"/>
-      <c r="D444" s="12"/>
-      <c r="E444" s="13" t="s">
+      <c r="C444" s="13"/>
+      <c r="D444" s="13"/>
+      <c r="E444" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="F444" s="13"/>
-      <c r="G444" s="13"/>
-      <c r="H444" s="13"/>
-      <c r="I444" s="13"/>
-      <c r="J444" s="13"/>
-      <c r="K444" s="13"/>
-    </row>
-    <row r="445" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B445" s="12" t="s">
+      <c r="F444" s="14"/>
+      <c r="G444" s="14"/>
+      <c r="H444" s="14"/>
+      <c r="I444" s="14"/>
+      <c r="J444" s="14"/>
+      <c r="K444" s="14"/>
+    </row>
+    <row r="445" spans="2:11">
+      <c r="B445" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C445" s="12"/>
-      <c r="D445" s="12"/>
-      <c r="E445" s="13" t="s">
+      <c r="C445" s="13"/>
+      <c r="D445" s="13"/>
+      <c r="E445" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="F445" s="13"/>
-      <c r="G445" s="13"/>
-      <c r="H445" s="13"/>
-      <c r="I445" s="13"/>
-      <c r="J445" s="13"/>
-      <c r="K445" s="13"/>
-    </row>
-    <row r="446" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B446" s="12" t="s">
+      <c r="F445" s="14"/>
+      <c r="G445" s="14"/>
+      <c r="H445" s="14"/>
+      <c r="I445" s="14"/>
+      <c r="J445" s="14"/>
+      <c r="K445" s="14"/>
+    </row>
+    <row r="446" spans="2:11">
+      <c r="B446" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C446" s="12"/>
-      <c r="D446" s="12"/>
-      <c r="E446" s="13" t="s">
+      <c r="C446" s="13"/>
+      <c r="D446" s="13"/>
+      <c r="E446" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="F446" s="13"/>
-      <c r="G446" s="13"/>
-      <c r="H446" s="13"/>
-      <c r="I446" s="13"/>
-      <c r="J446" s="13"/>
-      <c r="K446" s="13"/>
-    </row>
-    <row r="447" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B447" s="12" t="s">
+      <c r="F446" s="14"/>
+      <c r="G446" s="14"/>
+      <c r="H446" s="14"/>
+      <c r="I446" s="14"/>
+      <c r="J446" s="14"/>
+      <c r="K446" s="14"/>
+    </row>
+    <row r="447" spans="2:11">
+      <c r="B447" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C447" s="12"/>
-      <c r="D447" s="12"/>
-      <c r="E447" s="13" t="s">
+      <c r="C447" s="13"/>
+      <c r="D447" s="13"/>
+      <c r="E447" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="F447" s="13"/>
-      <c r="G447" s="13"/>
-      <c r="H447" s="13"/>
-      <c r="I447" s="13"/>
-      <c r="J447" s="13"/>
-      <c r="K447" s="13"/>
-    </row>
-    <row r="448" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B448" s="12" t="s">
+      <c r="F447" s="14"/>
+      <c r="G447" s="14"/>
+      <c r="H447" s="14"/>
+      <c r="I447" s="14"/>
+      <c r="J447" s="14"/>
+      <c r="K447" s="14"/>
+    </row>
+    <row r="448" spans="2:11">
+      <c r="B448" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="C448" s="12"/>
-      <c r="D448" s="12"/>
-      <c r="E448" s="13" t="s">
+      <c r="C448" s="13"/>
+      <c r="D448" s="13"/>
+      <c r="E448" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="F448" s="13"/>
-      <c r="G448" s="13"/>
-      <c r="H448" s="13"/>
-      <c r="I448" s="13"/>
-      <c r="J448" s="13"/>
-      <c r="K448" s="13"/>
-    </row>
-    <row r="450" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F448" s="14"/>
+      <c r="G448" s="14"/>
+      <c r="H448" s="14"/>
+      <c r="I448" s="14"/>
+      <c r="J448" s="14"/>
+      <c r="K448" s="14"/>
+    </row>
+    <row r="450" spans="1:14" s="3" customFormat="1">
       <c r="A450" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:14">
       <c r="B452" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:14">
       <c r="B453" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:14">
       <c r="B454" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:14">
       <c r="B455" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:14">
       <c r="B456" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:14">
       <c r="B457" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:14">
       <c r="B458" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:14">
       <c r="B459" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:14">
       <c r="B460" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="462" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:14" s="3" customFormat="1">
       <c r="A462" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:14">
       <c r="B464" s="8" t="s">
         <v>385</v>
       </c>
@@ -10782,7 +12725,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="465" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="465" spans="2:16">
       <c r="B465" s="1" t="s">
         <v>387</v>
       </c>
@@ -10793,7 +12736,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="466" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="466" spans="2:16">
       <c r="C466" s="1" t="s">
         <v>42</v>
       </c>
@@ -10801,7 +12744,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="467" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="467" spans="2:16">
       <c r="D467" s="1" t="s">
         <v>366</v>
       </c>
@@ -10809,12 +12752,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="468" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="468" spans="2:16">
       <c r="O468" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="469" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="469" spans="2:16">
       <c r="B469" s="1" t="s">
         <v>367</v>
       </c>
@@ -10822,7 +12765,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="470" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="470" spans="2:16">
       <c r="B470" s="1" t="s">
         <v>368</v>
       </c>
@@ -10830,7 +12773,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="471" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="471" spans="2:16">
       <c r="B471" s="1" t="s">
         <v>369</v>
       </c>
@@ -10838,7 +12781,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="472" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="472" spans="2:16">
       <c r="B472" s="1" t="s">
         <v>370</v>
       </c>
@@ -10846,12 +12789,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="473" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="473" spans="2:16">
       <c r="B473" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="474" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="474" spans="2:16">
       <c r="B474" s="1" t="s">
         <v>372</v>
       </c>
@@ -10859,7 +12802,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="475" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="475" spans="2:16">
       <c r="B475" s="1" t="s">
         <v>373</v>
       </c>
@@ -10867,7 +12810,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="476" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="476" spans="2:16">
       <c r="B476" s="1" t="s">
         <v>374</v>
       </c>
@@ -10875,7 +12818,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="477" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="477" spans="2:16">
       <c r="B477" s="1" t="s">
         <v>375</v>
       </c>
@@ -10883,7 +12826,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="478" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="478" spans="2:16">
       <c r="B478" s="1" t="s">
         <v>376</v>
       </c>
@@ -10891,7 +12834,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="479" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="479" spans="2:16">
       <c r="B479" s="1" t="s">
         <v>377</v>
       </c>
@@ -10899,7 +12842,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="480" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="480" spans="2:16">
       <c r="B480" s="1" t="s">
         <v>63</v>
       </c>
@@ -10907,12 +12850,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="481" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="481" spans="2:16">
       <c r="N481" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="482" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="482" spans="2:16">
       <c r="B482" s="8" t="s">
         <v>386</v>
       </c>
@@ -10920,7 +12863,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="483" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="483" spans="2:16">
       <c r="B483" s="1" t="s">
         <v>378</v>
       </c>
@@ -10928,7 +12871,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="484" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="484" spans="2:16">
       <c r="C484" s="1" t="s">
         <v>379</v>
       </c>
@@ -10936,7 +12879,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="485" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="485" spans="2:16">
       <c r="D485" s="1" t="s">
         <v>366</v>
       </c>
@@ -10944,12 +12887,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="486" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="486" spans="2:16">
       <c r="P486" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="487" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="487" spans="2:16">
       <c r="B487" s="1" t="s">
         <v>367</v>
       </c>
@@ -10957,7 +12900,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="488" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="488" spans="2:16">
       <c r="B488" s="1" t="s">
         <v>95</v>
       </c>
@@ -10965,12 +12908,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="489" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="489" spans="2:16">
       <c r="B489" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="490" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="490" spans="2:16">
       <c r="B490" s="1" t="s">
         <v>381</v>
       </c>
@@ -10978,7 +12921,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="491" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="491" spans="2:16">
       <c r="B491" s="1" t="s">
         <v>382</v>
       </c>
@@ -10986,7 +12929,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="492" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="492" spans="2:16">
       <c r="B492" s="1" t="s">
         <v>383</v>
       </c>
@@ -10994,7 +12937,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="493" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="493" spans="2:16">
       <c r="B493" s="1" t="s">
         <v>368</v>
       </c>
@@ -11002,7 +12945,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="494" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="494" spans="2:16">
       <c r="B494" s="1" t="s">
         <v>369</v>
       </c>
@@ -11010,7 +12953,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="495" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="495" spans="2:16">
       <c r="B495" s="1" t="s">
         <v>370</v>
       </c>
@@ -11018,7 +12961,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="496" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="496" spans="2:16">
       <c r="B496" s="1" t="s">
         <v>371</v>
       </c>
@@ -11026,7 +12969,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="497" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="497" spans="2:16">
       <c r="B497" s="1" t="s">
         <v>372</v>
       </c>
@@ -11034,7 +12977,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="498" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="498" spans="2:16">
       <c r="B498" s="1" t="s">
         <v>384</v>
       </c>
@@ -11042,7 +12985,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="499" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="499" spans="2:16">
       <c r="B499" s="1" t="s">
         <v>368</v>
       </c>
@@ -11050,7 +12993,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="500" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="500" spans="2:16">
       <c r="B500" s="1" t="s">
         <v>369</v>
       </c>
@@ -11058,7 +13001,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="501" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="501" spans="2:16">
       <c r="B501" s="1" t="s">
         <v>370</v>
       </c>
@@ -11066,7 +13009,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="502" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="502" spans="2:16">
       <c r="B502" s="1" t="s">
         <v>371</v>
       </c>
@@ -11074,7 +13017,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="503" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="503" spans="2:16">
       <c r="B503" s="1" t="s">
         <v>372</v>
       </c>
@@ -11082,7 +13025,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="504" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="504" spans="2:16">
       <c r="B504" s="1" t="s">
         <v>373</v>
       </c>
@@ -11090,7 +13033,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="505" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="505" spans="2:16">
       <c r="B505" s="1" t="s">
         <v>374</v>
       </c>
@@ -11098,7 +13041,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="506" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="506" spans="2:16">
       <c r="B506" s="1" t="s">
         <v>375</v>
       </c>
@@ -11106,7 +13049,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="507" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="507" spans="2:16">
       <c r="B507" s="1" t="s">
         <v>376</v>
       </c>
@@ -11114,7 +13057,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="508" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="508" spans="2:16">
       <c r="B508" s="1" t="s">
         <v>63</v>
       </c>
@@ -11122,12 +13065,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="509" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="509" spans="2:16">
       <c r="P509" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="510" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="510" spans="2:16">
       <c r="B510" s="8" t="s">
         <v>396</v>
       </c>
@@ -11135,7 +13078,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="511" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="511" spans="2:16">
       <c r="B511" s="1" t="s">
         <v>378</v>
       </c>
@@ -11143,12 +13086,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="512" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="512" spans="2:16">
       <c r="C512" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="513" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="513" spans="2:16">
       <c r="C513" s="1" t="s">
         <v>379</v>
       </c>
@@ -11156,7 +13099,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="514" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="514" spans="2:16">
       <c r="D514" s="1" t="s">
         <v>366</v>
       </c>
@@ -11164,7 +13107,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="515" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="515" spans="2:16">
       <c r="D515" s="1" t="s">
         <v>390</v>
       </c>
@@ -11172,7 +13115,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="516" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="516" spans="2:16">
       <c r="C516" s="4" t="s">
         <v>391</v>
       </c>
@@ -11180,12 +13123,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="517" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="517" spans="2:16">
       <c r="N517" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="518" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="518" spans="2:16">
       <c r="B518" s="1" t="s">
         <v>384</v>
       </c>
@@ -11193,7 +13136,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="519" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="519" spans="2:16">
       <c r="B519" s="1" t="s">
         <v>368</v>
       </c>
@@ -11201,7 +13144,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="520" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="520" spans="2:16">
       <c r="B520" s="1" t="s">
         <v>369</v>
       </c>
@@ -11209,7 +13152,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="521" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="521" spans="2:16">
       <c r="B521" s="1" t="s">
         <v>370</v>
       </c>
@@ -11217,7 +13160,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="522" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="522" spans="2:16">
       <c r="B522" s="1" t="s">
         <v>371</v>
       </c>
@@ -11225,7 +13168,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="523" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="523" spans="2:16">
       <c r="B523" s="1" t="s">
         <v>372</v>
       </c>
@@ -11233,7 +13176,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="524" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="524" spans="2:16">
       <c r="B524" s="1" t="s">
         <v>373</v>
       </c>
@@ -11241,7 +13184,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="525" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="525" spans="2:16">
       <c r="B525" s="1" t="s">
         <v>374</v>
       </c>
@@ -11249,7 +13192,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="526" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="526" spans="2:16">
       <c r="B526" s="1" t="s">
         <v>375</v>
       </c>
@@ -11257,7 +13200,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="527" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="527" spans="2:16">
       <c r="B527" s="1" t="s">
         <v>376</v>
       </c>
@@ -11265,12 +13208,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="528" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="528" spans="2:16">
       <c r="B528" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="529" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="529" spans="2:14">
       <c r="B529" s="1" t="s">
         <v>393</v>
       </c>
@@ -11278,7 +13221,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="530" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="530" spans="2:14">
       <c r="B530" s="1" t="s">
         <v>368</v>
       </c>
@@ -11286,7 +13229,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="531" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="531" spans="2:14">
       <c r="B531" s="1" t="s">
         <v>369</v>
       </c>
@@ -11294,7 +13237,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="532" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="532" spans="2:14">
       <c r="B532" s="1" t="s">
         <v>370</v>
       </c>
@@ -11302,7 +13245,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="533" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="533" spans="2:14">
       <c r="B533" s="1" t="s">
         <v>371</v>
       </c>
@@ -11310,7 +13253,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="534" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="534" spans="2:14">
       <c r="B534" s="1" t="s">
         <v>372</v>
       </c>
@@ -11318,7 +13261,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="535" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="535" spans="2:14">
       <c r="B535" s="1" t="s">
         <v>394</v>
       </c>
@@ -11326,7 +13269,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="536" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="536" spans="2:14">
       <c r="B536" s="1" t="s">
         <v>395</v>
       </c>
@@ -11334,7 +13277,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="537" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:14">
       <c r="B537" s="1" t="s">
         <v>30</v>
       </c>
@@ -11342,180 +13285,180 @@
         <v>368</v>
       </c>
     </row>
-    <row r="538" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="538" spans="2:14">
       <c r="N538" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="539" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="539" spans="2:14">
       <c r="N539" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="540" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:14">
       <c r="N540" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="541" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:14">
       <c r="N541" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="542" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="542" spans="2:14">
       <c r="N542" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="543" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="543" spans="2:14">
       <c r="N543" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="544" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="544" spans="2:14">
       <c r="N544" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:14">
       <c r="N545" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:14">
       <c r="N546" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:14">
       <c r="N547" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:14">
       <c r="N548" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:14">
       <c r="N549" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:14">
       <c r="N550" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:14">
       <c r="N551" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:14">
       <c r="N552" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:14">
       <c r="N553" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:14">
       <c r="N554" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:14">
       <c r="N555" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:14">
       <c r="N556" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:14">
       <c r="N557" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="559" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:14" s="3" customFormat="1">
       <c r="A559" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="562" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="562" spans="2:3">
       <c r="B562" s="10"/>
     </row>
-    <row r="575" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="575" spans="2:3">
       <c r="C575" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="576" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="576" spans="2:3">
       <c r="C576" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:3">
       <c r="C577" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:3">
       <c r="C578" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:3">
       <c r="C580" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:3">
       <c r="C581" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:3">
       <c r="C583" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="586" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:3" s="3" customFormat="1">
       <c r="A586" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="612" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:1" s="3" customFormat="1">
       <c r="A612" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="638" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:2" s="3" customFormat="1">
       <c r="A638" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:2">
       <c r="B640" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="657" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:11" s="3" customFormat="1">
       <c r="A657" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:11">
       <c r="K672" s="11" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="677" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="677" spans="11:13">
       <c r="K677" s="11" t="s">
         <v>425</v>
       </c>
@@ -11523,27 +13466,27 @@
         <v>426</v>
       </c>
     </row>
-    <row r="689" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:1" s="3" customFormat="1">
       <c r="A689" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="701" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:1" s="3" customFormat="1">
       <c r="A701" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:11">
       <c r="K709" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="720" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:11" s="3" customFormat="1">
       <c r="A720" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="785" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:4" s="3" customFormat="1">
       <c r="A785" s="3" t="s">
         <v>431</v>
       </c>
@@ -11551,7 +13494,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="805" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:12" s="3" customFormat="1">
       <c r="A805" s="3" t="s">
         <v>437</v>
       </c>
@@ -11559,47 +13502,47 @@
         <v>438</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:12">
       <c r="K809" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:12">
       <c r="L810" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:12">
       <c r="L811" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:12">
       <c r="L813" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:12">
       <c r="K815" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:12">
       <c r="L816" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="817" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="817" spans="12:12">
       <c r="L817" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="819" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="819" spans="12:12">
       <c r="L819" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="838" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:3" s="3" customFormat="1">
       <c r="A838" s="3" t="s">
         <v>441</v>
       </c>
@@ -11607,41 +13550,44 @@
         <v>445</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:3">
       <c r="A840" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:11">
       <c r="K868" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:11">
       <c r="K869" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:11">
       <c r="A878" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="892" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:11" s="3" customFormat="1">
       <c r="A892" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B894" s="15" t="s">
+      <c r="C892" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="894" spans="1:11">
+      <c r="B894" s="12" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="K895" s="15"/>
-    </row>
-    <row r="906" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B906" s="15" t="s">
+    <row r="895" spans="1:11">
+      <c r="K895" s="12"/>
+    </row>
+    <row r="906" spans="2:7">
+      <c r="B906" s="12" t="s">
         <v>449</v>
       </c>
       <c r="E906" s="1" t="s">
@@ -11651,98 +13597,216 @@
         <v>452</v>
       </c>
     </row>
-    <row r="931" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B931" s="15" t="s">
+    <row r="931" spans="2:11">
+      <c r="B931" s="12" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="932" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:11">
       <c r="K932" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="936" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="936" spans="2:11">
       <c r="K936" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="941" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="941" spans="2:11">
       <c r="K941" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="946" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K946" s="1" t="s">
+    <row r="945" spans="11:11">
+      <c r="K945" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="950" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K950" s="1" t="s">
+    <row r="948" spans="11:11">
+      <c r="K948" s="1" t="s">
         <v>457</v>
+      </c>
+    </row>
+    <row r="953" spans="11:11">
+      <c r="K953" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="954" spans="11:11">
+      <c r="K954" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="955" spans="11:11">
+      <c r="K955" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="956" spans="11:11">
+      <c r="K956" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="957" spans="11:11">
+      <c r="K957" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="978" spans="11:11">
+      <c r="K978" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="988" spans="11:11">
+      <c r="K988" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="992" spans="11:11">
+      <c r="K992" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="993" spans="1:11">
+      <c r="K993" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="994" spans="1:11">
+      <c r="K994" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="995" spans="1:11">
+      <c r="K995" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:11">
+      <c r="K1001" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:11">
+      <c r="K1002" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:11">
+      <c r="K1004" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:11" s="3" customFormat="1">
+      <c r="A1008" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1008" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="1009" spans="2:3">
+      <c r="B1009" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="1010" spans="2:3">
+      <c r="B1010" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1010" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:3">
+      <c r="B1024" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1024" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="1037" spans="2:2">
+      <c r="B1037" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="1050" spans="2:2">
+      <c r="B1050" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="1061" spans="2:2">
+      <c r="B1061" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3" s="3" customFormat="1">
+      <c r="A1075" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1075" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B446:D446"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="B447:D447"/>
-    <mergeCell ref="E447:K447"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="E448:K448"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:K443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:K444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:K445"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:K440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:K441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:K442"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:K438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:K439"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:K430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:K431"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:K436"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:K426"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:K435"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:K427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="E428:K428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:K429"/>
-    <mergeCell ref="E418:K418"/>
-    <mergeCell ref="E419:K419"/>
-    <mergeCell ref="E420:K420"/>
-    <mergeCell ref="E421:K421"/>
-    <mergeCell ref="E422:K422"/>
-    <mergeCell ref="E411:K411"/>
-    <mergeCell ref="E412:K412"/>
-    <mergeCell ref="E413:K413"/>
-    <mergeCell ref="E414:K414"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="E386:K386"/>
+    <mergeCell ref="E387:K387"/>
+    <mergeCell ref="E374:K374"/>
+    <mergeCell ref="E375:K375"/>
+    <mergeCell ref="E362:K362"/>
+    <mergeCell ref="E363:K363"/>
+    <mergeCell ref="B386:D386"/>
+    <mergeCell ref="B387:D387"/>
+    <mergeCell ref="B380:D380"/>
+    <mergeCell ref="B381:D381"/>
+    <mergeCell ref="B382:D382"/>
+    <mergeCell ref="B383:D383"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="B385:D385"/>
+    <mergeCell ref="B374:D374"/>
+    <mergeCell ref="B375:D375"/>
+    <mergeCell ref="B376:D376"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B378:D378"/>
+    <mergeCell ref="B379:D379"/>
+    <mergeCell ref="B368:D368"/>
+    <mergeCell ref="B369:D369"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
     <mergeCell ref="E380:K380"/>
     <mergeCell ref="E381:K381"/>
     <mergeCell ref="E364:K364"/>
@@ -11767,62 +13831,66 @@
     <mergeCell ref="E377:K377"/>
     <mergeCell ref="E378:K378"/>
     <mergeCell ref="E379:K379"/>
-    <mergeCell ref="E360:K360"/>
-    <mergeCell ref="E361:K361"/>
-    <mergeCell ref="E350:K350"/>
-    <mergeCell ref="E351:K351"/>
-    <mergeCell ref="E352:K352"/>
-    <mergeCell ref="E353:K353"/>
-    <mergeCell ref="E354:K354"/>
-    <mergeCell ref="E355:K355"/>
-    <mergeCell ref="E356:K356"/>
-    <mergeCell ref="E357:K357"/>
-    <mergeCell ref="E358:K358"/>
-    <mergeCell ref="E359:K359"/>
-    <mergeCell ref="E386:K386"/>
-    <mergeCell ref="E387:K387"/>
-    <mergeCell ref="E374:K374"/>
-    <mergeCell ref="E375:K375"/>
-    <mergeCell ref="E362:K362"/>
-    <mergeCell ref="E363:K363"/>
-    <mergeCell ref="B386:D386"/>
-    <mergeCell ref="B387:D387"/>
-    <mergeCell ref="B380:D380"/>
-    <mergeCell ref="B381:D381"/>
-    <mergeCell ref="B382:D382"/>
-    <mergeCell ref="B383:D383"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="B385:D385"/>
-    <mergeCell ref="B374:D374"/>
-    <mergeCell ref="B375:D375"/>
-    <mergeCell ref="B376:D376"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="B378:D378"/>
-    <mergeCell ref="B379:D379"/>
-    <mergeCell ref="B368:D368"/>
-    <mergeCell ref="B369:D369"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="B371:D371"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="E447:K447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="E448:K448"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="521">
   <si>
     <t>built-in functions</t>
   </si>
@@ -317,7 +317,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -328,7 +328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -670,7 +670,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -956,7 +956,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -978,7 +978,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -988,7 +988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1018,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1033,7 +1033,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1048,7 +1048,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1063,7 +1063,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1078,7 +1078,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1093,7 +1093,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1108,7 +1108,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1123,7 +1123,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1138,7 +1138,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1153,7 +1153,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,7 +1168,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1183,7 +1183,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1198,7 +1198,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1213,7 +1213,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1228,7 +1228,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1243,7 +1243,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1258,7 +1258,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1273,7 +1273,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1288,7 +1288,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1303,7 +1303,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1318,7 +1318,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1333,7 +1333,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1348,7 +1348,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1366,7 +1366,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1381,7 +1381,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1396,7 +1396,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1411,7 +1411,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1426,7 +1426,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1441,7 +1441,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1456,7 +1456,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1471,7 +1471,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1486,7 +1486,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1501,7 +1501,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1516,7 +1516,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1534,7 +1534,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1549,7 +1549,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1564,7 +1564,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1579,7 +1579,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1594,7 +1594,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1609,7 +1609,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1624,7 +1624,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1639,7 +1639,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1654,7 +1654,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1669,7 +1669,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1684,7 +1684,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1699,7 +1699,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1714,7 +1714,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1729,7 +1729,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1744,7 +1744,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1759,7 +1759,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1774,7 +1774,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1789,7 +1789,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1804,7 +1804,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1819,7 +1819,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1834,7 +1834,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1864,7 +1864,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1879,7 +1879,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1894,7 +1894,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1909,7 +1909,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1924,7 +1924,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2039,7 +2039,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2049,7 +2049,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2060,7 +2060,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2282,7 +2282,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2293,7 +2293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2314,7 +2314,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2332,7 +2332,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2419,7 +2419,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2429,7 +2429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2450,30 +2450,145 @@
   </si>
   <si>
     <t>不可变集合/frozen</t>
+  </si>
+  <si>
+    <t>文件打开和写入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开模式</t>
+  </si>
+  <si>
+    <t>执行操作</t>
+  </si>
+  <si>
+    <t>'r'</t>
+  </si>
+  <si>
+    <t>以只读方式打开文件（默认）</t>
+  </si>
+  <si>
+    <t>'w'</t>
+  </si>
+  <si>
+    <t>以写入的方式打开文件，会覆盖已存在的文件</t>
+  </si>
+  <si>
+    <t>'x'</t>
+  </si>
+  <si>
+    <t>如果文件已经存在，使用此模式打开将引发异常</t>
+  </si>
+  <si>
+    <t>'a'</t>
+  </si>
+  <si>
+    <t>以写入模式打开，如果文件存在，则在末尾追加写入</t>
+  </si>
+  <si>
+    <t>'b'</t>
+  </si>
+  <si>
+    <t>以二进制模式打开文件</t>
+  </si>
+  <si>
+    <t>'t'</t>
+  </si>
+  <si>
+    <t>以文本模式打开（默认）</t>
+  </si>
+  <si>
+    <t>'+'</t>
+  </si>
+  <si>
+    <t>可读写模式（可添加到其他模式中使用）</t>
+  </si>
+  <si>
+    <t>'U'</t>
+  </si>
+  <si>
+    <t>通用换行符支持</t>
+  </si>
+  <si>
+    <t>    </t>
+  </si>
+  <si>
+    <t>文件对象方法</t>
+  </si>
+  <si>
+    <t>f.close()</t>
+  </si>
+  <si>
+    <t>关闭文件</t>
+  </si>
+  <si>
+    <t>f.read([size=-1])</t>
+  </si>
+  <si>
+    <t>从文件读取size个字符，当未给定size或给定负值的时候，读取剩余的所有字符，然后作为字符串返回</t>
+  </si>
+  <si>
+    <t>f.readline([size=-1])</t>
+  </si>
+  <si>
+    <t>从文件中读取并返回一行（包括行结束符），如果有size有定义则返回size个字符</t>
+  </si>
+  <si>
+    <t>f.write(str)</t>
+  </si>
+  <si>
+    <t>将字符串str写入文件</t>
+  </si>
+  <si>
+    <t>f.writelines(seq)</t>
+  </si>
+  <si>
+    <t>向文件写入字符串序列seq，seq应该是一个返回字符串的可迭代对象</t>
+  </si>
+  <si>
+    <t>f.seek(offset, from)</t>
+  </si>
+  <si>
+    <t>在文件中移动文件指针，从from（0代表文件起始位置，1代表当前位置，2代表文件末尾）偏移offset个字节</t>
+  </si>
+  <si>
+    <t>f.tell()</t>
+  </si>
+  <si>
+    <t>返回当前在文件中的位置</t>
+  </si>
+  <si>
+    <t>f.truncate([size=file.tell()])</t>
+  </si>
+  <si>
+    <t>截取文件到size个字节，默认是截取到文件指针当前位置</t>
+  </si>
+  <si>
+    <t>文件打开模式</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2481,7 +2596,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2490,7 +2605,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2499,7 +2614,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2513,7 +2628,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2521,10 +2636,16 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Simsun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2580,7 +2701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
@@ -2603,9 +2724,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -9720,8 +9842,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>472632</xdr:colOff>
-      <xdr:row>1125</xdr:row>
-      <xdr:rowOff>189643</xdr:rowOff>
+      <xdr:row>1126</xdr:row>
+      <xdr:rowOff>2504</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9752,7 +9874,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10044,7 +10166,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -10057,21 +10179,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P1075"/>
+  <dimension ref="A2:P1152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1128" sqref="C1128"/>
+    <sheetView tabSelected="1" topLeftCell="A1122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1153" sqref="B1153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" s="3" customFormat="1">
@@ -13749,28 +13873,453 @@
         <v>475</v>
       </c>
     </row>
+    <row r="1128" spans="1:11" s="3" customFormat="1">
+      <c r="A1128" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:11" ht="19.5">
+      <c r="B1131" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:11">
+      <c r="B1132" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1132" s="15"/>
+      <c r="D1132" s="15"/>
+      <c r="E1132" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1132" s="15"/>
+      <c r="G1132" s="15"/>
+      <c r="H1132" s="15"/>
+      <c r="I1132" s="15"/>
+      <c r="J1132" s="15"/>
+      <c r="K1132" s="15"/>
+    </row>
+    <row r="1133" spans="1:11">
+      <c r="B1133" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1133" s="13"/>
+      <c r="D1133" s="13"/>
+      <c r="E1133" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1133" s="14"/>
+      <c r="G1133" s="14"/>
+      <c r="H1133" s="14"/>
+      <c r="I1133" s="14"/>
+      <c r="J1133" s="14"/>
+      <c r="K1133" s="14"/>
+    </row>
+    <row r="1134" spans="1:11">
+      <c r="B1134" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1134" s="13"/>
+      <c r="D1134" s="13"/>
+      <c r="E1134" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1134" s="14"/>
+      <c r="G1134" s="14"/>
+      <c r="H1134" s="14"/>
+      <c r="I1134" s="14"/>
+      <c r="J1134" s="14"/>
+      <c r="K1134" s="14"/>
+    </row>
+    <row r="1135" spans="1:11">
+      <c r="B1135" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1135" s="13"/>
+      <c r="D1135" s="13"/>
+      <c r="E1135" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1135" s="14"/>
+      <c r="G1135" s="14"/>
+      <c r="H1135" s="14"/>
+      <c r="I1135" s="14"/>
+      <c r="J1135" s="14"/>
+      <c r="K1135" s="14"/>
+    </row>
+    <row r="1136" spans="1:11">
+      <c r="B1136" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1136" s="13"/>
+      <c r="D1136" s="13"/>
+      <c r="E1136" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1136" s="14"/>
+      <c r="G1136" s="14"/>
+      <c r="H1136" s="14"/>
+      <c r="I1136" s="14"/>
+      <c r="J1136" s="14"/>
+      <c r="K1136" s="14"/>
+    </row>
+    <row r="1137" spans="2:11">
+      <c r="B1137" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1137" s="13"/>
+      <c r="D1137" s="13"/>
+      <c r="E1137" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1137" s="14"/>
+      <c r="G1137" s="14"/>
+      <c r="H1137" s="14"/>
+      <c r="I1137" s="14"/>
+      <c r="J1137" s="14"/>
+      <c r="K1137" s="14"/>
+    </row>
+    <row r="1138" spans="2:11">
+      <c r="B1138" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1138" s="13"/>
+      <c r="D1138" s="13"/>
+      <c r="E1138" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="F1138" s="14"/>
+      <c r="G1138" s="14"/>
+      <c r="H1138" s="14"/>
+      <c r="I1138" s="14"/>
+      <c r="J1138" s="14"/>
+      <c r="K1138" s="14"/>
+    </row>
+    <row r="1139" spans="2:11">
+      <c r="B1139" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1139" s="13"/>
+      <c r="D1139" s="13"/>
+      <c r="E1139" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1139" s="14"/>
+      <c r="G1139" s="14"/>
+      <c r="H1139" s="14"/>
+      <c r="I1139" s="14"/>
+      <c r="J1139" s="14"/>
+      <c r="K1139" s="14"/>
+    </row>
+    <row r="1140" spans="2:11">
+      <c r="B1140" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1140" s="13"/>
+      <c r="D1140" s="13"/>
+      <c r="E1140" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1140" s="14"/>
+      <c r="G1140" s="14"/>
+      <c r="H1140" s="14"/>
+      <c r="I1140" s="14"/>
+      <c r="J1140" s="14"/>
+      <c r="K1140" s="14"/>
+    </row>
+    <row r="1141" spans="2:11">
+      <c r="B1141"/>
+      <c r="E1141"/>
+    </row>
+    <row r="1142" spans="2:11" ht="18.75">
+      <c r="B1142" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1142"/>
+    </row>
+    <row r="1143" spans="2:11" ht="19.5">
+      <c r="B1143" s="9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="1144" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B1144" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1144" s="15"/>
+      <c r="D1144" s="15"/>
+      <c r="E1144" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1144" s="15"/>
+      <c r="G1144" s="15"/>
+      <c r="H1144" s="15"/>
+      <c r="I1144" s="15"/>
+      <c r="J1144" s="15"/>
+      <c r="K1144" s="15"/>
+    </row>
+    <row r="1145" spans="2:11">
+      <c r="B1145" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1145" s="13"/>
+      <c r="D1145" s="13"/>
+      <c r="E1145" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="F1145" s="14"/>
+      <c r="G1145" s="14"/>
+      <c r="H1145" s="14"/>
+      <c r="I1145" s="14"/>
+      <c r="J1145" s="14"/>
+      <c r="K1145" s="14"/>
+    </row>
+    <row r="1146" spans="2:11">
+      <c r="B1146" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1146" s="13"/>
+      <c r="D1146" s="13"/>
+      <c r="E1146" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1146" s="14"/>
+      <c r="G1146" s="14"/>
+      <c r="H1146" s="14"/>
+      <c r="I1146" s="14"/>
+      <c r="J1146" s="14"/>
+      <c r="K1146" s="14"/>
+    </row>
+    <row r="1147" spans="2:11">
+      <c r="B1147" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1147" s="13"/>
+      <c r="D1147" s="13"/>
+      <c r="E1147" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="F1147" s="14"/>
+      <c r="G1147" s="14"/>
+      <c r="H1147" s="14"/>
+      <c r="I1147" s="14"/>
+      <c r="J1147" s="14"/>
+      <c r="K1147" s="14"/>
+    </row>
+    <row r="1148" spans="2:11">
+      <c r="B1148" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1148" s="13"/>
+      <c r="D1148" s="13"/>
+      <c r="E1148" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="F1148" s="14"/>
+      <c r="G1148" s="14"/>
+      <c r="H1148" s="14"/>
+      <c r="I1148" s="14"/>
+      <c r="J1148" s="14"/>
+      <c r="K1148" s="14"/>
+    </row>
+    <row r="1149" spans="2:11">
+      <c r="B1149" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1149" s="13"/>
+      <c r="D1149" s="13"/>
+      <c r="E1149" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="F1149" s="14"/>
+      <c r="G1149" s="14"/>
+      <c r="H1149" s="14"/>
+      <c r="I1149" s="14"/>
+      <c r="J1149" s="14"/>
+      <c r="K1149" s="14"/>
+    </row>
+    <row r="1150" spans="2:11">
+      <c r="B1150" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1150" s="13"/>
+      <c r="D1150" s="13"/>
+      <c r="E1150" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1150" s="14"/>
+      <c r="G1150" s="14"/>
+      <c r="H1150" s="14"/>
+      <c r="I1150" s="14"/>
+      <c r="J1150" s="14"/>
+      <c r="K1150" s="14"/>
+    </row>
+    <row r="1151" spans="2:11">
+      <c r="B1151" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1151" s="13"/>
+      <c r="D1151" s="13"/>
+      <c r="E1151" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1151" s="14"/>
+      <c r="G1151" s="14"/>
+      <c r="H1151" s="14"/>
+      <c r="I1151" s="14"/>
+      <c r="J1151" s="14"/>
+      <c r="K1151" s="14"/>
+    </row>
+    <row r="1152" spans="2:11">
+      <c r="B1152" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1152" s="13"/>
+      <c r="D1152" s="13"/>
+      <c r="E1152" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="F1152" s="14"/>
+      <c r="G1152" s="14"/>
+      <c r="H1152" s="14"/>
+      <c r="I1152" s="14"/>
+      <c r="J1152" s="14"/>
+      <c r="K1152" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="140">
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
+  <mergeCells count="176">
+    <mergeCell ref="B1149:D1149"/>
+    <mergeCell ref="E1149:K1149"/>
+    <mergeCell ref="B1150:D1150"/>
+    <mergeCell ref="E1150:K1150"/>
+    <mergeCell ref="B1151:D1151"/>
+    <mergeCell ref="E1151:K1151"/>
+    <mergeCell ref="B1152:D1152"/>
+    <mergeCell ref="E1152:K1152"/>
+    <mergeCell ref="B1144:D1144"/>
+    <mergeCell ref="E1144:K1144"/>
+    <mergeCell ref="B1145:D1145"/>
+    <mergeCell ref="E1145:K1145"/>
+    <mergeCell ref="B1146:D1146"/>
+    <mergeCell ref="E1146:K1146"/>
+    <mergeCell ref="B1147:D1147"/>
+    <mergeCell ref="E1147:K1147"/>
+    <mergeCell ref="B1148:D1148"/>
+    <mergeCell ref="E1148:K1148"/>
+    <mergeCell ref="B1132:D1132"/>
+    <mergeCell ref="E1132:K1132"/>
+    <mergeCell ref="B1133:D1133"/>
+    <mergeCell ref="E1133:K1133"/>
+    <mergeCell ref="B1134:D1134"/>
+    <mergeCell ref="E1134:K1134"/>
+    <mergeCell ref="B1135:D1135"/>
+    <mergeCell ref="E1135:K1135"/>
+    <mergeCell ref="B1136:D1136"/>
+    <mergeCell ref="E1136:K1136"/>
+    <mergeCell ref="B1137:D1137"/>
+    <mergeCell ref="E1137:K1137"/>
+    <mergeCell ref="B1138:D1138"/>
+    <mergeCell ref="E1138:K1138"/>
+    <mergeCell ref="B1139:D1139"/>
+    <mergeCell ref="E1139:K1139"/>
+    <mergeCell ref="B1140:D1140"/>
+    <mergeCell ref="E1140:K1140"/>
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="E447:K447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="E448:K448"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E380:K380"/>
+    <mergeCell ref="E381:K381"/>
+    <mergeCell ref="E364:K364"/>
+    <mergeCell ref="E365:K365"/>
+    <mergeCell ref="E366:K366"/>
+    <mergeCell ref="E367:K367"/>
+    <mergeCell ref="E368:K368"/>
+    <mergeCell ref="E369:K369"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="E416:K416"/>
+    <mergeCell ref="E417:K417"/>
+    <mergeCell ref="E385:K385"/>
+    <mergeCell ref="E370:K370"/>
+    <mergeCell ref="E371:K371"/>
+    <mergeCell ref="E372:K372"/>
+    <mergeCell ref="E373:K373"/>
+    <mergeCell ref="E382:K382"/>
+    <mergeCell ref="E383:K383"/>
+    <mergeCell ref="E384:K384"/>
+    <mergeCell ref="E376:K376"/>
+    <mergeCell ref="E377:K377"/>
+    <mergeCell ref="E378:K378"/>
+    <mergeCell ref="E379:K379"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
     <mergeCell ref="E386:K386"/>
     <mergeCell ref="E387:K387"/>
     <mergeCell ref="E374:K374"/>
@@ -13795,102 +14344,26 @@
     <mergeCell ref="B369:D369"/>
     <mergeCell ref="B370:D370"/>
     <mergeCell ref="B371:D371"/>
-    <mergeCell ref="E360:K360"/>
-    <mergeCell ref="E361:K361"/>
-    <mergeCell ref="E350:K350"/>
-    <mergeCell ref="E351:K351"/>
-    <mergeCell ref="E352:K352"/>
-    <mergeCell ref="E353:K353"/>
-    <mergeCell ref="E354:K354"/>
-    <mergeCell ref="E355:K355"/>
-    <mergeCell ref="E356:K356"/>
-    <mergeCell ref="E357:K357"/>
-    <mergeCell ref="E358:K358"/>
-    <mergeCell ref="E359:K359"/>
-    <mergeCell ref="E380:K380"/>
-    <mergeCell ref="E381:K381"/>
-    <mergeCell ref="E364:K364"/>
-    <mergeCell ref="E365:K365"/>
-    <mergeCell ref="E366:K366"/>
-    <mergeCell ref="E367:K367"/>
-    <mergeCell ref="E368:K368"/>
-    <mergeCell ref="E369:K369"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="E416:K416"/>
-    <mergeCell ref="E417:K417"/>
-    <mergeCell ref="E385:K385"/>
-    <mergeCell ref="E370:K370"/>
-    <mergeCell ref="E371:K371"/>
-    <mergeCell ref="E372:K372"/>
-    <mergeCell ref="E373:K373"/>
-    <mergeCell ref="E382:K382"/>
-    <mergeCell ref="E383:K383"/>
-    <mergeCell ref="E384:K384"/>
-    <mergeCell ref="E376:K376"/>
-    <mergeCell ref="E377:K377"/>
-    <mergeCell ref="E378:K378"/>
-    <mergeCell ref="E379:K379"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="E418:K418"/>
-    <mergeCell ref="E419:K419"/>
-    <mergeCell ref="E420:K420"/>
-    <mergeCell ref="E421:K421"/>
-    <mergeCell ref="E422:K422"/>
-    <mergeCell ref="E411:K411"/>
-    <mergeCell ref="E412:K412"/>
-    <mergeCell ref="E413:K413"/>
-    <mergeCell ref="E414:K414"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:K430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:K431"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:K436"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:K426"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:K435"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:K427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="E428:K428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:K429"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:K440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:K441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:K442"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:K438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:K439"/>
-    <mergeCell ref="B446:D446"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="B447:D447"/>
-    <mergeCell ref="E447:K447"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="E448:K448"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:K443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:K444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:K445"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="598">
   <si>
     <t>built-in functions</t>
   </si>
@@ -2566,12 +2566,250 @@
   <si>
     <t>文件打开模式</t>
   </si>
+  <si>
+    <t>pickle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制文件作成与读取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>os、os.path 模块中关于文件、目录常用的函数使用方法</t>
+  </si>
+  <si>
+    <t>函数名</t>
+  </si>
+  <si>
+    <t>使用方法</t>
+  </si>
+  <si>
+    <t>basename(path)</t>
+  </si>
+  <si>
+    <t>去掉目录路径，单独返回文件名</t>
+  </si>
+  <si>
+    <t>dirname(path)</t>
+  </si>
+  <si>
+    <t>去掉文件名，单独返回目录路径</t>
+  </si>
+  <si>
+    <t>join(path1[, path2[, ...]])</t>
+  </si>
+  <si>
+    <t>将path1, path2各部分组合成一个路径名</t>
+  </si>
+  <si>
+    <t>split(path)</t>
+  </si>
+  <si>
+    <t>分割文件名与路径，返回(f_path, f_name)元组。如果完全使用目录，它也会将最后一个目录作为文件名分离，且不会判断文件或者目录是否存在</t>
+  </si>
+  <si>
+    <t>splitext(path)</t>
+  </si>
+  <si>
+    <t>分离文件名与扩展名，返回(f_name, f_extension)元组</t>
+  </si>
+  <si>
+    <t>getsize(file)</t>
+  </si>
+  <si>
+    <t>返回指定文件的尺寸，单位是字节</t>
+  </si>
+  <si>
+    <t>getatime(file)</t>
+  </si>
+  <si>
+    <t>返回指定文件最近的访问时间（浮点型秒数，可用time模块的gmtime()或localtime()函数换算）</t>
+  </si>
+  <si>
+    <t>getctime(file)</t>
+  </si>
+  <si>
+    <t>返回指定文件的创建时间（浮点型秒数，可用time模块的gmtime()或localtime()函数换算）</t>
+  </si>
+  <si>
+    <t>getmtime(file)</t>
+  </si>
+  <si>
+    <t>返回指定文件最新的修改时间（浮点型秒数，可用time模块的gmtime()或localtime()函数换算）</t>
+  </si>
+  <si>
+    <t>以下为函数返回 True 或 False</t>
+  </si>
+  <si>
+    <t>exists(path)</t>
+  </si>
+  <si>
+    <t>判断指定路径（目录或文件）是否存在</t>
+  </si>
+  <si>
+    <t>isabs(path)</t>
+  </si>
+  <si>
+    <t>判断指定路径是否为绝对路径</t>
+  </si>
+  <si>
+    <t>isdir(path)</t>
+  </si>
+  <si>
+    <t>判断指定路径是否存在且是一个目录</t>
+  </si>
+  <si>
+    <t>isfile(path)</t>
+  </si>
+  <si>
+    <t>判断指定路径是否存在且是一个文件</t>
+  </si>
+  <si>
+    <t>islink(path)</t>
+  </si>
+  <si>
+    <t>判断指定路径是否存在且是一个符号链接</t>
+  </si>
+  <si>
+    <t>ismount(path)</t>
+  </si>
+  <si>
+    <t>判断指定路径是否存在且是一个挂载点</t>
+  </si>
+  <si>
+    <t>samefile(path1, paht2)</t>
+  </si>
+  <si>
+    <t>判断path1和path2两个路径是否指向同一个文件</t>
+  </si>
+  <si>
+    <t>os.path模块中关于路径常用的函数使用方法</t>
+  </si>
+  <si>
+    <t>getcwd()</t>
+  </si>
+  <si>
+    <t>返回当前工作目录</t>
+  </si>
+  <si>
+    <t>chdir(path)</t>
+  </si>
+  <si>
+    <t>改变工作目录</t>
+  </si>
+  <si>
+    <t>listdir(path='.')</t>
+  </si>
+  <si>
+    <t>列举指定目录中的文件名（'.'表示当前目录，'..'表示上一级目录）</t>
+  </si>
+  <si>
+    <t>mkdir(path)</t>
+  </si>
+  <si>
+    <t>创建单层目录，如该目录已存在抛出异常</t>
+  </si>
+  <si>
+    <t>makedirs(path)</t>
+  </si>
+  <si>
+    <t>递归创建多层目录，如该目录已存在抛出异常，注意：'E:\\a\\b'和'E:\\a\\c'并不会冲突</t>
+  </si>
+  <si>
+    <t>remove(path)</t>
+  </si>
+  <si>
+    <t>删除文件</t>
+  </si>
+  <si>
+    <t>rmdir(path)</t>
+  </si>
+  <si>
+    <t>删除单层目录，如该目录非空则抛出异常</t>
+  </si>
+  <si>
+    <t>removedirs(path)</t>
+  </si>
+  <si>
+    <t>递归删除目录，从子目录到父目录逐层尝试删除，遇到目录非空则抛出异常</t>
+  </si>
+  <si>
+    <t>rename(old, new)</t>
+  </si>
+  <si>
+    <t>将文件old重命名为new</t>
+  </si>
+  <si>
+    <t>system(command)</t>
+  </si>
+  <si>
+    <t>运行系统的shell命令</t>
+  </si>
+  <si>
+    <t>walk(top)</t>
+  </si>
+  <si>
+    <t>遍历top路径以下所有的子目录，返回一个三元组：(路径, [包含目录], [包含文件])【具体实现方案请看：第30讲课后作业^_^】</t>
+  </si>
+  <si>
+    <t>以下是支持路径操作中常用到的一些定义，支持所有平台</t>
+  </si>
+  <si>
+    <t>os.curdir</t>
+  </si>
+  <si>
+    <t>指代当前目录（'.'）</t>
+  </si>
+  <si>
+    <t>os.pardir</t>
+  </si>
+  <si>
+    <t>指代上一级目录（'..'）</t>
+  </si>
+  <si>
+    <t>os.sep</t>
+  </si>
+  <si>
+    <t>输出操作系统特定的路径分隔符（Win下为'\\'，Linux下为'/'）</t>
+  </si>
+  <si>
+    <t>os.linesep</t>
+  </si>
+  <si>
+    <t>当前平台使用的行终止符（Win下为'\r\n'，Linux下为'\n'）</t>
+  </si>
+  <si>
+    <t>os.name</t>
+  </si>
+  <si>
+    <t>指代当前使用的操作系统（包括：'posix',  'nt', 'mac', 'os2', 'ce', 'java'）</t>
+  </si>
+  <si>
+    <t>写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import pickle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickle.dump(二进制文件)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickle.load(二进制文件)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2647,6 +2885,18 @@
       <name val="Simsun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Simsun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2674,7 +2924,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2697,11 +2947,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
@@ -2715,6 +3002,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2724,7 +3012,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10187,10 +10487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P1152"/>
+  <dimension ref="A2:P1204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1153" sqref="B1153"/>
+    <sheetView tabSelected="1" topLeftCell="A1168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1206" sqref="C1206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -11556,612 +11856,612 @@
       </c>
     </row>
     <row r="350" spans="1:11" ht="30" customHeight="1">
-      <c r="B350" s="13" t="s">
+      <c r="B350" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C350" s="13"/>
-      <c r="D350" s="13"/>
-      <c r="E350" s="14" t="s">
+      <c r="C350" s="14"/>
+      <c r="D350" s="14"/>
+      <c r="E350" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="F350" s="14"/>
-      <c r="G350" s="14"/>
-      <c r="H350" s="14"/>
-      <c r="I350" s="14"/>
-      <c r="J350" s="14"/>
-      <c r="K350" s="14"/>
+      <c r="F350" s="15"/>
+      <c r="G350" s="15"/>
+      <c r="H350" s="15"/>
+      <c r="I350" s="15"/>
+      <c r="J350" s="15"/>
+      <c r="K350" s="15"/>
     </row>
     <row r="351" spans="1:11" ht="30" customHeight="1">
-      <c r="B351" s="13" t="s">
+      <c r="B351" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C351" s="13"/>
-      <c r="D351" s="13"/>
-      <c r="E351" s="14" t="s">
+      <c r="C351" s="14"/>
+      <c r="D351" s="14"/>
+      <c r="E351" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F351" s="14"/>
-      <c r="G351" s="14"/>
-      <c r="H351" s="14"/>
-      <c r="I351" s="14"/>
-      <c r="J351" s="14"/>
-      <c r="K351" s="14"/>
+      <c r="F351" s="15"/>
+      <c r="G351" s="15"/>
+      <c r="H351" s="15"/>
+      <c r="I351" s="15"/>
+      <c r="J351" s="15"/>
+      <c r="K351" s="15"/>
     </row>
     <row r="352" spans="1:11" ht="30" customHeight="1">
-      <c r="B352" s="13" t="s">
+      <c r="B352" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C352" s="13"/>
-      <c r="D352" s="13"/>
-      <c r="E352" s="14" t="s">
+      <c r="C352" s="14"/>
+      <c r="D352" s="14"/>
+      <c r="E352" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="F352" s="14"/>
-      <c r="G352" s="14"/>
-      <c r="H352" s="14"/>
-      <c r="I352" s="14"/>
-      <c r="J352" s="14"/>
-      <c r="K352" s="14"/>
+      <c r="F352" s="15"/>
+      <c r="G352" s="15"/>
+      <c r="H352" s="15"/>
+      <c r="I352" s="15"/>
+      <c r="J352" s="15"/>
+      <c r="K352" s="15"/>
     </row>
     <row r="353" spans="2:11" ht="30" customHeight="1">
-      <c r="B353" s="13" t="s">
+      <c r="B353" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C353" s="13"/>
-      <c r="D353" s="13"/>
-      <c r="E353" s="14" t="s">
+      <c r="C353" s="14"/>
+      <c r="D353" s="14"/>
+      <c r="E353" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F353" s="14"/>
-      <c r="G353" s="14"/>
-      <c r="H353" s="14"/>
-      <c r="I353" s="14"/>
-      <c r="J353" s="14"/>
-      <c r="K353" s="14"/>
+      <c r="F353" s="15"/>
+      <c r="G353" s="15"/>
+      <c r="H353" s="15"/>
+      <c r="I353" s="15"/>
+      <c r="J353" s="15"/>
+      <c r="K353" s="15"/>
     </row>
     <row r="354" spans="2:11" ht="30" customHeight="1">
-      <c r="B354" s="13" t="s">
+      <c r="B354" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C354" s="13"/>
-      <c r="D354" s="13"/>
-      <c r="E354" s="14" t="s">
+      <c r="C354" s="14"/>
+      <c r="D354" s="14"/>
+      <c r="E354" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F354" s="14"/>
-      <c r="G354" s="14"/>
-      <c r="H354" s="14"/>
-      <c r="I354" s="14"/>
-      <c r="J354" s="14"/>
-      <c r="K354" s="14"/>
+      <c r="F354" s="15"/>
+      <c r="G354" s="15"/>
+      <c r="H354" s="15"/>
+      <c r="I354" s="15"/>
+      <c r="J354" s="15"/>
+      <c r="K354" s="15"/>
     </row>
     <row r="355" spans="2:11" ht="30" customHeight="1">
-      <c r="B355" s="13" t="s">
+      <c r="B355" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C355" s="13"/>
-      <c r="D355" s="13"/>
-      <c r="E355" s="14" t="s">
+      <c r="C355" s="14"/>
+      <c r="D355" s="14"/>
+      <c r="E355" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="F355" s="14"/>
-      <c r="G355" s="14"/>
-      <c r="H355" s="14"/>
-      <c r="I355" s="14"/>
-      <c r="J355" s="14"/>
-      <c r="K355" s="14"/>
+      <c r="F355" s="15"/>
+      <c r="G355" s="15"/>
+      <c r="H355" s="15"/>
+      <c r="I355" s="15"/>
+      <c r="J355" s="15"/>
+      <c r="K355" s="15"/>
     </row>
     <row r="356" spans="2:11" ht="30" customHeight="1">
-      <c r="B356" s="13" t="s">
+      <c r="B356" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C356" s="13"/>
-      <c r="D356" s="13"/>
-      <c r="E356" s="14" t="s">
+      <c r="C356" s="14"/>
+      <c r="D356" s="14"/>
+      <c r="E356" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="F356" s="14"/>
-      <c r="G356" s="14"/>
-      <c r="H356" s="14"/>
-      <c r="I356" s="14"/>
-      <c r="J356" s="14"/>
-      <c r="K356" s="14"/>
+      <c r="F356" s="15"/>
+      <c r="G356" s="15"/>
+      <c r="H356" s="15"/>
+      <c r="I356" s="15"/>
+      <c r="J356" s="15"/>
+      <c r="K356" s="15"/>
     </row>
     <row r="357" spans="2:11" ht="30" customHeight="1">
-      <c r="B357" s="13" t="s">
+      <c r="B357" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C357" s="13"/>
-      <c r="D357" s="13"/>
-      <c r="E357" s="14" t="s">
+      <c r="C357" s="14"/>
+      <c r="D357" s="14"/>
+      <c r="E357" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="F357" s="14"/>
-      <c r="G357" s="14"/>
-      <c r="H357" s="14"/>
-      <c r="I357" s="14"/>
-      <c r="J357" s="14"/>
-      <c r="K357" s="14"/>
+      <c r="F357" s="15"/>
+      <c r="G357" s="15"/>
+      <c r="H357" s="15"/>
+      <c r="I357" s="15"/>
+      <c r="J357" s="15"/>
+      <c r="K357" s="15"/>
     </row>
     <row r="358" spans="2:11" ht="30" customHeight="1">
-      <c r="B358" s="13" t="s">
+      <c r="B358" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C358" s="13"/>
-      <c r="D358" s="13"/>
-      <c r="E358" s="14" t="s">
+      <c r="C358" s="14"/>
+      <c r="D358" s="14"/>
+      <c r="E358" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="F358" s="14"/>
-      <c r="G358" s="14"/>
-      <c r="H358" s="14"/>
-      <c r="I358" s="14"/>
-      <c r="J358" s="14"/>
-      <c r="K358" s="14"/>
+      <c r="F358" s="15"/>
+      <c r="G358" s="15"/>
+      <c r="H358" s="15"/>
+      <c r="I358" s="15"/>
+      <c r="J358" s="15"/>
+      <c r="K358" s="15"/>
     </row>
     <row r="359" spans="2:11" ht="30" customHeight="1">
-      <c r="B359" s="13" t="s">
+      <c r="B359" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C359" s="13"/>
-      <c r="D359" s="13"/>
-      <c r="E359" s="14" t="s">
+      <c r="C359" s="14"/>
+      <c r="D359" s="14"/>
+      <c r="E359" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="F359" s="14"/>
-      <c r="G359" s="14"/>
-      <c r="H359" s="14"/>
-      <c r="I359" s="14"/>
-      <c r="J359" s="14"/>
-      <c r="K359" s="14"/>
+      <c r="F359" s="15"/>
+      <c r="G359" s="15"/>
+      <c r="H359" s="15"/>
+      <c r="I359" s="15"/>
+      <c r="J359" s="15"/>
+      <c r="K359" s="15"/>
     </row>
     <row r="360" spans="2:11" ht="30" customHeight="1">
-      <c r="B360" s="13" t="s">
+      <c r="B360" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C360" s="13"/>
-      <c r="D360" s="13"/>
-      <c r="E360" s="14" t="s">
+      <c r="C360" s="14"/>
+      <c r="D360" s="14"/>
+      <c r="E360" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="F360" s="14"/>
-      <c r="G360" s="14"/>
-      <c r="H360" s="14"/>
-      <c r="I360" s="14"/>
-      <c r="J360" s="14"/>
-      <c r="K360" s="14"/>
+      <c r="F360" s="15"/>
+      <c r="G360" s="15"/>
+      <c r="H360" s="15"/>
+      <c r="I360" s="15"/>
+      <c r="J360" s="15"/>
+      <c r="K360" s="15"/>
     </row>
     <row r="361" spans="2:11" ht="30" customHeight="1">
-      <c r="B361" s="13" t="s">
+      <c r="B361" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C361" s="13"/>
-      <c r="D361" s="13"/>
-      <c r="E361" s="14" t="s">
+      <c r="C361" s="14"/>
+      <c r="D361" s="14"/>
+      <c r="E361" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="F361" s="14"/>
-      <c r="G361" s="14"/>
-      <c r="H361" s="14"/>
-      <c r="I361" s="14"/>
-      <c r="J361" s="14"/>
-      <c r="K361" s="14"/>
+      <c r="F361" s="15"/>
+      <c r="G361" s="15"/>
+      <c r="H361" s="15"/>
+      <c r="I361" s="15"/>
+      <c r="J361" s="15"/>
+      <c r="K361" s="15"/>
     </row>
     <row r="362" spans="2:11" ht="30" customHeight="1">
-      <c r="B362" s="13" t="s">
+      <c r="B362" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C362" s="13"/>
-      <c r="D362" s="13"/>
-      <c r="E362" s="14" t="s">
+      <c r="C362" s="14"/>
+      <c r="D362" s="14"/>
+      <c r="E362" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="F362" s="14"/>
-      <c r="G362" s="14"/>
-      <c r="H362" s="14"/>
-      <c r="I362" s="14"/>
-      <c r="J362" s="14"/>
-      <c r="K362" s="14"/>
+      <c r="F362" s="15"/>
+      <c r="G362" s="15"/>
+      <c r="H362" s="15"/>
+      <c r="I362" s="15"/>
+      <c r="J362" s="15"/>
+      <c r="K362" s="15"/>
     </row>
     <row r="363" spans="2:11" ht="30" customHeight="1">
-      <c r="B363" s="13" t="s">
+      <c r="B363" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C363" s="13"/>
-      <c r="D363" s="13"/>
-      <c r="E363" s="14" t="s">
+      <c r="C363" s="14"/>
+      <c r="D363" s="14"/>
+      <c r="E363" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="F363" s="14"/>
-      <c r="G363" s="14"/>
-      <c r="H363" s="14"/>
-      <c r="I363" s="14"/>
-      <c r="J363" s="14"/>
-      <c r="K363" s="14"/>
+      <c r="F363" s="15"/>
+      <c r="G363" s="15"/>
+      <c r="H363" s="15"/>
+      <c r="I363" s="15"/>
+      <c r="J363" s="15"/>
+      <c r="K363" s="15"/>
     </row>
     <row r="364" spans="2:11" ht="30" customHeight="1">
-      <c r="B364" s="13" t="s">
+      <c r="B364" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C364" s="13"/>
-      <c r="D364" s="13"/>
-      <c r="E364" s="14" t="s">
+      <c r="C364" s="14"/>
+      <c r="D364" s="14"/>
+      <c r="E364" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="F364" s="14"/>
-      <c r="G364" s="14"/>
-      <c r="H364" s="14"/>
-      <c r="I364" s="14"/>
-      <c r="J364" s="14"/>
-      <c r="K364" s="14"/>
+      <c r="F364" s="15"/>
+      <c r="G364" s="15"/>
+      <c r="H364" s="15"/>
+      <c r="I364" s="15"/>
+      <c r="J364" s="15"/>
+      <c r="K364" s="15"/>
     </row>
     <row r="365" spans="2:11" ht="30" customHeight="1">
-      <c r="B365" s="13" t="s">
+      <c r="B365" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C365" s="13"/>
-      <c r="D365" s="13"/>
-      <c r="E365" s="14" t="s">
+      <c r="C365" s="14"/>
+      <c r="D365" s="14"/>
+      <c r="E365" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="F365" s="14"/>
-      <c r="G365" s="14"/>
-      <c r="H365" s="14"/>
-      <c r="I365" s="14"/>
-      <c r="J365" s="14"/>
-      <c r="K365" s="14"/>
+      <c r="F365" s="15"/>
+      <c r="G365" s="15"/>
+      <c r="H365" s="15"/>
+      <c r="I365" s="15"/>
+      <c r="J365" s="15"/>
+      <c r="K365" s="15"/>
     </row>
     <row r="366" spans="2:11" ht="30" customHeight="1">
-      <c r="B366" s="13" t="s">
+      <c r="B366" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="C366" s="13"/>
-      <c r="D366" s="13"/>
-      <c r="E366" s="14" t="s">
+      <c r="C366" s="14"/>
+      <c r="D366" s="14"/>
+      <c r="E366" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="F366" s="14"/>
-      <c r="G366" s="14"/>
-      <c r="H366" s="14"/>
-      <c r="I366" s="14"/>
-      <c r="J366" s="14"/>
-      <c r="K366" s="14"/>
+      <c r="F366" s="15"/>
+      <c r="G366" s="15"/>
+      <c r="H366" s="15"/>
+      <c r="I366" s="15"/>
+      <c r="J366" s="15"/>
+      <c r="K366" s="15"/>
     </row>
     <row r="367" spans="2:11" ht="30" customHeight="1">
-      <c r="B367" s="13" t="s">
+      <c r="B367" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="C367" s="13"/>
-      <c r="D367" s="13"/>
-      <c r="E367" s="14" t="s">
+      <c r="C367" s="14"/>
+      <c r="D367" s="14"/>
+      <c r="E367" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="F367" s="14"/>
-      <c r="G367" s="14"/>
-      <c r="H367" s="14"/>
-      <c r="I367" s="14"/>
-      <c r="J367" s="14"/>
-      <c r="K367" s="14"/>
+      <c r="F367" s="15"/>
+      <c r="G367" s="15"/>
+      <c r="H367" s="15"/>
+      <c r="I367" s="15"/>
+      <c r="J367" s="15"/>
+      <c r="K367" s="15"/>
     </row>
     <row r="368" spans="2:11" ht="30" customHeight="1">
-      <c r="B368" s="13" t="s">
+      <c r="B368" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C368" s="13"/>
-      <c r="D368" s="13"/>
-      <c r="E368" s="14" t="s">
+      <c r="C368" s="14"/>
+      <c r="D368" s="14"/>
+      <c r="E368" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="F368" s="14"/>
-      <c r="G368" s="14"/>
-      <c r="H368" s="14"/>
-      <c r="I368" s="14"/>
-      <c r="J368" s="14"/>
-      <c r="K368" s="14"/>
+      <c r="F368" s="15"/>
+      <c r="G368" s="15"/>
+      <c r="H368" s="15"/>
+      <c r="I368" s="15"/>
+      <c r="J368" s="15"/>
+      <c r="K368" s="15"/>
     </row>
     <row r="369" spans="2:11" ht="30" customHeight="1">
-      <c r="B369" s="13" t="s">
+      <c r="B369" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C369" s="13"/>
-      <c r="D369" s="13"/>
-      <c r="E369" s="14" t="s">
+      <c r="C369" s="14"/>
+      <c r="D369" s="14"/>
+      <c r="E369" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="F369" s="14"/>
-      <c r="G369" s="14"/>
-      <c r="H369" s="14"/>
-      <c r="I369" s="14"/>
-      <c r="J369" s="14"/>
-      <c r="K369" s="14"/>
+      <c r="F369" s="15"/>
+      <c r="G369" s="15"/>
+      <c r="H369" s="15"/>
+      <c r="I369" s="15"/>
+      <c r="J369" s="15"/>
+      <c r="K369" s="15"/>
     </row>
     <row r="370" spans="2:11" ht="30" customHeight="1">
-      <c r="B370" s="13" t="s">
+      <c r="B370" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C370" s="13"/>
-      <c r="D370" s="13"/>
-      <c r="E370" s="14" t="s">
+      <c r="C370" s="14"/>
+      <c r="D370" s="14"/>
+      <c r="E370" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="F370" s="14"/>
-      <c r="G370" s="14"/>
-      <c r="H370" s="14"/>
-      <c r="I370" s="14"/>
-      <c r="J370" s="14"/>
-      <c r="K370" s="14"/>
+      <c r="F370" s="15"/>
+      <c r="G370" s="15"/>
+      <c r="H370" s="15"/>
+      <c r="I370" s="15"/>
+      <c r="J370" s="15"/>
+      <c r="K370" s="15"/>
     </row>
     <row r="371" spans="2:11" ht="30" customHeight="1">
-      <c r="B371" s="13" t="s">
+      <c r="B371" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C371" s="13"/>
-      <c r="D371" s="13"/>
-      <c r="E371" s="14" t="s">
+      <c r="C371" s="14"/>
+      <c r="D371" s="14"/>
+      <c r="E371" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="F371" s="14"/>
-      <c r="G371" s="14"/>
-      <c r="H371" s="14"/>
-      <c r="I371" s="14"/>
-      <c r="J371" s="14"/>
-      <c r="K371" s="14"/>
+      <c r="F371" s="15"/>
+      <c r="G371" s="15"/>
+      <c r="H371" s="15"/>
+      <c r="I371" s="15"/>
+      <c r="J371" s="15"/>
+      <c r="K371" s="15"/>
     </row>
     <row r="372" spans="2:11" ht="30" customHeight="1">
-      <c r="B372" s="13" t="s">
+      <c r="B372" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C372" s="13"/>
-      <c r="D372" s="13"/>
-      <c r="E372" s="14" t="s">
+      <c r="C372" s="14"/>
+      <c r="D372" s="14"/>
+      <c r="E372" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="F372" s="14"/>
-      <c r="G372" s="14"/>
-      <c r="H372" s="14"/>
-      <c r="I372" s="14"/>
-      <c r="J372" s="14"/>
-      <c r="K372" s="14"/>
+      <c r="F372" s="15"/>
+      <c r="G372" s="15"/>
+      <c r="H372" s="15"/>
+      <c r="I372" s="15"/>
+      <c r="J372" s="15"/>
+      <c r="K372" s="15"/>
     </row>
     <row r="373" spans="2:11" ht="30" customHeight="1">
-      <c r="B373" s="13" t="s">
+      <c r="B373" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C373" s="13"/>
-      <c r="D373" s="13"/>
-      <c r="E373" s="14" t="s">
+      <c r="C373" s="14"/>
+      <c r="D373" s="14"/>
+      <c r="E373" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F373" s="14"/>
-      <c r="G373" s="14"/>
-      <c r="H373" s="14"/>
-      <c r="I373" s="14"/>
-      <c r="J373" s="14"/>
-      <c r="K373" s="14"/>
+      <c r="F373" s="15"/>
+      <c r="G373" s="15"/>
+      <c r="H373" s="15"/>
+      <c r="I373" s="15"/>
+      <c r="J373" s="15"/>
+      <c r="K373" s="15"/>
     </row>
     <row r="374" spans="2:11" ht="30" customHeight="1">
-      <c r="B374" s="13" t="s">
+      <c r="B374" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C374" s="13"/>
-      <c r="D374" s="13"/>
-      <c r="E374" s="14" t="s">
+      <c r="C374" s="14"/>
+      <c r="D374" s="14"/>
+      <c r="E374" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F374" s="14"/>
-      <c r="G374" s="14"/>
-      <c r="H374" s="14"/>
-      <c r="I374" s="14"/>
-      <c r="J374" s="14"/>
-      <c r="K374" s="14"/>
+      <c r="F374" s="15"/>
+      <c r="G374" s="15"/>
+      <c r="H374" s="15"/>
+      <c r="I374" s="15"/>
+      <c r="J374" s="15"/>
+      <c r="K374" s="15"/>
     </row>
     <row r="375" spans="2:11" ht="30" customHeight="1">
-      <c r="B375" s="13" t="s">
+      <c r="B375" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C375" s="13"/>
-      <c r="D375" s="13"/>
-      <c r="E375" s="14" t="s">
+      <c r="C375" s="14"/>
+      <c r="D375" s="14"/>
+      <c r="E375" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F375" s="14"/>
-      <c r="G375" s="14"/>
-      <c r="H375" s="14"/>
-      <c r="I375" s="14"/>
-      <c r="J375" s="14"/>
-      <c r="K375" s="14"/>
+      <c r="F375" s="15"/>
+      <c r="G375" s="15"/>
+      <c r="H375" s="15"/>
+      <c r="I375" s="15"/>
+      <c r="J375" s="15"/>
+      <c r="K375" s="15"/>
     </row>
     <row r="376" spans="2:11" ht="30" customHeight="1">
-      <c r="B376" s="13" t="s">
+      <c r="B376" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C376" s="13"/>
-      <c r="D376" s="13"/>
-      <c r="E376" s="14" t="s">
+      <c r="C376" s="14"/>
+      <c r="D376" s="14"/>
+      <c r="E376" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="F376" s="14"/>
-      <c r="G376" s="14"/>
-      <c r="H376" s="14"/>
-      <c r="I376" s="14"/>
-      <c r="J376" s="14"/>
-      <c r="K376" s="14"/>
+      <c r="F376" s="15"/>
+      <c r="G376" s="15"/>
+      <c r="H376" s="15"/>
+      <c r="I376" s="15"/>
+      <c r="J376" s="15"/>
+      <c r="K376" s="15"/>
     </row>
     <row r="377" spans="2:11" ht="30" customHeight="1">
-      <c r="B377" s="13" t="s">
+      <c r="B377" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C377" s="13"/>
-      <c r="D377" s="13"/>
-      <c r="E377" s="14" t="s">
+      <c r="C377" s="14"/>
+      <c r="D377" s="14"/>
+      <c r="E377" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="F377" s="14"/>
-      <c r="G377" s="14"/>
-      <c r="H377" s="14"/>
-      <c r="I377" s="14"/>
-      <c r="J377" s="14"/>
-      <c r="K377" s="14"/>
+      <c r="F377" s="15"/>
+      <c r="G377" s="15"/>
+      <c r="H377" s="15"/>
+      <c r="I377" s="15"/>
+      <c r="J377" s="15"/>
+      <c r="K377" s="15"/>
     </row>
     <row r="378" spans="2:11" ht="30" customHeight="1">
-      <c r="B378" s="13" t="s">
+      <c r="B378" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C378" s="13"/>
-      <c r="D378" s="13"/>
-      <c r="E378" s="14" t="s">
+      <c r="C378" s="14"/>
+      <c r="D378" s="14"/>
+      <c r="E378" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="F378" s="14"/>
-      <c r="G378" s="14"/>
-      <c r="H378" s="14"/>
-      <c r="I378" s="14"/>
-      <c r="J378" s="14"/>
-      <c r="K378" s="14"/>
+      <c r="F378" s="15"/>
+      <c r="G378" s="15"/>
+      <c r="H378" s="15"/>
+      <c r="I378" s="15"/>
+      <c r="J378" s="15"/>
+      <c r="K378" s="15"/>
     </row>
     <row r="379" spans="2:11" ht="30" customHeight="1">
-      <c r="B379" s="13" t="s">
+      <c r="B379" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C379" s="13"/>
-      <c r="D379" s="13"/>
-      <c r="E379" s="14" t="s">
+      <c r="C379" s="14"/>
+      <c r="D379" s="14"/>
+      <c r="E379" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="F379" s="14"/>
-      <c r="G379" s="14"/>
-      <c r="H379" s="14"/>
-      <c r="I379" s="14"/>
-      <c r="J379" s="14"/>
-      <c r="K379" s="14"/>
+      <c r="F379" s="15"/>
+      <c r="G379" s="15"/>
+      <c r="H379" s="15"/>
+      <c r="I379" s="15"/>
+      <c r="J379" s="15"/>
+      <c r="K379" s="15"/>
     </row>
     <row r="380" spans="2:11" ht="30" customHeight="1">
-      <c r="B380" s="13" t="s">
+      <c r="B380" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C380" s="13"/>
-      <c r="D380" s="13"/>
-      <c r="E380" s="14" t="s">
+      <c r="C380" s="14"/>
+      <c r="D380" s="14"/>
+      <c r="E380" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="F380" s="14"/>
-      <c r="G380" s="14"/>
-      <c r="H380" s="14"/>
-      <c r="I380" s="14"/>
-      <c r="J380" s="14"/>
-      <c r="K380" s="14"/>
+      <c r="F380" s="15"/>
+      <c r="G380" s="15"/>
+      <c r="H380" s="15"/>
+      <c r="I380" s="15"/>
+      <c r="J380" s="15"/>
+      <c r="K380" s="15"/>
     </row>
     <row r="381" spans="2:11" ht="30" customHeight="1">
-      <c r="B381" s="13" t="s">
+      <c r="B381" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C381" s="13"/>
-      <c r="D381" s="13"/>
-      <c r="E381" s="14" t="s">
+      <c r="C381" s="14"/>
+      <c r="D381" s="14"/>
+      <c r="E381" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="F381" s="14"/>
-      <c r="G381" s="14"/>
-      <c r="H381" s="14"/>
-      <c r="I381" s="14"/>
-      <c r="J381" s="14"/>
-      <c r="K381" s="14"/>
+      <c r="F381" s="15"/>
+      <c r="G381" s="15"/>
+      <c r="H381" s="15"/>
+      <c r="I381" s="15"/>
+      <c r="J381" s="15"/>
+      <c r="K381" s="15"/>
     </row>
     <row r="382" spans="2:11" ht="30" customHeight="1">
-      <c r="B382" s="13" t="s">
+      <c r="B382" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C382" s="13"/>
-      <c r="D382" s="13"/>
-      <c r="E382" s="14" t="s">
+      <c r="C382" s="14"/>
+      <c r="D382" s="14"/>
+      <c r="E382" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="F382" s="14"/>
-      <c r="G382" s="14"/>
-      <c r="H382" s="14"/>
-      <c r="I382" s="14"/>
-      <c r="J382" s="14"/>
-      <c r="K382" s="14"/>
+      <c r="F382" s="15"/>
+      <c r="G382" s="15"/>
+      <c r="H382" s="15"/>
+      <c r="I382" s="15"/>
+      <c r="J382" s="15"/>
+      <c r="K382" s="15"/>
     </row>
     <row r="383" spans="2:11" ht="30" customHeight="1">
-      <c r="B383" s="13" t="s">
+      <c r="B383" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C383" s="13"/>
-      <c r="D383" s="13"/>
-      <c r="E383" s="14" t="s">
+      <c r="C383" s="14"/>
+      <c r="D383" s="14"/>
+      <c r="E383" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="F383" s="14"/>
-      <c r="G383" s="14"/>
-      <c r="H383" s="14"/>
-      <c r="I383" s="14"/>
-      <c r="J383" s="14"/>
-      <c r="K383" s="14"/>
+      <c r="F383" s="15"/>
+      <c r="G383" s="15"/>
+      <c r="H383" s="15"/>
+      <c r="I383" s="15"/>
+      <c r="J383" s="15"/>
+      <c r="K383" s="15"/>
     </row>
     <row r="384" spans="2:11" ht="30" customHeight="1">
-      <c r="B384" s="13" t="s">
+      <c r="B384" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C384" s="13"/>
-      <c r="D384" s="13"/>
-      <c r="E384" s="14" t="s">
+      <c r="C384" s="14"/>
+      <c r="D384" s="14"/>
+      <c r="E384" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="F384" s="14"/>
-      <c r="G384" s="14"/>
-      <c r="H384" s="14"/>
-      <c r="I384" s="14"/>
-      <c r="J384" s="14"/>
-      <c r="K384" s="14"/>
+      <c r="F384" s="15"/>
+      <c r="G384" s="15"/>
+      <c r="H384" s="15"/>
+      <c r="I384" s="15"/>
+      <c r="J384" s="15"/>
+      <c r="K384" s="15"/>
     </row>
     <row r="385" spans="1:11" ht="30" customHeight="1">
-      <c r="B385" s="13" t="s">
+      <c r="B385" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C385" s="13"/>
-      <c r="D385" s="13"/>
-      <c r="E385" s="14" t="s">
+      <c r="C385" s="14"/>
+      <c r="D385" s="14"/>
+      <c r="E385" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="F385" s="14"/>
-      <c r="G385" s="14"/>
-      <c r="H385" s="14"/>
-      <c r="I385" s="14"/>
-      <c r="J385" s="14"/>
-      <c r="K385" s="14"/>
+      <c r="F385" s="15"/>
+      <c r="G385" s="15"/>
+      <c r="H385" s="15"/>
+      <c r="I385" s="15"/>
+      <c r="J385" s="15"/>
+      <c r="K385" s="15"/>
     </row>
     <row r="386" spans="1:11" ht="30" customHeight="1">
-      <c r="B386" s="13" t="s">
+      <c r="B386" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C386" s="13"/>
-      <c r="D386" s="13"/>
-      <c r="E386" s="14" t="s">
+      <c r="C386" s="14"/>
+      <c r="D386" s="14"/>
+      <c r="E386" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="F386" s="14"/>
-      <c r="G386" s="14"/>
-      <c r="H386" s="14"/>
-      <c r="I386" s="14"/>
-      <c r="J386" s="14"/>
-      <c r="K386" s="14"/>
+      <c r="F386" s="15"/>
+      <c r="G386" s="15"/>
+      <c r="H386" s="15"/>
+      <c r="I386" s="15"/>
+      <c r="J386" s="15"/>
+      <c r="K386" s="15"/>
     </row>
     <row r="387" spans="1:11" ht="30" customHeight="1">
-      <c r="B387" s="13" t="s">
+      <c r="B387" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C387" s="13"/>
-      <c r="D387" s="13"/>
-      <c r="E387" s="14" t="s">
+      <c r="C387" s="14"/>
+      <c r="D387" s="14"/>
+      <c r="E387" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="F387" s="14"/>
-      <c r="G387" s="14"/>
-      <c r="H387" s="14"/>
-      <c r="I387" s="14"/>
-      <c r="J387" s="14"/>
-      <c r="K387" s="14"/>
+      <c r="F387" s="15"/>
+      <c r="G387" s="15"/>
+      <c r="H387" s="15"/>
+      <c r="I387" s="15"/>
+      <c r="J387" s="15"/>
+      <c r="K387" s="15"/>
     </row>
     <row r="389" spans="1:11" s="3" customFormat="1">
       <c r="A389" s="3" t="s">
@@ -12254,196 +12554,196 @@
       </c>
     </row>
     <row r="411" spans="2:11" ht="15" customHeight="1">
-      <c r="B411" s="15" t="s">
+      <c r="B411" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C411" s="15"/>
-      <c r="D411" s="15"/>
-      <c r="E411" s="15" t="s">
+      <c r="C411" s="16"/>
+      <c r="D411" s="16"/>
+      <c r="E411" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="F411" s="15"/>
-      <c r="G411" s="15"/>
-      <c r="H411" s="15"/>
-      <c r="I411" s="15"/>
-      <c r="J411" s="15"/>
-      <c r="K411" s="15"/>
+      <c r="F411" s="16"/>
+      <c r="G411" s="16"/>
+      <c r="H411" s="16"/>
+      <c r="I411" s="16"/>
+      <c r="J411" s="16"/>
+      <c r="K411" s="16"/>
     </row>
     <row r="412" spans="2:11" ht="15" customHeight="1">
-      <c r="B412" s="13" t="s">
+      <c r="B412" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C412" s="13"/>
-      <c r="D412" s="13"/>
-      <c r="E412" s="14" t="s">
+      <c r="C412" s="14"/>
+      <c r="D412" s="14"/>
+      <c r="E412" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="F412" s="14"/>
-      <c r="G412" s="14"/>
-      <c r="H412" s="14"/>
-      <c r="I412" s="14"/>
-      <c r="J412" s="14"/>
-      <c r="K412" s="14"/>
+      <c r="F412" s="15"/>
+      <c r="G412" s="15"/>
+      <c r="H412" s="15"/>
+      <c r="I412" s="15"/>
+      <c r="J412" s="15"/>
+      <c r="K412" s="15"/>
     </row>
     <row r="413" spans="2:11" ht="15" customHeight="1">
-      <c r="B413" s="13" t="s">
+      <c r="B413" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C413" s="13"/>
-      <c r="D413" s="13"/>
-      <c r="E413" s="14" t="s">
+      <c r="C413" s="14"/>
+      <c r="D413" s="14"/>
+      <c r="E413" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="F413" s="14"/>
-      <c r="G413" s="14"/>
-      <c r="H413" s="14"/>
-      <c r="I413" s="14"/>
-      <c r="J413" s="14"/>
-      <c r="K413" s="14"/>
+      <c r="F413" s="15"/>
+      <c r="G413" s="15"/>
+      <c r="H413" s="15"/>
+      <c r="I413" s="15"/>
+      <c r="J413" s="15"/>
+      <c r="K413" s="15"/>
     </row>
     <row r="414" spans="2:11" ht="15" customHeight="1">
-      <c r="B414" s="13" t="s">
+      <c r="B414" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C414" s="13"/>
-      <c r="D414" s="13"/>
-      <c r="E414" s="14" t="s">
+      <c r="C414" s="14"/>
+      <c r="D414" s="14"/>
+      <c r="E414" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="F414" s="14"/>
-      <c r="G414" s="14"/>
-      <c r="H414" s="14"/>
-      <c r="I414" s="14"/>
-      <c r="J414" s="14"/>
-      <c r="K414" s="14"/>
+      <c r="F414" s="15"/>
+      <c r="G414" s="15"/>
+      <c r="H414" s="15"/>
+      <c r="I414" s="15"/>
+      <c r="J414" s="15"/>
+      <c r="K414" s="15"/>
     </row>
     <row r="415" spans="2:11" ht="15" customHeight="1">
-      <c r="B415" s="13" t="s">
+      <c r="B415" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C415" s="13"/>
-      <c r="D415" s="13"/>
-      <c r="E415" s="14" t="s">
+      <c r="C415" s="14"/>
+      <c r="D415" s="14"/>
+      <c r="E415" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="F415" s="14"/>
-      <c r="G415" s="14"/>
-      <c r="H415" s="14"/>
-      <c r="I415" s="14"/>
-      <c r="J415" s="14"/>
-      <c r="K415" s="14"/>
+      <c r="F415" s="15"/>
+      <c r="G415" s="15"/>
+      <c r="H415" s="15"/>
+      <c r="I415" s="15"/>
+      <c r="J415" s="15"/>
+      <c r="K415" s="15"/>
     </row>
     <row r="416" spans="2:11" ht="15" customHeight="1">
-      <c r="B416" s="13" t="s">
+      <c r="B416" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C416" s="13"/>
-      <c r="D416" s="13"/>
-      <c r="E416" s="14" t="s">
+      <c r="C416" s="14"/>
+      <c r="D416" s="14"/>
+      <c r="E416" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="F416" s="14"/>
-      <c r="G416" s="14"/>
-      <c r="H416" s="14"/>
-      <c r="I416" s="14"/>
-      <c r="J416" s="14"/>
-      <c r="K416" s="14"/>
+      <c r="F416" s="15"/>
+      <c r="G416" s="15"/>
+      <c r="H416" s="15"/>
+      <c r="I416" s="15"/>
+      <c r="J416" s="15"/>
+      <c r="K416" s="15"/>
     </row>
     <row r="417" spans="2:11" ht="15" customHeight="1">
-      <c r="B417" s="13" t="s">
+      <c r="B417" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C417" s="13"/>
-      <c r="D417" s="13"/>
-      <c r="E417" s="14" t="s">
+      <c r="C417" s="14"/>
+      <c r="D417" s="14"/>
+      <c r="E417" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="F417" s="14"/>
-      <c r="G417" s="14"/>
-      <c r="H417" s="14"/>
-      <c r="I417" s="14"/>
-      <c r="J417" s="14"/>
-      <c r="K417" s="14"/>
+      <c r="F417" s="15"/>
+      <c r="G417" s="15"/>
+      <c r="H417" s="15"/>
+      <c r="I417" s="15"/>
+      <c r="J417" s="15"/>
+      <c r="K417" s="15"/>
     </row>
     <row r="418" spans="2:11" ht="15" customHeight="1">
-      <c r="B418" s="13" t="s">
+      <c r="B418" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C418" s="13"/>
-      <c r="D418" s="13"/>
-      <c r="E418" s="14" t="s">
+      <c r="C418" s="14"/>
+      <c r="D418" s="14"/>
+      <c r="E418" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="F418" s="14"/>
-      <c r="G418" s="14"/>
-      <c r="H418" s="14"/>
-      <c r="I418" s="14"/>
-      <c r="J418" s="14"/>
-      <c r="K418" s="14"/>
+      <c r="F418" s="15"/>
+      <c r="G418" s="15"/>
+      <c r="H418" s="15"/>
+      <c r="I418" s="15"/>
+      <c r="J418" s="15"/>
+      <c r="K418" s="15"/>
     </row>
     <row r="419" spans="2:11" ht="15" customHeight="1">
-      <c r="B419" s="13" t="s">
+      <c r="B419" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C419" s="13"/>
-      <c r="D419" s="13"/>
-      <c r="E419" s="14" t="s">
+      <c r="C419" s="14"/>
+      <c r="D419" s="14"/>
+      <c r="E419" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="F419" s="14"/>
-      <c r="G419" s="14"/>
-      <c r="H419" s="14"/>
-      <c r="I419" s="14"/>
-      <c r="J419" s="14"/>
-      <c r="K419" s="14"/>
+      <c r="F419" s="15"/>
+      <c r="G419" s="15"/>
+      <c r="H419" s="15"/>
+      <c r="I419" s="15"/>
+      <c r="J419" s="15"/>
+      <c r="K419" s="15"/>
     </row>
     <row r="420" spans="2:11" ht="15" customHeight="1">
-      <c r="B420" s="13" t="s">
+      <c r="B420" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C420" s="13"/>
-      <c r="D420" s="13"/>
-      <c r="E420" s="14" t="s">
+      <c r="C420" s="14"/>
+      <c r="D420" s="14"/>
+      <c r="E420" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="F420" s="14"/>
-      <c r="G420" s="14"/>
-      <c r="H420" s="14"/>
-      <c r="I420" s="14"/>
-      <c r="J420" s="14"/>
-      <c r="K420" s="14"/>
+      <c r="F420" s="15"/>
+      <c r="G420" s="15"/>
+      <c r="H420" s="15"/>
+      <c r="I420" s="15"/>
+      <c r="J420" s="15"/>
+      <c r="K420" s="15"/>
     </row>
     <row r="421" spans="2:11" ht="15" customHeight="1">
-      <c r="B421" s="13" t="s">
+      <c r="B421" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C421" s="13"/>
-      <c r="D421" s="13"/>
-      <c r="E421" s="14" t="s">
+      <c r="C421" s="14"/>
+      <c r="D421" s="14"/>
+      <c r="E421" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="F421" s="14"/>
-      <c r="G421" s="14"/>
-      <c r="H421" s="14"/>
-      <c r="I421" s="14"/>
-      <c r="J421" s="14"/>
-      <c r="K421" s="14"/>
+      <c r="F421" s="15"/>
+      <c r="G421" s="15"/>
+      <c r="H421" s="15"/>
+      <c r="I421" s="15"/>
+      <c r="J421" s="15"/>
+      <c r="K421" s="15"/>
     </row>
     <row r="422" spans="2:11" ht="15" customHeight="1">
-      <c r="B422" s="13" t="s">
+      <c r="B422" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C422" s="13"/>
-      <c r="D422" s="13"/>
-      <c r="E422" s="14" t="s">
+      <c r="C422" s="14"/>
+      <c r="D422" s="14"/>
+      <c r="E422" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="F422" s="14"/>
-      <c r="G422" s="14"/>
-      <c r="H422" s="14"/>
-      <c r="I422" s="14"/>
-      <c r="J422" s="14"/>
-      <c r="K422" s="14"/>
+      <c r="F422" s="15"/>
+      <c r="G422" s="15"/>
+      <c r="H422" s="15"/>
+      <c r="I422" s="15"/>
+      <c r="J422" s="15"/>
+      <c r="K422" s="15"/>
     </row>
     <row r="425" spans="2:11" ht="19.5">
       <c r="B425" s="9" t="s">
@@ -12451,100 +12751,100 @@
       </c>
     </row>
     <row r="426" spans="2:11">
-      <c r="B426" s="15" t="s">
+      <c r="B426" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C426" s="15"/>
-      <c r="D426" s="15"/>
-      <c r="E426" s="15" t="s">
+      <c r="C426" s="16"/>
+      <c r="D426" s="16"/>
+      <c r="E426" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="F426" s="15"/>
-      <c r="G426" s="15"/>
-      <c r="H426" s="15"/>
-      <c r="I426" s="15"/>
-      <c r="J426" s="15"/>
-      <c r="K426" s="15"/>
+      <c r="F426" s="16"/>
+      <c r="G426" s="16"/>
+      <c r="H426" s="16"/>
+      <c r="I426" s="16"/>
+      <c r="J426" s="16"/>
+      <c r="K426" s="16"/>
     </row>
     <row r="427" spans="2:11">
-      <c r="B427" s="13" t="s">
+      <c r="B427" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C427" s="13"/>
-      <c r="D427" s="13"/>
-      <c r="E427" s="14" t="s">
+      <c r="C427" s="14"/>
+      <c r="D427" s="14"/>
+      <c r="E427" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="F427" s="14"/>
-      <c r="G427" s="14"/>
-      <c r="H427" s="14"/>
-      <c r="I427" s="14"/>
-      <c r="J427" s="14"/>
-      <c r="K427" s="14"/>
+      <c r="F427" s="15"/>
+      <c r="G427" s="15"/>
+      <c r="H427" s="15"/>
+      <c r="I427" s="15"/>
+      <c r="J427" s="15"/>
+      <c r="K427" s="15"/>
     </row>
     <row r="428" spans="2:11">
-      <c r="B428" s="13" t="s">
+      <c r="B428" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C428" s="13"/>
-      <c r="D428" s="13"/>
-      <c r="E428" s="14" t="s">
+      <c r="C428" s="14"/>
+      <c r="D428" s="14"/>
+      <c r="E428" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="F428" s="14"/>
-      <c r="G428" s="14"/>
-      <c r="H428" s="14"/>
-      <c r="I428" s="14"/>
-      <c r="J428" s="14"/>
-      <c r="K428" s="14"/>
+      <c r="F428" s="15"/>
+      <c r="G428" s="15"/>
+      <c r="H428" s="15"/>
+      <c r="I428" s="15"/>
+      <c r="J428" s="15"/>
+      <c r="K428" s="15"/>
     </row>
     <row r="429" spans="2:11">
-      <c r="B429" s="13" t="s">
+      <c r="B429" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="C429" s="13"/>
-      <c r="D429" s="13"/>
-      <c r="E429" s="14" t="s">
+      <c r="C429" s="14"/>
+      <c r="D429" s="14"/>
+      <c r="E429" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="F429" s="14"/>
-      <c r="G429" s="14"/>
-      <c r="H429" s="14"/>
-      <c r="I429" s="14"/>
-      <c r="J429" s="14"/>
-      <c r="K429" s="14"/>
+      <c r="F429" s="15"/>
+      <c r="G429" s="15"/>
+      <c r="H429" s="15"/>
+      <c r="I429" s="15"/>
+      <c r="J429" s="15"/>
+      <c r="K429" s="15"/>
     </row>
     <row r="430" spans="2:11">
-      <c r="B430" s="13" t="s">
+      <c r="B430" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="C430" s="13"/>
-      <c r="D430" s="13"/>
-      <c r="E430" s="14" t="s">
+      <c r="C430" s="14"/>
+      <c r="D430" s="14"/>
+      <c r="E430" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F430" s="14"/>
-      <c r="G430" s="14"/>
-      <c r="H430" s="14"/>
-      <c r="I430" s="14"/>
-      <c r="J430" s="14"/>
-      <c r="K430" s="14"/>
+      <c r="F430" s="15"/>
+      <c r="G430" s="15"/>
+      <c r="H430" s="15"/>
+      <c r="I430" s="15"/>
+      <c r="J430" s="15"/>
+      <c r="K430" s="15"/>
     </row>
     <row r="431" spans="2:11">
-      <c r="B431" s="13" t="s">
+      <c r="B431" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C431" s="13"/>
-      <c r="D431" s="13"/>
-      <c r="E431" s="14" t="s">
+      <c r="C431" s="14"/>
+      <c r="D431" s="14"/>
+      <c r="E431" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="F431" s="14"/>
-      <c r="G431" s="14"/>
-      <c r="H431" s="14"/>
-      <c r="I431" s="14"/>
-      <c r="J431" s="14"/>
-      <c r="K431" s="14"/>
+      <c r="F431" s="15"/>
+      <c r="G431" s="15"/>
+      <c r="H431" s="15"/>
+      <c r="I431" s="15"/>
+      <c r="J431" s="15"/>
+      <c r="K431" s="15"/>
     </row>
     <row r="432" spans="2:11">
       <c r="B432"/>
@@ -12563,228 +12863,228 @@
       <c r="E434"/>
     </row>
     <row r="435" spans="2:11">
-      <c r="B435" s="15" t="s">
+      <c r="B435" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="C435" s="15"/>
-      <c r="D435" s="15"/>
-      <c r="E435" s="15" t="s">
+      <c r="C435" s="16"/>
+      <c r="D435" s="16"/>
+      <c r="E435" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="F435" s="15"/>
-      <c r="G435" s="15"/>
-      <c r="H435" s="15"/>
-      <c r="I435" s="15"/>
-      <c r="J435" s="15"/>
-      <c r="K435" s="15"/>
+      <c r="F435" s="16"/>
+      <c r="G435" s="16"/>
+      <c r="H435" s="16"/>
+      <c r="I435" s="16"/>
+      <c r="J435" s="16"/>
+      <c r="K435" s="16"/>
     </row>
     <row r="436" spans="2:11">
-      <c r="B436" s="13" t="s">
+      <c r="B436" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C436" s="13"/>
-      <c r="D436" s="13"/>
-      <c r="E436" s="14" t="s">
+      <c r="C436" s="14"/>
+      <c r="D436" s="14"/>
+      <c r="E436" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="F436" s="14"/>
-      <c r="G436" s="14"/>
-      <c r="H436" s="14"/>
-      <c r="I436" s="14"/>
-      <c r="J436" s="14"/>
-      <c r="K436" s="14"/>
+      <c r="F436" s="15"/>
+      <c r="G436" s="15"/>
+      <c r="H436" s="15"/>
+      <c r="I436" s="15"/>
+      <c r="J436" s="15"/>
+      <c r="K436" s="15"/>
     </row>
     <row r="437" spans="2:11">
-      <c r="B437" s="13" t="s">
+      <c r="B437" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C437" s="13"/>
-      <c r="D437" s="13"/>
-      <c r="E437" s="14" t="s">
+      <c r="C437" s="14"/>
+      <c r="D437" s="14"/>
+      <c r="E437" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F437" s="14"/>
-      <c r="G437" s="14"/>
-      <c r="H437" s="14"/>
-      <c r="I437" s="14"/>
-      <c r="J437" s="14"/>
-      <c r="K437" s="14"/>
+      <c r="F437" s="15"/>
+      <c r="G437" s="15"/>
+      <c r="H437" s="15"/>
+      <c r="I437" s="15"/>
+      <c r="J437" s="15"/>
+      <c r="K437" s="15"/>
     </row>
     <row r="438" spans="2:11">
-      <c r="B438" s="13" t="s">
+      <c r="B438" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C438" s="13"/>
-      <c r="D438" s="13"/>
-      <c r="E438" s="14" t="s">
+      <c r="C438" s="14"/>
+      <c r="D438" s="14"/>
+      <c r="E438" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="F438" s="14"/>
-      <c r="G438" s="14"/>
-      <c r="H438" s="14"/>
-      <c r="I438" s="14"/>
-      <c r="J438" s="14"/>
-      <c r="K438" s="14"/>
+      <c r="F438" s="15"/>
+      <c r="G438" s="15"/>
+      <c r="H438" s="15"/>
+      <c r="I438" s="15"/>
+      <c r="J438" s="15"/>
+      <c r="K438" s="15"/>
     </row>
     <row r="439" spans="2:11">
-      <c r="B439" s="13" t="s">
+      <c r="B439" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C439" s="13"/>
-      <c r="D439" s="13"/>
-      <c r="E439" s="14" t="s">
+      <c r="C439" s="14"/>
+      <c r="D439" s="14"/>
+      <c r="E439" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="F439" s="14"/>
-      <c r="G439" s="14"/>
-      <c r="H439" s="14"/>
-      <c r="I439" s="14"/>
-      <c r="J439" s="14"/>
-      <c r="K439" s="14"/>
+      <c r="F439" s="15"/>
+      <c r="G439" s="15"/>
+      <c r="H439" s="15"/>
+      <c r="I439" s="15"/>
+      <c r="J439" s="15"/>
+      <c r="K439" s="15"/>
     </row>
     <row r="440" spans="2:11">
-      <c r="B440" s="13" t="s">
+      <c r="B440" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C440" s="13"/>
-      <c r="D440" s="13"/>
-      <c r="E440" s="14" t="s">
+      <c r="C440" s="14"/>
+      <c r="D440" s="14"/>
+      <c r="E440" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="F440" s="14"/>
-      <c r="G440" s="14"/>
-      <c r="H440" s="14"/>
-      <c r="I440" s="14"/>
-      <c r="J440" s="14"/>
-      <c r="K440" s="14"/>
+      <c r="F440" s="15"/>
+      <c r="G440" s="15"/>
+      <c r="H440" s="15"/>
+      <c r="I440" s="15"/>
+      <c r="J440" s="15"/>
+      <c r="K440" s="15"/>
     </row>
     <row r="441" spans="2:11">
-      <c r="B441" s="13" t="s">
+      <c r="B441" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C441" s="13"/>
-      <c r="D441" s="13"/>
-      <c r="E441" s="14" t="s">
+      <c r="C441" s="14"/>
+      <c r="D441" s="14"/>
+      <c r="E441" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="F441" s="14"/>
-      <c r="G441" s="14"/>
-      <c r="H441" s="14"/>
-      <c r="I441" s="14"/>
-      <c r="J441" s="14"/>
-      <c r="K441" s="14"/>
+      <c r="F441" s="15"/>
+      <c r="G441" s="15"/>
+      <c r="H441" s="15"/>
+      <c r="I441" s="15"/>
+      <c r="J441" s="15"/>
+      <c r="K441" s="15"/>
     </row>
     <row r="442" spans="2:11">
-      <c r="B442" s="13" t="s">
+      <c r="B442" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C442" s="13"/>
-      <c r="D442" s="13"/>
-      <c r="E442" s="14" t="s">
+      <c r="C442" s="14"/>
+      <c r="D442" s="14"/>
+      <c r="E442" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="F442" s="14"/>
-      <c r="G442" s="14"/>
-      <c r="H442" s="14"/>
-      <c r="I442" s="14"/>
-      <c r="J442" s="14"/>
-      <c r="K442" s="14"/>
+      <c r="F442" s="15"/>
+      <c r="G442" s="15"/>
+      <c r="H442" s="15"/>
+      <c r="I442" s="15"/>
+      <c r="J442" s="15"/>
+      <c r="K442" s="15"/>
     </row>
     <row r="443" spans="2:11">
-      <c r="B443" s="13" t="s">
+      <c r="B443" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C443" s="13"/>
-      <c r="D443" s="13"/>
-      <c r="E443" s="14" t="s">
+      <c r="C443" s="14"/>
+      <c r="D443" s="14"/>
+      <c r="E443" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="F443" s="14"/>
-      <c r="G443" s="14"/>
-      <c r="H443" s="14"/>
-      <c r="I443" s="14"/>
-      <c r="J443" s="14"/>
-      <c r="K443" s="14"/>
+      <c r="F443" s="15"/>
+      <c r="G443" s="15"/>
+      <c r="H443" s="15"/>
+      <c r="I443" s="15"/>
+      <c r="J443" s="15"/>
+      <c r="K443" s="15"/>
     </row>
     <row r="444" spans="2:11">
-      <c r="B444" s="13" t="s">
+      <c r="B444" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C444" s="13"/>
-      <c r="D444" s="13"/>
-      <c r="E444" s="14" t="s">
+      <c r="C444" s="14"/>
+      <c r="D444" s="14"/>
+      <c r="E444" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="F444" s="14"/>
-      <c r="G444" s="14"/>
-      <c r="H444" s="14"/>
-      <c r="I444" s="14"/>
-      <c r="J444" s="14"/>
-      <c r="K444" s="14"/>
+      <c r="F444" s="15"/>
+      <c r="G444" s="15"/>
+      <c r="H444" s="15"/>
+      <c r="I444" s="15"/>
+      <c r="J444" s="15"/>
+      <c r="K444" s="15"/>
     </row>
     <row r="445" spans="2:11">
-      <c r="B445" s="13" t="s">
+      <c r="B445" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C445" s="13"/>
-      <c r="D445" s="13"/>
-      <c r="E445" s="14" t="s">
+      <c r="C445" s="14"/>
+      <c r="D445" s="14"/>
+      <c r="E445" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="F445" s="14"/>
-      <c r="G445" s="14"/>
-      <c r="H445" s="14"/>
-      <c r="I445" s="14"/>
-      <c r="J445" s="14"/>
-      <c r="K445" s="14"/>
+      <c r="F445" s="15"/>
+      <c r="G445" s="15"/>
+      <c r="H445" s="15"/>
+      <c r="I445" s="15"/>
+      <c r="J445" s="15"/>
+      <c r="K445" s="15"/>
     </row>
     <row r="446" spans="2:11">
-      <c r="B446" s="13" t="s">
+      <c r="B446" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C446" s="13"/>
-      <c r="D446" s="13"/>
-      <c r="E446" s="14" t="s">
+      <c r="C446" s="14"/>
+      <c r="D446" s="14"/>
+      <c r="E446" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="F446" s="14"/>
-      <c r="G446" s="14"/>
-      <c r="H446" s="14"/>
-      <c r="I446" s="14"/>
-      <c r="J446" s="14"/>
-      <c r="K446" s="14"/>
+      <c r="F446" s="15"/>
+      <c r="G446" s="15"/>
+      <c r="H446" s="15"/>
+      <c r="I446" s="15"/>
+      <c r="J446" s="15"/>
+      <c r="K446" s="15"/>
     </row>
     <row r="447" spans="2:11">
-      <c r="B447" s="13" t="s">
+      <c r="B447" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C447" s="13"/>
-      <c r="D447" s="13"/>
-      <c r="E447" s="14" t="s">
+      <c r="C447" s="14"/>
+      <c r="D447" s="14"/>
+      <c r="E447" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="F447" s="14"/>
-      <c r="G447" s="14"/>
-      <c r="H447" s="14"/>
-      <c r="I447" s="14"/>
-      <c r="J447" s="14"/>
-      <c r="K447" s="14"/>
+      <c r="F447" s="15"/>
+      <c r="G447" s="15"/>
+      <c r="H447" s="15"/>
+      <c r="I447" s="15"/>
+      <c r="J447" s="15"/>
+      <c r="K447" s="15"/>
     </row>
     <row r="448" spans="2:11">
-      <c r="B448" s="13" t="s">
+      <c r="B448" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C448" s="13"/>
-      <c r="D448" s="13"/>
-      <c r="E448" s="14" t="s">
+      <c r="C448" s="14"/>
+      <c r="D448" s="14"/>
+      <c r="E448" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="F448" s="14"/>
-      <c r="G448" s="14"/>
-      <c r="H448" s="14"/>
-      <c r="I448" s="14"/>
-      <c r="J448" s="14"/>
-      <c r="K448" s="14"/>
+      <c r="F448" s="15"/>
+      <c r="G448" s="15"/>
+      <c r="H448" s="15"/>
+      <c r="I448" s="15"/>
+      <c r="J448" s="15"/>
+      <c r="K448" s="15"/>
     </row>
     <row r="450" spans="1:14" s="3" customFormat="1">
       <c r="A450" s="3" t="s">
@@ -13884,155 +14184,155 @@
       </c>
     </row>
     <row r="1132" spans="1:11">
-      <c r="B1132" s="15" t="s">
+      <c r="B1132" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="C1132" s="15"/>
-      <c r="D1132" s="15"/>
-      <c r="E1132" s="15" t="s">
+      <c r="C1132" s="16"/>
+      <c r="D1132" s="16"/>
+      <c r="E1132" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="F1132" s="15"/>
-      <c r="G1132" s="15"/>
-      <c r="H1132" s="15"/>
-      <c r="I1132" s="15"/>
-      <c r="J1132" s="15"/>
-      <c r="K1132" s="15"/>
+      <c r="F1132" s="16"/>
+      <c r="G1132" s="16"/>
+      <c r="H1132" s="16"/>
+      <c r="I1132" s="16"/>
+      <c r="J1132" s="16"/>
+      <c r="K1132" s="16"/>
     </row>
     <row r="1133" spans="1:11">
-      <c r="B1133" s="13" t="s">
+      <c r="B1133" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="C1133" s="13"/>
-      <c r="D1133" s="13"/>
-      <c r="E1133" s="14" t="s">
+      <c r="C1133" s="14"/>
+      <c r="D1133" s="14"/>
+      <c r="E1133" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="F1133" s="14"/>
-      <c r="G1133" s="14"/>
-      <c r="H1133" s="14"/>
-      <c r="I1133" s="14"/>
-      <c r="J1133" s="14"/>
-      <c r="K1133" s="14"/>
+      <c r="F1133" s="15"/>
+      <c r="G1133" s="15"/>
+      <c r="H1133" s="15"/>
+      <c r="I1133" s="15"/>
+      <c r="J1133" s="15"/>
+      <c r="K1133" s="15"/>
     </row>
     <row r="1134" spans="1:11">
-      <c r="B1134" s="13" t="s">
+      <c r="B1134" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="C1134" s="13"/>
-      <c r="D1134" s="13"/>
-      <c r="E1134" s="14" t="s">
+      <c r="C1134" s="14"/>
+      <c r="D1134" s="14"/>
+      <c r="E1134" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F1134" s="14"/>
-      <c r="G1134" s="14"/>
-      <c r="H1134" s="14"/>
-      <c r="I1134" s="14"/>
-      <c r="J1134" s="14"/>
-      <c r="K1134" s="14"/>
+      <c r="F1134" s="15"/>
+      <c r="G1134" s="15"/>
+      <c r="H1134" s="15"/>
+      <c r="I1134" s="15"/>
+      <c r="J1134" s="15"/>
+      <c r="K1134" s="15"/>
     </row>
     <row r="1135" spans="1:11">
-      <c r="B1135" s="13" t="s">
+      <c r="B1135" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="C1135" s="13"/>
-      <c r="D1135" s="13"/>
-      <c r="E1135" s="14" t="s">
+      <c r="C1135" s="14"/>
+      <c r="D1135" s="14"/>
+      <c r="E1135" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="F1135" s="14"/>
-      <c r="G1135" s="14"/>
-      <c r="H1135" s="14"/>
-      <c r="I1135" s="14"/>
-      <c r="J1135" s="14"/>
-      <c r="K1135" s="14"/>
+      <c r="F1135" s="15"/>
+      <c r="G1135" s="15"/>
+      <c r="H1135" s="15"/>
+      <c r="I1135" s="15"/>
+      <c r="J1135" s="15"/>
+      <c r="K1135" s="15"/>
     </row>
     <row r="1136" spans="1:11">
-      <c r="B1136" s="13" t="s">
+      <c r="B1136" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="C1136" s="13"/>
-      <c r="D1136" s="13"/>
-      <c r="E1136" s="14" t="s">
+      <c r="C1136" s="14"/>
+      <c r="D1136" s="14"/>
+      <c r="E1136" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="F1136" s="14"/>
-      <c r="G1136" s="14"/>
-      <c r="H1136" s="14"/>
-      <c r="I1136" s="14"/>
-      <c r="J1136" s="14"/>
-      <c r="K1136" s="14"/>
+      <c r="F1136" s="15"/>
+      <c r="G1136" s="15"/>
+      <c r="H1136" s="15"/>
+      <c r="I1136" s="15"/>
+      <c r="J1136" s="15"/>
+      <c r="K1136" s="15"/>
     </row>
     <row r="1137" spans="2:11">
-      <c r="B1137" s="13" t="s">
+      <c r="B1137" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="C1137" s="13"/>
-      <c r="D1137" s="13"/>
-      <c r="E1137" s="14" t="s">
+      <c r="C1137" s="14"/>
+      <c r="D1137" s="14"/>
+      <c r="E1137" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="F1137" s="14"/>
-      <c r="G1137" s="14"/>
-      <c r="H1137" s="14"/>
-      <c r="I1137" s="14"/>
-      <c r="J1137" s="14"/>
-      <c r="K1137" s="14"/>
+      <c r="F1137" s="15"/>
+      <c r="G1137" s="15"/>
+      <c r="H1137" s="15"/>
+      <c r="I1137" s="15"/>
+      <c r="J1137" s="15"/>
+      <c r="K1137" s="15"/>
     </row>
     <row r="1138" spans="2:11">
-      <c r="B1138" s="13" t="s">
+      <c r="B1138" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="C1138" s="13"/>
-      <c r="D1138" s="13"/>
-      <c r="E1138" s="14" t="s">
+      <c r="C1138" s="14"/>
+      <c r="D1138" s="14"/>
+      <c r="E1138" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="F1138" s="14"/>
-      <c r="G1138" s="14"/>
-      <c r="H1138" s="14"/>
-      <c r="I1138" s="14"/>
-      <c r="J1138" s="14"/>
-      <c r="K1138" s="14"/>
+      <c r="F1138" s="15"/>
+      <c r="G1138" s="15"/>
+      <c r="H1138" s="15"/>
+      <c r="I1138" s="15"/>
+      <c r="J1138" s="15"/>
+      <c r="K1138" s="15"/>
     </row>
     <row r="1139" spans="2:11">
-      <c r="B1139" s="13" t="s">
+      <c r="B1139" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="C1139" s="13"/>
-      <c r="D1139" s="13"/>
-      <c r="E1139" s="14" t="s">
+      <c r="C1139" s="14"/>
+      <c r="D1139" s="14"/>
+      <c r="E1139" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="F1139" s="14"/>
-      <c r="G1139" s="14"/>
-      <c r="H1139" s="14"/>
-      <c r="I1139" s="14"/>
-      <c r="J1139" s="14"/>
-      <c r="K1139" s="14"/>
+      <c r="F1139" s="15"/>
+      <c r="G1139" s="15"/>
+      <c r="H1139" s="15"/>
+      <c r="I1139" s="15"/>
+      <c r="J1139" s="15"/>
+      <c r="K1139" s="15"/>
     </row>
     <row r="1140" spans="2:11">
-      <c r="B1140" s="13" t="s">
+      <c r="B1140" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="C1140" s="13"/>
-      <c r="D1140" s="13"/>
-      <c r="E1140" s="14" t="s">
+      <c r="C1140" s="14"/>
+      <c r="D1140" s="14"/>
+      <c r="E1140" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="F1140" s="14"/>
-      <c r="G1140" s="14"/>
-      <c r="H1140" s="14"/>
-      <c r="I1140" s="14"/>
-      <c r="J1140" s="14"/>
-      <c r="K1140" s="14"/>
+      <c r="F1140" s="15"/>
+      <c r="G1140" s="15"/>
+      <c r="H1140" s="15"/>
+      <c r="I1140" s="15"/>
+      <c r="J1140" s="15"/>
+      <c r="K1140" s="15"/>
     </row>
     <row r="1141" spans="2:11">
       <c r="B1141"/>
       <c r="E1141"/>
     </row>
     <row r="1142" spans="2:11" ht="18.75">
-      <c r="B1142" s="16" t="s">
+      <c r="B1142" s="13" t="s">
         <v>502</v>
       </c>
       <c r="E1142"/>
@@ -14043,247 +14343,1019 @@
       </c>
     </row>
     <row r="1144" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B1144" s="15" t="s">
+      <c r="B1144" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="C1144" s="15"/>
-      <c r="D1144" s="15"/>
-      <c r="E1144" s="15" t="s">
+      <c r="C1144" s="16"/>
+      <c r="D1144" s="16"/>
+      <c r="E1144" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="F1144" s="15"/>
-      <c r="G1144" s="15"/>
-      <c r="H1144" s="15"/>
-      <c r="I1144" s="15"/>
-      <c r="J1144" s="15"/>
-      <c r="K1144" s="15"/>
+      <c r="F1144" s="16"/>
+      <c r="G1144" s="16"/>
+      <c r="H1144" s="16"/>
+      <c r="I1144" s="16"/>
+      <c r="J1144" s="16"/>
+      <c r="K1144" s="16"/>
     </row>
     <row r="1145" spans="2:11">
-      <c r="B1145" s="13" t="s">
+      <c r="B1145" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="C1145" s="13"/>
-      <c r="D1145" s="13"/>
-      <c r="E1145" s="14" t="s">
+      <c r="C1145" s="14"/>
+      <c r="D1145" s="14"/>
+      <c r="E1145" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="F1145" s="14"/>
-      <c r="G1145" s="14"/>
-      <c r="H1145" s="14"/>
-      <c r="I1145" s="14"/>
-      <c r="J1145" s="14"/>
-      <c r="K1145" s="14"/>
+      <c r="F1145" s="15"/>
+      <c r="G1145" s="15"/>
+      <c r="H1145" s="15"/>
+      <c r="I1145" s="15"/>
+      <c r="J1145" s="15"/>
+      <c r="K1145" s="15"/>
     </row>
     <row r="1146" spans="2:11">
-      <c r="B1146" s="13" t="s">
+      <c r="B1146" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="C1146" s="13"/>
-      <c r="D1146" s="13"/>
-      <c r="E1146" s="14" t="s">
+      <c r="C1146" s="14"/>
+      <c r="D1146" s="14"/>
+      <c r="E1146" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="F1146" s="14"/>
-      <c r="G1146" s="14"/>
-      <c r="H1146" s="14"/>
-      <c r="I1146" s="14"/>
-      <c r="J1146" s="14"/>
-      <c r="K1146" s="14"/>
+      <c r="F1146" s="15"/>
+      <c r="G1146" s="15"/>
+      <c r="H1146" s="15"/>
+      <c r="I1146" s="15"/>
+      <c r="J1146" s="15"/>
+      <c r="K1146" s="15"/>
     </row>
     <row r="1147" spans="2:11">
-      <c r="B1147" s="13" t="s">
+      <c r="B1147" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="C1147" s="13"/>
-      <c r="D1147" s="13"/>
-      <c r="E1147" s="14" t="s">
+      <c r="C1147" s="14"/>
+      <c r="D1147" s="14"/>
+      <c r="E1147" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="F1147" s="14"/>
-      <c r="G1147" s="14"/>
-      <c r="H1147" s="14"/>
-      <c r="I1147" s="14"/>
-      <c r="J1147" s="14"/>
-      <c r="K1147" s="14"/>
+      <c r="F1147" s="15"/>
+      <c r="G1147" s="15"/>
+      <c r="H1147" s="15"/>
+      <c r="I1147" s="15"/>
+      <c r="J1147" s="15"/>
+      <c r="K1147" s="15"/>
     </row>
     <row r="1148" spans="2:11">
-      <c r="B1148" s="13" t="s">
+      <c r="B1148" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="C1148" s="13"/>
-      <c r="D1148" s="13"/>
-      <c r="E1148" s="14" t="s">
+      <c r="C1148" s="14"/>
+      <c r="D1148" s="14"/>
+      <c r="E1148" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="F1148" s="14"/>
-      <c r="G1148" s="14"/>
-      <c r="H1148" s="14"/>
-      <c r="I1148" s="14"/>
-      <c r="J1148" s="14"/>
-      <c r="K1148" s="14"/>
+      <c r="F1148" s="15"/>
+      <c r="G1148" s="15"/>
+      <c r="H1148" s="15"/>
+      <c r="I1148" s="15"/>
+      <c r="J1148" s="15"/>
+      <c r="K1148" s="15"/>
     </row>
     <row r="1149" spans="2:11">
-      <c r="B1149" s="13" t="s">
+      <c r="B1149" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="C1149" s="13"/>
-      <c r="D1149" s="13"/>
-      <c r="E1149" s="14" t="s">
+      <c r="C1149" s="14"/>
+      <c r="D1149" s="14"/>
+      <c r="E1149" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="F1149" s="14"/>
-      <c r="G1149" s="14"/>
-      <c r="H1149" s="14"/>
-      <c r="I1149" s="14"/>
-      <c r="J1149" s="14"/>
-      <c r="K1149" s="14"/>
+      <c r="F1149" s="15"/>
+      <c r="G1149" s="15"/>
+      <c r="H1149" s="15"/>
+      <c r="I1149" s="15"/>
+      <c r="J1149" s="15"/>
+      <c r="K1149" s="15"/>
     </row>
     <row r="1150" spans="2:11">
-      <c r="B1150" s="13" t="s">
+      <c r="B1150" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C1150" s="13"/>
-      <c r="D1150" s="13"/>
-      <c r="E1150" s="14" t="s">
+      <c r="C1150" s="14"/>
+      <c r="D1150" s="14"/>
+      <c r="E1150" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="F1150" s="14"/>
-      <c r="G1150" s="14"/>
-      <c r="H1150" s="14"/>
-      <c r="I1150" s="14"/>
-      <c r="J1150" s="14"/>
-      <c r="K1150" s="14"/>
+      <c r="F1150" s="15"/>
+      <c r="G1150" s="15"/>
+      <c r="H1150" s="15"/>
+      <c r="I1150" s="15"/>
+      <c r="J1150" s="15"/>
+      <c r="K1150" s="15"/>
     </row>
     <row r="1151" spans="2:11">
-      <c r="B1151" s="13" t="s">
+      <c r="B1151" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="C1151" s="13"/>
-      <c r="D1151" s="13"/>
-      <c r="E1151" s="14" t="s">
+      <c r="C1151" s="14"/>
+      <c r="D1151" s="14"/>
+      <c r="E1151" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="F1151" s="14"/>
-      <c r="G1151" s="14"/>
-      <c r="H1151" s="14"/>
-      <c r="I1151" s="14"/>
-      <c r="J1151" s="14"/>
-      <c r="K1151" s="14"/>
+      <c r="F1151" s="15"/>
+      <c r="G1151" s="15"/>
+      <c r="H1151" s="15"/>
+      <c r="I1151" s="15"/>
+      <c r="J1151" s="15"/>
+      <c r="K1151" s="15"/>
     </row>
     <row r="1152" spans="2:11">
-      <c r="B1152" s="13" t="s">
+      <c r="B1152" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="C1152" s="13"/>
-      <c r="D1152" s="13"/>
-      <c r="E1152" s="14" t="s">
+      <c r="C1152" s="14"/>
+      <c r="D1152" s="14"/>
+      <c r="E1152" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="F1152" s="14"/>
-      <c r="G1152" s="14"/>
-      <c r="H1152" s="14"/>
-      <c r="I1152" s="14"/>
-      <c r="J1152" s="14"/>
-      <c r="K1152" s="14"/>
+      <c r="F1152" s="15"/>
+      <c r="G1152" s="15"/>
+      <c r="H1152" s="15"/>
+      <c r="I1152" s="15"/>
+      <c r="J1152" s="15"/>
+      <c r="K1152" s="15"/>
+    </row>
+    <row r="1155" spans="1:11" s="3" customFormat="1">
+      <c r="A1155" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:11" ht="18.75">
+      <c r="B1157" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:11">
+      <c r="B1159" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1159" s="16"/>
+      <c r="D1159" s="16"/>
+      <c r="E1159" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1159" s="16"/>
+      <c r="G1159" s="16"/>
+      <c r="H1159" s="16"/>
+      <c r="I1159" s="16"/>
+      <c r="J1159" s="16"/>
+      <c r="K1159" s="16"/>
+    </row>
+    <row r="1160" spans="1:11">
+      <c r="B1160" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1160" s="14"/>
+      <c r="D1160" s="14"/>
+      <c r="E1160" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1160" s="15"/>
+      <c r="G1160" s="15"/>
+      <c r="H1160" s="15"/>
+      <c r="I1160" s="15"/>
+      <c r="J1160" s="15"/>
+      <c r="K1160" s="15"/>
+    </row>
+    <row r="1161" spans="1:11">
+      <c r="B1161" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1161" s="14"/>
+      <c r="D1161" s="14"/>
+      <c r="E1161" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="F1161" s="15"/>
+      <c r="G1161" s="15"/>
+      <c r="H1161" s="15"/>
+      <c r="I1161" s="15"/>
+      <c r="J1161" s="15"/>
+      <c r="K1161" s="15"/>
+    </row>
+    <row r="1162" spans="1:11">
+      <c r="B1162" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1162" s="14"/>
+      <c r="D1162" s="14"/>
+      <c r="E1162" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="F1162" s="15"/>
+      <c r="G1162" s="15"/>
+      <c r="H1162" s="15"/>
+      <c r="I1162" s="15"/>
+      <c r="J1162" s="15"/>
+      <c r="K1162" s="15"/>
+    </row>
+    <row r="1163" spans="1:11">
+      <c r="B1163" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1163" s="14"/>
+      <c r="D1163" s="14"/>
+      <c r="E1163" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="F1163" s="15"/>
+      <c r="G1163" s="15"/>
+      <c r="H1163" s="15"/>
+      <c r="I1163" s="15"/>
+      <c r="J1163" s="15"/>
+      <c r="K1163" s="15"/>
+    </row>
+    <row r="1164" spans="1:11">
+      <c r="B1164" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1164" s="14"/>
+      <c r="D1164" s="14"/>
+      <c r="E1164" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1164" s="15"/>
+      <c r="G1164" s="15"/>
+      <c r="H1164" s="15"/>
+      <c r="I1164" s="15"/>
+      <c r="J1164" s="15"/>
+      <c r="K1164" s="15"/>
+    </row>
+    <row r="1165" spans="1:11">
+      <c r="B1165" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1165" s="14"/>
+      <c r="D1165" s="14"/>
+      <c r="E1165" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="F1165" s="15"/>
+      <c r="G1165" s="15"/>
+      <c r="H1165" s="15"/>
+      <c r="I1165" s="15"/>
+      <c r="J1165" s="15"/>
+      <c r="K1165" s="15"/>
+    </row>
+    <row r="1166" spans="1:11">
+      <c r="B1166" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1166" s="14"/>
+      <c r="D1166" s="14"/>
+      <c r="E1166" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1166" s="15"/>
+      <c r="G1166" s="15"/>
+      <c r="H1166" s="15"/>
+      <c r="I1166" s="15"/>
+      <c r="J1166" s="15"/>
+      <c r="K1166" s="15"/>
+    </row>
+    <row r="1167" spans="1:11">
+      <c r="B1167" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1167" s="14"/>
+      <c r="D1167" s="14"/>
+      <c r="E1167" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1167" s="15"/>
+      <c r="G1167" s="15"/>
+      <c r="H1167" s="15"/>
+      <c r="I1167" s="15"/>
+      <c r="J1167" s="15"/>
+      <c r="K1167" s="15"/>
+    </row>
+    <row r="1168" spans="1:11">
+      <c r="B1168" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1168" s="14"/>
+      <c r="D1168" s="14"/>
+      <c r="E1168" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1168" s="15"/>
+      <c r="G1168" s="15"/>
+      <c r="H1168" s="15"/>
+      <c r="I1168" s="15"/>
+      <c r="J1168" s="15"/>
+      <c r="K1168" s="15"/>
+    </row>
+    <row r="1169" spans="2:11">
+      <c r="B1169" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1169" s="14"/>
+      <c r="D1169" s="14"/>
+      <c r="E1169" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1169" s="15"/>
+      <c r="G1169" s="15"/>
+      <c r="H1169" s="15"/>
+      <c r="I1169" s="15"/>
+      <c r="J1169" s="15"/>
+      <c r="K1169" s="15"/>
+    </row>
+    <row r="1170" spans="2:11">
+      <c r="B1170" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1170" s="14"/>
+      <c r="D1170" s="14"/>
+      <c r="E1170" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="F1170" s="15"/>
+      <c r="G1170" s="15"/>
+      <c r="H1170" s="15"/>
+      <c r="I1170" s="15"/>
+      <c r="J1170" s="15"/>
+      <c r="K1170" s="15"/>
+    </row>
+    <row r="1171" spans="2:11">
+      <c r="B1171" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1171" s="20"/>
+      <c r="D1171" s="20"/>
+      <c r="E1171" s="20"/>
+      <c r="F1171" s="20"/>
+      <c r="G1171" s="20"/>
+      <c r="H1171" s="20"/>
+      <c r="I1171" s="20"/>
+      <c r="J1171" s="20"/>
+      <c r="K1171" s="21"/>
+    </row>
+    <row r="1172" spans="2:11">
+      <c r="B1172" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1172" s="14"/>
+      <c r="D1172" s="14"/>
+      <c r="E1172" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="F1172" s="15"/>
+      <c r="G1172" s="15"/>
+      <c r="H1172" s="15"/>
+      <c r="I1172" s="15"/>
+      <c r="J1172" s="15"/>
+      <c r="K1172" s="15"/>
+    </row>
+    <row r="1173" spans="2:11">
+      <c r="B1173" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1173" s="14"/>
+      <c r="D1173" s="14"/>
+      <c r="E1173" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F1173" s="15"/>
+      <c r="G1173" s="15"/>
+      <c r="H1173" s="15"/>
+      <c r="I1173" s="15"/>
+      <c r="J1173" s="15"/>
+      <c r="K1173" s="15"/>
+    </row>
+    <row r="1174" spans="2:11">
+      <c r="B1174" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1174" s="14"/>
+      <c r="D1174" s="14"/>
+      <c r="E1174" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="F1174" s="15"/>
+      <c r="G1174" s="15"/>
+      <c r="H1174" s="15"/>
+      <c r="I1174" s="15"/>
+      <c r="J1174" s="15"/>
+      <c r="K1174" s="15"/>
+    </row>
+    <row r="1175" spans="2:11">
+      <c r="B1175" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1175" s="14"/>
+      <c r="D1175" s="14"/>
+      <c r="E1175" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="F1175" s="15"/>
+      <c r="G1175" s="15"/>
+      <c r="H1175" s="15"/>
+      <c r="I1175" s="15"/>
+      <c r="J1175" s="15"/>
+      <c r="K1175" s="15"/>
+    </row>
+    <row r="1176" spans="2:11">
+      <c r="B1176" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1176" s="14"/>
+      <c r="D1176" s="14"/>
+      <c r="E1176" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="F1176" s="15"/>
+      <c r="G1176" s="15"/>
+      <c r="H1176" s="15"/>
+      <c r="I1176" s="15"/>
+      <c r="J1176" s="15"/>
+      <c r="K1176" s="15"/>
+    </row>
+    <row r="1179" spans="2:11" ht="18.75">
+      <c r="B1179" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="1181" spans="2:11">
+      <c r="B1181" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1181" s="16"/>
+      <c r="D1181" s="16"/>
+      <c r="E1181" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1181" s="16"/>
+      <c r="G1181" s="16"/>
+      <c r="H1181" s="16"/>
+      <c r="I1181" s="16"/>
+      <c r="J1181" s="16"/>
+      <c r="K1181" s="16"/>
+    </row>
+    <row r="1182" spans="2:11">
+      <c r="B1182" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1182" s="14"/>
+      <c r="D1182" s="14"/>
+      <c r="E1182" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="F1182" s="15"/>
+      <c r="G1182" s="15"/>
+      <c r="H1182" s="15"/>
+      <c r="I1182" s="15"/>
+      <c r="J1182" s="15"/>
+      <c r="K1182" s="15"/>
+    </row>
+    <row r="1183" spans="2:11">
+      <c r="B1183" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1183" s="14"/>
+      <c r="D1183" s="14"/>
+      <c r="E1183" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1183" s="15"/>
+      <c r="G1183" s="15"/>
+      <c r="H1183" s="15"/>
+      <c r="I1183" s="15"/>
+      <c r="J1183" s="15"/>
+      <c r="K1183" s="15"/>
+    </row>
+    <row r="1184" spans="2:11">
+      <c r="B1184" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1184" s="14"/>
+      <c r="D1184" s="14"/>
+      <c r="E1184" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="F1184" s="15"/>
+      <c r="G1184" s="15"/>
+      <c r="H1184" s="15"/>
+      <c r="I1184" s="15"/>
+      <c r="J1184" s="15"/>
+      <c r="K1184" s="15"/>
+    </row>
+    <row r="1185" spans="2:14">
+      <c r="B1185" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1185" s="14"/>
+      <c r="D1185" s="14"/>
+      <c r="E1185" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="F1185" s="15"/>
+      <c r="G1185" s="15"/>
+      <c r="H1185" s="15"/>
+      <c r="I1185" s="15"/>
+      <c r="J1185" s="15"/>
+      <c r="K1185" s="15"/>
+    </row>
+    <row r="1186" spans="2:14">
+      <c r="B1186" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1186" s="14"/>
+      <c r="D1186" s="14"/>
+      <c r="E1186" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="F1186" s="15"/>
+      <c r="G1186" s="15"/>
+      <c r="H1186" s="15"/>
+      <c r="I1186" s="15"/>
+      <c r="J1186" s="15"/>
+      <c r="K1186" s="15"/>
+    </row>
+    <row r="1187" spans="2:14">
+      <c r="B1187" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1187" s="14"/>
+      <c r="D1187" s="14"/>
+      <c r="E1187" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1187" s="15"/>
+      <c r="G1187" s="15"/>
+      <c r="H1187" s="15"/>
+      <c r="I1187" s="15"/>
+      <c r="J1187" s="15"/>
+      <c r="K1187" s="15"/>
+    </row>
+    <row r="1188" spans="2:14">
+      <c r="B1188" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1188" s="14"/>
+      <c r="D1188" s="14"/>
+      <c r="E1188" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1188" s="15"/>
+      <c r="G1188" s="15"/>
+      <c r="H1188" s="15"/>
+      <c r="I1188" s="15"/>
+      <c r="J1188" s="15"/>
+      <c r="K1188" s="15"/>
+    </row>
+    <row r="1189" spans="2:14">
+      <c r="B1189" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1189" s="14"/>
+      <c r="D1189" s="14"/>
+      <c r="E1189" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1189" s="15"/>
+      <c r="G1189" s="15"/>
+      <c r="H1189" s="15"/>
+      <c r="I1189" s="15"/>
+      <c r="J1189" s="15"/>
+      <c r="K1189" s="15"/>
+    </row>
+    <row r="1190" spans="2:14">
+      <c r="B1190" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1190" s="14"/>
+      <c r="D1190" s="14"/>
+      <c r="E1190" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1190" s="15"/>
+      <c r="G1190" s="15"/>
+      <c r="H1190" s="15"/>
+      <c r="I1190" s="15"/>
+      <c r="J1190" s="15"/>
+      <c r="K1190" s="15"/>
+    </row>
+    <row r="1191" spans="2:14">
+      <c r="B1191" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="C1191" s="20"/>
+      <c r="D1191" s="20"/>
+      <c r="E1191" s="20"/>
+      <c r="F1191" s="20"/>
+      <c r="G1191" s="20"/>
+      <c r="H1191" s="20"/>
+      <c r="I1191" s="20"/>
+      <c r="J1191" s="20"/>
+      <c r="K1191" s="21"/>
+    </row>
+    <row r="1192" spans="2:14" ht="14.25">
+      <c r="B1192" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1192" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1192" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1192" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="F1192" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="G1192" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="H1192" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1192" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="J1192" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="K1192" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="M1192" s="17"/>
+      <c r="N1192" s="17"/>
+    </row>
+    <row r="1193" spans="2:14" ht="14.25">
+      <c r="B1193" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1193" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1193" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1193" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="F1193" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="G1193" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="H1193" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="I1193" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1193" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="K1193" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="M1193" s="17"/>
+      <c r="N1193" s="17"/>
+    </row>
+    <row r="1194" spans="2:14" ht="14.25">
+      <c r="B1194" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1194" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1194" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1194" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1194" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="G1194" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="H1194" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="I1194" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="J1194" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="K1194" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="M1194" s="17"/>
+      <c r="N1194" s="17"/>
+    </row>
+    <row r="1195" spans="2:14" ht="14.25">
+      <c r="B1195" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1195" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1195" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1195" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F1195" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="G1195" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="H1195" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1195" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="J1195" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="K1195" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="M1195" s="17"/>
+      <c r="N1195" s="17"/>
+    </row>
+    <row r="1196" spans="2:14" ht="14.25">
+      <c r="B1196" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1196" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1196" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1196" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="F1196" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="G1196" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="H1196" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="I1196" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="J1196" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="K1196" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="M1196" s="17"/>
+      <c r="N1196" s="17"/>
+    </row>
+    <row r="1197" spans="2:14" ht="14.25">
+      <c r="B1197" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1197" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="D1197" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1197" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1197" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="G1197" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="H1197" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="I1197" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="J1197" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="K1197" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="M1197" s="17"/>
+      <c r="N1197" s="17"/>
+    </row>
+    <row r="1198" spans="2:14" ht="14.25">
+      <c r="B1198" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1198" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1198" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="E1198" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="F1198" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="G1198" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="H1198" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="I1198" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="J1198" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="K1198" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="M1198" s="17"/>
+      <c r="N1198" s="17"/>
+    </row>
+    <row r="1201" spans="1:3" s="3" customFormat="1">
+      <c r="A1201" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1201" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3">
+      <c r="B1202" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3">
+      <c r="B1203" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1203" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3">
+      <c r="B1204" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1204" s="1" t="s">
+        <v>597</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="176">
-    <mergeCell ref="B1149:D1149"/>
-    <mergeCell ref="E1149:K1149"/>
-    <mergeCell ref="B1150:D1150"/>
-    <mergeCell ref="E1150:K1150"/>
-    <mergeCell ref="B1151:D1151"/>
-    <mergeCell ref="E1151:K1151"/>
-    <mergeCell ref="B1152:D1152"/>
-    <mergeCell ref="E1152:K1152"/>
-    <mergeCell ref="B1144:D1144"/>
-    <mergeCell ref="E1144:K1144"/>
-    <mergeCell ref="B1145:D1145"/>
-    <mergeCell ref="E1145:K1145"/>
-    <mergeCell ref="B1146:D1146"/>
-    <mergeCell ref="E1146:K1146"/>
-    <mergeCell ref="B1147:D1147"/>
-    <mergeCell ref="E1147:K1147"/>
-    <mergeCell ref="B1148:D1148"/>
-    <mergeCell ref="E1148:K1148"/>
-    <mergeCell ref="B1132:D1132"/>
-    <mergeCell ref="E1132:K1132"/>
-    <mergeCell ref="B1133:D1133"/>
-    <mergeCell ref="E1133:K1133"/>
-    <mergeCell ref="B1134:D1134"/>
-    <mergeCell ref="E1134:K1134"/>
-    <mergeCell ref="B1135:D1135"/>
-    <mergeCell ref="E1135:K1135"/>
-    <mergeCell ref="B1136:D1136"/>
-    <mergeCell ref="E1136:K1136"/>
-    <mergeCell ref="B1137:D1137"/>
-    <mergeCell ref="E1137:K1137"/>
-    <mergeCell ref="B1138:D1138"/>
-    <mergeCell ref="E1138:K1138"/>
-    <mergeCell ref="B1139:D1139"/>
-    <mergeCell ref="E1139:K1139"/>
-    <mergeCell ref="B1140:D1140"/>
-    <mergeCell ref="E1140:K1140"/>
-    <mergeCell ref="B446:D446"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="B447:D447"/>
-    <mergeCell ref="E447:K447"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="E448:K448"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:K443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:K444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:K445"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:K440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:K441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:K442"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:K438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:K439"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:K430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:K431"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:K436"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:K426"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:K435"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:K427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="E428:K428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:K429"/>
-    <mergeCell ref="E418:K418"/>
-    <mergeCell ref="E419:K419"/>
-    <mergeCell ref="E420:K420"/>
-    <mergeCell ref="E421:K421"/>
-    <mergeCell ref="E422:K422"/>
-    <mergeCell ref="E411:K411"/>
-    <mergeCell ref="E412:K412"/>
-    <mergeCell ref="E413:K413"/>
-    <mergeCell ref="E414:K414"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
+  <mergeCells count="246">
+    <mergeCell ref="B1174:D1174"/>
+    <mergeCell ref="E1174:K1174"/>
+    <mergeCell ref="B1175:D1175"/>
+    <mergeCell ref="E1175:K1175"/>
+    <mergeCell ref="B1176:D1176"/>
+    <mergeCell ref="E1176:K1176"/>
+    <mergeCell ref="B1171:K1171"/>
+    <mergeCell ref="B1191:K1191"/>
+    <mergeCell ref="B1169:D1169"/>
+    <mergeCell ref="E1169:K1169"/>
+    <mergeCell ref="B1170:D1170"/>
+    <mergeCell ref="E1170:K1170"/>
+    <mergeCell ref="B1172:D1172"/>
+    <mergeCell ref="E1172:K1172"/>
+    <mergeCell ref="B1173:D1173"/>
+    <mergeCell ref="E1173:K1173"/>
+    <mergeCell ref="B1164:D1164"/>
+    <mergeCell ref="E1164:K1164"/>
+    <mergeCell ref="B1165:D1165"/>
+    <mergeCell ref="E1165:K1165"/>
+    <mergeCell ref="B1166:D1166"/>
+    <mergeCell ref="E1166:K1166"/>
+    <mergeCell ref="B1167:D1167"/>
+    <mergeCell ref="E1167:K1167"/>
+    <mergeCell ref="B1168:D1168"/>
+    <mergeCell ref="E1168:K1168"/>
+    <mergeCell ref="E1159:K1159"/>
+    <mergeCell ref="B1160:D1160"/>
+    <mergeCell ref="E1160:K1160"/>
+    <mergeCell ref="B1161:D1161"/>
+    <mergeCell ref="E1161:K1161"/>
+    <mergeCell ref="B1162:D1162"/>
+    <mergeCell ref="E1162:K1162"/>
+    <mergeCell ref="B1163:D1163"/>
+    <mergeCell ref="E1163:K1163"/>
+    <mergeCell ref="B1195:D1195"/>
+    <mergeCell ref="E1195:K1195"/>
+    <mergeCell ref="B1196:D1196"/>
+    <mergeCell ref="E1196:K1196"/>
+    <mergeCell ref="B1197:D1197"/>
+    <mergeCell ref="E1197:K1197"/>
+    <mergeCell ref="B1198:D1198"/>
+    <mergeCell ref="E1198:K1198"/>
+    <mergeCell ref="E1190:K1190"/>
+    <mergeCell ref="B1192:D1192"/>
+    <mergeCell ref="E1192:K1192"/>
+    <mergeCell ref="B1193:D1193"/>
+    <mergeCell ref="E1193:K1193"/>
+    <mergeCell ref="B1194:D1194"/>
+    <mergeCell ref="E1194:K1194"/>
+    <mergeCell ref="B1181:D1181"/>
+    <mergeCell ref="E1181:K1181"/>
+    <mergeCell ref="B1182:D1182"/>
+    <mergeCell ref="E1182:K1182"/>
+    <mergeCell ref="B1183:D1183"/>
+    <mergeCell ref="E1183:K1183"/>
+    <mergeCell ref="B1184:D1184"/>
+    <mergeCell ref="E1184:K1184"/>
+    <mergeCell ref="B1185:D1185"/>
+    <mergeCell ref="E1185:K1185"/>
+    <mergeCell ref="B1186:D1186"/>
+    <mergeCell ref="E1186:K1186"/>
+    <mergeCell ref="B1187:D1187"/>
+    <mergeCell ref="E1187:K1187"/>
+    <mergeCell ref="B1188:D1188"/>
+    <mergeCell ref="E1188:K1188"/>
+    <mergeCell ref="B1189:D1189"/>
+    <mergeCell ref="E1189:K1189"/>
+    <mergeCell ref="B1190:D1190"/>
+    <mergeCell ref="B1159:D1159"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="E386:K386"/>
+    <mergeCell ref="E387:K387"/>
+    <mergeCell ref="E374:K374"/>
+    <mergeCell ref="E375:K375"/>
+    <mergeCell ref="E362:K362"/>
+    <mergeCell ref="E363:K363"/>
+    <mergeCell ref="B386:D386"/>
+    <mergeCell ref="B387:D387"/>
+    <mergeCell ref="B380:D380"/>
+    <mergeCell ref="B381:D381"/>
+    <mergeCell ref="B382:D382"/>
+    <mergeCell ref="B383:D383"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="B385:D385"/>
+    <mergeCell ref="B374:D374"/>
+    <mergeCell ref="B375:D375"/>
+    <mergeCell ref="B376:D376"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B378:D378"/>
+    <mergeCell ref="B379:D379"/>
+    <mergeCell ref="B368:D368"/>
+    <mergeCell ref="B369:D369"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
     <mergeCell ref="E380:K380"/>
     <mergeCell ref="E381:K381"/>
     <mergeCell ref="E364:K364"/>
@@ -14308,62 +15380,102 @@
     <mergeCell ref="E377:K377"/>
     <mergeCell ref="E378:K378"/>
     <mergeCell ref="E379:K379"/>
-    <mergeCell ref="E360:K360"/>
-    <mergeCell ref="E361:K361"/>
-    <mergeCell ref="E350:K350"/>
-    <mergeCell ref="E351:K351"/>
-    <mergeCell ref="E352:K352"/>
-    <mergeCell ref="E353:K353"/>
-    <mergeCell ref="E354:K354"/>
-    <mergeCell ref="E355:K355"/>
-    <mergeCell ref="E356:K356"/>
-    <mergeCell ref="E357:K357"/>
-    <mergeCell ref="E358:K358"/>
-    <mergeCell ref="E359:K359"/>
-    <mergeCell ref="E386:K386"/>
-    <mergeCell ref="E387:K387"/>
-    <mergeCell ref="E374:K374"/>
-    <mergeCell ref="E375:K375"/>
-    <mergeCell ref="E362:K362"/>
-    <mergeCell ref="E363:K363"/>
-    <mergeCell ref="B386:D386"/>
-    <mergeCell ref="B387:D387"/>
-    <mergeCell ref="B380:D380"/>
-    <mergeCell ref="B381:D381"/>
-    <mergeCell ref="B382:D382"/>
-    <mergeCell ref="B383:D383"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="B385:D385"/>
-    <mergeCell ref="B374:D374"/>
-    <mergeCell ref="B375:D375"/>
-    <mergeCell ref="B376:D376"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="B378:D378"/>
-    <mergeCell ref="B379:D379"/>
-    <mergeCell ref="B368:D368"/>
-    <mergeCell ref="B369:D369"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="B371:D371"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
+    <mergeCell ref="B1137:D1137"/>
+    <mergeCell ref="E1137:K1137"/>
+    <mergeCell ref="B1138:D1138"/>
+    <mergeCell ref="E1138:K1138"/>
+    <mergeCell ref="B1139:D1139"/>
+    <mergeCell ref="E1139:K1139"/>
+    <mergeCell ref="B1140:D1140"/>
+    <mergeCell ref="E1140:K1140"/>
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="E447:K447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="E448:K448"/>
+    <mergeCell ref="B1132:D1132"/>
+    <mergeCell ref="E1132:K1132"/>
+    <mergeCell ref="B1133:D1133"/>
+    <mergeCell ref="E1133:K1133"/>
+    <mergeCell ref="B1134:D1134"/>
+    <mergeCell ref="E1134:K1134"/>
+    <mergeCell ref="B1135:D1135"/>
+    <mergeCell ref="E1135:K1135"/>
+    <mergeCell ref="B1136:D1136"/>
+    <mergeCell ref="E1136:K1136"/>
+    <mergeCell ref="B1149:D1149"/>
+    <mergeCell ref="E1149:K1149"/>
+    <mergeCell ref="B1150:D1150"/>
+    <mergeCell ref="E1150:K1150"/>
+    <mergeCell ref="B1151:D1151"/>
+    <mergeCell ref="E1151:K1151"/>
+    <mergeCell ref="B1152:D1152"/>
+    <mergeCell ref="E1152:K1152"/>
+    <mergeCell ref="B1144:D1144"/>
+    <mergeCell ref="E1144:K1144"/>
+    <mergeCell ref="B1145:D1145"/>
+    <mergeCell ref="E1145:K1145"/>
+    <mergeCell ref="B1146:D1146"/>
+    <mergeCell ref="E1146:K1146"/>
+    <mergeCell ref="B1147:D1147"/>
+    <mergeCell ref="E1147:K1147"/>
+    <mergeCell ref="B1148:D1148"/>
+    <mergeCell ref="E1148:K1148"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="732">
   <si>
     <t>built-in functions</t>
   </si>
@@ -2802,6 +2802,419 @@
   </si>
   <si>
     <t>pickle.load(二进制文件)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python标准异常总结</t>
+  </si>
+  <si>
+    <t>AssertionError</t>
+  </si>
+  <si>
+    <t>断言语句（assert）失败</t>
+  </si>
+  <si>
+    <t>AttributeError</t>
+  </si>
+  <si>
+    <t>尝试访问未知的对象属性</t>
+  </si>
+  <si>
+    <t>EOFError</t>
+  </si>
+  <si>
+    <t>用户输入文件末尾标志EOF（Ctrl+d）</t>
+  </si>
+  <si>
+    <t>FloatingPointError</t>
+  </si>
+  <si>
+    <t>浮点计算错误</t>
+  </si>
+  <si>
+    <t>GeneratorExit</t>
+  </si>
+  <si>
+    <t>generator.close()方法被调用的时候</t>
+  </si>
+  <si>
+    <t>ImportError</t>
+  </si>
+  <si>
+    <t>导入模块失败的时候</t>
+  </si>
+  <si>
+    <t>IndexError</t>
+  </si>
+  <si>
+    <t>索引超出序列的范围</t>
+  </si>
+  <si>
+    <t>KeyError</t>
+  </si>
+  <si>
+    <t>字典中查找一个不存在的关键字</t>
+  </si>
+  <si>
+    <t>KeyboardInterrupt</t>
+  </si>
+  <si>
+    <t>用户输入中断键（Ctrl+c）</t>
+  </si>
+  <si>
+    <t>MemoryError</t>
+  </si>
+  <si>
+    <t>内存溢出（可通过删除对象释放内存）</t>
+  </si>
+  <si>
+    <t>NameError</t>
+  </si>
+  <si>
+    <t>尝试访问一个不存在的变量</t>
+  </si>
+  <si>
+    <t>NotImplementedError</t>
+  </si>
+  <si>
+    <t>尚未实现的方法</t>
+  </si>
+  <si>
+    <t>OSError</t>
+  </si>
+  <si>
+    <t>操作系统产生的异常（例如打开一个不存在的文件）</t>
+  </si>
+  <si>
+    <t>OverflowError</t>
+  </si>
+  <si>
+    <t>数值运算超出最大限制</t>
+  </si>
+  <si>
+    <t>ReferenceError</t>
+  </si>
+  <si>
+    <t>弱引用（weak reference）试图访问一个已经被垃圾回收机制回收了的对象</t>
+  </si>
+  <si>
+    <t>RuntimeError</t>
+  </si>
+  <si>
+    <t>一般的运行时错误</t>
+  </si>
+  <si>
+    <t>StopIteration</t>
+  </si>
+  <si>
+    <t>迭代器没有更多的值</t>
+  </si>
+  <si>
+    <t>SyntaxError</t>
+  </si>
+  <si>
+    <t>Python的语法错误</t>
+  </si>
+  <si>
+    <t>IndentationError</t>
+  </si>
+  <si>
+    <t>缩进错误</t>
+  </si>
+  <si>
+    <t>TabError</t>
+  </si>
+  <si>
+    <t>Tab和空格混合使用</t>
+  </si>
+  <si>
+    <t>SystemError</t>
+  </si>
+  <si>
+    <t>Python编译器系统错误</t>
+  </si>
+  <si>
+    <t>SystemExit</t>
+  </si>
+  <si>
+    <t>Python编译器进程被关闭</t>
+  </si>
+  <si>
+    <t>TypeError</t>
+  </si>
+  <si>
+    <t>不同类型间的无效操作</t>
+  </si>
+  <si>
+    <t>UnboundLocalError</t>
+  </si>
+  <si>
+    <t>访问一个未初始化的本地变量（NameError的子类）</t>
+  </si>
+  <si>
+    <t>UnicodeError</t>
+  </si>
+  <si>
+    <t>Unicode相关的错误（ValueError的子类）</t>
+  </si>
+  <si>
+    <t>UnicodeEncodeError</t>
+  </si>
+  <si>
+    <t>Unicode编码时的错误（UnicodeError的子类）</t>
+  </si>
+  <si>
+    <t>UnicodeDecodeError</t>
+  </si>
+  <si>
+    <t>Unicode解码时的错误（UnicodeError的子类）</t>
+  </si>
+  <si>
+    <t>UnicodeTranslateError</t>
+  </si>
+  <si>
+    <t>Unicode转换时的错误（UnicodeError的子类）</t>
+  </si>
+  <si>
+    <t>ValueError</t>
+  </si>
+  <si>
+    <t>传入无效的参数</t>
+  </si>
+  <si>
+    <t>ZeroDivisionError</t>
+  </si>
+  <si>
+    <t>除数为零</t>
+  </si>
+  <si>
+    <t>以下是 Python 内置异常类的层次结构：</t>
+  </si>
+  <si>
+    <t>BaseException</t>
+  </si>
+  <si>
+    <t>+-- SystemExit</t>
+  </si>
+  <si>
+    <t>+-- KeyboardInterrupt</t>
+  </si>
+  <si>
+    <t>+-- GeneratorExit</t>
+  </si>
+  <si>
+    <t>+-- Exception</t>
+  </si>
+  <si>
+    <t>      +-- StopIteration</t>
+  </si>
+  <si>
+    <t>      +-- ArithmeticError</t>
+  </si>
+  <si>
+    <t>      |    +-- FloatingPointError</t>
+  </si>
+  <si>
+    <t>      |    +-- OverflowError</t>
+  </si>
+  <si>
+    <t>      |    +-- ZeroDivisionError</t>
+  </si>
+  <si>
+    <t>      +-- AssertionError</t>
+  </si>
+  <si>
+    <t>      +-- AttributeError</t>
+  </si>
+  <si>
+    <t>      +-- BufferError</t>
+  </si>
+  <si>
+    <t>      +-- EOFError</t>
+  </si>
+  <si>
+    <t>      +-- ImportError</t>
+  </si>
+  <si>
+    <t>      +-- LookupError</t>
+  </si>
+  <si>
+    <t>      |    +-- IndexError</t>
+  </si>
+  <si>
+    <t>      |    +-- KeyError</t>
+  </si>
+  <si>
+    <t>      +-- MemoryError</t>
+  </si>
+  <si>
+    <t>      +-- NameError</t>
+  </si>
+  <si>
+    <t>      |    +-- UnboundLocalError</t>
+  </si>
+  <si>
+    <t>      +-- OSError</t>
+  </si>
+  <si>
+    <t>      |    +-- BlockingIOError</t>
+  </si>
+  <si>
+    <t>      |    +-- ChildProcessError</t>
+  </si>
+  <si>
+    <t>      |    +-- ConnectionError</t>
+  </si>
+  <si>
+    <t>      |    |    +-- BrokenPipeError</t>
+  </si>
+  <si>
+    <t>      |    |    +-- ConnectionAbortedError</t>
+  </si>
+  <si>
+    <t>      |    |    +-- ConnectionRefusedError</t>
+  </si>
+  <si>
+    <t>      |    |    +-- ConnectionResetError</t>
+  </si>
+  <si>
+    <t>      |    +-- FileExistsError</t>
+  </si>
+  <si>
+    <t>      |    +-- FileNotFoundError</t>
+  </si>
+  <si>
+    <t>      |    +-- InterruptedError</t>
+  </si>
+  <si>
+    <t>      |    +-- IsADirectoryError</t>
+  </si>
+  <si>
+    <t>      |    +-- NotADirectoryError</t>
+  </si>
+  <si>
+    <t>      |    +-- PermissionError</t>
+  </si>
+  <si>
+    <t>      |    +-- ProcessLookupError</t>
+  </si>
+  <si>
+    <t>      |    +-- TimeoutError</t>
+  </si>
+  <si>
+    <t>      +-- ReferenceError</t>
+  </si>
+  <si>
+    <t>      +-- RuntimeError</t>
+  </si>
+  <si>
+    <t>      |    +-- NotImplementedError</t>
+  </si>
+  <si>
+    <t>      +-- SyntaxError</t>
+  </si>
+  <si>
+    <t>      |    +-- IndentationError</t>
+  </si>
+  <si>
+    <t>      |         +-- TabError</t>
+  </si>
+  <si>
+    <t>      +-- SystemError</t>
+  </si>
+  <si>
+    <t>      +-- TypeError</t>
+  </si>
+  <si>
+    <t>      +-- ValueError</t>
+  </si>
+  <si>
+    <t>      |    +-- UnicodeError</t>
+  </si>
+  <si>
+    <t>      |         +-- UnicodeDecodeError</t>
+  </si>
+  <si>
+    <t>      |         +-- UnicodeEncodeError</t>
+  </si>
+  <si>
+    <t>      |         +-- UnicodeTranslateError</t>
+  </si>
+  <si>
+    <t>      +-- Warning</t>
+  </si>
+  <si>
+    <t>           +-- DeprecationWarning</t>
+  </si>
+  <si>
+    <t>           +-- PendingDeprecationWarning</t>
+  </si>
+  <si>
+    <t>           +-- RuntimeWarning</t>
+  </si>
+  <si>
+    <t>           +-- SyntaxWarning</t>
+  </si>
+  <si>
+    <t>           +-- UserWarning</t>
+  </si>
+  <si>
+    <t>           +-- FutureWarning</t>
+  </si>
+  <si>
+    <t>           +-- ImportWarning</t>
+  </si>
+  <si>
+    <t>           +-- UnicodeWarning</t>
+  </si>
+  <si>
+    <t>           +-- BytesWarning</t>
+  </si>
+  <si>
+    <t>           +-- ResourceWarning</t>
+  </si>
+  <si>
+    <t>捕捉异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELSE用法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. if else语句中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. while else中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>while全部执行之后，才执行！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.try except else中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>with语句</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化频繁打开和关闭文件的操作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3003,19 +3416,16 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3024,6 +3434,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10168,6 +10581,625 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>1307</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>1327</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1367118" y="233115971"/>
+          <a:ext cx="4515970" cy="3294529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>try:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>except</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> OSError as reason:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	print....</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>except TypeError as reason:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	print(reason)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>except (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OSError, TypeError</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	print....</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>except:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>finally:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	print....</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	f.close()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1333</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>1346</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="237329382"/>
+          <a:ext cx="4515970" cy="2263589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>def showMaxFactor(num):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    count = num //2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    while count &gt; 1:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        if num % count == 0:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>            print('%d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>最大公约数为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:%d' % (num, count))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>            break</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        count -= 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    else:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        print('%d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是一个素数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>' % num)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>num = int(input('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>清输入一个数：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>'))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>showMaxFactor(num)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1348</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>1359</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="239850707"/>
+          <a:ext cx="4515970" cy="1927412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>def test(num):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    try:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        int(num)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    except ValueError as reason:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        print('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>出错了：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>' + str(reason))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    else:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        print('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>没有问题！</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>num = input('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>请输入一个数字：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>test(num)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1363</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>1379</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="242372029"/>
+          <a:ext cx="4515970" cy="2812676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>##try:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>##    f = open('test.txt','w')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>##    for each_line in f:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>##        print(each_line)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>##except OSError as reason:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>##    print('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>出错了：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>' + str(reason))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>##finally:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>##    f.close()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>try:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    with open('test.txt','w') as f:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        for each_line in f:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>            print(each_line)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>except OSError as reason:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    print('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>出错了：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>' + str(reason))</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10487,10 +11519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P1204"/>
+  <dimension ref="A2:P1362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1206" sqref="C1206"/>
+    <sheetView tabSelected="1" topLeftCell="A1335" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1366" sqref="B1366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -11856,612 +12888,612 @@
       </c>
     </row>
     <row r="350" spans="1:11" ht="30" customHeight="1">
-      <c r="B350" s="14" t="s">
+      <c r="B350" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C350" s="14"/>
-      <c r="D350" s="14"/>
-      <c r="E350" s="15" t="s">
+      <c r="C350" s="16"/>
+      <c r="D350" s="16"/>
+      <c r="E350" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="F350" s="15"/>
-      <c r="G350" s="15"/>
-      <c r="H350" s="15"/>
-      <c r="I350" s="15"/>
-      <c r="J350" s="15"/>
-      <c r="K350" s="15"/>
+      <c r="F350" s="17"/>
+      <c r="G350" s="17"/>
+      <c r="H350" s="17"/>
+      <c r="I350" s="17"/>
+      <c r="J350" s="17"/>
+      <c r="K350" s="17"/>
     </row>
     <row r="351" spans="1:11" ht="30" customHeight="1">
-      <c r="B351" s="14" t="s">
+      <c r="B351" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C351" s="14"/>
-      <c r="D351" s="14"/>
-      <c r="E351" s="15" t="s">
+      <c r="C351" s="16"/>
+      <c r="D351" s="16"/>
+      <c r="E351" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="F351" s="15"/>
-      <c r="G351" s="15"/>
-      <c r="H351" s="15"/>
-      <c r="I351" s="15"/>
-      <c r="J351" s="15"/>
-      <c r="K351" s="15"/>
+      <c r="F351" s="17"/>
+      <c r="G351" s="17"/>
+      <c r="H351" s="17"/>
+      <c r="I351" s="17"/>
+      <c r="J351" s="17"/>
+      <c r="K351" s="17"/>
     </row>
     <row r="352" spans="1:11" ht="30" customHeight="1">
-      <c r="B352" s="14" t="s">
+      <c r="B352" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C352" s="14"/>
-      <c r="D352" s="14"/>
-      <c r="E352" s="15" t="s">
+      <c r="C352" s="16"/>
+      <c r="D352" s="16"/>
+      <c r="E352" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F352" s="15"/>
-      <c r="G352" s="15"/>
-      <c r="H352" s="15"/>
-      <c r="I352" s="15"/>
-      <c r="J352" s="15"/>
-      <c r="K352" s="15"/>
+      <c r="F352" s="17"/>
+      <c r="G352" s="17"/>
+      <c r="H352" s="17"/>
+      <c r="I352" s="17"/>
+      <c r="J352" s="17"/>
+      <c r="K352" s="17"/>
     </row>
     <row r="353" spans="2:11" ht="30" customHeight="1">
-      <c r="B353" s="14" t="s">
+      <c r="B353" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C353" s="14"/>
-      <c r="D353" s="14"/>
-      <c r="E353" s="15" t="s">
+      <c r="C353" s="16"/>
+      <c r="D353" s="16"/>
+      <c r="E353" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="F353" s="15"/>
-      <c r="G353" s="15"/>
-      <c r="H353" s="15"/>
-      <c r="I353" s="15"/>
-      <c r="J353" s="15"/>
-      <c r="K353" s="15"/>
+      <c r="F353" s="17"/>
+      <c r="G353" s="17"/>
+      <c r="H353" s="17"/>
+      <c r="I353" s="17"/>
+      <c r="J353" s="17"/>
+      <c r="K353" s="17"/>
     </row>
     <row r="354" spans="2:11" ht="30" customHeight="1">
-      <c r="B354" s="14" t="s">
+      <c r="B354" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C354" s="14"/>
-      <c r="D354" s="14"/>
-      <c r="E354" s="15" t="s">
+      <c r="C354" s="16"/>
+      <c r="D354" s="16"/>
+      <c r="E354" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="F354" s="15"/>
-      <c r="G354" s="15"/>
-      <c r="H354" s="15"/>
-      <c r="I354" s="15"/>
-      <c r="J354" s="15"/>
-      <c r="K354" s="15"/>
+      <c r="F354" s="17"/>
+      <c r="G354" s="17"/>
+      <c r="H354" s="17"/>
+      <c r="I354" s="17"/>
+      <c r="J354" s="17"/>
+      <c r="K354" s="17"/>
     </row>
     <row r="355" spans="2:11" ht="30" customHeight="1">
-      <c r="B355" s="14" t="s">
+      <c r="B355" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C355" s="14"/>
-      <c r="D355" s="14"/>
-      <c r="E355" s="15" t="s">
+      <c r="C355" s="16"/>
+      <c r="D355" s="16"/>
+      <c r="E355" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F355" s="15"/>
-      <c r="G355" s="15"/>
-      <c r="H355" s="15"/>
-      <c r="I355" s="15"/>
-      <c r="J355" s="15"/>
-      <c r="K355" s="15"/>
+      <c r="F355" s="17"/>
+      <c r="G355" s="17"/>
+      <c r="H355" s="17"/>
+      <c r="I355" s="17"/>
+      <c r="J355" s="17"/>
+      <c r="K355" s="17"/>
     </row>
     <row r="356" spans="2:11" ht="30" customHeight="1">
-      <c r="B356" s="14" t="s">
+      <c r="B356" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C356" s="14"/>
-      <c r="D356" s="14"/>
-      <c r="E356" s="15" t="s">
+      <c r="C356" s="16"/>
+      <c r="D356" s="16"/>
+      <c r="E356" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F356" s="15"/>
-      <c r="G356" s="15"/>
-      <c r="H356" s="15"/>
-      <c r="I356" s="15"/>
-      <c r="J356" s="15"/>
-      <c r="K356" s="15"/>
+      <c r="F356" s="17"/>
+      <c r="G356" s="17"/>
+      <c r="H356" s="17"/>
+      <c r="I356" s="17"/>
+      <c r="J356" s="17"/>
+      <c r="K356" s="17"/>
     </row>
     <row r="357" spans="2:11" ht="30" customHeight="1">
-      <c r="B357" s="14" t="s">
+      <c r="B357" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C357" s="14"/>
-      <c r="D357" s="14"/>
-      <c r="E357" s="15" t="s">
+      <c r="C357" s="16"/>
+      <c r="D357" s="16"/>
+      <c r="E357" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="F357" s="15"/>
-      <c r="G357" s="15"/>
-      <c r="H357" s="15"/>
-      <c r="I357" s="15"/>
-      <c r="J357" s="15"/>
-      <c r="K357" s="15"/>
+      <c r="F357" s="17"/>
+      <c r="G357" s="17"/>
+      <c r="H357" s="17"/>
+      <c r="I357" s="17"/>
+      <c r="J357" s="17"/>
+      <c r="K357" s="17"/>
     </row>
     <row r="358" spans="2:11" ht="30" customHeight="1">
-      <c r="B358" s="14" t="s">
+      <c r="B358" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C358" s="14"/>
-      <c r="D358" s="14"/>
-      <c r="E358" s="15" t="s">
+      <c r="C358" s="16"/>
+      <c r="D358" s="16"/>
+      <c r="E358" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="F358" s="15"/>
-      <c r="G358" s="15"/>
-      <c r="H358" s="15"/>
-      <c r="I358" s="15"/>
-      <c r="J358" s="15"/>
-      <c r="K358" s="15"/>
+      <c r="F358" s="17"/>
+      <c r="G358" s="17"/>
+      <c r="H358" s="17"/>
+      <c r="I358" s="17"/>
+      <c r="J358" s="17"/>
+      <c r="K358" s="17"/>
     </row>
     <row r="359" spans="2:11" ht="30" customHeight="1">
-      <c r="B359" s="14" t="s">
+      <c r="B359" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C359" s="14"/>
-      <c r="D359" s="14"/>
-      <c r="E359" s="15" t="s">
+      <c r="C359" s="16"/>
+      <c r="D359" s="16"/>
+      <c r="E359" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F359" s="15"/>
-      <c r="G359" s="15"/>
-      <c r="H359" s="15"/>
-      <c r="I359" s="15"/>
-      <c r="J359" s="15"/>
-      <c r="K359" s="15"/>
+      <c r="F359" s="17"/>
+      <c r="G359" s="17"/>
+      <c r="H359" s="17"/>
+      <c r="I359" s="17"/>
+      <c r="J359" s="17"/>
+      <c r="K359" s="17"/>
     </row>
     <row r="360" spans="2:11" ht="30" customHeight="1">
-      <c r="B360" s="14" t="s">
+      <c r="B360" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C360" s="14"/>
-      <c r="D360" s="14"/>
-      <c r="E360" s="15" t="s">
+      <c r="C360" s="16"/>
+      <c r="D360" s="16"/>
+      <c r="E360" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="F360" s="15"/>
-      <c r="G360" s="15"/>
-      <c r="H360" s="15"/>
-      <c r="I360" s="15"/>
-      <c r="J360" s="15"/>
-      <c r="K360" s="15"/>
+      <c r="F360" s="17"/>
+      <c r="G360" s="17"/>
+      <c r="H360" s="17"/>
+      <c r="I360" s="17"/>
+      <c r="J360" s="17"/>
+      <c r="K360" s="17"/>
     </row>
     <row r="361" spans="2:11" ht="30" customHeight="1">
-      <c r="B361" s="14" t="s">
+      <c r="B361" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C361" s="14"/>
-      <c r="D361" s="14"/>
-      <c r="E361" s="15" t="s">
+      <c r="C361" s="16"/>
+      <c r="D361" s="16"/>
+      <c r="E361" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F361" s="15"/>
-      <c r="G361" s="15"/>
-      <c r="H361" s="15"/>
-      <c r="I361" s="15"/>
-      <c r="J361" s="15"/>
-      <c r="K361" s="15"/>
+      <c r="F361" s="17"/>
+      <c r="G361" s="17"/>
+      <c r="H361" s="17"/>
+      <c r="I361" s="17"/>
+      <c r="J361" s="17"/>
+      <c r="K361" s="17"/>
     </row>
     <row r="362" spans="2:11" ht="30" customHeight="1">
-      <c r="B362" s="14" t="s">
+      <c r="B362" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C362" s="14"/>
-      <c r="D362" s="14"/>
-      <c r="E362" s="15" t="s">
+      <c r="C362" s="16"/>
+      <c r="D362" s="16"/>
+      <c r="E362" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="F362" s="15"/>
-      <c r="G362" s="15"/>
-      <c r="H362" s="15"/>
-      <c r="I362" s="15"/>
-      <c r="J362" s="15"/>
-      <c r="K362" s="15"/>
+      <c r="F362" s="17"/>
+      <c r="G362" s="17"/>
+      <c r="H362" s="17"/>
+      <c r="I362" s="17"/>
+      <c r="J362" s="17"/>
+      <c r="K362" s="17"/>
     </row>
     <row r="363" spans="2:11" ht="30" customHeight="1">
-      <c r="B363" s="14" t="s">
+      <c r="B363" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C363" s="14"/>
-      <c r="D363" s="14"/>
-      <c r="E363" s="15" t="s">
+      <c r="C363" s="16"/>
+      <c r="D363" s="16"/>
+      <c r="E363" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="F363" s="15"/>
-      <c r="G363" s="15"/>
-      <c r="H363" s="15"/>
-      <c r="I363" s="15"/>
-      <c r="J363" s="15"/>
-      <c r="K363" s="15"/>
+      <c r="F363" s="17"/>
+      <c r="G363" s="17"/>
+      <c r="H363" s="17"/>
+      <c r="I363" s="17"/>
+      <c r="J363" s="17"/>
+      <c r="K363" s="17"/>
     </row>
     <row r="364" spans="2:11" ht="30" customHeight="1">
-      <c r="B364" s="14" t="s">
+      <c r="B364" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C364" s="14"/>
-      <c r="D364" s="14"/>
-      <c r="E364" s="15" t="s">
+      <c r="C364" s="16"/>
+      <c r="D364" s="16"/>
+      <c r="E364" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F364" s="15"/>
-      <c r="G364" s="15"/>
-      <c r="H364" s="15"/>
-      <c r="I364" s="15"/>
-      <c r="J364" s="15"/>
-      <c r="K364" s="15"/>
+      <c r="F364" s="17"/>
+      <c r="G364" s="17"/>
+      <c r="H364" s="17"/>
+      <c r="I364" s="17"/>
+      <c r="J364" s="17"/>
+      <c r="K364" s="17"/>
     </row>
     <row r="365" spans="2:11" ht="30" customHeight="1">
-      <c r="B365" s="14" t="s">
+      <c r="B365" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C365" s="14"/>
-      <c r="D365" s="14"/>
-      <c r="E365" s="15" t="s">
+      <c r="C365" s="16"/>
+      <c r="D365" s="16"/>
+      <c r="E365" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="F365" s="15"/>
-      <c r="G365" s="15"/>
-      <c r="H365" s="15"/>
-      <c r="I365" s="15"/>
-      <c r="J365" s="15"/>
-      <c r="K365" s="15"/>
+      <c r="F365" s="17"/>
+      <c r="G365" s="17"/>
+      <c r="H365" s="17"/>
+      <c r="I365" s="17"/>
+      <c r="J365" s="17"/>
+      <c r="K365" s="17"/>
     </row>
     <row r="366" spans="2:11" ht="30" customHeight="1">
-      <c r="B366" s="14" t="s">
+      <c r="B366" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C366" s="14"/>
-      <c r="D366" s="14"/>
-      <c r="E366" s="15" t="s">
+      <c r="C366" s="16"/>
+      <c r="D366" s="16"/>
+      <c r="E366" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F366" s="15"/>
-      <c r="G366" s="15"/>
-      <c r="H366" s="15"/>
-      <c r="I366" s="15"/>
-      <c r="J366" s="15"/>
-      <c r="K366" s="15"/>
+      <c r="F366" s="17"/>
+      <c r="G366" s="17"/>
+      <c r="H366" s="17"/>
+      <c r="I366" s="17"/>
+      <c r="J366" s="17"/>
+      <c r="K366" s="17"/>
     </row>
     <row r="367" spans="2:11" ht="30" customHeight="1">
-      <c r="B367" s="14" t="s">
+      <c r="B367" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C367" s="14"/>
-      <c r="D367" s="14"/>
-      <c r="E367" s="15" t="s">
+      <c r="C367" s="16"/>
+      <c r="D367" s="16"/>
+      <c r="E367" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F367" s="15"/>
-      <c r="G367" s="15"/>
-      <c r="H367" s="15"/>
-      <c r="I367" s="15"/>
-      <c r="J367" s="15"/>
-      <c r="K367" s="15"/>
+      <c r="F367" s="17"/>
+      <c r="G367" s="17"/>
+      <c r="H367" s="17"/>
+      <c r="I367" s="17"/>
+      <c r="J367" s="17"/>
+      <c r="K367" s="17"/>
     </row>
     <row r="368" spans="2:11" ht="30" customHeight="1">
-      <c r="B368" s="14" t="s">
+      <c r="B368" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C368" s="14"/>
-      <c r="D368" s="14"/>
-      <c r="E368" s="15" t="s">
+      <c r="C368" s="16"/>
+      <c r="D368" s="16"/>
+      <c r="E368" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="F368" s="15"/>
-      <c r="G368" s="15"/>
-      <c r="H368" s="15"/>
-      <c r="I368" s="15"/>
-      <c r="J368" s="15"/>
-      <c r="K368" s="15"/>
+      <c r="F368" s="17"/>
+      <c r="G368" s="17"/>
+      <c r="H368" s="17"/>
+      <c r="I368" s="17"/>
+      <c r="J368" s="17"/>
+      <c r="K368" s="17"/>
     </row>
     <row r="369" spans="2:11" ht="30" customHeight="1">
-      <c r="B369" s="14" t="s">
+      <c r="B369" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C369" s="14"/>
-      <c r="D369" s="14"/>
-      <c r="E369" s="15" t="s">
+      <c r="C369" s="16"/>
+      <c r="D369" s="16"/>
+      <c r="E369" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="15"/>
-      <c r="I369" s="15"/>
-      <c r="J369" s="15"/>
-      <c r="K369" s="15"/>
+      <c r="F369" s="17"/>
+      <c r="G369" s="17"/>
+      <c r="H369" s="17"/>
+      <c r="I369" s="17"/>
+      <c r="J369" s="17"/>
+      <c r="K369" s="17"/>
     </row>
     <row r="370" spans="2:11" ht="30" customHeight="1">
-      <c r="B370" s="14" t="s">
+      <c r="B370" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C370" s="14"/>
-      <c r="D370" s="14"/>
-      <c r="E370" s="15" t="s">
+      <c r="C370" s="16"/>
+      <c r="D370" s="16"/>
+      <c r="E370" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F370" s="15"/>
-      <c r="G370" s="15"/>
-      <c r="H370" s="15"/>
-      <c r="I370" s="15"/>
-      <c r="J370" s="15"/>
-      <c r="K370" s="15"/>
+      <c r="F370" s="17"/>
+      <c r="G370" s="17"/>
+      <c r="H370" s="17"/>
+      <c r="I370" s="17"/>
+      <c r="J370" s="17"/>
+      <c r="K370" s="17"/>
     </row>
     <row r="371" spans="2:11" ht="30" customHeight="1">
-      <c r="B371" s="14" t="s">
+      <c r="B371" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C371" s="14"/>
-      <c r="D371" s="14"/>
-      <c r="E371" s="15" t="s">
+      <c r="C371" s="16"/>
+      <c r="D371" s="16"/>
+      <c r="E371" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F371" s="15"/>
-      <c r="G371" s="15"/>
-      <c r="H371" s="15"/>
-      <c r="I371" s="15"/>
-      <c r="J371" s="15"/>
-      <c r="K371" s="15"/>
+      <c r="F371" s="17"/>
+      <c r="G371" s="17"/>
+      <c r="H371" s="17"/>
+      <c r="I371" s="17"/>
+      <c r="J371" s="17"/>
+      <c r="K371" s="17"/>
     </row>
     <row r="372" spans="2:11" ht="30" customHeight="1">
-      <c r="B372" s="14" t="s">
+      <c r="B372" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C372" s="14"/>
-      <c r="D372" s="14"/>
-      <c r="E372" s="15" t="s">
+      <c r="C372" s="16"/>
+      <c r="D372" s="16"/>
+      <c r="E372" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F372" s="15"/>
-      <c r="G372" s="15"/>
-      <c r="H372" s="15"/>
-      <c r="I372" s="15"/>
-      <c r="J372" s="15"/>
-      <c r="K372" s="15"/>
+      <c r="F372" s="17"/>
+      <c r="G372" s="17"/>
+      <c r="H372" s="17"/>
+      <c r="I372" s="17"/>
+      <c r="J372" s="17"/>
+      <c r="K372" s="17"/>
     </row>
     <row r="373" spans="2:11" ht="30" customHeight="1">
-      <c r="B373" s="14" t="s">
+      <c r="B373" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C373" s="14"/>
-      <c r="D373" s="14"/>
-      <c r="E373" s="15" t="s">
+      <c r="C373" s="16"/>
+      <c r="D373" s="16"/>
+      <c r="E373" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="F373" s="15"/>
-      <c r="G373" s="15"/>
-      <c r="H373" s="15"/>
-      <c r="I373" s="15"/>
-      <c r="J373" s="15"/>
-      <c r="K373" s="15"/>
+      <c r="F373" s="17"/>
+      <c r="G373" s="17"/>
+      <c r="H373" s="17"/>
+      <c r="I373" s="17"/>
+      <c r="J373" s="17"/>
+      <c r="K373" s="17"/>
     </row>
     <row r="374" spans="2:11" ht="30" customHeight="1">
-      <c r="B374" s="14" t="s">
+      <c r="B374" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C374" s="14"/>
-      <c r="D374" s="14"/>
-      <c r="E374" s="15" t="s">
+      <c r="C374" s="16"/>
+      <c r="D374" s="16"/>
+      <c r="E374" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="F374" s="15"/>
-      <c r="G374" s="15"/>
-      <c r="H374" s="15"/>
-      <c r="I374" s="15"/>
-      <c r="J374" s="15"/>
-      <c r="K374" s="15"/>
+      <c r="F374" s="17"/>
+      <c r="G374" s="17"/>
+      <c r="H374" s="17"/>
+      <c r="I374" s="17"/>
+      <c r="J374" s="17"/>
+      <c r="K374" s="17"/>
     </row>
     <row r="375" spans="2:11" ht="30" customHeight="1">
-      <c r="B375" s="14" t="s">
+      <c r="B375" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C375" s="14"/>
-      <c r="D375" s="14"/>
-      <c r="E375" s="15" t="s">
+      <c r="C375" s="16"/>
+      <c r="D375" s="16"/>
+      <c r="E375" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F375" s="15"/>
-      <c r="G375" s="15"/>
-      <c r="H375" s="15"/>
-      <c r="I375" s="15"/>
-      <c r="J375" s="15"/>
-      <c r="K375" s="15"/>
+      <c r="F375" s="17"/>
+      <c r="G375" s="17"/>
+      <c r="H375" s="17"/>
+      <c r="I375" s="17"/>
+      <c r="J375" s="17"/>
+      <c r="K375" s="17"/>
     </row>
     <row r="376" spans="2:11" ht="30" customHeight="1">
-      <c r="B376" s="14" t="s">
+      <c r="B376" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C376" s="14"/>
-      <c r="D376" s="14"/>
-      <c r="E376" s="15" t="s">
+      <c r="C376" s="16"/>
+      <c r="D376" s="16"/>
+      <c r="E376" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="F376" s="15"/>
-      <c r="G376" s="15"/>
-      <c r="H376" s="15"/>
-      <c r="I376" s="15"/>
-      <c r="J376" s="15"/>
-      <c r="K376" s="15"/>
+      <c r="F376" s="17"/>
+      <c r="G376" s="17"/>
+      <c r="H376" s="17"/>
+      <c r="I376" s="17"/>
+      <c r="J376" s="17"/>
+      <c r="K376" s="17"/>
     </row>
     <row r="377" spans="2:11" ht="30" customHeight="1">
-      <c r="B377" s="14" t="s">
+      <c r="B377" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C377" s="14"/>
-      <c r="D377" s="14"/>
-      <c r="E377" s="15" t="s">
+      <c r="C377" s="16"/>
+      <c r="D377" s="16"/>
+      <c r="E377" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="F377" s="15"/>
-      <c r="G377" s="15"/>
-      <c r="H377" s="15"/>
-      <c r="I377" s="15"/>
-      <c r="J377" s="15"/>
-      <c r="K377" s="15"/>
+      <c r="F377" s="17"/>
+      <c r="G377" s="17"/>
+      <c r="H377" s="17"/>
+      <c r="I377" s="17"/>
+      <c r="J377" s="17"/>
+      <c r="K377" s="17"/>
     </row>
     <row r="378" spans="2:11" ht="30" customHeight="1">
-      <c r="B378" s="14" t="s">
+      <c r="B378" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C378" s="14"/>
-      <c r="D378" s="14"/>
-      <c r="E378" s="15" t="s">
+      <c r="C378" s="16"/>
+      <c r="D378" s="16"/>
+      <c r="E378" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="F378" s="15"/>
-      <c r="G378" s="15"/>
-      <c r="H378" s="15"/>
-      <c r="I378" s="15"/>
-      <c r="J378" s="15"/>
-      <c r="K378" s="15"/>
+      <c r="F378" s="17"/>
+      <c r="G378" s="17"/>
+      <c r="H378" s="17"/>
+      <c r="I378" s="17"/>
+      <c r="J378" s="17"/>
+      <c r="K378" s="17"/>
     </row>
     <row r="379" spans="2:11" ht="30" customHeight="1">
-      <c r="B379" s="14" t="s">
+      <c r="B379" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C379" s="14"/>
-      <c r="D379" s="14"/>
-      <c r="E379" s="15" t="s">
+      <c r="C379" s="16"/>
+      <c r="D379" s="16"/>
+      <c r="E379" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="F379" s="15"/>
-      <c r="G379" s="15"/>
-      <c r="H379" s="15"/>
-      <c r="I379" s="15"/>
-      <c r="J379" s="15"/>
-      <c r="K379" s="15"/>
+      <c r="F379" s="17"/>
+      <c r="G379" s="17"/>
+      <c r="H379" s="17"/>
+      <c r="I379" s="17"/>
+      <c r="J379" s="17"/>
+      <c r="K379" s="17"/>
     </row>
     <row r="380" spans="2:11" ht="30" customHeight="1">
-      <c r="B380" s="14" t="s">
+      <c r="B380" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C380" s="14"/>
-      <c r="D380" s="14"/>
-      <c r="E380" s="15" t="s">
+      <c r="C380" s="16"/>
+      <c r="D380" s="16"/>
+      <c r="E380" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="F380" s="15"/>
-      <c r="G380" s="15"/>
-      <c r="H380" s="15"/>
-      <c r="I380" s="15"/>
-      <c r="J380" s="15"/>
-      <c r="K380" s="15"/>
+      <c r="F380" s="17"/>
+      <c r="G380" s="17"/>
+      <c r="H380" s="17"/>
+      <c r="I380" s="17"/>
+      <c r="J380" s="17"/>
+      <c r="K380" s="17"/>
     </row>
     <row r="381" spans="2:11" ht="30" customHeight="1">
-      <c r="B381" s="14" t="s">
+      <c r="B381" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C381" s="14"/>
-      <c r="D381" s="14"/>
-      <c r="E381" s="15" t="s">
+      <c r="C381" s="16"/>
+      <c r="D381" s="16"/>
+      <c r="E381" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="F381" s="15"/>
-      <c r="G381" s="15"/>
-      <c r="H381" s="15"/>
-      <c r="I381" s="15"/>
-      <c r="J381" s="15"/>
-      <c r="K381" s="15"/>
+      <c r="F381" s="17"/>
+      <c r="G381" s="17"/>
+      <c r="H381" s="17"/>
+      <c r="I381" s="17"/>
+      <c r="J381" s="17"/>
+      <c r="K381" s="17"/>
     </row>
     <row r="382" spans="2:11" ht="30" customHeight="1">
-      <c r="B382" s="14" t="s">
+      <c r="B382" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C382" s="14"/>
-      <c r="D382" s="14"/>
-      <c r="E382" s="15" t="s">
+      <c r="C382" s="16"/>
+      <c r="D382" s="16"/>
+      <c r="E382" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F382" s="15"/>
-      <c r="G382" s="15"/>
-      <c r="H382" s="15"/>
-      <c r="I382" s="15"/>
-      <c r="J382" s="15"/>
-      <c r="K382" s="15"/>
+      <c r="F382" s="17"/>
+      <c r="G382" s="17"/>
+      <c r="H382" s="17"/>
+      <c r="I382" s="17"/>
+      <c r="J382" s="17"/>
+      <c r="K382" s="17"/>
     </row>
     <row r="383" spans="2:11" ht="30" customHeight="1">
-      <c r="B383" s="14" t="s">
+      <c r="B383" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C383" s="14"/>
-      <c r="D383" s="14"/>
-      <c r="E383" s="15" t="s">
+      <c r="C383" s="16"/>
+      <c r="D383" s="16"/>
+      <c r="E383" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="F383" s="15"/>
-      <c r="G383" s="15"/>
-      <c r="H383" s="15"/>
-      <c r="I383" s="15"/>
-      <c r="J383" s="15"/>
-      <c r="K383" s="15"/>
+      <c r="F383" s="17"/>
+      <c r="G383" s="17"/>
+      <c r="H383" s="17"/>
+      <c r="I383" s="17"/>
+      <c r="J383" s="17"/>
+      <c r="K383" s="17"/>
     </row>
     <row r="384" spans="2:11" ht="30" customHeight="1">
-      <c r="B384" s="14" t="s">
+      <c r="B384" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C384" s="14"/>
-      <c r="D384" s="14"/>
-      <c r="E384" s="15" t="s">
+      <c r="C384" s="16"/>
+      <c r="D384" s="16"/>
+      <c r="E384" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="F384" s="15"/>
-      <c r="G384" s="15"/>
-      <c r="H384" s="15"/>
-      <c r="I384" s="15"/>
-      <c r="J384" s="15"/>
-      <c r="K384" s="15"/>
+      <c r="F384" s="17"/>
+      <c r="G384" s="17"/>
+      <c r="H384" s="17"/>
+      <c r="I384" s="17"/>
+      <c r="J384" s="17"/>
+      <c r="K384" s="17"/>
     </row>
     <row r="385" spans="1:11" ht="30" customHeight="1">
-      <c r="B385" s="14" t="s">
+      <c r="B385" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C385" s="14"/>
-      <c r="D385" s="14"/>
-      <c r="E385" s="15" t="s">
+      <c r="C385" s="16"/>
+      <c r="D385" s="16"/>
+      <c r="E385" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="F385" s="15"/>
-      <c r="G385" s="15"/>
-      <c r="H385" s="15"/>
-      <c r="I385" s="15"/>
-      <c r="J385" s="15"/>
-      <c r="K385" s="15"/>
+      <c r="F385" s="17"/>
+      <c r="G385" s="17"/>
+      <c r="H385" s="17"/>
+      <c r="I385" s="17"/>
+      <c r="J385" s="17"/>
+      <c r="K385" s="17"/>
     </row>
     <row r="386" spans="1:11" ht="30" customHeight="1">
-      <c r="B386" s="14" t="s">
+      <c r="B386" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C386" s="14"/>
-      <c r="D386" s="14"/>
-      <c r="E386" s="15" t="s">
+      <c r="C386" s="16"/>
+      <c r="D386" s="16"/>
+      <c r="E386" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F386" s="15"/>
-      <c r="G386" s="15"/>
-      <c r="H386" s="15"/>
-      <c r="I386" s="15"/>
-      <c r="J386" s="15"/>
-      <c r="K386" s="15"/>
+      <c r="F386" s="17"/>
+      <c r="G386" s="17"/>
+      <c r="H386" s="17"/>
+      <c r="I386" s="17"/>
+      <c r="J386" s="17"/>
+      <c r="K386" s="17"/>
     </row>
     <row r="387" spans="1:11" ht="30" customHeight="1">
-      <c r="B387" s="14" t="s">
+      <c r="B387" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C387" s="14"/>
-      <c r="D387" s="14"/>
-      <c r="E387" s="15" t="s">
+      <c r="C387" s="16"/>
+      <c r="D387" s="16"/>
+      <c r="E387" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="F387" s="15"/>
-      <c r="G387" s="15"/>
-      <c r="H387" s="15"/>
-      <c r="I387" s="15"/>
-      <c r="J387" s="15"/>
-      <c r="K387" s="15"/>
+      <c r="F387" s="17"/>
+      <c r="G387" s="17"/>
+      <c r="H387" s="17"/>
+      <c r="I387" s="17"/>
+      <c r="J387" s="17"/>
+      <c r="K387" s="17"/>
     </row>
     <row r="389" spans="1:11" s="3" customFormat="1">
       <c r="A389" s="3" t="s">
@@ -12554,196 +13586,196 @@
       </c>
     </row>
     <row r="411" spans="2:11" ht="15" customHeight="1">
-      <c r="B411" s="16" t="s">
+      <c r="B411" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C411" s="16"/>
-      <c r="D411" s="16"/>
-      <c r="E411" s="16" t="s">
+      <c r="C411" s="21"/>
+      <c r="D411" s="21"/>
+      <c r="E411" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="F411" s="16"/>
-      <c r="G411" s="16"/>
-      <c r="H411" s="16"/>
-      <c r="I411" s="16"/>
-      <c r="J411" s="16"/>
-      <c r="K411" s="16"/>
+      <c r="F411" s="21"/>
+      <c r="G411" s="21"/>
+      <c r="H411" s="21"/>
+      <c r="I411" s="21"/>
+      <c r="J411" s="21"/>
+      <c r="K411" s="21"/>
     </row>
     <row r="412" spans="2:11" ht="15" customHeight="1">
-      <c r="B412" s="14" t="s">
+      <c r="B412" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C412" s="14"/>
-      <c r="D412" s="14"/>
-      <c r="E412" s="15" t="s">
+      <c r="C412" s="16"/>
+      <c r="D412" s="16"/>
+      <c r="E412" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="F412" s="15"/>
-      <c r="G412" s="15"/>
-      <c r="H412" s="15"/>
-      <c r="I412" s="15"/>
-      <c r="J412" s="15"/>
-      <c r="K412" s="15"/>
+      <c r="F412" s="17"/>
+      <c r="G412" s="17"/>
+      <c r="H412" s="17"/>
+      <c r="I412" s="17"/>
+      <c r="J412" s="17"/>
+      <c r="K412" s="17"/>
     </row>
     <row r="413" spans="2:11" ht="15" customHeight="1">
-      <c r="B413" s="14" t="s">
+      <c r="B413" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C413" s="14"/>
-      <c r="D413" s="14"/>
-      <c r="E413" s="15" t="s">
+      <c r="C413" s="16"/>
+      <c r="D413" s="16"/>
+      <c r="E413" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="F413" s="15"/>
-      <c r="G413" s="15"/>
-      <c r="H413" s="15"/>
-      <c r="I413" s="15"/>
-      <c r="J413" s="15"/>
-      <c r="K413" s="15"/>
+      <c r="F413" s="17"/>
+      <c r="G413" s="17"/>
+      <c r="H413" s="17"/>
+      <c r="I413" s="17"/>
+      <c r="J413" s="17"/>
+      <c r="K413" s="17"/>
     </row>
     <row r="414" spans="2:11" ht="15" customHeight="1">
-      <c r="B414" s="14" t="s">
+      <c r="B414" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C414" s="14"/>
-      <c r="D414" s="14"/>
-      <c r="E414" s="15" t="s">
+      <c r="C414" s="16"/>
+      <c r="D414" s="16"/>
+      <c r="E414" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="F414" s="15"/>
-      <c r="G414" s="15"/>
-      <c r="H414" s="15"/>
-      <c r="I414" s="15"/>
-      <c r="J414" s="15"/>
-      <c r="K414" s="15"/>
+      <c r="F414" s="17"/>
+      <c r="G414" s="17"/>
+      <c r="H414" s="17"/>
+      <c r="I414" s="17"/>
+      <c r="J414" s="17"/>
+      <c r="K414" s="17"/>
     </row>
     <row r="415" spans="2:11" ht="15" customHeight="1">
-      <c r="B415" s="14" t="s">
+      <c r="B415" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="C415" s="14"/>
-      <c r="D415" s="14"/>
-      <c r="E415" s="15" t="s">
+      <c r="C415" s="16"/>
+      <c r="D415" s="16"/>
+      <c r="E415" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="F415" s="15"/>
-      <c r="G415" s="15"/>
-      <c r="H415" s="15"/>
-      <c r="I415" s="15"/>
-      <c r="J415" s="15"/>
-      <c r="K415" s="15"/>
+      <c r="F415" s="17"/>
+      <c r="G415" s="17"/>
+      <c r="H415" s="17"/>
+      <c r="I415" s="17"/>
+      <c r="J415" s="17"/>
+      <c r="K415" s="17"/>
     </row>
     <row r="416" spans="2:11" ht="15" customHeight="1">
-      <c r="B416" s="14" t="s">
+      <c r="B416" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C416" s="14"/>
-      <c r="D416" s="14"/>
-      <c r="E416" s="15" t="s">
+      <c r="C416" s="16"/>
+      <c r="D416" s="16"/>
+      <c r="E416" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="F416" s="15"/>
-      <c r="G416" s="15"/>
-      <c r="H416" s="15"/>
-      <c r="I416" s="15"/>
-      <c r="J416" s="15"/>
-      <c r="K416" s="15"/>
+      <c r="F416" s="17"/>
+      <c r="G416" s="17"/>
+      <c r="H416" s="17"/>
+      <c r="I416" s="17"/>
+      <c r="J416" s="17"/>
+      <c r="K416" s="17"/>
     </row>
     <row r="417" spans="2:11" ht="15" customHeight="1">
-      <c r="B417" s="14" t="s">
+      <c r="B417" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C417" s="14"/>
-      <c r="D417" s="14"/>
-      <c r="E417" s="15" t="s">
+      <c r="C417" s="16"/>
+      <c r="D417" s="16"/>
+      <c r="E417" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="F417" s="15"/>
-      <c r="G417" s="15"/>
-      <c r="H417" s="15"/>
-      <c r="I417" s="15"/>
-      <c r="J417" s="15"/>
-      <c r="K417" s="15"/>
+      <c r="F417" s="17"/>
+      <c r="G417" s="17"/>
+      <c r="H417" s="17"/>
+      <c r="I417" s="17"/>
+      <c r="J417" s="17"/>
+      <c r="K417" s="17"/>
     </row>
     <row r="418" spans="2:11" ht="15" customHeight="1">
-      <c r="B418" s="14" t="s">
+      <c r="B418" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C418" s="14"/>
-      <c r="D418" s="14"/>
-      <c r="E418" s="15" t="s">
+      <c r="C418" s="16"/>
+      <c r="D418" s="16"/>
+      <c r="E418" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F418" s="15"/>
-      <c r="G418" s="15"/>
-      <c r="H418" s="15"/>
-      <c r="I418" s="15"/>
-      <c r="J418" s="15"/>
-      <c r="K418" s="15"/>
+      <c r="F418" s="17"/>
+      <c r="G418" s="17"/>
+      <c r="H418" s="17"/>
+      <c r="I418" s="17"/>
+      <c r="J418" s="17"/>
+      <c r="K418" s="17"/>
     </row>
     <row r="419" spans="2:11" ht="15" customHeight="1">
-      <c r="B419" s="14" t="s">
+      <c r="B419" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C419" s="14"/>
-      <c r="D419" s="14"/>
-      <c r="E419" s="15" t="s">
+      <c r="C419" s="16"/>
+      <c r="D419" s="16"/>
+      <c r="E419" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="F419" s="15"/>
-      <c r="G419" s="15"/>
-      <c r="H419" s="15"/>
-      <c r="I419" s="15"/>
-      <c r="J419" s="15"/>
-      <c r="K419" s="15"/>
+      <c r="F419" s="17"/>
+      <c r="G419" s="17"/>
+      <c r="H419" s="17"/>
+      <c r="I419" s="17"/>
+      <c r="J419" s="17"/>
+      <c r="K419" s="17"/>
     </row>
     <row r="420" spans="2:11" ht="15" customHeight="1">
-      <c r="B420" s="14" t="s">
+      <c r="B420" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C420" s="14"/>
-      <c r="D420" s="14"/>
-      <c r="E420" s="15" t="s">
+      <c r="C420" s="16"/>
+      <c r="D420" s="16"/>
+      <c r="E420" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="F420" s="15"/>
-      <c r="G420" s="15"/>
-      <c r="H420" s="15"/>
-      <c r="I420" s="15"/>
-      <c r="J420" s="15"/>
-      <c r="K420" s="15"/>
+      <c r="F420" s="17"/>
+      <c r="G420" s="17"/>
+      <c r="H420" s="17"/>
+      <c r="I420" s="17"/>
+      <c r="J420" s="17"/>
+      <c r="K420" s="17"/>
     </row>
     <row r="421" spans="2:11" ht="15" customHeight="1">
-      <c r="B421" s="14" t="s">
+      <c r="B421" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C421" s="14"/>
-      <c r="D421" s="14"/>
-      <c r="E421" s="15" t="s">
+      <c r="C421" s="16"/>
+      <c r="D421" s="16"/>
+      <c r="E421" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="F421" s="15"/>
-      <c r="G421" s="15"/>
-      <c r="H421" s="15"/>
-      <c r="I421" s="15"/>
-      <c r="J421" s="15"/>
-      <c r="K421" s="15"/>
+      <c r="F421" s="17"/>
+      <c r="G421" s="17"/>
+      <c r="H421" s="17"/>
+      <c r="I421" s="17"/>
+      <c r="J421" s="17"/>
+      <c r="K421" s="17"/>
     </row>
     <row r="422" spans="2:11" ht="15" customHeight="1">
-      <c r="B422" s="14" t="s">
+      <c r="B422" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C422" s="14"/>
-      <c r="D422" s="14"/>
-      <c r="E422" s="15" t="s">
+      <c r="C422" s="16"/>
+      <c r="D422" s="16"/>
+      <c r="E422" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="F422" s="15"/>
-      <c r="G422" s="15"/>
-      <c r="H422" s="15"/>
-      <c r="I422" s="15"/>
-      <c r="J422" s="15"/>
-      <c r="K422" s="15"/>
+      <c r="F422" s="17"/>
+      <c r="G422" s="17"/>
+      <c r="H422" s="17"/>
+      <c r="I422" s="17"/>
+      <c r="J422" s="17"/>
+      <c r="K422" s="17"/>
     </row>
     <row r="425" spans="2:11" ht="19.5">
       <c r="B425" s="9" t="s">
@@ -12751,100 +13783,100 @@
       </c>
     </row>
     <row r="426" spans="2:11">
-      <c r="B426" s="16" t="s">
+      <c r="B426" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C426" s="16"/>
-      <c r="D426" s="16"/>
-      <c r="E426" s="16" t="s">
+      <c r="C426" s="21"/>
+      <c r="D426" s="21"/>
+      <c r="E426" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="F426" s="16"/>
-      <c r="G426" s="16"/>
-      <c r="H426" s="16"/>
-      <c r="I426" s="16"/>
-      <c r="J426" s="16"/>
-      <c r="K426" s="16"/>
+      <c r="F426" s="21"/>
+      <c r="G426" s="21"/>
+      <c r="H426" s="21"/>
+      <c r="I426" s="21"/>
+      <c r="J426" s="21"/>
+      <c r="K426" s="21"/>
     </row>
     <row r="427" spans="2:11">
-      <c r="B427" s="14" t="s">
+      <c r="B427" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C427" s="14"/>
-      <c r="D427" s="14"/>
-      <c r="E427" s="15" t="s">
+      <c r="C427" s="16"/>
+      <c r="D427" s="16"/>
+      <c r="E427" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="F427" s="15"/>
-      <c r="G427" s="15"/>
-      <c r="H427" s="15"/>
-      <c r="I427" s="15"/>
-      <c r="J427" s="15"/>
-      <c r="K427" s="15"/>
+      <c r="F427" s="17"/>
+      <c r="G427" s="17"/>
+      <c r="H427" s="17"/>
+      <c r="I427" s="17"/>
+      <c r="J427" s="17"/>
+      <c r="K427" s="17"/>
     </row>
     <row r="428" spans="2:11">
-      <c r="B428" s="14" t="s">
+      <c r="B428" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C428" s="14"/>
-      <c r="D428" s="14"/>
-      <c r="E428" s="15" t="s">
+      <c r="C428" s="16"/>
+      <c r="D428" s="16"/>
+      <c r="E428" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="F428" s="15"/>
-      <c r="G428" s="15"/>
-      <c r="H428" s="15"/>
-      <c r="I428" s="15"/>
-      <c r="J428" s="15"/>
-      <c r="K428" s="15"/>
+      <c r="F428" s="17"/>
+      <c r="G428" s="17"/>
+      <c r="H428" s="17"/>
+      <c r="I428" s="17"/>
+      <c r="J428" s="17"/>
+      <c r="K428" s="17"/>
     </row>
     <row r="429" spans="2:11">
-      <c r="B429" s="14" t="s">
+      <c r="B429" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C429" s="14"/>
-      <c r="D429" s="14"/>
-      <c r="E429" s="15" t="s">
+      <c r="C429" s="16"/>
+      <c r="D429" s="16"/>
+      <c r="E429" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="F429" s="15"/>
-      <c r="G429" s="15"/>
-      <c r="H429" s="15"/>
-      <c r="I429" s="15"/>
-      <c r="J429" s="15"/>
-      <c r="K429" s="15"/>
+      <c r="F429" s="17"/>
+      <c r="G429" s="17"/>
+      <c r="H429" s="17"/>
+      <c r="I429" s="17"/>
+      <c r="J429" s="17"/>
+      <c r="K429" s="17"/>
     </row>
     <row r="430" spans="2:11">
-      <c r="B430" s="14" t="s">
+      <c r="B430" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C430" s="14"/>
-      <c r="D430" s="14"/>
-      <c r="E430" s="15" t="s">
+      <c r="C430" s="16"/>
+      <c r="D430" s="16"/>
+      <c r="E430" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="F430" s="15"/>
-      <c r="G430" s="15"/>
-      <c r="H430" s="15"/>
-      <c r="I430" s="15"/>
-      <c r="J430" s="15"/>
-      <c r="K430" s="15"/>
+      <c r="F430" s="17"/>
+      <c r="G430" s="17"/>
+      <c r="H430" s="17"/>
+      <c r="I430" s="17"/>
+      <c r="J430" s="17"/>
+      <c r="K430" s="17"/>
     </row>
     <row r="431" spans="2:11">
-      <c r="B431" s="14" t="s">
+      <c r="B431" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C431" s="14"/>
-      <c r="D431" s="14"/>
-      <c r="E431" s="15" t="s">
+      <c r="C431" s="16"/>
+      <c r="D431" s="16"/>
+      <c r="E431" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="F431" s="15"/>
-      <c r="G431" s="15"/>
-      <c r="H431" s="15"/>
-      <c r="I431" s="15"/>
-      <c r="J431" s="15"/>
-      <c r="K431" s="15"/>
+      <c r="F431" s="17"/>
+      <c r="G431" s="17"/>
+      <c r="H431" s="17"/>
+      <c r="I431" s="17"/>
+      <c r="J431" s="17"/>
+      <c r="K431" s="17"/>
     </row>
     <row r="432" spans="2:11">
       <c r="B432"/>
@@ -12863,228 +13895,228 @@
       <c r="E434"/>
     </row>
     <row r="435" spans="2:11">
-      <c r="B435" s="16" t="s">
+      <c r="B435" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C435" s="16"/>
-      <c r="D435" s="16"/>
-      <c r="E435" s="16" t="s">
+      <c r="C435" s="21"/>
+      <c r="D435" s="21"/>
+      <c r="E435" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="F435" s="16"/>
-      <c r="G435" s="16"/>
-      <c r="H435" s="16"/>
-      <c r="I435" s="16"/>
-      <c r="J435" s="16"/>
-      <c r="K435" s="16"/>
+      <c r="F435" s="21"/>
+      <c r="G435" s="21"/>
+      <c r="H435" s="21"/>
+      <c r="I435" s="21"/>
+      <c r="J435" s="21"/>
+      <c r="K435" s="21"/>
     </row>
     <row r="436" spans="2:11">
-      <c r="B436" s="14" t="s">
+      <c r="B436" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C436" s="14"/>
-      <c r="D436" s="14"/>
-      <c r="E436" s="15" t="s">
+      <c r="C436" s="16"/>
+      <c r="D436" s="16"/>
+      <c r="E436" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="F436" s="15"/>
-      <c r="G436" s="15"/>
-      <c r="H436" s="15"/>
-      <c r="I436" s="15"/>
-      <c r="J436" s="15"/>
-      <c r="K436" s="15"/>
+      <c r="F436" s="17"/>
+      <c r="G436" s="17"/>
+      <c r="H436" s="17"/>
+      <c r="I436" s="17"/>
+      <c r="J436" s="17"/>
+      <c r="K436" s="17"/>
     </row>
     <row r="437" spans="2:11">
-      <c r="B437" s="14" t="s">
+      <c r="B437" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C437" s="14"/>
-      <c r="D437" s="14"/>
-      <c r="E437" s="15" t="s">
+      <c r="C437" s="16"/>
+      <c r="D437" s="16"/>
+      <c r="E437" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="F437" s="15"/>
-      <c r="G437" s="15"/>
-      <c r="H437" s="15"/>
-      <c r="I437" s="15"/>
-      <c r="J437" s="15"/>
-      <c r="K437" s="15"/>
+      <c r="F437" s="17"/>
+      <c r="G437" s="17"/>
+      <c r="H437" s="17"/>
+      <c r="I437" s="17"/>
+      <c r="J437" s="17"/>
+      <c r="K437" s="17"/>
     </row>
     <row r="438" spans="2:11">
-      <c r="B438" s="14" t="s">
+      <c r="B438" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C438" s="14"/>
-      <c r="D438" s="14"/>
-      <c r="E438" s="15" t="s">
+      <c r="C438" s="16"/>
+      <c r="D438" s="16"/>
+      <c r="E438" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="F438" s="15"/>
-      <c r="G438" s="15"/>
-      <c r="H438" s="15"/>
-      <c r="I438" s="15"/>
-      <c r="J438" s="15"/>
-      <c r="K438" s="15"/>
+      <c r="F438" s="17"/>
+      <c r="G438" s="17"/>
+      <c r="H438" s="17"/>
+      <c r="I438" s="17"/>
+      <c r="J438" s="17"/>
+      <c r="K438" s="17"/>
     </row>
     <row r="439" spans="2:11">
-      <c r="B439" s="14" t="s">
+      <c r="B439" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C439" s="14"/>
-      <c r="D439" s="14"/>
-      <c r="E439" s="15" t="s">
+      <c r="C439" s="16"/>
+      <c r="D439" s="16"/>
+      <c r="E439" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="F439" s="15"/>
-      <c r="G439" s="15"/>
-      <c r="H439" s="15"/>
-      <c r="I439" s="15"/>
-      <c r="J439" s="15"/>
-      <c r="K439" s="15"/>
+      <c r="F439" s="17"/>
+      <c r="G439" s="17"/>
+      <c r="H439" s="17"/>
+      <c r="I439" s="17"/>
+      <c r="J439" s="17"/>
+      <c r="K439" s="17"/>
     </row>
     <row r="440" spans="2:11">
-      <c r="B440" s="14" t="s">
+      <c r="B440" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="C440" s="14"/>
-      <c r="D440" s="14"/>
-      <c r="E440" s="15" t="s">
+      <c r="C440" s="16"/>
+      <c r="D440" s="16"/>
+      <c r="E440" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="F440" s="15"/>
-      <c r="G440" s="15"/>
-      <c r="H440" s="15"/>
-      <c r="I440" s="15"/>
-      <c r="J440" s="15"/>
-      <c r="K440" s="15"/>
+      <c r="F440" s="17"/>
+      <c r="G440" s="17"/>
+      <c r="H440" s="17"/>
+      <c r="I440" s="17"/>
+      <c r="J440" s="17"/>
+      <c r="K440" s="17"/>
     </row>
     <row r="441" spans="2:11">
-      <c r="B441" s="14" t="s">
+      <c r="B441" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C441" s="14"/>
-      <c r="D441" s="14"/>
-      <c r="E441" s="15" t="s">
+      <c r="C441" s="16"/>
+      <c r="D441" s="16"/>
+      <c r="E441" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F441" s="15"/>
-      <c r="G441" s="15"/>
-      <c r="H441" s="15"/>
-      <c r="I441" s="15"/>
-      <c r="J441" s="15"/>
-      <c r="K441" s="15"/>
+      <c r="F441" s="17"/>
+      <c r="G441" s="17"/>
+      <c r="H441" s="17"/>
+      <c r="I441" s="17"/>
+      <c r="J441" s="17"/>
+      <c r="K441" s="17"/>
     </row>
     <row r="442" spans="2:11">
-      <c r="B442" s="14" t="s">
+      <c r="B442" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C442" s="14"/>
-      <c r="D442" s="14"/>
-      <c r="E442" s="15" t="s">
+      <c r="C442" s="16"/>
+      <c r="D442" s="16"/>
+      <c r="E442" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="F442" s="15"/>
-      <c r="G442" s="15"/>
-      <c r="H442" s="15"/>
-      <c r="I442" s="15"/>
-      <c r="J442" s="15"/>
-      <c r="K442" s="15"/>
+      <c r="F442" s="17"/>
+      <c r="G442" s="17"/>
+      <c r="H442" s="17"/>
+      <c r="I442" s="17"/>
+      <c r="J442" s="17"/>
+      <c r="K442" s="17"/>
     </row>
     <row r="443" spans="2:11">
-      <c r="B443" s="14" t="s">
+      <c r="B443" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C443" s="14"/>
-      <c r="D443" s="14"/>
-      <c r="E443" s="15" t="s">
+      <c r="C443" s="16"/>
+      <c r="D443" s="16"/>
+      <c r="E443" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F443" s="15"/>
-      <c r="G443" s="15"/>
-      <c r="H443" s="15"/>
-      <c r="I443" s="15"/>
-      <c r="J443" s="15"/>
-      <c r="K443" s="15"/>
+      <c r="F443" s="17"/>
+      <c r="G443" s="17"/>
+      <c r="H443" s="17"/>
+      <c r="I443" s="17"/>
+      <c r="J443" s="17"/>
+      <c r="K443" s="17"/>
     </row>
     <row r="444" spans="2:11">
-      <c r="B444" s="14" t="s">
+      <c r="B444" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C444" s="14"/>
-      <c r="D444" s="14"/>
-      <c r="E444" s="15" t="s">
+      <c r="C444" s="16"/>
+      <c r="D444" s="16"/>
+      <c r="E444" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="F444" s="15"/>
-      <c r="G444" s="15"/>
-      <c r="H444" s="15"/>
-      <c r="I444" s="15"/>
-      <c r="J444" s="15"/>
-      <c r="K444" s="15"/>
+      <c r="F444" s="17"/>
+      <c r="G444" s="17"/>
+      <c r="H444" s="17"/>
+      <c r="I444" s="17"/>
+      <c r="J444" s="17"/>
+      <c r="K444" s="17"/>
     </row>
     <row r="445" spans="2:11">
-      <c r="B445" s="14" t="s">
+      <c r="B445" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="C445" s="14"/>
-      <c r="D445" s="14"/>
-      <c r="E445" s="15" t="s">
+      <c r="C445" s="16"/>
+      <c r="D445" s="16"/>
+      <c r="E445" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="F445" s="15"/>
-      <c r="G445" s="15"/>
-      <c r="H445" s="15"/>
-      <c r="I445" s="15"/>
-      <c r="J445" s="15"/>
-      <c r="K445" s="15"/>
+      <c r="F445" s="17"/>
+      <c r="G445" s="17"/>
+      <c r="H445" s="17"/>
+      <c r="I445" s="17"/>
+      <c r="J445" s="17"/>
+      <c r="K445" s="17"/>
     </row>
     <row r="446" spans="2:11">
-      <c r="B446" s="14" t="s">
+      <c r="B446" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="C446" s="14"/>
-      <c r="D446" s="14"/>
-      <c r="E446" s="15" t="s">
+      <c r="C446" s="16"/>
+      <c r="D446" s="16"/>
+      <c r="E446" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="F446" s="15"/>
-      <c r="G446" s="15"/>
-      <c r="H446" s="15"/>
-      <c r="I446" s="15"/>
-      <c r="J446" s="15"/>
-      <c r="K446" s="15"/>
+      <c r="F446" s="17"/>
+      <c r="G446" s="17"/>
+      <c r="H446" s="17"/>
+      <c r="I446" s="17"/>
+      <c r="J446" s="17"/>
+      <c r="K446" s="17"/>
     </row>
     <row r="447" spans="2:11">
-      <c r="B447" s="14" t="s">
+      <c r="B447" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C447" s="14"/>
-      <c r="D447" s="14"/>
-      <c r="E447" s="15" t="s">
+      <c r="C447" s="16"/>
+      <c r="D447" s="16"/>
+      <c r="E447" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="F447" s="15"/>
-      <c r="G447" s="15"/>
-      <c r="H447" s="15"/>
-      <c r="I447" s="15"/>
-      <c r="J447" s="15"/>
-      <c r="K447" s="15"/>
+      <c r="F447" s="17"/>
+      <c r="G447" s="17"/>
+      <c r="H447" s="17"/>
+      <c r="I447" s="17"/>
+      <c r="J447" s="17"/>
+      <c r="K447" s="17"/>
     </row>
     <row r="448" spans="2:11">
-      <c r="B448" s="14" t="s">
+      <c r="B448" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C448" s="14"/>
-      <c r="D448" s="14"/>
-      <c r="E448" s="15" t="s">
+      <c r="C448" s="16"/>
+      <c r="D448" s="16"/>
+      <c r="E448" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F448" s="15"/>
-      <c r="G448" s="15"/>
-      <c r="H448" s="15"/>
-      <c r="I448" s="15"/>
-      <c r="J448" s="15"/>
-      <c r="K448" s="15"/>
+      <c r="F448" s="17"/>
+      <c r="G448" s="17"/>
+      <c r="H448" s="17"/>
+      <c r="I448" s="17"/>
+      <c r="J448" s="17"/>
+      <c r="K448" s="17"/>
     </row>
     <row r="450" spans="1:14" s="3" customFormat="1">
       <c r="A450" s="3" t="s">
@@ -14184,148 +15216,148 @@
       </c>
     </row>
     <row r="1132" spans="1:11">
-      <c r="B1132" s="16" t="s">
+      <c r="B1132" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="C1132" s="16"/>
-      <c r="D1132" s="16"/>
-      <c r="E1132" s="16" t="s">
+      <c r="C1132" s="21"/>
+      <c r="D1132" s="21"/>
+      <c r="E1132" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="F1132" s="16"/>
-      <c r="G1132" s="16"/>
-      <c r="H1132" s="16"/>
-      <c r="I1132" s="16"/>
-      <c r="J1132" s="16"/>
-      <c r="K1132" s="16"/>
+      <c r="F1132" s="21"/>
+      <c r="G1132" s="21"/>
+      <c r="H1132" s="21"/>
+      <c r="I1132" s="21"/>
+      <c r="J1132" s="21"/>
+      <c r="K1132" s="21"/>
     </row>
     <row r="1133" spans="1:11">
-      <c r="B1133" s="14" t="s">
+      <c r="B1133" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="C1133" s="14"/>
-      <c r="D1133" s="14"/>
-      <c r="E1133" s="15" t="s">
+      <c r="C1133" s="16"/>
+      <c r="D1133" s="16"/>
+      <c r="E1133" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="F1133" s="15"/>
-      <c r="G1133" s="15"/>
-      <c r="H1133" s="15"/>
-      <c r="I1133" s="15"/>
-      <c r="J1133" s="15"/>
-      <c r="K1133" s="15"/>
+      <c r="F1133" s="17"/>
+      <c r="G1133" s="17"/>
+      <c r="H1133" s="17"/>
+      <c r="I1133" s="17"/>
+      <c r="J1133" s="17"/>
+      <c r="K1133" s="17"/>
     </row>
     <row r="1134" spans="1:11">
-      <c r="B1134" s="14" t="s">
+      <c r="B1134" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="C1134" s="14"/>
-      <c r="D1134" s="14"/>
-      <c r="E1134" s="15" t="s">
+      <c r="C1134" s="16"/>
+      <c r="D1134" s="16"/>
+      <c r="E1134" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="F1134" s="15"/>
-      <c r="G1134" s="15"/>
-      <c r="H1134" s="15"/>
-      <c r="I1134" s="15"/>
-      <c r="J1134" s="15"/>
-      <c r="K1134" s="15"/>
+      <c r="F1134" s="17"/>
+      <c r="G1134" s="17"/>
+      <c r="H1134" s="17"/>
+      <c r="I1134" s="17"/>
+      <c r="J1134" s="17"/>
+      <c r="K1134" s="17"/>
     </row>
     <row r="1135" spans="1:11">
-      <c r="B1135" s="14" t="s">
+      <c r="B1135" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="C1135" s="14"/>
-      <c r="D1135" s="14"/>
-      <c r="E1135" s="15" t="s">
+      <c r="C1135" s="16"/>
+      <c r="D1135" s="16"/>
+      <c r="E1135" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="F1135" s="15"/>
-      <c r="G1135" s="15"/>
-      <c r="H1135" s="15"/>
-      <c r="I1135" s="15"/>
-      <c r="J1135" s="15"/>
-      <c r="K1135" s="15"/>
+      <c r="F1135" s="17"/>
+      <c r="G1135" s="17"/>
+      <c r="H1135" s="17"/>
+      <c r="I1135" s="17"/>
+      <c r="J1135" s="17"/>
+      <c r="K1135" s="17"/>
     </row>
     <row r="1136" spans="1:11">
-      <c r="B1136" s="14" t="s">
+      <c r="B1136" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="C1136" s="14"/>
-      <c r="D1136" s="14"/>
-      <c r="E1136" s="15" t="s">
+      <c r="C1136" s="16"/>
+      <c r="D1136" s="16"/>
+      <c r="E1136" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="F1136" s="15"/>
-      <c r="G1136" s="15"/>
-      <c r="H1136" s="15"/>
-      <c r="I1136" s="15"/>
-      <c r="J1136" s="15"/>
-      <c r="K1136" s="15"/>
+      <c r="F1136" s="17"/>
+      <c r="G1136" s="17"/>
+      <c r="H1136" s="17"/>
+      <c r="I1136" s="17"/>
+      <c r="J1136" s="17"/>
+      <c r="K1136" s="17"/>
     </row>
     <row r="1137" spans="2:11">
-      <c r="B1137" s="14" t="s">
+      <c r="B1137" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="C1137" s="14"/>
-      <c r="D1137" s="14"/>
-      <c r="E1137" s="15" t="s">
+      <c r="C1137" s="16"/>
+      <c r="D1137" s="16"/>
+      <c r="E1137" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="F1137" s="15"/>
-      <c r="G1137" s="15"/>
-      <c r="H1137" s="15"/>
-      <c r="I1137" s="15"/>
-      <c r="J1137" s="15"/>
-      <c r="K1137" s="15"/>
+      <c r="F1137" s="17"/>
+      <c r="G1137" s="17"/>
+      <c r="H1137" s="17"/>
+      <c r="I1137" s="17"/>
+      <c r="J1137" s="17"/>
+      <c r="K1137" s="17"/>
     </row>
     <row r="1138" spans="2:11">
-      <c r="B1138" s="14" t="s">
+      <c r="B1138" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="C1138" s="14"/>
-      <c r="D1138" s="14"/>
-      <c r="E1138" s="15" t="s">
+      <c r="C1138" s="16"/>
+      <c r="D1138" s="16"/>
+      <c r="E1138" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="F1138" s="15"/>
-      <c r="G1138" s="15"/>
-      <c r="H1138" s="15"/>
-      <c r="I1138" s="15"/>
-      <c r="J1138" s="15"/>
-      <c r="K1138" s="15"/>
+      <c r="F1138" s="17"/>
+      <c r="G1138" s="17"/>
+      <c r="H1138" s="17"/>
+      <c r="I1138" s="17"/>
+      <c r="J1138" s="17"/>
+      <c r="K1138" s="17"/>
     </row>
     <row r="1139" spans="2:11">
-      <c r="B1139" s="14" t="s">
+      <c r="B1139" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="C1139" s="14"/>
-      <c r="D1139" s="14"/>
-      <c r="E1139" s="15" t="s">
+      <c r="C1139" s="16"/>
+      <c r="D1139" s="16"/>
+      <c r="E1139" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="F1139" s="15"/>
-      <c r="G1139" s="15"/>
-      <c r="H1139" s="15"/>
-      <c r="I1139" s="15"/>
-      <c r="J1139" s="15"/>
-      <c r="K1139" s="15"/>
+      <c r="F1139" s="17"/>
+      <c r="G1139" s="17"/>
+      <c r="H1139" s="17"/>
+      <c r="I1139" s="17"/>
+      <c r="J1139" s="17"/>
+      <c r="K1139" s="17"/>
     </row>
     <row r="1140" spans="2:11">
-      <c r="B1140" s="14" t="s">
+      <c r="B1140" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="C1140" s="14"/>
-      <c r="D1140" s="14"/>
-      <c r="E1140" s="15" t="s">
+      <c r="C1140" s="16"/>
+      <c r="D1140" s="16"/>
+      <c r="E1140" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="F1140" s="15"/>
-      <c r="G1140" s="15"/>
-      <c r="H1140" s="15"/>
-      <c r="I1140" s="15"/>
-      <c r="J1140" s="15"/>
-      <c r="K1140" s="15"/>
+      <c r="F1140" s="17"/>
+      <c r="G1140" s="17"/>
+      <c r="H1140" s="17"/>
+      <c r="I1140" s="17"/>
+      <c r="J1140" s="17"/>
+      <c r="K1140" s="17"/>
     </row>
     <row r="1141" spans="2:11">
       <c r="B1141"/>
@@ -14343,148 +15375,148 @@
       </c>
     </row>
     <row r="1144" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B1144" s="16" t="s">
+      <c r="B1144" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="C1144" s="16"/>
-      <c r="D1144" s="16"/>
-      <c r="E1144" s="16" t="s">
+      <c r="C1144" s="21"/>
+      <c r="D1144" s="21"/>
+      <c r="E1144" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="F1144" s="16"/>
-      <c r="G1144" s="16"/>
-      <c r="H1144" s="16"/>
-      <c r="I1144" s="16"/>
-      <c r="J1144" s="16"/>
-      <c r="K1144" s="16"/>
+      <c r="F1144" s="21"/>
+      <c r="G1144" s="21"/>
+      <c r="H1144" s="21"/>
+      <c r="I1144" s="21"/>
+      <c r="J1144" s="21"/>
+      <c r="K1144" s="21"/>
     </row>
     <row r="1145" spans="2:11">
-      <c r="B1145" s="14" t="s">
+      <c r="B1145" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="C1145" s="14"/>
-      <c r="D1145" s="14"/>
-      <c r="E1145" s="15" t="s">
+      <c r="C1145" s="16"/>
+      <c r="D1145" s="16"/>
+      <c r="E1145" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="F1145" s="15"/>
-      <c r="G1145" s="15"/>
-      <c r="H1145" s="15"/>
-      <c r="I1145" s="15"/>
-      <c r="J1145" s="15"/>
-      <c r="K1145" s="15"/>
+      <c r="F1145" s="17"/>
+      <c r="G1145" s="17"/>
+      <c r="H1145" s="17"/>
+      <c r="I1145" s="17"/>
+      <c r="J1145" s="17"/>
+      <c r="K1145" s="17"/>
     </row>
     <row r="1146" spans="2:11">
-      <c r="B1146" s="14" t="s">
+      <c r="B1146" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="C1146" s="14"/>
-      <c r="D1146" s="14"/>
-      <c r="E1146" s="15" t="s">
+      <c r="C1146" s="16"/>
+      <c r="D1146" s="16"/>
+      <c r="E1146" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="F1146" s="15"/>
-      <c r="G1146" s="15"/>
-      <c r="H1146" s="15"/>
-      <c r="I1146" s="15"/>
-      <c r="J1146" s="15"/>
-      <c r="K1146" s="15"/>
+      <c r="F1146" s="17"/>
+      <c r="G1146" s="17"/>
+      <c r="H1146" s="17"/>
+      <c r="I1146" s="17"/>
+      <c r="J1146" s="17"/>
+      <c r="K1146" s="17"/>
     </row>
     <row r="1147" spans="2:11">
-      <c r="B1147" s="14" t="s">
+      <c r="B1147" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="C1147" s="14"/>
-      <c r="D1147" s="14"/>
-      <c r="E1147" s="15" t="s">
+      <c r="C1147" s="16"/>
+      <c r="D1147" s="16"/>
+      <c r="E1147" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="F1147" s="15"/>
-      <c r="G1147" s="15"/>
-      <c r="H1147" s="15"/>
-      <c r="I1147" s="15"/>
-      <c r="J1147" s="15"/>
-      <c r="K1147" s="15"/>
+      <c r="F1147" s="17"/>
+      <c r="G1147" s="17"/>
+      <c r="H1147" s="17"/>
+      <c r="I1147" s="17"/>
+      <c r="J1147" s="17"/>
+      <c r="K1147" s="17"/>
     </row>
     <row r="1148" spans="2:11">
-      <c r="B1148" s="14" t="s">
+      <c r="B1148" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="C1148" s="14"/>
-      <c r="D1148" s="14"/>
-      <c r="E1148" s="15" t="s">
+      <c r="C1148" s="16"/>
+      <c r="D1148" s="16"/>
+      <c r="E1148" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="F1148" s="15"/>
-      <c r="G1148" s="15"/>
-      <c r="H1148" s="15"/>
-      <c r="I1148" s="15"/>
-      <c r="J1148" s="15"/>
-      <c r="K1148" s="15"/>
+      <c r="F1148" s="17"/>
+      <c r="G1148" s="17"/>
+      <c r="H1148" s="17"/>
+      <c r="I1148" s="17"/>
+      <c r="J1148" s="17"/>
+      <c r="K1148" s="17"/>
     </row>
     <row r="1149" spans="2:11">
-      <c r="B1149" s="14" t="s">
+      <c r="B1149" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C1149" s="14"/>
-      <c r="D1149" s="14"/>
-      <c r="E1149" s="15" t="s">
+      <c r="C1149" s="16"/>
+      <c r="D1149" s="16"/>
+      <c r="E1149" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="F1149" s="15"/>
-      <c r="G1149" s="15"/>
-      <c r="H1149" s="15"/>
-      <c r="I1149" s="15"/>
-      <c r="J1149" s="15"/>
-      <c r="K1149" s="15"/>
+      <c r="F1149" s="17"/>
+      <c r="G1149" s="17"/>
+      <c r="H1149" s="17"/>
+      <c r="I1149" s="17"/>
+      <c r="J1149" s="17"/>
+      <c r="K1149" s="17"/>
     </row>
     <row r="1150" spans="2:11">
-      <c r="B1150" s="14" t="s">
+      <c r="B1150" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="C1150" s="14"/>
-      <c r="D1150" s="14"/>
-      <c r="E1150" s="15" t="s">
+      <c r="C1150" s="16"/>
+      <c r="D1150" s="16"/>
+      <c r="E1150" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="F1150" s="15"/>
-      <c r="G1150" s="15"/>
-      <c r="H1150" s="15"/>
-      <c r="I1150" s="15"/>
-      <c r="J1150" s="15"/>
-      <c r="K1150" s="15"/>
+      <c r="F1150" s="17"/>
+      <c r="G1150" s="17"/>
+      <c r="H1150" s="17"/>
+      <c r="I1150" s="17"/>
+      <c r="J1150" s="17"/>
+      <c r="K1150" s="17"/>
     </row>
     <row r="1151" spans="2:11">
-      <c r="B1151" s="14" t="s">
+      <c r="B1151" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="C1151" s="14"/>
-      <c r="D1151" s="14"/>
-      <c r="E1151" s="15" t="s">
+      <c r="C1151" s="16"/>
+      <c r="D1151" s="16"/>
+      <c r="E1151" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F1151" s="15"/>
-      <c r="G1151" s="15"/>
-      <c r="H1151" s="15"/>
-      <c r="I1151" s="15"/>
-      <c r="J1151" s="15"/>
-      <c r="K1151" s="15"/>
+      <c r="F1151" s="17"/>
+      <c r="G1151" s="17"/>
+      <c r="H1151" s="17"/>
+      <c r="I1151" s="17"/>
+      <c r="J1151" s="17"/>
+      <c r="K1151" s="17"/>
     </row>
     <row r="1152" spans="2:11">
-      <c r="B1152" s="14" t="s">
+      <c r="B1152" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="C1152" s="14"/>
-      <c r="D1152" s="14"/>
-      <c r="E1152" s="15" t="s">
+      <c r="C1152" s="16"/>
+      <c r="D1152" s="16"/>
+      <c r="E1152" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="F1152" s="15"/>
-      <c r="G1152" s="15"/>
-      <c r="H1152" s="15"/>
-      <c r="I1152" s="15"/>
-      <c r="J1152" s="15"/>
-      <c r="K1152" s="15"/>
+      <c r="F1152" s="17"/>
+      <c r="G1152" s="17"/>
+      <c r="H1152" s="17"/>
+      <c r="I1152" s="17"/>
+      <c r="J1152" s="17"/>
+      <c r="K1152" s="17"/>
     </row>
     <row r="1155" spans="1:11" s="3" customFormat="1">
       <c r="A1155" s="3" t="s">
@@ -14492,714 +15524,714 @@
       </c>
     </row>
     <row r="1157" spans="1:11" ht="18.75">
-      <c r="B1157" s="18" t="s">
+      <c r="B1157" s="15" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="1159" spans="1:11">
-      <c r="B1159" s="16" t="s">
+      <c r="B1159" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="C1159" s="16"/>
-      <c r="D1159" s="16"/>
-      <c r="E1159" s="16" t="s">
+      <c r="C1159" s="21"/>
+      <c r="D1159" s="21"/>
+      <c r="E1159" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="F1159" s="16"/>
-      <c r="G1159" s="16"/>
-      <c r="H1159" s="16"/>
-      <c r="I1159" s="16"/>
-      <c r="J1159" s="16"/>
-      <c r="K1159" s="16"/>
+      <c r="F1159" s="21"/>
+      <c r="G1159" s="21"/>
+      <c r="H1159" s="21"/>
+      <c r="I1159" s="21"/>
+      <c r="J1159" s="21"/>
+      <c r="K1159" s="21"/>
     </row>
     <row r="1160" spans="1:11">
-      <c r="B1160" s="14" t="s">
+      <c r="B1160" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="C1160" s="14"/>
-      <c r="D1160" s="14"/>
-      <c r="E1160" s="15" t="s">
+      <c r="C1160" s="16"/>
+      <c r="D1160" s="16"/>
+      <c r="E1160" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="F1160" s="15"/>
-      <c r="G1160" s="15"/>
-      <c r="H1160" s="15"/>
-      <c r="I1160" s="15"/>
-      <c r="J1160" s="15"/>
-      <c r="K1160" s="15"/>
+      <c r="F1160" s="17"/>
+      <c r="G1160" s="17"/>
+      <c r="H1160" s="17"/>
+      <c r="I1160" s="17"/>
+      <c r="J1160" s="17"/>
+      <c r="K1160" s="17"/>
     </row>
     <row r="1161" spans="1:11">
-      <c r="B1161" s="14" t="s">
+      <c r="B1161" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="C1161" s="14"/>
-      <c r="D1161" s="14"/>
-      <c r="E1161" s="15" t="s">
+      <c r="C1161" s="16"/>
+      <c r="D1161" s="16"/>
+      <c r="E1161" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="F1161" s="15"/>
-      <c r="G1161" s="15"/>
-      <c r="H1161" s="15"/>
-      <c r="I1161" s="15"/>
-      <c r="J1161" s="15"/>
-      <c r="K1161" s="15"/>
+      <c r="F1161" s="17"/>
+      <c r="G1161" s="17"/>
+      <c r="H1161" s="17"/>
+      <c r="I1161" s="17"/>
+      <c r="J1161" s="17"/>
+      <c r="K1161" s="17"/>
     </row>
     <row r="1162" spans="1:11">
-      <c r="B1162" s="14" t="s">
+      <c r="B1162" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="C1162" s="14"/>
-      <c r="D1162" s="14"/>
-      <c r="E1162" s="15" t="s">
+      <c r="C1162" s="16"/>
+      <c r="D1162" s="16"/>
+      <c r="E1162" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="F1162" s="15"/>
-      <c r="G1162" s="15"/>
-      <c r="H1162" s="15"/>
-      <c r="I1162" s="15"/>
-      <c r="J1162" s="15"/>
-      <c r="K1162" s="15"/>
+      <c r="F1162" s="17"/>
+      <c r="G1162" s="17"/>
+      <c r="H1162" s="17"/>
+      <c r="I1162" s="17"/>
+      <c r="J1162" s="17"/>
+      <c r="K1162" s="17"/>
     </row>
     <row r="1163" spans="1:11">
-      <c r="B1163" s="14" t="s">
+      <c r="B1163" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="C1163" s="14"/>
-      <c r="D1163" s="14"/>
-      <c r="E1163" s="15" t="s">
+      <c r="C1163" s="16"/>
+      <c r="D1163" s="16"/>
+      <c r="E1163" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="F1163" s="15"/>
-      <c r="G1163" s="15"/>
-      <c r="H1163" s="15"/>
-      <c r="I1163" s="15"/>
-      <c r="J1163" s="15"/>
-      <c r="K1163" s="15"/>
+      <c r="F1163" s="17"/>
+      <c r="G1163" s="17"/>
+      <c r="H1163" s="17"/>
+      <c r="I1163" s="17"/>
+      <c r="J1163" s="17"/>
+      <c r="K1163" s="17"/>
     </row>
     <row r="1164" spans="1:11">
-      <c r="B1164" s="14" t="s">
+      <c r="B1164" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="C1164" s="14"/>
-      <c r="D1164" s="14"/>
-      <c r="E1164" s="15" t="s">
+      <c r="C1164" s="16"/>
+      <c r="D1164" s="16"/>
+      <c r="E1164" s="17" t="s">
         <v>569</v>
       </c>
-      <c r="F1164" s="15"/>
-      <c r="G1164" s="15"/>
-      <c r="H1164" s="15"/>
-      <c r="I1164" s="15"/>
-      <c r="J1164" s="15"/>
-      <c r="K1164" s="15"/>
+      <c r="F1164" s="17"/>
+      <c r="G1164" s="17"/>
+      <c r="H1164" s="17"/>
+      <c r="I1164" s="17"/>
+      <c r="J1164" s="17"/>
+      <c r="K1164" s="17"/>
     </row>
     <row r="1165" spans="1:11">
-      <c r="B1165" s="14" t="s">
+      <c r="B1165" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="C1165" s="14"/>
-      <c r="D1165" s="14"/>
-      <c r="E1165" s="15" t="s">
+      <c r="C1165" s="16"/>
+      <c r="D1165" s="16"/>
+      <c r="E1165" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="F1165" s="15"/>
-      <c r="G1165" s="15"/>
-      <c r="H1165" s="15"/>
-      <c r="I1165" s="15"/>
-      <c r="J1165" s="15"/>
-      <c r="K1165" s="15"/>
+      <c r="F1165" s="17"/>
+      <c r="G1165" s="17"/>
+      <c r="H1165" s="17"/>
+      <c r="I1165" s="17"/>
+      <c r="J1165" s="17"/>
+      <c r="K1165" s="17"/>
     </row>
     <row r="1166" spans="1:11">
-      <c r="B1166" s="14" t="s">
+      <c r="B1166" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="C1166" s="14"/>
-      <c r="D1166" s="14"/>
-      <c r="E1166" s="15" t="s">
+      <c r="C1166" s="16"/>
+      <c r="D1166" s="16"/>
+      <c r="E1166" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="F1166" s="15"/>
-      <c r="G1166" s="15"/>
-      <c r="H1166" s="15"/>
-      <c r="I1166" s="15"/>
-      <c r="J1166" s="15"/>
-      <c r="K1166" s="15"/>
+      <c r="F1166" s="17"/>
+      <c r="G1166" s="17"/>
+      <c r="H1166" s="17"/>
+      <c r="I1166" s="17"/>
+      <c r="J1166" s="17"/>
+      <c r="K1166" s="17"/>
     </row>
     <row r="1167" spans="1:11">
-      <c r="B1167" s="14" t="s">
+      <c r="B1167" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="C1167" s="14"/>
-      <c r="D1167" s="14"/>
-      <c r="E1167" s="15" t="s">
+      <c r="C1167" s="16"/>
+      <c r="D1167" s="16"/>
+      <c r="E1167" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="F1167" s="15"/>
-      <c r="G1167" s="15"/>
-      <c r="H1167" s="15"/>
-      <c r="I1167" s="15"/>
-      <c r="J1167" s="15"/>
-      <c r="K1167" s="15"/>
+      <c r="F1167" s="17"/>
+      <c r="G1167" s="17"/>
+      <c r="H1167" s="17"/>
+      <c r="I1167" s="17"/>
+      <c r="J1167" s="17"/>
+      <c r="K1167" s="17"/>
     </row>
     <row r="1168" spans="1:11">
-      <c r="B1168" s="14" t="s">
+      <c r="B1168" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="C1168" s="14"/>
-      <c r="D1168" s="14"/>
-      <c r="E1168" s="15" t="s">
+      <c r="C1168" s="16"/>
+      <c r="D1168" s="16"/>
+      <c r="E1168" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="F1168" s="15"/>
-      <c r="G1168" s="15"/>
-      <c r="H1168" s="15"/>
-      <c r="I1168" s="15"/>
-      <c r="J1168" s="15"/>
-      <c r="K1168" s="15"/>
+      <c r="F1168" s="17"/>
+      <c r="G1168" s="17"/>
+      <c r="H1168" s="17"/>
+      <c r="I1168" s="17"/>
+      <c r="J1168" s="17"/>
+      <c r="K1168" s="17"/>
     </row>
     <row r="1169" spans="2:11">
-      <c r="B1169" s="14" t="s">
+      <c r="B1169" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="C1169" s="14"/>
-      <c r="D1169" s="14"/>
-      <c r="E1169" s="15" t="s">
+      <c r="C1169" s="16"/>
+      <c r="D1169" s="16"/>
+      <c r="E1169" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="F1169" s="15"/>
-      <c r="G1169" s="15"/>
-      <c r="H1169" s="15"/>
-      <c r="I1169" s="15"/>
-      <c r="J1169" s="15"/>
-      <c r="K1169" s="15"/>
+      <c r="F1169" s="17"/>
+      <c r="G1169" s="17"/>
+      <c r="H1169" s="17"/>
+      <c r="I1169" s="17"/>
+      <c r="J1169" s="17"/>
+      <c r="K1169" s="17"/>
     </row>
     <row r="1170" spans="2:11">
-      <c r="B1170" s="14" t="s">
+      <c r="B1170" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="C1170" s="14"/>
-      <c r="D1170" s="14"/>
-      <c r="E1170" s="15" t="s">
+      <c r="C1170" s="16"/>
+      <c r="D1170" s="16"/>
+      <c r="E1170" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="F1170" s="15"/>
-      <c r="G1170" s="15"/>
-      <c r="H1170" s="15"/>
-      <c r="I1170" s="15"/>
-      <c r="J1170" s="15"/>
-      <c r="K1170" s="15"/>
+      <c r="F1170" s="17"/>
+      <c r="G1170" s="17"/>
+      <c r="H1170" s="17"/>
+      <c r="I1170" s="17"/>
+      <c r="J1170" s="17"/>
+      <c r="K1170" s="17"/>
     </row>
     <row r="1171" spans="2:11">
-      <c r="B1171" s="19" t="s">
+      <c r="B1171" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="C1171" s="20"/>
-      <c r="D1171" s="20"/>
-      <c r="E1171" s="20"/>
-      <c r="F1171" s="20"/>
-      <c r="G1171" s="20"/>
-      <c r="H1171" s="20"/>
-      <c r="I1171" s="20"/>
-      <c r="J1171" s="20"/>
-      <c r="K1171" s="21"/>
+      <c r="C1171" s="19"/>
+      <c r="D1171" s="19"/>
+      <c r="E1171" s="19"/>
+      <c r="F1171" s="19"/>
+      <c r="G1171" s="19"/>
+      <c r="H1171" s="19"/>
+      <c r="I1171" s="19"/>
+      <c r="J1171" s="19"/>
+      <c r="K1171" s="20"/>
     </row>
     <row r="1172" spans="2:11">
-      <c r="B1172" s="14" t="s">
+      <c r="B1172" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="C1172" s="14"/>
-      <c r="D1172" s="14"/>
-      <c r="E1172" s="15" t="s">
+      <c r="C1172" s="16"/>
+      <c r="D1172" s="16"/>
+      <c r="E1172" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="F1172" s="15"/>
-      <c r="G1172" s="15"/>
-      <c r="H1172" s="15"/>
-      <c r="I1172" s="15"/>
-      <c r="J1172" s="15"/>
-      <c r="K1172" s="15"/>
+      <c r="F1172" s="17"/>
+      <c r="G1172" s="17"/>
+      <c r="H1172" s="17"/>
+      <c r="I1172" s="17"/>
+      <c r="J1172" s="17"/>
+      <c r="K1172" s="17"/>
     </row>
     <row r="1173" spans="2:11">
-      <c r="B1173" s="14" t="s">
+      <c r="B1173" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="C1173" s="14"/>
-      <c r="D1173" s="14"/>
-      <c r="E1173" s="15" t="s">
+      <c r="C1173" s="16"/>
+      <c r="D1173" s="16"/>
+      <c r="E1173" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="F1173" s="15"/>
-      <c r="G1173" s="15"/>
-      <c r="H1173" s="15"/>
-      <c r="I1173" s="15"/>
-      <c r="J1173" s="15"/>
-      <c r="K1173" s="15"/>
+      <c r="F1173" s="17"/>
+      <c r="G1173" s="17"/>
+      <c r="H1173" s="17"/>
+      <c r="I1173" s="17"/>
+      <c r="J1173" s="17"/>
+      <c r="K1173" s="17"/>
     </row>
     <row r="1174" spans="2:11">
-      <c r="B1174" s="14" t="s">
+      <c r="B1174" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="C1174" s="14"/>
-      <c r="D1174" s="14"/>
-      <c r="E1174" s="15" t="s">
+      <c r="C1174" s="16"/>
+      <c r="D1174" s="16"/>
+      <c r="E1174" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="F1174" s="15"/>
-      <c r="G1174" s="15"/>
-      <c r="H1174" s="15"/>
-      <c r="I1174" s="15"/>
-      <c r="J1174" s="15"/>
-      <c r="K1174" s="15"/>
+      <c r="F1174" s="17"/>
+      <c r="G1174" s="17"/>
+      <c r="H1174" s="17"/>
+      <c r="I1174" s="17"/>
+      <c r="J1174" s="17"/>
+      <c r="K1174" s="17"/>
     </row>
     <row r="1175" spans="2:11">
-      <c r="B1175" s="14" t="s">
+      <c r="B1175" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="C1175" s="14"/>
-      <c r="D1175" s="14"/>
-      <c r="E1175" s="15" t="s">
+      <c r="C1175" s="16"/>
+      <c r="D1175" s="16"/>
+      <c r="E1175" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="F1175" s="15"/>
-      <c r="G1175" s="15"/>
-      <c r="H1175" s="15"/>
-      <c r="I1175" s="15"/>
-      <c r="J1175" s="15"/>
-      <c r="K1175" s="15"/>
+      <c r="F1175" s="17"/>
+      <c r="G1175" s="17"/>
+      <c r="H1175" s="17"/>
+      <c r="I1175" s="17"/>
+      <c r="J1175" s="17"/>
+      <c r="K1175" s="17"/>
     </row>
     <row r="1176" spans="2:11">
-      <c r="B1176" s="14" t="s">
+      <c r="B1176" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="C1176" s="14"/>
-      <c r="D1176" s="14"/>
-      <c r="E1176" s="15" t="s">
+      <c r="C1176" s="16"/>
+      <c r="D1176" s="16"/>
+      <c r="E1176" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="F1176" s="15"/>
-      <c r="G1176" s="15"/>
-      <c r="H1176" s="15"/>
-      <c r="I1176" s="15"/>
-      <c r="J1176" s="15"/>
-      <c r="K1176" s="15"/>
+      <c r="F1176" s="17"/>
+      <c r="G1176" s="17"/>
+      <c r="H1176" s="17"/>
+      <c r="I1176" s="17"/>
+      <c r="J1176" s="17"/>
+      <c r="K1176" s="17"/>
     </row>
     <row r="1179" spans="2:11" ht="18.75">
-      <c r="B1179" s="18" t="s">
+      <c r="B1179" s="15" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="1181" spans="2:11">
-      <c r="B1181" s="16" t="s">
+      <c r="B1181" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="C1181" s="16"/>
-      <c r="D1181" s="16"/>
-      <c r="E1181" s="16" t="s">
+      <c r="C1181" s="21"/>
+      <c r="D1181" s="21"/>
+      <c r="E1181" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="F1181" s="16"/>
-      <c r="G1181" s="16"/>
-      <c r="H1181" s="16"/>
-      <c r="I1181" s="16"/>
-      <c r="J1181" s="16"/>
-      <c r="K1181" s="16"/>
+      <c r="F1181" s="21"/>
+      <c r="G1181" s="21"/>
+      <c r="H1181" s="21"/>
+      <c r="I1181" s="21"/>
+      <c r="J1181" s="21"/>
+      <c r="K1181" s="21"/>
     </row>
     <row r="1182" spans="2:11">
-      <c r="B1182" s="14" t="s">
+      <c r="B1182" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="C1182" s="14"/>
-      <c r="D1182" s="14"/>
-      <c r="E1182" s="15" t="s">
+      <c r="C1182" s="16"/>
+      <c r="D1182" s="16"/>
+      <c r="E1182" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="F1182" s="15"/>
-      <c r="G1182" s="15"/>
-      <c r="H1182" s="15"/>
-      <c r="I1182" s="15"/>
-      <c r="J1182" s="15"/>
-      <c r="K1182" s="15"/>
+      <c r="F1182" s="17"/>
+      <c r="G1182" s="17"/>
+      <c r="H1182" s="17"/>
+      <c r="I1182" s="17"/>
+      <c r="J1182" s="17"/>
+      <c r="K1182" s="17"/>
     </row>
     <row r="1183" spans="2:11">
-      <c r="B1183" s="14" t="s">
+      <c r="B1183" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="C1183" s="14"/>
-      <c r="D1183" s="14"/>
-      <c r="E1183" s="15" t="s">
+      <c r="C1183" s="16"/>
+      <c r="D1183" s="16"/>
+      <c r="E1183" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="F1183" s="15"/>
-      <c r="G1183" s="15"/>
-      <c r="H1183" s="15"/>
-      <c r="I1183" s="15"/>
-      <c r="J1183" s="15"/>
-      <c r="K1183" s="15"/>
+      <c r="F1183" s="17"/>
+      <c r="G1183" s="17"/>
+      <c r="H1183" s="17"/>
+      <c r="I1183" s="17"/>
+      <c r="J1183" s="17"/>
+      <c r="K1183" s="17"/>
     </row>
     <row r="1184" spans="2:11">
-      <c r="B1184" s="14" t="s">
+      <c r="B1184" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="C1184" s="14"/>
-      <c r="D1184" s="14"/>
-      <c r="E1184" s="15" t="s">
+      <c r="C1184" s="16"/>
+      <c r="D1184" s="16"/>
+      <c r="E1184" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="F1184" s="15"/>
-      <c r="G1184" s="15"/>
-      <c r="H1184" s="15"/>
-      <c r="I1184" s="15"/>
-      <c r="J1184" s="15"/>
-      <c r="K1184" s="15"/>
+      <c r="F1184" s="17"/>
+      <c r="G1184" s="17"/>
+      <c r="H1184" s="17"/>
+      <c r="I1184" s="17"/>
+      <c r="J1184" s="17"/>
+      <c r="K1184" s="17"/>
     </row>
     <row r="1185" spans="2:14">
-      <c r="B1185" s="14" t="s">
+      <c r="B1185" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="C1185" s="14"/>
-      <c r="D1185" s="14"/>
-      <c r="E1185" s="15" t="s">
+      <c r="C1185" s="16"/>
+      <c r="D1185" s="16"/>
+      <c r="E1185" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="F1185" s="15"/>
-      <c r="G1185" s="15"/>
-      <c r="H1185" s="15"/>
-      <c r="I1185" s="15"/>
-      <c r="J1185" s="15"/>
-      <c r="K1185" s="15"/>
+      <c r="F1185" s="17"/>
+      <c r="G1185" s="17"/>
+      <c r="H1185" s="17"/>
+      <c r="I1185" s="17"/>
+      <c r="J1185" s="17"/>
+      <c r="K1185" s="17"/>
     </row>
     <row r="1186" spans="2:14">
-      <c r="B1186" s="14" t="s">
+      <c r="B1186" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="C1186" s="14"/>
-      <c r="D1186" s="14"/>
-      <c r="E1186" s="15" t="s">
+      <c r="C1186" s="16"/>
+      <c r="D1186" s="16"/>
+      <c r="E1186" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="F1186" s="15"/>
-      <c r="G1186" s="15"/>
-      <c r="H1186" s="15"/>
-      <c r="I1186" s="15"/>
-      <c r="J1186" s="15"/>
-      <c r="K1186" s="15"/>
+      <c r="F1186" s="17"/>
+      <c r="G1186" s="17"/>
+      <c r="H1186" s="17"/>
+      <c r="I1186" s="17"/>
+      <c r="J1186" s="17"/>
+      <c r="K1186" s="17"/>
     </row>
     <row r="1187" spans="2:14">
-      <c r="B1187" s="14" t="s">
+      <c r="B1187" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="C1187" s="14"/>
-      <c r="D1187" s="14"/>
-      <c r="E1187" s="15" t="s">
+      <c r="C1187" s="16"/>
+      <c r="D1187" s="16"/>
+      <c r="E1187" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="F1187" s="15"/>
-      <c r="G1187" s="15"/>
-      <c r="H1187" s="15"/>
-      <c r="I1187" s="15"/>
-      <c r="J1187" s="15"/>
-      <c r="K1187" s="15"/>
+      <c r="F1187" s="17"/>
+      <c r="G1187" s="17"/>
+      <c r="H1187" s="17"/>
+      <c r="I1187" s="17"/>
+      <c r="J1187" s="17"/>
+      <c r="K1187" s="17"/>
     </row>
     <row r="1188" spans="2:14">
-      <c r="B1188" s="14" t="s">
+      <c r="B1188" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="C1188" s="14"/>
-      <c r="D1188" s="14"/>
-      <c r="E1188" s="15" t="s">
+      <c r="C1188" s="16"/>
+      <c r="D1188" s="16"/>
+      <c r="E1188" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="F1188" s="15"/>
-      <c r="G1188" s="15"/>
-      <c r="H1188" s="15"/>
-      <c r="I1188" s="15"/>
-      <c r="J1188" s="15"/>
-      <c r="K1188" s="15"/>
+      <c r="F1188" s="17"/>
+      <c r="G1188" s="17"/>
+      <c r="H1188" s="17"/>
+      <c r="I1188" s="17"/>
+      <c r="J1188" s="17"/>
+      <c r="K1188" s="17"/>
     </row>
     <row r="1189" spans="2:14">
-      <c r="B1189" s="14" t="s">
+      <c r="B1189" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="C1189" s="14"/>
-      <c r="D1189" s="14"/>
-      <c r="E1189" s="15" t="s">
+      <c r="C1189" s="16"/>
+      <c r="D1189" s="16"/>
+      <c r="E1189" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="F1189" s="15"/>
-      <c r="G1189" s="15"/>
-      <c r="H1189" s="15"/>
-      <c r="I1189" s="15"/>
-      <c r="J1189" s="15"/>
-      <c r="K1189" s="15"/>
+      <c r="F1189" s="17"/>
+      <c r="G1189" s="17"/>
+      <c r="H1189" s="17"/>
+      <c r="I1189" s="17"/>
+      <c r="J1189" s="17"/>
+      <c r="K1189" s="17"/>
     </row>
     <row r="1190" spans="2:14">
-      <c r="B1190" s="14" t="s">
+      <c r="B1190" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="C1190" s="14"/>
-      <c r="D1190" s="14"/>
-      <c r="E1190" s="15" t="s">
+      <c r="C1190" s="16"/>
+      <c r="D1190" s="16"/>
+      <c r="E1190" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="F1190" s="15"/>
-      <c r="G1190" s="15"/>
-      <c r="H1190" s="15"/>
-      <c r="I1190" s="15"/>
-      <c r="J1190" s="15"/>
-      <c r="K1190" s="15"/>
+      <c r="F1190" s="17"/>
+      <c r="G1190" s="17"/>
+      <c r="H1190" s="17"/>
+      <c r="I1190" s="17"/>
+      <c r="J1190" s="17"/>
+      <c r="K1190" s="17"/>
     </row>
     <row r="1191" spans="2:14">
-      <c r="B1191" s="19" t="s">
+      <c r="B1191" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="C1191" s="20"/>
-      <c r="D1191" s="20"/>
-      <c r="E1191" s="20"/>
-      <c r="F1191" s="20"/>
-      <c r="G1191" s="20"/>
-      <c r="H1191" s="20"/>
-      <c r="I1191" s="20"/>
-      <c r="J1191" s="20"/>
-      <c r="K1191" s="21"/>
+      <c r="C1191" s="19"/>
+      <c r="D1191" s="19"/>
+      <c r="E1191" s="19"/>
+      <c r="F1191" s="19"/>
+      <c r="G1191" s="19"/>
+      <c r="H1191" s="19"/>
+      <c r="I1191" s="19"/>
+      <c r="J1191" s="19"/>
+      <c r="K1191" s="20"/>
     </row>
     <row r="1192" spans="2:14" ht="14.25">
-      <c r="B1192" s="14" t="s">
+      <c r="B1192" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="C1192" s="14" t="s">
+      <c r="C1192" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="D1192" s="14" t="s">
+      <c r="D1192" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="E1192" s="15" t="s">
+      <c r="E1192" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="F1192" s="15" t="s">
+      <c r="F1192" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="G1192" s="15" t="s">
+      <c r="G1192" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="H1192" s="15" t="s">
+      <c r="H1192" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="I1192" s="15" t="s">
+      <c r="I1192" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="J1192" s="15" t="s">
+      <c r="J1192" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="K1192" s="15" t="s">
+      <c r="K1192" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="M1192" s="17"/>
-      <c r="N1192" s="17"/>
+      <c r="M1192" s="14"/>
+      <c r="N1192" s="14"/>
     </row>
     <row r="1193" spans="2:14" ht="14.25">
-      <c r="B1193" s="14" t="s">
+      <c r="B1193" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="C1193" s="14" t="s">
+      <c r="C1193" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="D1193" s="14" t="s">
+      <c r="D1193" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="E1193" s="15" t="s">
+      <c r="E1193" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="F1193" s="15" t="s">
+      <c r="F1193" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="G1193" s="15" t="s">
+      <c r="G1193" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="H1193" s="15" t="s">
+      <c r="H1193" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="I1193" s="15" t="s">
+      <c r="I1193" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="J1193" s="15" t="s">
+      <c r="J1193" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="K1193" s="15" t="s">
+      <c r="K1193" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="M1193" s="17"/>
-      <c r="N1193" s="17"/>
+      <c r="M1193" s="14"/>
+      <c r="N1193" s="14"/>
     </row>
     <row r="1194" spans="2:14" ht="14.25">
-      <c r="B1194" s="14" t="s">
+      <c r="B1194" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="C1194" s="14" t="s">
+      <c r="C1194" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="D1194" s="14" t="s">
+      <c r="D1194" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="E1194" s="15" t="s">
+      <c r="E1194" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="F1194" s="15" t="s">
+      <c r="F1194" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="G1194" s="15" t="s">
+      <c r="G1194" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="H1194" s="15" t="s">
+      <c r="H1194" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="I1194" s="15" t="s">
+      <c r="I1194" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="J1194" s="15" t="s">
+      <c r="J1194" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="K1194" s="15" t="s">
+      <c r="K1194" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="M1194" s="17"/>
-      <c r="N1194" s="17"/>
+      <c r="M1194" s="14"/>
+      <c r="N1194" s="14"/>
     </row>
     <row r="1195" spans="2:14" ht="14.25">
-      <c r="B1195" s="14" t="s">
+      <c r="B1195" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="C1195" s="14" t="s">
+      <c r="C1195" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="D1195" s="14" t="s">
+      <c r="D1195" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="E1195" s="15" t="s">
+      <c r="E1195" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="F1195" s="15" t="s">
+      <c r="F1195" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="G1195" s="15" t="s">
+      <c r="G1195" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="H1195" s="15" t="s">
+      <c r="H1195" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="I1195" s="15" t="s">
+      <c r="I1195" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="J1195" s="15" t="s">
+      <c r="J1195" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="K1195" s="15" t="s">
+      <c r="K1195" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="M1195" s="17"/>
-      <c r="N1195" s="17"/>
+      <c r="M1195" s="14"/>
+      <c r="N1195" s="14"/>
     </row>
     <row r="1196" spans="2:14" ht="14.25">
-      <c r="B1196" s="14" t="s">
+      <c r="B1196" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="C1196" s="14" t="s">
+      <c r="C1196" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="D1196" s="14" t="s">
+      <c r="D1196" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="E1196" s="15" t="s">
+      <c r="E1196" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="F1196" s="15" t="s">
+      <c r="F1196" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="G1196" s="15" t="s">
+      <c r="G1196" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="H1196" s="15" t="s">
+      <c r="H1196" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="I1196" s="15" t="s">
+      <c r="I1196" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="J1196" s="15" t="s">
+      <c r="J1196" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="K1196" s="15" t="s">
+      <c r="K1196" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="M1196" s="17"/>
-      <c r="N1196" s="17"/>
+      <c r="M1196" s="14"/>
+      <c r="N1196" s="14"/>
     </row>
     <row r="1197" spans="2:14" ht="14.25">
-      <c r="B1197" s="14" t="s">
+      <c r="B1197" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="C1197" s="14" t="s">
+      <c r="C1197" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="D1197" s="14" t="s">
+      <c r="D1197" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="E1197" s="15" t="s">
+      <c r="E1197" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="F1197" s="15" t="s">
+      <c r="F1197" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="G1197" s="15" t="s">
+      <c r="G1197" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="H1197" s="15" t="s">
+      <c r="H1197" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="I1197" s="15" t="s">
+      <c r="I1197" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="J1197" s="15" t="s">
+      <c r="J1197" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="K1197" s="15" t="s">
+      <c r="K1197" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="M1197" s="17"/>
-      <c r="N1197" s="17"/>
+      <c r="M1197" s="14"/>
+      <c r="N1197" s="14"/>
     </row>
     <row r="1198" spans="2:14" ht="14.25">
-      <c r="B1198" s="14" t="s">
+      <c r="B1198" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="C1198" s="14" t="s">
+      <c r="C1198" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="D1198" s="14" t="s">
+      <c r="D1198" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="E1198" s="15" t="s">
+      <c r="E1198" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="F1198" s="15" t="s">
+      <c r="F1198" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="G1198" s="15" t="s">
+      <c r="G1198" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="H1198" s="15" t="s">
+      <c r="H1198" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="I1198" s="15" t="s">
+      <c r="I1198" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="J1198" s="15" t="s">
+      <c r="J1198" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="K1198" s="15" t="s">
+      <c r="K1198" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="M1198" s="17"/>
-      <c r="N1198" s="17"/>
-    </row>
-    <row r="1201" spans="1:3" s="3" customFormat="1">
+      <c r="M1198" s="14"/>
+      <c r="N1198" s="14"/>
+    </row>
+    <row r="1201" spans="1:11" s="3" customFormat="1">
       <c r="A1201" s="3" t="s">
         <v>521</v>
       </c>
@@ -15207,12 +16239,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="1202" spans="1:3">
+    <row r="1202" spans="1:11">
       <c r="B1202" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="1203" spans="1:3">
+    <row r="1203" spans="1:11">
       <c r="B1203" s="1" t="s">
         <v>593</v>
       </c>
@@ -15220,7 +16252,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="1204" spans="1:3">
+    <row r="1204" spans="1:11">
       <c r="B1204" s="1" t="s">
         <v>596</v>
       </c>
@@ -15228,98 +16260,1062 @@
         <v>597</v>
       </c>
     </row>
+    <row r="1207" spans="1:11" s="3" customFormat="1">
+      <c r="A1207" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:11" ht="18.75">
+      <c r="B1209" s="15" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:11">
+      <c r="B1210" s="21"/>
+      <c r="C1210" s="21"/>
+      <c r="D1210" s="21"/>
+      <c r="E1210" s="21"/>
+      <c r="F1210" s="21"/>
+      <c r="G1210" s="21"/>
+      <c r="H1210" s="21"/>
+      <c r="I1210" s="21"/>
+      <c r="J1210" s="21"/>
+      <c r="K1210" s="21"/>
+    </row>
+    <row r="1211" spans="1:11">
+      <c r="B1211" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1211" s="16"/>
+      <c r="D1211" s="16"/>
+      <c r="E1211" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="F1211" s="17"/>
+      <c r="G1211" s="17"/>
+      <c r="H1211" s="17"/>
+      <c r="I1211" s="17"/>
+      <c r="J1211" s="17"/>
+      <c r="K1211" s="17"/>
+    </row>
+    <row r="1212" spans="1:11">
+      <c r="B1212" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1212" s="16"/>
+      <c r="D1212" s="16"/>
+      <c r="E1212" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1212" s="17"/>
+      <c r="G1212" s="17"/>
+      <c r="H1212" s="17"/>
+      <c r="I1212" s="17"/>
+      <c r="J1212" s="17"/>
+      <c r="K1212" s="17"/>
+    </row>
+    <row r="1213" spans="1:11">
+      <c r="B1213" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1213" s="16"/>
+      <c r="D1213" s="16"/>
+      <c r="E1213" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="F1213" s="17"/>
+      <c r="G1213" s="17"/>
+      <c r="H1213" s="17"/>
+      <c r="I1213" s="17"/>
+      <c r="J1213" s="17"/>
+      <c r="K1213" s="17"/>
+    </row>
+    <row r="1214" spans="1:11">
+      <c r="B1214" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1214" s="16"/>
+      <c r="D1214" s="16"/>
+      <c r="E1214" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="F1214" s="17"/>
+      <c r="G1214" s="17"/>
+      <c r="H1214" s="17"/>
+      <c r="I1214" s="17"/>
+      <c r="J1214" s="17"/>
+      <c r="K1214" s="17"/>
+    </row>
+    <row r="1215" spans="1:11">
+      <c r="B1215" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1215" s="16"/>
+      <c r="D1215" s="16"/>
+      <c r="E1215" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1215" s="17"/>
+      <c r="G1215" s="17"/>
+      <c r="H1215" s="17"/>
+      <c r="I1215" s="17"/>
+      <c r="J1215" s="17"/>
+      <c r="K1215" s="17"/>
+    </row>
+    <row r="1216" spans="1:11">
+      <c r="B1216" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1216" s="16"/>
+      <c r="D1216" s="16"/>
+      <c r="E1216" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="F1216" s="17"/>
+      <c r="G1216" s="17"/>
+      <c r="H1216" s="17"/>
+      <c r="I1216" s="17"/>
+      <c r="J1216" s="17"/>
+      <c r="K1216" s="17"/>
+    </row>
+    <row r="1217" spans="2:11">
+      <c r="B1217" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1217" s="16"/>
+      <c r="D1217" s="16"/>
+      <c r="E1217" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="F1217" s="17"/>
+      <c r="G1217" s="17"/>
+      <c r="H1217" s="17"/>
+      <c r="I1217" s="17"/>
+      <c r="J1217" s="17"/>
+      <c r="K1217" s="17"/>
+    </row>
+    <row r="1218" spans="2:11">
+      <c r="B1218" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="C1218" s="16"/>
+      <c r="D1218" s="16"/>
+      <c r="E1218" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="F1218" s="17"/>
+      <c r="G1218" s="17"/>
+      <c r="H1218" s="17"/>
+      <c r="I1218" s="17"/>
+      <c r="J1218" s="17"/>
+      <c r="K1218" s="17"/>
+    </row>
+    <row r="1219" spans="2:11">
+      <c r="B1219" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1219" s="16"/>
+      <c r="D1219" s="16"/>
+      <c r="E1219" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="F1219" s="17"/>
+      <c r="G1219" s="17"/>
+      <c r="H1219" s="17"/>
+      <c r="I1219" s="17"/>
+      <c r="J1219" s="17"/>
+      <c r="K1219" s="17"/>
+    </row>
+    <row r="1220" spans="2:11">
+      <c r="B1220" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1220" s="16"/>
+      <c r="D1220" s="16"/>
+      <c r="E1220" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="F1220" s="17"/>
+      <c r="G1220" s="17"/>
+      <c r="H1220" s="17"/>
+      <c r="I1220" s="17"/>
+      <c r="J1220" s="17"/>
+      <c r="K1220" s="17"/>
+    </row>
+    <row r="1221" spans="2:11">
+      <c r="B1221" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1221" s="16"/>
+      <c r="D1221" s="16"/>
+      <c r="E1221" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="F1221" s="17"/>
+      <c r="G1221" s="17"/>
+      <c r="H1221" s="17"/>
+      <c r="I1221" s="17"/>
+      <c r="J1221" s="17"/>
+      <c r="K1221" s="17"/>
+    </row>
+    <row r="1222" spans="2:11">
+      <c r="B1222" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1222" s="16"/>
+      <c r="D1222" s="16"/>
+      <c r="E1222" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="F1222" s="17"/>
+      <c r="G1222" s="17"/>
+      <c r="H1222" s="17"/>
+      <c r="I1222" s="17"/>
+      <c r="J1222" s="17"/>
+      <c r="K1222" s="17"/>
+    </row>
+    <row r="1223" spans="2:11">
+      <c r="B1223" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1223" s="16"/>
+      <c r="D1223" s="16"/>
+      <c r="E1223" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="F1223" s="17"/>
+      <c r="G1223" s="17"/>
+      <c r="H1223" s="17"/>
+      <c r="I1223" s="17"/>
+      <c r="J1223" s="17"/>
+      <c r="K1223" s="17"/>
+    </row>
+    <row r="1224" spans="2:11">
+      <c r="B1224" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1224" s="16"/>
+      <c r="D1224" s="16"/>
+      <c r="E1224" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="F1224" s="17"/>
+      <c r="G1224" s="17"/>
+      <c r="H1224" s="17"/>
+      <c r="I1224" s="17"/>
+      <c r="J1224" s="17"/>
+      <c r="K1224" s="17"/>
+    </row>
+    <row r="1225" spans="2:11">
+      <c r="B1225" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1225" s="16"/>
+      <c r="D1225" s="16"/>
+      <c r="E1225" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="F1225" s="17"/>
+      <c r="G1225" s="17"/>
+      <c r="H1225" s="17"/>
+      <c r="I1225" s="17"/>
+      <c r="J1225" s="17"/>
+      <c r="K1225" s="17"/>
+    </row>
+    <row r="1226" spans="2:11">
+      <c r="B1226" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1226" s="16"/>
+      <c r="D1226" s="16"/>
+      <c r="E1226" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="F1226" s="17"/>
+      <c r="G1226" s="17"/>
+      <c r="H1226" s="17"/>
+      <c r="I1226" s="17"/>
+      <c r="J1226" s="17"/>
+      <c r="K1226" s="17"/>
+    </row>
+    <row r="1227" spans="2:11">
+      <c r="B1227" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1227" s="16"/>
+      <c r="D1227" s="16"/>
+      <c r="E1227" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="F1227" s="17"/>
+      <c r="G1227" s="17"/>
+      <c r="H1227" s="17"/>
+      <c r="I1227" s="17"/>
+      <c r="J1227" s="17"/>
+      <c r="K1227" s="17"/>
+    </row>
+    <row r="1228" spans="2:11">
+      <c r="B1228" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1228" s="16"/>
+      <c r="D1228" s="16"/>
+      <c r="E1228" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="F1228" s="17"/>
+      <c r="G1228" s="17"/>
+      <c r="H1228" s="17"/>
+      <c r="I1228" s="17"/>
+      <c r="J1228" s="17"/>
+      <c r="K1228" s="17"/>
+    </row>
+    <row r="1229" spans="2:11">
+      <c r="B1229" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="C1229" s="16"/>
+      <c r="D1229" s="16"/>
+      <c r="E1229" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="F1229" s="17"/>
+      <c r="G1229" s="17"/>
+      <c r="H1229" s="17"/>
+      <c r="I1229" s="17"/>
+      <c r="J1229" s="17"/>
+      <c r="K1229" s="17"/>
+    </row>
+    <row r="1230" spans="2:11">
+      <c r="B1230" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1230" s="16"/>
+      <c r="D1230" s="16"/>
+      <c r="E1230" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="F1230" s="17"/>
+      <c r="G1230" s="17"/>
+      <c r="H1230" s="17"/>
+      <c r="I1230" s="17"/>
+      <c r="J1230" s="17"/>
+      <c r="K1230" s="17"/>
+    </row>
+    <row r="1231" spans="2:11">
+      <c r="B1231" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="C1231" s="16"/>
+      <c r="D1231" s="16"/>
+      <c r="E1231" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="F1231" s="17"/>
+      <c r="G1231" s="17"/>
+      <c r="H1231" s="17"/>
+      <c r="I1231" s="17"/>
+      <c r="J1231" s="17"/>
+      <c r="K1231" s="17"/>
+    </row>
+    <row r="1232" spans="2:11">
+      <c r="B1232" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1232" s="16"/>
+      <c r="D1232" s="16"/>
+      <c r="E1232" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="F1232" s="17"/>
+      <c r="G1232" s="17"/>
+      <c r="H1232" s="17"/>
+      <c r="I1232" s="17"/>
+      <c r="J1232" s="17"/>
+      <c r="K1232" s="17"/>
+    </row>
+    <row r="1233" spans="2:11">
+      <c r="B1233" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1233" s="16"/>
+      <c r="D1233" s="16"/>
+      <c r="E1233" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="F1233" s="17"/>
+      <c r="G1233" s="17"/>
+      <c r="H1233" s="17"/>
+      <c r="I1233" s="17"/>
+      <c r="J1233" s="17"/>
+      <c r="K1233" s="17"/>
+    </row>
+    <row r="1234" spans="2:11">
+      <c r="B1234" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1234" s="16"/>
+      <c r="D1234" s="16"/>
+      <c r="E1234" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1234" s="17"/>
+      <c r="G1234" s="17"/>
+      <c r="H1234" s="17"/>
+      <c r="I1234" s="17"/>
+      <c r="J1234" s="17"/>
+      <c r="K1234" s="17"/>
+    </row>
+    <row r="1235" spans="2:11">
+      <c r="B1235" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1235" s="16"/>
+      <c r="D1235" s="16"/>
+      <c r="E1235" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="F1235" s="17"/>
+      <c r="G1235" s="17"/>
+      <c r="H1235" s="17"/>
+      <c r="I1235" s="17"/>
+      <c r="J1235" s="17"/>
+      <c r="K1235" s="17"/>
+    </row>
+    <row r="1236" spans="2:11">
+      <c r="B1236" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="C1236" s="16"/>
+      <c r="D1236" s="16"/>
+      <c r="E1236" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1236" s="17"/>
+      <c r="G1236" s="17"/>
+      <c r="H1236" s="17"/>
+      <c r="I1236" s="17"/>
+      <c r="J1236" s="17"/>
+      <c r="K1236" s="17"/>
+    </row>
+    <row r="1237" spans="2:11">
+      <c r="B1237" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1237" s="16"/>
+      <c r="D1237" s="16"/>
+      <c r="E1237" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="F1237" s="17"/>
+      <c r="G1237" s="17"/>
+      <c r="H1237" s="17"/>
+      <c r="I1237" s="17"/>
+      <c r="J1237" s="17"/>
+      <c r="K1237" s="17"/>
+    </row>
+    <row r="1238" spans="2:11">
+      <c r="B1238" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1238" s="16"/>
+      <c r="D1238" s="16"/>
+      <c r="E1238" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1238" s="17"/>
+      <c r="G1238" s="17"/>
+      <c r="H1238" s="17"/>
+      <c r="I1238" s="17"/>
+      <c r="J1238" s="17"/>
+      <c r="K1238" s="17"/>
+    </row>
+    <row r="1239" spans="2:11">
+      <c r="B1239" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="C1239" s="16"/>
+      <c r="D1239" s="16"/>
+      <c r="E1239" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="F1239" s="17"/>
+      <c r="G1239" s="17"/>
+      <c r="H1239" s="17"/>
+      <c r="I1239" s="17"/>
+      <c r="J1239" s="17"/>
+      <c r="K1239" s="17"/>
+    </row>
+    <row r="1240" spans="2:11">
+      <c r="B1240" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1240" s="16"/>
+      <c r="D1240" s="16"/>
+      <c r="E1240" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="F1240" s="17"/>
+      <c r="G1240" s="17"/>
+      <c r="H1240" s="17"/>
+      <c r="I1240" s="17"/>
+      <c r="J1240" s="17"/>
+      <c r="K1240" s="17"/>
+    </row>
+    <row r="1243" spans="2:11" ht="18.75">
+      <c r="B1243" s="15" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="1245" spans="2:11" ht="18.75">
+      <c r="B1245" s="13" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="1246" spans="2:11" ht="18.75">
+      <c r="B1246" s="13" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="1247" spans="2:11" ht="18.75">
+      <c r="B1247" s="13" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="1248" spans="2:11" ht="18.75">
+      <c r="B1248" s="13" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1249" spans="2:2" ht="18.75">
+      <c r="B1249" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="1250" spans="2:2" ht="18.75">
+      <c r="B1250" s="13" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="1251" spans="2:2" ht="18.75">
+      <c r="B1251" s="13" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="1252" spans="2:2" ht="18.75">
+      <c r="B1252" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="1253" spans="2:2" ht="18.75">
+      <c r="B1253" s="13" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1254" spans="2:2" ht="18.75">
+      <c r="B1254" s="13" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1255" spans="2:2" ht="18.75">
+      <c r="B1255" s="13" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="1256" spans="2:2" ht="18.75">
+      <c r="B1256" s="13" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="1257" spans="2:2" ht="18.75">
+      <c r="B1257" s="13" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="1258" spans="2:2" ht="18.75">
+      <c r="B1258" s="13" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1259" spans="2:2" ht="18.75">
+      <c r="B1259" s="13" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1260" spans="2:2" ht="18.75">
+      <c r="B1260" s="13" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="1261" spans="2:2" ht="18.75">
+      <c r="B1261" s="13" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="1262" spans="2:2" ht="18.75">
+      <c r="B1262" s="13" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1263" spans="2:2" ht="18.75">
+      <c r="B1263" s="13" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1264" spans="2:2" ht="18.75">
+      <c r="B1264" s="13" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="1265" spans="2:2" ht="18.75">
+      <c r="B1265" s="13" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="1266" spans="2:2" ht="18.75">
+      <c r="B1266" s="13" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="1267" spans="2:2" ht="18.75">
+      <c r="B1267" s="13" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1268" spans="2:2" ht="18.75">
+      <c r="B1268" s="13" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="1269" spans="2:2" ht="18.75">
+      <c r="B1269" s="13" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1270" spans="2:2" ht="18.75">
+      <c r="B1270" s="13" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1271" spans="2:2" ht="18.75">
+      <c r="B1271" s="13" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="1272" spans="2:2" ht="18.75">
+      <c r="B1272" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1273" spans="2:2" ht="18.75">
+      <c r="B1273" s="13" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="1274" spans="2:2" ht="18.75">
+      <c r="B1274" s="13" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="1275" spans="2:2" ht="18.75">
+      <c r="B1275" s="13" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1276" spans="2:2" ht="18.75">
+      <c r="B1276" s="13" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="1277" spans="2:2" ht="18.75">
+      <c r="B1277" s="13" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1278" spans="2:2" ht="18.75">
+      <c r="B1278" s="13" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="1279" spans="2:2" ht="18.75">
+      <c r="B1279" s="13" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="1280" spans="2:2" ht="18.75">
+      <c r="B1280" s="13" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1281" spans="2:2" ht="18.75">
+      <c r="B1281" s="13" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="1282" spans="2:2" ht="18.75">
+      <c r="B1282" s="13" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:2" ht="18.75">
+      <c r="B1283" s="13" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1284" spans="2:2" ht="18.75">
+      <c r="B1284" s="13" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1285" spans="2:2" ht="18.75">
+      <c r="B1285" s="13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="1286" spans="2:2" ht="18.75">
+      <c r="B1286" s="13" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="1287" spans="2:2" ht="18.75">
+      <c r="B1287" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="1288" spans="2:2" ht="18.75">
+      <c r="B1288" s="13" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="1289" spans="2:2" ht="18.75">
+      <c r="B1289" s="13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1290" spans="2:2" ht="18.75">
+      <c r="B1290" s="13" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="1291" spans="2:2" ht="18.75">
+      <c r="B1291" s="13" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="1292" spans="2:2" ht="18.75">
+      <c r="B1292" s="13" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1293" spans="2:2" ht="18.75">
+      <c r="B1293" s="13" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1294" spans="2:2" ht="18.75">
+      <c r="B1294" s="13" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="1295" spans="2:2" ht="18.75">
+      <c r="B1295" s="13" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1296" spans="2:2" ht="18.75">
+      <c r="B1296" s="13" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" ht="18.75">
+      <c r="B1297" s="13" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" ht="18.75">
+      <c r="B1298" s="13" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" ht="18.75">
+      <c r="B1299" s="13" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" ht="18.75">
+      <c r="B1300" s="13" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" ht="18.75">
+      <c r="B1301" s="13" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" ht="18.75">
+      <c r="B1302" s="13" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" ht="18.75">
+      <c r="B1303" s="13" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" ht="18.75">
+      <c r="B1304" s="13" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" ht="18.75">
+      <c r="B1305" s="13" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" s="3" customFormat="1">
+      <c r="A1307" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:10" s="3" customFormat="1">
+      <c r="A1330" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:10">
+      <c r="B1332" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:10">
+      <c r="B1333" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:10">
+      <c r="J1337" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1348" spans="2:10">
+      <c r="B1348" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1350" spans="2:10">
+      <c r="J1350" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1351" spans="2:10">
+      <c r="J1351" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:3" s="3" customFormat="1">
+      <c r="A1362" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C1362" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="246">
-    <mergeCell ref="B1174:D1174"/>
-    <mergeCell ref="E1174:K1174"/>
-    <mergeCell ref="B1175:D1175"/>
-    <mergeCell ref="E1175:K1175"/>
-    <mergeCell ref="B1176:D1176"/>
-    <mergeCell ref="E1176:K1176"/>
-    <mergeCell ref="B1171:K1171"/>
-    <mergeCell ref="B1191:K1191"/>
-    <mergeCell ref="B1169:D1169"/>
-    <mergeCell ref="E1169:K1169"/>
-    <mergeCell ref="B1170:D1170"/>
-    <mergeCell ref="E1170:K1170"/>
-    <mergeCell ref="B1172:D1172"/>
-    <mergeCell ref="E1172:K1172"/>
-    <mergeCell ref="B1173:D1173"/>
-    <mergeCell ref="E1173:K1173"/>
-    <mergeCell ref="B1164:D1164"/>
-    <mergeCell ref="E1164:K1164"/>
-    <mergeCell ref="B1165:D1165"/>
-    <mergeCell ref="E1165:K1165"/>
-    <mergeCell ref="B1166:D1166"/>
-    <mergeCell ref="E1166:K1166"/>
-    <mergeCell ref="B1167:D1167"/>
-    <mergeCell ref="E1167:K1167"/>
-    <mergeCell ref="B1168:D1168"/>
-    <mergeCell ref="E1168:K1168"/>
-    <mergeCell ref="E1159:K1159"/>
-    <mergeCell ref="B1160:D1160"/>
-    <mergeCell ref="E1160:K1160"/>
-    <mergeCell ref="B1161:D1161"/>
-    <mergeCell ref="E1161:K1161"/>
-    <mergeCell ref="B1162:D1162"/>
-    <mergeCell ref="E1162:K1162"/>
-    <mergeCell ref="B1163:D1163"/>
-    <mergeCell ref="E1163:K1163"/>
-    <mergeCell ref="B1195:D1195"/>
-    <mergeCell ref="E1195:K1195"/>
-    <mergeCell ref="B1196:D1196"/>
-    <mergeCell ref="E1196:K1196"/>
-    <mergeCell ref="B1197:D1197"/>
-    <mergeCell ref="E1197:K1197"/>
-    <mergeCell ref="B1198:D1198"/>
-    <mergeCell ref="E1198:K1198"/>
-    <mergeCell ref="E1190:K1190"/>
-    <mergeCell ref="B1192:D1192"/>
-    <mergeCell ref="E1192:K1192"/>
-    <mergeCell ref="B1193:D1193"/>
-    <mergeCell ref="E1193:K1193"/>
-    <mergeCell ref="B1194:D1194"/>
-    <mergeCell ref="E1194:K1194"/>
-    <mergeCell ref="B1181:D1181"/>
-    <mergeCell ref="E1181:K1181"/>
-    <mergeCell ref="B1182:D1182"/>
-    <mergeCell ref="E1182:K1182"/>
-    <mergeCell ref="B1183:D1183"/>
-    <mergeCell ref="E1183:K1183"/>
-    <mergeCell ref="B1184:D1184"/>
-    <mergeCell ref="E1184:K1184"/>
-    <mergeCell ref="B1185:D1185"/>
-    <mergeCell ref="E1185:K1185"/>
-    <mergeCell ref="B1186:D1186"/>
-    <mergeCell ref="E1186:K1186"/>
-    <mergeCell ref="B1187:D1187"/>
-    <mergeCell ref="E1187:K1187"/>
-    <mergeCell ref="B1188:D1188"/>
-    <mergeCell ref="E1188:K1188"/>
-    <mergeCell ref="B1189:D1189"/>
-    <mergeCell ref="E1189:K1189"/>
-    <mergeCell ref="B1190:D1190"/>
-    <mergeCell ref="B1159:D1159"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
+  <mergeCells count="308">
+    <mergeCell ref="B1240:D1240"/>
+    <mergeCell ref="E1240:K1240"/>
+    <mergeCell ref="B1235:D1235"/>
+    <mergeCell ref="E1235:K1235"/>
+    <mergeCell ref="B1236:D1236"/>
+    <mergeCell ref="E1236:K1236"/>
+    <mergeCell ref="B1237:D1237"/>
+    <mergeCell ref="E1237:K1237"/>
+    <mergeCell ref="B1238:D1238"/>
+    <mergeCell ref="E1238:K1238"/>
+    <mergeCell ref="B1239:D1239"/>
+    <mergeCell ref="E1239:K1239"/>
+    <mergeCell ref="B1230:D1230"/>
+    <mergeCell ref="E1230:K1230"/>
+    <mergeCell ref="B1231:D1231"/>
+    <mergeCell ref="E1231:K1231"/>
+    <mergeCell ref="B1232:D1232"/>
+    <mergeCell ref="E1232:K1232"/>
+    <mergeCell ref="B1233:D1233"/>
+    <mergeCell ref="E1233:K1233"/>
+    <mergeCell ref="B1234:D1234"/>
+    <mergeCell ref="E1234:K1234"/>
+    <mergeCell ref="B1225:D1225"/>
+    <mergeCell ref="E1225:K1225"/>
+    <mergeCell ref="B1226:D1226"/>
+    <mergeCell ref="E1226:K1226"/>
+    <mergeCell ref="B1227:D1227"/>
+    <mergeCell ref="E1227:K1227"/>
+    <mergeCell ref="B1228:D1228"/>
+    <mergeCell ref="E1228:K1228"/>
+    <mergeCell ref="B1229:D1229"/>
+    <mergeCell ref="E1229:K1229"/>
+    <mergeCell ref="B1220:D1220"/>
+    <mergeCell ref="E1220:K1220"/>
+    <mergeCell ref="B1221:D1221"/>
+    <mergeCell ref="E1221:K1221"/>
+    <mergeCell ref="B1222:D1222"/>
+    <mergeCell ref="E1222:K1222"/>
+    <mergeCell ref="B1223:D1223"/>
+    <mergeCell ref="E1223:K1223"/>
+    <mergeCell ref="B1224:D1224"/>
+    <mergeCell ref="E1224:K1224"/>
+    <mergeCell ref="B1215:D1215"/>
+    <mergeCell ref="E1215:K1215"/>
+    <mergeCell ref="B1216:D1216"/>
+    <mergeCell ref="E1216:K1216"/>
+    <mergeCell ref="B1217:D1217"/>
+    <mergeCell ref="E1217:K1217"/>
+    <mergeCell ref="B1218:D1218"/>
+    <mergeCell ref="E1218:K1218"/>
+    <mergeCell ref="B1219:D1219"/>
+    <mergeCell ref="E1219:K1219"/>
+    <mergeCell ref="B1210:D1210"/>
+    <mergeCell ref="E1210:K1210"/>
+    <mergeCell ref="B1211:D1211"/>
+    <mergeCell ref="E1211:K1211"/>
+    <mergeCell ref="B1212:D1212"/>
+    <mergeCell ref="E1212:K1212"/>
+    <mergeCell ref="B1213:D1213"/>
+    <mergeCell ref="E1213:K1213"/>
+    <mergeCell ref="B1214:D1214"/>
+    <mergeCell ref="E1214:K1214"/>
+    <mergeCell ref="B1149:D1149"/>
+    <mergeCell ref="E1149:K1149"/>
+    <mergeCell ref="B1150:D1150"/>
+    <mergeCell ref="E1150:K1150"/>
+    <mergeCell ref="B1151:D1151"/>
+    <mergeCell ref="E1151:K1151"/>
+    <mergeCell ref="B1152:D1152"/>
+    <mergeCell ref="E1152:K1152"/>
+    <mergeCell ref="B1144:D1144"/>
+    <mergeCell ref="E1144:K1144"/>
+    <mergeCell ref="B1145:D1145"/>
+    <mergeCell ref="E1145:K1145"/>
+    <mergeCell ref="B1146:D1146"/>
+    <mergeCell ref="E1146:K1146"/>
+    <mergeCell ref="B1147:D1147"/>
+    <mergeCell ref="E1147:K1147"/>
+    <mergeCell ref="B1148:D1148"/>
+    <mergeCell ref="E1148:K1148"/>
+    <mergeCell ref="B1137:D1137"/>
+    <mergeCell ref="E1137:K1137"/>
+    <mergeCell ref="B1138:D1138"/>
+    <mergeCell ref="E1138:K1138"/>
+    <mergeCell ref="B1139:D1139"/>
+    <mergeCell ref="E1139:K1139"/>
+    <mergeCell ref="B1140:D1140"/>
+    <mergeCell ref="E1140:K1140"/>
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="E447:K447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="E448:K448"/>
+    <mergeCell ref="B1132:D1132"/>
+    <mergeCell ref="E1132:K1132"/>
+    <mergeCell ref="B1133:D1133"/>
+    <mergeCell ref="E1133:K1133"/>
+    <mergeCell ref="B1134:D1134"/>
+    <mergeCell ref="E1134:K1134"/>
+    <mergeCell ref="B1135:D1135"/>
+    <mergeCell ref="E1135:K1135"/>
+    <mergeCell ref="B1136:D1136"/>
+    <mergeCell ref="E1136:K1136"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E380:K380"/>
+    <mergeCell ref="E381:K381"/>
+    <mergeCell ref="E364:K364"/>
+    <mergeCell ref="E365:K365"/>
+    <mergeCell ref="E366:K366"/>
+    <mergeCell ref="E367:K367"/>
+    <mergeCell ref="E368:K368"/>
+    <mergeCell ref="E369:K369"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="E416:K416"/>
+    <mergeCell ref="E417:K417"/>
+    <mergeCell ref="E385:K385"/>
+    <mergeCell ref="E370:K370"/>
+    <mergeCell ref="E371:K371"/>
+    <mergeCell ref="E372:K372"/>
+    <mergeCell ref="E373:K373"/>
+    <mergeCell ref="E382:K382"/>
+    <mergeCell ref="E383:K383"/>
+    <mergeCell ref="E384:K384"/>
+    <mergeCell ref="E376:K376"/>
+    <mergeCell ref="E377:K377"/>
+    <mergeCell ref="E378:K378"/>
+    <mergeCell ref="E379:K379"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
     <mergeCell ref="E386:K386"/>
     <mergeCell ref="E387:K387"/>
     <mergeCell ref="E374:K374"/>
@@ -15344,138 +17340,96 @@
     <mergeCell ref="B369:D369"/>
     <mergeCell ref="B370:D370"/>
     <mergeCell ref="B371:D371"/>
-    <mergeCell ref="E360:K360"/>
-    <mergeCell ref="E361:K361"/>
-    <mergeCell ref="E350:K350"/>
-    <mergeCell ref="E351:K351"/>
-    <mergeCell ref="E352:K352"/>
-    <mergeCell ref="E353:K353"/>
-    <mergeCell ref="E354:K354"/>
-    <mergeCell ref="E355:K355"/>
-    <mergeCell ref="E356:K356"/>
-    <mergeCell ref="E357:K357"/>
-    <mergeCell ref="E358:K358"/>
-    <mergeCell ref="E359:K359"/>
-    <mergeCell ref="E380:K380"/>
-    <mergeCell ref="E381:K381"/>
-    <mergeCell ref="E364:K364"/>
-    <mergeCell ref="E365:K365"/>
-    <mergeCell ref="E366:K366"/>
-    <mergeCell ref="E367:K367"/>
-    <mergeCell ref="E368:K368"/>
-    <mergeCell ref="E369:K369"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="E416:K416"/>
-    <mergeCell ref="E417:K417"/>
-    <mergeCell ref="E385:K385"/>
-    <mergeCell ref="E370:K370"/>
-    <mergeCell ref="E371:K371"/>
-    <mergeCell ref="E372:K372"/>
-    <mergeCell ref="E373:K373"/>
-    <mergeCell ref="E382:K382"/>
-    <mergeCell ref="E383:K383"/>
-    <mergeCell ref="E384:K384"/>
-    <mergeCell ref="E376:K376"/>
-    <mergeCell ref="E377:K377"/>
-    <mergeCell ref="E378:K378"/>
-    <mergeCell ref="E379:K379"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="E418:K418"/>
-    <mergeCell ref="E419:K419"/>
-    <mergeCell ref="E420:K420"/>
-    <mergeCell ref="E421:K421"/>
-    <mergeCell ref="E422:K422"/>
-    <mergeCell ref="E411:K411"/>
-    <mergeCell ref="E412:K412"/>
-    <mergeCell ref="E413:K413"/>
-    <mergeCell ref="E414:K414"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:K426"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:K435"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:K427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="E428:K428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:K429"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:K438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:K439"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:K430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:K431"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:K436"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:K443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:K444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:K445"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:K440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:K441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:K442"/>
-    <mergeCell ref="B1137:D1137"/>
-    <mergeCell ref="E1137:K1137"/>
-    <mergeCell ref="B1138:D1138"/>
-    <mergeCell ref="E1138:K1138"/>
-    <mergeCell ref="B1139:D1139"/>
-    <mergeCell ref="E1139:K1139"/>
-    <mergeCell ref="B1140:D1140"/>
-    <mergeCell ref="E1140:K1140"/>
-    <mergeCell ref="B446:D446"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="B447:D447"/>
-    <mergeCell ref="E447:K447"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="E448:K448"/>
-    <mergeCell ref="B1132:D1132"/>
-    <mergeCell ref="E1132:K1132"/>
-    <mergeCell ref="B1133:D1133"/>
-    <mergeCell ref="E1133:K1133"/>
-    <mergeCell ref="B1134:D1134"/>
-    <mergeCell ref="E1134:K1134"/>
-    <mergeCell ref="B1135:D1135"/>
-    <mergeCell ref="E1135:K1135"/>
-    <mergeCell ref="B1136:D1136"/>
-    <mergeCell ref="E1136:K1136"/>
-    <mergeCell ref="B1149:D1149"/>
-    <mergeCell ref="E1149:K1149"/>
-    <mergeCell ref="B1150:D1150"/>
-    <mergeCell ref="E1150:K1150"/>
-    <mergeCell ref="B1151:D1151"/>
-    <mergeCell ref="E1151:K1151"/>
-    <mergeCell ref="B1152:D1152"/>
-    <mergeCell ref="E1152:K1152"/>
-    <mergeCell ref="B1144:D1144"/>
-    <mergeCell ref="E1144:K1144"/>
-    <mergeCell ref="B1145:D1145"/>
-    <mergeCell ref="E1145:K1145"/>
-    <mergeCell ref="B1146:D1146"/>
-    <mergeCell ref="E1146:K1146"/>
-    <mergeCell ref="B1147:D1147"/>
-    <mergeCell ref="E1147:K1147"/>
-    <mergeCell ref="B1148:D1148"/>
-    <mergeCell ref="E1148:K1148"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B1185:D1185"/>
+    <mergeCell ref="E1185:K1185"/>
+    <mergeCell ref="B1186:D1186"/>
+    <mergeCell ref="E1186:K1186"/>
+    <mergeCell ref="B1187:D1187"/>
+    <mergeCell ref="E1187:K1187"/>
+    <mergeCell ref="B1188:D1188"/>
+    <mergeCell ref="E1188:K1188"/>
+    <mergeCell ref="B1189:D1189"/>
+    <mergeCell ref="E1189:K1189"/>
+    <mergeCell ref="B1195:D1195"/>
+    <mergeCell ref="E1195:K1195"/>
+    <mergeCell ref="B1196:D1196"/>
+    <mergeCell ref="E1196:K1196"/>
+    <mergeCell ref="B1197:D1197"/>
+    <mergeCell ref="E1197:K1197"/>
+    <mergeCell ref="B1198:D1198"/>
+    <mergeCell ref="E1198:K1198"/>
+    <mergeCell ref="E1190:K1190"/>
+    <mergeCell ref="B1192:D1192"/>
+    <mergeCell ref="E1192:K1192"/>
+    <mergeCell ref="B1193:D1193"/>
+    <mergeCell ref="E1193:K1193"/>
+    <mergeCell ref="B1194:D1194"/>
+    <mergeCell ref="E1194:K1194"/>
+    <mergeCell ref="B1190:D1190"/>
+    <mergeCell ref="E1159:K1159"/>
+    <mergeCell ref="B1160:D1160"/>
+    <mergeCell ref="E1160:K1160"/>
+    <mergeCell ref="B1161:D1161"/>
+    <mergeCell ref="E1161:K1161"/>
+    <mergeCell ref="B1162:D1162"/>
+    <mergeCell ref="E1162:K1162"/>
+    <mergeCell ref="B1163:D1163"/>
+    <mergeCell ref="E1163:K1163"/>
+    <mergeCell ref="B1159:D1159"/>
+    <mergeCell ref="B1164:D1164"/>
+    <mergeCell ref="E1164:K1164"/>
+    <mergeCell ref="B1165:D1165"/>
+    <mergeCell ref="E1165:K1165"/>
+    <mergeCell ref="B1166:D1166"/>
+    <mergeCell ref="E1166:K1166"/>
+    <mergeCell ref="B1167:D1167"/>
+    <mergeCell ref="E1167:K1167"/>
+    <mergeCell ref="B1168:D1168"/>
+    <mergeCell ref="E1168:K1168"/>
+    <mergeCell ref="B1174:D1174"/>
+    <mergeCell ref="E1174:K1174"/>
+    <mergeCell ref="B1175:D1175"/>
+    <mergeCell ref="E1175:K1175"/>
+    <mergeCell ref="B1176:D1176"/>
+    <mergeCell ref="E1176:K1176"/>
+    <mergeCell ref="B1171:K1171"/>
+    <mergeCell ref="B1191:K1191"/>
+    <mergeCell ref="B1169:D1169"/>
+    <mergeCell ref="E1169:K1169"/>
+    <mergeCell ref="B1170:D1170"/>
+    <mergeCell ref="E1170:K1170"/>
+    <mergeCell ref="B1172:D1172"/>
+    <mergeCell ref="E1172:K1172"/>
+    <mergeCell ref="B1173:D1173"/>
+    <mergeCell ref="E1173:K1173"/>
+    <mergeCell ref="B1181:D1181"/>
+    <mergeCell ref="E1181:K1181"/>
+    <mergeCell ref="B1182:D1182"/>
+    <mergeCell ref="E1182:K1182"/>
+    <mergeCell ref="B1183:D1183"/>
+    <mergeCell ref="E1183:K1183"/>
+    <mergeCell ref="B1184:D1184"/>
+    <mergeCell ref="E1184:K1184"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="740">
   <si>
     <t>built-in functions</t>
   </si>
@@ -317,7 +317,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -328,7 +328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -670,7 +670,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -956,7 +956,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -978,7 +978,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -988,7 +988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1018,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1033,7 +1033,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1048,7 +1048,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1063,7 +1063,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1078,7 +1078,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1093,7 +1093,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1108,7 +1108,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1123,7 +1123,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1138,7 +1138,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1153,7 +1153,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,7 +1168,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1183,7 +1183,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1198,7 +1198,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1213,7 +1213,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1228,7 +1228,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1243,7 +1243,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1258,7 +1258,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1273,7 +1273,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1288,7 +1288,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1303,7 +1303,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1318,7 +1318,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1333,7 +1333,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1348,7 +1348,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1366,7 +1366,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1381,7 +1381,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1396,7 +1396,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1411,7 +1411,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1426,7 +1426,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1441,7 +1441,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1456,7 +1456,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1471,7 +1471,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1486,7 +1486,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1501,7 +1501,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1516,7 +1516,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1534,7 +1534,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1549,7 +1549,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1564,7 +1564,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1579,7 +1579,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1594,7 +1594,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1609,7 +1609,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1624,7 +1624,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1639,7 +1639,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1654,7 +1654,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1669,7 +1669,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1684,7 +1684,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1699,7 +1699,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1714,7 +1714,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1729,7 +1729,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1744,7 +1744,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1759,7 +1759,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1774,7 +1774,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1789,7 +1789,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1804,7 +1804,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1819,7 +1819,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1834,7 +1834,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1864,7 +1864,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1879,7 +1879,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1894,7 +1894,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1909,7 +1909,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1924,7 +1924,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2039,7 +2039,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2049,7 +2049,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2060,7 +2060,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2282,7 +2282,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2293,7 +2293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2314,7 +2314,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2332,7 +2332,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2419,7 +2419,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2429,7 +2429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3216,6 +3216,30 @@
   <si>
     <t>简化频繁打开和关闭文件的操作</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形界面开发</t>
+  </si>
+  <si>
+    <t>easygui</t>
+  </si>
+  <si>
+    <t>安装</t>
+  </si>
+  <si>
+    <t>http://easygui.sourceforge.net/</t>
+  </si>
+  <si>
+    <t>下载</t>
+  </si>
+  <si>
+    <t>python的第三方简单图形界面的GUI类库下载easygui-0.97.zip</t>
+  </si>
+  <si>
+    <t>官网下载：http://nchc.dl.sourceforge.net/project/easygui/0.97/easygui-0.97.zip</t>
+  </si>
+  <si>
+    <t>安装：解压后将easygui.py拷贝进Python安装目录下的Lib/site-packages文件夹下</t>
   </si>
 </sst>
 </file>
@@ -3226,20 +3250,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3247,7 +3271,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3256,7 +3280,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3265,7 +3289,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3279,7 +3303,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3287,7 +3311,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3426,6 +3450,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3435,12 +3462,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -11206,7 +11230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11498,7 +11522,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -11519,15 +11543,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P1362"/>
+  <dimension ref="A2:P1391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1335" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1366" sqref="B1366"/>
+    <sheetView tabSelected="1" topLeftCell="A1371" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1393" sqref="C1393"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" s="3" customFormat="1">
@@ -13586,20 +13610,20 @@
       </c>
     </row>
     <row r="411" spans="2:11" ht="15" customHeight="1">
-      <c r="B411" s="21" t="s">
+      <c r="B411" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C411" s="21"/>
-      <c r="D411" s="21"/>
-      <c r="E411" s="21" t="s">
+      <c r="C411" s="18"/>
+      <c r="D411" s="18"/>
+      <c r="E411" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="F411" s="21"/>
-      <c r="G411" s="21"/>
-      <c r="H411" s="21"/>
-      <c r="I411" s="21"/>
-      <c r="J411" s="21"/>
-      <c r="K411" s="21"/>
+      <c r="F411" s="18"/>
+      <c r="G411" s="18"/>
+      <c r="H411" s="18"/>
+      <c r="I411" s="18"/>
+      <c r="J411" s="18"/>
+      <c r="K411" s="18"/>
     </row>
     <row r="412" spans="2:11" ht="15" customHeight="1">
       <c r="B412" s="16" t="s">
@@ -13783,20 +13807,20 @@
       </c>
     </row>
     <row r="426" spans="2:11">
-      <c r="B426" s="21" t="s">
+      <c r="B426" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C426" s="21"/>
-      <c r="D426" s="21"/>
-      <c r="E426" s="21" t="s">
+      <c r="C426" s="18"/>
+      <c r="D426" s="18"/>
+      <c r="E426" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="F426" s="21"/>
-      <c r="G426" s="21"/>
-      <c r="H426" s="21"/>
-      <c r="I426" s="21"/>
-      <c r="J426" s="21"/>
-      <c r="K426" s="21"/>
+      <c r="F426" s="18"/>
+      <c r="G426" s="18"/>
+      <c r="H426" s="18"/>
+      <c r="I426" s="18"/>
+      <c r="J426" s="18"/>
+      <c r="K426" s="18"/>
     </row>
     <row r="427" spans="2:11">
       <c r="B427" s="16" t="s">
@@ -13895,20 +13919,20 @@
       <c r="E434"/>
     </row>
     <row r="435" spans="2:11">
-      <c r="B435" s="21" t="s">
+      <c r="B435" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C435" s="21"/>
-      <c r="D435" s="21"/>
-      <c r="E435" s="21" t="s">
+      <c r="C435" s="18"/>
+      <c r="D435" s="18"/>
+      <c r="E435" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="F435" s="21"/>
-      <c r="G435" s="21"/>
-      <c r="H435" s="21"/>
-      <c r="I435" s="21"/>
-      <c r="J435" s="21"/>
-      <c r="K435" s="21"/>
+      <c r="F435" s="18"/>
+      <c r="G435" s="18"/>
+      <c r="H435" s="18"/>
+      <c r="I435" s="18"/>
+      <c r="J435" s="18"/>
+      <c r="K435" s="18"/>
     </row>
     <row r="436" spans="2:11">
       <c r="B436" s="16" t="s">
@@ -15216,20 +15240,20 @@
       </c>
     </row>
     <row r="1132" spans="1:11">
-      <c r="B1132" s="21" t="s">
+      <c r="B1132" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="C1132" s="21"/>
-      <c r="D1132" s="21"/>
-      <c r="E1132" s="21" t="s">
+      <c r="C1132" s="18"/>
+      <c r="D1132" s="18"/>
+      <c r="E1132" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="F1132" s="21"/>
-      <c r="G1132" s="21"/>
-      <c r="H1132" s="21"/>
-      <c r="I1132" s="21"/>
-      <c r="J1132" s="21"/>
-      <c r="K1132" s="21"/>
+      <c r="F1132" s="18"/>
+      <c r="G1132" s="18"/>
+      <c r="H1132" s="18"/>
+      <c r="I1132" s="18"/>
+      <c r="J1132" s="18"/>
+      <c r="K1132" s="18"/>
     </row>
     <row r="1133" spans="1:11">
       <c r="B1133" s="16" t="s">
@@ -15375,20 +15399,20 @@
       </c>
     </row>
     <row r="1144" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B1144" s="21" t="s">
+      <c r="B1144" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="C1144" s="21"/>
-      <c r="D1144" s="21"/>
-      <c r="E1144" s="21" t="s">
+      <c r="C1144" s="18"/>
+      <c r="D1144" s="18"/>
+      <c r="E1144" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="F1144" s="21"/>
-      <c r="G1144" s="21"/>
-      <c r="H1144" s="21"/>
-      <c r="I1144" s="21"/>
-      <c r="J1144" s="21"/>
-      <c r="K1144" s="21"/>
+      <c r="F1144" s="18"/>
+      <c r="G1144" s="18"/>
+      <c r="H1144" s="18"/>
+      <c r="I1144" s="18"/>
+      <c r="J1144" s="18"/>
+      <c r="K1144" s="18"/>
     </row>
     <row r="1145" spans="2:11">
       <c r="B1145" s="16" t="s">
@@ -15529,20 +15553,20 @@
       </c>
     </row>
     <row r="1159" spans="1:11">
-      <c r="B1159" s="21" t="s">
+      <c r="B1159" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="C1159" s="21"/>
-      <c r="D1159" s="21"/>
-      <c r="E1159" s="21" t="s">
+      <c r="C1159" s="18"/>
+      <c r="D1159" s="18"/>
+      <c r="E1159" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="F1159" s="21"/>
-      <c r="G1159" s="21"/>
-      <c r="H1159" s="21"/>
-      <c r="I1159" s="21"/>
-      <c r="J1159" s="21"/>
-      <c r="K1159" s="21"/>
+      <c r="F1159" s="18"/>
+      <c r="G1159" s="18"/>
+      <c r="H1159" s="18"/>
+      <c r="I1159" s="18"/>
+      <c r="J1159" s="18"/>
+      <c r="K1159" s="18"/>
     </row>
     <row r="1160" spans="1:11">
       <c r="B1160" s="16" t="s">
@@ -15721,18 +15745,18 @@
       <c r="K1170" s="17"/>
     </row>
     <row r="1171" spans="2:11">
-      <c r="B1171" s="18" t="s">
+      <c r="B1171" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="C1171" s="19"/>
-      <c r="D1171" s="19"/>
-      <c r="E1171" s="19"/>
-      <c r="F1171" s="19"/>
-      <c r="G1171" s="19"/>
-      <c r="H1171" s="19"/>
-      <c r="I1171" s="19"/>
-      <c r="J1171" s="19"/>
-      <c r="K1171" s="20"/>
+      <c r="C1171" s="20"/>
+      <c r="D1171" s="20"/>
+      <c r="E1171" s="20"/>
+      <c r="F1171" s="20"/>
+      <c r="G1171" s="20"/>
+      <c r="H1171" s="20"/>
+      <c r="I1171" s="20"/>
+      <c r="J1171" s="20"/>
+      <c r="K1171" s="21"/>
     </row>
     <row r="1172" spans="2:11">
       <c r="B1172" s="16" t="s">
@@ -15820,20 +15844,20 @@
       </c>
     </row>
     <row r="1181" spans="2:11">
-      <c r="B1181" s="21" t="s">
+      <c r="B1181" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="C1181" s="21"/>
-      <c r="D1181" s="21"/>
-      <c r="E1181" s="21" t="s">
+      <c r="C1181" s="18"/>
+      <c r="D1181" s="18"/>
+      <c r="E1181" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="F1181" s="21"/>
-      <c r="G1181" s="21"/>
-      <c r="H1181" s="21"/>
-      <c r="I1181" s="21"/>
-      <c r="J1181" s="21"/>
-      <c r="K1181" s="21"/>
+      <c r="F1181" s="18"/>
+      <c r="G1181" s="18"/>
+      <c r="H1181" s="18"/>
+      <c r="I1181" s="18"/>
+      <c r="J1181" s="18"/>
+      <c r="K1181" s="18"/>
     </row>
     <row r="1182" spans="2:11">
       <c r="B1182" s="16" t="s">
@@ -15980,20 +16004,20 @@
       <c r="K1190" s="17"/>
     </row>
     <row r="1191" spans="2:14">
-      <c r="B1191" s="18" t="s">
+      <c r="B1191" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C1191" s="19"/>
-      <c r="D1191" s="19"/>
-      <c r="E1191" s="19"/>
-      <c r="F1191" s="19"/>
-      <c r="G1191" s="19"/>
-      <c r="H1191" s="19"/>
-      <c r="I1191" s="19"/>
-      <c r="J1191" s="19"/>
-      <c r="K1191" s="20"/>
-    </row>
-    <row r="1192" spans="2:14" ht="14.25">
+      <c r="C1191" s="20"/>
+      <c r="D1191" s="20"/>
+      <c r="E1191" s="20"/>
+      <c r="F1191" s="20"/>
+      <c r="G1191" s="20"/>
+      <c r="H1191" s="20"/>
+      <c r="I1191" s="20"/>
+      <c r="J1191" s="20"/>
+      <c r="K1191" s="21"/>
+    </row>
+    <row r="1192" spans="2:14">
       <c r="B1192" s="16" t="s">
         <v>545</v>
       </c>
@@ -16027,7 +16051,7 @@
       <c r="M1192" s="14"/>
       <c r="N1192" s="14"/>
     </row>
-    <row r="1193" spans="2:14" ht="14.25">
+    <row r="1193" spans="2:14">
       <c r="B1193" s="16" t="s">
         <v>547</v>
       </c>
@@ -16061,7 +16085,7 @@
       <c r="M1193" s="14"/>
       <c r="N1193" s="14"/>
     </row>
-    <row r="1194" spans="2:14" ht="14.25">
+    <row r="1194" spans="2:14">
       <c r="B1194" s="16" t="s">
         <v>549</v>
       </c>
@@ -16095,7 +16119,7 @@
       <c r="M1194" s="14"/>
       <c r="N1194" s="14"/>
     </row>
-    <row r="1195" spans="2:14" ht="14.25">
+    <row r="1195" spans="2:14">
       <c r="B1195" s="16" t="s">
         <v>551</v>
       </c>
@@ -16129,7 +16153,7 @@
       <c r="M1195" s="14"/>
       <c r="N1195" s="14"/>
     </row>
-    <row r="1196" spans="2:14" ht="14.25">
+    <row r="1196" spans="2:14">
       <c r="B1196" s="16" t="s">
         <v>553</v>
       </c>
@@ -16163,7 +16187,7 @@
       <c r="M1196" s="14"/>
       <c r="N1196" s="14"/>
     </row>
-    <row r="1197" spans="2:14" ht="14.25">
+    <row r="1197" spans="2:14">
       <c r="B1197" s="16" t="s">
         <v>555</v>
       </c>
@@ -16197,7 +16221,7 @@
       <c r="M1197" s="14"/>
       <c r="N1197" s="14"/>
     </row>
-    <row r="1198" spans="2:14" ht="14.25">
+    <row r="1198" spans="2:14">
       <c r="B1198" s="16" t="s">
         <v>557</v>
       </c>
@@ -16271,16 +16295,16 @@
       </c>
     </row>
     <row r="1210" spans="1:11">
-      <c r="B1210" s="21"/>
-      <c r="C1210" s="21"/>
-      <c r="D1210" s="21"/>
-      <c r="E1210" s="21"/>
-      <c r="F1210" s="21"/>
-      <c r="G1210" s="21"/>
-      <c r="H1210" s="21"/>
-      <c r="I1210" s="21"/>
-      <c r="J1210" s="21"/>
-      <c r="K1210" s="21"/>
+      <c r="B1210" s="18"/>
+      <c r="C1210" s="18"/>
+      <c r="D1210" s="18"/>
+      <c r="E1210" s="18"/>
+      <c r="F1210" s="18"/>
+      <c r="G1210" s="18"/>
+      <c r="H1210" s="18"/>
+      <c r="I1210" s="18"/>
+      <c r="J1210" s="18"/>
+      <c r="K1210" s="18"/>
     </row>
     <row r="1211" spans="1:11">
       <c r="B1211" s="16" t="s">
@@ -17120,88 +17144,250 @@
         <v>731</v>
       </c>
     </row>
+    <row r="1382" spans="1:4" s="3" customFormat="1">
+      <c r="A1382" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D1382" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4">
+      <c r="C1384" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4">
+      <c r="C1385" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4">
+      <c r="C1387" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4">
+      <c r="C1389" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4">
+      <c r="C1390" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4">
+      <c r="C1391" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="308">
-    <mergeCell ref="B1240:D1240"/>
-    <mergeCell ref="E1240:K1240"/>
-    <mergeCell ref="B1235:D1235"/>
-    <mergeCell ref="E1235:K1235"/>
-    <mergeCell ref="B1236:D1236"/>
-    <mergeCell ref="E1236:K1236"/>
-    <mergeCell ref="B1237:D1237"/>
-    <mergeCell ref="E1237:K1237"/>
-    <mergeCell ref="B1238:D1238"/>
-    <mergeCell ref="E1238:K1238"/>
-    <mergeCell ref="B1239:D1239"/>
-    <mergeCell ref="E1239:K1239"/>
-    <mergeCell ref="B1230:D1230"/>
-    <mergeCell ref="E1230:K1230"/>
-    <mergeCell ref="B1231:D1231"/>
-    <mergeCell ref="E1231:K1231"/>
-    <mergeCell ref="B1232:D1232"/>
-    <mergeCell ref="E1232:K1232"/>
-    <mergeCell ref="B1233:D1233"/>
-    <mergeCell ref="E1233:K1233"/>
-    <mergeCell ref="B1234:D1234"/>
-    <mergeCell ref="E1234:K1234"/>
-    <mergeCell ref="B1225:D1225"/>
-    <mergeCell ref="E1225:K1225"/>
-    <mergeCell ref="B1226:D1226"/>
-    <mergeCell ref="E1226:K1226"/>
-    <mergeCell ref="B1227:D1227"/>
-    <mergeCell ref="E1227:K1227"/>
-    <mergeCell ref="B1228:D1228"/>
-    <mergeCell ref="E1228:K1228"/>
-    <mergeCell ref="B1229:D1229"/>
-    <mergeCell ref="E1229:K1229"/>
-    <mergeCell ref="B1220:D1220"/>
-    <mergeCell ref="E1220:K1220"/>
-    <mergeCell ref="B1221:D1221"/>
-    <mergeCell ref="E1221:K1221"/>
-    <mergeCell ref="B1222:D1222"/>
-    <mergeCell ref="E1222:K1222"/>
-    <mergeCell ref="B1223:D1223"/>
-    <mergeCell ref="E1223:K1223"/>
-    <mergeCell ref="B1224:D1224"/>
-    <mergeCell ref="E1224:K1224"/>
-    <mergeCell ref="B1215:D1215"/>
-    <mergeCell ref="E1215:K1215"/>
-    <mergeCell ref="B1216:D1216"/>
-    <mergeCell ref="E1216:K1216"/>
-    <mergeCell ref="B1217:D1217"/>
-    <mergeCell ref="E1217:K1217"/>
-    <mergeCell ref="B1218:D1218"/>
-    <mergeCell ref="E1218:K1218"/>
-    <mergeCell ref="B1219:D1219"/>
-    <mergeCell ref="E1219:K1219"/>
-    <mergeCell ref="B1210:D1210"/>
-    <mergeCell ref="E1210:K1210"/>
-    <mergeCell ref="B1211:D1211"/>
-    <mergeCell ref="E1211:K1211"/>
-    <mergeCell ref="B1212:D1212"/>
-    <mergeCell ref="E1212:K1212"/>
-    <mergeCell ref="B1213:D1213"/>
-    <mergeCell ref="E1213:K1213"/>
-    <mergeCell ref="B1214:D1214"/>
-    <mergeCell ref="E1214:K1214"/>
-    <mergeCell ref="B1149:D1149"/>
-    <mergeCell ref="E1149:K1149"/>
-    <mergeCell ref="B1150:D1150"/>
-    <mergeCell ref="E1150:K1150"/>
-    <mergeCell ref="B1151:D1151"/>
-    <mergeCell ref="E1151:K1151"/>
-    <mergeCell ref="B1152:D1152"/>
-    <mergeCell ref="E1152:K1152"/>
-    <mergeCell ref="B1144:D1144"/>
-    <mergeCell ref="E1144:K1144"/>
-    <mergeCell ref="B1145:D1145"/>
-    <mergeCell ref="E1145:K1145"/>
-    <mergeCell ref="B1146:D1146"/>
-    <mergeCell ref="E1146:K1146"/>
-    <mergeCell ref="B1147:D1147"/>
-    <mergeCell ref="E1147:K1147"/>
-    <mergeCell ref="B1148:D1148"/>
-    <mergeCell ref="E1148:K1148"/>
+    <mergeCell ref="B1174:D1174"/>
+    <mergeCell ref="E1174:K1174"/>
+    <mergeCell ref="B1175:D1175"/>
+    <mergeCell ref="E1175:K1175"/>
+    <mergeCell ref="B1176:D1176"/>
+    <mergeCell ref="E1176:K1176"/>
+    <mergeCell ref="B1171:K1171"/>
+    <mergeCell ref="B1191:K1191"/>
+    <mergeCell ref="B1169:D1169"/>
+    <mergeCell ref="E1169:K1169"/>
+    <mergeCell ref="B1170:D1170"/>
+    <mergeCell ref="E1170:K1170"/>
+    <mergeCell ref="B1172:D1172"/>
+    <mergeCell ref="E1172:K1172"/>
+    <mergeCell ref="B1173:D1173"/>
+    <mergeCell ref="E1173:K1173"/>
+    <mergeCell ref="B1181:D1181"/>
+    <mergeCell ref="E1181:K1181"/>
+    <mergeCell ref="B1182:D1182"/>
+    <mergeCell ref="E1182:K1182"/>
+    <mergeCell ref="B1183:D1183"/>
+    <mergeCell ref="E1183:K1183"/>
+    <mergeCell ref="B1184:D1184"/>
+    <mergeCell ref="E1184:K1184"/>
+    <mergeCell ref="B1164:D1164"/>
+    <mergeCell ref="E1164:K1164"/>
+    <mergeCell ref="B1165:D1165"/>
+    <mergeCell ref="E1165:K1165"/>
+    <mergeCell ref="B1166:D1166"/>
+    <mergeCell ref="E1166:K1166"/>
+    <mergeCell ref="B1167:D1167"/>
+    <mergeCell ref="E1167:K1167"/>
+    <mergeCell ref="B1168:D1168"/>
+    <mergeCell ref="E1168:K1168"/>
+    <mergeCell ref="E1159:K1159"/>
+    <mergeCell ref="B1160:D1160"/>
+    <mergeCell ref="E1160:K1160"/>
+    <mergeCell ref="B1161:D1161"/>
+    <mergeCell ref="E1161:K1161"/>
+    <mergeCell ref="B1162:D1162"/>
+    <mergeCell ref="E1162:K1162"/>
+    <mergeCell ref="B1163:D1163"/>
+    <mergeCell ref="E1163:K1163"/>
+    <mergeCell ref="B1159:D1159"/>
+    <mergeCell ref="B1195:D1195"/>
+    <mergeCell ref="E1195:K1195"/>
+    <mergeCell ref="B1196:D1196"/>
+    <mergeCell ref="E1196:K1196"/>
+    <mergeCell ref="B1197:D1197"/>
+    <mergeCell ref="E1197:K1197"/>
+    <mergeCell ref="B1198:D1198"/>
+    <mergeCell ref="E1198:K1198"/>
+    <mergeCell ref="E1190:K1190"/>
+    <mergeCell ref="B1192:D1192"/>
+    <mergeCell ref="E1192:K1192"/>
+    <mergeCell ref="B1193:D1193"/>
+    <mergeCell ref="E1193:K1193"/>
+    <mergeCell ref="B1194:D1194"/>
+    <mergeCell ref="E1194:K1194"/>
+    <mergeCell ref="B1190:D1190"/>
+    <mergeCell ref="B1185:D1185"/>
+    <mergeCell ref="E1185:K1185"/>
+    <mergeCell ref="B1186:D1186"/>
+    <mergeCell ref="E1186:K1186"/>
+    <mergeCell ref="B1187:D1187"/>
+    <mergeCell ref="E1187:K1187"/>
+    <mergeCell ref="B1188:D1188"/>
+    <mergeCell ref="E1188:K1188"/>
+    <mergeCell ref="B1189:D1189"/>
+    <mergeCell ref="E1189:K1189"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="E386:K386"/>
+    <mergeCell ref="E387:K387"/>
+    <mergeCell ref="E374:K374"/>
+    <mergeCell ref="E375:K375"/>
+    <mergeCell ref="E362:K362"/>
+    <mergeCell ref="E363:K363"/>
+    <mergeCell ref="B386:D386"/>
+    <mergeCell ref="B387:D387"/>
+    <mergeCell ref="B380:D380"/>
+    <mergeCell ref="B381:D381"/>
+    <mergeCell ref="B382:D382"/>
+    <mergeCell ref="B383:D383"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="B385:D385"/>
+    <mergeCell ref="B374:D374"/>
+    <mergeCell ref="B375:D375"/>
+    <mergeCell ref="B376:D376"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B378:D378"/>
+    <mergeCell ref="B379:D379"/>
+    <mergeCell ref="B368:D368"/>
+    <mergeCell ref="B369:D369"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
+    <mergeCell ref="E380:K380"/>
+    <mergeCell ref="E381:K381"/>
+    <mergeCell ref="E364:K364"/>
+    <mergeCell ref="E365:K365"/>
+    <mergeCell ref="E366:K366"/>
+    <mergeCell ref="E367:K367"/>
+    <mergeCell ref="E368:K368"/>
+    <mergeCell ref="E369:K369"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="E416:K416"/>
+    <mergeCell ref="E417:K417"/>
+    <mergeCell ref="E385:K385"/>
+    <mergeCell ref="E370:K370"/>
+    <mergeCell ref="E371:K371"/>
+    <mergeCell ref="E372:K372"/>
+    <mergeCell ref="E373:K373"/>
+    <mergeCell ref="E382:K382"/>
+    <mergeCell ref="E383:K383"/>
+    <mergeCell ref="E384:K384"/>
+    <mergeCell ref="E376:K376"/>
+    <mergeCell ref="E377:K377"/>
+    <mergeCell ref="E378:K378"/>
+    <mergeCell ref="E379:K379"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
     <mergeCell ref="B1137:D1137"/>
     <mergeCell ref="E1137:K1137"/>
     <mergeCell ref="B1138:D1138"/>
@@ -17226,210 +17412,86 @@
     <mergeCell ref="E1135:K1135"/>
     <mergeCell ref="B1136:D1136"/>
     <mergeCell ref="E1136:K1136"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:K443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:K444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:K445"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:K440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:K441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:K442"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:K438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:K439"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:K430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:K431"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:K436"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:K426"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:K435"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:K427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="E428:K428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:K429"/>
-    <mergeCell ref="E418:K418"/>
-    <mergeCell ref="E419:K419"/>
-    <mergeCell ref="E420:K420"/>
-    <mergeCell ref="E421:K421"/>
-    <mergeCell ref="E422:K422"/>
-    <mergeCell ref="E411:K411"/>
-    <mergeCell ref="E412:K412"/>
-    <mergeCell ref="E413:K413"/>
-    <mergeCell ref="E414:K414"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="E380:K380"/>
-    <mergeCell ref="E381:K381"/>
-    <mergeCell ref="E364:K364"/>
-    <mergeCell ref="E365:K365"/>
-    <mergeCell ref="E366:K366"/>
-    <mergeCell ref="E367:K367"/>
-    <mergeCell ref="E368:K368"/>
-    <mergeCell ref="E369:K369"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="E416:K416"/>
-    <mergeCell ref="E417:K417"/>
-    <mergeCell ref="E385:K385"/>
-    <mergeCell ref="E370:K370"/>
-    <mergeCell ref="E371:K371"/>
-    <mergeCell ref="E372:K372"/>
-    <mergeCell ref="E373:K373"/>
-    <mergeCell ref="E382:K382"/>
-    <mergeCell ref="E383:K383"/>
-    <mergeCell ref="E384:K384"/>
-    <mergeCell ref="E376:K376"/>
-    <mergeCell ref="E377:K377"/>
-    <mergeCell ref="E378:K378"/>
-    <mergeCell ref="E379:K379"/>
-    <mergeCell ref="E360:K360"/>
-    <mergeCell ref="E361:K361"/>
-    <mergeCell ref="E350:K350"/>
-    <mergeCell ref="E351:K351"/>
-    <mergeCell ref="E352:K352"/>
-    <mergeCell ref="E353:K353"/>
-    <mergeCell ref="E354:K354"/>
-    <mergeCell ref="E355:K355"/>
-    <mergeCell ref="E356:K356"/>
-    <mergeCell ref="E357:K357"/>
-    <mergeCell ref="E358:K358"/>
-    <mergeCell ref="E359:K359"/>
-    <mergeCell ref="E386:K386"/>
-    <mergeCell ref="E387:K387"/>
-    <mergeCell ref="E374:K374"/>
-    <mergeCell ref="E375:K375"/>
-    <mergeCell ref="E362:K362"/>
-    <mergeCell ref="E363:K363"/>
-    <mergeCell ref="B386:D386"/>
-    <mergeCell ref="B387:D387"/>
-    <mergeCell ref="B380:D380"/>
-    <mergeCell ref="B381:D381"/>
-    <mergeCell ref="B382:D382"/>
-    <mergeCell ref="B383:D383"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="B385:D385"/>
-    <mergeCell ref="B374:D374"/>
-    <mergeCell ref="B375:D375"/>
-    <mergeCell ref="B376:D376"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="B378:D378"/>
-    <mergeCell ref="B379:D379"/>
-    <mergeCell ref="B368:D368"/>
-    <mergeCell ref="B369:D369"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="B371:D371"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
-    <mergeCell ref="B1185:D1185"/>
-    <mergeCell ref="E1185:K1185"/>
-    <mergeCell ref="B1186:D1186"/>
-    <mergeCell ref="E1186:K1186"/>
-    <mergeCell ref="B1187:D1187"/>
-    <mergeCell ref="E1187:K1187"/>
-    <mergeCell ref="B1188:D1188"/>
-    <mergeCell ref="E1188:K1188"/>
-    <mergeCell ref="B1189:D1189"/>
-    <mergeCell ref="E1189:K1189"/>
-    <mergeCell ref="B1195:D1195"/>
-    <mergeCell ref="E1195:K1195"/>
-    <mergeCell ref="B1196:D1196"/>
-    <mergeCell ref="E1196:K1196"/>
-    <mergeCell ref="B1197:D1197"/>
-    <mergeCell ref="E1197:K1197"/>
-    <mergeCell ref="B1198:D1198"/>
-    <mergeCell ref="E1198:K1198"/>
-    <mergeCell ref="E1190:K1190"/>
-    <mergeCell ref="B1192:D1192"/>
-    <mergeCell ref="E1192:K1192"/>
-    <mergeCell ref="B1193:D1193"/>
-    <mergeCell ref="E1193:K1193"/>
-    <mergeCell ref="B1194:D1194"/>
-    <mergeCell ref="E1194:K1194"/>
-    <mergeCell ref="B1190:D1190"/>
-    <mergeCell ref="E1159:K1159"/>
-    <mergeCell ref="B1160:D1160"/>
-    <mergeCell ref="E1160:K1160"/>
-    <mergeCell ref="B1161:D1161"/>
-    <mergeCell ref="E1161:K1161"/>
-    <mergeCell ref="B1162:D1162"/>
-    <mergeCell ref="E1162:K1162"/>
-    <mergeCell ref="B1163:D1163"/>
-    <mergeCell ref="E1163:K1163"/>
-    <mergeCell ref="B1159:D1159"/>
-    <mergeCell ref="B1164:D1164"/>
-    <mergeCell ref="E1164:K1164"/>
-    <mergeCell ref="B1165:D1165"/>
-    <mergeCell ref="E1165:K1165"/>
-    <mergeCell ref="B1166:D1166"/>
-    <mergeCell ref="E1166:K1166"/>
-    <mergeCell ref="B1167:D1167"/>
-    <mergeCell ref="E1167:K1167"/>
-    <mergeCell ref="B1168:D1168"/>
-    <mergeCell ref="E1168:K1168"/>
-    <mergeCell ref="B1174:D1174"/>
-    <mergeCell ref="E1174:K1174"/>
-    <mergeCell ref="B1175:D1175"/>
-    <mergeCell ref="E1175:K1175"/>
-    <mergeCell ref="B1176:D1176"/>
-    <mergeCell ref="E1176:K1176"/>
-    <mergeCell ref="B1171:K1171"/>
-    <mergeCell ref="B1191:K1191"/>
-    <mergeCell ref="B1169:D1169"/>
-    <mergeCell ref="E1169:K1169"/>
-    <mergeCell ref="B1170:D1170"/>
-    <mergeCell ref="E1170:K1170"/>
-    <mergeCell ref="B1172:D1172"/>
-    <mergeCell ref="E1172:K1172"/>
-    <mergeCell ref="B1173:D1173"/>
-    <mergeCell ref="E1173:K1173"/>
-    <mergeCell ref="B1181:D1181"/>
-    <mergeCell ref="E1181:K1181"/>
-    <mergeCell ref="B1182:D1182"/>
-    <mergeCell ref="E1182:K1182"/>
-    <mergeCell ref="B1183:D1183"/>
-    <mergeCell ref="E1183:K1183"/>
-    <mergeCell ref="B1184:D1184"/>
-    <mergeCell ref="E1184:K1184"/>
+    <mergeCell ref="B1149:D1149"/>
+    <mergeCell ref="E1149:K1149"/>
+    <mergeCell ref="B1150:D1150"/>
+    <mergeCell ref="E1150:K1150"/>
+    <mergeCell ref="B1151:D1151"/>
+    <mergeCell ref="E1151:K1151"/>
+    <mergeCell ref="B1152:D1152"/>
+    <mergeCell ref="E1152:K1152"/>
+    <mergeCell ref="B1144:D1144"/>
+    <mergeCell ref="E1144:K1144"/>
+    <mergeCell ref="B1145:D1145"/>
+    <mergeCell ref="E1145:K1145"/>
+    <mergeCell ref="B1146:D1146"/>
+    <mergeCell ref="E1146:K1146"/>
+    <mergeCell ref="B1147:D1147"/>
+    <mergeCell ref="E1147:K1147"/>
+    <mergeCell ref="B1148:D1148"/>
+    <mergeCell ref="E1148:K1148"/>
+    <mergeCell ref="B1210:D1210"/>
+    <mergeCell ref="E1210:K1210"/>
+    <mergeCell ref="B1211:D1211"/>
+    <mergeCell ref="E1211:K1211"/>
+    <mergeCell ref="B1212:D1212"/>
+    <mergeCell ref="E1212:K1212"/>
+    <mergeCell ref="B1213:D1213"/>
+    <mergeCell ref="E1213:K1213"/>
+    <mergeCell ref="B1214:D1214"/>
+    <mergeCell ref="E1214:K1214"/>
+    <mergeCell ref="B1215:D1215"/>
+    <mergeCell ref="E1215:K1215"/>
+    <mergeCell ref="B1216:D1216"/>
+    <mergeCell ref="E1216:K1216"/>
+    <mergeCell ref="B1217:D1217"/>
+    <mergeCell ref="E1217:K1217"/>
+    <mergeCell ref="B1218:D1218"/>
+    <mergeCell ref="E1218:K1218"/>
+    <mergeCell ref="B1219:D1219"/>
+    <mergeCell ref="E1219:K1219"/>
+    <mergeCell ref="B1220:D1220"/>
+    <mergeCell ref="E1220:K1220"/>
+    <mergeCell ref="B1221:D1221"/>
+    <mergeCell ref="E1221:K1221"/>
+    <mergeCell ref="B1222:D1222"/>
+    <mergeCell ref="E1222:K1222"/>
+    <mergeCell ref="B1223:D1223"/>
+    <mergeCell ref="E1223:K1223"/>
+    <mergeCell ref="B1224:D1224"/>
+    <mergeCell ref="E1224:K1224"/>
+    <mergeCell ref="B1225:D1225"/>
+    <mergeCell ref="E1225:K1225"/>
+    <mergeCell ref="B1226:D1226"/>
+    <mergeCell ref="E1226:K1226"/>
+    <mergeCell ref="B1227:D1227"/>
+    <mergeCell ref="E1227:K1227"/>
+    <mergeCell ref="B1228:D1228"/>
+    <mergeCell ref="E1228:K1228"/>
+    <mergeCell ref="B1229:D1229"/>
+    <mergeCell ref="E1229:K1229"/>
+    <mergeCell ref="B1230:D1230"/>
+    <mergeCell ref="E1230:K1230"/>
+    <mergeCell ref="B1231:D1231"/>
+    <mergeCell ref="E1231:K1231"/>
+    <mergeCell ref="B1232:D1232"/>
+    <mergeCell ref="E1232:K1232"/>
+    <mergeCell ref="B1233:D1233"/>
+    <mergeCell ref="E1233:K1233"/>
+    <mergeCell ref="B1234:D1234"/>
+    <mergeCell ref="E1234:K1234"/>
+    <mergeCell ref="B1240:D1240"/>
+    <mergeCell ref="E1240:K1240"/>
+    <mergeCell ref="B1235:D1235"/>
+    <mergeCell ref="E1235:K1235"/>
+    <mergeCell ref="B1236:D1236"/>
+    <mergeCell ref="E1236:K1236"/>
+    <mergeCell ref="B1237:D1237"/>
+    <mergeCell ref="E1237:K1237"/>
+    <mergeCell ref="B1238:D1238"/>
+    <mergeCell ref="E1238:K1238"/>
+    <mergeCell ref="B1239:D1239"/>
+    <mergeCell ref="E1239:K1239"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="755">
   <si>
     <t>built-in functions</t>
   </si>
@@ -317,7 +317,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -328,7 +328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -670,7 +670,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -956,7 +956,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -978,7 +978,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -988,7 +988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1018,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1033,7 +1033,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1048,7 +1048,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1063,7 +1063,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1078,7 +1078,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1093,7 +1093,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1108,7 +1108,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1123,7 +1123,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1138,7 +1138,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1153,7 +1153,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,7 +1168,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1183,7 +1183,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1198,7 +1198,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1213,7 +1213,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1228,7 +1228,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1243,7 +1243,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1258,7 +1258,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1273,7 +1273,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1288,7 +1288,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1303,7 +1303,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1318,7 +1318,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1333,7 +1333,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1348,7 +1348,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1366,7 +1366,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1381,7 +1381,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1396,7 +1396,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1411,7 +1411,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1426,7 +1426,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1441,7 +1441,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1456,7 +1456,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1471,7 +1471,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1486,7 +1486,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1501,7 +1501,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1516,7 +1516,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1534,7 +1534,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1549,7 +1549,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1564,7 +1564,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1579,7 +1579,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1594,7 +1594,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1609,7 +1609,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1624,7 +1624,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1639,7 +1639,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1654,7 +1654,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1669,7 +1669,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1684,7 +1684,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1699,7 +1699,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1714,7 +1714,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1729,7 +1729,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1744,7 +1744,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1759,7 +1759,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1774,7 +1774,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1789,7 +1789,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1804,7 +1804,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1819,7 +1819,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1834,7 +1834,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1864,7 +1864,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1879,7 +1879,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1894,7 +1894,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1909,7 +1909,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1924,7 +1924,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2039,7 +2039,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2049,7 +2049,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2060,7 +2060,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2282,7 +2282,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2293,7 +2293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2314,7 +2314,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2332,7 +2332,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2419,7 +2419,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2429,7 +2429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3240,6 +3240,56 @@
   </si>
   <si>
     <t>安装：解压后将easygui.py拷贝进Python安装目录下的Lib/site-packages文件夹下</t>
+  </si>
+  <si>
+    <t>类，子类，继承，重写父类的__init__(self)方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class xxxx(继承1,继承2,继承3,……)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重继承(尽量避免使用~控制难度大！)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; base3 = Base3()</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; base3.base1()</t>
+  </si>
+  <si>
+    <t>我是base1</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; base3.base2()</t>
+  </si>
+  <si>
+    <t>我是base2</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; base4 = Base4()</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; base4.guess()</t>
+  </si>
+  <si>
+    <t>猜猜我是谁？2</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; base3.guess()</t>
+  </si>
+  <si>
+    <t>猜猜我是谁？1</t>
+  </si>
+  <si>
+    <t>组合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3250,20 +3300,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3271,7 +3321,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3280,7 +3330,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3289,7 +3339,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3303,7 +3353,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3311,7 +3361,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3450,9 +3500,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3462,9 +3509,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -11226,11 +11276,568 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>1394</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>392204</xdr:colOff>
+      <xdr:row>1428</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1434352" y="247706030"/>
+          <a:ext cx="4515970" cy="5614146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import random as r</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>class Fish():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    def __init__(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        self.x = r.randint(0,10)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        self.y = r.randint(0,10)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    def move(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        self.x -= 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我的位置是：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>", self.x, self.y)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>class Goldfish(Fish):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    pass</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>class Carp(Fish):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    pass</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>class Salmon(Fish):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    pass</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>class Shark(Fish):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    def __init__(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        Fish.__init__(self) # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>继承父类的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>init</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        #super().__init__() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t># </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>继承父类的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>init</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        self.hungry = True  # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>添加父类没有的属性</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>def eat(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        if self.hungry:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>            print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>吃东西啦！</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>            self.hungry = False</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        else:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>            print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>已经吃饱了！</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1432</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>1451</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="254138205"/>
+          <a:ext cx="4515970" cy="3137647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>class Base1():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    def base1(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>base1")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    def guess(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>猜猜我是谁？</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>class Base2():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    def base2(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>base2")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    def guess(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>猜猜我是谁？</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>class Base3(Base1,Base2):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    pass</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>class Base4(Base2,Base1):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    pass</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11522,7 +12129,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -11543,15 +12150,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P1391"/>
+  <dimension ref="A2:P1454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1371" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1393" sqref="C1393"/>
+    <sheetView tabSelected="1" topLeftCell="A1419" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1454" sqref="A1454"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" s="3" customFormat="1">
@@ -13610,20 +14217,20 @@
       </c>
     </row>
     <row r="411" spans="2:11" ht="15" customHeight="1">
-      <c r="B411" s="18" t="s">
+      <c r="B411" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C411" s="18"/>
-      <c r="D411" s="18"/>
-      <c r="E411" s="18" t="s">
+      <c r="C411" s="21"/>
+      <c r="D411" s="21"/>
+      <c r="E411" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="F411" s="18"/>
-      <c r="G411" s="18"/>
-      <c r="H411" s="18"/>
-      <c r="I411" s="18"/>
-      <c r="J411" s="18"/>
-      <c r="K411" s="18"/>
+      <c r="F411" s="21"/>
+      <c r="G411" s="21"/>
+      <c r="H411" s="21"/>
+      <c r="I411" s="21"/>
+      <c r="J411" s="21"/>
+      <c r="K411" s="21"/>
     </row>
     <row r="412" spans="2:11" ht="15" customHeight="1">
       <c r="B412" s="16" t="s">
@@ -13807,20 +14414,20 @@
       </c>
     </row>
     <row r="426" spans="2:11">
-      <c r="B426" s="18" t="s">
+      <c r="B426" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C426" s="18"/>
-      <c r="D426" s="18"/>
-      <c r="E426" s="18" t="s">
+      <c r="C426" s="21"/>
+      <c r="D426" s="21"/>
+      <c r="E426" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="F426" s="18"/>
-      <c r="G426" s="18"/>
-      <c r="H426" s="18"/>
-      <c r="I426" s="18"/>
-      <c r="J426" s="18"/>
-      <c r="K426" s="18"/>
+      <c r="F426" s="21"/>
+      <c r="G426" s="21"/>
+      <c r="H426" s="21"/>
+      <c r="I426" s="21"/>
+      <c r="J426" s="21"/>
+      <c r="K426" s="21"/>
     </row>
     <row r="427" spans="2:11">
       <c r="B427" s="16" t="s">
@@ -13919,20 +14526,20 @@
       <c r="E434"/>
     </row>
     <row r="435" spans="2:11">
-      <c r="B435" s="18" t="s">
+      <c r="B435" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C435" s="18"/>
-      <c r="D435" s="18"/>
-      <c r="E435" s="18" t="s">
+      <c r="C435" s="21"/>
+      <c r="D435" s="21"/>
+      <c r="E435" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="F435" s="18"/>
-      <c r="G435" s="18"/>
-      <c r="H435" s="18"/>
-      <c r="I435" s="18"/>
-      <c r="J435" s="18"/>
-      <c r="K435" s="18"/>
+      <c r="F435" s="21"/>
+      <c r="G435" s="21"/>
+      <c r="H435" s="21"/>
+      <c r="I435" s="21"/>
+      <c r="J435" s="21"/>
+      <c r="K435" s="21"/>
     </row>
     <row r="436" spans="2:11">
       <c r="B436" s="16" t="s">
@@ -15240,20 +15847,20 @@
       </c>
     </row>
     <row r="1132" spans="1:11">
-      <c r="B1132" s="18" t="s">
+      <c r="B1132" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="C1132" s="18"/>
-      <c r="D1132" s="18"/>
-      <c r="E1132" s="18" t="s">
+      <c r="C1132" s="21"/>
+      <c r="D1132" s="21"/>
+      <c r="E1132" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="F1132" s="18"/>
-      <c r="G1132" s="18"/>
-      <c r="H1132" s="18"/>
-      <c r="I1132" s="18"/>
-      <c r="J1132" s="18"/>
-      <c r="K1132" s="18"/>
+      <c r="F1132" s="21"/>
+      <c r="G1132" s="21"/>
+      <c r="H1132" s="21"/>
+      <c r="I1132" s="21"/>
+      <c r="J1132" s="21"/>
+      <c r="K1132" s="21"/>
     </row>
     <row r="1133" spans="1:11">
       <c r="B1133" s="16" t="s">
@@ -15399,20 +16006,20 @@
       </c>
     </row>
     <row r="1144" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B1144" s="18" t="s">
+      <c r="B1144" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="C1144" s="18"/>
-      <c r="D1144" s="18"/>
-      <c r="E1144" s="18" t="s">
+      <c r="C1144" s="21"/>
+      <c r="D1144" s="21"/>
+      <c r="E1144" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="F1144" s="18"/>
-      <c r="G1144" s="18"/>
-      <c r="H1144" s="18"/>
-      <c r="I1144" s="18"/>
-      <c r="J1144" s="18"/>
-      <c r="K1144" s="18"/>
+      <c r="F1144" s="21"/>
+      <c r="G1144" s="21"/>
+      <c r="H1144" s="21"/>
+      <c r="I1144" s="21"/>
+      <c r="J1144" s="21"/>
+      <c r="K1144" s="21"/>
     </row>
     <row r="1145" spans="2:11">
       <c r="B1145" s="16" t="s">
@@ -15553,20 +16160,20 @@
       </c>
     </row>
     <row r="1159" spans="1:11">
-      <c r="B1159" s="18" t="s">
+      <c r="B1159" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="C1159" s="18"/>
-      <c r="D1159" s="18"/>
-      <c r="E1159" s="18" t="s">
+      <c r="C1159" s="21"/>
+      <c r="D1159" s="21"/>
+      <c r="E1159" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="F1159" s="18"/>
-      <c r="G1159" s="18"/>
-      <c r="H1159" s="18"/>
-      <c r="I1159" s="18"/>
-      <c r="J1159" s="18"/>
-      <c r="K1159" s="18"/>
+      <c r="F1159" s="21"/>
+      <c r="G1159" s="21"/>
+      <c r="H1159" s="21"/>
+      <c r="I1159" s="21"/>
+      <c r="J1159" s="21"/>
+      <c r="K1159" s="21"/>
     </row>
     <row r="1160" spans="1:11">
       <c r="B1160" s="16" t="s">
@@ -15745,18 +16352,18 @@
       <c r="K1170" s="17"/>
     </row>
     <row r="1171" spans="2:11">
-      <c r="B1171" s="19" t="s">
+      <c r="B1171" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="C1171" s="20"/>
-      <c r="D1171" s="20"/>
-      <c r="E1171" s="20"/>
-      <c r="F1171" s="20"/>
-      <c r="G1171" s="20"/>
-      <c r="H1171" s="20"/>
-      <c r="I1171" s="20"/>
-      <c r="J1171" s="20"/>
-      <c r="K1171" s="21"/>
+      <c r="C1171" s="19"/>
+      <c r="D1171" s="19"/>
+      <c r="E1171" s="19"/>
+      <c r="F1171" s="19"/>
+      <c r="G1171" s="19"/>
+      <c r="H1171" s="19"/>
+      <c r="I1171" s="19"/>
+      <c r="J1171" s="19"/>
+      <c r="K1171" s="20"/>
     </row>
     <row r="1172" spans="2:11">
       <c r="B1172" s="16" t="s">
@@ -15844,20 +16451,20 @@
       </c>
     </row>
     <row r="1181" spans="2:11">
-      <c r="B1181" s="18" t="s">
+      <c r="B1181" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="C1181" s="18"/>
-      <c r="D1181" s="18"/>
-      <c r="E1181" s="18" t="s">
+      <c r="C1181" s="21"/>
+      <c r="D1181" s="21"/>
+      <c r="E1181" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="F1181" s="18"/>
-      <c r="G1181" s="18"/>
-      <c r="H1181" s="18"/>
-      <c r="I1181" s="18"/>
-      <c r="J1181" s="18"/>
-      <c r="K1181" s="18"/>
+      <c r="F1181" s="21"/>
+      <c r="G1181" s="21"/>
+      <c r="H1181" s="21"/>
+      <c r="I1181" s="21"/>
+      <c r="J1181" s="21"/>
+      <c r="K1181" s="21"/>
     </row>
     <row r="1182" spans="2:11">
       <c r="B1182" s="16" t="s">
@@ -16004,20 +16611,20 @@
       <c r="K1190" s="17"/>
     </row>
     <row r="1191" spans="2:14">
-      <c r="B1191" s="19" t="s">
+      <c r="B1191" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="C1191" s="20"/>
-      <c r="D1191" s="20"/>
-      <c r="E1191" s="20"/>
-      <c r="F1191" s="20"/>
-      <c r="G1191" s="20"/>
-      <c r="H1191" s="20"/>
-      <c r="I1191" s="20"/>
-      <c r="J1191" s="20"/>
-      <c r="K1191" s="21"/>
-    </row>
-    <row r="1192" spans="2:14">
+      <c r="C1191" s="19"/>
+      <c r="D1191" s="19"/>
+      <c r="E1191" s="19"/>
+      <c r="F1191" s="19"/>
+      <c r="G1191" s="19"/>
+      <c r="H1191" s="19"/>
+      <c r="I1191" s="19"/>
+      <c r="J1191" s="19"/>
+      <c r="K1191" s="20"/>
+    </row>
+    <row r="1192" spans="2:14" ht="14.25">
       <c r="B1192" s="16" t="s">
         <v>545</v>
       </c>
@@ -16051,7 +16658,7 @@
       <c r="M1192" s="14"/>
       <c r="N1192" s="14"/>
     </row>
-    <row r="1193" spans="2:14">
+    <row r="1193" spans="2:14" ht="14.25">
       <c r="B1193" s="16" t="s">
         <v>547</v>
       </c>
@@ -16085,7 +16692,7 @@
       <c r="M1193" s="14"/>
       <c r="N1193" s="14"/>
     </row>
-    <row r="1194" spans="2:14">
+    <row r="1194" spans="2:14" ht="14.25">
       <c r="B1194" s="16" t="s">
         <v>549</v>
       </c>
@@ -16119,7 +16726,7 @@
       <c r="M1194" s="14"/>
       <c r="N1194" s="14"/>
     </row>
-    <row r="1195" spans="2:14">
+    <row r="1195" spans="2:14" ht="14.25">
       <c r="B1195" s="16" t="s">
         <v>551</v>
       </c>
@@ -16153,7 +16760,7 @@
       <c r="M1195" s="14"/>
       <c r="N1195" s="14"/>
     </row>
-    <row r="1196" spans="2:14">
+    <row r="1196" spans="2:14" ht="14.25">
       <c r="B1196" s="16" t="s">
         <v>553</v>
       </c>
@@ -16187,7 +16794,7 @@
       <c r="M1196" s="14"/>
       <c r="N1196" s="14"/>
     </row>
-    <row r="1197" spans="2:14">
+    <row r="1197" spans="2:14" ht="14.25">
       <c r="B1197" s="16" t="s">
         <v>555</v>
       </c>
@@ -16221,7 +16828,7 @@
       <c r="M1197" s="14"/>
       <c r="N1197" s="14"/>
     </row>
-    <row r="1198" spans="2:14">
+    <row r="1198" spans="2:14" ht="14.25">
       <c r="B1198" s="16" t="s">
         <v>557</v>
       </c>
@@ -16295,16 +16902,16 @@
       </c>
     </row>
     <row r="1210" spans="1:11">
-      <c r="B1210" s="18"/>
-      <c r="C1210" s="18"/>
-      <c r="D1210" s="18"/>
-      <c r="E1210" s="18"/>
-      <c r="F1210" s="18"/>
-      <c r="G1210" s="18"/>
-      <c r="H1210" s="18"/>
-      <c r="I1210" s="18"/>
-      <c r="J1210" s="18"/>
-      <c r="K1210" s="18"/>
+      <c r="B1210" s="21"/>
+      <c r="C1210" s="21"/>
+      <c r="D1210" s="21"/>
+      <c r="E1210" s="21"/>
+      <c r="F1210" s="21"/>
+      <c r="G1210" s="21"/>
+      <c r="H1210" s="21"/>
+      <c r="I1210" s="21"/>
+      <c r="J1210" s="21"/>
+      <c r="K1210" s="21"/>
     </row>
     <row r="1211" spans="1:11">
       <c r="B1211" s="16" t="s">
@@ -17182,8 +17789,377 @@
         <v>739</v>
       </c>
     </row>
+    <row r="1394" spans="1:10" s="3" customFormat="1">
+      <c r="A1394" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:10">
+      <c r="J1407" s="12" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:11" s="3" customFormat="1">
+      <c r="A1430" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:11">
+      <c r="B1432" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:11">
+      <c r="K1435" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:11">
+      <c r="K1436" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:11">
+      <c r="K1437" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:11">
+      <c r="K1438" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:11">
+      <c r="K1439" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:11">
+      <c r="K1441" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:11">
+      <c r="K1442" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:11">
+      <c r="K1443" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:11">
+      <c r="K1444" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:11">
+      <c r="K1445" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:11">
+      <c r="K1446" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:11">
+      <c r="K1447" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:11" s="3" customFormat="1">
+      <c r="A1454" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="308">
+    <mergeCell ref="B1240:D1240"/>
+    <mergeCell ref="E1240:K1240"/>
+    <mergeCell ref="B1235:D1235"/>
+    <mergeCell ref="E1235:K1235"/>
+    <mergeCell ref="B1236:D1236"/>
+    <mergeCell ref="E1236:K1236"/>
+    <mergeCell ref="B1237:D1237"/>
+    <mergeCell ref="E1237:K1237"/>
+    <mergeCell ref="B1238:D1238"/>
+    <mergeCell ref="E1238:K1238"/>
+    <mergeCell ref="B1239:D1239"/>
+    <mergeCell ref="E1239:K1239"/>
+    <mergeCell ref="B1230:D1230"/>
+    <mergeCell ref="E1230:K1230"/>
+    <mergeCell ref="B1231:D1231"/>
+    <mergeCell ref="E1231:K1231"/>
+    <mergeCell ref="B1232:D1232"/>
+    <mergeCell ref="E1232:K1232"/>
+    <mergeCell ref="B1233:D1233"/>
+    <mergeCell ref="E1233:K1233"/>
+    <mergeCell ref="B1234:D1234"/>
+    <mergeCell ref="E1234:K1234"/>
+    <mergeCell ref="B1225:D1225"/>
+    <mergeCell ref="E1225:K1225"/>
+    <mergeCell ref="B1226:D1226"/>
+    <mergeCell ref="E1226:K1226"/>
+    <mergeCell ref="B1227:D1227"/>
+    <mergeCell ref="E1227:K1227"/>
+    <mergeCell ref="B1228:D1228"/>
+    <mergeCell ref="E1228:K1228"/>
+    <mergeCell ref="B1229:D1229"/>
+    <mergeCell ref="E1229:K1229"/>
+    <mergeCell ref="B1220:D1220"/>
+    <mergeCell ref="E1220:K1220"/>
+    <mergeCell ref="B1221:D1221"/>
+    <mergeCell ref="E1221:K1221"/>
+    <mergeCell ref="B1222:D1222"/>
+    <mergeCell ref="E1222:K1222"/>
+    <mergeCell ref="B1223:D1223"/>
+    <mergeCell ref="E1223:K1223"/>
+    <mergeCell ref="B1224:D1224"/>
+    <mergeCell ref="E1224:K1224"/>
+    <mergeCell ref="B1215:D1215"/>
+    <mergeCell ref="E1215:K1215"/>
+    <mergeCell ref="B1216:D1216"/>
+    <mergeCell ref="E1216:K1216"/>
+    <mergeCell ref="B1217:D1217"/>
+    <mergeCell ref="E1217:K1217"/>
+    <mergeCell ref="B1218:D1218"/>
+    <mergeCell ref="E1218:K1218"/>
+    <mergeCell ref="B1219:D1219"/>
+    <mergeCell ref="E1219:K1219"/>
+    <mergeCell ref="B1210:D1210"/>
+    <mergeCell ref="E1210:K1210"/>
+    <mergeCell ref="B1211:D1211"/>
+    <mergeCell ref="E1211:K1211"/>
+    <mergeCell ref="B1212:D1212"/>
+    <mergeCell ref="E1212:K1212"/>
+    <mergeCell ref="B1213:D1213"/>
+    <mergeCell ref="E1213:K1213"/>
+    <mergeCell ref="B1214:D1214"/>
+    <mergeCell ref="E1214:K1214"/>
+    <mergeCell ref="B1149:D1149"/>
+    <mergeCell ref="E1149:K1149"/>
+    <mergeCell ref="B1150:D1150"/>
+    <mergeCell ref="E1150:K1150"/>
+    <mergeCell ref="B1151:D1151"/>
+    <mergeCell ref="E1151:K1151"/>
+    <mergeCell ref="B1152:D1152"/>
+    <mergeCell ref="E1152:K1152"/>
+    <mergeCell ref="B1144:D1144"/>
+    <mergeCell ref="E1144:K1144"/>
+    <mergeCell ref="B1145:D1145"/>
+    <mergeCell ref="E1145:K1145"/>
+    <mergeCell ref="B1146:D1146"/>
+    <mergeCell ref="E1146:K1146"/>
+    <mergeCell ref="B1147:D1147"/>
+    <mergeCell ref="E1147:K1147"/>
+    <mergeCell ref="B1148:D1148"/>
+    <mergeCell ref="E1148:K1148"/>
+    <mergeCell ref="B1137:D1137"/>
+    <mergeCell ref="E1137:K1137"/>
+    <mergeCell ref="B1138:D1138"/>
+    <mergeCell ref="E1138:K1138"/>
+    <mergeCell ref="B1139:D1139"/>
+    <mergeCell ref="E1139:K1139"/>
+    <mergeCell ref="B1140:D1140"/>
+    <mergeCell ref="E1140:K1140"/>
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="E447:K447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="E448:K448"/>
+    <mergeCell ref="B1132:D1132"/>
+    <mergeCell ref="E1132:K1132"/>
+    <mergeCell ref="B1133:D1133"/>
+    <mergeCell ref="E1133:K1133"/>
+    <mergeCell ref="B1134:D1134"/>
+    <mergeCell ref="E1134:K1134"/>
+    <mergeCell ref="B1135:D1135"/>
+    <mergeCell ref="E1135:K1135"/>
+    <mergeCell ref="B1136:D1136"/>
+    <mergeCell ref="E1136:K1136"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E380:K380"/>
+    <mergeCell ref="E381:K381"/>
+    <mergeCell ref="E364:K364"/>
+    <mergeCell ref="E365:K365"/>
+    <mergeCell ref="E366:K366"/>
+    <mergeCell ref="E367:K367"/>
+    <mergeCell ref="E368:K368"/>
+    <mergeCell ref="E369:K369"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="E416:K416"/>
+    <mergeCell ref="E417:K417"/>
+    <mergeCell ref="E385:K385"/>
+    <mergeCell ref="E370:K370"/>
+    <mergeCell ref="E371:K371"/>
+    <mergeCell ref="E372:K372"/>
+    <mergeCell ref="E373:K373"/>
+    <mergeCell ref="E382:K382"/>
+    <mergeCell ref="E383:K383"/>
+    <mergeCell ref="E384:K384"/>
+    <mergeCell ref="E376:K376"/>
+    <mergeCell ref="E377:K377"/>
+    <mergeCell ref="E378:K378"/>
+    <mergeCell ref="E379:K379"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
+    <mergeCell ref="E386:K386"/>
+    <mergeCell ref="E387:K387"/>
+    <mergeCell ref="E374:K374"/>
+    <mergeCell ref="E375:K375"/>
+    <mergeCell ref="E362:K362"/>
+    <mergeCell ref="E363:K363"/>
+    <mergeCell ref="B386:D386"/>
+    <mergeCell ref="B387:D387"/>
+    <mergeCell ref="B380:D380"/>
+    <mergeCell ref="B381:D381"/>
+    <mergeCell ref="B382:D382"/>
+    <mergeCell ref="B383:D383"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="B385:D385"/>
+    <mergeCell ref="B374:D374"/>
+    <mergeCell ref="B375:D375"/>
+    <mergeCell ref="B376:D376"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B378:D378"/>
+    <mergeCell ref="B379:D379"/>
+    <mergeCell ref="B368:D368"/>
+    <mergeCell ref="B369:D369"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B1185:D1185"/>
+    <mergeCell ref="E1185:K1185"/>
+    <mergeCell ref="B1186:D1186"/>
+    <mergeCell ref="E1186:K1186"/>
+    <mergeCell ref="B1187:D1187"/>
+    <mergeCell ref="E1187:K1187"/>
+    <mergeCell ref="B1188:D1188"/>
+    <mergeCell ref="E1188:K1188"/>
+    <mergeCell ref="B1189:D1189"/>
+    <mergeCell ref="E1189:K1189"/>
+    <mergeCell ref="B1195:D1195"/>
+    <mergeCell ref="E1195:K1195"/>
+    <mergeCell ref="B1196:D1196"/>
+    <mergeCell ref="E1196:K1196"/>
+    <mergeCell ref="B1197:D1197"/>
+    <mergeCell ref="E1197:K1197"/>
+    <mergeCell ref="B1198:D1198"/>
+    <mergeCell ref="E1198:K1198"/>
+    <mergeCell ref="E1190:K1190"/>
+    <mergeCell ref="B1192:D1192"/>
+    <mergeCell ref="E1192:K1192"/>
+    <mergeCell ref="B1193:D1193"/>
+    <mergeCell ref="E1193:K1193"/>
+    <mergeCell ref="B1194:D1194"/>
+    <mergeCell ref="E1194:K1194"/>
+    <mergeCell ref="B1190:D1190"/>
+    <mergeCell ref="E1159:K1159"/>
+    <mergeCell ref="B1160:D1160"/>
+    <mergeCell ref="E1160:K1160"/>
+    <mergeCell ref="B1161:D1161"/>
+    <mergeCell ref="E1161:K1161"/>
+    <mergeCell ref="B1162:D1162"/>
+    <mergeCell ref="E1162:K1162"/>
+    <mergeCell ref="B1163:D1163"/>
+    <mergeCell ref="E1163:K1163"/>
+    <mergeCell ref="B1159:D1159"/>
+    <mergeCell ref="B1164:D1164"/>
+    <mergeCell ref="E1164:K1164"/>
+    <mergeCell ref="B1165:D1165"/>
+    <mergeCell ref="E1165:K1165"/>
+    <mergeCell ref="B1166:D1166"/>
+    <mergeCell ref="E1166:K1166"/>
+    <mergeCell ref="B1167:D1167"/>
+    <mergeCell ref="E1167:K1167"/>
+    <mergeCell ref="B1168:D1168"/>
+    <mergeCell ref="E1168:K1168"/>
     <mergeCell ref="B1174:D1174"/>
     <mergeCell ref="E1174:K1174"/>
     <mergeCell ref="B1175:D1175"/>
@@ -17208,290 +18184,6 @@
     <mergeCell ref="E1183:K1183"/>
     <mergeCell ref="B1184:D1184"/>
     <mergeCell ref="E1184:K1184"/>
-    <mergeCell ref="B1164:D1164"/>
-    <mergeCell ref="E1164:K1164"/>
-    <mergeCell ref="B1165:D1165"/>
-    <mergeCell ref="E1165:K1165"/>
-    <mergeCell ref="B1166:D1166"/>
-    <mergeCell ref="E1166:K1166"/>
-    <mergeCell ref="B1167:D1167"/>
-    <mergeCell ref="E1167:K1167"/>
-    <mergeCell ref="B1168:D1168"/>
-    <mergeCell ref="E1168:K1168"/>
-    <mergeCell ref="E1159:K1159"/>
-    <mergeCell ref="B1160:D1160"/>
-    <mergeCell ref="E1160:K1160"/>
-    <mergeCell ref="B1161:D1161"/>
-    <mergeCell ref="E1161:K1161"/>
-    <mergeCell ref="B1162:D1162"/>
-    <mergeCell ref="E1162:K1162"/>
-    <mergeCell ref="B1163:D1163"/>
-    <mergeCell ref="E1163:K1163"/>
-    <mergeCell ref="B1159:D1159"/>
-    <mergeCell ref="B1195:D1195"/>
-    <mergeCell ref="E1195:K1195"/>
-    <mergeCell ref="B1196:D1196"/>
-    <mergeCell ref="E1196:K1196"/>
-    <mergeCell ref="B1197:D1197"/>
-    <mergeCell ref="E1197:K1197"/>
-    <mergeCell ref="B1198:D1198"/>
-    <mergeCell ref="E1198:K1198"/>
-    <mergeCell ref="E1190:K1190"/>
-    <mergeCell ref="B1192:D1192"/>
-    <mergeCell ref="E1192:K1192"/>
-    <mergeCell ref="B1193:D1193"/>
-    <mergeCell ref="E1193:K1193"/>
-    <mergeCell ref="B1194:D1194"/>
-    <mergeCell ref="E1194:K1194"/>
-    <mergeCell ref="B1190:D1190"/>
-    <mergeCell ref="B1185:D1185"/>
-    <mergeCell ref="E1185:K1185"/>
-    <mergeCell ref="B1186:D1186"/>
-    <mergeCell ref="E1186:K1186"/>
-    <mergeCell ref="B1187:D1187"/>
-    <mergeCell ref="E1187:K1187"/>
-    <mergeCell ref="B1188:D1188"/>
-    <mergeCell ref="E1188:K1188"/>
-    <mergeCell ref="B1189:D1189"/>
-    <mergeCell ref="E1189:K1189"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
-    <mergeCell ref="E386:K386"/>
-    <mergeCell ref="E387:K387"/>
-    <mergeCell ref="E374:K374"/>
-    <mergeCell ref="E375:K375"/>
-    <mergeCell ref="E362:K362"/>
-    <mergeCell ref="E363:K363"/>
-    <mergeCell ref="B386:D386"/>
-    <mergeCell ref="B387:D387"/>
-    <mergeCell ref="B380:D380"/>
-    <mergeCell ref="B381:D381"/>
-    <mergeCell ref="B382:D382"/>
-    <mergeCell ref="B383:D383"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="B385:D385"/>
-    <mergeCell ref="B374:D374"/>
-    <mergeCell ref="B375:D375"/>
-    <mergeCell ref="B376:D376"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="B378:D378"/>
-    <mergeCell ref="B379:D379"/>
-    <mergeCell ref="B368:D368"/>
-    <mergeCell ref="B369:D369"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="B371:D371"/>
-    <mergeCell ref="E360:K360"/>
-    <mergeCell ref="E361:K361"/>
-    <mergeCell ref="E350:K350"/>
-    <mergeCell ref="E351:K351"/>
-    <mergeCell ref="E352:K352"/>
-    <mergeCell ref="E353:K353"/>
-    <mergeCell ref="E354:K354"/>
-    <mergeCell ref="E355:K355"/>
-    <mergeCell ref="E356:K356"/>
-    <mergeCell ref="E357:K357"/>
-    <mergeCell ref="E358:K358"/>
-    <mergeCell ref="E359:K359"/>
-    <mergeCell ref="E380:K380"/>
-    <mergeCell ref="E381:K381"/>
-    <mergeCell ref="E364:K364"/>
-    <mergeCell ref="E365:K365"/>
-    <mergeCell ref="E366:K366"/>
-    <mergeCell ref="E367:K367"/>
-    <mergeCell ref="E368:K368"/>
-    <mergeCell ref="E369:K369"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="E416:K416"/>
-    <mergeCell ref="E417:K417"/>
-    <mergeCell ref="E385:K385"/>
-    <mergeCell ref="E370:K370"/>
-    <mergeCell ref="E371:K371"/>
-    <mergeCell ref="E372:K372"/>
-    <mergeCell ref="E373:K373"/>
-    <mergeCell ref="E382:K382"/>
-    <mergeCell ref="E383:K383"/>
-    <mergeCell ref="E384:K384"/>
-    <mergeCell ref="E376:K376"/>
-    <mergeCell ref="E377:K377"/>
-    <mergeCell ref="E378:K378"/>
-    <mergeCell ref="E379:K379"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="E418:K418"/>
-    <mergeCell ref="E419:K419"/>
-    <mergeCell ref="E420:K420"/>
-    <mergeCell ref="E421:K421"/>
-    <mergeCell ref="E422:K422"/>
-    <mergeCell ref="E411:K411"/>
-    <mergeCell ref="E412:K412"/>
-    <mergeCell ref="E413:K413"/>
-    <mergeCell ref="E414:K414"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:K426"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:K435"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:K427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="E428:K428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:K429"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:K438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:K439"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:K430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:K431"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:K436"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:K443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:K444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:K445"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:K440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:K441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:K442"/>
-    <mergeCell ref="B1137:D1137"/>
-    <mergeCell ref="E1137:K1137"/>
-    <mergeCell ref="B1138:D1138"/>
-    <mergeCell ref="E1138:K1138"/>
-    <mergeCell ref="B1139:D1139"/>
-    <mergeCell ref="E1139:K1139"/>
-    <mergeCell ref="B1140:D1140"/>
-    <mergeCell ref="E1140:K1140"/>
-    <mergeCell ref="B446:D446"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="B447:D447"/>
-    <mergeCell ref="E447:K447"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="E448:K448"/>
-    <mergeCell ref="B1132:D1132"/>
-    <mergeCell ref="E1132:K1132"/>
-    <mergeCell ref="B1133:D1133"/>
-    <mergeCell ref="E1133:K1133"/>
-    <mergeCell ref="B1134:D1134"/>
-    <mergeCell ref="E1134:K1134"/>
-    <mergeCell ref="B1135:D1135"/>
-    <mergeCell ref="E1135:K1135"/>
-    <mergeCell ref="B1136:D1136"/>
-    <mergeCell ref="E1136:K1136"/>
-    <mergeCell ref="B1149:D1149"/>
-    <mergeCell ref="E1149:K1149"/>
-    <mergeCell ref="B1150:D1150"/>
-    <mergeCell ref="E1150:K1150"/>
-    <mergeCell ref="B1151:D1151"/>
-    <mergeCell ref="E1151:K1151"/>
-    <mergeCell ref="B1152:D1152"/>
-    <mergeCell ref="E1152:K1152"/>
-    <mergeCell ref="B1144:D1144"/>
-    <mergeCell ref="E1144:K1144"/>
-    <mergeCell ref="B1145:D1145"/>
-    <mergeCell ref="E1145:K1145"/>
-    <mergeCell ref="B1146:D1146"/>
-    <mergeCell ref="E1146:K1146"/>
-    <mergeCell ref="B1147:D1147"/>
-    <mergeCell ref="E1147:K1147"/>
-    <mergeCell ref="B1148:D1148"/>
-    <mergeCell ref="E1148:K1148"/>
-    <mergeCell ref="B1210:D1210"/>
-    <mergeCell ref="E1210:K1210"/>
-    <mergeCell ref="B1211:D1211"/>
-    <mergeCell ref="E1211:K1211"/>
-    <mergeCell ref="B1212:D1212"/>
-    <mergeCell ref="E1212:K1212"/>
-    <mergeCell ref="B1213:D1213"/>
-    <mergeCell ref="E1213:K1213"/>
-    <mergeCell ref="B1214:D1214"/>
-    <mergeCell ref="E1214:K1214"/>
-    <mergeCell ref="B1215:D1215"/>
-    <mergeCell ref="E1215:K1215"/>
-    <mergeCell ref="B1216:D1216"/>
-    <mergeCell ref="E1216:K1216"/>
-    <mergeCell ref="B1217:D1217"/>
-    <mergeCell ref="E1217:K1217"/>
-    <mergeCell ref="B1218:D1218"/>
-    <mergeCell ref="E1218:K1218"/>
-    <mergeCell ref="B1219:D1219"/>
-    <mergeCell ref="E1219:K1219"/>
-    <mergeCell ref="B1220:D1220"/>
-    <mergeCell ref="E1220:K1220"/>
-    <mergeCell ref="B1221:D1221"/>
-    <mergeCell ref="E1221:K1221"/>
-    <mergeCell ref="B1222:D1222"/>
-    <mergeCell ref="E1222:K1222"/>
-    <mergeCell ref="B1223:D1223"/>
-    <mergeCell ref="E1223:K1223"/>
-    <mergeCell ref="B1224:D1224"/>
-    <mergeCell ref="E1224:K1224"/>
-    <mergeCell ref="B1225:D1225"/>
-    <mergeCell ref="E1225:K1225"/>
-    <mergeCell ref="B1226:D1226"/>
-    <mergeCell ref="E1226:K1226"/>
-    <mergeCell ref="B1227:D1227"/>
-    <mergeCell ref="E1227:K1227"/>
-    <mergeCell ref="B1228:D1228"/>
-    <mergeCell ref="E1228:K1228"/>
-    <mergeCell ref="B1229:D1229"/>
-    <mergeCell ref="E1229:K1229"/>
-    <mergeCell ref="B1230:D1230"/>
-    <mergeCell ref="E1230:K1230"/>
-    <mergeCell ref="B1231:D1231"/>
-    <mergeCell ref="E1231:K1231"/>
-    <mergeCell ref="B1232:D1232"/>
-    <mergeCell ref="E1232:K1232"/>
-    <mergeCell ref="B1233:D1233"/>
-    <mergeCell ref="E1233:K1233"/>
-    <mergeCell ref="B1234:D1234"/>
-    <mergeCell ref="E1234:K1234"/>
-    <mergeCell ref="B1240:D1240"/>
-    <mergeCell ref="E1240:K1240"/>
-    <mergeCell ref="B1235:D1235"/>
-    <mergeCell ref="E1235:K1235"/>
-    <mergeCell ref="B1236:D1236"/>
-    <mergeCell ref="E1236:K1236"/>
-    <mergeCell ref="B1237:D1237"/>
-    <mergeCell ref="E1237:K1237"/>
-    <mergeCell ref="B1238:D1238"/>
-    <mergeCell ref="E1238:K1238"/>
-    <mergeCell ref="B1239:D1239"/>
-    <mergeCell ref="E1239:K1239"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="785">
   <si>
     <t>built-in functions</t>
   </si>
@@ -3289,6 +3289,113 @@
   </si>
   <si>
     <t>组合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; pool = Pool(2, 10)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; pool.print_num()</t>
+  </si>
+  <si>
+    <t>池塘里有 2 只乌龟，10 只小鱼</t>
+  </si>
+  <si>
+    <t>BIF内建函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>issubclass(类A,类B或者(类B,类C...))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断类A是不是后面的子类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断object是不是类的实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isinstance(object, 类B或者(类B,类C...))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasattr(object,name)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断object有没有叫name的属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getattr(object,name[,default])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得object叫name的属性，如果没有返回error，default处为自定义的error</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setattr(object,name,value)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置obejct叫name的属性的值，若不存在叫name的属性，则新建一个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delattr(object,name)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除object叫name的属性，若不存在，报error</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>property(fget=None, fset=None, fdel=None, doc=None)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以直接访问该属性的方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法方法(__new__和__init__)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; a = A()</t>
+  </si>
+  <si>
+    <t>new &lt;class '__main__.A'&gt;</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; b = B()</t>
+  </si>
+  <si>
+    <t>new &lt;class '__main__.B'&gt;</t>
+  </si>
+  <si>
+    <t>继承自object的新式类才有__new__</t>
+  </si>
+  <si>
+    <t>__new__至少要有一个参数cls，代表要实例化的类，此参数在实例化时由Python解释器自动提供</t>
+  </si>
+  <si>
+    <t>__new__必须要有返回值，返回实例化出来的实例，这点在自己实现__new__时要特别注意，可以return父类__new__出来的实例，或者直接是object的__new__出来的实例</t>
+  </si>
+  <si>
+    <t>__init__有一个参数self，就是这个__new__返回的实例，__init__在__new__的基础上可以完成一些其它初始化的动作，__init__不需要返回值</t>
+  </si>
+  <si>
+    <t>若__new__没有正确返回当前类cls的实例，那__init__是不会被调用的，即使是父类的实例也不行</t>
+  </si>
+  <si>
+    <t>魔法方法(__del__)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -11833,6 +11940,1802 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1455</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>1472</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="257836147"/>
+          <a:ext cx="4515970" cy="2980765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>class Turtle():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    def __init__(self, x):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        self.num = x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>class Fish():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    def __init__(self, x):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        self.num = x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>class Pool():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    def __init__(self, x, y):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        self.turtle = Turtle(x)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        self.fish = Fish(y)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    def print_num(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>池塘里有 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>%d </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>只乌龟，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>%d </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>只小鱼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>" % (self.turtle.num, self.fish.num))</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1490</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>1516</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="263719235"/>
+          <a:ext cx="4515970" cy="4370294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; class C:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	def __init__(self, size=10):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		self.size = size</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	def getSize(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		return self.size</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	def setSize(self, value):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		self.size = value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	def delSize(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		del self.size</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	x = property(getSize, setSize, delSize)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; c1 = C()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; c1.getSize()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; c1.setSize(100)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; c1.getSize()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; c1.x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; c1.x = 12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; c1.x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;&gt;&gt; del c1.x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1520</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>1527</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="268761882"/>
+          <a:ext cx="4515970" cy="1210236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class A(object):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    def __init__(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        print ("init")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    def __new__(cls,*args, **kwargs):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        print ("new %s"%cls)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return object.__new__(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cls,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> *args, **kwargs)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1528</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>1538</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="270106588"/>
+          <a:ext cx="4515970" cy="1736912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class A(object):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    pass</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class B(A):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    def __init__(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        print ("init")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    def __new__(cls,*args, **kwargs):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        print ("new %s"%cls)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return object.__new__(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, *args, **kwargs)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1546</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>1557</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矩形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389529" y="273132176"/>
+          <a:ext cx="4515970" cy="1916206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; class CapStr(str):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	def __new__(cls, string):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		string = string.upper()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		return str.__new__(cls, string)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; a = CapStr("I love you!")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; a</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'I LOVE YOU!'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>1582</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>1601</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1456765" y="279306615"/>
+          <a:ext cx="4515970" cy="3104031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; class C:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	def __init__(self, value):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>__init__")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		self.value = value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	def __del__(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>__del__%s" % self.value)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; a1 = C("a1")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>__init__</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; a2 = a1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; a3 = a2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; del a1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; del a2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; del a3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>__del__a1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>1560</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>392205</xdr:colOff>
+      <xdr:row>1582</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="矩形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1434353" y="275552647"/>
+          <a:ext cx="4515970" cy="3664324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; class C:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	def __init__(self, value):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>__init__")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		self.value = value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	def __del__(self):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		print("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>__del__%s" % self.value)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; a1 = C("a1")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>__init__</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; a2 = C("a3")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>__init__</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; a4 = C("a4")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>__init__</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; del a1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>__del__a1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; del a2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>__del__a3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; del a4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>__del__a4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12150,10 +14053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P1454"/>
+  <dimension ref="A2:P1560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1419" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1454" sqref="A1454"/>
+    <sheetView tabSelected="1" topLeftCell="A1558" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1604" sqref="F1604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -17872,6 +19775,147 @@
     <row r="1454" spans="1:11" s="3" customFormat="1">
       <c r="A1454" s="3" t="s">
         <v>754</v>
+      </c>
+    </row>
+    <row r="1457" spans="11:11">
+      <c r="K1457" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="1458" spans="11:11">
+      <c r="K1458" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1459" spans="11:11">
+      <c r="K1459" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="1460" spans="11:11">
+      <c r="K1460" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:8" s="3" customFormat="1">
+      <c r="A1475" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:8">
+      <c r="C1477" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="H1477" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:8">
+      <c r="C1479" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1479" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:8">
+      <c r="C1481" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H1481" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:8">
+      <c r="C1483" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="H1483" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:8">
+      <c r="C1485" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H1485" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:8">
+      <c r="C1487" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="H1487" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="1489" spans="3:8">
+      <c r="C1489" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="H1489" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:1" s="3" customFormat="1">
+      <c r="A1519" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="1524" spans="11:11">
+      <c r="K1524" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="1525" spans="11:11">
+      <c r="K1525" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1526" spans="11:11">
+      <c r="K1526" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="1534" spans="11:11">
+      <c r="K1534" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="1535" spans="11:11">
+      <c r="K1535" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="1541" spans="3:3">
+      <c r="C1541" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="1542" spans="3:3">
+      <c r="C1542" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1543" spans="3:3">
+      <c r="C1543" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="1544" spans="3:3">
+      <c r="C1544" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="1545" spans="3:3">
+      <c r="C1545" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:1" s="3" customFormat="1">
+      <c r="A1560" s="3" t="s">
+        <v>784</v>
       </c>
     </row>
   </sheetData>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="958">
   <si>
     <t>built-in functions</t>
   </si>
@@ -317,7 +317,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -328,7 +328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -670,7 +670,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -956,7 +956,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -978,7 +978,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -988,7 +988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1018,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1033,7 +1033,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1048,7 +1048,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1063,7 +1063,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1078,7 +1078,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1093,7 +1093,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1108,7 +1108,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1123,7 +1123,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1138,7 +1138,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1153,7 +1153,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,7 +1168,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1183,7 +1183,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1198,7 +1198,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1213,7 +1213,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1228,7 +1228,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1243,7 +1243,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1258,7 +1258,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1273,7 +1273,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1288,7 +1288,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1303,7 +1303,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1318,7 +1318,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1333,7 +1333,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1348,7 +1348,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1366,7 +1366,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1381,7 +1381,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1396,7 +1396,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1411,7 +1411,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1426,7 +1426,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1441,7 +1441,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1456,7 +1456,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1471,7 +1471,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1486,7 +1486,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1501,7 +1501,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1516,7 +1516,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1534,7 +1534,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1549,7 +1549,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1564,7 +1564,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1579,7 +1579,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1594,7 +1594,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1609,7 +1609,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1624,7 +1624,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1639,7 +1639,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1654,7 +1654,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1669,7 +1669,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1684,7 +1684,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1699,7 +1699,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1714,7 +1714,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1729,7 +1729,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1744,7 +1744,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1759,7 +1759,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1774,7 +1774,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1789,7 +1789,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1804,7 +1804,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1819,7 +1819,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1834,7 +1834,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1849,7 +1849,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1864,7 +1864,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1879,7 +1879,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1894,7 +1894,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1909,7 +1909,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1924,7 +1924,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2039,7 +2039,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2049,7 +2049,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2060,7 +2060,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2282,7 +2282,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2293,7 +2293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2314,7 +2314,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2332,7 +2332,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2419,7 +2419,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2429,7 +2429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3398,29 +3398,604 @@
     <t>魔法方法(__del__)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>魔法方法(运算方法)</t>
+  </si>
+  <si>
+    <t>运算符重载。具体说来，每个变量在Python中都是以对象形式存在的，即都是继承于Object。</t>
+  </si>
+  <si>
+    <r>
+      <t>而Object则具有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>object.__add__(self, other)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>这样一个方法。每当处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x+y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>这一个表达式的时候，将会调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x.__add__(y)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>魔法方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">含义 </t>
+  </si>
+  <si>
+    <t>基本的魔法方法</t>
+  </si>
+  <si>
+    <t>__new__(cls[, ...])</t>
+  </si>
+  <si>
+    <t>1. __new__ 是在一个对象实例化的时候所调用的第一个方法</t>
+  </si>
+  <si>
+    <t>2. 它的第一个参数是这个类，其他的参数是用来直接传递给 __init__ 方法</t>
+  </si>
+  <si>
+    <t>3. __new__ 决定是否要使用该 __init__ 方法，因为 __new__ 可以调用其他类的构造方法或者直接返回别的实例对象来作为本类的实例，如果 __new__ 没有返回实例对象，则 __init__ 不会被调用</t>
+  </si>
+  <si>
+    <t>4. __new__ 主要是用于继承一个不可变的类型比如一个 tuple 或者 string</t>
+  </si>
+  <si>
+    <t>__init__(self[, ...])</t>
+  </si>
+  <si>
+    <t>构造器，当一个实例被创建的时候调用的初始化方法</t>
+  </si>
+  <si>
+    <t>__del__(self)</t>
+  </si>
+  <si>
+    <t>析构器，当一个实例被销毁的时候调用的方法</t>
+  </si>
+  <si>
+    <t>__call__(self[, args...])</t>
+  </si>
+  <si>
+    <t>允许一个类的实例像函数一样被调用：x(a, b) 调用 x.__call__(a, b)</t>
+  </si>
+  <si>
+    <t>__len__(self)</t>
+  </si>
+  <si>
+    <t>定义当被 len() 调用时的行为</t>
+  </si>
+  <si>
+    <t>__repr__(self)</t>
+  </si>
+  <si>
+    <t>定义当被 repr() 调用时的行为</t>
+  </si>
+  <si>
+    <t>__str__(self)</t>
+  </si>
+  <si>
+    <t>定义当被 str() 调用时的行为</t>
+  </si>
+  <si>
+    <t>__bytes__(self)</t>
+  </si>
+  <si>
+    <t>定义当被 bytes() 调用时的行为</t>
+  </si>
+  <si>
+    <t>__hash__(self)</t>
+  </si>
+  <si>
+    <t>定义当被 hash() 调用时的行为</t>
+  </si>
+  <si>
+    <t>__bool__(self)</t>
+  </si>
+  <si>
+    <t>定义当被 bool() 调用时的行为，应该返回 True 或 False</t>
+  </si>
+  <si>
+    <t>__format__(self, format_spec)</t>
+  </si>
+  <si>
+    <t>定义当被 format() 调用时的行为</t>
+  </si>
+  <si>
+    <t>有关属性</t>
+  </si>
+  <si>
+    <t>__getattr__(self, name)</t>
+  </si>
+  <si>
+    <t>定义当用户试图获取一个不存在的属性时的行为</t>
+  </si>
+  <si>
+    <t>__getattribute__(self, name)</t>
+  </si>
+  <si>
+    <t>定义当该类的属性被访问时的行为</t>
+  </si>
+  <si>
+    <t>__setattr__(self, name, value)</t>
+  </si>
+  <si>
+    <t>定义当一个属性被设置时的行为</t>
+  </si>
+  <si>
+    <t>__delattr__(self, name)</t>
+  </si>
+  <si>
+    <t>定义当一个属性被删除时的行为</t>
+  </si>
+  <si>
+    <t>__dir__(self)</t>
+  </si>
+  <si>
+    <t>定义当 dir() 被调用时的行为</t>
+  </si>
+  <si>
+    <t>__get__(self, instance, owner)</t>
+  </si>
+  <si>
+    <t>定义当描述符的值被取得时的行为</t>
+  </si>
+  <si>
+    <t>__set__(self, instance, value)</t>
+  </si>
+  <si>
+    <t>定义当描述符的值被改变时的行为</t>
+  </si>
+  <si>
+    <t>__delete__(self, instance)</t>
+  </si>
+  <si>
+    <t>定义当描述符的值被删除时的行为</t>
+  </si>
+  <si>
+    <t>比较操作符</t>
+  </si>
+  <si>
+    <t>__lt__(self, other)</t>
+  </si>
+  <si>
+    <t>定义小于号的行为：x &lt; y 调用 x.__lt__(y)</t>
+  </si>
+  <si>
+    <t>__le__(self, other)</t>
+  </si>
+  <si>
+    <t>定义小于等于号的行为：x &lt;= y 调用 x.__le__(y)</t>
+  </si>
+  <si>
+    <t>__eq__(self, other)</t>
+  </si>
+  <si>
+    <t>定义等于号的行为：x == y 调用 x.__eq__(y)</t>
+  </si>
+  <si>
+    <t>__ne__(self, other)</t>
+  </si>
+  <si>
+    <t>定义不等号的行为：x != y 调用 x.__ne__(y)</t>
+  </si>
+  <si>
+    <t>__gt__(self, other)</t>
+  </si>
+  <si>
+    <t>定义大于号的行为：x &gt; y 调用 x.__gt__(y)</t>
+  </si>
+  <si>
+    <t>__ge__(self, other)</t>
+  </si>
+  <si>
+    <t>定义大于等于号的行为：x &gt;= y 调用 x.__ge__(y)</t>
+  </si>
+  <si>
+    <t>算数运算符</t>
+  </si>
+  <si>
+    <t>__add__(self, other)</t>
+  </si>
+  <si>
+    <t>定义加法的行为：+</t>
+  </si>
+  <si>
+    <t>__sub__(self, other)</t>
+  </si>
+  <si>
+    <t>定义减法的行为：-</t>
+  </si>
+  <si>
+    <t>__mul__(self, other)</t>
+  </si>
+  <si>
+    <t>定义乘法的行为：*</t>
+  </si>
+  <si>
+    <t>__truediv__(self, other)</t>
+  </si>
+  <si>
+    <t>定义真除法的行为：/</t>
+  </si>
+  <si>
+    <t>__floordiv__(self, other)</t>
+  </si>
+  <si>
+    <t>定义整数除法的行为：//</t>
+  </si>
+  <si>
+    <t>__mod__(self, other)</t>
+  </si>
+  <si>
+    <t>定义取模算法的行为：%</t>
+  </si>
+  <si>
+    <t>__divmod__(self, other)</t>
+  </si>
+  <si>
+    <t>定义当被 divmod() 调用时的行为</t>
+  </si>
+  <si>
+    <t>__pow__(self, other[, modulo])</t>
+  </si>
+  <si>
+    <t>定义当被 power() 调用或 ** 运算时的行为</t>
+  </si>
+  <si>
+    <t>__lshift__(self, other)</t>
+  </si>
+  <si>
+    <t>定义按位左移位的行为：&lt;&lt;</t>
+  </si>
+  <si>
+    <t>__rshift__(self, other)</t>
+  </si>
+  <si>
+    <t>定义按位右移位的行为：&gt;&gt;</t>
+  </si>
+  <si>
+    <t>__and__(self, other)</t>
+  </si>
+  <si>
+    <t>定义按位与操作的行为：&amp;</t>
+  </si>
+  <si>
+    <t>__xor__(self, other)</t>
+  </si>
+  <si>
+    <t>定义按位异或操作的行为：^</t>
+  </si>
+  <si>
+    <t>__or__(self, other)</t>
+  </si>
+  <si>
+    <t>定义按位或操作的行为：|</t>
+  </si>
+  <si>
+    <t>反运算</t>
+  </si>
+  <si>
+    <t>__radd__(self, other)</t>
+  </si>
+  <si>
+    <t>（与上方相同，当左操作数不支持相应的操作时被调用）</t>
+  </si>
+  <si>
+    <t>__rsub__(self, other)</t>
+  </si>
+  <si>
+    <t>__rmul__(self, other)</t>
+  </si>
+  <si>
+    <t>__rtruediv__(self, other)</t>
+  </si>
+  <si>
+    <t>__rfloordiv__(self, other)</t>
+  </si>
+  <si>
+    <t>__rmod__(self, other)</t>
+  </si>
+  <si>
+    <t>__rdivmod__(self, other)</t>
+  </si>
+  <si>
+    <t>__rpow__(self, other)</t>
+  </si>
+  <si>
+    <t>__rlshift__(self, other)</t>
+  </si>
+  <si>
+    <t>__rrshift__(self, other)</t>
+  </si>
+  <si>
+    <t>__rand__(self, other)</t>
+  </si>
+  <si>
+    <t>__rxor__(self, other)</t>
+  </si>
+  <si>
+    <t>__ror__(self, other)</t>
+  </si>
+  <si>
+    <t>增量赋值运算</t>
+  </si>
+  <si>
+    <t>__iadd__(self, other)</t>
+  </si>
+  <si>
+    <t>定义赋值加法的行为：+=</t>
+  </si>
+  <si>
+    <t>__isub__(self, other)</t>
+  </si>
+  <si>
+    <t>定义赋值减法的行为：-=</t>
+  </si>
+  <si>
+    <t>__imul__(self, other)</t>
+  </si>
+  <si>
+    <t>定义赋值乘法的行为：*=</t>
+  </si>
+  <si>
+    <t>__itruediv__(self, other)</t>
+  </si>
+  <si>
+    <t>定义赋值真除法的行为：/=</t>
+  </si>
+  <si>
+    <t>__ifloordiv__(self, other)</t>
+  </si>
+  <si>
+    <t>定义赋值整数除法的行为：//=</t>
+  </si>
+  <si>
+    <t>__imod__(self, other)</t>
+  </si>
+  <si>
+    <t>定义赋值取模算法的行为：%=</t>
+  </si>
+  <si>
+    <t>__ipow__(self, other[, modulo])</t>
+  </si>
+  <si>
+    <t>定义赋值幂运算的行为：**=</t>
+  </si>
+  <si>
+    <t>__ilshift__(self, other)</t>
+  </si>
+  <si>
+    <t>定义赋值按位左移位的行为：&lt;&lt;=</t>
+  </si>
+  <si>
+    <t>__irshift__(self, other)</t>
+  </si>
+  <si>
+    <t>定义赋值按位右移位的行为：&gt;&gt;=</t>
+  </si>
+  <si>
+    <t>__iand__(self, other)</t>
+  </si>
+  <si>
+    <t>定义赋值按位与操作的行为：&amp;=</t>
+  </si>
+  <si>
+    <t>__ixor__(self, other)</t>
+  </si>
+  <si>
+    <t>定义赋值按位异或操作的行为：^=</t>
+  </si>
+  <si>
+    <t>__ior__(self, other)</t>
+  </si>
+  <si>
+    <t>定义赋值按位或操作的行为：|=</t>
+  </si>
+  <si>
+    <t>一元操作符</t>
+  </si>
+  <si>
+    <t>__pos__(self)</t>
+  </si>
+  <si>
+    <t>定义正号的行为：+x</t>
+  </si>
+  <si>
+    <t>__neg__(self)</t>
+  </si>
+  <si>
+    <t>定义负号的行为：-x</t>
+  </si>
+  <si>
+    <t>__abs__(self)</t>
+  </si>
+  <si>
+    <t>定义当被 abs() 调用时的行为</t>
+  </si>
+  <si>
+    <t>__invert__(self)</t>
+  </si>
+  <si>
+    <t>定义按位求反的行为：~x</t>
+  </si>
+  <si>
+    <t>__complex__(self)</t>
+  </si>
+  <si>
+    <t>定义当被 complex() 调用时的行为（需要返回恰当的值）</t>
+  </si>
+  <si>
+    <t>__int__(self)</t>
+  </si>
+  <si>
+    <t>定义当被 int() 调用时的行为（需要返回恰当的值）</t>
+  </si>
+  <si>
+    <t>__float__(self)</t>
+  </si>
+  <si>
+    <t>定义当被 float() 调用时的行为（需要返回恰当的值）</t>
+  </si>
+  <si>
+    <t>__round__(self[, n])</t>
+  </si>
+  <si>
+    <t>定义当被 round() 调用时的行为（需要返回恰当的值）</t>
+  </si>
+  <si>
+    <t>__index__(self)</t>
+  </si>
+  <si>
+    <t>1. 当对象是被应用在切片表达式中时，实现整形强制转换</t>
+  </si>
+  <si>
+    <t>2. 如果你定义了一个可能在切片时用到的定制的数值型,你应该定义 __index__</t>
+  </si>
+  <si>
+    <t>3. 如果 __index__ 被定义，则 __int__ 也需要被定义，且返回相同的值</t>
+  </si>
+  <si>
+    <t>上下文管理（with 语句）</t>
+  </si>
+  <si>
+    <t>__enter__(self)</t>
+  </si>
+  <si>
+    <t>1. 定义当使用 with 语句时的初始化行为</t>
+  </si>
+  <si>
+    <t>2. __enter__ 的返回值被 with 语句的目标或者 as 后的名字绑定</t>
+  </si>
+  <si>
+    <t>__exit__(self, exc_type, exc_value, traceback)</t>
+  </si>
+  <si>
+    <t>1. 定义当一个代码块被执行或者终止后上下文管理器应该做什么</t>
+  </si>
+  <si>
+    <t>2. 一般被用来处理异常，清除工作或者做一些代码块执行完毕之后的日常工作</t>
+  </si>
+  <si>
+    <t>容器类型</t>
+  </si>
+  <si>
+    <t>定义当被 len() 调用时的行为（返回容器中元素的个数）</t>
+  </si>
+  <si>
+    <t>__getitem__(self, key)</t>
+  </si>
+  <si>
+    <t>定义获取容器中指定元素的行为，相当于 self[key]</t>
+  </si>
+  <si>
+    <t>__setitem__(self, key, value)</t>
+  </si>
+  <si>
+    <t>定义设置容器中指定元素的行为，相当于 self[key] = value</t>
+  </si>
+  <si>
+    <t>__delitem__(self, key)</t>
+  </si>
+  <si>
+    <t>定义删除容器中指定元素的行为，相当于 del self[key]</t>
+  </si>
+  <si>
+    <t>__iter__(self)</t>
+  </si>
+  <si>
+    <t>定义当迭代容器中的元素的行为</t>
+  </si>
+  <si>
+    <t>__reversed__(self)</t>
+  </si>
+  <si>
+    <t>定义当被 reversed() 调用时的行为</t>
+  </si>
+  <si>
+    <t>__contains__(self, item)</t>
+  </si>
+  <si>
+    <t>定义当使用成员测试运算符（in 或 not in）时的行为</t>
+  </si>
+  <si>
+    <t>运算符重载</t>
+  </si>
+  <si>
+    <t>加法变减法，减法变加法</t>
+  </si>
+  <si>
+    <t>self + other会默认再次调用self.__add__(self, other)，这样的话会无限死循环下去！</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3428,7 +4003,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3437,7 +4012,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3446,7 +4021,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3460,7 +4035,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3468,7 +4043,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3491,8 +4066,20 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.199999999999999"/>
+      <color rgb="FFC7254E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3514,6 +4101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3582,7 +4175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
@@ -3607,6 +4200,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3616,12 +4212,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -13736,11 +14339,670 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1604</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>1644</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="316017088"/>
+          <a:ext cx="3978087" cy="7743265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class Test(int):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    def __add__(self, other):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return int.__sub__(self, other)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    def __sub__(self, other):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return int.__add__(self, other)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; t = Test(4)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; del t</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; t1 = Test(4)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; t2 = Test(5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; t1 + t2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; t1 - t2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; t1 + 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; t1 + 100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-96</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; t1 - 100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>104</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; t2 - 100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>105</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt; t2 + 20</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-15</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class Test(int):</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    def __add__(self, other):</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return self + other     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这样是不行的！！ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class Test(int):</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    def __add__(self, other):</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return int(self) + int(other)      # </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这样是可以的！！</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr fontAlgn="base"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14032,7 +15294,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -14053,15 +15315,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P1560"/>
+  <dimension ref="A2:P1754"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1558" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1604" sqref="F1604"/>
+    <sheetView tabSelected="1" topLeftCell="A1613" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1638" sqref="J1638"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" s="3" customFormat="1">
@@ -16120,20 +17382,20 @@
       </c>
     </row>
     <row r="411" spans="2:11" ht="15" customHeight="1">
-      <c r="B411" s="21" t="s">
+      <c r="B411" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C411" s="21"/>
-      <c r="D411" s="21"/>
-      <c r="E411" s="21" t="s">
+      <c r="C411" s="18"/>
+      <c r="D411" s="18"/>
+      <c r="E411" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="F411" s="21"/>
-      <c r="G411" s="21"/>
-      <c r="H411" s="21"/>
-      <c r="I411" s="21"/>
-      <c r="J411" s="21"/>
-      <c r="K411" s="21"/>
+      <c r="F411" s="18"/>
+      <c r="G411" s="18"/>
+      <c r="H411" s="18"/>
+      <c r="I411" s="18"/>
+      <c r="J411" s="18"/>
+      <c r="K411" s="18"/>
     </row>
     <row r="412" spans="2:11" ht="15" customHeight="1">
       <c r="B412" s="16" t="s">
@@ -16317,20 +17579,20 @@
       </c>
     </row>
     <row r="426" spans="2:11">
-      <c r="B426" s="21" t="s">
+      <c r="B426" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C426" s="21"/>
-      <c r="D426" s="21"/>
-      <c r="E426" s="21" t="s">
+      <c r="C426" s="18"/>
+      <c r="D426" s="18"/>
+      <c r="E426" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="F426" s="21"/>
-      <c r="G426" s="21"/>
-      <c r="H426" s="21"/>
-      <c r="I426" s="21"/>
-      <c r="J426" s="21"/>
-      <c r="K426" s="21"/>
+      <c r="F426" s="18"/>
+      <c r="G426" s="18"/>
+      <c r="H426" s="18"/>
+      <c r="I426" s="18"/>
+      <c r="J426" s="18"/>
+      <c r="K426" s="18"/>
     </row>
     <row r="427" spans="2:11">
       <c r="B427" s="16" t="s">
@@ -16429,20 +17691,20 @@
       <c r="E434"/>
     </row>
     <row r="435" spans="2:11">
-      <c r="B435" s="21" t="s">
+      <c r="B435" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C435" s="21"/>
-      <c r="D435" s="21"/>
-      <c r="E435" s="21" t="s">
+      <c r="C435" s="18"/>
+      <c r="D435" s="18"/>
+      <c r="E435" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="F435" s="21"/>
-      <c r="G435" s="21"/>
-      <c r="H435" s="21"/>
-      <c r="I435" s="21"/>
-      <c r="J435" s="21"/>
-      <c r="K435" s="21"/>
+      <c r="F435" s="18"/>
+      <c r="G435" s="18"/>
+      <c r="H435" s="18"/>
+      <c r="I435" s="18"/>
+      <c r="J435" s="18"/>
+      <c r="K435" s="18"/>
     </row>
     <row r="436" spans="2:11">
       <c r="B436" s="16" t="s">
@@ -17750,20 +19012,20 @@
       </c>
     </row>
     <row r="1132" spans="1:11">
-      <c r="B1132" s="21" t="s">
+      <c r="B1132" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="C1132" s="21"/>
-      <c r="D1132" s="21"/>
-      <c r="E1132" s="21" t="s">
+      <c r="C1132" s="18"/>
+      <c r="D1132" s="18"/>
+      <c r="E1132" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="F1132" s="21"/>
-      <c r="G1132" s="21"/>
-      <c r="H1132" s="21"/>
-      <c r="I1132" s="21"/>
-      <c r="J1132" s="21"/>
-      <c r="K1132" s="21"/>
+      <c r="F1132" s="18"/>
+      <c r="G1132" s="18"/>
+      <c r="H1132" s="18"/>
+      <c r="I1132" s="18"/>
+      <c r="J1132" s="18"/>
+      <c r="K1132" s="18"/>
     </row>
     <row r="1133" spans="1:11">
       <c r="B1133" s="16" t="s">
@@ -17909,20 +19171,20 @@
       </c>
     </row>
     <row r="1144" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B1144" s="21" t="s">
+      <c r="B1144" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="C1144" s="21"/>
-      <c r="D1144" s="21"/>
-      <c r="E1144" s="21" t="s">
+      <c r="C1144" s="18"/>
+      <c r="D1144" s="18"/>
+      <c r="E1144" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="F1144" s="21"/>
-      <c r="G1144" s="21"/>
-      <c r="H1144" s="21"/>
-      <c r="I1144" s="21"/>
-      <c r="J1144" s="21"/>
-      <c r="K1144" s="21"/>
+      <c r="F1144" s="18"/>
+      <c r="G1144" s="18"/>
+      <c r="H1144" s="18"/>
+      <c r="I1144" s="18"/>
+      <c r="J1144" s="18"/>
+      <c r="K1144" s="18"/>
     </row>
     <row r="1145" spans="2:11">
       <c r="B1145" s="16" t="s">
@@ -18063,20 +19325,20 @@
       </c>
     </row>
     <row r="1159" spans="1:11">
-      <c r="B1159" s="21" t="s">
+      <c r="B1159" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="C1159" s="21"/>
-      <c r="D1159" s="21"/>
-      <c r="E1159" s="21" t="s">
+      <c r="C1159" s="18"/>
+      <c r="D1159" s="18"/>
+      <c r="E1159" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="F1159" s="21"/>
-      <c r="G1159" s="21"/>
-      <c r="H1159" s="21"/>
-      <c r="I1159" s="21"/>
-      <c r="J1159" s="21"/>
-      <c r="K1159" s="21"/>
+      <c r="F1159" s="18"/>
+      <c r="G1159" s="18"/>
+      <c r="H1159" s="18"/>
+      <c r="I1159" s="18"/>
+      <c r="J1159" s="18"/>
+      <c r="K1159" s="18"/>
     </row>
     <row r="1160" spans="1:11">
       <c r="B1160" s="16" t="s">
@@ -18255,18 +19517,18 @@
       <c r="K1170" s="17"/>
     </row>
     <row r="1171" spans="2:11">
-      <c r="B1171" s="18" t="s">
+      <c r="B1171" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="C1171" s="19"/>
-      <c r="D1171" s="19"/>
-      <c r="E1171" s="19"/>
-      <c r="F1171" s="19"/>
-      <c r="G1171" s="19"/>
-      <c r="H1171" s="19"/>
-      <c r="I1171" s="19"/>
-      <c r="J1171" s="19"/>
-      <c r="K1171" s="20"/>
+      <c r="C1171" s="20"/>
+      <c r="D1171" s="20"/>
+      <c r="E1171" s="20"/>
+      <c r="F1171" s="20"/>
+      <c r="G1171" s="20"/>
+      <c r="H1171" s="20"/>
+      <c r="I1171" s="20"/>
+      <c r="J1171" s="20"/>
+      <c r="K1171" s="21"/>
     </row>
     <row r="1172" spans="2:11">
       <c r="B1172" s="16" t="s">
@@ -18354,20 +19616,20 @@
       </c>
     </row>
     <row r="1181" spans="2:11">
-      <c r="B1181" s="21" t="s">
+      <c r="B1181" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="C1181" s="21"/>
-      <c r="D1181" s="21"/>
-      <c r="E1181" s="21" t="s">
+      <c r="C1181" s="18"/>
+      <c r="D1181" s="18"/>
+      <c r="E1181" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="F1181" s="21"/>
-      <c r="G1181" s="21"/>
-      <c r="H1181" s="21"/>
-      <c r="I1181" s="21"/>
-      <c r="J1181" s="21"/>
-      <c r="K1181" s="21"/>
+      <c r="F1181" s="18"/>
+      <c r="G1181" s="18"/>
+      <c r="H1181" s="18"/>
+      <c r="I1181" s="18"/>
+      <c r="J1181" s="18"/>
+      <c r="K1181" s="18"/>
     </row>
     <row r="1182" spans="2:11">
       <c r="B1182" s="16" t="s">
@@ -18514,20 +19776,20 @@
       <c r="K1190" s="17"/>
     </row>
     <row r="1191" spans="2:14">
-      <c r="B1191" s="18" t="s">
+      <c r="B1191" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C1191" s="19"/>
-      <c r="D1191" s="19"/>
-      <c r="E1191" s="19"/>
-      <c r="F1191" s="19"/>
-      <c r="G1191" s="19"/>
-      <c r="H1191" s="19"/>
-      <c r="I1191" s="19"/>
-      <c r="J1191" s="19"/>
-      <c r="K1191" s="20"/>
-    </row>
-    <row r="1192" spans="2:14" ht="14.25">
+      <c r="C1191" s="20"/>
+      <c r="D1191" s="20"/>
+      <c r="E1191" s="20"/>
+      <c r="F1191" s="20"/>
+      <c r="G1191" s="20"/>
+      <c r="H1191" s="20"/>
+      <c r="I1191" s="20"/>
+      <c r="J1191" s="20"/>
+      <c r="K1191" s="21"/>
+    </row>
+    <row r="1192" spans="2:14">
       <c r="B1192" s="16" t="s">
         <v>545</v>
       </c>
@@ -18561,7 +19823,7 @@
       <c r="M1192" s="14"/>
       <c r="N1192" s="14"/>
     </row>
-    <row r="1193" spans="2:14" ht="14.25">
+    <row r="1193" spans="2:14">
       <c r="B1193" s="16" t="s">
         <v>547</v>
       </c>
@@ -18595,7 +19857,7 @@
       <c r="M1193" s="14"/>
       <c r="N1193" s="14"/>
     </row>
-    <row r="1194" spans="2:14" ht="14.25">
+    <row r="1194" spans="2:14">
       <c r="B1194" s="16" t="s">
         <v>549</v>
       </c>
@@ -18629,7 +19891,7 @@
       <c r="M1194" s="14"/>
       <c r="N1194" s="14"/>
     </row>
-    <row r="1195" spans="2:14" ht="14.25">
+    <row r="1195" spans="2:14">
       <c r="B1195" s="16" t="s">
         <v>551</v>
       </c>
@@ -18663,7 +19925,7 @@
       <c r="M1195" s="14"/>
       <c r="N1195" s="14"/>
     </row>
-    <row r="1196" spans="2:14" ht="14.25">
+    <row r="1196" spans="2:14">
       <c r="B1196" s="16" t="s">
         <v>553</v>
       </c>
@@ -18697,7 +19959,7 @@
       <c r="M1196" s="14"/>
       <c r="N1196" s="14"/>
     </row>
-    <row r="1197" spans="2:14" ht="14.25">
+    <row r="1197" spans="2:14">
       <c r="B1197" s="16" t="s">
         <v>555</v>
       </c>
@@ -18731,7 +19993,7 @@
       <c r="M1197" s="14"/>
       <c r="N1197" s="14"/>
     </row>
-    <row r="1198" spans="2:14" ht="14.25">
+    <row r="1198" spans="2:14">
       <c r="B1198" s="16" t="s">
         <v>557</v>
       </c>
@@ -18805,16 +20067,16 @@
       </c>
     </row>
     <row r="1210" spans="1:11">
-      <c r="B1210" s="21"/>
-      <c r="C1210" s="21"/>
-      <c r="D1210" s="21"/>
-      <c r="E1210" s="21"/>
-      <c r="F1210" s="21"/>
-      <c r="G1210" s="21"/>
-      <c r="H1210" s="21"/>
-      <c r="I1210" s="21"/>
-      <c r="J1210" s="21"/>
-      <c r="K1210" s="21"/>
+      <c r="B1210" s="18"/>
+      <c r="C1210" s="18"/>
+      <c r="D1210" s="18"/>
+      <c r="E1210" s="18"/>
+      <c r="F1210" s="18"/>
+      <c r="G1210" s="18"/>
+      <c r="H1210" s="18"/>
+      <c r="I1210" s="18"/>
+      <c r="J1210" s="18"/>
+      <c r="K1210" s="18"/>
     </row>
     <row r="1211" spans="1:11">
       <c r="B1211" s="16" t="s">
@@ -19918,88 +21180,2011 @@
         <v>784</v>
       </c>
     </row>
+    <row r="1603" spans="1:13" s="3" customFormat="1">
+      <c r="A1603" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:13">
+      <c r="K1606" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="M1606" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1633" spans="11:11">
+      <c r="K1633" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1638" spans="11:11">
+      <c r="K1638" s="22" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="1639" spans="11:11">
+      <c r="K1639" s="22" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="1654" spans="3:12">
+      <c r="C1654" s="18"/>
+      <c r="D1654" s="18"/>
+      <c r="E1654" s="18"/>
+      <c r="F1654" s="18"/>
+      <c r="G1654" s="18"/>
+      <c r="H1654" s="18"/>
+      <c r="I1654" s="18"/>
+      <c r="J1654" s="18"/>
+      <c r="K1654" s="18"/>
+      <c r="L1654" s="18"/>
+    </row>
+    <row r="1655" spans="3:12">
+      <c r="C1655" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1655" s="16"/>
+      <c r="E1655" s="16"/>
+      <c r="F1655" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="G1655" s="17"/>
+      <c r="H1655" s="17"/>
+      <c r="I1655" s="17"/>
+      <c r="J1655" s="17"/>
+      <c r="K1655" s="17"/>
+      <c r="L1655" s="17"/>
+    </row>
+    <row r="1656" spans="3:12">
+      <c r="C1656" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="D1656" s="18"/>
+      <c r="E1656" s="18"/>
+      <c r="F1656" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="G1656" s="18"/>
+      <c r="H1656" s="18"/>
+      <c r="I1656" s="18"/>
+      <c r="J1656" s="18"/>
+      <c r="K1656" s="18"/>
+      <c r="L1656" s="18"/>
+    </row>
+    <row r="1657" spans="3:12" ht="15" customHeight="1">
+      <c r="C1657" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="D1657" s="24"/>
+      <c r="E1657" s="24"/>
+      <c r="F1657" s="24"/>
+      <c r="G1657" s="24"/>
+      <c r="H1657" s="24"/>
+      <c r="I1657" s="24"/>
+      <c r="J1657" s="24"/>
+      <c r="K1657" s="24"/>
+      <c r="L1657" s="25"/>
+    </row>
+    <row r="1658" spans="3:12">
+      <c r="C1658" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1658" s="16"/>
+      <c r="E1658" s="16"/>
+      <c r="F1658" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="G1658" s="17"/>
+      <c r="H1658" s="17"/>
+      <c r="I1658" s="17"/>
+      <c r="J1658" s="17"/>
+      <c r="K1658" s="17"/>
+      <c r="L1658" s="17"/>
+    </row>
+    <row r="1659" spans="3:12">
+      <c r="C1659" s="16"/>
+      <c r="D1659" s="16"/>
+      <c r="E1659" s="16"/>
+      <c r="F1659" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="G1659" s="17"/>
+      <c r="H1659" s="17"/>
+      <c r="I1659" s="17"/>
+      <c r="J1659" s="17"/>
+      <c r="K1659" s="17"/>
+      <c r="L1659" s="17"/>
+    </row>
+    <row r="1660" spans="3:12">
+      <c r="C1660" s="16"/>
+      <c r="D1660" s="16"/>
+      <c r="E1660" s="16"/>
+      <c r="F1660" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1660" s="17"/>
+      <c r="H1660" s="17"/>
+      <c r="I1660" s="17"/>
+      <c r="J1660" s="17"/>
+      <c r="K1660" s="17"/>
+      <c r="L1660" s="17"/>
+    </row>
+    <row r="1661" spans="3:12">
+      <c r="C1661" s="16"/>
+      <c r="D1661" s="16"/>
+      <c r="E1661" s="16"/>
+      <c r="F1661" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="G1661" s="17"/>
+      <c r="H1661" s="17"/>
+      <c r="I1661" s="17"/>
+      <c r="J1661" s="17"/>
+      <c r="K1661" s="17"/>
+      <c r="L1661" s="17"/>
+    </row>
+    <row r="1662" spans="3:12" ht="15" customHeight="1">
+      <c r="C1662" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1662" s="16"/>
+      <c r="E1662" s="16"/>
+      <c r="F1662" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="G1662" s="17"/>
+      <c r="H1662" s="17"/>
+      <c r="I1662" s="17"/>
+      <c r="J1662" s="17"/>
+      <c r="K1662" s="17"/>
+      <c r="L1662" s="17"/>
+    </row>
+    <row r="1663" spans="3:12" ht="15" customHeight="1">
+      <c r="C1663" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="D1663" s="16"/>
+      <c r="E1663" s="16"/>
+      <c r="F1663" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="G1663" s="17"/>
+      <c r="H1663" s="17"/>
+      <c r="I1663" s="17"/>
+      <c r="J1663" s="17"/>
+      <c r="K1663" s="17"/>
+      <c r="L1663" s="17"/>
+    </row>
+    <row r="1664" spans="3:12" ht="15" customHeight="1">
+      <c r="C1664" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="D1664" s="16"/>
+      <c r="E1664" s="16"/>
+      <c r="F1664" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="G1664" s="17"/>
+      <c r="H1664" s="17"/>
+      <c r="I1664" s="17"/>
+      <c r="J1664" s="17"/>
+      <c r="K1664" s="17"/>
+      <c r="L1664" s="17"/>
+    </row>
+    <row r="1665" spans="3:12" ht="15" customHeight="1">
+      <c r="C1665" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="D1665" s="16"/>
+      <c r="E1665" s="16"/>
+      <c r="F1665" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="G1665" s="17"/>
+      <c r="H1665" s="17"/>
+      <c r="I1665" s="17"/>
+      <c r="J1665" s="17"/>
+      <c r="K1665" s="17"/>
+      <c r="L1665" s="17"/>
+    </row>
+    <row r="1666" spans="3:12" ht="15" customHeight="1">
+      <c r="C1666" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="D1666" s="16"/>
+      <c r="E1666" s="16"/>
+      <c r="F1666" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="G1666" s="17"/>
+      <c r="H1666" s="17"/>
+      <c r="I1666" s="17"/>
+      <c r="J1666" s="17"/>
+      <c r="K1666" s="17"/>
+      <c r="L1666" s="17"/>
+    </row>
+    <row r="1667" spans="3:12" ht="15" customHeight="1">
+      <c r="C1667" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="D1667" s="16"/>
+      <c r="E1667" s="16"/>
+      <c r="F1667" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="G1667" s="17"/>
+      <c r="H1667" s="17"/>
+      <c r="I1667" s="17"/>
+      <c r="J1667" s="17"/>
+      <c r="K1667" s="17"/>
+      <c r="L1667" s="17"/>
+    </row>
+    <row r="1668" spans="3:12" ht="15" customHeight="1">
+      <c r="C1668" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="D1668" s="16"/>
+      <c r="E1668" s="16"/>
+      <c r="F1668" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="G1668" s="17"/>
+      <c r="H1668" s="17"/>
+      <c r="I1668" s="17"/>
+      <c r="J1668" s="17"/>
+      <c r="K1668" s="17"/>
+      <c r="L1668" s="17"/>
+    </row>
+    <row r="1669" spans="3:12" ht="15" customHeight="1">
+      <c r="C1669" s="16" t="s">
+        <v>810</v>
+      </c>
+      <c r="D1669" s="16"/>
+      <c r="E1669" s="16"/>
+      <c r="F1669" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="G1669" s="17"/>
+      <c r="H1669" s="17"/>
+      <c r="I1669" s="17"/>
+      <c r="J1669" s="17"/>
+      <c r="K1669" s="17"/>
+      <c r="L1669" s="17"/>
+    </row>
+    <row r="1670" spans="3:12" ht="15" customHeight="1">
+      <c r="C1670" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="D1670" s="16"/>
+      <c r="E1670" s="16"/>
+      <c r="F1670" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="G1670" s="17"/>
+      <c r="H1670" s="17"/>
+      <c r="I1670" s="17"/>
+      <c r="J1670" s="17"/>
+      <c r="K1670" s="17"/>
+      <c r="L1670" s="17"/>
+    </row>
+    <row r="1671" spans="3:12" ht="15" customHeight="1">
+      <c r="C1671" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="D1671" s="16"/>
+      <c r="E1671" s="16"/>
+      <c r="F1671" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="G1671" s="17"/>
+      <c r="H1671" s="17"/>
+      <c r="I1671" s="17"/>
+      <c r="J1671" s="17"/>
+      <c r="K1671" s="17"/>
+      <c r="L1671" s="17"/>
+    </row>
+    <row r="1672" spans="3:12" ht="15" customHeight="1">
+      <c r="C1672" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="D1672" s="24"/>
+      <c r="E1672" s="24"/>
+      <c r="F1672" s="24"/>
+      <c r="G1672" s="24"/>
+      <c r="H1672" s="24"/>
+      <c r="I1672" s="24"/>
+      <c r="J1672" s="24"/>
+      <c r="K1672" s="24"/>
+      <c r="L1672" s="25"/>
+    </row>
+    <row r="1673" spans="3:12" ht="15" customHeight="1">
+      <c r="C1673" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="D1673" s="16"/>
+      <c r="E1673" s="16"/>
+      <c r="F1673" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="G1673" s="17"/>
+      <c r="H1673" s="17"/>
+      <c r="I1673" s="17"/>
+      <c r="J1673" s="17"/>
+      <c r="K1673" s="17"/>
+      <c r="L1673" s="17"/>
+    </row>
+    <row r="1674" spans="3:12" ht="15" customHeight="1">
+      <c r="C1674" s="16" t="s">
+        <v>819</v>
+      </c>
+      <c r="D1674" s="16"/>
+      <c r="E1674" s="16"/>
+      <c r="F1674" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="G1674" s="17"/>
+      <c r="H1674" s="17"/>
+      <c r="I1674" s="17"/>
+      <c r="J1674" s="17"/>
+      <c r="K1674" s="17"/>
+      <c r="L1674" s="17"/>
+    </row>
+    <row r="1675" spans="3:12" ht="15" customHeight="1">
+      <c r="C1675" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1675" s="16"/>
+      <c r="E1675" s="16"/>
+      <c r="F1675" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="G1675" s="17"/>
+      <c r="H1675" s="17"/>
+      <c r="I1675" s="17"/>
+      <c r="J1675" s="17"/>
+      <c r="K1675" s="17"/>
+      <c r="L1675" s="17"/>
+    </row>
+    <row r="1676" spans="3:12" ht="15" customHeight="1">
+      <c r="C1676" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="D1676" s="16"/>
+      <c r="E1676" s="16"/>
+      <c r="F1676" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="G1676" s="17"/>
+      <c r="H1676" s="17"/>
+      <c r="I1676" s="17"/>
+      <c r="J1676" s="17"/>
+      <c r="K1676" s="17"/>
+      <c r="L1676" s="17"/>
+    </row>
+    <row r="1677" spans="3:12" ht="15" customHeight="1">
+      <c r="C1677" s="16" t="s">
+        <v>825</v>
+      </c>
+      <c r="D1677" s="16"/>
+      <c r="E1677" s="16"/>
+      <c r="F1677" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="G1677" s="17"/>
+      <c r="H1677" s="17"/>
+      <c r="I1677" s="17"/>
+      <c r="J1677" s="17"/>
+      <c r="K1677" s="17"/>
+      <c r="L1677" s="17"/>
+    </row>
+    <row r="1678" spans="3:12" ht="15" customHeight="1">
+      <c r="C1678" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="D1678" s="16"/>
+      <c r="E1678" s="16"/>
+      <c r="F1678" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="G1678" s="17"/>
+      <c r="H1678" s="17"/>
+      <c r="I1678" s="17"/>
+      <c r="J1678" s="17"/>
+      <c r="K1678" s="17"/>
+      <c r="L1678" s="17"/>
+    </row>
+    <row r="1679" spans="3:12" ht="15" customHeight="1">
+      <c r="C1679" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="D1679" s="16"/>
+      <c r="E1679" s="16"/>
+      <c r="F1679" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1679" s="17"/>
+      <c r="H1679" s="17"/>
+      <c r="I1679" s="17"/>
+      <c r="J1679" s="17"/>
+      <c r="K1679" s="17"/>
+      <c r="L1679" s="17"/>
+    </row>
+    <row r="1680" spans="3:12" ht="15" customHeight="1">
+      <c r="C1680" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="D1680" s="16"/>
+      <c r="E1680" s="16"/>
+      <c r="F1680" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="G1680" s="17"/>
+      <c r="H1680" s="17"/>
+      <c r="I1680" s="17"/>
+      <c r="J1680" s="17"/>
+      <c r="K1680" s="17"/>
+      <c r="L1680" s="17"/>
+    </row>
+    <row r="1681" spans="3:12" ht="15" customHeight="1">
+      <c r="C1681" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1681" s="24"/>
+      <c r="E1681" s="24"/>
+      <c r="F1681" s="24"/>
+      <c r="G1681" s="24"/>
+      <c r="H1681" s="24"/>
+      <c r="I1681" s="24"/>
+      <c r="J1681" s="24"/>
+      <c r="K1681" s="24"/>
+      <c r="L1681" s="25"/>
+    </row>
+    <row r="1682" spans="3:12" ht="15" customHeight="1">
+      <c r="C1682" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="D1682" s="16"/>
+      <c r="E1682" s="16"/>
+      <c r="F1682" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="G1682" s="17"/>
+      <c r="H1682" s="17"/>
+      <c r="I1682" s="17"/>
+      <c r="J1682" s="17"/>
+      <c r="K1682" s="17"/>
+      <c r="L1682" s="17"/>
+    </row>
+    <row r="1683" spans="3:12" ht="15" customHeight="1">
+      <c r="C1683" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="D1683" s="16"/>
+      <c r="E1683" s="16"/>
+      <c r="F1683" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="G1683" s="17"/>
+      <c r="H1683" s="17"/>
+      <c r="I1683" s="17"/>
+      <c r="J1683" s="17"/>
+      <c r="K1683" s="17"/>
+      <c r="L1683" s="17"/>
+    </row>
+    <row r="1684" spans="3:12" ht="15" customHeight="1">
+      <c r="C1684" s="16" t="s">
+        <v>838</v>
+      </c>
+      <c r="D1684" s="16"/>
+      <c r="E1684" s="16"/>
+      <c r="F1684" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="G1684" s="17"/>
+      <c r="H1684" s="17"/>
+      <c r="I1684" s="17"/>
+      <c r="J1684" s="17"/>
+      <c r="K1684" s="17"/>
+      <c r="L1684" s="17"/>
+    </row>
+    <row r="1685" spans="3:12" ht="15" customHeight="1">
+      <c r="C1685" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="D1685" s="16"/>
+      <c r="E1685" s="16"/>
+      <c r="F1685" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1685" s="17"/>
+      <c r="H1685" s="17"/>
+      <c r="I1685" s="17"/>
+      <c r="J1685" s="17"/>
+      <c r="K1685" s="17"/>
+      <c r="L1685" s="17"/>
+    </row>
+    <row r="1686" spans="3:12" ht="15" customHeight="1">
+      <c r="C1686" s="16" t="s">
+        <v>842</v>
+      </c>
+      <c r="D1686" s="16"/>
+      <c r="E1686" s="16"/>
+      <c r="F1686" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="G1686" s="17"/>
+      <c r="H1686" s="17"/>
+      <c r="I1686" s="17"/>
+      <c r="J1686" s="17"/>
+      <c r="K1686" s="17"/>
+      <c r="L1686" s="17"/>
+    </row>
+    <row r="1687" spans="3:12" ht="15" customHeight="1">
+      <c r="C1687" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="D1687" s="16"/>
+      <c r="E1687" s="16"/>
+      <c r="F1687" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="G1687" s="17"/>
+      <c r="H1687" s="17"/>
+      <c r="I1687" s="17"/>
+      <c r="J1687" s="17"/>
+      <c r="K1687" s="17"/>
+      <c r="L1687" s="17"/>
+    </row>
+    <row r="1688" spans="3:12" ht="15" customHeight="1">
+      <c r="C1688" s="23" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1688" s="24"/>
+      <c r="E1688" s="24"/>
+      <c r="F1688" s="24"/>
+      <c r="G1688" s="24"/>
+      <c r="H1688" s="24"/>
+      <c r="I1688" s="24"/>
+      <c r="J1688" s="24"/>
+      <c r="K1688" s="24"/>
+      <c r="L1688" s="25"/>
+    </row>
+    <row r="1689" spans="3:12" ht="15" customHeight="1">
+      <c r="C1689" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1689" s="16"/>
+      <c r="E1689" s="16"/>
+      <c r="F1689" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="G1689" s="17"/>
+      <c r="H1689" s="17"/>
+      <c r="I1689" s="17"/>
+      <c r="J1689" s="17"/>
+      <c r="K1689" s="17"/>
+      <c r="L1689" s="17"/>
+    </row>
+    <row r="1690" spans="3:12" ht="15" customHeight="1">
+      <c r="C1690" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="D1690" s="16"/>
+      <c r="E1690" s="16"/>
+      <c r="F1690" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="G1690" s="17"/>
+      <c r="H1690" s="17"/>
+      <c r="I1690" s="17"/>
+      <c r="J1690" s="17"/>
+      <c r="K1690" s="17"/>
+      <c r="L1690" s="17"/>
+    </row>
+    <row r="1691" spans="3:12" ht="15" customHeight="1">
+      <c r="C1691" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="D1691" s="16"/>
+      <c r="E1691" s="16"/>
+      <c r="F1691" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="G1691" s="17"/>
+      <c r="H1691" s="17"/>
+      <c r="I1691" s="17"/>
+      <c r="J1691" s="17"/>
+      <c r="K1691" s="17"/>
+      <c r="L1691" s="17"/>
+    </row>
+    <row r="1692" spans="3:12" ht="15" customHeight="1">
+      <c r="C1692" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="D1692" s="16"/>
+      <c r="E1692" s="16"/>
+      <c r="F1692" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="G1692" s="17"/>
+      <c r="H1692" s="17"/>
+      <c r="I1692" s="17"/>
+      <c r="J1692" s="17"/>
+      <c r="K1692" s="17"/>
+      <c r="L1692" s="17"/>
+    </row>
+    <row r="1693" spans="3:12" ht="15" customHeight="1">
+      <c r="C1693" s="16" t="s">
+        <v>855</v>
+      </c>
+      <c r="D1693" s="16"/>
+      <c r="E1693" s="16"/>
+      <c r="F1693" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="G1693" s="17"/>
+      <c r="H1693" s="17"/>
+      <c r="I1693" s="17"/>
+      <c r="J1693" s="17"/>
+      <c r="K1693" s="17"/>
+      <c r="L1693" s="17"/>
+    </row>
+    <row r="1694" spans="3:12" ht="15" customHeight="1">
+      <c r="C1694" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="D1694" s="16"/>
+      <c r="E1694" s="16"/>
+      <c r="F1694" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="G1694" s="17"/>
+      <c r="H1694" s="17"/>
+      <c r="I1694" s="17"/>
+      <c r="J1694" s="17"/>
+      <c r="K1694" s="17"/>
+      <c r="L1694" s="17"/>
+    </row>
+    <row r="1695" spans="3:12" ht="15" customHeight="1">
+      <c r="C1695" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="D1695" s="16"/>
+      <c r="E1695" s="16"/>
+      <c r="F1695" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="G1695" s="17"/>
+      <c r="H1695" s="17"/>
+      <c r="I1695" s="17"/>
+      <c r="J1695" s="17"/>
+      <c r="K1695" s="17"/>
+      <c r="L1695" s="17"/>
+    </row>
+    <row r="1696" spans="3:12" ht="15" customHeight="1">
+      <c r="C1696" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="D1696" s="16"/>
+      <c r="E1696" s="16"/>
+      <c r="F1696" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="G1696" s="17"/>
+      <c r="H1696" s="17"/>
+      <c r="I1696" s="17"/>
+      <c r="J1696" s="17"/>
+      <c r="K1696" s="17"/>
+      <c r="L1696" s="17"/>
+    </row>
+    <row r="1697" spans="3:12" ht="15" customHeight="1">
+      <c r="C1697" s="16" t="s">
+        <v>863</v>
+      </c>
+      <c r="D1697" s="16"/>
+      <c r="E1697" s="16"/>
+      <c r="F1697" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="G1697" s="17"/>
+      <c r="H1697" s="17"/>
+      <c r="I1697" s="17"/>
+      <c r="J1697" s="17"/>
+      <c r="K1697" s="17"/>
+      <c r="L1697" s="17"/>
+    </row>
+    <row r="1698" spans="3:12" ht="15" customHeight="1">
+      <c r="C1698" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1698" s="16"/>
+      <c r="E1698" s="16"/>
+      <c r="F1698" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="G1698" s="17"/>
+      <c r="H1698" s="17"/>
+      <c r="I1698" s="17"/>
+      <c r="J1698" s="17"/>
+      <c r="K1698" s="17"/>
+      <c r="L1698" s="17"/>
+    </row>
+    <row r="1699" spans="3:12" ht="15" customHeight="1">
+      <c r="C1699" s="16" t="s">
+        <v>867</v>
+      </c>
+      <c r="D1699" s="16"/>
+      <c r="E1699" s="16"/>
+      <c r="F1699" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="G1699" s="17"/>
+      <c r="H1699" s="17"/>
+      <c r="I1699" s="17"/>
+      <c r="J1699" s="17"/>
+      <c r="K1699" s="17"/>
+      <c r="L1699" s="17"/>
+    </row>
+    <row r="1700" spans="3:12" ht="15" customHeight="1">
+      <c r="C1700" s="16" t="s">
+        <v>869</v>
+      </c>
+      <c r="D1700" s="16"/>
+      <c r="E1700" s="16"/>
+      <c r="F1700" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="G1700" s="17"/>
+      <c r="H1700" s="17"/>
+      <c r="I1700" s="17"/>
+      <c r="J1700" s="17"/>
+      <c r="K1700" s="17"/>
+      <c r="L1700" s="17"/>
+    </row>
+    <row r="1701" spans="3:12" ht="15" customHeight="1">
+      <c r="C1701" s="16" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1701" s="16"/>
+      <c r="E1701" s="16"/>
+      <c r="F1701" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="G1701" s="17"/>
+      <c r="H1701" s="17"/>
+      <c r="I1701" s="17"/>
+      <c r="J1701" s="17"/>
+      <c r="K1701" s="17"/>
+      <c r="L1701" s="17"/>
+    </row>
+    <row r="1702" spans="3:12">
+      <c r="C1702" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="D1702" s="24"/>
+      <c r="E1702" s="24"/>
+      <c r="F1702" s="24"/>
+      <c r="G1702" s="24"/>
+      <c r="H1702" s="24"/>
+      <c r="I1702" s="24"/>
+      <c r="J1702" s="24"/>
+      <c r="K1702" s="24"/>
+      <c r="L1702" s="25"/>
+    </row>
+    <row r="1703" spans="3:12" ht="15" customHeight="1">
+      <c r="C1703" s="16" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1703" s="16"/>
+      <c r="E1703" s="16"/>
+      <c r="F1703" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1703" s="17"/>
+      <c r="H1703" s="17"/>
+      <c r="I1703" s="17"/>
+      <c r="J1703" s="17"/>
+      <c r="K1703" s="17"/>
+      <c r="L1703" s="17"/>
+    </row>
+    <row r="1704" spans="3:12" ht="15" customHeight="1">
+      <c r="C1704" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1704" s="16"/>
+      <c r="E1704" s="16"/>
+      <c r="F1704" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1704" s="17"/>
+      <c r="H1704" s="17"/>
+      <c r="I1704" s="17"/>
+      <c r="J1704" s="17"/>
+      <c r="K1704" s="17"/>
+      <c r="L1704" s="17"/>
+    </row>
+    <row r="1705" spans="3:12" ht="15" customHeight="1">
+      <c r="C1705" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="D1705" s="16"/>
+      <c r="E1705" s="16"/>
+      <c r="F1705" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1705" s="17"/>
+      <c r="H1705" s="17"/>
+      <c r="I1705" s="17"/>
+      <c r="J1705" s="17"/>
+      <c r="K1705" s="17"/>
+      <c r="L1705" s="17"/>
+    </row>
+    <row r="1706" spans="3:12" ht="15" customHeight="1">
+      <c r="C1706" s="16" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1706" s="16"/>
+      <c r="E1706" s="16"/>
+      <c r="F1706" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1706" s="17"/>
+      <c r="H1706" s="17"/>
+      <c r="I1706" s="17"/>
+      <c r="J1706" s="17"/>
+      <c r="K1706" s="17"/>
+      <c r="L1706" s="17"/>
+    </row>
+    <row r="1707" spans="3:12" ht="15" customHeight="1">
+      <c r="C1707" s="16" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1707" s="16"/>
+      <c r="E1707" s="16"/>
+      <c r="F1707" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1707" s="17"/>
+      <c r="H1707" s="17"/>
+      <c r="I1707" s="17"/>
+      <c r="J1707" s="17"/>
+      <c r="K1707" s="17"/>
+      <c r="L1707" s="17"/>
+    </row>
+    <row r="1708" spans="3:12" ht="15" customHeight="1">
+      <c r="C1708" s="16" t="s">
+        <v>880</v>
+      </c>
+      <c r="D1708" s="16"/>
+      <c r="E1708" s="16"/>
+      <c r="F1708" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1708" s="17"/>
+      <c r="H1708" s="17"/>
+      <c r="I1708" s="17"/>
+      <c r="J1708" s="17"/>
+      <c r="K1708" s="17"/>
+      <c r="L1708" s="17"/>
+    </row>
+    <row r="1709" spans="3:12" ht="15" customHeight="1">
+      <c r="C1709" s="16" t="s">
+        <v>881</v>
+      </c>
+      <c r="D1709" s="16"/>
+      <c r="E1709" s="16"/>
+      <c r="F1709" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1709" s="17"/>
+      <c r="H1709" s="17"/>
+      <c r="I1709" s="17"/>
+      <c r="J1709" s="17"/>
+      <c r="K1709" s="17"/>
+      <c r="L1709" s="17"/>
+    </row>
+    <row r="1710" spans="3:12" ht="15" customHeight="1">
+      <c r="C1710" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="D1710" s="16"/>
+      <c r="E1710" s="16"/>
+      <c r="F1710" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1710" s="17"/>
+      <c r="H1710" s="17"/>
+      <c r="I1710" s="17"/>
+      <c r="J1710" s="17"/>
+      <c r="K1710" s="17"/>
+      <c r="L1710" s="17"/>
+    </row>
+    <row r="1711" spans="3:12" ht="15" customHeight="1">
+      <c r="C1711" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="D1711" s="16"/>
+      <c r="E1711" s="16"/>
+      <c r="F1711" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1711" s="17"/>
+      <c r="H1711" s="17"/>
+      <c r="I1711" s="17"/>
+      <c r="J1711" s="17"/>
+      <c r="K1711" s="17"/>
+      <c r="L1711" s="17"/>
+    </row>
+    <row r="1712" spans="3:12" ht="15" customHeight="1">
+      <c r="C1712" s="16" t="s">
+        <v>884</v>
+      </c>
+      <c r="D1712" s="16"/>
+      <c r="E1712" s="16"/>
+      <c r="F1712" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1712" s="17"/>
+      <c r="H1712" s="17"/>
+      <c r="I1712" s="17"/>
+      <c r="J1712" s="17"/>
+      <c r="K1712" s="17"/>
+      <c r="L1712" s="17"/>
+    </row>
+    <row r="1713" spans="3:12" ht="15" customHeight="1">
+      <c r="C1713" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1713" s="16"/>
+      <c r="E1713" s="16"/>
+      <c r="F1713" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1713" s="17"/>
+      <c r="H1713" s="17"/>
+      <c r="I1713" s="17"/>
+      <c r="J1713" s="17"/>
+      <c r="K1713" s="17"/>
+      <c r="L1713" s="17"/>
+    </row>
+    <row r="1714" spans="3:12" ht="15" customHeight="1">
+      <c r="C1714" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="D1714" s="16"/>
+      <c r="E1714" s="16"/>
+      <c r="F1714" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1714" s="17"/>
+      <c r="H1714" s="17"/>
+      <c r="I1714" s="17"/>
+      <c r="J1714" s="17"/>
+      <c r="K1714" s="17"/>
+      <c r="L1714" s="17"/>
+    </row>
+    <row r="1715" spans="3:12" ht="15" customHeight="1">
+      <c r="C1715" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="D1715" s="16"/>
+      <c r="E1715" s="16"/>
+      <c r="F1715" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1715" s="17"/>
+      <c r="H1715" s="17"/>
+      <c r="I1715" s="17"/>
+      <c r="J1715" s="17"/>
+      <c r="K1715" s="17"/>
+      <c r="L1715" s="17"/>
+    </row>
+    <row r="1716" spans="3:12" ht="15" customHeight="1">
+      <c r="C1716" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1716" s="24"/>
+      <c r="E1716" s="24"/>
+      <c r="F1716" s="24"/>
+      <c r="G1716" s="24"/>
+      <c r="H1716" s="24"/>
+      <c r="I1716" s="24"/>
+      <c r="J1716" s="24"/>
+      <c r="K1716" s="24"/>
+      <c r="L1716" s="25"/>
+    </row>
+    <row r="1717" spans="3:12" ht="15" customHeight="1">
+      <c r="C1717" s="16" t="s">
+        <v>889</v>
+      </c>
+      <c r="D1717" s="16"/>
+      <c r="E1717" s="16"/>
+      <c r="F1717" s="17" t="s">
+        <v>890</v>
+      </c>
+      <c r="G1717" s="17"/>
+      <c r="H1717" s="17"/>
+      <c r="I1717" s="17"/>
+      <c r="J1717" s="17"/>
+      <c r="K1717" s="17"/>
+      <c r="L1717" s="17"/>
+    </row>
+    <row r="1718" spans="3:12" ht="15" customHeight="1">
+      <c r="C1718" s="16" t="s">
+        <v>891</v>
+      </c>
+      <c r="D1718" s="16"/>
+      <c r="E1718" s="16"/>
+      <c r="F1718" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="G1718" s="17"/>
+      <c r="H1718" s="17"/>
+      <c r="I1718" s="17"/>
+      <c r="J1718" s="17"/>
+      <c r="K1718" s="17"/>
+      <c r="L1718" s="17"/>
+    </row>
+    <row r="1719" spans="3:12" ht="15" customHeight="1">
+      <c r="C1719" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="D1719" s="16"/>
+      <c r="E1719" s="16"/>
+      <c r="F1719" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1719" s="17"/>
+      <c r="H1719" s="17"/>
+      <c r="I1719" s="17"/>
+      <c r="J1719" s="17"/>
+      <c r="K1719" s="17"/>
+      <c r="L1719" s="17"/>
+    </row>
+    <row r="1720" spans="3:12" ht="15" customHeight="1">
+      <c r="C1720" s="16" t="s">
+        <v>895</v>
+      </c>
+      <c r="D1720" s="16"/>
+      <c r="E1720" s="16"/>
+      <c r="F1720" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="G1720" s="17"/>
+      <c r="H1720" s="17"/>
+      <c r="I1720" s="17"/>
+      <c r="J1720" s="17"/>
+      <c r="K1720" s="17"/>
+      <c r="L1720" s="17"/>
+    </row>
+    <row r="1721" spans="3:12" ht="15" customHeight="1">
+      <c r="C1721" s="16" t="s">
+        <v>897</v>
+      </c>
+      <c r="D1721" s="16"/>
+      <c r="E1721" s="16"/>
+      <c r="F1721" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="G1721" s="17"/>
+      <c r="H1721" s="17"/>
+      <c r="I1721" s="17"/>
+      <c r="J1721" s="17"/>
+      <c r="K1721" s="17"/>
+      <c r="L1721" s="17"/>
+    </row>
+    <row r="1722" spans="3:12" ht="15" customHeight="1">
+      <c r="C1722" s="16" t="s">
+        <v>899</v>
+      </c>
+      <c r="D1722" s="16"/>
+      <c r="E1722" s="16"/>
+      <c r="F1722" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="G1722" s="17"/>
+      <c r="H1722" s="17"/>
+      <c r="I1722" s="17"/>
+      <c r="J1722" s="17"/>
+      <c r="K1722" s="17"/>
+      <c r="L1722" s="17"/>
+    </row>
+    <row r="1723" spans="3:12" ht="15" customHeight="1">
+      <c r="C1723" s="16" t="s">
+        <v>901</v>
+      </c>
+      <c r="D1723" s="16"/>
+      <c r="E1723" s="16"/>
+      <c r="F1723" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="G1723" s="17"/>
+      <c r="H1723" s="17"/>
+      <c r="I1723" s="17"/>
+      <c r="J1723" s="17"/>
+      <c r="K1723" s="17"/>
+      <c r="L1723" s="17"/>
+    </row>
+    <row r="1724" spans="3:12" ht="15" customHeight="1">
+      <c r="C1724" s="16" t="s">
+        <v>903</v>
+      </c>
+      <c r="D1724" s="16"/>
+      <c r="E1724" s="16"/>
+      <c r="F1724" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="G1724" s="17"/>
+      <c r="H1724" s="17"/>
+      <c r="I1724" s="17"/>
+      <c r="J1724" s="17"/>
+      <c r="K1724" s="17"/>
+      <c r="L1724" s="17"/>
+    </row>
+    <row r="1725" spans="3:12" ht="15" customHeight="1">
+      <c r="C1725" s="16" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1725" s="16"/>
+      <c r="E1725" s="16"/>
+      <c r="F1725" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="G1725" s="17"/>
+      <c r="H1725" s="17"/>
+      <c r="I1725" s="17"/>
+      <c r="J1725" s="17"/>
+      <c r="K1725" s="17"/>
+      <c r="L1725" s="17"/>
+    </row>
+    <row r="1726" spans="3:12" ht="15" customHeight="1">
+      <c r="C1726" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="D1726" s="16"/>
+      <c r="E1726" s="16"/>
+      <c r="F1726" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1726" s="17"/>
+      <c r="H1726" s="17"/>
+      <c r="I1726" s="17"/>
+      <c r="J1726" s="17"/>
+      <c r="K1726" s="17"/>
+      <c r="L1726" s="17"/>
+    </row>
+    <row r="1727" spans="3:12" ht="15" customHeight="1">
+      <c r="C1727" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1727" s="16"/>
+      <c r="E1727" s="16"/>
+      <c r="F1727" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="G1727" s="17"/>
+      <c r="H1727" s="17"/>
+      <c r="I1727" s="17"/>
+      <c r="J1727" s="17"/>
+      <c r="K1727" s="17"/>
+      <c r="L1727" s="17"/>
+    </row>
+    <row r="1728" spans="3:12" ht="15" customHeight="1">
+      <c r="C1728" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1728" s="16"/>
+      <c r="E1728" s="16"/>
+      <c r="F1728" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="G1728" s="17"/>
+      <c r="H1728" s="17"/>
+      <c r="I1728" s="17"/>
+      <c r="J1728" s="17"/>
+      <c r="K1728" s="17"/>
+      <c r="L1728" s="17"/>
+    </row>
+    <row r="1729" spans="3:12" ht="15" customHeight="1">
+      <c r="C1729" s="23" t="s">
+        <v>913</v>
+      </c>
+      <c r="D1729" s="24"/>
+      <c r="E1729" s="24"/>
+      <c r="F1729" s="24"/>
+      <c r="G1729" s="24"/>
+      <c r="H1729" s="24"/>
+      <c r="I1729" s="24"/>
+      <c r="J1729" s="24"/>
+      <c r="K1729" s="24"/>
+      <c r="L1729" s="25"/>
+    </row>
+    <row r="1730" spans="3:12" ht="15" customHeight="1">
+      <c r="C1730" s="16" t="s">
+        <v>914</v>
+      </c>
+      <c r="D1730" s="16"/>
+      <c r="E1730" s="16"/>
+      <c r="F1730" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="G1730" s="17"/>
+      <c r="H1730" s="17"/>
+      <c r="I1730" s="17"/>
+      <c r="J1730" s="17"/>
+      <c r="K1730" s="17"/>
+      <c r="L1730" s="17"/>
+    </row>
+    <row r="1731" spans="3:12" ht="15" customHeight="1">
+      <c r="C1731" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="D1731" s="16"/>
+      <c r="E1731" s="16"/>
+      <c r="F1731" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="G1731" s="17"/>
+      <c r="H1731" s="17"/>
+      <c r="I1731" s="17"/>
+      <c r="J1731" s="17"/>
+      <c r="K1731" s="17"/>
+      <c r="L1731" s="17"/>
+    </row>
+    <row r="1732" spans="3:12" ht="15" customHeight="1">
+      <c r="C1732" s="16" t="s">
+        <v>918</v>
+      </c>
+      <c r="D1732" s="16"/>
+      <c r="E1732" s="16"/>
+      <c r="F1732" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="G1732" s="17"/>
+      <c r="H1732" s="17"/>
+      <c r="I1732" s="17"/>
+      <c r="J1732" s="17"/>
+      <c r="K1732" s="17"/>
+      <c r="L1732" s="17"/>
+    </row>
+    <row r="1733" spans="3:12" ht="15" customHeight="1">
+      <c r="C1733" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="D1733" s="16"/>
+      <c r="E1733" s="16"/>
+      <c r="F1733" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="G1733" s="17"/>
+      <c r="H1733" s="17"/>
+      <c r="I1733" s="17"/>
+      <c r="J1733" s="17"/>
+      <c r="K1733" s="17"/>
+      <c r="L1733" s="17"/>
+    </row>
+    <row r="1734" spans="3:12" ht="15" customHeight="1">
+      <c r="C1734" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1734" s="24"/>
+      <c r="E1734" s="24"/>
+      <c r="F1734" s="24"/>
+      <c r="G1734" s="24"/>
+      <c r="H1734" s="24"/>
+      <c r="I1734" s="24"/>
+      <c r="J1734" s="24"/>
+      <c r="K1734" s="24"/>
+      <c r="L1734" s="25"/>
+    </row>
+    <row r="1735" spans="3:12" ht="15" customHeight="1">
+      <c r="C1735" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="D1735" s="16"/>
+      <c r="E1735" s="16"/>
+      <c r="F1735" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1735" s="17"/>
+      <c r="H1735" s="17"/>
+      <c r="I1735" s="17"/>
+      <c r="J1735" s="17"/>
+      <c r="K1735" s="17"/>
+      <c r="L1735" s="17"/>
+    </row>
+    <row r="1736" spans="3:12" ht="15" customHeight="1">
+      <c r="C1736" s="16" t="s">
+        <v>924</v>
+      </c>
+      <c r="D1736" s="16"/>
+      <c r="E1736" s="16"/>
+      <c r="F1736" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="G1736" s="17"/>
+      <c r="H1736" s="17"/>
+      <c r="I1736" s="17"/>
+      <c r="J1736" s="17"/>
+      <c r="K1736" s="17"/>
+      <c r="L1736" s="17"/>
+    </row>
+    <row r="1737" spans="3:12" ht="15" customHeight="1">
+      <c r="C1737" s="16" t="s">
+        <v>926</v>
+      </c>
+      <c r="D1737" s="16"/>
+      <c r="E1737" s="16"/>
+      <c r="F1737" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="G1737" s="17"/>
+      <c r="H1737" s="17"/>
+      <c r="I1737" s="17"/>
+      <c r="J1737" s="17"/>
+      <c r="K1737" s="17"/>
+      <c r="L1737" s="17"/>
+    </row>
+    <row r="1738" spans="3:12" ht="15" customHeight="1">
+      <c r="C1738" s="16" t="s">
+        <v>928</v>
+      </c>
+      <c r="D1738" s="16"/>
+      <c r="E1738" s="16"/>
+      <c r="F1738" s="17" t="s">
+        <v>929</v>
+      </c>
+      <c r="G1738" s="17"/>
+      <c r="H1738" s="17"/>
+      <c r="I1738" s="17"/>
+      <c r="J1738" s="17"/>
+      <c r="K1738" s="17"/>
+      <c r="L1738" s="17"/>
+    </row>
+    <row r="1739" spans="3:12" ht="15" customHeight="1">
+      <c r="C1739" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="D1739" s="16"/>
+      <c r="E1739" s="16"/>
+      <c r="F1739" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="G1739" s="17"/>
+      <c r="H1739" s="17"/>
+      <c r="I1739" s="17"/>
+      <c r="J1739" s="17"/>
+      <c r="K1739" s="17"/>
+      <c r="L1739" s="17"/>
+    </row>
+    <row r="1740" spans="3:12" ht="15" customHeight="1">
+      <c r="C1740" s="16"/>
+      <c r="D1740" s="16"/>
+      <c r="E1740" s="16"/>
+      <c r="F1740" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="G1740" s="17"/>
+      <c r="H1740" s="17"/>
+      <c r="I1740" s="17"/>
+      <c r="J1740" s="17"/>
+      <c r="K1740" s="17"/>
+      <c r="L1740" s="17"/>
+    </row>
+    <row r="1741" spans="3:12" ht="15" customHeight="1">
+      <c r="C1741" s="16"/>
+      <c r="D1741" s="16"/>
+      <c r="E1741" s="16"/>
+      <c r="F1741" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="G1741" s="17"/>
+      <c r="H1741" s="17"/>
+      <c r="I1741" s="17"/>
+      <c r="J1741" s="17"/>
+      <c r="K1741" s="17"/>
+      <c r="L1741" s="17"/>
+    </row>
+    <row r="1742" spans="3:12" ht="15" customHeight="1">
+      <c r="C1742" s="16"/>
+      <c r="D1742" s="16"/>
+      <c r="E1742" s="16"/>
+      <c r="F1742" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="G1742" s="17"/>
+      <c r="H1742" s="17"/>
+      <c r="I1742" s="17"/>
+      <c r="J1742" s="17"/>
+      <c r="K1742" s="17"/>
+      <c r="L1742" s="17"/>
+    </row>
+    <row r="1743" spans="3:12" ht="15" customHeight="1">
+      <c r="C1743" s="16" t="s">
+        <v>935</v>
+      </c>
+      <c r="D1743" s="16"/>
+      <c r="E1743" s="16"/>
+      <c r="F1743" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="G1743" s="17"/>
+      <c r="H1743" s="17"/>
+      <c r="I1743" s="17"/>
+      <c r="J1743" s="17"/>
+      <c r="K1743" s="17"/>
+      <c r="L1743" s="17"/>
+    </row>
+    <row r="1744" spans="3:12" ht="15" customHeight="1">
+      <c r="C1744" s="16"/>
+      <c r="D1744" s="16"/>
+      <c r="E1744" s="16"/>
+      <c r="F1744" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="G1744" s="17"/>
+      <c r="H1744" s="17"/>
+      <c r="I1744" s="17"/>
+      <c r="J1744" s="17"/>
+      <c r="K1744" s="17"/>
+      <c r="L1744" s="17"/>
+    </row>
+    <row r="1745" spans="3:12" ht="15" customHeight="1">
+      <c r="C1745" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="D1745" s="16"/>
+      <c r="E1745" s="16"/>
+      <c r="F1745" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="G1745" s="17"/>
+      <c r="H1745" s="17"/>
+      <c r="I1745" s="17"/>
+      <c r="J1745" s="17"/>
+      <c r="K1745" s="17"/>
+      <c r="L1745" s="17"/>
+    </row>
+    <row r="1746" spans="3:12" ht="15" customHeight="1">
+      <c r="C1746" s="16"/>
+      <c r="D1746" s="16"/>
+      <c r="E1746" s="16"/>
+      <c r="F1746" s="17" t="s">
+        <v>940</v>
+      </c>
+      <c r="G1746" s="17"/>
+      <c r="H1746" s="17"/>
+      <c r="I1746" s="17"/>
+      <c r="J1746" s="17"/>
+      <c r="K1746" s="17"/>
+      <c r="L1746" s="17"/>
+    </row>
+    <row r="1747" spans="3:12" ht="15" customHeight="1">
+      <c r="C1747" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="D1747" s="24"/>
+      <c r="E1747" s="24"/>
+      <c r="F1747" s="24"/>
+      <c r="G1747" s="24"/>
+      <c r="H1747" s="24"/>
+      <c r="I1747" s="24"/>
+      <c r="J1747" s="24"/>
+      <c r="K1747" s="24"/>
+      <c r="L1747" s="25"/>
+    </row>
+    <row r="1748" spans="3:12" ht="15" customHeight="1">
+      <c r="C1748" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="D1748" s="16"/>
+      <c r="E1748" s="16"/>
+      <c r="F1748" s="17" t="s">
+        <v>942</v>
+      </c>
+      <c r="G1748" s="17"/>
+      <c r="H1748" s="17"/>
+      <c r="I1748" s="17"/>
+      <c r="J1748" s="17"/>
+      <c r="K1748" s="17"/>
+      <c r="L1748" s="17"/>
+    </row>
+    <row r="1749" spans="3:12" ht="15" customHeight="1">
+      <c r="C1749" s="16" t="s">
+        <v>943</v>
+      </c>
+      <c r="D1749" s="16"/>
+      <c r="E1749" s="16"/>
+      <c r="F1749" s="17" t="s">
+        <v>944</v>
+      </c>
+      <c r="G1749" s="17"/>
+      <c r="H1749" s="17"/>
+      <c r="I1749" s="17"/>
+      <c r="J1749" s="17"/>
+      <c r="K1749" s="17"/>
+      <c r="L1749" s="17"/>
+    </row>
+    <row r="1750" spans="3:12" ht="15" customHeight="1">
+      <c r="C1750" s="16" t="s">
+        <v>945</v>
+      </c>
+      <c r="D1750" s="16"/>
+      <c r="E1750" s="16"/>
+      <c r="F1750" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="G1750" s="17"/>
+      <c r="H1750" s="17"/>
+      <c r="I1750" s="17"/>
+      <c r="J1750" s="17"/>
+      <c r="K1750" s="17"/>
+      <c r="L1750" s="17"/>
+    </row>
+    <row r="1751" spans="3:12" ht="15" customHeight="1">
+      <c r="C1751" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="D1751" s="16"/>
+      <c r="E1751" s="16"/>
+      <c r="F1751" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="G1751" s="17"/>
+      <c r="H1751" s="17"/>
+      <c r="I1751" s="17"/>
+      <c r="J1751" s="17"/>
+      <c r="K1751" s="17"/>
+      <c r="L1751" s="17"/>
+    </row>
+    <row r="1752" spans="3:12" ht="15" customHeight="1">
+      <c r="C1752" s="16" t="s">
+        <v>949</v>
+      </c>
+      <c r="D1752" s="16"/>
+      <c r="E1752" s="16"/>
+      <c r="F1752" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="G1752" s="17"/>
+      <c r="H1752" s="17"/>
+      <c r="I1752" s="17"/>
+      <c r="J1752" s="17"/>
+      <c r="K1752" s="17"/>
+      <c r="L1752" s="17"/>
+    </row>
+    <row r="1753" spans="3:12" ht="15" customHeight="1">
+      <c r="C1753" s="16" t="s">
+        <v>951</v>
+      </c>
+      <c r="D1753" s="16"/>
+      <c r="E1753" s="16"/>
+      <c r="F1753" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="G1753" s="17"/>
+      <c r="H1753" s="17"/>
+      <c r="I1753" s="17"/>
+      <c r="J1753" s="17"/>
+      <c r="K1753" s="17"/>
+      <c r="L1753" s="17"/>
+    </row>
+    <row r="1754" spans="3:12" ht="15" customHeight="1">
+      <c r="C1754" s="16" t="s">
+        <v>953</v>
+      </c>
+      <c r="D1754" s="16"/>
+      <c r="E1754" s="16"/>
+      <c r="F1754" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="G1754" s="17"/>
+      <c r="H1754" s="17"/>
+      <c r="I1754" s="17"/>
+      <c r="J1754" s="17"/>
+      <c r="K1754" s="17"/>
+      <c r="L1754" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="308">
-    <mergeCell ref="B1240:D1240"/>
-    <mergeCell ref="E1240:K1240"/>
-    <mergeCell ref="B1235:D1235"/>
-    <mergeCell ref="E1235:K1235"/>
-    <mergeCell ref="B1236:D1236"/>
-    <mergeCell ref="E1236:K1236"/>
-    <mergeCell ref="B1237:D1237"/>
-    <mergeCell ref="E1237:K1237"/>
-    <mergeCell ref="B1238:D1238"/>
-    <mergeCell ref="E1238:K1238"/>
-    <mergeCell ref="B1239:D1239"/>
-    <mergeCell ref="E1239:K1239"/>
-    <mergeCell ref="B1230:D1230"/>
-    <mergeCell ref="E1230:K1230"/>
-    <mergeCell ref="B1231:D1231"/>
-    <mergeCell ref="E1231:K1231"/>
-    <mergeCell ref="B1232:D1232"/>
-    <mergeCell ref="E1232:K1232"/>
-    <mergeCell ref="B1233:D1233"/>
-    <mergeCell ref="E1233:K1233"/>
-    <mergeCell ref="B1234:D1234"/>
-    <mergeCell ref="E1234:K1234"/>
-    <mergeCell ref="B1225:D1225"/>
-    <mergeCell ref="E1225:K1225"/>
-    <mergeCell ref="B1226:D1226"/>
-    <mergeCell ref="E1226:K1226"/>
-    <mergeCell ref="B1227:D1227"/>
-    <mergeCell ref="E1227:K1227"/>
-    <mergeCell ref="B1228:D1228"/>
-    <mergeCell ref="E1228:K1228"/>
-    <mergeCell ref="B1229:D1229"/>
-    <mergeCell ref="E1229:K1229"/>
-    <mergeCell ref="B1220:D1220"/>
-    <mergeCell ref="E1220:K1220"/>
-    <mergeCell ref="B1221:D1221"/>
-    <mergeCell ref="E1221:K1221"/>
-    <mergeCell ref="B1222:D1222"/>
-    <mergeCell ref="E1222:K1222"/>
-    <mergeCell ref="B1223:D1223"/>
-    <mergeCell ref="E1223:K1223"/>
-    <mergeCell ref="B1224:D1224"/>
-    <mergeCell ref="E1224:K1224"/>
-    <mergeCell ref="B1215:D1215"/>
-    <mergeCell ref="E1215:K1215"/>
-    <mergeCell ref="B1216:D1216"/>
-    <mergeCell ref="E1216:K1216"/>
-    <mergeCell ref="B1217:D1217"/>
-    <mergeCell ref="E1217:K1217"/>
-    <mergeCell ref="B1218:D1218"/>
-    <mergeCell ref="E1218:K1218"/>
-    <mergeCell ref="B1219:D1219"/>
-    <mergeCell ref="E1219:K1219"/>
-    <mergeCell ref="B1210:D1210"/>
-    <mergeCell ref="E1210:K1210"/>
-    <mergeCell ref="B1211:D1211"/>
-    <mergeCell ref="E1211:K1211"/>
-    <mergeCell ref="B1212:D1212"/>
-    <mergeCell ref="E1212:K1212"/>
-    <mergeCell ref="B1213:D1213"/>
-    <mergeCell ref="E1213:K1213"/>
-    <mergeCell ref="B1214:D1214"/>
-    <mergeCell ref="E1214:K1214"/>
-    <mergeCell ref="B1149:D1149"/>
-    <mergeCell ref="E1149:K1149"/>
-    <mergeCell ref="B1150:D1150"/>
-    <mergeCell ref="E1150:K1150"/>
-    <mergeCell ref="B1151:D1151"/>
-    <mergeCell ref="E1151:K1151"/>
-    <mergeCell ref="B1152:D1152"/>
-    <mergeCell ref="E1152:K1152"/>
-    <mergeCell ref="B1144:D1144"/>
-    <mergeCell ref="E1144:K1144"/>
-    <mergeCell ref="B1145:D1145"/>
-    <mergeCell ref="E1145:K1145"/>
-    <mergeCell ref="B1146:D1146"/>
-    <mergeCell ref="E1146:K1146"/>
-    <mergeCell ref="B1147:D1147"/>
-    <mergeCell ref="E1147:K1147"/>
-    <mergeCell ref="B1148:D1148"/>
-    <mergeCell ref="E1148:K1148"/>
+  <mergeCells count="501">
+    <mergeCell ref="F1754:L1754"/>
+    <mergeCell ref="C1657:L1657"/>
+    <mergeCell ref="C1672:L1672"/>
+    <mergeCell ref="C1681:L1681"/>
+    <mergeCell ref="C1688:L1688"/>
+    <mergeCell ref="C1702:L1702"/>
+    <mergeCell ref="C1716:L1716"/>
+    <mergeCell ref="C1729:L1729"/>
+    <mergeCell ref="C1734:L1734"/>
+    <mergeCell ref="C1747:L1747"/>
+    <mergeCell ref="C1754:E1754"/>
+    <mergeCell ref="F1662:L1662"/>
+    <mergeCell ref="F1663:L1663"/>
+    <mergeCell ref="F1664:L1664"/>
+    <mergeCell ref="F1665:L1665"/>
+    <mergeCell ref="F1666:L1666"/>
+    <mergeCell ref="F1667:L1667"/>
+    <mergeCell ref="F1668:L1668"/>
+    <mergeCell ref="F1669:L1669"/>
+    <mergeCell ref="F1670:L1670"/>
+    <mergeCell ref="F1671:L1671"/>
+    <mergeCell ref="F1673:L1673"/>
+    <mergeCell ref="F1674:L1674"/>
+    <mergeCell ref="F1675:L1675"/>
+    <mergeCell ref="F1676:L1676"/>
+    <mergeCell ref="F1677:L1677"/>
+    <mergeCell ref="F1678:L1678"/>
+    <mergeCell ref="F1679:L1679"/>
+    <mergeCell ref="F1680:L1680"/>
+    <mergeCell ref="F1682:L1682"/>
+    <mergeCell ref="F1683:L1683"/>
+    <mergeCell ref="C1749:E1749"/>
+    <mergeCell ref="C1750:E1750"/>
+    <mergeCell ref="C1751:E1751"/>
+    <mergeCell ref="C1752:E1752"/>
+    <mergeCell ref="C1753:E1753"/>
+    <mergeCell ref="F1749:L1749"/>
+    <mergeCell ref="F1750:L1750"/>
+    <mergeCell ref="F1751:L1751"/>
+    <mergeCell ref="F1752:L1752"/>
+    <mergeCell ref="F1753:L1753"/>
+    <mergeCell ref="C1744:E1744"/>
+    <mergeCell ref="C1745:E1745"/>
+    <mergeCell ref="C1746:E1746"/>
+    <mergeCell ref="C1748:E1748"/>
+    <mergeCell ref="F1744:L1744"/>
+    <mergeCell ref="F1745:L1745"/>
+    <mergeCell ref="F1746:L1746"/>
+    <mergeCell ref="F1748:L1748"/>
+    <mergeCell ref="C1739:E1739"/>
+    <mergeCell ref="C1740:E1740"/>
+    <mergeCell ref="C1741:E1741"/>
+    <mergeCell ref="C1742:E1742"/>
+    <mergeCell ref="C1743:E1743"/>
+    <mergeCell ref="F1739:L1739"/>
+    <mergeCell ref="F1740:L1740"/>
+    <mergeCell ref="F1741:L1741"/>
+    <mergeCell ref="F1742:L1742"/>
+    <mergeCell ref="F1743:L1743"/>
+    <mergeCell ref="C1735:E1735"/>
+    <mergeCell ref="C1736:E1736"/>
+    <mergeCell ref="C1737:E1737"/>
+    <mergeCell ref="C1738:E1738"/>
+    <mergeCell ref="F1735:L1735"/>
+    <mergeCell ref="F1736:L1736"/>
+    <mergeCell ref="F1737:L1737"/>
+    <mergeCell ref="F1738:L1738"/>
+    <mergeCell ref="C1730:E1730"/>
+    <mergeCell ref="C1731:E1731"/>
+    <mergeCell ref="C1732:E1732"/>
+    <mergeCell ref="C1733:E1733"/>
+    <mergeCell ref="F1730:L1730"/>
+    <mergeCell ref="F1731:L1731"/>
+    <mergeCell ref="F1732:L1732"/>
+    <mergeCell ref="F1733:L1733"/>
+    <mergeCell ref="C1724:E1724"/>
+    <mergeCell ref="C1725:E1725"/>
+    <mergeCell ref="C1726:E1726"/>
+    <mergeCell ref="C1727:E1727"/>
+    <mergeCell ref="C1728:E1728"/>
+    <mergeCell ref="F1724:L1724"/>
+    <mergeCell ref="F1725:L1725"/>
+    <mergeCell ref="F1726:L1726"/>
+    <mergeCell ref="F1727:L1727"/>
+    <mergeCell ref="F1728:L1728"/>
+    <mergeCell ref="C1719:E1719"/>
+    <mergeCell ref="C1720:E1720"/>
+    <mergeCell ref="C1721:E1721"/>
+    <mergeCell ref="C1722:E1722"/>
+    <mergeCell ref="C1723:E1723"/>
+    <mergeCell ref="F1719:L1719"/>
+    <mergeCell ref="F1720:L1720"/>
+    <mergeCell ref="F1721:L1721"/>
+    <mergeCell ref="F1722:L1722"/>
+    <mergeCell ref="F1723:L1723"/>
+    <mergeCell ref="C1714:E1714"/>
+    <mergeCell ref="C1715:E1715"/>
+    <mergeCell ref="C1717:E1717"/>
+    <mergeCell ref="C1718:E1718"/>
+    <mergeCell ref="F1714:L1714"/>
+    <mergeCell ref="F1715:L1715"/>
+    <mergeCell ref="F1717:L1717"/>
+    <mergeCell ref="F1718:L1718"/>
+    <mergeCell ref="C1709:E1709"/>
+    <mergeCell ref="C1710:E1710"/>
+    <mergeCell ref="C1711:E1711"/>
+    <mergeCell ref="C1712:E1712"/>
+    <mergeCell ref="C1713:E1713"/>
+    <mergeCell ref="F1709:L1709"/>
+    <mergeCell ref="F1710:L1710"/>
+    <mergeCell ref="F1711:L1711"/>
+    <mergeCell ref="F1712:L1712"/>
+    <mergeCell ref="F1713:L1713"/>
+    <mergeCell ref="C1704:E1704"/>
+    <mergeCell ref="C1705:E1705"/>
+    <mergeCell ref="C1706:E1706"/>
+    <mergeCell ref="C1707:E1707"/>
+    <mergeCell ref="C1708:E1708"/>
+    <mergeCell ref="F1704:L1704"/>
+    <mergeCell ref="F1705:L1705"/>
+    <mergeCell ref="F1706:L1706"/>
+    <mergeCell ref="F1707:L1707"/>
+    <mergeCell ref="F1708:L1708"/>
+    <mergeCell ref="C1699:E1699"/>
+    <mergeCell ref="C1700:E1700"/>
+    <mergeCell ref="C1701:E1701"/>
+    <mergeCell ref="C1703:E1703"/>
+    <mergeCell ref="F1699:L1699"/>
+    <mergeCell ref="F1700:L1700"/>
+    <mergeCell ref="F1701:L1701"/>
+    <mergeCell ref="F1703:L1703"/>
+    <mergeCell ref="C1694:E1694"/>
+    <mergeCell ref="C1695:E1695"/>
+    <mergeCell ref="C1696:E1696"/>
+    <mergeCell ref="C1697:E1697"/>
+    <mergeCell ref="C1698:E1698"/>
+    <mergeCell ref="F1694:L1694"/>
+    <mergeCell ref="F1695:L1695"/>
+    <mergeCell ref="F1696:L1696"/>
+    <mergeCell ref="F1697:L1697"/>
+    <mergeCell ref="F1698:L1698"/>
+    <mergeCell ref="C1689:E1689"/>
+    <mergeCell ref="C1690:E1690"/>
+    <mergeCell ref="C1691:E1691"/>
+    <mergeCell ref="C1692:E1692"/>
+    <mergeCell ref="C1693:E1693"/>
+    <mergeCell ref="F1689:L1689"/>
+    <mergeCell ref="F1690:L1690"/>
+    <mergeCell ref="F1691:L1691"/>
+    <mergeCell ref="F1692:L1692"/>
+    <mergeCell ref="F1693:L1693"/>
+    <mergeCell ref="C1684:E1684"/>
+    <mergeCell ref="C1685:E1685"/>
+    <mergeCell ref="C1686:E1686"/>
+    <mergeCell ref="C1687:E1687"/>
+    <mergeCell ref="F1684:L1684"/>
+    <mergeCell ref="F1685:L1685"/>
+    <mergeCell ref="F1686:L1686"/>
+    <mergeCell ref="F1687:L1687"/>
+    <mergeCell ref="C1679:E1679"/>
+    <mergeCell ref="C1680:E1680"/>
+    <mergeCell ref="C1682:E1682"/>
+    <mergeCell ref="C1683:E1683"/>
+    <mergeCell ref="C1674:E1674"/>
+    <mergeCell ref="C1675:E1675"/>
+    <mergeCell ref="C1676:E1676"/>
+    <mergeCell ref="C1677:E1677"/>
+    <mergeCell ref="C1678:E1678"/>
+    <mergeCell ref="C1669:E1669"/>
+    <mergeCell ref="C1670:E1670"/>
+    <mergeCell ref="C1671:E1671"/>
+    <mergeCell ref="C1673:E1673"/>
+    <mergeCell ref="C1664:E1664"/>
+    <mergeCell ref="C1665:E1665"/>
+    <mergeCell ref="C1666:E1666"/>
+    <mergeCell ref="C1667:E1667"/>
+    <mergeCell ref="C1668:E1668"/>
+    <mergeCell ref="C1654:E1654"/>
+    <mergeCell ref="F1654:L1654"/>
+    <mergeCell ref="C1655:E1655"/>
+    <mergeCell ref="F1655:L1655"/>
+    <mergeCell ref="C1656:E1656"/>
+    <mergeCell ref="F1656:L1656"/>
+    <mergeCell ref="C1658:E1658"/>
+    <mergeCell ref="F1658:L1658"/>
+    <mergeCell ref="C1659:E1659"/>
+    <mergeCell ref="F1659:L1659"/>
+    <mergeCell ref="C1660:E1660"/>
+    <mergeCell ref="F1660:L1660"/>
+    <mergeCell ref="C1661:E1661"/>
+    <mergeCell ref="F1661:L1661"/>
+    <mergeCell ref="C1662:E1662"/>
+    <mergeCell ref="C1663:E1663"/>
+    <mergeCell ref="B1174:D1174"/>
+    <mergeCell ref="E1174:K1174"/>
+    <mergeCell ref="B1175:D1175"/>
+    <mergeCell ref="E1175:K1175"/>
+    <mergeCell ref="B1176:D1176"/>
+    <mergeCell ref="E1176:K1176"/>
+    <mergeCell ref="B1171:K1171"/>
+    <mergeCell ref="B1191:K1191"/>
+    <mergeCell ref="B1169:D1169"/>
+    <mergeCell ref="E1169:K1169"/>
+    <mergeCell ref="B1170:D1170"/>
+    <mergeCell ref="E1170:K1170"/>
+    <mergeCell ref="B1172:D1172"/>
+    <mergeCell ref="E1172:K1172"/>
+    <mergeCell ref="B1173:D1173"/>
+    <mergeCell ref="E1173:K1173"/>
+    <mergeCell ref="B1181:D1181"/>
+    <mergeCell ref="E1181:K1181"/>
+    <mergeCell ref="B1182:D1182"/>
+    <mergeCell ref="E1182:K1182"/>
+    <mergeCell ref="B1183:D1183"/>
+    <mergeCell ref="E1183:K1183"/>
+    <mergeCell ref="B1184:D1184"/>
+    <mergeCell ref="E1184:K1184"/>
+    <mergeCell ref="B1164:D1164"/>
+    <mergeCell ref="E1164:K1164"/>
+    <mergeCell ref="B1165:D1165"/>
+    <mergeCell ref="E1165:K1165"/>
+    <mergeCell ref="B1166:D1166"/>
+    <mergeCell ref="E1166:K1166"/>
+    <mergeCell ref="B1167:D1167"/>
+    <mergeCell ref="E1167:K1167"/>
+    <mergeCell ref="B1168:D1168"/>
+    <mergeCell ref="E1168:K1168"/>
+    <mergeCell ref="E1159:K1159"/>
+    <mergeCell ref="B1160:D1160"/>
+    <mergeCell ref="E1160:K1160"/>
+    <mergeCell ref="B1161:D1161"/>
+    <mergeCell ref="E1161:K1161"/>
+    <mergeCell ref="B1162:D1162"/>
+    <mergeCell ref="E1162:K1162"/>
+    <mergeCell ref="B1163:D1163"/>
+    <mergeCell ref="E1163:K1163"/>
+    <mergeCell ref="B1159:D1159"/>
+    <mergeCell ref="B1195:D1195"/>
+    <mergeCell ref="E1195:K1195"/>
+    <mergeCell ref="B1196:D1196"/>
+    <mergeCell ref="E1196:K1196"/>
+    <mergeCell ref="B1197:D1197"/>
+    <mergeCell ref="E1197:K1197"/>
+    <mergeCell ref="B1198:D1198"/>
+    <mergeCell ref="E1198:K1198"/>
+    <mergeCell ref="E1190:K1190"/>
+    <mergeCell ref="B1192:D1192"/>
+    <mergeCell ref="E1192:K1192"/>
+    <mergeCell ref="B1193:D1193"/>
+    <mergeCell ref="E1193:K1193"/>
+    <mergeCell ref="B1194:D1194"/>
+    <mergeCell ref="E1194:K1194"/>
+    <mergeCell ref="B1190:D1190"/>
+    <mergeCell ref="B1185:D1185"/>
+    <mergeCell ref="E1185:K1185"/>
+    <mergeCell ref="B1186:D1186"/>
+    <mergeCell ref="E1186:K1186"/>
+    <mergeCell ref="B1187:D1187"/>
+    <mergeCell ref="E1187:K1187"/>
+    <mergeCell ref="B1188:D1188"/>
+    <mergeCell ref="E1188:K1188"/>
+    <mergeCell ref="B1189:D1189"/>
+    <mergeCell ref="E1189:K1189"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="E386:K386"/>
+    <mergeCell ref="E387:K387"/>
+    <mergeCell ref="E374:K374"/>
+    <mergeCell ref="E375:K375"/>
+    <mergeCell ref="E362:K362"/>
+    <mergeCell ref="E363:K363"/>
+    <mergeCell ref="B386:D386"/>
+    <mergeCell ref="B387:D387"/>
+    <mergeCell ref="B380:D380"/>
+    <mergeCell ref="B381:D381"/>
+    <mergeCell ref="B382:D382"/>
+    <mergeCell ref="B383:D383"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="B385:D385"/>
+    <mergeCell ref="B374:D374"/>
+    <mergeCell ref="B375:D375"/>
+    <mergeCell ref="B376:D376"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B378:D378"/>
+    <mergeCell ref="B379:D379"/>
+    <mergeCell ref="B368:D368"/>
+    <mergeCell ref="B369:D369"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
+    <mergeCell ref="E380:K380"/>
+    <mergeCell ref="E381:K381"/>
+    <mergeCell ref="E364:K364"/>
+    <mergeCell ref="E365:K365"/>
+    <mergeCell ref="E366:K366"/>
+    <mergeCell ref="E367:K367"/>
+    <mergeCell ref="E368:K368"/>
+    <mergeCell ref="E369:K369"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="E416:K416"/>
+    <mergeCell ref="E417:K417"/>
+    <mergeCell ref="E385:K385"/>
+    <mergeCell ref="E370:K370"/>
+    <mergeCell ref="E371:K371"/>
+    <mergeCell ref="E372:K372"/>
+    <mergeCell ref="E373:K373"/>
+    <mergeCell ref="E382:K382"/>
+    <mergeCell ref="E383:K383"/>
+    <mergeCell ref="E384:K384"/>
+    <mergeCell ref="E376:K376"/>
+    <mergeCell ref="E377:K377"/>
+    <mergeCell ref="E378:K378"/>
+    <mergeCell ref="E379:K379"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
     <mergeCell ref="B1137:D1137"/>
     <mergeCell ref="E1137:K1137"/>
     <mergeCell ref="B1138:D1138"/>
@@ -20024,210 +23209,86 @@
     <mergeCell ref="E1135:K1135"/>
     <mergeCell ref="B1136:D1136"/>
     <mergeCell ref="E1136:K1136"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:K443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:K444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:K445"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:K440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:K441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:K442"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:K438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:K439"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:K430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:K431"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:K436"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:K426"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:K435"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:K427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="E428:K428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:K429"/>
-    <mergeCell ref="E418:K418"/>
-    <mergeCell ref="E419:K419"/>
-    <mergeCell ref="E420:K420"/>
-    <mergeCell ref="E421:K421"/>
-    <mergeCell ref="E422:K422"/>
-    <mergeCell ref="E411:K411"/>
-    <mergeCell ref="E412:K412"/>
-    <mergeCell ref="E413:K413"/>
-    <mergeCell ref="E414:K414"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="E380:K380"/>
-    <mergeCell ref="E381:K381"/>
-    <mergeCell ref="E364:K364"/>
-    <mergeCell ref="E365:K365"/>
-    <mergeCell ref="E366:K366"/>
-    <mergeCell ref="E367:K367"/>
-    <mergeCell ref="E368:K368"/>
-    <mergeCell ref="E369:K369"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="E416:K416"/>
-    <mergeCell ref="E417:K417"/>
-    <mergeCell ref="E385:K385"/>
-    <mergeCell ref="E370:K370"/>
-    <mergeCell ref="E371:K371"/>
-    <mergeCell ref="E372:K372"/>
-    <mergeCell ref="E373:K373"/>
-    <mergeCell ref="E382:K382"/>
-    <mergeCell ref="E383:K383"/>
-    <mergeCell ref="E384:K384"/>
-    <mergeCell ref="E376:K376"/>
-    <mergeCell ref="E377:K377"/>
-    <mergeCell ref="E378:K378"/>
-    <mergeCell ref="E379:K379"/>
-    <mergeCell ref="E360:K360"/>
-    <mergeCell ref="E361:K361"/>
-    <mergeCell ref="E350:K350"/>
-    <mergeCell ref="E351:K351"/>
-    <mergeCell ref="E352:K352"/>
-    <mergeCell ref="E353:K353"/>
-    <mergeCell ref="E354:K354"/>
-    <mergeCell ref="E355:K355"/>
-    <mergeCell ref="E356:K356"/>
-    <mergeCell ref="E357:K357"/>
-    <mergeCell ref="E358:K358"/>
-    <mergeCell ref="E359:K359"/>
-    <mergeCell ref="E386:K386"/>
-    <mergeCell ref="E387:K387"/>
-    <mergeCell ref="E374:K374"/>
-    <mergeCell ref="E375:K375"/>
-    <mergeCell ref="E362:K362"/>
-    <mergeCell ref="E363:K363"/>
-    <mergeCell ref="B386:D386"/>
-    <mergeCell ref="B387:D387"/>
-    <mergeCell ref="B380:D380"/>
-    <mergeCell ref="B381:D381"/>
-    <mergeCell ref="B382:D382"/>
-    <mergeCell ref="B383:D383"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="B385:D385"/>
-    <mergeCell ref="B374:D374"/>
-    <mergeCell ref="B375:D375"/>
-    <mergeCell ref="B376:D376"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="B378:D378"/>
-    <mergeCell ref="B379:D379"/>
-    <mergeCell ref="B368:D368"/>
-    <mergeCell ref="B369:D369"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="B371:D371"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
-    <mergeCell ref="B1185:D1185"/>
-    <mergeCell ref="E1185:K1185"/>
-    <mergeCell ref="B1186:D1186"/>
-    <mergeCell ref="E1186:K1186"/>
-    <mergeCell ref="B1187:D1187"/>
-    <mergeCell ref="E1187:K1187"/>
-    <mergeCell ref="B1188:D1188"/>
-    <mergeCell ref="E1188:K1188"/>
-    <mergeCell ref="B1189:D1189"/>
-    <mergeCell ref="E1189:K1189"/>
-    <mergeCell ref="B1195:D1195"/>
-    <mergeCell ref="E1195:K1195"/>
-    <mergeCell ref="B1196:D1196"/>
-    <mergeCell ref="E1196:K1196"/>
-    <mergeCell ref="B1197:D1197"/>
-    <mergeCell ref="E1197:K1197"/>
-    <mergeCell ref="B1198:D1198"/>
-    <mergeCell ref="E1198:K1198"/>
-    <mergeCell ref="E1190:K1190"/>
-    <mergeCell ref="B1192:D1192"/>
-    <mergeCell ref="E1192:K1192"/>
-    <mergeCell ref="B1193:D1193"/>
-    <mergeCell ref="E1193:K1193"/>
-    <mergeCell ref="B1194:D1194"/>
-    <mergeCell ref="E1194:K1194"/>
-    <mergeCell ref="B1190:D1190"/>
-    <mergeCell ref="E1159:K1159"/>
-    <mergeCell ref="B1160:D1160"/>
-    <mergeCell ref="E1160:K1160"/>
-    <mergeCell ref="B1161:D1161"/>
-    <mergeCell ref="E1161:K1161"/>
-    <mergeCell ref="B1162:D1162"/>
-    <mergeCell ref="E1162:K1162"/>
-    <mergeCell ref="B1163:D1163"/>
-    <mergeCell ref="E1163:K1163"/>
-    <mergeCell ref="B1159:D1159"/>
-    <mergeCell ref="B1164:D1164"/>
-    <mergeCell ref="E1164:K1164"/>
-    <mergeCell ref="B1165:D1165"/>
-    <mergeCell ref="E1165:K1165"/>
-    <mergeCell ref="B1166:D1166"/>
-    <mergeCell ref="E1166:K1166"/>
-    <mergeCell ref="B1167:D1167"/>
-    <mergeCell ref="E1167:K1167"/>
-    <mergeCell ref="B1168:D1168"/>
-    <mergeCell ref="E1168:K1168"/>
-    <mergeCell ref="B1174:D1174"/>
-    <mergeCell ref="E1174:K1174"/>
-    <mergeCell ref="B1175:D1175"/>
-    <mergeCell ref="E1175:K1175"/>
-    <mergeCell ref="B1176:D1176"/>
-    <mergeCell ref="E1176:K1176"/>
-    <mergeCell ref="B1171:K1171"/>
-    <mergeCell ref="B1191:K1191"/>
-    <mergeCell ref="B1169:D1169"/>
-    <mergeCell ref="E1169:K1169"/>
-    <mergeCell ref="B1170:D1170"/>
-    <mergeCell ref="E1170:K1170"/>
-    <mergeCell ref="B1172:D1172"/>
-    <mergeCell ref="E1172:K1172"/>
-    <mergeCell ref="B1173:D1173"/>
-    <mergeCell ref="E1173:K1173"/>
-    <mergeCell ref="B1181:D1181"/>
-    <mergeCell ref="E1181:K1181"/>
-    <mergeCell ref="B1182:D1182"/>
-    <mergeCell ref="E1182:K1182"/>
-    <mergeCell ref="B1183:D1183"/>
-    <mergeCell ref="E1183:K1183"/>
-    <mergeCell ref="B1184:D1184"/>
-    <mergeCell ref="E1184:K1184"/>
+    <mergeCell ref="B1149:D1149"/>
+    <mergeCell ref="E1149:K1149"/>
+    <mergeCell ref="B1150:D1150"/>
+    <mergeCell ref="E1150:K1150"/>
+    <mergeCell ref="B1151:D1151"/>
+    <mergeCell ref="E1151:K1151"/>
+    <mergeCell ref="B1152:D1152"/>
+    <mergeCell ref="E1152:K1152"/>
+    <mergeCell ref="B1144:D1144"/>
+    <mergeCell ref="E1144:K1144"/>
+    <mergeCell ref="B1145:D1145"/>
+    <mergeCell ref="E1145:K1145"/>
+    <mergeCell ref="B1146:D1146"/>
+    <mergeCell ref="E1146:K1146"/>
+    <mergeCell ref="B1147:D1147"/>
+    <mergeCell ref="E1147:K1147"/>
+    <mergeCell ref="B1148:D1148"/>
+    <mergeCell ref="E1148:K1148"/>
+    <mergeCell ref="B1210:D1210"/>
+    <mergeCell ref="E1210:K1210"/>
+    <mergeCell ref="B1211:D1211"/>
+    <mergeCell ref="E1211:K1211"/>
+    <mergeCell ref="B1212:D1212"/>
+    <mergeCell ref="E1212:K1212"/>
+    <mergeCell ref="B1213:D1213"/>
+    <mergeCell ref="E1213:K1213"/>
+    <mergeCell ref="B1214:D1214"/>
+    <mergeCell ref="E1214:K1214"/>
+    <mergeCell ref="B1215:D1215"/>
+    <mergeCell ref="E1215:K1215"/>
+    <mergeCell ref="B1216:D1216"/>
+    <mergeCell ref="E1216:K1216"/>
+    <mergeCell ref="B1217:D1217"/>
+    <mergeCell ref="E1217:K1217"/>
+    <mergeCell ref="B1218:D1218"/>
+    <mergeCell ref="E1218:K1218"/>
+    <mergeCell ref="B1219:D1219"/>
+    <mergeCell ref="E1219:K1219"/>
+    <mergeCell ref="B1220:D1220"/>
+    <mergeCell ref="E1220:K1220"/>
+    <mergeCell ref="B1221:D1221"/>
+    <mergeCell ref="E1221:K1221"/>
+    <mergeCell ref="B1222:D1222"/>
+    <mergeCell ref="E1222:K1222"/>
+    <mergeCell ref="B1223:D1223"/>
+    <mergeCell ref="E1223:K1223"/>
+    <mergeCell ref="B1224:D1224"/>
+    <mergeCell ref="E1224:K1224"/>
+    <mergeCell ref="B1225:D1225"/>
+    <mergeCell ref="E1225:K1225"/>
+    <mergeCell ref="B1226:D1226"/>
+    <mergeCell ref="E1226:K1226"/>
+    <mergeCell ref="B1227:D1227"/>
+    <mergeCell ref="E1227:K1227"/>
+    <mergeCell ref="B1228:D1228"/>
+    <mergeCell ref="E1228:K1228"/>
+    <mergeCell ref="B1229:D1229"/>
+    <mergeCell ref="E1229:K1229"/>
+    <mergeCell ref="B1230:D1230"/>
+    <mergeCell ref="E1230:K1230"/>
+    <mergeCell ref="B1231:D1231"/>
+    <mergeCell ref="E1231:K1231"/>
+    <mergeCell ref="B1232:D1232"/>
+    <mergeCell ref="E1232:K1232"/>
+    <mergeCell ref="B1233:D1233"/>
+    <mergeCell ref="E1233:K1233"/>
+    <mergeCell ref="B1234:D1234"/>
+    <mergeCell ref="E1234:K1234"/>
+    <mergeCell ref="B1240:D1240"/>
+    <mergeCell ref="E1240:K1240"/>
+    <mergeCell ref="B1235:D1235"/>
+    <mergeCell ref="E1235:K1235"/>
+    <mergeCell ref="B1236:D1236"/>
+    <mergeCell ref="E1236:K1236"/>
+    <mergeCell ref="B1237:D1237"/>
+    <mergeCell ref="E1237:K1237"/>
+    <mergeCell ref="B1238:D1238"/>
+    <mergeCell ref="E1238:K1238"/>
+    <mergeCell ref="B1239:D1239"/>
+    <mergeCell ref="E1239:K1239"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="参考" sheetId="2" r:id="rId1"/>
     <sheet name="学习笔记" sheetId="1" r:id="rId2"/>
+    <sheet name="pyqt5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1042">
   <si>
     <t>built-in functions</t>
   </si>
@@ -3972,6 +3973,258 @@
   </si>
   <si>
     <t>self + other会默认再次调用self.__add__(self, other)，这样的话会无限死循环下去！</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/tkinter/p/5632284.html</t>
+  </si>
+  <si>
+    <t>http://blog.chinaunix.net/uid-12845622-id-5594607.html</t>
+  </si>
+  <si>
+    <t>#从PyQt库导入QtWidget通用窗口类</t>
+  </si>
+  <si>
+    <t>from PyQt5 import QtWidgets</t>
+  </si>
+  <si>
+    <t>#自己建一个firstwindows类，以class开头，firstwindows是自己的类名,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#（QtWidgets.QWidget）是继承QtWidgets.QWidget类方法， </t>
+  </si>
+  <si>
+    <t># 定义类或函数不要忘记':'符号，判断语句也必须以':'结尾！</t>
+  </si>
+  <si>
+    <t>class firstwindow(QtWidgets.QWidget):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #def是定义函数（类方法）了，同样第二个__init__是函数名 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # (self)是pyqt类方法必须要有的，代表自己，相当于java，c++中的this </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #其实__init__是析构函数，也就是类被创建后就会预先加载的项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #这里我们要重载一下firstwindows同时也包含了QtWidgets.QWidget的预加载项</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __init__(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        super(firstwindow,self).__init__()</t>
+  </si>
+  <si>
+    <t>def mainwindows():</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    import sys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #pyqt窗口必须在QApplication方法中使用， </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #要不然会报错 QWidget: Must construct a QApplication before a QWidget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    app = QtWidgets.QApplication(sys.argv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 生成过一个实例（对象）, windows是实例（对象）的名字，可以随便起！ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # firstwindows（）是我们上面自定义的类 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    new = firstwindow()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #有了实例，就得让他显示这里的show()是QWidget的方法，用来显示窗口的！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    new.show()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #启动事件循环</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sys.exit(app.exec_())</t>
+  </si>
+  <si>
+    <t>if __name__ == "__main__":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mainwindows()</t>
+  </si>
+  <si>
+    <t># -*- coding: utf-8 -*-</t>
+  </si>
+  <si>
+    <t># Form implementation generated from reading ui file 'test.ui'</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># Created by: PyQt5 UI code generator 5.6</t>
+  </si>
+  <si>
+    <t># WARNING! All changes made in this file will be lost!</t>
+  </si>
+  <si>
+    <t>from PyQt5 import QtCore, QtGui, QtWidgets</t>
+  </si>
+  <si>
+    <t>class Ui_Dialog(object):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def setupUi(self, Dialog):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # create Form named as "Dialog"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Dialog.setObjectName("Dialog")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Dialog.resize(240, 320)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # define label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.label = QtWidgets.QLabel(Dialog)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.label.setGeometry(QtCore.QRect(30, 50, 47, 13))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.label.setObjectName("label")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # define text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.num1 = QtWidgets.QTextEdit(Dialog)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.num1.setGeometry(QtCore.QRect(80, 50, 131, 21))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        font = QtGui.QFont()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        font.setPointSize(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.num1.setFont(font)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.num1.setObjectName("num1")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # define button1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.pushButton1 = QtWidgets.QPushButton(Dialog)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.pushButton1.setGeometry(QtCore.QRect(70, 100, 75, 23))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.pushButton1.setObjectName("pushButton1")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # define button2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.pushButton2 = QtWidgets.QPushButton(Dialog)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.pushButton2.setGeometry(QtCore.QRect(70, 140, 75, 23))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.pushButton2.setObjectName("pushButton2")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # set prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.retranslateUi(Dialog)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # binding method to button</t>
+  </si>
+  <si>
+    <t>#        self.pushButton1.clicked.connect(self.prn)#binding method to button</t>
+  </si>
+  <si>
+    <t>#        self.pushButton2.clicked.connect(Dialog.close)#binding method to button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        QtCore.QMetaObject.connectSlotsByName(Dialog)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def retranslateUi(self, Dialog):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        _translate = QtCore.QCoreApplication.translate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # set window title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Dialog.setWindowTitle(_translate("Dialog", "MyWindow"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # set label prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.label.setText(_translate("Dialog", "Number1:"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # set button prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.pushButton1.setText(_translate("Dialog", "打印"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.pushButton2.setText(_translate("Dialog", "关闭窗口"))</t>
+  </si>
+  <si>
+    <t>#    def prn(self):</t>
+  </si>
+  <si>
+    <t>#        print("test")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>#if __name__ == "__main__":</t>
+  </si>
+  <si>
+    <t>#    import sys</t>
+  </si>
+  <si>
+    <t>#    app = QtWidgets.QApplication(sys.argv)</t>
+  </si>
+  <si>
+    <t>#    widget = QtWidgets.QWidget()</t>
+  </si>
+  <si>
+    <t>#    ui = Ui_Dialog()</t>
+  </si>
+  <si>
+    <t>#    ui.setupUi(widget)</t>
+  </si>
+  <si>
+    <t>#    widget.show()</t>
+  </si>
+  <si>
+    <t>#    sys.exit(app.exec_())</t>
   </si>
 </sst>
 </file>
@@ -4175,7 +4428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
@@ -4194,10 +4447,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4212,16 +4475,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15317,7 +15571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P1754"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1613" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A1613" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J1638" sqref="J1638"/>
     </sheetView>
   </sheetViews>
@@ -16684,11 +16938,11 @@
       </c>
     </row>
     <row r="350" spans="1:11" ht="30" customHeight="1">
-      <c r="B350" s="16" t="s">
+      <c r="B350" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C350" s="16"/>
-      <c r="D350" s="16"/>
+      <c r="C350" s="21"/>
+      <c r="D350" s="21"/>
       <c r="E350" s="17" t="s">
         <v>199</v>
       </c>
@@ -16700,11 +16954,11 @@
       <c r="K350" s="17"/>
     </row>
     <row r="351" spans="1:11" ht="30" customHeight="1">
-      <c r="B351" s="16" t="s">
+      <c r="B351" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C351" s="16"/>
-      <c r="D351" s="16"/>
+      <c r="C351" s="21"/>
+      <c r="D351" s="21"/>
       <c r="E351" s="17" t="s">
         <v>201</v>
       </c>
@@ -16716,11 +16970,11 @@
       <c r="K351" s="17"/>
     </row>
     <row r="352" spans="1:11" ht="30" customHeight="1">
-      <c r="B352" s="16" t="s">
+      <c r="B352" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C352" s="16"/>
-      <c r="D352" s="16"/>
+      <c r="C352" s="21"/>
+      <c r="D352" s="21"/>
       <c r="E352" s="17" t="s">
         <v>203</v>
       </c>
@@ -16732,11 +16986,11 @@
       <c r="K352" s="17"/>
     </row>
     <row r="353" spans="2:11" ht="30" customHeight="1">
-      <c r="B353" s="16" t="s">
+      <c r="B353" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C353" s="16"/>
-      <c r="D353" s="16"/>
+      <c r="C353" s="21"/>
+      <c r="D353" s="21"/>
       <c r="E353" s="17" t="s">
         <v>205</v>
       </c>
@@ -16748,11 +17002,11 @@
       <c r="K353" s="17"/>
     </row>
     <row r="354" spans="2:11" ht="30" customHeight="1">
-      <c r="B354" s="16" t="s">
+      <c r="B354" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C354" s="16"/>
-      <c r="D354" s="16"/>
+      <c r="C354" s="21"/>
+      <c r="D354" s="21"/>
       <c r="E354" s="17" t="s">
         <v>207</v>
       </c>
@@ -16764,11 +17018,11 @@
       <c r="K354" s="17"/>
     </row>
     <row r="355" spans="2:11" ht="30" customHeight="1">
-      <c r="B355" s="16" t="s">
+      <c r="B355" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C355" s="16"/>
-      <c r="D355" s="16"/>
+      <c r="C355" s="21"/>
+      <c r="D355" s="21"/>
       <c r="E355" s="17" t="s">
         <v>209</v>
       </c>
@@ -16780,11 +17034,11 @@
       <c r="K355" s="17"/>
     </row>
     <row r="356" spans="2:11" ht="30" customHeight="1">
-      <c r="B356" s="16" t="s">
+      <c r="B356" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C356" s="16"/>
-      <c r="D356" s="16"/>
+      <c r="C356" s="21"/>
+      <c r="D356" s="21"/>
       <c r="E356" s="17" t="s">
         <v>211</v>
       </c>
@@ -16796,11 +17050,11 @@
       <c r="K356" s="17"/>
     </row>
     <row r="357" spans="2:11" ht="30" customHeight="1">
-      <c r="B357" s="16" t="s">
+      <c r="B357" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C357" s="16"/>
-      <c r="D357" s="16"/>
+      <c r="C357" s="21"/>
+      <c r="D357" s="21"/>
       <c r="E357" s="17" t="s">
         <v>213</v>
       </c>
@@ -16812,11 +17066,11 @@
       <c r="K357" s="17"/>
     </row>
     <row r="358" spans="2:11" ht="30" customHeight="1">
-      <c r="B358" s="16" t="s">
+      <c r="B358" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C358" s="16"/>
-      <c r="D358" s="16"/>
+      <c r="C358" s="21"/>
+      <c r="D358" s="21"/>
       <c r="E358" s="17" t="s">
         <v>215</v>
       </c>
@@ -16828,11 +17082,11 @@
       <c r="K358" s="17"/>
     </row>
     <row r="359" spans="2:11" ht="30" customHeight="1">
-      <c r="B359" s="16" t="s">
+      <c r="B359" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C359" s="16"/>
-      <c r="D359" s="16"/>
+      <c r="C359" s="21"/>
+      <c r="D359" s="21"/>
       <c r="E359" s="17" t="s">
         <v>217</v>
       </c>
@@ -16844,11 +17098,11 @@
       <c r="K359" s="17"/>
     </row>
     <row r="360" spans="2:11" ht="30" customHeight="1">
-      <c r="B360" s="16" t="s">
+      <c r="B360" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C360" s="16"/>
-      <c r="D360" s="16"/>
+      <c r="C360" s="21"/>
+      <c r="D360" s="21"/>
       <c r="E360" s="17" t="s">
         <v>219</v>
       </c>
@@ -16860,11 +17114,11 @@
       <c r="K360" s="17"/>
     </row>
     <row r="361" spans="2:11" ht="30" customHeight="1">
-      <c r="B361" s="16" t="s">
+      <c r="B361" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="C361" s="16"/>
-      <c r="D361" s="16"/>
+      <c r="C361" s="21"/>
+      <c r="D361" s="21"/>
       <c r="E361" s="17" t="s">
         <v>221</v>
       </c>
@@ -16876,11 +17130,11 @@
       <c r="K361" s="17"/>
     </row>
     <row r="362" spans="2:11" ht="30" customHeight="1">
-      <c r="B362" s="16" t="s">
+      <c r="B362" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C362" s="16"/>
-      <c r="D362" s="16"/>
+      <c r="C362" s="21"/>
+      <c r="D362" s="21"/>
       <c r="E362" s="17" t="s">
         <v>223</v>
       </c>
@@ -16892,11 +17146,11 @@
       <c r="K362" s="17"/>
     </row>
     <row r="363" spans="2:11" ht="30" customHeight="1">
-      <c r="B363" s="16" t="s">
+      <c r="B363" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="C363" s="16"/>
-      <c r="D363" s="16"/>
+      <c r="C363" s="21"/>
+      <c r="D363" s="21"/>
       <c r="E363" s="17" t="s">
         <v>225</v>
       </c>
@@ -16908,11 +17162,11 @@
       <c r="K363" s="17"/>
     </row>
     <row r="364" spans="2:11" ht="30" customHeight="1">
-      <c r="B364" s="16" t="s">
+      <c r="B364" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C364" s="16"/>
-      <c r="D364" s="16"/>
+      <c r="C364" s="21"/>
+      <c r="D364" s="21"/>
       <c r="E364" s="17" t="s">
         <v>227</v>
       </c>
@@ -16924,11 +17178,11 @@
       <c r="K364" s="17"/>
     </row>
     <row r="365" spans="2:11" ht="30" customHeight="1">
-      <c r="B365" s="16" t="s">
+      <c r="B365" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="C365" s="16"/>
-      <c r="D365" s="16"/>
+      <c r="C365" s="21"/>
+      <c r="D365" s="21"/>
       <c r="E365" s="17" t="s">
         <v>229</v>
       </c>
@@ -16940,11 +17194,11 @@
       <c r="K365" s="17"/>
     </row>
     <row r="366" spans="2:11" ht="30" customHeight="1">
-      <c r="B366" s="16" t="s">
+      <c r="B366" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C366" s="16"/>
-      <c r="D366" s="16"/>
+      <c r="C366" s="21"/>
+      <c r="D366" s="21"/>
       <c r="E366" s="17" t="s">
         <v>231</v>
       </c>
@@ -16956,11 +17210,11 @@
       <c r="K366" s="17"/>
     </row>
     <row r="367" spans="2:11" ht="30" customHeight="1">
-      <c r="B367" s="16" t="s">
+      <c r="B367" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="C367" s="16"/>
-      <c r="D367" s="16"/>
+      <c r="C367" s="21"/>
+      <c r="D367" s="21"/>
       <c r="E367" s="17" t="s">
         <v>233</v>
       </c>
@@ -16972,11 +17226,11 @@
       <c r="K367" s="17"/>
     </row>
     <row r="368" spans="2:11" ht="30" customHeight="1">
-      <c r="B368" s="16" t="s">
+      <c r="B368" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="C368" s="16"/>
-      <c r="D368" s="16"/>
+      <c r="C368" s="21"/>
+      <c r="D368" s="21"/>
       <c r="E368" s="17" t="s">
         <v>235</v>
       </c>
@@ -16988,11 +17242,11 @@
       <c r="K368" s="17"/>
     </row>
     <row r="369" spans="2:11" ht="30" customHeight="1">
-      <c r="B369" s="16" t="s">
+      <c r="B369" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C369" s="16"/>
-      <c r="D369" s="16"/>
+      <c r="C369" s="21"/>
+      <c r="D369" s="21"/>
       <c r="E369" s="17" t="s">
         <v>237</v>
       </c>
@@ -17004,11 +17258,11 @@
       <c r="K369" s="17"/>
     </row>
     <row r="370" spans="2:11" ht="30" customHeight="1">
-      <c r="B370" s="16" t="s">
+      <c r="B370" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="C370" s="16"/>
-      <c r="D370" s="16"/>
+      <c r="C370" s="21"/>
+      <c r="D370" s="21"/>
       <c r="E370" s="17" t="s">
         <v>239</v>
       </c>
@@ -17020,11 +17274,11 @@
       <c r="K370" s="17"/>
     </row>
     <row r="371" spans="2:11" ht="30" customHeight="1">
-      <c r="B371" s="16" t="s">
+      <c r="B371" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="C371" s="16"/>
-      <c r="D371" s="16"/>
+      <c r="C371" s="21"/>
+      <c r="D371" s="21"/>
       <c r="E371" s="17" t="s">
         <v>241</v>
       </c>
@@ -17036,11 +17290,11 @@
       <c r="K371" s="17"/>
     </row>
     <row r="372" spans="2:11" ht="30" customHeight="1">
-      <c r="B372" s="16" t="s">
+      <c r="B372" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C372" s="16"/>
-      <c r="D372" s="16"/>
+      <c r="C372" s="21"/>
+      <c r="D372" s="21"/>
       <c r="E372" s="17" t="s">
         <v>243</v>
       </c>
@@ -17052,11 +17306,11 @@
       <c r="K372" s="17"/>
     </row>
     <row r="373" spans="2:11" ht="30" customHeight="1">
-      <c r="B373" s="16" t="s">
+      <c r="B373" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C373" s="16"/>
-      <c r="D373" s="16"/>
+      <c r="C373" s="21"/>
+      <c r="D373" s="21"/>
       <c r="E373" s="17" t="s">
         <v>245</v>
       </c>
@@ -17068,11 +17322,11 @@
       <c r="K373" s="17"/>
     </row>
     <row r="374" spans="2:11" ht="30" customHeight="1">
-      <c r="B374" s="16" t="s">
+      <c r="B374" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="C374" s="16"/>
-      <c r="D374" s="16"/>
+      <c r="C374" s="21"/>
+      <c r="D374" s="21"/>
       <c r="E374" s="17" t="s">
         <v>247</v>
       </c>
@@ -17084,11 +17338,11 @@
       <c r="K374" s="17"/>
     </row>
     <row r="375" spans="2:11" ht="30" customHeight="1">
-      <c r="B375" s="16" t="s">
+      <c r="B375" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C375" s="16"/>
-      <c r="D375" s="16"/>
+      <c r="C375" s="21"/>
+      <c r="D375" s="21"/>
       <c r="E375" s="17" t="s">
         <v>249</v>
       </c>
@@ -17100,11 +17354,11 @@
       <c r="K375" s="17"/>
     </row>
     <row r="376" spans="2:11" ht="30" customHeight="1">
-      <c r="B376" s="16" t="s">
+      <c r="B376" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="C376" s="16"/>
-      <c r="D376" s="16"/>
+      <c r="C376" s="21"/>
+      <c r="D376" s="21"/>
       <c r="E376" s="17" t="s">
         <v>251</v>
       </c>
@@ -17116,11 +17370,11 @@
       <c r="K376" s="17"/>
     </row>
     <row r="377" spans="2:11" ht="30" customHeight="1">
-      <c r="B377" s="16" t="s">
+      <c r="B377" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="C377" s="16"/>
-      <c r="D377" s="16"/>
+      <c r="C377" s="21"/>
+      <c r="D377" s="21"/>
       <c r="E377" s="17" t="s">
         <v>253</v>
       </c>
@@ -17132,11 +17386,11 @@
       <c r="K377" s="17"/>
     </row>
     <row r="378" spans="2:11" ht="30" customHeight="1">
-      <c r="B378" s="16" t="s">
+      <c r="B378" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="C378" s="16"/>
-      <c r="D378" s="16"/>
+      <c r="C378" s="21"/>
+      <c r="D378" s="21"/>
       <c r="E378" s="17" t="s">
         <v>255</v>
       </c>
@@ -17148,11 +17402,11 @@
       <c r="K378" s="17"/>
     </row>
     <row r="379" spans="2:11" ht="30" customHeight="1">
-      <c r="B379" s="16" t="s">
+      <c r="B379" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="C379" s="16"/>
-      <c r="D379" s="16"/>
+      <c r="C379" s="21"/>
+      <c r="D379" s="21"/>
       <c r="E379" s="17" t="s">
         <v>257</v>
       </c>
@@ -17164,11 +17418,11 @@
       <c r="K379" s="17"/>
     </row>
     <row r="380" spans="2:11" ht="30" customHeight="1">
-      <c r="B380" s="16" t="s">
+      <c r="B380" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="C380" s="16"/>
-      <c r="D380" s="16"/>
+      <c r="C380" s="21"/>
+      <c r="D380" s="21"/>
       <c r="E380" s="17" t="s">
         <v>259</v>
       </c>
@@ -17180,11 +17434,11 @@
       <c r="K380" s="17"/>
     </row>
     <row r="381" spans="2:11" ht="30" customHeight="1">
-      <c r="B381" s="16" t="s">
+      <c r="B381" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="C381" s="16"/>
-      <c r="D381" s="16"/>
+      <c r="C381" s="21"/>
+      <c r="D381" s="21"/>
       <c r="E381" s="17" t="s">
         <v>261</v>
       </c>
@@ -17196,11 +17450,11 @@
       <c r="K381" s="17"/>
     </row>
     <row r="382" spans="2:11" ht="30" customHeight="1">
-      <c r="B382" s="16" t="s">
+      <c r="B382" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C382" s="16"/>
-      <c r="D382" s="16"/>
+      <c r="C382" s="21"/>
+      <c r="D382" s="21"/>
       <c r="E382" s="17" t="s">
         <v>263</v>
       </c>
@@ -17212,11 +17466,11 @@
       <c r="K382" s="17"/>
     </row>
     <row r="383" spans="2:11" ht="30" customHeight="1">
-      <c r="B383" s="16" t="s">
+      <c r="B383" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C383" s="16"/>
-      <c r="D383" s="16"/>
+      <c r="C383" s="21"/>
+      <c r="D383" s="21"/>
       <c r="E383" s="17" t="s">
         <v>265</v>
       </c>
@@ -17228,11 +17482,11 @@
       <c r="K383" s="17"/>
     </row>
     <row r="384" spans="2:11" ht="30" customHeight="1">
-      <c r="B384" s="16" t="s">
+      <c r="B384" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C384" s="16"/>
-      <c r="D384" s="16"/>
+      <c r="C384" s="21"/>
+      <c r="D384" s="21"/>
       <c r="E384" s="17" t="s">
         <v>267</v>
       </c>
@@ -17244,11 +17498,11 @@
       <c r="K384" s="17"/>
     </row>
     <row r="385" spans="1:11" ht="30" customHeight="1">
-      <c r="B385" s="16" t="s">
+      <c r="B385" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="C385" s="16"/>
-      <c r="D385" s="16"/>
+      <c r="C385" s="21"/>
+      <c r="D385" s="21"/>
       <c r="E385" s="17" t="s">
         <v>269</v>
       </c>
@@ -17260,11 +17514,11 @@
       <c r="K385" s="17"/>
     </row>
     <row r="386" spans="1:11" ht="30" customHeight="1">
-      <c r="B386" s="16" t="s">
+      <c r="B386" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C386" s="16"/>
-      <c r="D386" s="16"/>
+      <c r="C386" s="21"/>
+      <c r="D386" s="21"/>
       <c r="E386" s="17" t="s">
         <v>271</v>
       </c>
@@ -17276,11 +17530,11 @@
       <c r="K386" s="17"/>
     </row>
     <row r="387" spans="1:11" ht="30" customHeight="1">
-      <c r="B387" s="16" t="s">
+      <c r="B387" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="C387" s="16"/>
-      <c r="D387" s="16"/>
+      <c r="C387" s="21"/>
+      <c r="D387" s="21"/>
       <c r="E387" s="17" t="s">
         <v>273</v>
       </c>
@@ -17382,27 +17636,27 @@
       </c>
     </row>
     <row r="411" spans="2:11" ht="15" customHeight="1">
-      <c r="B411" s="18" t="s">
+      <c r="B411" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C411" s="18"/>
-      <c r="D411" s="18"/>
-      <c r="E411" s="18" t="s">
+      <c r="C411" s="22"/>
+      <c r="D411" s="22"/>
+      <c r="E411" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="F411" s="18"/>
-      <c r="G411" s="18"/>
-      <c r="H411" s="18"/>
-      <c r="I411" s="18"/>
-      <c r="J411" s="18"/>
-      <c r="K411" s="18"/>
+      <c r="F411" s="22"/>
+      <c r="G411" s="22"/>
+      <c r="H411" s="22"/>
+      <c r="I411" s="22"/>
+      <c r="J411" s="22"/>
+      <c r="K411" s="22"/>
     </row>
     <row r="412" spans="2:11" ht="15" customHeight="1">
-      <c r="B412" s="16" t="s">
+      <c r="B412" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="C412" s="16"/>
-      <c r="D412" s="16"/>
+      <c r="C412" s="21"/>
+      <c r="D412" s="21"/>
       <c r="E412" s="17" t="s">
         <v>293</v>
       </c>
@@ -17414,11 +17668,11 @@
       <c r="K412" s="17"/>
     </row>
     <row r="413" spans="2:11" ht="15" customHeight="1">
-      <c r="B413" s="16" t="s">
+      <c r="B413" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="C413" s="16"/>
-      <c r="D413" s="16"/>
+      <c r="C413" s="21"/>
+      <c r="D413" s="21"/>
       <c r="E413" s="17" t="s">
         <v>295</v>
       </c>
@@ -17430,11 +17684,11 @@
       <c r="K413" s="17"/>
     </row>
     <row r="414" spans="2:11" ht="15" customHeight="1">
-      <c r="B414" s="16" t="s">
+      <c r="B414" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C414" s="16"/>
-      <c r="D414" s="16"/>
+      <c r="C414" s="21"/>
+      <c r="D414" s="21"/>
       <c r="E414" s="17" t="s">
         <v>297</v>
       </c>
@@ -17446,11 +17700,11 @@
       <c r="K414" s="17"/>
     </row>
     <row r="415" spans="2:11" ht="15" customHeight="1">
-      <c r="B415" s="16" t="s">
+      <c r="B415" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="C415" s="16"/>
-      <c r="D415" s="16"/>
+      <c r="C415" s="21"/>
+      <c r="D415" s="21"/>
       <c r="E415" s="17" t="s">
         <v>299</v>
       </c>
@@ -17462,11 +17716,11 @@
       <c r="K415" s="17"/>
     </row>
     <row r="416" spans="2:11" ht="15" customHeight="1">
-      <c r="B416" s="16" t="s">
+      <c r="B416" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C416" s="16"/>
-      <c r="D416" s="16"/>
+      <c r="C416" s="21"/>
+      <c r="D416" s="21"/>
       <c r="E416" s="17" t="s">
         <v>301</v>
       </c>
@@ -17478,11 +17732,11 @@
       <c r="K416" s="17"/>
     </row>
     <row r="417" spans="2:11" ht="15" customHeight="1">
-      <c r="B417" s="16" t="s">
+      <c r="B417" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="C417" s="16"/>
-      <c r="D417" s="16"/>
+      <c r="C417" s="21"/>
+      <c r="D417" s="21"/>
       <c r="E417" s="17" t="s">
         <v>303</v>
       </c>
@@ -17494,11 +17748,11 @@
       <c r="K417" s="17"/>
     </row>
     <row r="418" spans="2:11" ht="15" customHeight="1">
-      <c r="B418" s="16" t="s">
+      <c r="B418" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C418" s="16"/>
-      <c r="D418" s="16"/>
+      <c r="C418" s="21"/>
+      <c r="D418" s="21"/>
       <c r="E418" s="17" t="s">
         <v>305</v>
       </c>
@@ -17510,11 +17764,11 @@
       <c r="K418" s="17"/>
     </row>
     <row r="419" spans="2:11" ht="15" customHeight="1">
-      <c r="B419" s="16" t="s">
+      <c r="B419" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="C419" s="16"/>
-      <c r="D419" s="16"/>
+      <c r="C419" s="21"/>
+      <c r="D419" s="21"/>
       <c r="E419" s="17" t="s">
         <v>307</v>
       </c>
@@ -17526,11 +17780,11 @@
       <c r="K419" s="17"/>
     </row>
     <row r="420" spans="2:11" ht="15" customHeight="1">
-      <c r="B420" s="16" t="s">
+      <c r="B420" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="C420" s="16"/>
-      <c r="D420" s="16"/>
+      <c r="C420" s="21"/>
+      <c r="D420" s="21"/>
       <c r="E420" s="17" t="s">
         <v>309</v>
       </c>
@@ -17542,11 +17796,11 @@
       <c r="K420" s="17"/>
     </row>
     <row r="421" spans="2:11" ht="15" customHeight="1">
-      <c r="B421" s="16" t="s">
+      <c r="B421" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="C421" s="16"/>
-      <c r="D421" s="16"/>
+      <c r="C421" s="21"/>
+      <c r="D421" s="21"/>
       <c r="E421" s="17" t="s">
         <v>311</v>
       </c>
@@ -17558,11 +17812,11 @@
       <c r="K421" s="17"/>
     </row>
     <row r="422" spans="2:11" ht="15" customHeight="1">
-      <c r="B422" s="16" t="s">
+      <c r="B422" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="C422" s="16"/>
-      <c r="D422" s="16"/>
+      <c r="C422" s="21"/>
+      <c r="D422" s="21"/>
       <c r="E422" s="17" t="s">
         <v>313</v>
       </c>
@@ -17579,27 +17833,27 @@
       </c>
     </row>
     <row r="426" spans="2:11">
-      <c r="B426" s="18" t="s">
+      <c r="B426" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C426" s="18"/>
-      <c r="D426" s="18"/>
-      <c r="E426" s="18" t="s">
+      <c r="C426" s="22"/>
+      <c r="D426" s="22"/>
+      <c r="E426" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="F426" s="18"/>
-      <c r="G426" s="18"/>
-      <c r="H426" s="18"/>
-      <c r="I426" s="18"/>
-      <c r="J426" s="18"/>
-      <c r="K426" s="18"/>
+      <c r="F426" s="22"/>
+      <c r="G426" s="22"/>
+      <c r="H426" s="22"/>
+      <c r="I426" s="22"/>
+      <c r="J426" s="22"/>
+      <c r="K426" s="22"/>
     </row>
     <row r="427" spans="2:11">
-      <c r="B427" s="16" t="s">
+      <c r="B427" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C427" s="16"/>
-      <c r="D427" s="16"/>
+      <c r="C427" s="21"/>
+      <c r="D427" s="21"/>
       <c r="E427" s="17" t="s">
         <v>317</v>
       </c>
@@ -17611,11 +17865,11 @@
       <c r="K427" s="17"/>
     </row>
     <row r="428" spans="2:11">
-      <c r="B428" s="16" t="s">
+      <c r="B428" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="C428" s="16"/>
-      <c r="D428" s="16"/>
+      <c r="C428" s="21"/>
+      <c r="D428" s="21"/>
       <c r="E428" s="17" t="s">
         <v>319</v>
       </c>
@@ -17627,11 +17881,11 @@
       <c r="K428" s="17"/>
     </row>
     <row r="429" spans="2:11">
-      <c r="B429" s="16" t="s">
+      <c r="B429" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="C429" s="16"/>
-      <c r="D429" s="16"/>
+      <c r="C429" s="21"/>
+      <c r="D429" s="21"/>
       <c r="E429" s="17" t="s">
         <v>321</v>
       </c>
@@ -17643,11 +17897,11 @@
       <c r="K429" s="17"/>
     </row>
     <row r="430" spans="2:11">
-      <c r="B430" s="16" t="s">
+      <c r="B430" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C430" s="16"/>
-      <c r="D430" s="16"/>
+      <c r="C430" s="21"/>
+      <c r="D430" s="21"/>
       <c r="E430" s="17" t="s">
         <v>323</v>
       </c>
@@ -17659,11 +17913,11 @@
       <c r="K430" s="17"/>
     </row>
     <row r="431" spans="2:11">
-      <c r="B431" s="16" t="s">
+      <c r="B431" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C431" s="16"/>
-      <c r="D431" s="16"/>
+      <c r="C431" s="21"/>
+      <c r="D431" s="21"/>
       <c r="E431" s="17" t="s">
         <v>325</v>
       </c>
@@ -17691,27 +17945,27 @@
       <c r="E434"/>
     </row>
     <row r="435" spans="2:11">
-      <c r="B435" s="18" t="s">
+      <c r="B435" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="C435" s="18"/>
-      <c r="D435" s="18"/>
-      <c r="E435" s="18" t="s">
+      <c r="C435" s="22"/>
+      <c r="D435" s="22"/>
+      <c r="E435" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="F435" s="18"/>
-      <c r="G435" s="18"/>
-      <c r="H435" s="18"/>
-      <c r="I435" s="18"/>
-      <c r="J435" s="18"/>
-      <c r="K435" s="18"/>
+      <c r="F435" s="22"/>
+      <c r="G435" s="22"/>
+      <c r="H435" s="22"/>
+      <c r="I435" s="22"/>
+      <c r="J435" s="22"/>
+      <c r="K435" s="22"/>
     </row>
     <row r="436" spans="2:11">
-      <c r="B436" s="16" t="s">
+      <c r="B436" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="C436" s="16"/>
-      <c r="D436" s="16"/>
+      <c r="C436" s="21"/>
+      <c r="D436" s="21"/>
       <c r="E436" s="17" t="s">
         <v>329</v>
       </c>
@@ -17723,11 +17977,11 @@
       <c r="K436" s="17"/>
     </row>
     <row r="437" spans="2:11">
-      <c r="B437" s="16" t="s">
+      <c r="B437" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="C437" s="16"/>
-      <c r="D437" s="16"/>
+      <c r="C437" s="21"/>
+      <c r="D437" s="21"/>
       <c r="E437" s="17" t="s">
         <v>331</v>
       </c>
@@ -17739,11 +17993,11 @@
       <c r="K437" s="17"/>
     </row>
     <row r="438" spans="2:11">
-      <c r="B438" s="16" t="s">
+      <c r="B438" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="C438" s="16"/>
-      <c r="D438" s="16"/>
+      <c r="C438" s="21"/>
+      <c r="D438" s="21"/>
       <c r="E438" s="17" t="s">
         <v>333</v>
       </c>
@@ -17755,11 +18009,11 @@
       <c r="K438" s="17"/>
     </row>
     <row r="439" spans="2:11">
-      <c r="B439" s="16" t="s">
+      <c r="B439" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="C439" s="16"/>
-      <c r="D439" s="16"/>
+      <c r="C439" s="21"/>
+      <c r="D439" s="21"/>
       <c r="E439" s="17" t="s">
         <v>335</v>
       </c>
@@ -17771,11 +18025,11 @@
       <c r="K439" s="17"/>
     </row>
     <row r="440" spans="2:11">
-      <c r="B440" s="16" t="s">
+      <c r="B440" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="C440" s="16"/>
-      <c r="D440" s="16"/>
+      <c r="C440" s="21"/>
+      <c r="D440" s="21"/>
       <c r="E440" s="17" t="s">
         <v>337</v>
       </c>
@@ -17787,11 +18041,11 @@
       <c r="K440" s="17"/>
     </row>
     <row r="441" spans="2:11">
-      <c r="B441" s="16" t="s">
+      <c r="B441" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="C441" s="16"/>
-      <c r="D441" s="16"/>
+      <c r="C441" s="21"/>
+      <c r="D441" s="21"/>
       <c r="E441" s="17" t="s">
         <v>339</v>
       </c>
@@ -17803,11 +18057,11 @@
       <c r="K441" s="17"/>
     </row>
     <row r="442" spans="2:11">
-      <c r="B442" s="16" t="s">
+      <c r="B442" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C442" s="16"/>
-      <c r="D442" s="16"/>
+      <c r="C442" s="21"/>
+      <c r="D442" s="21"/>
       <c r="E442" s="17" t="s">
         <v>341</v>
       </c>
@@ -17819,11 +18073,11 @@
       <c r="K442" s="17"/>
     </row>
     <row r="443" spans="2:11">
-      <c r="B443" s="16" t="s">
+      <c r="B443" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="C443" s="16"/>
-      <c r="D443" s="16"/>
+      <c r="C443" s="21"/>
+      <c r="D443" s="21"/>
       <c r="E443" s="17" t="s">
         <v>343</v>
       </c>
@@ -17835,11 +18089,11 @@
       <c r="K443" s="17"/>
     </row>
     <row r="444" spans="2:11">
-      <c r="B444" s="16" t="s">
+      <c r="B444" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="C444" s="16"/>
-      <c r="D444" s="16"/>
+      <c r="C444" s="21"/>
+      <c r="D444" s="21"/>
       <c r="E444" s="17" t="s">
         <v>345</v>
       </c>
@@ -17851,11 +18105,11 @@
       <c r="K444" s="17"/>
     </row>
     <row r="445" spans="2:11">
-      <c r="B445" s="16" t="s">
+      <c r="B445" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="C445" s="16"/>
-      <c r="D445" s="16"/>
+      <c r="C445" s="21"/>
+      <c r="D445" s="21"/>
       <c r="E445" s="17" t="s">
         <v>347</v>
       </c>
@@ -17867,11 +18121,11 @@
       <c r="K445" s="17"/>
     </row>
     <row r="446" spans="2:11">
-      <c r="B446" s="16" t="s">
+      <c r="B446" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="C446" s="16"/>
-      <c r="D446" s="16"/>
+      <c r="C446" s="21"/>
+      <c r="D446" s="21"/>
       <c r="E446" s="17" t="s">
         <v>349</v>
       </c>
@@ -17883,11 +18137,11 @@
       <c r="K446" s="17"/>
     </row>
     <row r="447" spans="2:11">
-      <c r="B447" s="16" t="s">
+      <c r="B447" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="C447" s="16"/>
-      <c r="D447" s="16"/>
+      <c r="C447" s="21"/>
+      <c r="D447" s="21"/>
       <c r="E447" s="17" t="s">
         <v>351</v>
       </c>
@@ -17899,11 +18153,11 @@
       <c r="K447" s="17"/>
     </row>
     <row r="448" spans="2:11">
-      <c r="B448" s="16" t="s">
+      <c r="B448" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C448" s="16"/>
-      <c r="D448" s="16"/>
+      <c r="C448" s="21"/>
+      <c r="D448" s="21"/>
       <c r="E448" s="17" t="s">
         <v>353</v>
       </c>
@@ -19012,27 +19266,27 @@
       </c>
     </row>
     <row r="1132" spans="1:11">
-      <c r="B1132" s="18" t="s">
+      <c r="B1132" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="C1132" s="18"/>
-      <c r="D1132" s="18"/>
-      <c r="E1132" s="18" t="s">
+      <c r="C1132" s="22"/>
+      <c r="D1132" s="22"/>
+      <c r="E1132" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="F1132" s="18"/>
-      <c r="G1132" s="18"/>
-      <c r="H1132" s="18"/>
-      <c r="I1132" s="18"/>
-      <c r="J1132" s="18"/>
-      <c r="K1132" s="18"/>
+      <c r="F1132" s="22"/>
+      <c r="G1132" s="22"/>
+      <c r="H1132" s="22"/>
+      <c r="I1132" s="22"/>
+      <c r="J1132" s="22"/>
+      <c r="K1132" s="22"/>
     </row>
     <row r="1133" spans="1:11">
-      <c r="B1133" s="16" t="s">
+      <c r="B1133" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="C1133" s="16"/>
-      <c r="D1133" s="16"/>
+      <c r="C1133" s="21"/>
+      <c r="D1133" s="21"/>
       <c r="E1133" s="17" t="s">
         <v>487</v>
       </c>
@@ -19044,11 +19298,11 @@
       <c r="K1133" s="17"/>
     </row>
     <row r="1134" spans="1:11">
-      <c r="B1134" s="16" t="s">
+      <c r="B1134" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="C1134" s="16"/>
-      <c r="D1134" s="16"/>
+      <c r="C1134" s="21"/>
+      <c r="D1134" s="21"/>
       <c r="E1134" s="17" t="s">
         <v>489</v>
       </c>
@@ -19060,11 +19314,11 @@
       <c r="K1134" s="17"/>
     </row>
     <row r="1135" spans="1:11">
-      <c r="B1135" s="16" t="s">
+      <c r="B1135" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="C1135" s="16"/>
-      <c r="D1135" s="16"/>
+      <c r="C1135" s="21"/>
+      <c r="D1135" s="21"/>
       <c r="E1135" s="17" t="s">
         <v>491</v>
       </c>
@@ -19076,11 +19330,11 @@
       <c r="K1135" s="17"/>
     </row>
     <row r="1136" spans="1:11">
-      <c r="B1136" s="16" t="s">
+      <c r="B1136" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="C1136" s="16"/>
-      <c r="D1136" s="16"/>
+      <c r="C1136" s="21"/>
+      <c r="D1136" s="21"/>
       <c r="E1136" s="17" t="s">
         <v>493</v>
       </c>
@@ -19092,11 +19346,11 @@
       <c r="K1136" s="17"/>
     </row>
     <row r="1137" spans="2:11">
-      <c r="B1137" s="16" t="s">
+      <c r="B1137" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="C1137" s="16"/>
-      <c r="D1137" s="16"/>
+      <c r="C1137" s="21"/>
+      <c r="D1137" s="21"/>
       <c r="E1137" s="17" t="s">
         <v>495</v>
       </c>
@@ -19108,11 +19362,11 @@
       <c r="K1137" s="17"/>
     </row>
     <row r="1138" spans="2:11">
-      <c r="B1138" s="16" t="s">
+      <c r="B1138" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="C1138" s="16"/>
-      <c r="D1138" s="16"/>
+      <c r="C1138" s="21"/>
+      <c r="D1138" s="21"/>
       <c r="E1138" s="17" t="s">
         <v>497</v>
       </c>
@@ -19124,11 +19378,11 @@
       <c r="K1138" s="17"/>
     </row>
     <row r="1139" spans="2:11">
-      <c r="B1139" s="16" t="s">
+      <c r="B1139" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="C1139" s="16"/>
-      <c r="D1139" s="16"/>
+      <c r="C1139" s="21"/>
+      <c r="D1139" s="21"/>
       <c r="E1139" s="17" t="s">
         <v>499</v>
       </c>
@@ -19140,11 +19394,11 @@
       <c r="K1139" s="17"/>
     </row>
     <row r="1140" spans="2:11">
-      <c r="B1140" s="16" t="s">
+      <c r="B1140" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="C1140" s="16"/>
-      <c r="D1140" s="16"/>
+      <c r="C1140" s="21"/>
+      <c r="D1140" s="21"/>
       <c r="E1140" s="17" t="s">
         <v>501</v>
       </c>
@@ -19171,27 +19425,27 @@
       </c>
     </row>
     <row r="1144" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B1144" s="18" t="s">
+      <c r="B1144" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="C1144" s="18"/>
-      <c r="D1144" s="18"/>
-      <c r="E1144" s="18" t="s">
+      <c r="C1144" s="22"/>
+      <c r="D1144" s="22"/>
+      <c r="E1144" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="F1144" s="18"/>
-      <c r="G1144" s="18"/>
-      <c r="H1144" s="18"/>
-      <c r="I1144" s="18"/>
-      <c r="J1144" s="18"/>
-      <c r="K1144" s="18"/>
+      <c r="F1144" s="22"/>
+      <c r="G1144" s="22"/>
+      <c r="H1144" s="22"/>
+      <c r="I1144" s="22"/>
+      <c r="J1144" s="22"/>
+      <c r="K1144" s="22"/>
     </row>
     <row r="1145" spans="2:11">
-      <c r="B1145" s="16" t="s">
+      <c r="B1145" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="C1145" s="16"/>
-      <c r="D1145" s="16"/>
+      <c r="C1145" s="21"/>
+      <c r="D1145" s="21"/>
       <c r="E1145" s="17" t="s">
         <v>505</v>
       </c>
@@ -19203,11 +19457,11 @@
       <c r="K1145" s="17"/>
     </row>
     <row r="1146" spans="2:11">
-      <c r="B1146" s="16" t="s">
+      <c r="B1146" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="C1146" s="16"/>
-      <c r="D1146" s="16"/>
+      <c r="C1146" s="21"/>
+      <c r="D1146" s="21"/>
       <c r="E1146" s="17" t="s">
         <v>507</v>
       </c>
@@ -19219,11 +19473,11 @@
       <c r="K1146" s="17"/>
     </row>
     <row r="1147" spans="2:11">
-      <c r="B1147" s="16" t="s">
+      <c r="B1147" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="C1147" s="16"/>
-      <c r="D1147" s="16"/>
+      <c r="C1147" s="21"/>
+      <c r="D1147" s="21"/>
       <c r="E1147" s="17" t="s">
         <v>509</v>
       </c>
@@ -19235,11 +19489,11 @@
       <c r="K1147" s="17"/>
     </row>
     <row r="1148" spans="2:11">
-      <c r="B1148" s="16" t="s">
+      <c r="B1148" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C1148" s="16"/>
-      <c r="D1148" s="16"/>
+      <c r="C1148" s="21"/>
+      <c r="D1148" s="21"/>
       <c r="E1148" s="17" t="s">
         <v>511</v>
       </c>
@@ -19251,11 +19505,11 @@
       <c r="K1148" s="17"/>
     </row>
     <row r="1149" spans="2:11">
-      <c r="B1149" s="16" t="s">
+      <c r="B1149" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="C1149" s="16"/>
-      <c r="D1149" s="16"/>
+      <c r="C1149" s="21"/>
+      <c r="D1149" s="21"/>
       <c r="E1149" s="17" t="s">
         <v>513</v>
       </c>
@@ -19267,11 +19521,11 @@
       <c r="K1149" s="17"/>
     </row>
     <row r="1150" spans="2:11">
-      <c r="B1150" s="16" t="s">
+      <c r="B1150" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C1150" s="16"/>
-      <c r="D1150" s="16"/>
+      <c r="C1150" s="21"/>
+      <c r="D1150" s="21"/>
       <c r="E1150" s="17" t="s">
         <v>515</v>
       </c>
@@ -19283,11 +19537,11 @@
       <c r="K1150" s="17"/>
     </row>
     <row r="1151" spans="2:11">
-      <c r="B1151" s="16" t="s">
+      <c r="B1151" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="C1151" s="16"/>
-      <c r="D1151" s="16"/>
+      <c r="C1151" s="21"/>
+      <c r="D1151" s="21"/>
       <c r="E1151" s="17" t="s">
         <v>517</v>
       </c>
@@ -19299,11 +19553,11 @@
       <c r="K1151" s="17"/>
     </row>
     <row r="1152" spans="2:11">
-      <c r="B1152" s="16" t="s">
+      <c r="B1152" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="C1152" s="16"/>
-      <c r="D1152" s="16"/>
+      <c r="C1152" s="21"/>
+      <c r="D1152" s="21"/>
       <c r="E1152" s="17" t="s">
         <v>519</v>
       </c>
@@ -19325,27 +19579,27 @@
       </c>
     </row>
     <row r="1159" spans="1:11">
-      <c r="B1159" s="18" t="s">
+      <c r="B1159" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="C1159" s="18"/>
-      <c r="D1159" s="18"/>
-      <c r="E1159" s="18" t="s">
+      <c r="C1159" s="22"/>
+      <c r="D1159" s="22"/>
+      <c r="E1159" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="F1159" s="18"/>
-      <c r="G1159" s="18"/>
-      <c r="H1159" s="18"/>
-      <c r="I1159" s="18"/>
-      <c r="J1159" s="18"/>
-      <c r="K1159" s="18"/>
+      <c r="F1159" s="22"/>
+      <c r="G1159" s="22"/>
+      <c r="H1159" s="22"/>
+      <c r="I1159" s="22"/>
+      <c r="J1159" s="22"/>
+      <c r="K1159" s="22"/>
     </row>
     <row r="1160" spans="1:11">
-      <c r="B1160" s="16" t="s">
+      <c r="B1160" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="C1160" s="16"/>
-      <c r="D1160" s="16"/>
+      <c r="C1160" s="21"/>
+      <c r="D1160" s="21"/>
       <c r="E1160" s="17" t="s">
         <v>561</v>
       </c>
@@ -19357,11 +19611,11 @@
       <c r="K1160" s="17"/>
     </row>
     <row r="1161" spans="1:11">
-      <c r="B1161" s="16" t="s">
+      <c r="B1161" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="C1161" s="16"/>
-      <c r="D1161" s="16"/>
+      <c r="C1161" s="21"/>
+      <c r="D1161" s="21"/>
       <c r="E1161" s="17" t="s">
         <v>563</v>
       </c>
@@ -19373,11 +19627,11 @@
       <c r="K1161" s="17"/>
     </row>
     <row r="1162" spans="1:11">
-      <c r="B1162" s="16" t="s">
+      <c r="B1162" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="C1162" s="16"/>
-      <c r="D1162" s="16"/>
+      <c r="C1162" s="21"/>
+      <c r="D1162" s="21"/>
       <c r="E1162" s="17" t="s">
         <v>565</v>
       </c>
@@ -19389,11 +19643,11 @@
       <c r="K1162" s="17"/>
     </row>
     <row r="1163" spans="1:11">
-      <c r="B1163" s="16" t="s">
+      <c r="B1163" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="C1163" s="16"/>
-      <c r="D1163" s="16"/>
+      <c r="C1163" s="21"/>
+      <c r="D1163" s="21"/>
       <c r="E1163" s="17" t="s">
         <v>567</v>
       </c>
@@ -19405,11 +19659,11 @@
       <c r="K1163" s="17"/>
     </row>
     <row r="1164" spans="1:11">
-      <c r="B1164" s="16" t="s">
+      <c r="B1164" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="C1164" s="16"/>
-      <c r="D1164" s="16"/>
+      <c r="C1164" s="21"/>
+      <c r="D1164" s="21"/>
       <c r="E1164" s="17" t="s">
         <v>569</v>
       </c>
@@ -19421,11 +19675,11 @@
       <c r="K1164" s="17"/>
     </row>
     <row r="1165" spans="1:11">
-      <c r="B1165" s="16" t="s">
+      <c r="B1165" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="C1165" s="16"/>
-      <c r="D1165" s="16"/>
+      <c r="C1165" s="21"/>
+      <c r="D1165" s="21"/>
       <c r="E1165" s="17" t="s">
         <v>571</v>
       </c>
@@ -19437,11 +19691,11 @@
       <c r="K1165" s="17"/>
     </row>
     <row r="1166" spans="1:11">
-      <c r="B1166" s="16" t="s">
+      <c r="B1166" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="C1166" s="16"/>
-      <c r="D1166" s="16"/>
+      <c r="C1166" s="21"/>
+      <c r="D1166" s="21"/>
       <c r="E1166" s="17" t="s">
         <v>573</v>
       </c>
@@ -19453,11 +19707,11 @@
       <c r="K1166" s="17"/>
     </row>
     <row r="1167" spans="1:11">
-      <c r="B1167" s="16" t="s">
+      <c r="B1167" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="C1167" s="16"/>
-      <c r="D1167" s="16"/>
+      <c r="C1167" s="21"/>
+      <c r="D1167" s="21"/>
       <c r="E1167" s="17" t="s">
         <v>575</v>
       </c>
@@ -19469,11 +19723,11 @@
       <c r="K1167" s="17"/>
     </row>
     <row r="1168" spans="1:11">
-      <c r="B1168" s="16" t="s">
+      <c r="B1168" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="C1168" s="16"/>
-      <c r="D1168" s="16"/>
+      <c r="C1168" s="21"/>
+      <c r="D1168" s="21"/>
       <c r="E1168" s="17" t="s">
         <v>577</v>
       </c>
@@ -19485,11 +19739,11 @@
       <c r="K1168" s="17"/>
     </row>
     <row r="1169" spans="2:11">
-      <c r="B1169" s="16" t="s">
+      <c r="B1169" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="C1169" s="16"/>
-      <c r="D1169" s="16"/>
+      <c r="C1169" s="21"/>
+      <c r="D1169" s="21"/>
       <c r="E1169" s="17" t="s">
         <v>579</v>
       </c>
@@ -19501,11 +19755,11 @@
       <c r="K1169" s="17"/>
     </row>
     <row r="1170" spans="2:11">
-      <c r="B1170" s="16" t="s">
+      <c r="B1170" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="C1170" s="16"/>
-      <c r="D1170" s="16"/>
+      <c r="C1170" s="21"/>
+      <c r="D1170" s="21"/>
       <c r="E1170" s="17" t="s">
         <v>581</v>
       </c>
@@ -19517,25 +19771,25 @@
       <c r="K1170" s="17"/>
     </row>
     <row r="1171" spans="2:11">
-      <c r="B1171" s="19" t="s">
+      <c r="B1171" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="C1171" s="20"/>
-      <c r="D1171" s="20"/>
-      <c r="E1171" s="20"/>
-      <c r="F1171" s="20"/>
-      <c r="G1171" s="20"/>
-      <c r="H1171" s="20"/>
-      <c r="I1171" s="20"/>
-      <c r="J1171" s="20"/>
-      <c r="K1171" s="21"/>
+      <c r="C1171" s="24"/>
+      <c r="D1171" s="24"/>
+      <c r="E1171" s="24"/>
+      <c r="F1171" s="24"/>
+      <c r="G1171" s="24"/>
+      <c r="H1171" s="24"/>
+      <c r="I1171" s="24"/>
+      <c r="J1171" s="24"/>
+      <c r="K1171" s="25"/>
     </row>
     <row r="1172" spans="2:11">
-      <c r="B1172" s="16" t="s">
+      <c r="B1172" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="C1172" s="16"/>
-      <c r="D1172" s="16"/>
+      <c r="C1172" s="21"/>
+      <c r="D1172" s="21"/>
       <c r="E1172" s="17" t="s">
         <v>584</v>
       </c>
@@ -19547,11 +19801,11 @@
       <c r="K1172" s="17"/>
     </row>
     <row r="1173" spans="2:11">
-      <c r="B1173" s="16" t="s">
+      <c r="B1173" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="C1173" s="16"/>
-      <c r="D1173" s="16"/>
+      <c r="C1173" s="21"/>
+      <c r="D1173" s="21"/>
       <c r="E1173" s="17" t="s">
         <v>586</v>
       </c>
@@ -19563,11 +19817,11 @@
       <c r="K1173" s="17"/>
     </row>
     <row r="1174" spans="2:11">
-      <c r="B1174" s="16" t="s">
+      <c r="B1174" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="C1174" s="16"/>
-      <c r="D1174" s="16"/>
+      <c r="C1174" s="21"/>
+      <c r="D1174" s="21"/>
       <c r="E1174" s="17" t="s">
         <v>588</v>
       </c>
@@ -19579,11 +19833,11 @@
       <c r="K1174" s="17"/>
     </row>
     <row r="1175" spans="2:11">
-      <c r="B1175" s="16" t="s">
+      <c r="B1175" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C1175" s="16"/>
-      <c r="D1175" s="16"/>
+      <c r="C1175" s="21"/>
+      <c r="D1175" s="21"/>
       <c r="E1175" s="17" t="s">
         <v>590</v>
       </c>
@@ -19595,11 +19849,11 @@
       <c r="K1175" s="17"/>
     </row>
     <row r="1176" spans="2:11">
-      <c r="B1176" s="16" t="s">
+      <c r="B1176" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="C1176" s="16"/>
-      <c r="D1176" s="16"/>
+      <c r="C1176" s="21"/>
+      <c r="D1176" s="21"/>
       <c r="E1176" s="17" t="s">
         <v>592</v>
       </c>
@@ -19616,27 +19870,27 @@
       </c>
     </row>
     <row r="1181" spans="2:11">
-      <c r="B1181" s="18" t="s">
+      <c r="B1181" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="C1181" s="18"/>
-      <c r="D1181" s="18"/>
-      <c r="E1181" s="18" t="s">
+      <c r="C1181" s="22"/>
+      <c r="D1181" s="22"/>
+      <c r="E1181" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="F1181" s="18"/>
-      <c r="G1181" s="18"/>
-      <c r="H1181" s="18"/>
-      <c r="I1181" s="18"/>
-      <c r="J1181" s="18"/>
-      <c r="K1181" s="18"/>
+      <c r="F1181" s="22"/>
+      <c r="G1181" s="22"/>
+      <c r="H1181" s="22"/>
+      <c r="I1181" s="22"/>
+      <c r="J1181" s="22"/>
+      <c r="K1181" s="22"/>
     </row>
     <row r="1182" spans="2:11">
-      <c r="B1182" s="16" t="s">
+      <c r="B1182" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="C1182" s="16"/>
-      <c r="D1182" s="16"/>
+      <c r="C1182" s="21"/>
+      <c r="D1182" s="21"/>
       <c r="E1182" s="17" t="s">
         <v>527</v>
       </c>
@@ -19648,11 +19902,11 @@
       <c r="K1182" s="17"/>
     </row>
     <row r="1183" spans="2:11">
-      <c r="B1183" s="16" t="s">
+      <c r="B1183" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="C1183" s="16"/>
-      <c r="D1183" s="16"/>
+      <c r="C1183" s="21"/>
+      <c r="D1183" s="21"/>
       <c r="E1183" s="17" t="s">
         <v>529</v>
       </c>
@@ -19664,11 +19918,11 @@
       <c r="K1183" s="17"/>
     </row>
     <row r="1184" spans="2:11">
-      <c r="B1184" s="16" t="s">
+      <c r="B1184" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="C1184" s="16"/>
-      <c r="D1184" s="16"/>
+      <c r="C1184" s="21"/>
+      <c r="D1184" s="21"/>
       <c r="E1184" s="17" t="s">
         <v>531</v>
       </c>
@@ -19680,11 +19934,11 @@
       <c r="K1184" s="17"/>
     </row>
     <row r="1185" spans="2:14">
-      <c r="B1185" s="16" t="s">
+      <c r="B1185" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="C1185" s="16"/>
-      <c r="D1185" s="16"/>
+      <c r="C1185" s="21"/>
+      <c r="D1185" s="21"/>
       <c r="E1185" s="17" t="s">
         <v>533</v>
       </c>
@@ -19696,11 +19950,11 @@
       <c r="K1185" s="17"/>
     </row>
     <row r="1186" spans="2:14">
-      <c r="B1186" s="16" t="s">
+      <c r="B1186" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="C1186" s="16"/>
-      <c r="D1186" s="16"/>
+      <c r="C1186" s="21"/>
+      <c r="D1186" s="21"/>
       <c r="E1186" s="17" t="s">
         <v>535</v>
       </c>
@@ -19712,11 +19966,11 @@
       <c r="K1186" s="17"/>
     </row>
     <row r="1187" spans="2:14">
-      <c r="B1187" s="16" t="s">
+      <c r="B1187" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="C1187" s="16"/>
-      <c r="D1187" s="16"/>
+      <c r="C1187" s="21"/>
+      <c r="D1187" s="21"/>
       <c r="E1187" s="17" t="s">
         <v>537</v>
       </c>
@@ -19728,11 +19982,11 @@
       <c r="K1187" s="17"/>
     </row>
     <row r="1188" spans="2:14">
-      <c r="B1188" s="16" t="s">
+      <c r="B1188" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C1188" s="16"/>
-      <c r="D1188" s="16"/>
+      <c r="C1188" s="21"/>
+      <c r="D1188" s="21"/>
       <c r="E1188" s="17" t="s">
         <v>539</v>
       </c>
@@ -19744,11 +19998,11 @@
       <c r="K1188" s="17"/>
     </row>
     <row r="1189" spans="2:14">
-      <c r="B1189" s="16" t="s">
+      <c r="B1189" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C1189" s="16"/>
-      <c r="D1189" s="16"/>
+      <c r="C1189" s="21"/>
+      <c r="D1189" s="21"/>
       <c r="E1189" s="17" t="s">
         <v>541</v>
       </c>
@@ -19760,11 +20014,11 @@
       <c r="K1189" s="17"/>
     </row>
     <row r="1190" spans="2:14">
-      <c r="B1190" s="16" t="s">
+      <c r="B1190" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="C1190" s="16"/>
-      <c r="D1190" s="16"/>
+      <c r="C1190" s="21"/>
+      <c r="D1190" s="21"/>
       <c r="E1190" s="17" t="s">
         <v>543</v>
       </c>
@@ -19776,27 +20030,27 @@
       <c r="K1190" s="17"/>
     </row>
     <row r="1191" spans="2:14">
-      <c r="B1191" s="19" t="s">
+      <c r="B1191" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="C1191" s="20"/>
-      <c r="D1191" s="20"/>
-      <c r="E1191" s="20"/>
-      <c r="F1191" s="20"/>
-      <c r="G1191" s="20"/>
-      <c r="H1191" s="20"/>
-      <c r="I1191" s="20"/>
-      <c r="J1191" s="20"/>
-      <c r="K1191" s="21"/>
+      <c r="C1191" s="24"/>
+      <c r="D1191" s="24"/>
+      <c r="E1191" s="24"/>
+      <c r="F1191" s="24"/>
+      <c r="G1191" s="24"/>
+      <c r="H1191" s="24"/>
+      <c r="I1191" s="24"/>
+      <c r="J1191" s="24"/>
+      <c r="K1191" s="25"/>
     </row>
     <row r="1192" spans="2:14">
-      <c r="B1192" s="16" t="s">
+      <c r="B1192" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="C1192" s="16" t="s">
+      <c r="C1192" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="D1192" s="16" t="s">
+      <c r="D1192" s="21" t="s">
         <v>545</v>
       </c>
       <c r="E1192" s="17" t="s">
@@ -19824,13 +20078,13 @@
       <c r="N1192" s="14"/>
     </row>
     <row r="1193" spans="2:14">
-      <c r="B1193" s="16" t="s">
+      <c r="B1193" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="C1193" s="16" t="s">
+      <c r="C1193" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="D1193" s="16" t="s">
+      <c r="D1193" s="21" t="s">
         <v>547</v>
       </c>
       <c r="E1193" s="17" t="s">
@@ -19858,13 +20112,13 @@
       <c r="N1193" s="14"/>
     </row>
     <row r="1194" spans="2:14">
-      <c r="B1194" s="16" t="s">
+      <c r="B1194" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="C1194" s="16" t="s">
+      <c r="C1194" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="D1194" s="16" t="s">
+      <c r="D1194" s="21" t="s">
         <v>549</v>
       </c>
       <c r="E1194" s="17" t="s">
@@ -19892,13 +20146,13 @@
       <c r="N1194" s="14"/>
     </row>
     <row r="1195" spans="2:14">
-      <c r="B1195" s="16" t="s">
+      <c r="B1195" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="C1195" s="16" t="s">
+      <c r="C1195" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="D1195" s="16" t="s">
+      <c r="D1195" s="21" t="s">
         <v>551</v>
       </c>
       <c r="E1195" s="17" t="s">
@@ -19926,13 +20180,13 @@
       <c r="N1195" s="14"/>
     </row>
     <row r="1196" spans="2:14">
-      <c r="B1196" s="16" t="s">
+      <c r="B1196" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="C1196" s="16" t="s">
+      <c r="C1196" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="D1196" s="16" t="s">
+      <c r="D1196" s="21" t="s">
         <v>553</v>
       </c>
       <c r="E1196" s="17" t="s">
@@ -19960,13 +20214,13 @@
       <c r="N1196" s="14"/>
     </row>
     <row r="1197" spans="2:14">
-      <c r="B1197" s="16" t="s">
+      <c r="B1197" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="C1197" s="16" t="s">
+      <c r="C1197" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="D1197" s="16" t="s">
+      <c r="D1197" s="21" t="s">
         <v>555</v>
       </c>
       <c r="E1197" s="17" t="s">
@@ -19994,13 +20248,13 @@
       <c r="N1197" s="14"/>
     </row>
     <row r="1198" spans="2:14">
-      <c r="B1198" s="16" t="s">
+      <c r="B1198" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="C1198" s="16" t="s">
+      <c r="C1198" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="D1198" s="16" t="s">
+      <c r="D1198" s="21" t="s">
         <v>557</v>
       </c>
       <c r="E1198" s="17" t="s">
@@ -20067,23 +20321,23 @@
       </c>
     </row>
     <row r="1210" spans="1:11">
-      <c r="B1210" s="18"/>
-      <c r="C1210" s="18"/>
-      <c r="D1210" s="18"/>
-      <c r="E1210" s="18"/>
-      <c r="F1210" s="18"/>
-      <c r="G1210" s="18"/>
-      <c r="H1210" s="18"/>
-      <c r="I1210" s="18"/>
-      <c r="J1210" s="18"/>
-      <c r="K1210" s="18"/>
+      <c r="B1210" s="22"/>
+      <c r="C1210" s="22"/>
+      <c r="D1210" s="22"/>
+      <c r="E1210" s="22"/>
+      <c r="F1210" s="22"/>
+      <c r="G1210" s="22"/>
+      <c r="H1210" s="22"/>
+      <c r="I1210" s="22"/>
+      <c r="J1210" s="22"/>
+      <c r="K1210" s="22"/>
     </row>
     <row r="1211" spans="1:11">
-      <c r="B1211" s="16" t="s">
+      <c r="B1211" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="C1211" s="16"/>
-      <c r="D1211" s="16"/>
+      <c r="C1211" s="21"/>
+      <c r="D1211" s="21"/>
       <c r="E1211" s="17" t="s">
         <v>601</v>
       </c>
@@ -20095,11 +20349,11 @@
       <c r="K1211" s="17"/>
     </row>
     <row r="1212" spans="1:11">
-      <c r="B1212" s="16" t="s">
+      <c r="B1212" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="C1212" s="16"/>
-      <c r="D1212" s="16"/>
+      <c r="C1212" s="21"/>
+      <c r="D1212" s="21"/>
       <c r="E1212" s="17" t="s">
         <v>603</v>
       </c>
@@ -20111,11 +20365,11 @@
       <c r="K1212" s="17"/>
     </row>
     <row r="1213" spans="1:11">
-      <c r="B1213" s="16" t="s">
+      <c r="B1213" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="C1213" s="16"/>
-      <c r="D1213" s="16"/>
+      <c r="C1213" s="21"/>
+      <c r="D1213" s="21"/>
       <c r="E1213" s="17" t="s">
         <v>605</v>
       </c>
@@ -20127,11 +20381,11 @@
       <c r="K1213" s="17"/>
     </row>
     <row r="1214" spans="1:11">
-      <c r="B1214" s="16" t="s">
+      <c r="B1214" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="C1214" s="16"/>
-      <c r="D1214" s="16"/>
+      <c r="C1214" s="21"/>
+      <c r="D1214" s="21"/>
       <c r="E1214" s="17" t="s">
         <v>607</v>
       </c>
@@ -20143,11 +20397,11 @@
       <c r="K1214" s="17"/>
     </row>
     <row r="1215" spans="1:11">
-      <c r="B1215" s="16" t="s">
+      <c r="B1215" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="C1215" s="16"/>
-      <c r="D1215" s="16"/>
+      <c r="C1215" s="21"/>
+      <c r="D1215" s="21"/>
       <c r="E1215" s="17" t="s">
         <v>609</v>
       </c>
@@ -20159,11 +20413,11 @@
       <c r="K1215" s="17"/>
     </row>
     <row r="1216" spans="1:11">
-      <c r="B1216" s="16" t="s">
+      <c r="B1216" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C1216" s="16"/>
-      <c r="D1216" s="16"/>
+      <c r="C1216" s="21"/>
+      <c r="D1216" s="21"/>
       <c r="E1216" s="17" t="s">
         <v>611</v>
       </c>
@@ -20175,11 +20429,11 @@
       <c r="K1216" s="17"/>
     </row>
     <row r="1217" spans="2:11">
-      <c r="B1217" s="16" t="s">
+      <c r="B1217" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="C1217" s="16"/>
-      <c r="D1217" s="16"/>
+      <c r="C1217" s="21"/>
+      <c r="D1217" s="21"/>
       <c r="E1217" s="17" t="s">
         <v>613</v>
       </c>
@@ -20191,11 +20445,11 @@
       <c r="K1217" s="17"/>
     </row>
     <row r="1218" spans="2:11">
-      <c r="B1218" s="16" t="s">
+      <c r="B1218" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="C1218" s="16"/>
-      <c r="D1218" s="16"/>
+      <c r="C1218" s="21"/>
+      <c r="D1218" s="21"/>
       <c r="E1218" s="17" t="s">
         <v>615</v>
       </c>
@@ -20207,11 +20461,11 @@
       <c r="K1218" s="17"/>
     </row>
     <row r="1219" spans="2:11">
-      <c r="B1219" s="16" t="s">
+      <c r="B1219" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="C1219" s="16"/>
-      <c r="D1219" s="16"/>
+      <c r="C1219" s="21"/>
+      <c r="D1219" s="21"/>
       <c r="E1219" s="17" t="s">
         <v>617</v>
       </c>
@@ -20223,11 +20477,11 @@
       <c r="K1219" s="17"/>
     </row>
     <row r="1220" spans="2:11">
-      <c r="B1220" s="16" t="s">
+      <c r="B1220" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="C1220" s="16"/>
-      <c r="D1220" s="16"/>
+      <c r="C1220" s="21"/>
+      <c r="D1220" s="21"/>
       <c r="E1220" s="17" t="s">
         <v>619</v>
       </c>
@@ -20239,11 +20493,11 @@
       <c r="K1220" s="17"/>
     </row>
     <row r="1221" spans="2:11">
-      <c r="B1221" s="16" t="s">
+      <c r="B1221" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="C1221" s="16"/>
-      <c r="D1221" s="16"/>
+      <c r="C1221" s="21"/>
+      <c r="D1221" s="21"/>
       <c r="E1221" s="17" t="s">
         <v>621</v>
       </c>
@@ -20255,11 +20509,11 @@
       <c r="K1221" s="17"/>
     </row>
     <row r="1222" spans="2:11">
-      <c r="B1222" s="16" t="s">
+      <c r="B1222" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="C1222" s="16"/>
-      <c r="D1222" s="16"/>
+      <c r="C1222" s="21"/>
+      <c r="D1222" s="21"/>
       <c r="E1222" s="17" t="s">
         <v>623</v>
       </c>
@@ -20271,11 +20525,11 @@
       <c r="K1222" s="17"/>
     </row>
     <row r="1223" spans="2:11">
-      <c r="B1223" s="16" t="s">
+      <c r="B1223" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="C1223" s="16"/>
-      <c r="D1223" s="16"/>
+      <c r="C1223" s="21"/>
+      <c r="D1223" s="21"/>
       <c r="E1223" s="17" t="s">
         <v>625</v>
       </c>
@@ -20287,11 +20541,11 @@
       <c r="K1223" s="17"/>
     </row>
     <row r="1224" spans="2:11">
-      <c r="B1224" s="16" t="s">
+      <c r="B1224" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="C1224" s="16"/>
-      <c r="D1224" s="16"/>
+      <c r="C1224" s="21"/>
+      <c r="D1224" s="21"/>
       <c r="E1224" s="17" t="s">
         <v>627</v>
       </c>
@@ -20303,11 +20557,11 @@
       <c r="K1224" s="17"/>
     </row>
     <row r="1225" spans="2:11">
-      <c r="B1225" s="16" t="s">
+      <c r="B1225" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="C1225" s="16"/>
-      <c r="D1225" s="16"/>
+      <c r="C1225" s="21"/>
+      <c r="D1225" s="21"/>
       <c r="E1225" s="17" t="s">
         <v>629</v>
       </c>
@@ -20319,11 +20573,11 @@
       <c r="K1225" s="17"/>
     </row>
     <row r="1226" spans="2:11">
-      <c r="B1226" s="16" t="s">
+      <c r="B1226" s="21" t="s">
         <v>630</v>
       </c>
-      <c r="C1226" s="16"/>
-      <c r="D1226" s="16"/>
+      <c r="C1226" s="21"/>
+      <c r="D1226" s="21"/>
       <c r="E1226" s="17" t="s">
         <v>631</v>
       </c>
@@ -20335,11 +20589,11 @@
       <c r="K1226" s="17"/>
     </row>
     <row r="1227" spans="2:11">
-      <c r="B1227" s="16" t="s">
+      <c r="B1227" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="C1227" s="16"/>
-      <c r="D1227" s="16"/>
+      <c r="C1227" s="21"/>
+      <c r="D1227" s="21"/>
       <c r="E1227" s="17" t="s">
         <v>633</v>
       </c>
@@ -20351,11 +20605,11 @@
       <c r="K1227" s="17"/>
     </row>
     <row r="1228" spans="2:11">
-      <c r="B1228" s="16" t="s">
+      <c r="B1228" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="C1228" s="16"/>
-      <c r="D1228" s="16"/>
+      <c r="C1228" s="21"/>
+      <c r="D1228" s="21"/>
       <c r="E1228" s="17" t="s">
         <v>635</v>
       </c>
@@ -20367,11 +20621,11 @@
       <c r="K1228" s="17"/>
     </row>
     <row r="1229" spans="2:11">
-      <c r="B1229" s="16" t="s">
+      <c r="B1229" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="C1229" s="16"/>
-      <c r="D1229" s="16"/>
+      <c r="C1229" s="21"/>
+      <c r="D1229" s="21"/>
       <c r="E1229" s="17" t="s">
         <v>637</v>
       </c>
@@ -20383,11 +20637,11 @@
       <c r="K1229" s="17"/>
     </row>
     <row r="1230" spans="2:11">
-      <c r="B1230" s="16" t="s">
+      <c r="B1230" s="21" t="s">
         <v>638</v>
       </c>
-      <c r="C1230" s="16"/>
-      <c r="D1230" s="16"/>
+      <c r="C1230" s="21"/>
+      <c r="D1230" s="21"/>
       <c r="E1230" s="17" t="s">
         <v>639</v>
       </c>
@@ -20399,11 +20653,11 @@
       <c r="K1230" s="17"/>
     </row>
     <row r="1231" spans="2:11">
-      <c r="B1231" s="16" t="s">
+      <c r="B1231" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="C1231" s="16"/>
-      <c r="D1231" s="16"/>
+      <c r="C1231" s="21"/>
+      <c r="D1231" s="21"/>
       <c r="E1231" s="17" t="s">
         <v>641</v>
       </c>
@@ -20415,11 +20669,11 @@
       <c r="K1231" s="17"/>
     </row>
     <row r="1232" spans="2:11">
-      <c r="B1232" s="16" t="s">
+      <c r="B1232" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="C1232" s="16"/>
-      <c r="D1232" s="16"/>
+      <c r="C1232" s="21"/>
+      <c r="D1232" s="21"/>
       <c r="E1232" s="17" t="s">
         <v>643</v>
       </c>
@@ -20431,11 +20685,11 @@
       <c r="K1232" s="17"/>
     </row>
     <row r="1233" spans="2:11">
-      <c r="B1233" s="16" t="s">
+      <c r="B1233" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="C1233" s="16"/>
-      <c r="D1233" s="16"/>
+      <c r="C1233" s="21"/>
+      <c r="D1233" s="21"/>
       <c r="E1233" s="17" t="s">
         <v>645</v>
       </c>
@@ -20447,11 +20701,11 @@
       <c r="K1233" s="17"/>
     </row>
     <row r="1234" spans="2:11">
-      <c r="B1234" s="16" t="s">
+      <c r="B1234" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="C1234" s="16"/>
-      <c r="D1234" s="16"/>
+      <c r="C1234" s="21"/>
+      <c r="D1234" s="21"/>
       <c r="E1234" s="17" t="s">
         <v>647</v>
       </c>
@@ -20463,11 +20717,11 @@
       <c r="K1234" s="17"/>
     </row>
     <row r="1235" spans="2:11">
-      <c r="B1235" s="16" t="s">
+      <c r="B1235" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="C1235" s="16"/>
-      <c r="D1235" s="16"/>
+      <c r="C1235" s="21"/>
+      <c r="D1235" s="21"/>
       <c r="E1235" s="17" t="s">
         <v>649</v>
       </c>
@@ -20479,11 +20733,11 @@
       <c r="K1235" s="17"/>
     </row>
     <row r="1236" spans="2:11">
-      <c r="B1236" s="16" t="s">
+      <c r="B1236" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="C1236" s="16"/>
-      <c r="D1236" s="16"/>
+      <c r="C1236" s="21"/>
+      <c r="D1236" s="21"/>
       <c r="E1236" s="17" t="s">
         <v>651</v>
       </c>
@@ -20495,11 +20749,11 @@
       <c r="K1236" s="17"/>
     </row>
     <row r="1237" spans="2:11">
-      <c r="B1237" s="16" t="s">
+      <c r="B1237" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="C1237" s="16"/>
-      <c r="D1237" s="16"/>
+      <c r="C1237" s="21"/>
+      <c r="D1237" s="21"/>
       <c r="E1237" s="17" t="s">
         <v>653</v>
       </c>
@@ -20511,11 +20765,11 @@
       <c r="K1237" s="17"/>
     </row>
     <row r="1238" spans="2:11">
-      <c r="B1238" s="16" t="s">
+      <c r="B1238" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="C1238" s="16"/>
-      <c r="D1238" s="16"/>
+      <c r="C1238" s="21"/>
+      <c r="D1238" s="21"/>
       <c r="E1238" s="17" t="s">
         <v>655</v>
       </c>
@@ -20527,11 +20781,11 @@
       <c r="K1238" s="17"/>
     </row>
     <row r="1239" spans="2:11">
-      <c r="B1239" s="16" t="s">
+      <c r="B1239" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C1239" s="16"/>
-      <c r="D1239" s="16"/>
+      <c r="C1239" s="21"/>
+      <c r="D1239" s="21"/>
       <c r="E1239" s="17" t="s">
         <v>657</v>
       </c>
@@ -20543,11 +20797,11 @@
       <c r="K1239" s="17"/>
     </row>
     <row r="1240" spans="2:11">
-      <c r="B1240" s="16" t="s">
+      <c r="B1240" s="21" t="s">
         <v>658</v>
       </c>
-      <c r="C1240" s="16"/>
-      <c r="D1240" s="16"/>
+      <c r="C1240" s="21"/>
+      <c r="D1240" s="21"/>
       <c r="E1240" s="17" t="s">
         <v>659</v>
       </c>
@@ -21199,33 +21453,33 @@
       </c>
     </row>
     <row r="1638" spans="11:11">
-      <c r="K1638" s="22" t="s">
+      <c r="K1638" s="16" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="1639" spans="11:11">
-      <c r="K1639" s="22" t="s">
+      <c r="K1639" s="16" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="1654" spans="3:12">
-      <c r="C1654" s="18"/>
-      <c r="D1654" s="18"/>
-      <c r="E1654" s="18"/>
-      <c r="F1654" s="18"/>
-      <c r="G1654" s="18"/>
-      <c r="H1654" s="18"/>
-      <c r="I1654" s="18"/>
-      <c r="J1654" s="18"/>
-      <c r="K1654" s="18"/>
-      <c r="L1654" s="18"/>
+      <c r="C1654" s="22"/>
+      <c r="D1654" s="22"/>
+      <c r="E1654" s="22"/>
+      <c r="F1654" s="22"/>
+      <c r="G1654" s="22"/>
+      <c r="H1654" s="22"/>
+      <c r="I1654" s="22"/>
+      <c r="J1654" s="22"/>
+      <c r="K1654" s="22"/>
+      <c r="L1654" s="22"/>
     </row>
     <row r="1655" spans="3:12">
-      <c r="C1655" s="16" t="s">
+      <c r="C1655" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="D1655" s="16"/>
-      <c r="E1655" s="16"/>
+      <c r="D1655" s="21"/>
+      <c r="E1655" s="21"/>
       <c r="F1655" s="17" t="s">
         <v>601</v>
       </c>
@@ -21237,41 +21491,41 @@
       <c r="L1655" s="17"/>
     </row>
     <row r="1656" spans="3:12">
-      <c r="C1656" s="18" t="s">
+      <c r="C1656" s="22" t="s">
         <v>788</v>
       </c>
-      <c r="D1656" s="18"/>
-      <c r="E1656" s="18"/>
-      <c r="F1656" s="18" t="s">
+      <c r="D1656" s="22"/>
+      <c r="E1656" s="22"/>
+      <c r="F1656" s="22" t="s">
         <v>789</v>
       </c>
-      <c r="G1656" s="18"/>
-      <c r="H1656" s="18"/>
-      <c r="I1656" s="18"/>
-      <c r="J1656" s="18"/>
-      <c r="K1656" s="18"/>
-      <c r="L1656" s="18"/>
+      <c r="G1656" s="22"/>
+      <c r="H1656" s="22"/>
+      <c r="I1656" s="22"/>
+      <c r="J1656" s="22"/>
+      <c r="K1656" s="22"/>
+      <c r="L1656" s="22"/>
     </row>
     <row r="1657" spans="3:12" ht="15" customHeight="1">
-      <c r="C1657" s="23" t="s">
+      <c r="C1657" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="D1657" s="24"/>
-      <c r="E1657" s="24"/>
-      <c r="F1657" s="24"/>
-      <c r="G1657" s="24"/>
-      <c r="H1657" s="24"/>
-      <c r="I1657" s="24"/>
-      <c r="J1657" s="24"/>
-      <c r="K1657" s="24"/>
-      <c r="L1657" s="25"/>
+      <c r="D1657" s="19"/>
+      <c r="E1657" s="19"/>
+      <c r="F1657" s="19"/>
+      <c r="G1657" s="19"/>
+      <c r="H1657" s="19"/>
+      <c r="I1657" s="19"/>
+      <c r="J1657" s="19"/>
+      <c r="K1657" s="19"/>
+      <c r="L1657" s="20"/>
     </row>
     <row r="1658" spans="3:12">
-      <c r="C1658" s="16" t="s">
+      <c r="C1658" s="21" t="s">
         <v>791</v>
       </c>
-      <c r="D1658" s="16"/>
-      <c r="E1658" s="16"/>
+      <c r="D1658" s="21"/>
+      <c r="E1658" s="21"/>
       <c r="F1658" s="17" t="s">
         <v>792</v>
       </c>
@@ -21283,9 +21537,9 @@
       <c r="L1658" s="17"/>
     </row>
     <row r="1659" spans="3:12">
-      <c r="C1659" s="16"/>
-      <c r="D1659" s="16"/>
-      <c r="E1659" s="16"/>
+      <c r="C1659" s="21"/>
+      <c r="D1659" s="21"/>
+      <c r="E1659" s="21"/>
       <c r="F1659" s="17" t="s">
         <v>793</v>
       </c>
@@ -21297,9 +21551,9 @@
       <c r="L1659" s="17"/>
     </row>
     <row r="1660" spans="3:12">
-      <c r="C1660" s="16"/>
-      <c r="D1660" s="16"/>
-      <c r="E1660" s="16"/>
+      <c r="C1660" s="21"/>
+      <c r="D1660" s="21"/>
+      <c r="E1660" s="21"/>
       <c r="F1660" s="17" t="s">
         <v>794</v>
       </c>
@@ -21311,9 +21565,9 @@
       <c r="L1660" s="17"/>
     </row>
     <row r="1661" spans="3:12">
-      <c r="C1661" s="16"/>
-      <c r="D1661" s="16"/>
-      <c r="E1661" s="16"/>
+      <c r="C1661" s="21"/>
+      <c r="D1661" s="21"/>
+      <c r="E1661" s="21"/>
       <c r="F1661" s="17" t="s">
         <v>795</v>
       </c>
@@ -21325,11 +21579,11 @@
       <c r="L1661" s="17"/>
     </row>
     <row r="1662" spans="3:12" ht="15" customHeight="1">
-      <c r="C1662" s="16" t="s">
+      <c r="C1662" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="D1662" s="16"/>
-      <c r="E1662" s="16"/>
+      <c r="D1662" s="21"/>
+      <c r="E1662" s="21"/>
       <c r="F1662" s="17" t="s">
         <v>797</v>
       </c>
@@ -21341,11 +21595,11 @@
       <c r="L1662" s="17"/>
     </row>
     <row r="1663" spans="3:12" ht="15" customHeight="1">
-      <c r="C1663" s="16" t="s">
+      <c r="C1663" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="D1663" s="16"/>
-      <c r="E1663" s="16"/>
+      <c r="D1663" s="21"/>
+      <c r="E1663" s="21"/>
       <c r="F1663" s="17" t="s">
         <v>799</v>
       </c>
@@ -21357,11 +21611,11 @@
       <c r="L1663" s="17"/>
     </row>
     <row r="1664" spans="3:12" ht="15" customHeight="1">
-      <c r="C1664" s="16" t="s">
+      <c r="C1664" s="21" t="s">
         <v>800</v>
       </c>
-      <c r="D1664" s="16"/>
-      <c r="E1664" s="16"/>
+      <c r="D1664" s="21"/>
+      <c r="E1664" s="21"/>
       <c r="F1664" s="17" t="s">
         <v>801</v>
       </c>
@@ -21373,11 +21627,11 @@
       <c r="L1664" s="17"/>
     </row>
     <row r="1665" spans="3:12" ht="15" customHeight="1">
-      <c r="C1665" s="16" t="s">
+      <c r="C1665" s="21" t="s">
         <v>802</v>
       </c>
-      <c r="D1665" s="16"/>
-      <c r="E1665" s="16"/>
+      <c r="D1665" s="21"/>
+      <c r="E1665" s="21"/>
       <c r="F1665" s="17" t="s">
         <v>803</v>
       </c>
@@ -21389,11 +21643,11 @@
       <c r="L1665" s="17"/>
     </row>
     <row r="1666" spans="3:12" ht="15" customHeight="1">
-      <c r="C1666" s="16" t="s">
+      <c r="C1666" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="D1666" s="16"/>
-      <c r="E1666" s="16"/>
+      <c r="D1666" s="21"/>
+      <c r="E1666" s="21"/>
       <c r="F1666" s="17" t="s">
         <v>805</v>
       </c>
@@ -21405,11 +21659,11 @@
       <c r="L1666" s="17"/>
     </row>
     <row r="1667" spans="3:12" ht="15" customHeight="1">
-      <c r="C1667" s="16" t="s">
+      <c r="C1667" s="21" t="s">
         <v>806</v>
       </c>
-      <c r="D1667" s="16"/>
-      <c r="E1667" s="16"/>
+      <c r="D1667" s="21"/>
+      <c r="E1667" s="21"/>
       <c r="F1667" s="17" t="s">
         <v>807</v>
       </c>
@@ -21421,11 +21675,11 @@
       <c r="L1667" s="17"/>
     </row>
     <row r="1668" spans="3:12" ht="15" customHeight="1">
-      <c r="C1668" s="16" t="s">
+      <c r="C1668" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="D1668" s="16"/>
-      <c r="E1668" s="16"/>
+      <c r="D1668" s="21"/>
+      <c r="E1668" s="21"/>
       <c r="F1668" s="17" t="s">
         <v>809</v>
       </c>
@@ -21437,11 +21691,11 @@
       <c r="L1668" s="17"/>
     </row>
     <row r="1669" spans="3:12" ht="15" customHeight="1">
-      <c r="C1669" s="16" t="s">
+      <c r="C1669" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="D1669" s="16"/>
-      <c r="E1669" s="16"/>
+      <c r="D1669" s="21"/>
+      <c r="E1669" s="21"/>
       <c r="F1669" s="17" t="s">
         <v>811</v>
       </c>
@@ -21453,11 +21707,11 @@
       <c r="L1669" s="17"/>
     </row>
     <row r="1670" spans="3:12" ht="15" customHeight="1">
-      <c r="C1670" s="16" t="s">
+      <c r="C1670" s="21" t="s">
         <v>812</v>
       </c>
-      <c r="D1670" s="16"/>
-      <c r="E1670" s="16"/>
+      <c r="D1670" s="21"/>
+      <c r="E1670" s="21"/>
       <c r="F1670" s="17" t="s">
         <v>813</v>
       </c>
@@ -21469,11 +21723,11 @@
       <c r="L1670" s="17"/>
     </row>
     <row r="1671" spans="3:12" ht="15" customHeight="1">
-      <c r="C1671" s="16" t="s">
+      <c r="C1671" s="21" t="s">
         <v>814</v>
       </c>
-      <c r="D1671" s="16"/>
-      <c r="E1671" s="16"/>
+      <c r="D1671" s="21"/>
+      <c r="E1671" s="21"/>
       <c r="F1671" s="17" t="s">
         <v>815</v>
       </c>
@@ -21485,25 +21739,25 @@
       <c r="L1671" s="17"/>
     </row>
     <row r="1672" spans="3:12" ht="15" customHeight="1">
-      <c r="C1672" s="23" t="s">
+      <c r="C1672" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="D1672" s="24"/>
-      <c r="E1672" s="24"/>
-      <c r="F1672" s="24"/>
-      <c r="G1672" s="24"/>
-      <c r="H1672" s="24"/>
-      <c r="I1672" s="24"/>
-      <c r="J1672" s="24"/>
-      <c r="K1672" s="24"/>
-      <c r="L1672" s="25"/>
+      <c r="D1672" s="19"/>
+      <c r="E1672" s="19"/>
+      <c r="F1672" s="19"/>
+      <c r="G1672" s="19"/>
+      <c r="H1672" s="19"/>
+      <c r="I1672" s="19"/>
+      <c r="J1672" s="19"/>
+      <c r="K1672" s="19"/>
+      <c r="L1672" s="20"/>
     </row>
     <row r="1673" spans="3:12" ht="15" customHeight="1">
-      <c r="C1673" s="16" t="s">
+      <c r="C1673" s="21" t="s">
         <v>817</v>
       </c>
-      <c r="D1673" s="16"/>
-      <c r="E1673" s="16"/>
+      <c r="D1673" s="21"/>
+      <c r="E1673" s="21"/>
       <c r="F1673" s="17" t="s">
         <v>818</v>
       </c>
@@ -21515,11 +21769,11 @@
       <c r="L1673" s="17"/>
     </row>
     <row r="1674" spans="3:12" ht="15" customHeight="1">
-      <c r="C1674" s="16" t="s">
+      <c r="C1674" s="21" t="s">
         <v>819</v>
       </c>
-      <c r="D1674" s="16"/>
-      <c r="E1674" s="16"/>
+      <c r="D1674" s="21"/>
+      <c r="E1674" s="21"/>
       <c r="F1674" s="17" t="s">
         <v>820</v>
       </c>
@@ -21531,11 +21785,11 @@
       <c r="L1674" s="17"/>
     </row>
     <row r="1675" spans="3:12" ht="15" customHeight="1">
-      <c r="C1675" s="16" t="s">
+      <c r="C1675" s="21" t="s">
         <v>821</v>
       </c>
-      <c r="D1675" s="16"/>
-      <c r="E1675" s="16"/>
+      <c r="D1675" s="21"/>
+      <c r="E1675" s="21"/>
       <c r="F1675" s="17" t="s">
         <v>822</v>
       </c>
@@ -21547,11 +21801,11 @@
       <c r="L1675" s="17"/>
     </row>
     <row r="1676" spans="3:12" ht="15" customHeight="1">
-      <c r="C1676" s="16" t="s">
+      <c r="C1676" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="D1676" s="16"/>
-      <c r="E1676" s="16"/>
+      <c r="D1676" s="21"/>
+      <c r="E1676" s="21"/>
       <c r="F1676" s="17" t="s">
         <v>824</v>
       </c>
@@ -21563,11 +21817,11 @@
       <c r="L1676" s="17"/>
     </row>
     <row r="1677" spans="3:12" ht="15" customHeight="1">
-      <c r="C1677" s="16" t="s">
+      <c r="C1677" s="21" t="s">
         <v>825</v>
       </c>
-      <c r="D1677" s="16"/>
-      <c r="E1677" s="16"/>
+      <c r="D1677" s="21"/>
+      <c r="E1677" s="21"/>
       <c r="F1677" s="17" t="s">
         <v>826</v>
       </c>
@@ -21579,11 +21833,11 @@
       <c r="L1677" s="17"/>
     </row>
     <row r="1678" spans="3:12" ht="15" customHeight="1">
-      <c r="C1678" s="16" t="s">
+      <c r="C1678" s="21" t="s">
         <v>827</v>
       </c>
-      <c r="D1678" s="16"/>
-      <c r="E1678" s="16"/>
+      <c r="D1678" s="21"/>
+      <c r="E1678" s="21"/>
       <c r="F1678" s="17" t="s">
         <v>828</v>
       </c>
@@ -21595,11 +21849,11 @@
       <c r="L1678" s="17"/>
     </row>
     <row r="1679" spans="3:12" ht="15" customHeight="1">
-      <c r="C1679" s="16" t="s">
+      <c r="C1679" s="21" t="s">
         <v>829</v>
       </c>
-      <c r="D1679" s="16"/>
-      <c r="E1679" s="16"/>
+      <c r="D1679" s="21"/>
+      <c r="E1679" s="21"/>
       <c r="F1679" s="17" t="s">
         <v>830</v>
       </c>
@@ -21611,11 +21865,11 @@
       <c r="L1679" s="17"/>
     </row>
     <row r="1680" spans="3:12" ht="15" customHeight="1">
-      <c r="C1680" s="16" t="s">
+      <c r="C1680" s="21" t="s">
         <v>831</v>
       </c>
-      <c r="D1680" s="16"/>
-      <c r="E1680" s="16"/>
+      <c r="D1680" s="21"/>
+      <c r="E1680" s="21"/>
       <c r="F1680" s="17" t="s">
         <v>832</v>
       </c>
@@ -21627,25 +21881,25 @@
       <c r="L1680" s="17"/>
     </row>
     <row r="1681" spans="3:12" ht="15" customHeight="1">
-      <c r="C1681" s="23" t="s">
+      <c r="C1681" s="18" t="s">
         <v>833</v>
       </c>
-      <c r="D1681" s="24"/>
-      <c r="E1681" s="24"/>
-      <c r="F1681" s="24"/>
-      <c r="G1681" s="24"/>
-      <c r="H1681" s="24"/>
-      <c r="I1681" s="24"/>
-      <c r="J1681" s="24"/>
-      <c r="K1681" s="24"/>
-      <c r="L1681" s="25"/>
+      <c r="D1681" s="19"/>
+      <c r="E1681" s="19"/>
+      <c r="F1681" s="19"/>
+      <c r="G1681" s="19"/>
+      <c r="H1681" s="19"/>
+      <c r="I1681" s="19"/>
+      <c r="J1681" s="19"/>
+      <c r="K1681" s="19"/>
+      <c r="L1681" s="20"/>
     </row>
     <row r="1682" spans="3:12" ht="15" customHeight="1">
-      <c r="C1682" s="16" t="s">
+      <c r="C1682" s="21" t="s">
         <v>834</v>
       </c>
-      <c r="D1682" s="16"/>
-      <c r="E1682" s="16"/>
+      <c r="D1682" s="21"/>
+      <c r="E1682" s="21"/>
       <c r="F1682" s="17" t="s">
         <v>835</v>
       </c>
@@ -21657,11 +21911,11 @@
       <c r="L1682" s="17"/>
     </row>
     <row r="1683" spans="3:12" ht="15" customHeight="1">
-      <c r="C1683" s="16" t="s">
+      <c r="C1683" s="21" t="s">
         <v>836</v>
       </c>
-      <c r="D1683" s="16"/>
-      <c r="E1683" s="16"/>
+      <c r="D1683" s="21"/>
+      <c r="E1683" s="21"/>
       <c r="F1683" s="17" t="s">
         <v>837</v>
       </c>
@@ -21673,11 +21927,11 @@
       <c r="L1683" s="17"/>
     </row>
     <row r="1684" spans="3:12" ht="15" customHeight="1">
-      <c r="C1684" s="16" t="s">
+      <c r="C1684" s="21" t="s">
         <v>838</v>
       </c>
-      <c r="D1684" s="16"/>
-      <c r="E1684" s="16"/>
+      <c r="D1684" s="21"/>
+      <c r="E1684" s="21"/>
       <c r="F1684" s="17" t="s">
         <v>839</v>
       </c>
@@ -21689,11 +21943,11 @@
       <c r="L1684" s="17"/>
     </row>
     <row r="1685" spans="3:12" ht="15" customHeight="1">
-      <c r="C1685" s="16" t="s">
+      <c r="C1685" s="21" t="s">
         <v>840</v>
       </c>
-      <c r="D1685" s="16"/>
-      <c r="E1685" s="16"/>
+      <c r="D1685" s="21"/>
+      <c r="E1685" s="21"/>
       <c r="F1685" s="17" t="s">
         <v>841</v>
       </c>
@@ -21705,11 +21959,11 @@
       <c r="L1685" s="17"/>
     </row>
     <row r="1686" spans="3:12" ht="15" customHeight="1">
-      <c r="C1686" s="16" t="s">
+      <c r="C1686" s="21" t="s">
         <v>842</v>
       </c>
-      <c r="D1686" s="16"/>
-      <c r="E1686" s="16"/>
+      <c r="D1686" s="21"/>
+      <c r="E1686" s="21"/>
       <c r="F1686" s="17" t="s">
         <v>843</v>
       </c>
@@ -21721,11 +21975,11 @@
       <c r="L1686" s="17"/>
     </row>
     <row r="1687" spans="3:12" ht="15" customHeight="1">
-      <c r="C1687" s="16" t="s">
+      <c r="C1687" s="21" t="s">
         <v>844</v>
       </c>
-      <c r="D1687" s="16"/>
-      <c r="E1687" s="16"/>
+      <c r="D1687" s="21"/>
+      <c r="E1687" s="21"/>
       <c r="F1687" s="17" t="s">
         <v>845</v>
       </c>
@@ -21737,25 +21991,25 @@
       <c r="L1687" s="17"/>
     </row>
     <row r="1688" spans="3:12" ht="15" customHeight="1">
-      <c r="C1688" s="23" t="s">
+      <c r="C1688" s="18" t="s">
         <v>846</v>
       </c>
-      <c r="D1688" s="24"/>
-      <c r="E1688" s="24"/>
-      <c r="F1688" s="24"/>
-      <c r="G1688" s="24"/>
-      <c r="H1688" s="24"/>
-      <c r="I1688" s="24"/>
-      <c r="J1688" s="24"/>
-      <c r="K1688" s="24"/>
-      <c r="L1688" s="25"/>
+      <c r="D1688" s="19"/>
+      <c r="E1688" s="19"/>
+      <c r="F1688" s="19"/>
+      <c r="G1688" s="19"/>
+      <c r="H1688" s="19"/>
+      <c r="I1688" s="19"/>
+      <c r="J1688" s="19"/>
+      <c r="K1688" s="19"/>
+      <c r="L1688" s="20"/>
     </row>
     <row r="1689" spans="3:12" ht="15" customHeight="1">
-      <c r="C1689" s="16" t="s">
+      <c r="C1689" s="21" t="s">
         <v>847</v>
       </c>
-      <c r="D1689" s="16"/>
-      <c r="E1689" s="16"/>
+      <c r="D1689" s="21"/>
+      <c r="E1689" s="21"/>
       <c r="F1689" s="17" t="s">
         <v>848</v>
       </c>
@@ -21767,11 +22021,11 @@
       <c r="L1689" s="17"/>
     </row>
     <row r="1690" spans="3:12" ht="15" customHeight="1">
-      <c r="C1690" s="16" t="s">
+      <c r="C1690" s="21" t="s">
         <v>849</v>
       </c>
-      <c r="D1690" s="16"/>
-      <c r="E1690" s="16"/>
+      <c r="D1690" s="21"/>
+      <c r="E1690" s="21"/>
       <c r="F1690" s="17" t="s">
         <v>850</v>
       </c>
@@ -21783,11 +22037,11 @@
       <c r="L1690" s="17"/>
     </row>
     <row r="1691" spans="3:12" ht="15" customHeight="1">
-      <c r="C1691" s="16" t="s">
+      <c r="C1691" s="21" t="s">
         <v>851</v>
       </c>
-      <c r="D1691" s="16"/>
-      <c r="E1691" s="16"/>
+      <c r="D1691" s="21"/>
+      <c r="E1691" s="21"/>
       <c r="F1691" s="17" t="s">
         <v>852</v>
       </c>
@@ -21799,11 +22053,11 @@
       <c r="L1691" s="17"/>
     </row>
     <row r="1692" spans="3:12" ht="15" customHeight="1">
-      <c r="C1692" s="16" t="s">
+      <c r="C1692" s="21" t="s">
         <v>853</v>
       </c>
-      <c r="D1692" s="16"/>
-      <c r="E1692" s="16"/>
+      <c r="D1692" s="21"/>
+      <c r="E1692" s="21"/>
       <c r="F1692" s="17" t="s">
         <v>854</v>
       </c>
@@ -21815,11 +22069,11 @@
       <c r="L1692" s="17"/>
     </row>
     <row r="1693" spans="3:12" ht="15" customHeight="1">
-      <c r="C1693" s="16" t="s">
+      <c r="C1693" s="21" t="s">
         <v>855</v>
       </c>
-      <c r="D1693" s="16"/>
-      <c r="E1693" s="16"/>
+      <c r="D1693" s="21"/>
+      <c r="E1693" s="21"/>
       <c r="F1693" s="17" t="s">
         <v>856</v>
       </c>
@@ -21831,11 +22085,11 @@
       <c r="L1693" s="17"/>
     </row>
     <row r="1694" spans="3:12" ht="15" customHeight="1">
-      <c r="C1694" s="16" t="s">
+      <c r="C1694" s="21" t="s">
         <v>857</v>
       </c>
-      <c r="D1694" s="16"/>
-      <c r="E1694" s="16"/>
+      <c r="D1694" s="21"/>
+      <c r="E1694" s="21"/>
       <c r="F1694" s="17" t="s">
         <v>858</v>
       </c>
@@ -21847,11 +22101,11 @@
       <c r="L1694" s="17"/>
     </row>
     <row r="1695" spans="3:12" ht="15" customHeight="1">
-      <c r="C1695" s="16" t="s">
+      <c r="C1695" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="D1695" s="16"/>
-      <c r="E1695" s="16"/>
+      <c r="D1695" s="21"/>
+      <c r="E1695" s="21"/>
       <c r="F1695" s="17" t="s">
         <v>860</v>
       </c>
@@ -21863,11 +22117,11 @@
       <c r="L1695" s="17"/>
     </row>
     <row r="1696" spans="3:12" ht="15" customHeight="1">
-      <c r="C1696" s="16" t="s">
+      <c r="C1696" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="D1696" s="16"/>
-      <c r="E1696" s="16"/>
+      <c r="D1696" s="21"/>
+      <c r="E1696" s="21"/>
       <c r="F1696" s="17" t="s">
         <v>862</v>
       </c>
@@ -21879,11 +22133,11 @@
       <c r="L1696" s="17"/>
     </row>
     <row r="1697" spans="3:12" ht="15" customHeight="1">
-      <c r="C1697" s="16" t="s">
+      <c r="C1697" s="21" t="s">
         <v>863</v>
       </c>
-      <c r="D1697" s="16"/>
-      <c r="E1697" s="16"/>
+      <c r="D1697" s="21"/>
+      <c r="E1697" s="21"/>
       <c r="F1697" s="17" t="s">
         <v>864</v>
       </c>
@@ -21895,11 +22149,11 @@
       <c r="L1697" s="17"/>
     </row>
     <row r="1698" spans="3:12" ht="15" customHeight="1">
-      <c r="C1698" s="16" t="s">
+      <c r="C1698" s="21" t="s">
         <v>865</v>
       </c>
-      <c r="D1698" s="16"/>
-      <c r="E1698" s="16"/>
+      <c r="D1698" s="21"/>
+      <c r="E1698" s="21"/>
       <c r="F1698" s="17" t="s">
         <v>866</v>
       </c>
@@ -21911,11 +22165,11 @@
       <c r="L1698" s="17"/>
     </row>
     <row r="1699" spans="3:12" ht="15" customHeight="1">
-      <c r="C1699" s="16" t="s">
+      <c r="C1699" s="21" t="s">
         <v>867</v>
       </c>
-      <c r="D1699" s="16"/>
-      <c r="E1699" s="16"/>
+      <c r="D1699" s="21"/>
+      <c r="E1699" s="21"/>
       <c r="F1699" s="17" t="s">
         <v>868</v>
       </c>
@@ -21927,11 +22181,11 @@
       <c r="L1699" s="17"/>
     </row>
     <row r="1700" spans="3:12" ht="15" customHeight="1">
-      <c r="C1700" s="16" t="s">
+      <c r="C1700" s="21" t="s">
         <v>869</v>
       </c>
-      <c r="D1700" s="16"/>
-      <c r="E1700" s="16"/>
+      <c r="D1700" s="21"/>
+      <c r="E1700" s="21"/>
       <c r="F1700" s="17" t="s">
         <v>870</v>
       </c>
@@ -21943,11 +22197,11 @@
       <c r="L1700" s="17"/>
     </row>
     <row r="1701" spans="3:12" ht="15" customHeight="1">
-      <c r="C1701" s="16" t="s">
+      <c r="C1701" s="21" t="s">
         <v>871</v>
       </c>
-      <c r="D1701" s="16"/>
-      <c r="E1701" s="16"/>
+      <c r="D1701" s="21"/>
+      <c r="E1701" s="21"/>
       <c r="F1701" s="17" t="s">
         <v>872</v>
       </c>
@@ -21959,25 +22213,25 @@
       <c r="L1701" s="17"/>
     </row>
     <row r="1702" spans="3:12">
-      <c r="C1702" s="23" t="s">
+      <c r="C1702" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="D1702" s="24"/>
-      <c r="E1702" s="24"/>
-      <c r="F1702" s="24"/>
-      <c r="G1702" s="24"/>
-      <c r="H1702" s="24"/>
-      <c r="I1702" s="24"/>
-      <c r="J1702" s="24"/>
-      <c r="K1702" s="24"/>
-      <c r="L1702" s="25"/>
+      <c r="D1702" s="19"/>
+      <c r="E1702" s="19"/>
+      <c r="F1702" s="19"/>
+      <c r="G1702" s="19"/>
+      <c r="H1702" s="19"/>
+      <c r="I1702" s="19"/>
+      <c r="J1702" s="19"/>
+      <c r="K1702" s="19"/>
+      <c r="L1702" s="20"/>
     </row>
     <row r="1703" spans="3:12" ht="15" customHeight="1">
-      <c r="C1703" s="16" t="s">
+      <c r="C1703" s="21" t="s">
         <v>874</v>
       </c>
-      <c r="D1703" s="16"/>
-      <c r="E1703" s="16"/>
+      <c r="D1703" s="21"/>
+      <c r="E1703" s="21"/>
       <c r="F1703" s="17" t="s">
         <v>875</v>
       </c>
@@ -21989,11 +22243,11 @@
       <c r="L1703" s="17"/>
     </row>
     <row r="1704" spans="3:12" ht="15" customHeight="1">
-      <c r="C1704" s="16" t="s">
+      <c r="C1704" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="D1704" s="16"/>
-      <c r="E1704" s="16"/>
+      <c r="D1704" s="21"/>
+      <c r="E1704" s="21"/>
       <c r="F1704" s="17" t="s">
         <v>875</v>
       </c>
@@ -22005,11 +22259,11 @@
       <c r="L1704" s="17"/>
     </row>
     <row r="1705" spans="3:12" ht="15" customHeight="1">
-      <c r="C1705" s="16" t="s">
+      <c r="C1705" s="21" t="s">
         <v>877</v>
       </c>
-      <c r="D1705" s="16"/>
-      <c r="E1705" s="16"/>
+      <c r="D1705" s="21"/>
+      <c r="E1705" s="21"/>
       <c r="F1705" s="17" t="s">
         <v>875</v>
       </c>
@@ -22021,11 +22275,11 @@
       <c r="L1705" s="17"/>
     </row>
     <row r="1706" spans="3:12" ht="15" customHeight="1">
-      <c r="C1706" s="16" t="s">
+      <c r="C1706" s="21" t="s">
         <v>878</v>
       </c>
-      <c r="D1706" s="16"/>
-      <c r="E1706" s="16"/>
+      <c r="D1706" s="21"/>
+      <c r="E1706" s="21"/>
       <c r="F1706" s="17" t="s">
         <v>875</v>
       </c>
@@ -22037,11 +22291,11 @@
       <c r="L1706" s="17"/>
     </row>
     <row r="1707" spans="3:12" ht="15" customHeight="1">
-      <c r="C1707" s="16" t="s">
+      <c r="C1707" s="21" t="s">
         <v>879</v>
       </c>
-      <c r="D1707" s="16"/>
-      <c r="E1707" s="16"/>
+      <c r="D1707" s="21"/>
+      <c r="E1707" s="21"/>
       <c r="F1707" s="17" t="s">
         <v>875</v>
       </c>
@@ -22053,11 +22307,11 @@
       <c r="L1707" s="17"/>
     </row>
     <row r="1708" spans="3:12" ht="15" customHeight="1">
-      <c r="C1708" s="16" t="s">
+      <c r="C1708" s="21" t="s">
         <v>880</v>
       </c>
-      <c r="D1708" s="16"/>
-      <c r="E1708" s="16"/>
+      <c r="D1708" s="21"/>
+      <c r="E1708" s="21"/>
       <c r="F1708" s="17" t="s">
         <v>875</v>
       </c>
@@ -22069,11 +22323,11 @@
       <c r="L1708" s="17"/>
     </row>
     <row r="1709" spans="3:12" ht="15" customHeight="1">
-      <c r="C1709" s="16" t="s">
+      <c r="C1709" s="21" t="s">
         <v>881</v>
       </c>
-      <c r="D1709" s="16"/>
-      <c r="E1709" s="16"/>
+      <c r="D1709" s="21"/>
+      <c r="E1709" s="21"/>
       <c r="F1709" s="17" t="s">
         <v>875</v>
       </c>
@@ -22085,11 +22339,11 @@
       <c r="L1709" s="17"/>
     </row>
     <row r="1710" spans="3:12" ht="15" customHeight="1">
-      <c r="C1710" s="16" t="s">
+      <c r="C1710" s="21" t="s">
         <v>882</v>
       </c>
-      <c r="D1710" s="16"/>
-      <c r="E1710" s="16"/>
+      <c r="D1710" s="21"/>
+      <c r="E1710" s="21"/>
       <c r="F1710" s="17" t="s">
         <v>875</v>
       </c>
@@ -22101,11 +22355,11 @@
       <c r="L1710" s="17"/>
     </row>
     <row r="1711" spans="3:12" ht="15" customHeight="1">
-      <c r="C1711" s="16" t="s">
+      <c r="C1711" s="21" t="s">
         <v>883</v>
       </c>
-      <c r="D1711" s="16"/>
-      <c r="E1711" s="16"/>
+      <c r="D1711" s="21"/>
+      <c r="E1711" s="21"/>
       <c r="F1711" s="17" t="s">
         <v>875</v>
       </c>
@@ -22117,11 +22371,11 @@
       <c r="L1711" s="17"/>
     </row>
     <row r="1712" spans="3:12" ht="15" customHeight="1">
-      <c r="C1712" s="16" t="s">
+      <c r="C1712" s="21" t="s">
         <v>884</v>
       </c>
-      <c r="D1712" s="16"/>
-      <c r="E1712" s="16"/>
+      <c r="D1712" s="21"/>
+      <c r="E1712" s="21"/>
       <c r="F1712" s="17" t="s">
         <v>875</v>
       </c>
@@ -22133,11 +22387,11 @@
       <c r="L1712" s="17"/>
     </row>
     <row r="1713" spans="3:12" ht="15" customHeight="1">
-      <c r="C1713" s="16" t="s">
+      <c r="C1713" s="21" t="s">
         <v>885</v>
       </c>
-      <c r="D1713" s="16"/>
-      <c r="E1713" s="16"/>
+      <c r="D1713" s="21"/>
+      <c r="E1713" s="21"/>
       <c r="F1713" s="17" t="s">
         <v>875</v>
       </c>
@@ -22149,11 +22403,11 @@
       <c r="L1713" s="17"/>
     </row>
     <row r="1714" spans="3:12" ht="15" customHeight="1">
-      <c r="C1714" s="16" t="s">
+      <c r="C1714" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="D1714" s="16"/>
-      <c r="E1714" s="16"/>
+      <c r="D1714" s="21"/>
+      <c r="E1714" s="21"/>
       <c r="F1714" s="17" t="s">
         <v>875</v>
       </c>
@@ -22165,11 +22419,11 @@
       <c r="L1714" s="17"/>
     </row>
     <row r="1715" spans="3:12" ht="15" customHeight="1">
-      <c r="C1715" s="16" t="s">
+      <c r="C1715" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="D1715" s="16"/>
-      <c r="E1715" s="16"/>
+      <c r="D1715" s="21"/>
+      <c r="E1715" s="21"/>
       <c r="F1715" s="17" t="s">
         <v>875</v>
       </c>
@@ -22181,25 +22435,25 @@
       <c r="L1715" s="17"/>
     </row>
     <row r="1716" spans="3:12" ht="15" customHeight="1">
-      <c r="C1716" s="23" t="s">
+      <c r="C1716" s="18" t="s">
         <v>888</v>
       </c>
-      <c r="D1716" s="24"/>
-      <c r="E1716" s="24"/>
-      <c r="F1716" s="24"/>
-      <c r="G1716" s="24"/>
-      <c r="H1716" s="24"/>
-      <c r="I1716" s="24"/>
-      <c r="J1716" s="24"/>
-      <c r="K1716" s="24"/>
-      <c r="L1716" s="25"/>
+      <c r="D1716" s="19"/>
+      <c r="E1716" s="19"/>
+      <c r="F1716" s="19"/>
+      <c r="G1716" s="19"/>
+      <c r="H1716" s="19"/>
+      <c r="I1716" s="19"/>
+      <c r="J1716" s="19"/>
+      <c r="K1716" s="19"/>
+      <c r="L1716" s="20"/>
     </row>
     <row r="1717" spans="3:12" ht="15" customHeight="1">
-      <c r="C1717" s="16" t="s">
+      <c r="C1717" s="21" t="s">
         <v>889</v>
       </c>
-      <c r="D1717" s="16"/>
-      <c r="E1717" s="16"/>
+      <c r="D1717" s="21"/>
+      <c r="E1717" s="21"/>
       <c r="F1717" s="17" t="s">
         <v>890</v>
       </c>
@@ -22211,11 +22465,11 @@
       <c r="L1717" s="17"/>
     </row>
     <row r="1718" spans="3:12" ht="15" customHeight="1">
-      <c r="C1718" s="16" t="s">
+      <c r="C1718" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="D1718" s="16"/>
-      <c r="E1718" s="16"/>
+      <c r="D1718" s="21"/>
+      <c r="E1718" s="21"/>
       <c r="F1718" s="17" t="s">
         <v>892</v>
       </c>
@@ -22227,11 +22481,11 @@
       <c r="L1718" s="17"/>
     </row>
     <row r="1719" spans="3:12" ht="15" customHeight="1">
-      <c r="C1719" s="16" t="s">
+      <c r="C1719" s="21" t="s">
         <v>893</v>
       </c>
-      <c r="D1719" s="16"/>
-      <c r="E1719" s="16"/>
+      <c r="D1719" s="21"/>
+      <c r="E1719" s="21"/>
       <c r="F1719" s="17" t="s">
         <v>894</v>
       </c>
@@ -22243,11 +22497,11 @@
       <c r="L1719" s="17"/>
     </row>
     <row r="1720" spans="3:12" ht="15" customHeight="1">
-      <c r="C1720" s="16" t="s">
+      <c r="C1720" s="21" t="s">
         <v>895</v>
       </c>
-      <c r="D1720" s="16"/>
-      <c r="E1720" s="16"/>
+      <c r="D1720" s="21"/>
+      <c r="E1720" s="21"/>
       <c r="F1720" s="17" t="s">
         <v>896</v>
       </c>
@@ -22259,11 +22513,11 @@
       <c r="L1720" s="17"/>
     </row>
     <row r="1721" spans="3:12" ht="15" customHeight="1">
-      <c r="C1721" s="16" t="s">
+      <c r="C1721" s="21" t="s">
         <v>897</v>
       </c>
-      <c r="D1721" s="16"/>
-      <c r="E1721" s="16"/>
+      <c r="D1721" s="21"/>
+      <c r="E1721" s="21"/>
       <c r="F1721" s="17" t="s">
         <v>898</v>
       </c>
@@ -22275,11 +22529,11 @@
       <c r="L1721" s="17"/>
     </row>
     <row r="1722" spans="3:12" ht="15" customHeight="1">
-      <c r="C1722" s="16" t="s">
+      <c r="C1722" s="21" t="s">
         <v>899</v>
       </c>
-      <c r="D1722" s="16"/>
-      <c r="E1722" s="16"/>
+      <c r="D1722" s="21"/>
+      <c r="E1722" s="21"/>
       <c r="F1722" s="17" t="s">
         <v>900</v>
       </c>
@@ -22291,11 +22545,11 @@
       <c r="L1722" s="17"/>
     </row>
     <row r="1723" spans="3:12" ht="15" customHeight="1">
-      <c r="C1723" s="16" t="s">
+      <c r="C1723" s="21" t="s">
         <v>901</v>
       </c>
-      <c r="D1723" s="16"/>
-      <c r="E1723" s="16"/>
+      <c r="D1723" s="21"/>
+      <c r="E1723" s="21"/>
       <c r="F1723" s="17" t="s">
         <v>902</v>
       </c>
@@ -22307,11 +22561,11 @@
       <c r="L1723" s="17"/>
     </row>
     <row r="1724" spans="3:12" ht="15" customHeight="1">
-      <c r="C1724" s="16" t="s">
+      <c r="C1724" s="21" t="s">
         <v>903</v>
       </c>
-      <c r="D1724" s="16"/>
-      <c r="E1724" s="16"/>
+      <c r="D1724" s="21"/>
+      <c r="E1724" s="21"/>
       <c r="F1724" s="17" t="s">
         <v>904</v>
       </c>
@@ -22323,11 +22577,11 @@
       <c r="L1724" s="17"/>
     </row>
     <row r="1725" spans="3:12" ht="15" customHeight="1">
-      <c r="C1725" s="16" t="s">
+      <c r="C1725" s="21" t="s">
         <v>905</v>
       </c>
-      <c r="D1725" s="16"/>
-      <c r="E1725" s="16"/>
+      <c r="D1725" s="21"/>
+      <c r="E1725" s="21"/>
       <c r="F1725" s="17" t="s">
         <v>906</v>
       </c>
@@ -22339,11 +22593,11 @@
       <c r="L1725" s="17"/>
     </row>
     <row r="1726" spans="3:12" ht="15" customHeight="1">
-      <c r="C1726" s="16" t="s">
+      <c r="C1726" s="21" t="s">
         <v>907</v>
       </c>
-      <c r="D1726" s="16"/>
-      <c r="E1726" s="16"/>
+      <c r="D1726" s="21"/>
+      <c r="E1726" s="21"/>
       <c r="F1726" s="17" t="s">
         <v>908</v>
       </c>
@@ -22355,11 +22609,11 @@
       <c r="L1726" s="17"/>
     </row>
     <row r="1727" spans="3:12" ht="15" customHeight="1">
-      <c r="C1727" s="16" t="s">
+      <c r="C1727" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="D1727" s="16"/>
-      <c r="E1727" s="16"/>
+      <c r="D1727" s="21"/>
+      <c r="E1727" s="21"/>
       <c r="F1727" s="17" t="s">
         <v>910</v>
       </c>
@@ -22371,11 +22625,11 @@
       <c r="L1727" s="17"/>
     </row>
     <row r="1728" spans="3:12" ht="15" customHeight="1">
-      <c r="C1728" s="16" t="s">
+      <c r="C1728" s="21" t="s">
         <v>911</v>
       </c>
-      <c r="D1728" s="16"/>
-      <c r="E1728" s="16"/>
+      <c r="D1728" s="21"/>
+      <c r="E1728" s="21"/>
       <c r="F1728" s="17" t="s">
         <v>912</v>
       </c>
@@ -22387,25 +22641,25 @@
       <c r="L1728" s="17"/>
     </row>
     <row r="1729" spans="3:12" ht="15" customHeight="1">
-      <c r="C1729" s="23" t="s">
+      <c r="C1729" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="D1729" s="24"/>
-      <c r="E1729" s="24"/>
-      <c r="F1729" s="24"/>
-      <c r="G1729" s="24"/>
-      <c r="H1729" s="24"/>
-      <c r="I1729" s="24"/>
-      <c r="J1729" s="24"/>
-      <c r="K1729" s="24"/>
-      <c r="L1729" s="25"/>
+      <c r="D1729" s="19"/>
+      <c r="E1729" s="19"/>
+      <c r="F1729" s="19"/>
+      <c r="G1729" s="19"/>
+      <c r="H1729" s="19"/>
+      <c r="I1729" s="19"/>
+      <c r="J1729" s="19"/>
+      <c r="K1729" s="19"/>
+      <c r="L1729" s="20"/>
     </row>
     <row r="1730" spans="3:12" ht="15" customHeight="1">
-      <c r="C1730" s="16" t="s">
+      <c r="C1730" s="21" t="s">
         <v>914</v>
       </c>
-      <c r="D1730" s="16"/>
-      <c r="E1730" s="16"/>
+      <c r="D1730" s="21"/>
+      <c r="E1730" s="21"/>
       <c r="F1730" s="17" t="s">
         <v>915</v>
       </c>
@@ -22417,11 +22671,11 @@
       <c r="L1730" s="17"/>
     </row>
     <row r="1731" spans="3:12" ht="15" customHeight="1">
-      <c r="C1731" s="16" t="s">
+      <c r="C1731" s="21" t="s">
         <v>916</v>
       </c>
-      <c r="D1731" s="16"/>
-      <c r="E1731" s="16"/>
+      <c r="D1731" s="21"/>
+      <c r="E1731" s="21"/>
       <c r="F1731" s="17" t="s">
         <v>917</v>
       </c>
@@ -22433,11 +22687,11 @@
       <c r="L1731" s="17"/>
     </row>
     <row r="1732" spans="3:12" ht="15" customHeight="1">
-      <c r="C1732" s="16" t="s">
+      <c r="C1732" s="21" t="s">
         <v>918</v>
       </c>
-      <c r="D1732" s="16"/>
-      <c r="E1732" s="16"/>
+      <c r="D1732" s="21"/>
+      <c r="E1732" s="21"/>
       <c r="F1732" s="17" t="s">
         <v>919</v>
       </c>
@@ -22449,11 +22703,11 @@
       <c r="L1732" s="17"/>
     </row>
     <row r="1733" spans="3:12" ht="15" customHeight="1">
-      <c r="C1733" s="16" t="s">
+      <c r="C1733" s="21" t="s">
         <v>920</v>
       </c>
-      <c r="D1733" s="16"/>
-      <c r="E1733" s="16"/>
+      <c r="D1733" s="21"/>
+      <c r="E1733" s="21"/>
       <c r="F1733" s="17" t="s">
         <v>921</v>
       </c>
@@ -22465,25 +22719,25 @@
       <c r="L1733" s="17"/>
     </row>
     <row r="1734" spans="3:12" ht="15" customHeight="1">
-      <c r="C1734" s="23" t="s">
+      <c r="C1734" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D1734" s="24"/>
-      <c r="E1734" s="24"/>
-      <c r="F1734" s="24"/>
-      <c r="G1734" s="24"/>
-      <c r="H1734" s="24"/>
-      <c r="I1734" s="24"/>
-      <c r="J1734" s="24"/>
-      <c r="K1734" s="24"/>
-      <c r="L1734" s="25"/>
+      <c r="D1734" s="19"/>
+      <c r="E1734" s="19"/>
+      <c r="F1734" s="19"/>
+      <c r="G1734" s="19"/>
+      <c r="H1734" s="19"/>
+      <c r="I1734" s="19"/>
+      <c r="J1734" s="19"/>
+      <c r="K1734" s="19"/>
+      <c r="L1734" s="20"/>
     </row>
     <row r="1735" spans="3:12" ht="15" customHeight="1">
-      <c r="C1735" s="16" t="s">
+      <c r="C1735" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="D1735" s="16"/>
-      <c r="E1735" s="16"/>
+      <c r="D1735" s="21"/>
+      <c r="E1735" s="21"/>
       <c r="F1735" s="17" t="s">
         <v>923</v>
       </c>
@@ -22495,11 +22749,11 @@
       <c r="L1735" s="17"/>
     </row>
     <row r="1736" spans="3:12" ht="15" customHeight="1">
-      <c r="C1736" s="16" t="s">
+      <c r="C1736" s="21" t="s">
         <v>924</v>
       </c>
-      <c r="D1736" s="16"/>
-      <c r="E1736" s="16"/>
+      <c r="D1736" s="21"/>
+      <c r="E1736" s="21"/>
       <c r="F1736" s="17" t="s">
         <v>925</v>
       </c>
@@ -22511,11 +22765,11 @@
       <c r="L1736" s="17"/>
     </row>
     <row r="1737" spans="3:12" ht="15" customHeight="1">
-      <c r="C1737" s="16" t="s">
+      <c r="C1737" s="21" t="s">
         <v>926</v>
       </c>
-      <c r="D1737" s="16"/>
-      <c r="E1737" s="16"/>
+      <c r="D1737" s="21"/>
+      <c r="E1737" s="21"/>
       <c r="F1737" s="17" t="s">
         <v>927</v>
       </c>
@@ -22527,11 +22781,11 @@
       <c r="L1737" s="17"/>
     </row>
     <row r="1738" spans="3:12" ht="15" customHeight="1">
-      <c r="C1738" s="16" t="s">
+      <c r="C1738" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D1738" s="16"/>
-      <c r="E1738" s="16"/>
+      <c r="D1738" s="21"/>
+      <c r="E1738" s="21"/>
       <c r="F1738" s="17" t="s">
         <v>929</v>
       </c>
@@ -22543,11 +22797,11 @@
       <c r="L1738" s="17"/>
     </row>
     <row r="1739" spans="3:12" ht="15" customHeight="1">
-      <c r="C1739" s="16" t="s">
+      <c r="C1739" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="D1739" s="16"/>
-      <c r="E1739" s="16"/>
+      <c r="D1739" s="21"/>
+      <c r="E1739" s="21"/>
       <c r="F1739" s="17" t="s">
         <v>931</v>
       </c>
@@ -22559,9 +22813,9 @@
       <c r="L1739" s="17"/>
     </row>
     <row r="1740" spans="3:12" ht="15" customHeight="1">
-      <c r="C1740" s="16"/>
-      <c r="D1740" s="16"/>
-      <c r="E1740" s="16"/>
+      <c r="C1740" s="21"/>
+      <c r="D1740" s="21"/>
+      <c r="E1740" s="21"/>
       <c r="F1740" s="17" t="s">
         <v>932</v>
       </c>
@@ -22573,9 +22827,9 @@
       <c r="L1740" s="17"/>
     </row>
     <row r="1741" spans="3:12" ht="15" customHeight="1">
-      <c r="C1741" s="16"/>
-      <c r="D1741" s="16"/>
-      <c r="E1741" s="16"/>
+      <c r="C1741" s="21"/>
+      <c r="D1741" s="21"/>
+      <c r="E1741" s="21"/>
       <c r="F1741" s="17" t="s">
         <v>933</v>
       </c>
@@ -22587,9 +22841,9 @@
       <c r="L1741" s="17"/>
     </row>
     <row r="1742" spans="3:12" ht="15" customHeight="1">
-      <c r="C1742" s="16"/>
-      <c r="D1742" s="16"/>
-      <c r="E1742" s="16"/>
+      <c r="C1742" s="21"/>
+      <c r="D1742" s="21"/>
+      <c r="E1742" s="21"/>
       <c r="F1742" s="17" t="s">
         <v>934</v>
       </c>
@@ -22601,11 +22855,11 @@
       <c r="L1742" s="17"/>
     </row>
     <row r="1743" spans="3:12" ht="15" customHeight="1">
-      <c r="C1743" s="16" t="s">
+      <c r="C1743" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="D1743" s="16"/>
-      <c r="E1743" s="16"/>
+      <c r="D1743" s="21"/>
+      <c r="E1743" s="21"/>
       <c r="F1743" s="17" t="s">
         <v>936</v>
       </c>
@@ -22617,9 +22871,9 @@
       <c r="L1743" s="17"/>
     </row>
     <row r="1744" spans="3:12" ht="15" customHeight="1">
-      <c r="C1744" s="16"/>
-      <c r="D1744" s="16"/>
-      <c r="E1744" s="16"/>
+      <c r="C1744" s="21"/>
+      <c r="D1744" s="21"/>
+      <c r="E1744" s="21"/>
       <c r="F1744" s="17" t="s">
         <v>937</v>
       </c>
@@ -22631,11 +22885,11 @@
       <c r="L1744" s="17"/>
     </row>
     <row r="1745" spans="3:12" ht="15" customHeight="1">
-      <c r="C1745" s="16" t="s">
+      <c r="C1745" s="21" t="s">
         <v>938</v>
       </c>
-      <c r="D1745" s="16"/>
-      <c r="E1745" s="16"/>
+      <c r="D1745" s="21"/>
+      <c r="E1745" s="21"/>
       <c r="F1745" s="17" t="s">
         <v>939</v>
       </c>
@@ -22647,9 +22901,9 @@
       <c r="L1745" s="17"/>
     </row>
     <row r="1746" spans="3:12" ht="15" customHeight="1">
-      <c r="C1746" s="16"/>
-      <c r="D1746" s="16"/>
-      <c r="E1746" s="16"/>
+      <c r="C1746" s="21"/>
+      <c r="D1746" s="21"/>
+      <c r="E1746" s="21"/>
       <c r="F1746" s="17" t="s">
         <v>940</v>
       </c>
@@ -22661,25 +22915,25 @@
       <c r="L1746" s="17"/>
     </row>
     <row r="1747" spans="3:12" ht="15" customHeight="1">
-      <c r="C1747" s="23" t="s">
+      <c r="C1747" s="18" t="s">
         <v>941</v>
       </c>
-      <c r="D1747" s="24"/>
-      <c r="E1747" s="24"/>
-      <c r="F1747" s="24"/>
-      <c r="G1747" s="24"/>
-      <c r="H1747" s="24"/>
-      <c r="I1747" s="24"/>
-      <c r="J1747" s="24"/>
-      <c r="K1747" s="24"/>
-      <c r="L1747" s="25"/>
+      <c r="D1747" s="19"/>
+      <c r="E1747" s="19"/>
+      <c r="F1747" s="19"/>
+      <c r="G1747" s="19"/>
+      <c r="H1747" s="19"/>
+      <c r="I1747" s="19"/>
+      <c r="J1747" s="19"/>
+      <c r="K1747" s="19"/>
+      <c r="L1747" s="20"/>
     </row>
     <row r="1748" spans="3:12" ht="15" customHeight="1">
-      <c r="C1748" s="16" t="s">
+      <c r="C1748" s="21" t="s">
         <v>802</v>
       </c>
-      <c r="D1748" s="16"/>
-      <c r="E1748" s="16"/>
+      <c r="D1748" s="21"/>
+      <c r="E1748" s="21"/>
       <c r="F1748" s="17" t="s">
         <v>942</v>
       </c>
@@ -22691,11 +22945,11 @@
       <c r="L1748" s="17"/>
     </row>
     <row r="1749" spans="3:12" ht="15" customHeight="1">
-      <c r="C1749" s="16" t="s">
+      <c r="C1749" s="21" t="s">
         <v>943</v>
       </c>
-      <c r="D1749" s="16"/>
-      <c r="E1749" s="16"/>
+      <c r="D1749" s="21"/>
+      <c r="E1749" s="21"/>
       <c r="F1749" s="17" t="s">
         <v>944</v>
       </c>
@@ -22707,11 +22961,11 @@
       <c r="L1749" s="17"/>
     </row>
     <row r="1750" spans="3:12" ht="15" customHeight="1">
-      <c r="C1750" s="16" t="s">
+      <c r="C1750" s="21" t="s">
         <v>945</v>
       </c>
-      <c r="D1750" s="16"/>
-      <c r="E1750" s="16"/>
+      <c r="D1750" s="21"/>
+      <c r="E1750" s="21"/>
       <c r="F1750" s="17" t="s">
         <v>946</v>
       </c>
@@ -22723,11 +22977,11 @@
       <c r="L1750" s="17"/>
     </row>
     <row r="1751" spans="3:12" ht="15" customHeight="1">
-      <c r="C1751" s="16" t="s">
+      <c r="C1751" s="21" t="s">
         <v>947</v>
       </c>
-      <c r="D1751" s="16"/>
-      <c r="E1751" s="16"/>
+      <c r="D1751" s="21"/>
+      <c r="E1751" s="21"/>
       <c r="F1751" s="17" t="s">
         <v>948</v>
       </c>
@@ -22739,11 +22993,11 @@
       <c r="L1751" s="17"/>
     </row>
     <row r="1752" spans="3:12" ht="15" customHeight="1">
-      <c r="C1752" s="16" t="s">
+      <c r="C1752" s="21" t="s">
         <v>949</v>
       </c>
-      <c r="D1752" s="16"/>
-      <c r="E1752" s="16"/>
+      <c r="D1752" s="21"/>
+      <c r="E1752" s="21"/>
       <c r="F1752" s="17" t="s">
         <v>950</v>
       </c>
@@ -22755,11 +23009,11 @@
       <c r="L1752" s="17"/>
     </row>
     <row r="1753" spans="3:12" ht="15" customHeight="1">
-      <c r="C1753" s="16" t="s">
+      <c r="C1753" s="21" t="s">
         <v>951</v>
       </c>
-      <c r="D1753" s="16"/>
-      <c r="E1753" s="16"/>
+      <c r="D1753" s="21"/>
+      <c r="E1753" s="21"/>
       <c r="F1753" s="17" t="s">
         <v>952</v>
       </c>
@@ -22771,11 +23025,11 @@
       <c r="L1753" s="17"/>
     </row>
     <row r="1754" spans="3:12" ht="15" customHeight="1">
-      <c r="C1754" s="16" t="s">
+      <c r="C1754" s="21" t="s">
         <v>953</v>
       </c>
-      <c r="D1754" s="16"/>
-      <c r="E1754" s="16"/>
+      <c r="D1754" s="21"/>
+      <c r="E1754" s="21"/>
       <c r="F1754" s="17" t="s">
         <v>954</v>
       </c>
@@ -22788,6 +23042,483 @@
     </row>
   </sheetData>
   <mergeCells count="501">
+    <mergeCell ref="B1240:D1240"/>
+    <mergeCell ref="E1240:K1240"/>
+    <mergeCell ref="B1235:D1235"/>
+    <mergeCell ref="E1235:K1235"/>
+    <mergeCell ref="B1236:D1236"/>
+    <mergeCell ref="E1236:K1236"/>
+    <mergeCell ref="B1237:D1237"/>
+    <mergeCell ref="E1237:K1237"/>
+    <mergeCell ref="B1238:D1238"/>
+    <mergeCell ref="E1238:K1238"/>
+    <mergeCell ref="B1239:D1239"/>
+    <mergeCell ref="E1239:K1239"/>
+    <mergeCell ref="B1230:D1230"/>
+    <mergeCell ref="E1230:K1230"/>
+    <mergeCell ref="B1231:D1231"/>
+    <mergeCell ref="E1231:K1231"/>
+    <mergeCell ref="B1232:D1232"/>
+    <mergeCell ref="E1232:K1232"/>
+    <mergeCell ref="B1233:D1233"/>
+    <mergeCell ref="E1233:K1233"/>
+    <mergeCell ref="B1234:D1234"/>
+    <mergeCell ref="E1234:K1234"/>
+    <mergeCell ref="B1225:D1225"/>
+    <mergeCell ref="E1225:K1225"/>
+    <mergeCell ref="B1226:D1226"/>
+    <mergeCell ref="E1226:K1226"/>
+    <mergeCell ref="B1227:D1227"/>
+    <mergeCell ref="E1227:K1227"/>
+    <mergeCell ref="B1228:D1228"/>
+    <mergeCell ref="E1228:K1228"/>
+    <mergeCell ref="B1229:D1229"/>
+    <mergeCell ref="E1229:K1229"/>
+    <mergeCell ref="B1220:D1220"/>
+    <mergeCell ref="E1220:K1220"/>
+    <mergeCell ref="B1221:D1221"/>
+    <mergeCell ref="E1221:K1221"/>
+    <mergeCell ref="B1222:D1222"/>
+    <mergeCell ref="E1222:K1222"/>
+    <mergeCell ref="B1223:D1223"/>
+    <mergeCell ref="E1223:K1223"/>
+    <mergeCell ref="B1224:D1224"/>
+    <mergeCell ref="E1224:K1224"/>
+    <mergeCell ref="B1215:D1215"/>
+    <mergeCell ref="E1215:K1215"/>
+    <mergeCell ref="B1216:D1216"/>
+    <mergeCell ref="E1216:K1216"/>
+    <mergeCell ref="B1217:D1217"/>
+    <mergeCell ref="E1217:K1217"/>
+    <mergeCell ref="B1218:D1218"/>
+    <mergeCell ref="E1218:K1218"/>
+    <mergeCell ref="B1219:D1219"/>
+    <mergeCell ref="E1219:K1219"/>
+    <mergeCell ref="B1210:D1210"/>
+    <mergeCell ref="E1210:K1210"/>
+    <mergeCell ref="B1211:D1211"/>
+    <mergeCell ref="E1211:K1211"/>
+    <mergeCell ref="B1212:D1212"/>
+    <mergeCell ref="E1212:K1212"/>
+    <mergeCell ref="B1213:D1213"/>
+    <mergeCell ref="E1213:K1213"/>
+    <mergeCell ref="B1214:D1214"/>
+    <mergeCell ref="E1214:K1214"/>
+    <mergeCell ref="B1149:D1149"/>
+    <mergeCell ref="E1149:K1149"/>
+    <mergeCell ref="B1150:D1150"/>
+    <mergeCell ref="E1150:K1150"/>
+    <mergeCell ref="B1151:D1151"/>
+    <mergeCell ref="E1151:K1151"/>
+    <mergeCell ref="B1152:D1152"/>
+    <mergeCell ref="E1152:K1152"/>
+    <mergeCell ref="B1144:D1144"/>
+    <mergeCell ref="E1144:K1144"/>
+    <mergeCell ref="B1145:D1145"/>
+    <mergeCell ref="E1145:K1145"/>
+    <mergeCell ref="B1146:D1146"/>
+    <mergeCell ref="E1146:K1146"/>
+    <mergeCell ref="B1147:D1147"/>
+    <mergeCell ref="E1147:K1147"/>
+    <mergeCell ref="B1148:D1148"/>
+    <mergeCell ref="E1148:K1148"/>
+    <mergeCell ref="B1137:D1137"/>
+    <mergeCell ref="E1137:K1137"/>
+    <mergeCell ref="B1138:D1138"/>
+    <mergeCell ref="E1138:K1138"/>
+    <mergeCell ref="B1139:D1139"/>
+    <mergeCell ref="E1139:K1139"/>
+    <mergeCell ref="B1140:D1140"/>
+    <mergeCell ref="E1140:K1140"/>
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="E446:K446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="E447:K447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="E448:K448"/>
+    <mergeCell ref="B1132:D1132"/>
+    <mergeCell ref="E1132:K1132"/>
+    <mergeCell ref="B1133:D1133"/>
+    <mergeCell ref="E1133:K1133"/>
+    <mergeCell ref="B1134:D1134"/>
+    <mergeCell ref="E1134:K1134"/>
+    <mergeCell ref="B1135:D1135"/>
+    <mergeCell ref="E1135:K1135"/>
+    <mergeCell ref="B1136:D1136"/>
+    <mergeCell ref="E1136:K1136"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:K443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:K444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:K445"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:K440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:K441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:K442"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:K437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:K438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:K439"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:K430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:K431"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:K436"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:K426"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:K435"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:K427"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="E428:K428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:K429"/>
+    <mergeCell ref="E418:K418"/>
+    <mergeCell ref="E419:K419"/>
+    <mergeCell ref="E420:K420"/>
+    <mergeCell ref="E421:K421"/>
+    <mergeCell ref="E422:K422"/>
+    <mergeCell ref="E411:K411"/>
+    <mergeCell ref="E412:K412"/>
+    <mergeCell ref="E413:K413"/>
+    <mergeCell ref="E414:K414"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E380:K380"/>
+    <mergeCell ref="E381:K381"/>
+    <mergeCell ref="E364:K364"/>
+    <mergeCell ref="E365:K365"/>
+    <mergeCell ref="E366:K366"/>
+    <mergeCell ref="E367:K367"/>
+    <mergeCell ref="E368:K368"/>
+    <mergeCell ref="E369:K369"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="E415:K415"/>
+    <mergeCell ref="E416:K416"/>
+    <mergeCell ref="E417:K417"/>
+    <mergeCell ref="E385:K385"/>
+    <mergeCell ref="E370:K370"/>
+    <mergeCell ref="E371:K371"/>
+    <mergeCell ref="E372:K372"/>
+    <mergeCell ref="E373:K373"/>
+    <mergeCell ref="E382:K382"/>
+    <mergeCell ref="E383:K383"/>
+    <mergeCell ref="E384:K384"/>
+    <mergeCell ref="E376:K376"/>
+    <mergeCell ref="E377:K377"/>
+    <mergeCell ref="E378:K378"/>
+    <mergeCell ref="E379:K379"/>
+    <mergeCell ref="E360:K360"/>
+    <mergeCell ref="E361:K361"/>
+    <mergeCell ref="E350:K350"/>
+    <mergeCell ref="E351:K351"/>
+    <mergeCell ref="E352:K352"/>
+    <mergeCell ref="E353:K353"/>
+    <mergeCell ref="E354:K354"/>
+    <mergeCell ref="E355:K355"/>
+    <mergeCell ref="E356:K356"/>
+    <mergeCell ref="E357:K357"/>
+    <mergeCell ref="E358:K358"/>
+    <mergeCell ref="E359:K359"/>
+    <mergeCell ref="E386:K386"/>
+    <mergeCell ref="E387:K387"/>
+    <mergeCell ref="E374:K374"/>
+    <mergeCell ref="E375:K375"/>
+    <mergeCell ref="E362:K362"/>
+    <mergeCell ref="E363:K363"/>
+    <mergeCell ref="B386:D386"/>
+    <mergeCell ref="B387:D387"/>
+    <mergeCell ref="B380:D380"/>
+    <mergeCell ref="B381:D381"/>
+    <mergeCell ref="B382:D382"/>
+    <mergeCell ref="B383:D383"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="B385:D385"/>
+    <mergeCell ref="B374:D374"/>
+    <mergeCell ref="B375:D375"/>
+    <mergeCell ref="B376:D376"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B378:D378"/>
+    <mergeCell ref="B379:D379"/>
+    <mergeCell ref="B368:D368"/>
+    <mergeCell ref="B369:D369"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B1185:D1185"/>
+    <mergeCell ref="E1185:K1185"/>
+    <mergeCell ref="B1186:D1186"/>
+    <mergeCell ref="E1186:K1186"/>
+    <mergeCell ref="B1187:D1187"/>
+    <mergeCell ref="E1187:K1187"/>
+    <mergeCell ref="B1188:D1188"/>
+    <mergeCell ref="E1188:K1188"/>
+    <mergeCell ref="B1189:D1189"/>
+    <mergeCell ref="E1189:K1189"/>
+    <mergeCell ref="B1195:D1195"/>
+    <mergeCell ref="E1195:K1195"/>
+    <mergeCell ref="B1196:D1196"/>
+    <mergeCell ref="E1196:K1196"/>
+    <mergeCell ref="B1197:D1197"/>
+    <mergeCell ref="E1197:K1197"/>
+    <mergeCell ref="B1198:D1198"/>
+    <mergeCell ref="E1198:K1198"/>
+    <mergeCell ref="E1190:K1190"/>
+    <mergeCell ref="B1192:D1192"/>
+    <mergeCell ref="E1192:K1192"/>
+    <mergeCell ref="B1193:D1193"/>
+    <mergeCell ref="E1193:K1193"/>
+    <mergeCell ref="B1194:D1194"/>
+    <mergeCell ref="E1194:K1194"/>
+    <mergeCell ref="B1190:D1190"/>
+    <mergeCell ref="E1159:K1159"/>
+    <mergeCell ref="B1160:D1160"/>
+    <mergeCell ref="E1160:K1160"/>
+    <mergeCell ref="B1161:D1161"/>
+    <mergeCell ref="E1161:K1161"/>
+    <mergeCell ref="B1162:D1162"/>
+    <mergeCell ref="E1162:K1162"/>
+    <mergeCell ref="B1163:D1163"/>
+    <mergeCell ref="E1163:K1163"/>
+    <mergeCell ref="B1159:D1159"/>
+    <mergeCell ref="B1164:D1164"/>
+    <mergeCell ref="E1164:K1164"/>
+    <mergeCell ref="B1165:D1165"/>
+    <mergeCell ref="E1165:K1165"/>
+    <mergeCell ref="B1166:D1166"/>
+    <mergeCell ref="E1166:K1166"/>
+    <mergeCell ref="B1167:D1167"/>
+    <mergeCell ref="E1167:K1167"/>
+    <mergeCell ref="B1168:D1168"/>
+    <mergeCell ref="E1168:K1168"/>
+    <mergeCell ref="B1174:D1174"/>
+    <mergeCell ref="E1174:K1174"/>
+    <mergeCell ref="B1175:D1175"/>
+    <mergeCell ref="E1175:K1175"/>
+    <mergeCell ref="B1176:D1176"/>
+    <mergeCell ref="E1176:K1176"/>
+    <mergeCell ref="B1171:K1171"/>
+    <mergeCell ref="B1191:K1191"/>
+    <mergeCell ref="B1169:D1169"/>
+    <mergeCell ref="E1169:K1169"/>
+    <mergeCell ref="B1170:D1170"/>
+    <mergeCell ref="E1170:K1170"/>
+    <mergeCell ref="B1172:D1172"/>
+    <mergeCell ref="E1172:K1172"/>
+    <mergeCell ref="B1173:D1173"/>
+    <mergeCell ref="E1173:K1173"/>
+    <mergeCell ref="B1181:D1181"/>
+    <mergeCell ref="E1181:K1181"/>
+    <mergeCell ref="B1182:D1182"/>
+    <mergeCell ref="E1182:K1182"/>
+    <mergeCell ref="B1183:D1183"/>
+    <mergeCell ref="E1183:K1183"/>
+    <mergeCell ref="B1184:D1184"/>
+    <mergeCell ref="E1184:K1184"/>
+    <mergeCell ref="C1664:E1664"/>
+    <mergeCell ref="C1665:E1665"/>
+    <mergeCell ref="C1666:E1666"/>
+    <mergeCell ref="C1667:E1667"/>
+    <mergeCell ref="C1668:E1668"/>
+    <mergeCell ref="C1654:E1654"/>
+    <mergeCell ref="F1654:L1654"/>
+    <mergeCell ref="C1655:E1655"/>
+    <mergeCell ref="F1655:L1655"/>
+    <mergeCell ref="C1656:E1656"/>
+    <mergeCell ref="F1656:L1656"/>
+    <mergeCell ref="C1658:E1658"/>
+    <mergeCell ref="F1658:L1658"/>
+    <mergeCell ref="C1659:E1659"/>
+    <mergeCell ref="F1659:L1659"/>
+    <mergeCell ref="C1660:E1660"/>
+    <mergeCell ref="F1660:L1660"/>
+    <mergeCell ref="C1661:E1661"/>
+    <mergeCell ref="F1661:L1661"/>
+    <mergeCell ref="C1662:E1662"/>
+    <mergeCell ref="C1663:E1663"/>
+    <mergeCell ref="C1674:E1674"/>
+    <mergeCell ref="C1675:E1675"/>
+    <mergeCell ref="C1676:E1676"/>
+    <mergeCell ref="C1677:E1677"/>
+    <mergeCell ref="C1678:E1678"/>
+    <mergeCell ref="C1669:E1669"/>
+    <mergeCell ref="C1670:E1670"/>
+    <mergeCell ref="C1671:E1671"/>
+    <mergeCell ref="C1673:E1673"/>
+    <mergeCell ref="C1684:E1684"/>
+    <mergeCell ref="C1685:E1685"/>
+    <mergeCell ref="C1686:E1686"/>
+    <mergeCell ref="C1687:E1687"/>
+    <mergeCell ref="F1684:L1684"/>
+    <mergeCell ref="F1685:L1685"/>
+    <mergeCell ref="F1686:L1686"/>
+    <mergeCell ref="F1687:L1687"/>
+    <mergeCell ref="C1679:E1679"/>
+    <mergeCell ref="C1680:E1680"/>
+    <mergeCell ref="C1682:E1682"/>
+    <mergeCell ref="C1683:E1683"/>
+    <mergeCell ref="C1689:E1689"/>
+    <mergeCell ref="C1690:E1690"/>
+    <mergeCell ref="C1691:E1691"/>
+    <mergeCell ref="C1692:E1692"/>
+    <mergeCell ref="C1693:E1693"/>
+    <mergeCell ref="F1689:L1689"/>
+    <mergeCell ref="F1690:L1690"/>
+    <mergeCell ref="F1691:L1691"/>
+    <mergeCell ref="F1692:L1692"/>
+    <mergeCell ref="F1693:L1693"/>
+    <mergeCell ref="C1699:E1699"/>
+    <mergeCell ref="C1700:E1700"/>
+    <mergeCell ref="C1701:E1701"/>
+    <mergeCell ref="C1703:E1703"/>
+    <mergeCell ref="F1699:L1699"/>
+    <mergeCell ref="F1700:L1700"/>
+    <mergeCell ref="F1701:L1701"/>
+    <mergeCell ref="F1703:L1703"/>
+    <mergeCell ref="C1694:E1694"/>
+    <mergeCell ref="C1695:E1695"/>
+    <mergeCell ref="C1696:E1696"/>
+    <mergeCell ref="C1697:E1697"/>
+    <mergeCell ref="C1698:E1698"/>
+    <mergeCell ref="F1694:L1694"/>
+    <mergeCell ref="F1695:L1695"/>
+    <mergeCell ref="F1696:L1696"/>
+    <mergeCell ref="F1697:L1697"/>
+    <mergeCell ref="F1698:L1698"/>
+    <mergeCell ref="C1704:E1704"/>
+    <mergeCell ref="C1705:E1705"/>
+    <mergeCell ref="C1706:E1706"/>
+    <mergeCell ref="C1707:E1707"/>
+    <mergeCell ref="C1708:E1708"/>
+    <mergeCell ref="F1704:L1704"/>
+    <mergeCell ref="F1705:L1705"/>
+    <mergeCell ref="F1706:L1706"/>
+    <mergeCell ref="F1707:L1707"/>
+    <mergeCell ref="F1708:L1708"/>
+    <mergeCell ref="C1714:E1714"/>
+    <mergeCell ref="C1715:E1715"/>
+    <mergeCell ref="C1717:E1717"/>
+    <mergeCell ref="C1718:E1718"/>
+    <mergeCell ref="F1714:L1714"/>
+    <mergeCell ref="F1715:L1715"/>
+    <mergeCell ref="F1717:L1717"/>
+    <mergeCell ref="F1718:L1718"/>
+    <mergeCell ref="C1709:E1709"/>
+    <mergeCell ref="C1710:E1710"/>
+    <mergeCell ref="C1711:E1711"/>
+    <mergeCell ref="C1712:E1712"/>
+    <mergeCell ref="C1713:E1713"/>
+    <mergeCell ref="F1709:L1709"/>
+    <mergeCell ref="F1710:L1710"/>
+    <mergeCell ref="F1711:L1711"/>
+    <mergeCell ref="F1712:L1712"/>
+    <mergeCell ref="F1713:L1713"/>
+    <mergeCell ref="C1719:E1719"/>
+    <mergeCell ref="C1720:E1720"/>
+    <mergeCell ref="C1721:E1721"/>
+    <mergeCell ref="C1722:E1722"/>
+    <mergeCell ref="C1723:E1723"/>
+    <mergeCell ref="F1719:L1719"/>
+    <mergeCell ref="F1720:L1720"/>
+    <mergeCell ref="F1721:L1721"/>
+    <mergeCell ref="F1722:L1722"/>
+    <mergeCell ref="F1723:L1723"/>
+    <mergeCell ref="C1724:E1724"/>
+    <mergeCell ref="C1725:E1725"/>
+    <mergeCell ref="C1726:E1726"/>
+    <mergeCell ref="C1727:E1727"/>
+    <mergeCell ref="C1728:E1728"/>
+    <mergeCell ref="F1724:L1724"/>
+    <mergeCell ref="F1725:L1725"/>
+    <mergeCell ref="F1726:L1726"/>
+    <mergeCell ref="F1727:L1727"/>
+    <mergeCell ref="F1728:L1728"/>
+    <mergeCell ref="F1736:L1736"/>
+    <mergeCell ref="F1737:L1737"/>
+    <mergeCell ref="F1738:L1738"/>
+    <mergeCell ref="C1730:E1730"/>
+    <mergeCell ref="C1731:E1731"/>
+    <mergeCell ref="C1732:E1732"/>
+    <mergeCell ref="C1733:E1733"/>
+    <mergeCell ref="F1730:L1730"/>
+    <mergeCell ref="F1731:L1731"/>
+    <mergeCell ref="F1732:L1732"/>
+    <mergeCell ref="F1733:L1733"/>
+    <mergeCell ref="C1751:E1751"/>
+    <mergeCell ref="C1752:E1752"/>
+    <mergeCell ref="C1753:E1753"/>
+    <mergeCell ref="F1749:L1749"/>
+    <mergeCell ref="F1750:L1750"/>
+    <mergeCell ref="F1751:L1751"/>
+    <mergeCell ref="F1752:L1752"/>
+    <mergeCell ref="F1753:L1753"/>
+    <mergeCell ref="C1744:E1744"/>
+    <mergeCell ref="C1745:E1745"/>
+    <mergeCell ref="C1746:E1746"/>
+    <mergeCell ref="C1748:E1748"/>
+    <mergeCell ref="F1744:L1744"/>
+    <mergeCell ref="F1745:L1745"/>
+    <mergeCell ref="F1746:L1746"/>
+    <mergeCell ref="F1748:L1748"/>
+    <mergeCell ref="F1676:L1676"/>
+    <mergeCell ref="F1677:L1677"/>
+    <mergeCell ref="F1678:L1678"/>
+    <mergeCell ref="F1679:L1679"/>
+    <mergeCell ref="F1680:L1680"/>
+    <mergeCell ref="F1682:L1682"/>
+    <mergeCell ref="F1683:L1683"/>
+    <mergeCell ref="C1749:E1749"/>
+    <mergeCell ref="C1750:E1750"/>
+    <mergeCell ref="C1739:E1739"/>
+    <mergeCell ref="C1740:E1740"/>
+    <mergeCell ref="C1741:E1741"/>
+    <mergeCell ref="C1742:E1742"/>
+    <mergeCell ref="C1743:E1743"/>
+    <mergeCell ref="F1739:L1739"/>
+    <mergeCell ref="F1740:L1740"/>
+    <mergeCell ref="F1741:L1741"/>
+    <mergeCell ref="F1742:L1742"/>
+    <mergeCell ref="F1743:L1743"/>
+    <mergeCell ref="C1735:E1735"/>
+    <mergeCell ref="C1736:E1736"/>
+    <mergeCell ref="C1737:E1737"/>
+    <mergeCell ref="C1738:E1738"/>
+    <mergeCell ref="F1735:L1735"/>
     <mergeCell ref="F1754:L1754"/>
     <mergeCell ref="C1657:L1657"/>
     <mergeCell ref="C1672:L1672"/>
@@ -22812,487 +23543,449 @@
     <mergeCell ref="F1673:L1673"/>
     <mergeCell ref="F1674:L1674"/>
     <mergeCell ref="F1675:L1675"/>
-    <mergeCell ref="F1676:L1676"/>
-    <mergeCell ref="F1677:L1677"/>
-    <mergeCell ref="F1678:L1678"/>
-    <mergeCell ref="F1679:L1679"/>
-    <mergeCell ref="F1680:L1680"/>
-    <mergeCell ref="F1682:L1682"/>
-    <mergeCell ref="F1683:L1683"/>
-    <mergeCell ref="C1749:E1749"/>
-    <mergeCell ref="C1750:E1750"/>
-    <mergeCell ref="C1751:E1751"/>
-    <mergeCell ref="C1752:E1752"/>
-    <mergeCell ref="C1753:E1753"/>
-    <mergeCell ref="F1749:L1749"/>
-    <mergeCell ref="F1750:L1750"/>
-    <mergeCell ref="F1751:L1751"/>
-    <mergeCell ref="F1752:L1752"/>
-    <mergeCell ref="F1753:L1753"/>
-    <mergeCell ref="C1744:E1744"/>
-    <mergeCell ref="C1745:E1745"/>
-    <mergeCell ref="C1746:E1746"/>
-    <mergeCell ref="C1748:E1748"/>
-    <mergeCell ref="F1744:L1744"/>
-    <mergeCell ref="F1745:L1745"/>
-    <mergeCell ref="F1746:L1746"/>
-    <mergeCell ref="F1748:L1748"/>
-    <mergeCell ref="C1739:E1739"/>
-    <mergeCell ref="C1740:E1740"/>
-    <mergeCell ref="C1741:E1741"/>
-    <mergeCell ref="C1742:E1742"/>
-    <mergeCell ref="C1743:E1743"/>
-    <mergeCell ref="F1739:L1739"/>
-    <mergeCell ref="F1740:L1740"/>
-    <mergeCell ref="F1741:L1741"/>
-    <mergeCell ref="F1742:L1742"/>
-    <mergeCell ref="F1743:L1743"/>
-    <mergeCell ref="C1735:E1735"/>
-    <mergeCell ref="C1736:E1736"/>
-    <mergeCell ref="C1737:E1737"/>
-    <mergeCell ref="C1738:E1738"/>
-    <mergeCell ref="F1735:L1735"/>
-    <mergeCell ref="F1736:L1736"/>
-    <mergeCell ref="F1737:L1737"/>
-    <mergeCell ref="F1738:L1738"/>
-    <mergeCell ref="C1730:E1730"/>
-    <mergeCell ref="C1731:E1731"/>
-    <mergeCell ref="C1732:E1732"/>
-    <mergeCell ref="C1733:E1733"/>
-    <mergeCell ref="F1730:L1730"/>
-    <mergeCell ref="F1731:L1731"/>
-    <mergeCell ref="F1732:L1732"/>
-    <mergeCell ref="F1733:L1733"/>
-    <mergeCell ref="C1724:E1724"/>
-    <mergeCell ref="C1725:E1725"/>
-    <mergeCell ref="C1726:E1726"/>
-    <mergeCell ref="C1727:E1727"/>
-    <mergeCell ref="C1728:E1728"/>
-    <mergeCell ref="F1724:L1724"/>
-    <mergeCell ref="F1725:L1725"/>
-    <mergeCell ref="F1726:L1726"/>
-    <mergeCell ref="F1727:L1727"/>
-    <mergeCell ref="F1728:L1728"/>
-    <mergeCell ref="C1719:E1719"/>
-    <mergeCell ref="C1720:E1720"/>
-    <mergeCell ref="C1721:E1721"/>
-    <mergeCell ref="C1722:E1722"/>
-    <mergeCell ref="C1723:E1723"/>
-    <mergeCell ref="F1719:L1719"/>
-    <mergeCell ref="F1720:L1720"/>
-    <mergeCell ref="F1721:L1721"/>
-    <mergeCell ref="F1722:L1722"/>
-    <mergeCell ref="F1723:L1723"/>
-    <mergeCell ref="C1714:E1714"/>
-    <mergeCell ref="C1715:E1715"/>
-    <mergeCell ref="C1717:E1717"/>
-    <mergeCell ref="C1718:E1718"/>
-    <mergeCell ref="F1714:L1714"/>
-    <mergeCell ref="F1715:L1715"/>
-    <mergeCell ref="F1717:L1717"/>
-    <mergeCell ref="F1718:L1718"/>
-    <mergeCell ref="C1709:E1709"/>
-    <mergeCell ref="C1710:E1710"/>
-    <mergeCell ref="C1711:E1711"/>
-    <mergeCell ref="C1712:E1712"/>
-    <mergeCell ref="C1713:E1713"/>
-    <mergeCell ref="F1709:L1709"/>
-    <mergeCell ref="F1710:L1710"/>
-    <mergeCell ref="F1711:L1711"/>
-    <mergeCell ref="F1712:L1712"/>
-    <mergeCell ref="F1713:L1713"/>
-    <mergeCell ref="C1704:E1704"/>
-    <mergeCell ref="C1705:E1705"/>
-    <mergeCell ref="C1706:E1706"/>
-    <mergeCell ref="C1707:E1707"/>
-    <mergeCell ref="C1708:E1708"/>
-    <mergeCell ref="F1704:L1704"/>
-    <mergeCell ref="F1705:L1705"/>
-    <mergeCell ref="F1706:L1706"/>
-    <mergeCell ref="F1707:L1707"/>
-    <mergeCell ref="F1708:L1708"/>
-    <mergeCell ref="C1699:E1699"/>
-    <mergeCell ref="C1700:E1700"/>
-    <mergeCell ref="C1701:E1701"/>
-    <mergeCell ref="C1703:E1703"/>
-    <mergeCell ref="F1699:L1699"/>
-    <mergeCell ref="F1700:L1700"/>
-    <mergeCell ref="F1701:L1701"/>
-    <mergeCell ref="F1703:L1703"/>
-    <mergeCell ref="C1694:E1694"/>
-    <mergeCell ref="C1695:E1695"/>
-    <mergeCell ref="C1696:E1696"/>
-    <mergeCell ref="C1697:E1697"/>
-    <mergeCell ref="C1698:E1698"/>
-    <mergeCell ref="F1694:L1694"/>
-    <mergeCell ref="F1695:L1695"/>
-    <mergeCell ref="F1696:L1696"/>
-    <mergeCell ref="F1697:L1697"/>
-    <mergeCell ref="F1698:L1698"/>
-    <mergeCell ref="C1689:E1689"/>
-    <mergeCell ref="C1690:E1690"/>
-    <mergeCell ref="C1691:E1691"/>
-    <mergeCell ref="C1692:E1692"/>
-    <mergeCell ref="C1693:E1693"/>
-    <mergeCell ref="F1689:L1689"/>
-    <mergeCell ref="F1690:L1690"/>
-    <mergeCell ref="F1691:L1691"/>
-    <mergeCell ref="F1692:L1692"/>
-    <mergeCell ref="F1693:L1693"/>
-    <mergeCell ref="C1684:E1684"/>
-    <mergeCell ref="C1685:E1685"/>
-    <mergeCell ref="C1686:E1686"/>
-    <mergeCell ref="C1687:E1687"/>
-    <mergeCell ref="F1684:L1684"/>
-    <mergeCell ref="F1685:L1685"/>
-    <mergeCell ref="F1686:L1686"/>
-    <mergeCell ref="F1687:L1687"/>
-    <mergeCell ref="C1679:E1679"/>
-    <mergeCell ref="C1680:E1680"/>
-    <mergeCell ref="C1682:E1682"/>
-    <mergeCell ref="C1683:E1683"/>
-    <mergeCell ref="C1674:E1674"/>
-    <mergeCell ref="C1675:E1675"/>
-    <mergeCell ref="C1676:E1676"/>
-    <mergeCell ref="C1677:E1677"/>
-    <mergeCell ref="C1678:E1678"/>
-    <mergeCell ref="C1669:E1669"/>
-    <mergeCell ref="C1670:E1670"/>
-    <mergeCell ref="C1671:E1671"/>
-    <mergeCell ref="C1673:E1673"/>
-    <mergeCell ref="C1664:E1664"/>
-    <mergeCell ref="C1665:E1665"/>
-    <mergeCell ref="C1666:E1666"/>
-    <mergeCell ref="C1667:E1667"/>
-    <mergeCell ref="C1668:E1668"/>
-    <mergeCell ref="C1654:E1654"/>
-    <mergeCell ref="F1654:L1654"/>
-    <mergeCell ref="C1655:E1655"/>
-    <mergeCell ref="F1655:L1655"/>
-    <mergeCell ref="C1656:E1656"/>
-    <mergeCell ref="F1656:L1656"/>
-    <mergeCell ref="C1658:E1658"/>
-    <mergeCell ref="F1658:L1658"/>
-    <mergeCell ref="C1659:E1659"/>
-    <mergeCell ref="F1659:L1659"/>
-    <mergeCell ref="C1660:E1660"/>
-    <mergeCell ref="F1660:L1660"/>
-    <mergeCell ref="C1661:E1661"/>
-    <mergeCell ref="F1661:L1661"/>
-    <mergeCell ref="C1662:E1662"/>
-    <mergeCell ref="C1663:E1663"/>
-    <mergeCell ref="B1174:D1174"/>
-    <mergeCell ref="E1174:K1174"/>
-    <mergeCell ref="B1175:D1175"/>
-    <mergeCell ref="E1175:K1175"/>
-    <mergeCell ref="B1176:D1176"/>
-    <mergeCell ref="E1176:K1176"/>
-    <mergeCell ref="B1171:K1171"/>
-    <mergeCell ref="B1191:K1191"/>
-    <mergeCell ref="B1169:D1169"/>
-    <mergeCell ref="E1169:K1169"/>
-    <mergeCell ref="B1170:D1170"/>
-    <mergeCell ref="E1170:K1170"/>
-    <mergeCell ref="B1172:D1172"/>
-    <mergeCell ref="E1172:K1172"/>
-    <mergeCell ref="B1173:D1173"/>
-    <mergeCell ref="E1173:K1173"/>
-    <mergeCell ref="B1181:D1181"/>
-    <mergeCell ref="E1181:K1181"/>
-    <mergeCell ref="B1182:D1182"/>
-    <mergeCell ref="E1182:K1182"/>
-    <mergeCell ref="B1183:D1183"/>
-    <mergeCell ref="E1183:K1183"/>
-    <mergeCell ref="B1184:D1184"/>
-    <mergeCell ref="E1184:K1184"/>
-    <mergeCell ref="B1164:D1164"/>
-    <mergeCell ref="E1164:K1164"/>
-    <mergeCell ref="B1165:D1165"/>
-    <mergeCell ref="E1165:K1165"/>
-    <mergeCell ref="B1166:D1166"/>
-    <mergeCell ref="E1166:K1166"/>
-    <mergeCell ref="B1167:D1167"/>
-    <mergeCell ref="E1167:K1167"/>
-    <mergeCell ref="B1168:D1168"/>
-    <mergeCell ref="E1168:K1168"/>
-    <mergeCell ref="E1159:K1159"/>
-    <mergeCell ref="B1160:D1160"/>
-    <mergeCell ref="E1160:K1160"/>
-    <mergeCell ref="B1161:D1161"/>
-    <mergeCell ref="E1161:K1161"/>
-    <mergeCell ref="B1162:D1162"/>
-    <mergeCell ref="E1162:K1162"/>
-    <mergeCell ref="B1163:D1163"/>
-    <mergeCell ref="E1163:K1163"/>
-    <mergeCell ref="B1159:D1159"/>
-    <mergeCell ref="B1195:D1195"/>
-    <mergeCell ref="E1195:K1195"/>
-    <mergeCell ref="B1196:D1196"/>
-    <mergeCell ref="E1196:K1196"/>
-    <mergeCell ref="B1197:D1197"/>
-    <mergeCell ref="E1197:K1197"/>
-    <mergeCell ref="B1198:D1198"/>
-    <mergeCell ref="E1198:K1198"/>
-    <mergeCell ref="E1190:K1190"/>
-    <mergeCell ref="B1192:D1192"/>
-    <mergeCell ref="E1192:K1192"/>
-    <mergeCell ref="B1193:D1193"/>
-    <mergeCell ref="E1193:K1193"/>
-    <mergeCell ref="B1194:D1194"/>
-    <mergeCell ref="E1194:K1194"/>
-    <mergeCell ref="B1190:D1190"/>
-    <mergeCell ref="B1185:D1185"/>
-    <mergeCell ref="E1185:K1185"/>
-    <mergeCell ref="B1186:D1186"/>
-    <mergeCell ref="E1186:K1186"/>
-    <mergeCell ref="B1187:D1187"/>
-    <mergeCell ref="E1187:K1187"/>
-    <mergeCell ref="B1188:D1188"/>
-    <mergeCell ref="E1188:K1188"/>
-    <mergeCell ref="B1189:D1189"/>
-    <mergeCell ref="E1189:K1189"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
-    <mergeCell ref="E386:K386"/>
-    <mergeCell ref="E387:K387"/>
-    <mergeCell ref="E374:K374"/>
-    <mergeCell ref="E375:K375"/>
-    <mergeCell ref="E362:K362"/>
-    <mergeCell ref="E363:K363"/>
-    <mergeCell ref="B386:D386"/>
-    <mergeCell ref="B387:D387"/>
-    <mergeCell ref="B380:D380"/>
-    <mergeCell ref="B381:D381"/>
-    <mergeCell ref="B382:D382"/>
-    <mergeCell ref="B383:D383"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="B385:D385"/>
-    <mergeCell ref="B374:D374"/>
-    <mergeCell ref="B375:D375"/>
-    <mergeCell ref="B376:D376"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="B378:D378"/>
-    <mergeCell ref="B379:D379"/>
-    <mergeCell ref="B368:D368"/>
-    <mergeCell ref="B369:D369"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="B371:D371"/>
-    <mergeCell ref="E360:K360"/>
-    <mergeCell ref="E361:K361"/>
-    <mergeCell ref="E350:K350"/>
-    <mergeCell ref="E351:K351"/>
-    <mergeCell ref="E352:K352"/>
-    <mergeCell ref="E353:K353"/>
-    <mergeCell ref="E354:K354"/>
-    <mergeCell ref="E355:K355"/>
-    <mergeCell ref="E356:K356"/>
-    <mergeCell ref="E357:K357"/>
-    <mergeCell ref="E358:K358"/>
-    <mergeCell ref="E359:K359"/>
-    <mergeCell ref="E380:K380"/>
-    <mergeCell ref="E381:K381"/>
-    <mergeCell ref="E364:K364"/>
-    <mergeCell ref="E365:K365"/>
-    <mergeCell ref="E366:K366"/>
-    <mergeCell ref="E367:K367"/>
-    <mergeCell ref="E368:K368"/>
-    <mergeCell ref="E369:K369"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="E415:K415"/>
-    <mergeCell ref="E416:K416"/>
-    <mergeCell ref="E417:K417"/>
-    <mergeCell ref="E385:K385"/>
-    <mergeCell ref="E370:K370"/>
-    <mergeCell ref="E371:K371"/>
-    <mergeCell ref="E372:K372"/>
-    <mergeCell ref="E373:K373"/>
-    <mergeCell ref="E382:K382"/>
-    <mergeCell ref="E383:K383"/>
-    <mergeCell ref="E384:K384"/>
-    <mergeCell ref="E376:K376"/>
-    <mergeCell ref="E377:K377"/>
-    <mergeCell ref="E378:K378"/>
-    <mergeCell ref="E379:K379"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="E418:K418"/>
-    <mergeCell ref="E419:K419"/>
-    <mergeCell ref="E420:K420"/>
-    <mergeCell ref="E421:K421"/>
-    <mergeCell ref="E422:K422"/>
-    <mergeCell ref="E411:K411"/>
-    <mergeCell ref="E412:K412"/>
-    <mergeCell ref="E413:K413"/>
-    <mergeCell ref="E414:K414"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:K426"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:K435"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:K427"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="E428:K428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:K429"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:K437"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:K438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:K439"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:K430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:K431"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:K436"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:K443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:K444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:K445"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:K440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:K441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:K442"/>
-    <mergeCell ref="B1137:D1137"/>
-    <mergeCell ref="E1137:K1137"/>
-    <mergeCell ref="B1138:D1138"/>
-    <mergeCell ref="E1138:K1138"/>
-    <mergeCell ref="B1139:D1139"/>
-    <mergeCell ref="E1139:K1139"/>
-    <mergeCell ref="B1140:D1140"/>
-    <mergeCell ref="E1140:K1140"/>
-    <mergeCell ref="B446:D446"/>
-    <mergeCell ref="E446:K446"/>
-    <mergeCell ref="B447:D447"/>
-    <mergeCell ref="E447:K447"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="E448:K448"/>
-    <mergeCell ref="B1132:D1132"/>
-    <mergeCell ref="E1132:K1132"/>
-    <mergeCell ref="B1133:D1133"/>
-    <mergeCell ref="E1133:K1133"/>
-    <mergeCell ref="B1134:D1134"/>
-    <mergeCell ref="E1134:K1134"/>
-    <mergeCell ref="B1135:D1135"/>
-    <mergeCell ref="E1135:K1135"/>
-    <mergeCell ref="B1136:D1136"/>
-    <mergeCell ref="E1136:K1136"/>
-    <mergeCell ref="B1149:D1149"/>
-    <mergeCell ref="E1149:K1149"/>
-    <mergeCell ref="B1150:D1150"/>
-    <mergeCell ref="E1150:K1150"/>
-    <mergeCell ref="B1151:D1151"/>
-    <mergeCell ref="E1151:K1151"/>
-    <mergeCell ref="B1152:D1152"/>
-    <mergeCell ref="E1152:K1152"/>
-    <mergeCell ref="B1144:D1144"/>
-    <mergeCell ref="E1144:K1144"/>
-    <mergeCell ref="B1145:D1145"/>
-    <mergeCell ref="E1145:K1145"/>
-    <mergeCell ref="B1146:D1146"/>
-    <mergeCell ref="E1146:K1146"/>
-    <mergeCell ref="B1147:D1147"/>
-    <mergeCell ref="E1147:K1147"/>
-    <mergeCell ref="B1148:D1148"/>
-    <mergeCell ref="E1148:K1148"/>
-    <mergeCell ref="B1210:D1210"/>
-    <mergeCell ref="E1210:K1210"/>
-    <mergeCell ref="B1211:D1211"/>
-    <mergeCell ref="E1211:K1211"/>
-    <mergeCell ref="B1212:D1212"/>
-    <mergeCell ref="E1212:K1212"/>
-    <mergeCell ref="B1213:D1213"/>
-    <mergeCell ref="E1213:K1213"/>
-    <mergeCell ref="B1214:D1214"/>
-    <mergeCell ref="E1214:K1214"/>
-    <mergeCell ref="B1215:D1215"/>
-    <mergeCell ref="E1215:K1215"/>
-    <mergeCell ref="B1216:D1216"/>
-    <mergeCell ref="E1216:K1216"/>
-    <mergeCell ref="B1217:D1217"/>
-    <mergeCell ref="E1217:K1217"/>
-    <mergeCell ref="B1218:D1218"/>
-    <mergeCell ref="E1218:K1218"/>
-    <mergeCell ref="B1219:D1219"/>
-    <mergeCell ref="E1219:K1219"/>
-    <mergeCell ref="B1220:D1220"/>
-    <mergeCell ref="E1220:K1220"/>
-    <mergeCell ref="B1221:D1221"/>
-    <mergeCell ref="E1221:K1221"/>
-    <mergeCell ref="B1222:D1222"/>
-    <mergeCell ref="E1222:K1222"/>
-    <mergeCell ref="B1223:D1223"/>
-    <mergeCell ref="E1223:K1223"/>
-    <mergeCell ref="B1224:D1224"/>
-    <mergeCell ref="E1224:K1224"/>
-    <mergeCell ref="B1225:D1225"/>
-    <mergeCell ref="E1225:K1225"/>
-    <mergeCell ref="B1226:D1226"/>
-    <mergeCell ref="E1226:K1226"/>
-    <mergeCell ref="B1227:D1227"/>
-    <mergeCell ref="E1227:K1227"/>
-    <mergeCell ref="B1228:D1228"/>
-    <mergeCell ref="E1228:K1228"/>
-    <mergeCell ref="B1229:D1229"/>
-    <mergeCell ref="E1229:K1229"/>
-    <mergeCell ref="B1230:D1230"/>
-    <mergeCell ref="E1230:K1230"/>
-    <mergeCell ref="B1231:D1231"/>
-    <mergeCell ref="E1231:K1231"/>
-    <mergeCell ref="B1232:D1232"/>
-    <mergeCell ref="E1232:K1232"/>
-    <mergeCell ref="B1233:D1233"/>
-    <mergeCell ref="E1233:K1233"/>
-    <mergeCell ref="B1234:D1234"/>
-    <mergeCell ref="E1234:K1234"/>
-    <mergeCell ref="B1240:D1240"/>
-    <mergeCell ref="E1240:K1240"/>
-    <mergeCell ref="B1235:D1235"/>
-    <mergeCell ref="E1235:K1235"/>
-    <mergeCell ref="B1236:D1236"/>
-    <mergeCell ref="E1236:K1236"/>
-    <mergeCell ref="B1237:D1237"/>
-    <mergeCell ref="E1237:K1237"/>
-    <mergeCell ref="B1238:D1238"/>
-    <mergeCell ref="E1238:K1238"/>
-    <mergeCell ref="B1239:D1239"/>
-    <mergeCell ref="E1239:K1239"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" s="26" customFormat="1"/>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>